--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>Doi</t>
   </si>
@@ -400,6 +400,51 @@
   </si>
   <si>
     <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,  Paolo%Comassi%NULL%1,  Luca%Adriani%NULL%1,  Giulio%Bergamaschini%NULL%1,  Elena%Bertin%NULL%1,  Raffaella%Borromeo%NULL%1,  Serena%Corti%NULL%1,  Federica%De Petri%NULL%1,  Francesco%Dolci%NULL%1,  Attilio%Galmozzi%NULL%1,  Alberto%Gigliotti%NULL%1,  Livio%Gualdoni%NULL%1,  Claudia%Guerra%NULL%1,  Anna%Khosthiova%NULL%1,  Giovanni%Leati%NULL%1,  Giuseppe%Lupi%NULL%1,  Paolo%Moscato%NULL%1,  Vittorio%Perotti%NULL%1,  Miriam%Piantelli%NULL%1,  Alain%Ruini%NULL%1,  Silvia%Sportelli%NULL%1,  Micaela%Susca%NULL%1,  Carmine%Troiano%NULL%1,  Giampaolo%Benelli%NULL%1,  Elisabetta%Buscarini%NULL%1,  Ciro%Canetta%NULL%1,  Guido%Merli%NULL%1,  Alessandro%Scartabellati%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,  Emna%Ennouri%NULL%1,  Rayane%Nachi%NULL%1,  Khaoula%Meddeb%NULL%1,  Jihene%Mahmoud%NULL%1,  Nesrine%Thabet%NULL%1,  Salma%Jerbi%NULL%1,  Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,  Eleni%Xourgia%NULL%1,  Theodora K.%Ntaidou%NULL%1,  Dimitris%Zervakis%NULL%1,  Eleni E.%Magira%NULL%1,  Anastasia%Kotanidou%NULL%1,  Christina%Routsi%NULL%1,  Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,  Carina%Mostert%NULL%1,  Corinna%Hentschker%NULL%1,  Thomas%Voshaar%NULL%1,  Jürgen%Malzahn%NULL%1,  Gerhard%Schillinger%NULL%1,  Jürgen%Klauber%NULL%1,  Uwe%Janssens%NULL%1,  Gernot%Marx%NULL%1,  Steffen%Weber-Carstens%NULL%1,  Stefan%Kluge%NULL%2,  Michael%Pfeifer%NULL%1,  Linus%Grabenhenrich%NULL%1,  Tobias%Welte%NULL%1,  Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,  David%Hajage%NULL%2,  David%Hajage%NULL%0,  Alexandre%Demoule%NULL%1,  Tài%Pham%NULL%1,  Alain%Combes%NULL%1,  Martin%Dres%NULL%1,  Said%Lebbah%NULL%1,  Antoine%Kimmoun%NULL%1,  Alain%Mercat%NULL%1,  Gaëtan%Beduneau%NULL%1,  Jessica%Palmyre%NULL%1,  Margot%Prevost%NULL%1,  Pierre%Asfar%NULL%1,  François%Beloncle%NULL%1,  Julien%Demiselle%NULL%1,  Arthur%Pavot%NULL%1,  Xavier%Monnet%NULL%1,  Christian%Richard%NULL%1,  Julien%Mayaux%NULL%1,  Alexandra%Beurton%NULL%1,  Richard%Descamps%NULL%1,  Aurélie%Joret%NULL%1,  Damien%Du Cheyron%NULL%1,  Frédéric%Pene%NULL%1,  Jean-Daniel%Chiche%NULL%1,  Mathieu%Jozwiak%NULL%1,  Paul%Jaubert%NULL%1,  Guillaume%Voiriot%NULL%1,  Muriel%Fartoukh%NULL%1,  Marion%Teulier%NULL%1,  Clarisse%Blayau%NULL%1,  Erwen%L’Her%NULL%1,  Cécile%Aubron%NULL%1,  Laetitia%Bodenes%NULL%1,  Nicolas%Ferriere%NULL%1,  Johann%Auchabie%NULL%1,  Anthony%Le Meur%NULL%1,  Sylvain%Pignal%NULL%1,  Thierry%Mazzoni%NULL%1,  Jean-Pierre%Quenot%NULL%1,  Pascal%Andreu%NULL%1,  Jean-Baptiste%Roudau%NULL%1,  Marie%Labruyère%NULL%1,  Saad%Nseir%NULL%2,  Sébastien%Preau%NULL%1,  Julien%Poissy%NULL%2,  Daniel%Mathieu%NULL%3,  Sarah%Benhamida%NULL%1,  Rémi%Paulet%NULL%1,  Nicolas%Roucaud%NULL%1,  Martial%Thyrault%NULL%1,  Florence%Daviet%NULL%1,  Sami%Hraiech%NULL%1,  Gabriel%Parzy%NULL%1,  Aude%Sylvestre%NULL%1,  Sébastien%Jochmans%NULL%1,  Anne-Laure%Bouilland%NULL%1,  Mehran%Monchi%NULL%1,  Marc%Danguy des Déserts%NULL%1,  Quentin%Mathais%NULL%1,  Gwendoline%Rager%NULL%1,  Pierre%Pasquier%NULL%1,  Reignier%Jean%NULL%1,  Seguin%Amélie%NULL%1,  Garret%Charlotte%NULL%1,  Canet%Emmanuel%NULL%1,  Jean%Dellamonica%NULL%1,  Clément%Saccheri%NULL%1,  Romain%Lombardi%NULL%1,  Yanis%Kouchit%NULL%1,  Sophie%Jacquier%NULL%1,  Armelle%Mathonnet%NULL%1,  Mai-Ahn%Nay%NULL%1,  Isabelle%Runge%NULL%1,  Frédéric%Martino%NULL%1,  Laure%Flurin%NULL%1,  Amélie%Rolle%NULL%1,  Michel%Carles%NULL%1,  Rémi%Coudroy%NULL%1,  Arnaud W.%Thille%NULL%1,  Jean-Pierre%Frat%NULL%1,  Maeva%Rodriguez%NULL%1,  Pascal%Beuret%NULL%1,  Audrey%Tientcheu%NULL%1,  Arthur%Vincent%NULL%1,  Florian%Michelin%NULL%1,  Marie Anne%Melone%NULL%1,  Maxime%Gauzi%NULL%1,  Arnaud%Guilbert%NULL%1,  Geoffrey%Kouadri%NULL%1,  Valérie%Gissot%NULL%1,  Stéphan%Ehrmann%NULL%1,  Charlotte%Salmon-Gandonnière%NULL%1,  Djlali%Elaroussi%NULL%1,  Agathe%Delbove%NULL%1,  Yannick%Fedun%NULL%1,  Julien%Huntzinger%NULL%1,  Eddy%Lebas%NULL%1,  Grâce%Kisoka%NULL%1,  Céline%Grégoire%NULL%1,  Stella%Marchetta%NULL%1,  Bernard%Lambermont%NULL%1,  Laurent%Argaud%NULL%1,  Thomas%Baudry%NULL%1,  Pierre-Jean%Bertrand%NULL%1,  Auguste%Dargent%NULL%1,  Christophe%Guitton%NULL%1,  Nicolas%Chudeau%NULL%1,  Mickaël%Landais%NULL%1,  Cédric%Darreau%NULL%1,  Alexis%Ferre%NULL%1,  Antoine%Gros%NULL%1,  Guillaume%Lacave%NULL%1,  Fabrice%Bruneel%NULL%1,  Mathilde%Neuville%NULL%1,  Jérôme%Devaquet%NULL%1,  Guillaume%Tachon%NULL%1,  Richard%Gallot%NULL%1,  Riad%Chelha%NULL%1,  Arnaud%Galbois%NULL%1,  Anne%Jallot%NULL%1,  Ludivine Chalumeau%Lemoine%NULL%1,  Khaldoun%Kuteifan%NULL%1,  Valentin%Pointurier%NULL%1,  Louise-Marie%Jandeaux%NULL%1,  Joy%Mootien%NULL%1,  Charles%Damoisel%NULL%1,  Benjamin%Sztrymf%NULL%1,  Juliette%Chommeloux%NULL%1,  Charles Edouard%Luyt%NULL%1,  Frédérique%Schortgen%NULL%1,  Leon%Rusel%NULL%1,  Camille%Jung%NULL%1,  Florent%Gobert%NULL%1,  Damien%Vimpere%NULL%1,  Lionel%Lamhaut%NULL%1,  Bertrand%Sauneuf%NULL%1,  Liliane%Charrier%NULL%1,  Julien%Calus%NULL%1,  Isabelle%Desmeules%NULL%1,  Benoît%Painvin%NULL%1,  Jean-Marc%Tadie%NULL%1,  Vincent%Castelain%NULL%1,  Baptiste%Michard%NULL%1,  Jean-Etienne%Herbrecht%NULL%1,  Mathieu%Baldacini%NULL%1,  Nicolas%Weiss%NULL%1,  Sophie%Demeret%NULL%1,  Clémence%Marois%NULL%1,  Benjamin%Rohaut%NULL%1,  Pierre-Henri%Moury%NULL%1,  Anne-Charlotte%Savida%NULL%1,  Emmanuel%Couadau%NULL%1,  Mathieu%Série%NULL%1,  Nica%Alexandru%NULL%1,  Cédric%Bruel%NULL%1,  Candice%Fontaine%NULL%1,  Sonia%Garrigou%NULL%1,  Juliette Courtiade%Mahler%NULL%1,  Maxime%Leclerc%NULL%1,  Michel%Ramakers%NULL%1,  Pierre%Garçon%NULL%1,  Nicole%Massou%NULL%1,  Ly Phacs%Van Vong%NULL%1,  Juliane%Sen%NULL%1,  Nolwenn%Lucas%NULL%1,  Franck%Chemouni%NULL%1,  Annabelle%Stoclin%NULL%1,  Alexandre%Avenel%NULL%1,  Henri%Faure%NULL%1,  Angélie%Gentilhomme%NULL%1,  Sylvie%Ricome%NULL%1,  Paul%Abraham%NULL%1,  Céline%Monard%NULL%1,  Julien%Textoris%NULL%1,  Thomas%Rimmele%NULL%1,  Florent%Montini%NULL%1,  Gabriel%Lejour%NULL%1,  Thierry%Lazard%NULL%1,  Isabelle%Etienney%NULL%1,  Younes%Kerroumi%NULL%1,  Dupuis%Claire%NULL%1,  Bereiziat Marine%Coupez%NULL%1,  Thouy%François%NULL%1,  Clémet%Hoffmann%NULL%1,  Nicolas%Donat%NULL%1,  Violaine%Muller%NULL%1,  Thibault%Martinez%NULL%1,  Audrey%Jacquot%NULL%1,  Matthieu%Mattei%NULL%1,  Bruno%Levy%NULL%1,  Ramin%Ravan%NULL%1,  Loïc%Dopeux%NULL%1,  Jean-Mathias%Liteaudon%NULL%1,  Delphine%Roux%NULL%1,  Brice%Rey%NULL%1,  Radu%Anghel%NULL%1,  Deborah%Schenesse%NULL%1,  Vincent%Gevrey%NULL%1,  Jermy%Castanera%NULL%1,  Philippe%Petua%NULL%1,  Benjamin%Madeux%NULL%1,  Otto%Hartman%NULL%1,  Michael%Piagnerelli%NULL%1,  Anne%Joosten%NULL%1,  Cinderella%Noel%NULL%1,  Patrick%Biston%NULL%1,  Thibaut%Noel%NULL%1,  Gurvan L. E.%Bouar%NULL%1,  Messabi%Boukhanza%NULL%1,  Elsa%Demarest%NULL%1,  Marie-France%Bajolet%NULL%1,  Nathanaël%Charrier%NULL%1,  Audrey%Quenet%NULL%1,  Cécile%Zylberfajn%NULL%1,  Nicolas%Dufour%NULL%1,  Buno%Mégarbane%NULL%1,  Sqébastian%Voicu%NULL%1,  Nicolas%Deye%NULL%1,  Isabelle%Malissin%NULL%1,  François%Legay%NULL%1,  Matthieu%Debarre%NULL%1,  Nicolas%Barbarot%NULL%1,  Pierre%Fillatre%NULL%1,  Bertrand%Delord%NULL%1,  Thomas%Laterrade%NULL%1,  Tahar%Saghi%NULL%1,  Wilfried%Pujol%NULL%1,  Pierre Julien%Cungi%NULL%1,  Pierre%Esnault%NULL%1,  Mickael%Cardinale%NULL%1,  Vivien%Hong Tuan Ha%NULL%1,  Grégory%Fleury%NULL%1,  Marie-Ange%Brou%NULL%1,  Daniel%Zafimahazo%NULL%1,  David%Tran-Van%NULL%1,  Patrick%Avargues%NULL%1,  Lisa%Carenco%NULL%1,  Nicolas%Robin%NULL%1,  Alexandre%Ouali%NULL%1,  Lucie%Houdou%NULL%1,  Christophe%Le Terrier%NULL%1,  Noémie%Suh%NULL%1,  Steve%Primmaz%NULL%1,  Jérome%Pugin%NULL%1,  Emmanuel%Weiss%NULL%1,  Tobias%Gauss%NULL%1,  Jean-Denis%Moyer%NULL%1,  Catherine%Paugam-Burtz%NULL%1,  Béatrice%La Combe%NULL%1,  Rolland%Smonig%NULL%1,  Jade%Violleau%NULL%1,  Pauline%Cailliez%NULL%1,  Jonathan%Chelly%NULL%1,  Antoine%Marchalot%NULL%1,  Cécile%Saladin%NULL%1,  Christelle%Bigot%NULL%1,  Pierre-Marie%Fayolle%NULL%1,  Jules%Fatséas%NULL%1,  Amr%Ibrahim%NULL%1,  Dabor%Resiere%NULL%1,  Rabih%Hage%NULL%1,  Clémentine%Cholet%NULL%1,  Marie%Cantier%NULL%1,  Pierre%Trouiller%NULL%1,  Philippe%Montravers%NULL%1,  Brice%Lortat-Jacob%NULL%1,  Sebastien%Tanaka%NULL%1,  Alexy%Tran-Dinh%NULL%1,  Jacques%Duranteau%NULL%1,  Anatole%Harrois%NULL%1,  Guillaume%Dubreuil%NULL%1,  Marie%Werner%NULL%1,  Anne%Godier%NULL%1,  Sophie%Hamada%NULL%1,  Diane%Zlotnik%NULL%1,  Hélène%Nougue%NULL%1,  Armand%Mekontso-Dessap%NULL%1,  Guillaume%Carteaux%NULL%1,  Keyvan%Razazi%NULL%1,  Nicolas%De Prost%NULL%1,  Nicolas%Mongardon%NULL%1,  Olivier%Langeron%NULL%1,  Eric%Levesque%NULL%1,  Arié%Attias%NULL%1,  Charles%de Roquetaillade%NULL%1,  Benjamin G.%Chousterman%NULL%1,  Alexandre%Mebazaa%NULL%1,  Etienne%Gayat%NULL%1,  Marc%Garnier%NULL%1,  Emmanuel%Pardo%NULL%1,  Lea%Satre-Buisson%NULL%1,  Christophe%Gutton%NULL%1,  Elise%Yvin%NULL%1,  Clémence%Marcault%NULL%1,  Elie%Azoulay%NULL%1,  Michael%Darmon%NULL%1,  Nicolas%Bonnet%NULL%1,  Nathan%Ebstein%NULL%1,  Stéphane%Gaudry%NULL%1,  Yves%Cohen%NULL%1,   Hafid%Ait-Oufella%NULL%1,  Geoffroy%Hariri%NULL%1,  Tomas%Urbina%NULL%1,  Sandie%Mazerand%NULL%1,  Nicholas%Heming%NULL%1,  Francesca%Santi%NULL%1,  Pierre%Moine%NULL%1,  Djillali%Annane%NULL%1,  Adrien%Bouglé%NULL%1,  Edris%Omar%NULL%1,  Aymeric%Lancelot%NULL%1,  Emmanuelle%Begot%NULL%1,  Gaétan%Plantefeve%NULL%1,  Damien%Contou%NULL%1,  Hervé%Mentec%NULL%1,  Olivier%Pajot%NULL%1,  Stanislas%Faguer%NULL%1,  Olivier%Cointault%NULL%1,  Laurence%Lavayssiere%NULL%1,  Marie-Béatrice%Nogier%NULL%1,  Matthieu%Jamme%NULL%1,  Claire%Pichereau%NULL%1,  Jan%Hayon%NULL%1,  Hervé%Outin%NULL%1,  François%Dépret%NULL%1,  Maxime%Coutrot%NULL%1,  Maité%Chaussard%NULL%1,  Lucie%Guillemet%NULL%1,  Pierre%Goffin%NULL%1,  Romain%Thouny%NULL%1,  Julien%Guntz%NULL%1,  Laurent%Jadot%NULL%1,  Romain%Persichini%NULL%1,  Vanessa%Jean-Michel%NULL%1,  Hugues%Georges%NULL%1,  Thomas%Caulier%NULL%1,  Gaël%Pradel%NULL%1,  Marie-Hélène%Hausermann%NULL%1,  ThiMy Hue%Nguyen-Valat%NULL%1,  Michel%Boudinaud%NULL%1,  Emmanuel%Vivier%NULL%1,  Sylvène%Rosseli%NULL%1,  Gaël%Bourdin%NULL%1,  Christian%Pommier%NULL%1,  Marc%Vinclair%NULL%1,  Simon%Poignant%NULL%1,  Sandrine%Mons%NULL%1,  Wulfran%Bougouin%NULL%1,  Franklin%Bruna%NULL%1,  Quentin%Maestraggi%NULL%1,  Christian%Roth%NULL%1,  Laurent%Bitker%NULL%1,  François%Dhelft%NULL%1,  Justine%Bonnet-Chateau%NULL%1,  Mathilde%Filippelli%NULL%1,  Tristan%Morichau-Beauchant%NULL%1,  Stéphane%Thierry%NULL%1,  Charlotte%Le Roy%NULL%1,  Mélanie%Saint Jouan%NULL%1,  Bruno%Goncalves%NULL%1,  Aurélien%Mazeraud%NULL%1,  Matthieu%Daniel%NULL%1,  Tarek%Sharshar%NULL%1,  Cyril%Cadoz%NULL%1,  Rostane%Gaci%NULL%1,  Sébastien%Gette%NULL%1,  Guillaune%Louis%NULL%1,  Sophe-Caroline%Sacleux%NULL%1,  Marie-Amélie%Ordan%NULL%1,  Aurélie%Cravoisy%NULL%1,  Marie%Conrad%NULL%1,  Guilhem%Courte%NULL%1,  Sébastien%Gibot%NULL%1,  Younès%Benzidi%NULL%1,  Claudia%Casella%NULL%1,  Laurent%Serpin%NULL%1,  Jean-Lou%Setti%NULL%1,  Marie-Catherine%Besse%NULL%1,  Anna%Bourreau%NULL%1,  Jérôme%Pillot%NULL%1,  Caroline%Rivera%NULL%1,  Camille%Vinclair%NULL%1,  Marie-Aline%Robaux%NULL%1,  Chloé%Achino%NULL%1,  Marie-Charlotte%Delignette%NULL%1,  Tessa%Mazard%NULL%1,  Frédéric%Aubrun%NULL%1,  Bruno%Bouchet%NULL%1,  Aurélien%Frérou%NULL%1,  Laura%Muller%NULL%1,  Charlotte%Quentin%NULL%1,  Samuel%Degoul%NULL%1,  Xavier%Stihle%NULL%1,  Claude%Sumian%NULL%1,  Nicoletta%Bergero%NULL%1,  Bernard%Lanaspre%NULL%1,  Hervé%Quintard%NULL%1,  Eve Marie%Maiziere%NULL%1,  Pierre-Yves%Egreteau%NULL%1,  Guillaume%Leloup%NULL%1,  Florin%Berteau%NULL%1,  Marjolaine%Cottrel%NULL%1,  Marie%Bouteloup%NULL%1,  Matthieu%Jeannot%NULL%1,  Quentin%Blanc%NULL%1,  Julien%Saison%NULL%1,  Isabelle%Geneau%NULL%1,  Romaric%Grenot%NULL%1,  Abdel%Ouchike%NULL%1,  Pascal%Hazera%NULL%1,  Anne-Lyse%Masse%NULL%1,  Suela%Demiri%NULL%1,  Corinne%Vezinet%NULL%1,  Elodie%Baron%NULL%1,  Déborah%Benchetrit%NULL%1,  Antoine%Monsel%NULL%1,  Grégoire%Trebbia%NULL%1,  Emmanuelle%Schaack%NULL%1,  Raphaël%Lepecq%NULL%1,  Mathieu%Bobet%NULL%1,  Christophe%Vinsonneau%NULL%1,  Thibault%Dekeyser%NULL%1,  Quentin%Delforge%NULL%1,  Imen%Rahmani%NULL%1,  Bérengère%Vivet%NULL%1,  Jonathan%Paillot%NULL%1,  Lucie%Hierle%NULL%1,  Claire%Chaignat%NULL%1,  Sarah%Valette%NULL%1,  Benoït%Her%NULL%1,  Jennifier%Brunet%NULL%1,  Mathieu%Page%NULL%1,  Fabienne%Boiste%NULL%1,  Anthony%Collin%NULL%1,  Florent%Bavozet%NULL%2,  Aude%Garin%NULL%1,  Mohamed%Dlala%NULL%1,  Kais%Mhamdi%NULL%1,  Bassem%Beilouny%NULL%1,  Alexandra%Lavalard%NULL%1,  Severine%Perez%NULL%1,  Benoit%Veber%NULL%1,  Pierre-Gildas%Guitard%NULL%1,  Philippe%Gouin%NULL%1,  Anna%Lamacz%NULL%1,  Fabienne%Plouvier%NULL%1,  Bertrand P.%Delaborde%NULL%1,  Aïssa%Kherchache%NULL%1,  Amina%Chaalal%NULL%1,  Jean-Damien%Ricard%NULL%1,  Marc%Amouretti%NULL%1,  Santiago%Freita-Ramos%NULL%1,  Damien%Roux%NULL%1,  Jean-Michel%Constantin%NULL%1,  Mona%Assefi%NULL%1,  Marine%Lecore%NULL%1,  Agathe%Selves%NULL%1,  Florian%Prevost%NULL%1,  Christian%Lamer%NULL%1,  Ruiying%Shi%NULL%1,  Lyes%Knani%NULL%1,  Sébastien%Pili-Floury%NULL%1,  Lucie%Vettoretti%NULL%1,  Michael%Levy%NULL%1,  Lucile%Marsac%NULL%1,  Stéphane%Dauger%NULL%1,  Sophie%Guilmin-Crépon%NULL%1,  Jean-Baptiste%Putegnat%NULL%1,  Frédérique%Bayle%NULL%1,  Maya%Perrou%NULL%1,  Ghyslaine%Thao%NULL%1,  Guillaume%Géri%NULL%1,  Cyril%Charron%NULL%1,  Xavier%Repessé%NULL%1,  Antoine%Vieillard-Baron%NULL%1,  Mathieu%Guilbart%NULL%1,  Pierre-Alexandre%Roger%NULL%1,  Sébastien%Hinard%NULL%1,  Pierre-Yves%Macq%NULL%1,  Kevin%Chaulier%NULL%1,  Sylvie%Goutte%NULL%1,  Patrick%Chillet%NULL%1,  Anaïs%Pitta%NULL%1,  Barbara%Darjent%NULL%1,  Amandine%Bruneau%NULL%1,  Sigismond%Lasocki%NULL%1,  Maxime%Leger%NULL%1,  Soizic%Gergaud%NULL%1,  Pierre%Lemarie%NULL%1,  Nicolas%Terzi%NULL%1,  Carole%Schwebel%NULL%1,  Anaïs%Dartevel%NULL%1,  Louis-Marie%Galerneau%NULL%1,  Jean-Luc%Diehl%NULL%1,  Caroline%Hauw-Berlemont%NULL%1,  Nicolas%Péron%NULL%1,  Emmanuel%Guérot%NULL%1,  Abolfazl Mohebbi%Amoli%NULL%1,  Michel%Benhamou%NULL%1,  Jean-Pierre%Deyme%NULL%1,  Olivier%Andremont%NULL%1,  Diane%Lena%NULL%1,  Julien%Cady%NULL%1,  Arnaud%Causeret%NULL%1,  Arnaud%De La Chapelle%NULL%1,  Christophe%Cracco%NULL%1,  Stéphane%Rouleau%NULL%1,  David%Schnell%NULL%1,  Cécile%Lory%NULL%1,  Thibault%Chapelle%NULL%1,  Vincent%Bruckert%NULL%1,  Julie%Garcia%NULL%1,  Abdlazize%Sahraoui%NULL%1,  Nathalie%Abbosh%NULL%1,  Caroline%Bornstain%NULL%1,  Pierre%Pernet%NULL%1,  Florent%Poirson%NULL%1,  Ahmed%Pasem%NULL%1,  Philippe%Karoubi%NULL%1,  Virginie%Poupinel%NULL%1,  Caroline%Gauthier%NULL%1,  François%Bouniol%NULL%1,  Philippe%Feuchere%NULL%1,  Florent%Bavozet%NULL%0,  Anne%Heron%NULL%1,  Serge%Carreira%NULL%1,  Malo%Emery%NULL%1,  Anne%Le Floch%NULL%1,  Luana%Giovannangeli%NULL%1,  Nicolas%Herzog%NULL%1,  Christophe%Giacardi%NULL%1,  Thibaut%Baudic%NULL%1,  Chloé%Thill%NULL%1,  Florence%Tubach%NULL%1,  Olivier%Lesieur%NULL%1,  Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,  Max W.%Adelman%NULL%2,  Maxwell A.%Hockstein%NULL%1,  Chad J.%Robichaux%NULL%1,  Johnathan A.%Edwards%NULL%1,  Jane C.%Fazio%NULL%1,  James M.%Blum%NULL%3,  Craig S.%Jabaley%NULL%2,  Mark%Caridi-Scheible%NULL%2,  Greg S.%Martin%NULL%2,  David J.%Murphy%NULL%3,  Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,  Keum-Ju%Choi%NULL%1,  Sun Ha%Choi%NULL%1,  Shin Yup%Lee%NULL%1,  Kyung Chan%Kim%NULL%1,  Eun Jin%Kim%NULL%1,  Jaehee%Lee%NULL%2,  Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,  Siddique%Chaudhary%NULL%1,  Kevin%Bryan Lo%NULL%2,  Kevin%Bryan Lo%NULL%0,  Robert%DeJoy%NULL%1,  Fahad%Gul%NULL%1,  Ricardo%Torres%NULL%1,  Neal%Chaisson%NULL%2,  Neal%Chaisson%NULL%0,  Gabriel%Patarroyo-Aponte%NULL%2,  Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,  Bruno L.%Ferreyro%NULL%2,  Bruno L.%Ferreyro%NULL%0,  Federico%Angriman%NULL%1,  María%Hernández-Sanz%NULL%2,  Egoitz%Arruti%NULL%1,  Antoni%Torres%NULL%2,  Jesús%Villar%NULL%1,  Laurent%Brochard%NULL%1,  Carlos%Ferrando%NULL%2,  Ricard%Mellado-Artigas%NULL%1,  María%Hernández-Sanz%NULL%0,  Carlos%Ferrando%NULL%0,  Marina%Vendrell%NULL%1,  Gerard%Sánchez-Etayo%NULL%1,  Amalia%Alcón%NULL%1,  Isabel%Belda%NULL%1,  Mercé%Agustí%NULL%1,  Albert%Carramiñana%NULL%1,  Isabel%Gracia%NULL%1,  Miriam%Panzeri%NULL%1,  Irene%León%NULL%1,  Jaume%Balust%NULL%1,  Ricard%Navarro%NULL%2,  María José%Arguís%NULL%1,  María José%Carretero%NULL%1,  Cristina%Ibáñez%NULL%1,  Juan%Perdomo%NULL%1,  Antonio%López%NULL%1,  Manuel%López-Baamonde%NULL%1,  Tomás%Cuñat%NULL%1,  Marta%Ubré%NULL%1,  Antonio%Ojeda%NULL%1,  Andrea%Calvo%NULL%1,  Eva%Rivas%NULL%1,  Paola%Hurtado%NULL%1,  Roger%Pujol%NULL%1,  Nuria%Martín%NULL%1,  Javier%Tercero%NULL%1,  Pepe%Sanahuja%NULL%1,  Marta%Magaldi%NULL%1,  Miquel%Coca%NULL%1,  Elena%del Rio%NULL%1,  Julia%Martínez-Ocon%NULL%1,  Paula%Masgoret%NULL%1,  Monserrat%Tio%NULL%1,  Angel%Caballero%NULL%1,  Raquel%Risco%NULL%1,  Raquel%Bergé%NULL%1,  Lidia%Gómez%NULL%1,  Nicolás%de Riva%NULL%1,  Ana%Ruiz%NULL%1,  Beatriz%Tena%NULL%1,  Sebastián%Jaramillo%NULL%1,  José María%Balibrea%NULL%1,  Francisco Borja de Borja%de Lacy%NULL%1,  Ana%Otero%NULL%1,  Ainitze%Ibarzabal%NULL%1,  Raquel%Bravo%NULL%1,  Anna%Carreras%NULL%1,  Daniel%Martín-Barreda%NULL%1,  Alfonso Jesús%Alias%NULL%1,  Mariano%Balaguer%NULL%1,  Jorge%Aliaga%NULL%1,  Alex%Almuedo%NULL%1,  Joan Ramón%Alonso%NULL%1,  Rut%Andrea%NULL%1,  Gerard Sergi%Angelès%NULL%1,   Marilyn%Arias%NULL%1,  Fátima%Aziz%NULL%1,  Joan Ramon%Badía%NULL%1,  Enric%Barbeta%NULL%1,  Toni%Torres%NULL%1,  Guillem%Batiste%NULL%1,  Pau%Benet%NULL%1,  Xavi%Borrat%NULL%1,  María%Borrell%NULL%1,  Ernest%Bragulat%NULL%1,  Inmaculada%Carmona%NULL%1,  Manuel%Castellà%NULL%1,  Pedro%Castro%NULL%1,  Joan%Ceravalls%NULL%1,  Oscar%Comino%NULL%1,  Claudia%Cucciniello%NULL%1,  Clàudia%De Deray%NULL%1,  Oriol%De Diego%NULL%1,  Paula%De la Matta%NULL%1,  Marta%Farrero%NULL%1,  Javier%Fernández%NULL%1,  Sara%Fernández%NULL%1,  Anna%Fernández%NULL%1,  Miquel%Ferrer%NULL%1,  Ana%Fervienza%NULL%1,  María%Tallo Forga%NULL%1,  Daniel%Forné%NULL%1,  Clàudia%Galán%NULL%1,  Andrea%Gómez%NULL%1,  Eduard%Guasch%NULL%1,  María%Hernández-Tejero%NULL%1,  Adriana%Jacas%NULL%1,  Beltrán%Jiménez%NULL%1,  Pere%Leyes%NULL%1,  Teresa%López%NULL%1,  José Antonio%Martínez%NULL%1,  Graciela%Martínez-Pallí%NULL%1,  Jordi%Mercadal%NULL%1,  Guido%Muñoz%NULL%1,  José%Muñoz%NULL%1,  Ricard%Navarro%NULL%0,  Josep María%Nicolás%NULL%1,  José Tomás%Ortiz%NULL%1,  Anna%Peiró%NULL%1,  Manuel%Pérez%NULL%1,  Esteban%Poch%NULL%1,  Margarida%Pujol%NULL%1,  Eduard%Quintana%NULL%1,  Bartomeu%Ramis%NULL%1,  Enric%Reverter%NULL%1,  Irene%Rovira%NULL%1,  Pablo%Ruiz%NULL%1,  Elena%Sandoval%NULL%1,  Stefan%Schneider%NULL%1,  Oriol%Sibila%NULL%1,  Carla%Solé%NULL%1,  Alex%Soriano%NULL%1,  Dolors%Soy%NULL%1,  M.%Suárez%NULL%1,  Adrián%Téllez%NULL%1,  Néstor David%Toapanta%NULL%1,  Antoni%Torres%NULL%0,  Xavier%Urra%NULL%1,  César%Aldecoa%NULL%1,  Alicia%Bordell%NULL%1,  Silvia%Martín%NULL%1,  Judith%Andrés%NULL%1,  Alberto Martínez%Ruiz%NULL%1,  Gonzalo Tamayo%Medel%NULL%1,  Iñaki Bilbao Bilbao%Villasante%NULL%1,  Fernando Iturri%Clavero%NULL%1,  Covadonga Peralta%Álvarez%NULL%1,  Julia T.%Herrera Díez%NULL%1,  Andrea García%Trancho%NULL%1,  Iñaki Sainz %Mandiola%NULL%1,  Carmen Ruano%Suarez%NULL%1,  Angela Ruiz%Bocos%NULL%1,  Eneritz Urrutia%Izagirre%NULL%1,  Pablo Ortiz%de Urbina Fernández%NULL%1,  Naiara Apodaka%López%NULL%1,  Leire Prieto%Molano%NULL%1,  Eunate Ganuza%Martínez%NULL%1,  Iratxe Vallinas%Hidalgo%NULL%1,  Karmele%de Orte Sancho%NULL%1,  Celia González%Paniagua%NULL%1,  Gemma Ortiz%Labrador%NULL%1,  Mireia Pérez%Larrañaga%NULL%1,  Marta López%Miguelez%NULL%1,  Estíbaliz Bárcena%Andrés%NULL%1,  Erik Urutxurtu%Laureano%NULL%1,  Maria Jesús Maroño%Boedo%NULL%1,  Blanca Escontrela%Rodríguez%NULL%1,  Aitziber Ereñozaga%Camiruaga%NULL%1,  Deiene Lasuen%Aguirre%NULL%1,  Ainhoa Zabal%Maeztu%NULL%1,  Ane Guereca%Gala%NULL%1,  Iker Castelo%Korro%NULL%1,  Andrés Álvarez%Campo%NULL%1,  Alejandro Carcelen%Viana%NULL%1,  Alejandro Alberdi%Enríquez%NULL%1,  Xabier Ormazábal%Rementeria%NULL%1,  Alberto Sánchez%Campos%NULL%1,  Rosa Gutiérrez%Rico%NULL%1,  Pablo Barbier%Damborenea%NULL%1,  Marta Guerenabarrena%Momeñe%NULL%1,  Borja Cuesta%Ruiz%NULL%1,  Alejandro López%Rico%NULL%1,  Ana Rojo%Polo%NULL%1,  Covadonga García%Grijelmo%NULL%1,  Mikel Celorrio%Reta%NULL%1,  Eneko Martín%Arroyo%NULL%1,  Leire Artaza%Aparicio%NULL%1,  Iñaki Ituarte%Aspiazu%NULL%1,  Ane Igeregi%Basabe%NULL%1,  Itxaso Merino%Julian%NULL%1,  Isabel Diaz%Rico%NULL%1,  Maria Paz%Martínez%NULL%1,  Ramón%Adalia Bartolomé%NULL%1,  Luigi%Zattera%NULL%1,  Irina Adalid%Hernandez%NULL%1,  Leire Larrañaga%Altuna%NULL%1,  Aina Serrallonga%Castells%NULL%1,  Adriana Vílchez%Garcia%NULL%1,  María%Núñez%NULL%1,  Lorena%Román%NULL%1,  Isabel Ramos%Delgado%NULL%1,  Adela Benítez-Cano%Martínez%NULL%1,  Mireia Chanzá%Albert%NULL%1,  Juan Carlos Álvarez%García%NULL%1,  Luis Aguilera%Cuchillo%NULL%1,  Sandra Beltrán%de Heredia%NULL%1,  Jesús Carazo%Cordobés%NULL%1,  Carlos Alberto García%Bernedo%NULL%1,  Fernando Escolano%Villén%NULL%1,  Francisco Javier Redondo%Calvo%NULL%1,  Rubén Villazala%González%NULL%1,  Victor Baladron%González%NULL%1,  Patricia%Faba%NULL%1,  Omar%Montenegro%NULL%1,  Natalia Bejarano%Ramírez%NULL%1,  Sergio Marcos%Contreras%NULL%1,  Alejandro Garcia%Rodríguez%NULL%1,  Saleta Rey%Vázquez%NULL%1,  Cristina Garcia%Pérez%NULL%1,  Eva Higuera%Miguelez%NULL%1,  Irene Pérez%Blanco%NULL%1,  David García%Rivera%NULL%1,  Ane Martín%de la Fuente%NULL%1,  Marta%Pardo%NULL%1,  Vanessa%Rodriguez%NULL%1,  Unai%Bengoetxea%NULL%1,  Fernando%Ramasco%NULL%1,  Sheila Olga Santidrián%Bernal%NULL%1,  Alvar Santa Cruz%Hernando%NULL%1,  Antonio Planas%Roca%NULL%1,  Carlos Figueroa%Yusta%NULL%1,  Esther García%Villabona%NULL%1,  Carmen Vallejo%Lantero%NULL%1,  Eva Patiño%Rodriguez%NULL%1,  Alvaro Esquivel%Toledo%NULL%1,  David Arribas%Méndez%NULL%1,  Mar Orts%Rodriguez%NULL%1,  Rosa Méndez%Hernández%NULL%1,  Jesús Nieves%Alonso%NULL%1,  Inés Imaz%Artazcoz%NULL%1,  Sonia Expósito%Carazo%NULL%1,  Carlos Román%Guerrero%NULL%1,  Elena Rojo%Rodríguez%NULL%1,  Ricardo Moreno%González%NULL%1,  Julia Hernando%Santos%NULL%1,  Jara Torrente%Pérez%NULL%1,  Esperanza Mata%Mena%NULL%1,  Manuel José Muñoz%Martínez%NULL%1,  Enrique Alday%Muñoz%NULL%1,  Patricia Martin%Serrano%NULL%1,  Laura Cotter%Muñoz%NULL%1,  Amadea%Mjertan%NULL%1,  Diego Gutierrez%Martínez%NULL%1,  Carmen Rodríguez%García%NULL%1,  Olaya Alonso%Viejo%NULL%1,  Juan Alvarez%Pereira%NULL%1,  Ana Carmona%Bonet%NULL%1,  Diana Parrado%López%NULL%1,  Eva%de Dios Tomas%NULL%1,  Rafael Martín%Celemin%NULL%1,  María Luisa Meilan%Paz%NULL%1,  Luis Quecedo%Gutiérrez%NULL%1,  Noemí Diaz%Velasco%NULL%1,  Gabriel Martin%Hernández%NULL%1,  Francisco Garcia%del Corral%NULL%1,  Gloria Hernandez%Arias%NULL%1,  David Rodriguez%Cuesta%NULL%1,  Ana Gómez%Rice%NULL%1,  Encarna Mateos%Sevillano%NULL%1,  Natalia Olmos%Molpeceres%NULL%1,  Beatriz%Domínguez%NULL%1,  Ana Vázquez%Lima%NULL%1,  Ángel%Candela%NULL%1,  Ismael A. Acevedo%Bambaren%NULL%1,  Maria Isabel Albala%Blanco%NULL%1,  Paloma Alonso%Montoiro%NULL%1,  Fernando Álvarez%Utrera%NULL%1,  Juan Avellanosa%Esteruelas%NULL%1,  Amal Azzam%López%NULL%1,  Alberto José%Balvis%NULL%1,  Balvis Tommaso%Bardi%NULL%1,  María Beltrán%Martín%NULL%1,  Jacobo Benatar%Haserfaty%NULL%1,  Alberto Berruezo%Camacho%NULL%1,  Laura Betolaza%Weimer%NULL%1,  María%del Mar Carbonell Soto%NULL%1,  Cristina Carrasco%Seral%NULL%1,  Cristina Cerro %Zaballos%NULL%1,  Elizabeth Claros%Llamas%NULL%1,  Pilar Coleta%Orduna%NULL%1,  Ingrid P. Cortes%Forero%NULL%1,  Pascual Agustín Crespo%Aliseda%NULL%1,  María Angélica%de Pablo Pajares%NULL%1,  Yolanda Díez%Remesal%NULL%1,  Trinidad Dorado%Díaz%NULL%1,  Noemí Echevarría%Blasco%NULL%1,  María Elena Elías%Martín%NULL%1,  Javier Felices%Triviño%NULL%1,  Natalia Fernández%López%NULL%1,  Cristina Fernández%Martín%NULL%1,  Natalia Ferreiro%Pozuelo%NULL%1,  Luis Gajate%Martín%NULL%1,  Clara Gallego%Santos%NULL%1,  Diego Gil%Mayo%NULL%1,  María Gómez%Rojo%NULL%1,  Claudia González%Cibrián%NULL%1,  Elena Herrera%López%NULL%1,  Borja Hinojal%Olmedillo%NULL%1,  Berta Iglesias%Gallego%NULL%1,  Sassan%Khonsari%NULL%1,  María Nuria Mane%Ruiz%NULL%1,  María Manzanero%Arroyo%NULL%1,  Ana María Mariscal%Ortega%NULL%1,  Sara Martín%Burcio%NULL%1,  María%del Carmen Martín González%NULL%1,  Ascensión Martín%Grande%NULL%1,  Jose Juan Martín%López%NULL%1,  Cecilia Martín%Rabes%NULL%1,  Marcos Martínez%Borja%NULL%1,  Nilda Martínez%Castro%NULL%1,  Adolfo Martínez%Pérez%NULL%1,  Snejana%Matcan%NULL%1,  Cristina Medrano%Viñas%NULL%1,  Lisset Miguel%Herrera%NULL%1,  Adrián Mira%Betancur%NULL%1,  María Montiel%Carbajo%NULL%1,  Javier Moya%Moradas%NULL%1,  Lorena Muñoz%Pérez%NULL%1,  Mónica Nuñez%Murias%NULL%1,  Eva Ordiales%González%NULL%1,  Óscar Ordoñez%Recio%NULL%1,  Miguel Ángel Palomero%Rodriguez%NULL%1,  Diego Parise%Roux%NULL%1,  Lucia Pereira%Torres%NULL%1,  David Pestaña%Lagunas%NULL%1,  Juana María Pinto%Corraliza%NULL%1,  Marian Prieto%Rodrigo%NULL%1,  Inmaculada Rodriguez%Diaz-Regaño%NULL%1,  David Rodriguez%Esteban%NULL%1,  Víctor Rojas%Pernia%NULL%1,  Álvaro Ruigómez%Saiz%NULL%1,  Bárbara Saavedra%Villarino%NULL%1,  Noemí Samaranch%Palero%NULL%1,  Gloria Santos%Pérez%NULL%1,  Jaume Serna%Pérez%NULL%1,  Ana Belén Serrano%Romero%NULL%1,  Jesús Tercero%López%NULL%1,  Carlos Tiscar%García%NULL%1,  Marta%de la Torre Concostrina%NULL%1,  Eva María Ureta%Mesa%NULL%1,  Eva Velasco%Olarte%NULL%1,  Judith Villahoz%Martínez%NULL%1,  Raúl Villalaba%Palacios%NULL%1,  Gema Villanueva%García%NULL%1,  Cristina Vogel%de Medeiros%NULL%1,  Soraya Gholamian%Ovejero%NULL%1,  Marta Vicente%Orgaz%NULL%1,  Patricia Lloreda%Herradon%NULL%1,  Cristina Crespo%Gómez%NULL%1,  Tatiana%Sarmiento-Trujillo%NULL%1,  Noemí García%Medina%NULL%1,  María Martínez%García%NULL%1,  Carles Espinós%Ramírez%NULL%1,  Nabil Mouhaffel%Rivero%NULL%1,  Jose Antonio Bernia%Gil%NULL%1,  Sonsoles%Martín%NULL%1,  María Victoria%Moral%NULL%1,  Josefina%Galán%NULL%1,  Pilar%Paniagua%NULL%1,  Sergio%Pérez%NULL%1,  Albert%Bainac%NULL%1,  Ana%Arias%NULL%1,  Elsa%Ramil%NULL%1,  Jorge%Escudero%NULL%1,  Pablo%Monedero%NULL%1,  Carmen%Cara%NULL%1,  Andrea%Lara%NULL%1,  Elena Mendez%Martínez%NULL%1,  Jorge%Mendoza%NULL%1,  Íñigo Rubio%Baines%NULL%1,  Carmen Sala%Trull%NULL%1,  Pablo Montero%López%NULL%1,  Alfredo%Gea%NULL%1,  Alejandro%Montero%NULL%1,  Rocío Armero%Ibañez%NULL%1,  Juan Vicente Llau%Pitarch%NULL%1,  Fernando Rauer%Alcóver%NULL%1,  Cristina Álvarez%Herreros%NULL%1,  Cyntia Sánchez%Martín%NULL%1,  Lucía López Ocáriz%Olmos%NULL%1,  Marta Navas%Moruno%NULL%1,  Fernando García%Montoto%NULL%1,  M. F. Mirón%Rodriguez%NULL%1,  Laura Fuentes%Coco%NULL%1,  Cristina Hernández%Gamito%NULL%1,  Antonio Barba%Orejudo%NULL%1,  Luis Gerardo Smith%Vielma%NULL%1,  Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,  Marta Donoso%Domínguez%NULL%1,  Silvia Esquivel%Ramírez%NULL%1,  José Antonio%Carbonell%NULL%1,  Berta Monleón%López%NULL%1,  Sara%Martínez-Castro%NULL%1,  Gerardo%Aguilar%NULL%1,  María Gestal Pablo%Casas%NULL%1,  Angel Outeiro%Rosato%NULL%1,  Andrea Naveiro%Pan%NULL%1,  María Alonso%Portela%NULL%1,  Adrián García%Romar%NULL%1,  Eva Mosquera%Rodríguez%NULL%1,  Diego Ruanova%Seijo%NULL%1,  Pablo Rama%Maceiras%NULL%1,  Francisco%Castro-Ceoane%NULL%1,  Esther Moreno%López%NULL%1,  Sergio%Gil%NULL%1,  Julia Guillén%Antón%NULL%1,  Patricia García-Consuegra%Tirado%NULL%1,  Aurora Callau%Calvo%NULL%1,  Laura Forés%Lisbona%NULL%1,  María Carbonell%Romero%NULL%1,  Belén Albericio%Gil%NULL%1,  Laura Pradal%Jarne%NULL%1,  María Soria%Lozano%NULL%1,  Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,  Navjot Ariyana%Kaur%NULL%1,  Daniel%Sacher%NULL%1,  Oisin%O’Corragain%NULL%1,  Daniel%Salerno%NULL%1,  Parag%Desai%NULL%1,  Sameep%Sehgal%NULL%1,  Matthew%Gordon%NULL%2,  Rohit%Gupta%NULL%2,  Nathaniel%Marchetti%NULL%1,  Huaqing%Zhao%NULL%2,  Nicole%Patlakh%NULL%2,  Gerard J.%Criner%NULL%1,  Temple%University%NULL%1,  NULL%NULL%NULL%23]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,  Dominik%Jarczak%NULL%1,  Liina%Thasler%NULL%1,  Martin%Bachmann%NULL%1,  Frank%Schulte%NULL%1,  Berthold%Bein%NULL%1,  Christian Friedrich%Weber%NULL%1,  Ulrich%Schäfer%NULL%1,  Carsten%Veit%NULL%1,  Hans-Peter%Hauber%NULL%1,  Sebastian%Kopp%NULL%1,  Karsten%Sydow%NULL%1,  Andreas%de Weerth%NULL%1,  Marc%Bota%NULL%1,  Rüdiger%Schreiber%NULL%1,  Oliver%Detsch%NULL%1,  Jan-Peer%Rogmann%NULL%1,  Daniel%Frings%NULL%1,  Barbara%Sensen%NULL%1,  Christoph%Burdelski%NULL%1,  Olaf%Boenisch%NULL%1,  Axel%Nierhaus%NULL%1,  Geraldine%de Heer%NULL%1,  Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -778,6 +823,9 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -793,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -803,6 +851,9 @@
       </c>
       <c r="H2" t="s">
         <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -829,6 +880,9 @@
       </c>
       <c r="H3" t="s">
         <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -845,7 +899,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -855,6 +909,9 @@
       </c>
       <c r="H4" t="s">
         <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -871,7 +928,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -881,6 +938,9 @@
       </c>
       <c r="H5" t="s">
         <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -897,7 +957,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -907,6 +967,9 @@
       </c>
       <c r="H6" t="s">
         <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -923,7 +986,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -933,6 +996,9 @@
       </c>
       <c r="H7" t="s">
         <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -960,6 +1026,9 @@
       <c r="H8" t="s">
         <v>45</v>
       </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -975,7 +1044,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -985,6 +1054,9 @@
       </c>
       <c r="H9" t="s">
         <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -1001,7 +1073,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1011,6 +1083,9 @@
       </c>
       <c r="H10" t="s">
         <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -1027,7 +1102,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1037,6 +1112,9 @@
       </c>
       <c r="H11" t="s">
         <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -1053,7 +1131,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1063,6 +1141,9 @@
       </c>
       <c r="H12" t="s">
         <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -1079,7 +1160,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -1089,6 +1170,9 @@
       </c>
       <c r="H13" t="s">
         <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="143">
   <si>
     <t>Doi</t>
   </si>
@@ -445,6 +445,174 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,  Dominik%Jarczak%NULL%1,  Liina%Thasler%NULL%1,  Martin%Bachmann%NULL%1,  Frank%Schulte%NULL%1,  Berthold%Bein%NULL%1,  Christian Friedrich%Weber%NULL%1,  Ulrich%Schäfer%NULL%1,  Carsten%Veit%NULL%1,  Hans-Peter%Hauber%NULL%1,  Sebastian%Kopp%NULL%1,  Karsten%Sydow%NULL%1,  Andreas%de Weerth%NULL%1,  Marc%Bota%NULL%1,  Rüdiger%Schreiber%NULL%1,  Oliver%Detsch%NULL%1,  Jan-Peer%Rogmann%NULL%1,  Daniel%Frings%NULL%1,  Barbara%Sensen%NULL%1,  Christoph%Burdelski%NULL%1,  Olaf%Boenisch%NULL%1,  Axel%Nierhaus%NULL%1,  Geraldine%de Heer%NULL%1,  Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,   Paolo%Comassi%NULL%1,   Luca%Adriani%NULL%1,   Giulio%Bergamaschini%NULL%1,   Elena%Bertin%NULL%1,   Raffaella%Borromeo%NULL%1,   Serena%Corti%NULL%1,   Federica%De Petri%NULL%1,   Francesco%Dolci%NULL%1,   Attilio%Galmozzi%NULL%1,   Alberto%Gigliotti%NULL%1,   Livio%Gualdoni%NULL%1,   Claudia%Guerra%NULL%1,   Anna%Khosthiova%NULL%1,   Giovanni%Leati%NULL%1,   Giuseppe%Lupi%NULL%1,   Paolo%Moscato%NULL%1,   Vittorio%Perotti%NULL%1,   Miriam%Piantelli%NULL%1,   Alain%Ruini%NULL%1,   Silvia%Sportelli%NULL%1,   Micaela%Susca%NULL%1,   Carmine%Troiano%NULL%1,   Giampaolo%Benelli%NULL%1,   Elisabetta%Buscarini%NULL%1,   Ciro%Canetta%NULL%1,   Guido%Merli%NULL%1,   Alessandro%Scartabellati%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,   Emna%Ennouri%NULL%1,   Rayane%Nachi%NULL%1,   Khaoula%Meddeb%NULL%1,   Jihene%Mahmoud%NULL%1,   Nesrine%Thabet%NULL%1,   Salma%Jerbi%NULL%1,   Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,   Eleni%Xourgia%NULL%1,   Theodora K.%Ntaidou%NULL%1,   Dimitris%Zervakis%NULL%1,   Eleni E.%Magira%NULL%1,   Anastasia%Kotanidou%NULL%1,   Christina%Routsi%NULL%1,   Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,   Carina%Mostert%NULL%1,   Corinna%Hentschker%NULL%1,   Thomas%Voshaar%NULL%1,   Jürgen%Malzahn%NULL%1,   Gerhard%Schillinger%NULL%1,   Jürgen%Klauber%NULL%1,   Uwe%Janssens%NULL%1,   Gernot%Marx%NULL%1,   Steffen%Weber-Carstens%NULL%1,   Stefan%Kluge%NULL%0,   Michael%Pfeifer%NULL%1,   Linus%Grabenhenrich%NULL%1,   Tobias%Welte%NULL%1,   Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,   David%Hajage%NULL%2,   David%Hajage%NULL%0,   Alexandre%Demoule%NULL%1,   Tài%Pham%NULL%1,   Alain%Combes%NULL%1,   Martin%Dres%NULL%1,   Said%Lebbah%NULL%1,   Antoine%Kimmoun%NULL%1,   Alain%Mercat%NULL%1,   Gaëtan%Beduneau%NULL%1,   Jessica%Palmyre%NULL%1,   Margot%Prevost%NULL%1,   Pierre%Asfar%NULL%1,   François%Beloncle%NULL%1,   Julien%Demiselle%NULL%1,   Arthur%Pavot%NULL%1,   Xavier%Monnet%NULL%1,   Christian%Richard%NULL%1,   Julien%Mayaux%NULL%1,   Alexandra%Beurton%NULL%1,   Richard%Descamps%NULL%1,   Aurélie%Joret%NULL%1,   Damien%Du Cheyron%NULL%1,   Frédéric%Pene%NULL%1,   Jean-Daniel%Chiche%NULL%1,   Mathieu%Jozwiak%NULL%1,   Paul%Jaubert%NULL%1,   Guillaume%Voiriot%NULL%1,   Muriel%Fartoukh%NULL%1,   Marion%Teulier%NULL%1,   Clarisse%Blayau%NULL%1,   Erwen%L’Her%NULL%1,   Cécile%Aubron%NULL%1,   Laetitia%Bodenes%NULL%1,   Nicolas%Ferriere%NULL%1,   Johann%Auchabie%NULL%1,   Anthony%Le Meur%NULL%1,   Sylvain%Pignal%NULL%1,   Thierry%Mazzoni%NULL%1,   Jean-Pierre%Quenot%NULL%1,   Pascal%Andreu%NULL%1,   Jean-Baptiste%Roudau%NULL%1,   Marie%Labruyère%NULL%1,   Saad%Nseir%NULL%0,   Sébastien%Preau%NULL%1,   Julien%Poissy%NULL%0,   Daniel%Mathieu%NULL%0,   Sarah%Benhamida%NULL%1,   Rémi%Paulet%NULL%1,   Nicolas%Roucaud%NULL%1,   Martial%Thyrault%NULL%1,   Florence%Daviet%NULL%1,   Sami%Hraiech%NULL%1,   Gabriel%Parzy%NULL%1,   Aude%Sylvestre%NULL%1,   Sébastien%Jochmans%NULL%1,   Anne-Laure%Bouilland%NULL%1,   Mehran%Monchi%NULL%1,   Marc%Danguy des Déserts%NULL%1,   Quentin%Mathais%NULL%1,   Gwendoline%Rager%NULL%1,   Pierre%Pasquier%NULL%1,   Reignier%Jean%NULL%1,   Seguin%Amélie%NULL%1,   Garret%Charlotte%NULL%1,   Canet%Emmanuel%NULL%1,   Jean%Dellamonica%NULL%1,   Clément%Saccheri%NULL%1,   Romain%Lombardi%NULL%1,   Yanis%Kouchit%NULL%1,   Sophie%Jacquier%NULL%1,   Armelle%Mathonnet%NULL%1,   Mai-Ahn%Nay%NULL%1,   Isabelle%Runge%NULL%1,   Frédéric%Martino%NULL%1,   Laure%Flurin%NULL%1,   Amélie%Rolle%NULL%1,   Michel%Carles%NULL%1,   Rémi%Coudroy%NULL%1,   Arnaud W.%Thille%NULL%1,   Jean-Pierre%Frat%NULL%1,   Maeva%Rodriguez%NULL%1,   Pascal%Beuret%NULL%1,   Audrey%Tientcheu%NULL%1,   Arthur%Vincent%NULL%1,   Florian%Michelin%NULL%1,   Marie Anne%Melone%NULL%1,   Maxime%Gauzi%NULL%1,   Arnaud%Guilbert%NULL%1,   Geoffrey%Kouadri%NULL%1,   Valérie%Gissot%NULL%1,   Stéphan%Ehrmann%NULL%1,   Charlotte%Salmon-Gandonnière%NULL%1,   Djlali%Elaroussi%NULL%1,   Agathe%Delbove%NULL%1,   Yannick%Fedun%NULL%1,   Julien%Huntzinger%NULL%1,   Eddy%Lebas%NULL%1,   Grâce%Kisoka%NULL%1,   Céline%Grégoire%NULL%1,   Stella%Marchetta%NULL%1,   Bernard%Lambermont%NULL%1,   Laurent%Argaud%NULL%1,   Thomas%Baudry%NULL%1,   Pierre-Jean%Bertrand%NULL%1,   Auguste%Dargent%NULL%1,   Christophe%Guitton%NULL%1,   Nicolas%Chudeau%NULL%1,   Mickaël%Landais%NULL%1,   Cédric%Darreau%NULL%1,   Alexis%Ferre%NULL%1,   Antoine%Gros%NULL%1,   Guillaume%Lacave%NULL%1,   Fabrice%Bruneel%NULL%1,   Mathilde%Neuville%NULL%1,   Jérôme%Devaquet%NULL%1,   Guillaume%Tachon%NULL%1,   Richard%Gallot%NULL%1,   Riad%Chelha%NULL%1,   Arnaud%Galbois%NULL%1,   Anne%Jallot%NULL%1,   Ludivine Chalumeau%Lemoine%NULL%1,   Khaldoun%Kuteifan%NULL%1,   Valentin%Pointurier%NULL%1,   Louise-Marie%Jandeaux%NULL%1,   Joy%Mootien%NULL%1,   Charles%Damoisel%NULL%1,   Benjamin%Sztrymf%NULL%2,   Juliette%Chommeloux%NULL%1,   Charles Edouard%Luyt%NULL%1,   Frédérique%Schortgen%NULL%1,   Leon%Rusel%NULL%1,   Camille%Jung%NULL%1,   Florent%Gobert%NULL%1,   Damien%Vimpere%NULL%1,   Lionel%Lamhaut%NULL%1,   Bertrand%Sauneuf%NULL%1,   Liliane%Charrier%NULL%1,   Julien%Calus%NULL%1,   Isabelle%Desmeules%NULL%1,   Benoît%Painvin%NULL%1,   Jean-Marc%Tadie%NULL%1,   Vincent%Castelain%NULL%1,   Baptiste%Michard%NULL%1,   Jean-Etienne%Herbrecht%NULL%1,   Mathieu%Baldacini%NULL%1,   Nicolas%Weiss%NULL%1,   Sophie%Demeret%NULL%1,   Clémence%Marois%NULL%1,   Benjamin%Rohaut%NULL%1,   Pierre-Henri%Moury%NULL%1,   Anne-Charlotte%Savida%NULL%1,   Emmanuel%Couadau%NULL%1,   Mathieu%Série%NULL%1,   Nica%Alexandru%NULL%1,   Cédric%Bruel%NULL%1,   Candice%Fontaine%NULL%1,   Sonia%Garrigou%NULL%1,   Juliette Courtiade%Mahler%NULL%1,   Maxime%Leclerc%NULL%1,   Michel%Ramakers%NULL%1,   Pierre%Garçon%NULL%1,   Nicole%Massou%NULL%1,   Ly Phacs%Van Vong%NULL%1,   Juliane%Sen%NULL%1,   Nolwenn%Lucas%NULL%1,   Franck%Chemouni%NULL%1,   Annabelle%Stoclin%NULL%1,   Alexandre%Avenel%NULL%1,   Henri%Faure%NULL%1,   Angélie%Gentilhomme%NULL%1,   Sylvie%Ricome%NULL%1,   Paul%Abraham%NULL%1,   Céline%Monard%NULL%1,   Julien%Textoris%NULL%1,   Thomas%Rimmele%NULL%1,   Florent%Montini%NULL%1,   Gabriel%Lejour%NULL%1,   Thierry%Lazard%NULL%1,   Isabelle%Etienney%NULL%1,   Younes%Kerroumi%NULL%1,   Dupuis%Claire%NULL%1,   Bereiziat Marine%Coupez%NULL%1,   Thouy%François%NULL%1,   Clémet%Hoffmann%NULL%1,   Nicolas%Donat%NULL%1,   Violaine%Muller%NULL%1,   Thibault%Martinez%NULL%1,   Audrey%Jacquot%NULL%1,   Matthieu%Mattei%NULL%1,   Bruno%Levy%NULL%1,   Ramin%Ravan%NULL%1,   Loïc%Dopeux%NULL%1,   Jean-Mathias%Liteaudon%NULL%1,   Delphine%Roux%NULL%1,   Brice%Rey%NULL%1,   Radu%Anghel%NULL%1,   Deborah%Schenesse%NULL%1,   Vincent%Gevrey%NULL%1,   Jermy%Castanera%NULL%1,   Philippe%Petua%NULL%1,   Benjamin%Madeux%NULL%1,   Otto%Hartman%NULL%1,   Michael%Piagnerelli%NULL%1,   Anne%Joosten%NULL%1,   Cinderella%Noel%NULL%1,   Patrick%Biston%NULL%1,   Thibaut%Noel%NULL%1,   Gurvan L. E.%Bouar%NULL%1,   Messabi%Boukhanza%NULL%1,   Elsa%Demarest%NULL%1,   Marie-France%Bajolet%NULL%1,   Nathanaël%Charrier%NULL%1,   Audrey%Quenet%NULL%1,   Cécile%Zylberfajn%NULL%1,   Nicolas%Dufour%NULL%1,   Buno%Mégarbane%NULL%1,   Sqébastian%Voicu%NULL%1,   Nicolas%Deye%NULL%1,   Isabelle%Malissin%NULL%1,   François%Legay%NULL%1,   Matthieu%Debarre%NULL%1,   Nicolas%Barbarot%NULL%1,   Pierre%Fillatre%NULL%1,   Bertrand%Delord%NULL%1,   Thomas%Laterrade%NULL%1,   Tahar%Saghi%NULL%1,   Wilfried%Pujol%NULL%1,   Pierre Julien%Cungi%NULL%1,   Pierre%Esnault%NULL%1,   Mickael%Cardinale%NULL%1,   Vivien%Hong Tuan Ha%NULL%1,   Grégory%Fleury%NULL%1,   Marie-Ange%Brou%NULL%1,   Daniel%Zafimahazo%NULL%1,   David%Tran-Van%NULL%1,   Patrick%Avargues%NULL%1,   Lisa%Carenco%NULL%1,   Nicolas%Robin%NULL%1,   Alexandre%Ouali%NULL%1,   Lucie%Houdou%NULL%1,   Christophe%Le Terrier%NULL%1,   Noémie%Suh%NULL%1,   Steve%Primmaz%NULL%1,   Jérome%Pugin%NULL%1,   Emmanuel%Weiss%NULL%1,   Tobias%Gauss%NULL%1,   Jean-Denis%Moyer%NULL%1,   Catherine%Paugam-Burtz%NULL%1,   Béatrice%La Combe%NULL%1,   Rolland%Smonig%NULL%1,   Jade%Violleau%NULL%1,   Pauline%Cailliez%NULL%1,   Jonathan%Chelly%NULL%1,   Antoine%Marchalot%NULL%1,   Cécile%Saladin%NULL%1,   Christelle%Bigot%NULL%1,   Pierre-Marie%Fayolle%NULL%1,   Jules%Fatséas%NULL%1,   Amr%Ibrahim%NULL%1,   Dabor%Resiere%NULL%1,   Rabih%Hage%NULL%1,   Clémentine%Cholet%NULL%1,   Marie%Cantier%NULL%1,   Pierre%Trouiller%NULL%1,   Philippe%Montravers%NULL%1,   Brice%Lortat-Jacob%NULL%1,   Sebastien%Tanaka%NULL%1,   Alexy%Tran-Dinh%NULL%1,   Jacques%Duranteau%NULL%1,   Anatole%Harrois%NULL%1,   Guillaume%Dubreuil%NULL%1,   Marie%Werner%NULL%1,   Anne%Godier%NULL%1,   Sophie%Hamada%NULL%1,   Diane%Zlotnik%NULL%1,   Hélène%Nougue%NULL%1,   Armand%Mekontso-Dessap%NULL%1,   Guillaume%Carteaux%NULL%1,   Keyvan%Razazi%NULL%1,   Nicolas%De Prost%NULL%1,   Nicolas%Mongardon%NULL%1,   Olivier%Langeron%NULL%1,   Eric%Levesque%NULL%1,   Arié%Attias%NULL%1,   Charles%de Roquetaillade%NULL%1,   Benjamin G.%Chousterman%NULL%1,   Alexandre%Mebazaa%NULL%1,   Etienne%Gayat%NULL%1,   Marc%Garnier%NULL%1,   Emmanuel%Pardo%NULL%1,   Lea%Satre-Buisson%NULL%1,   Christophe%Gutton%NULL%1,   Elise%Yvin%NULL%1,   Clémence%Marcault%NULL%1,   Elie%Azoulay%NULL%1,   Michael%Darmon%NULL%1,   Nicolas%Bonnet%NULL%1,   Nathan%Ebstein%NULL%1,   Stéphane%Gaudry%NULL%1,   Yves%Cohen%NULL%1,    Hafid%Ait-Oufella%NULL%1,   Geoffroy%Hariri%NULL%1,   Tomas%Urbina%NULL%1,   Sandie%Mazerand%NULL%1,   Nicholas%Heming%NULL%1,   Francesca%Santi%NULL%1,   Pierre%Moine%NULL%1,   Djillali%Annane%NULL%1,   Adrien%Bouglé%NULL%1,   Edris%Omar%NULL%1,   Aymeric%Lancelot%NULL%1,   Emmanuelle%Begot%NULL%1,   Gaétan%Plantefeve%NULL%1,   Damien%Contou%NULL%1,   Hervé%Mentec%NULL%1,   Olivier%Pajot%NULL%1,   Stanislas%Faguer%NULL%1,   Olivier%Cointault%NULL%1,   Laurence%Lavayssiere%NULL%1,   Marie-Béatrice%Nogier%NULL%1,   Matthieu%Jamme%NULL%1,   Claire%Pichereau%NULL%1,   Jan%Hayon%NULL%1,   Hervé%Outin%NULL%1,   François%Dépret%NULL%1,   Maxime%Coutrot%NULL%1,   Maité%Chaussard%NULL%1,   Lucie%Guillemet%NULL%1,   Pierre%Goffin%NULL%1,   Romain%Thouny%NULL%1,   Julien%Guntz%NULL%1,   Laurent%Jadot%NULL%1,   Romain%Persichini%NULL%1,   Vanessa%Jean-Michel%NULL%1,   Hugues%Georges%NULL%1,   Thomas%Caulier%NULL%1,   Gaël%Pradel%NULL%1,   Marie-Hélène%Hausermann%NULL%1,   ThiMy Hue%Nguyen-Valat%NULL%1,   Michel%Boudinaud%NULL%1,   Emmanuel%Vivier%NULL%1,   Sylvène%Rosseli%NULL%1,   Gaël%Bourdin%NULL%1,   Christian%Pommier%NULL%1,   Marc%Vinclair%NULL%1,   Simon%Poignant%NULL%1,   Sandrine%Mons%NULL%1,   Wulfran%Bougouin%NULL%1,   Franklin%Bruna%NULL%1,   Quentin%Maestraggi%NULL%1,   Christian%Roth%NULL%1,   Laurent%Bitker%NULL%1,   François%Dhelft%NULL%1,   Justine%Bonnet-Chateau%NULL%1,   Mathilde%Filippelli%NULL%1,   Tristan%Morichau-Beauchant%NULL%1,   Stéphane%Thierry%NULL%1,   Charlotte%Le Roy%NULL%1,   Mélanie%Saint Jouan%NULL%1,   Bruno%Goncalves%NULL%1,   Aurélien%Mazeraud%NULL%1,   Matthieu%Daniel%NULL%1,   Tarek%Sharshar%NULL%1,   Cyril%Cadoz%NULL%1,   Rostane%Gaci%NULL%1,   Sébastien%Gette%NULL%1,   Guillaune%Louis%NULL%1,   Sophe-Caroline%Sacleux%NULL%1,   Marie-Amélie%Ordan%NULL%1,   Aurélie%Cravoisy%NULL%1,   Marie%Conrad%NULL%1,   Guilhem%Courte%NULL%1,   Sébastien%Gibot%NULL%1,   Younès%Benzidi%NULL%1,   Claudia%Casella%NULL%1,   Laurent%Serpin%NULL%1,   Jean-Lou%Setti%NULL%1,   Marie-Catherine%Besse%NULL%1,   Anna%Bourreau%NULL%1,   Jérôme%Pillot%NULL%1,   Caroline%Rivera%NULL%1,   Camille%Vinclair%NULL%1,   Marie-Aline%Robaux%NULL%1,   Chloé%Achino%NULL%1,   Marie-Charlotte%Delignette%NULL%1,   Tessa%Mazard%NULL%1,   Frédéric%Aubrun%NULL%1,   Bruno%Bouchet%NULL%1,   Aurélien%Frérou%NULL%1,   Laura%Muller%NULL%1,   Charlotte%Quentin%NULL%1,   Samuel%Degoul%NULL%1,   Xavier%Stihle%NULL%1,   Claude%Sumian%NULL%1,   Nicoletta%Bergero%NULL%1,   Bernard%Lanaspre%NULL%1,   Hervé%Quintard%NULL%1,   Eve Marie%Maiziere%NULL%1,   Pierre-Yves%Egreteau%NULL%1,   Guillaume%Leloup%NULL%1,   Florin%Berteau%NULL%1,   Marjolaine%Cottrel%NULL%1,   Marie%Bouteloup%NULL%1,   Matthieu%Jeannot%NULL%1,   Quentin%Blanc%NULL%1,   Julien%Saison%NULL%1,   Isabelle%Geneau%NULL%1,   Romaric%Grenot%NULL%1,   Abdel%Ouchike%NULL%1,   Pascal%Hazera%NULL%1,   Anne-Lyse%Masse%NULL%1,   Suela%Demiri%NULL%1,   Corinne%Vezinet%NULL%1,   Elodie%Baron%NULL%1,   Déborah%Benchetrit%NULL%1,   Antoine%Monsel%NULL%1,   Grégoire%Trebbia%NULL%1,   Emmanuelle%Schaack%NULL%1,   Raphaël%Lepecq%NULL%1,   Mathieu%Bobet%NULL%1,   Christophe%Vinsonneau%NULL%1,   Thibault%Dekeyser%NULL%1,   Quentin%Delforge%NULL%1,   Imen%Rahmani%NULL%1,   Bérengère%Vivet%NULL%1,   Jonathan%Paillot%NULL%1,   Lucie%Hierle%NULL%1,   Claire%Chaignat%NULL%1,   Sarah%Valette%NULL%1,   Benoït%Her%NULL%1,   Jennifier%Brunet%NULL%1,   Mathieu%Page%NULL%1,   Fabienne%Boiste%NULL%1,   Anthony%Collin%NULL%1,   Florent%Bavozet%NULL%2,   Aude%Garin%NULL%1,   Mohamed%Dlala%NULL%1,   Kais%Mhamdi%NULL%1,   Bassem%Beilouny%NULL%1,   Alexandra%Lavalard%NULL%1,   Severine%Perez%NULL%1,   Benoit%Veber%NULL%1,   Pierre-Gildas%Guitard%NULL%1,   Philippe%Gouin%NULL%1,   Anna%Lamacz%NULL%1,   Fabienne%Plouvier%NULL%1,   Bertrand P.%Delaborde%NULL%1,   Aïssa%Kherchache%NULL%1,   Amina%Chaalal%NULL%1,   Jean-Damien%Ricard%NULL%2,   Marc%Amouretti%NULL%1,   Santiago%Freita-Ramos%NULL%1,   Damien%Roux%NULL%1,   Jean-Michel%Constantin%NULL%1,   Mona%Assefi%NULL%1,   Marine%Lecore%NULL%1,   Agathe%Selves%NULL%1,   Florian%Prevost%NULL%1,   Christian%Lamer%NULL%1,   Ruiying%Shi%NULL%1,   Lyes%Knani%NULL%1,   Sébastien%Pili-Floury%NULL%1,   Lucie%Vettoretti%NULL%1,   Michael%Levy%NULL%1,   Lucile%Marsac%NULL%1,   Stéphane%Dauger%NULL%1,   Sophie%Guilmin-Crépon%NULL%1,   Jean-Baptiste%Putegnat%NULL%1,   Frédérique%Bayle%NULL%1,   Maya%Perrou%NULL%1,   Ghyslaine%Thao%NULL%1,   Guillaume%Géri%NULL%1,   Cyril%Charron%NULL%1,   Xavier%Repessé%NULL%1,   Antoine%Vieillard-Baron%NULL%1,   Mathieu%Guilbart%NULL%1,   Pierre-Alexandre%Roger%NULL%1,   Sébastien%Hinard%NULL%1,   Pierre-Yves%Macq%NULL%1,   Kevin%Chaulier%NULL%1,   Sylvie%Goutte%NULL%1,   Patrick%Chillet%NULL%1,   Anaïs%Pitta%NULL%1,   Barbara%Darjent%NULL%1,   Amandine%Bruneau%NULL%1,   Sigismond%Lasocki%NULL%1,   Maxime%Leger%NULL%1,   Soizic%Gergaud%NULL%1,   Pierre%Lemarie%NULL%1,   Nicolas%Terzi%NULL%1,   Carole%Schwebel%NULL%1,   Anaïs%Dartevel%NULL%1,   Louis-Marie%Galerneau%NULL%1,   Jean-Luc%Diehl%NULL%1,   Caroline%Hauw-Berlemont%NULL%0,   Nicolas%Péron%NULL%1,   Emmanuel%Guérot%NULL%1,   Abolfazl Mohebbi%Amoli%NULL%1,   Michel%Benhamou%NULL%1,   Jean-Pierre%Deyme%NULL%1,   Olivier%Andremont%NULL%1,   Diane%Lena%NULL%1,   Julien%Cady%NULL%1,   Arnaud%Causeret%NULL%1,   Arnaud%De La Chapelle%NULL%1,   Christophe%Cracco%NULL%1,   Stéphane%Rouleau%NULL%1,   David%Schnell%NULL%1,   Cécile%Lory%NULL%1,   Thibault%Chapelle%NULL%1,   Vincent%Bruckert%NULL%1,   Julie%Garcia%NULL%1,   Abdlazize%Sahraoui%NULL%1,   Nathalie%Abbosh%NULL%1,   Caroline%Bornstain%NULL%1,   Pierre%Pernet%NULL%1,   Florent%Poirson%NULL%1,   Ahmed%Pasem%NULL%1,   Philippe%Karoubi%NULL%1,   Virginie%Poupinel%NULL%1,   Caroline%Gauthier%NULL%1,   François%Bouniol%NULL%1,   Philippe%Feuchere%NULL%1,   Florent%Bavozet%NULL%0,   Anne%Heron%NULL%1,   Serge%Carreira%NULL%1,   Malo%Emery%NULL%1,   Anne%Le Floch%NULL%1,   Luana%Giovannangeli%NULL%1,   Nicolas%Herzog%NULL%1,   Christophe%Giacardi%NULL%1,   Thibaut%Baudic%NULL%1,   Chloé%Thill%NULL%1,   Florence%Tubach%NULL%1,   Olivier%Lesieur%NULL%1,   Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,   Max W.%Adelman%NULL%2,   Maxwell A.%Hockstein%NULL%1,   Chad J.%Robichaux%NULL%1,   Johnathan A.%Edwards%NULL%1,   Jane C.%Fazio%NULL%1,   James M.%Blum%NULL%3,   Craig S.%Jabaley%NULL%2,   Mark%Caridi-Scheible%NULL%2,   Greg S.%Martin%NULL%2,   David J.%Murphy%NULL%3,   Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>Risk Factors Associated with Mortality among Patients with COVID-19 in Intensive Care Units in Lombardy, Italy</t>
+  </si>
+  <si>
+    <t>Importance: Many patients with coronavirus disease 2019 (COVID-19) are critically ill and require care in the intensive care unit (ICU).
+ Objective: To evaluate the independent risk factors associated with mortality of patients with COVID-19 requiring treatment in ICUs in the Lombardy region of Italy.
+ Design, Setting, and Participants: This retrospective, observational cohort study included 3988 consecutive critically ill patients with laboratory-confirmed COVID-19 referred for ICU admission to the coordinating center (Fondazione IRCCS [Istituto di Ricovero e Cura a Carattere Scientifico] Ca\u0027 Granda Ospedale Maggiore Policlinico, Milan, Italy) of the COVID-19 Lombardy ICU Network from February 20 to April 22, 2020. Infection with severe acute respiratory syndrome coronavirus 2 was confirmed by real-time reverse transcriptase-polymerase chain reaction assay of nasopharyngeal swabs.
+ Follow-up was completed on May 30, 2020. Exposures: Baseline characteristics, comorbidities, long-term medications, and ventilatory support at ICU admission.
+ Main Outcomes and Measures: Time to death in days from ICU admission to hospital discharge.
+ The independent risk factors associated with mortality were evaluated with a multivariable Cox proportional hazards regression.
+ Results: Of the 3988 patients included in this cohort study, the median age was 63 (interquartile range [IQR] 56-69) years; 3188 (79.9%; 95% CI, 78.7%-81.1%) were men, and 1998 of 3300 (60.5%; 95% CI, 58.9%-62.2%) had at least 1 comorbidity.
+ At ICU admission, 2929 patients (87.3%; 95% CI, 86.1%-88.4%) required invasive mechanical ventilation (IMV).
+ The median follow-up was 44 (95% CI, 40-47; IQR, 11-69; range, 0-100) days; median time from symptoms onset to ICU admission was 10 (95% CI, 9-10; IQR, 6-14) days; median length of ICU stay was 12 (95% CI, 12-13; IQR, 6-21) days; and median length of IMV was 10 (95% CI, 10-11; IQR, 6-17) days.
+ Cumulative observation time was 164305 patient-days.
+ Hospital and ICU mortality rates were 12 (95% CI, 11-12) and 27 (95% CI, 26-29) per 1000 patients-days, respectively.
+ In the subgroup of the first 1715 patients, as of May 30, 2020, 865 (50.4%) had been discharged from the ICU, 836 (48.7%) had died in the ICU, and 14 (0.8%) were still in the ICU; overall, 915 patients (53.4%) died in the hospital.
+ Independent risk factors associated with mortality included older age (hazard ratio [HR], 1.75; 95% CI, 1.60-1.92), male sex (HR, 1.57; 95% CI, 1.31-1.88), high fraction of inspired oxygen (Fio2) (HR, 1.14; 95% CI, 1.10-1.19), high positive end-expiratory pressure (HR, 1.04; 95% CI, 1.01-1.06) or low Pao2:Fio2 ratio (HR, 0.80; 95% CI, 0.74-0.87) on ICU admission, and history of chronic obstructive pulmonary disease (HR, 1.68; 95% CI, 1.28-2.19), hypercholesterolemia (HR, 1.25; 95% CI, 1.02-1.52), and type 2 diabetes (HR, 1.18; 95% CI, 1.01-1.39).
+ No medication was independently associated with mortality (angiotensin-converting enzyme inhibitors HR, 1.17; 95% CI, 0.97-1.42; angiotensin receptor blockers HR, 1.05; 95% CI, 0.85-1.29).
+ Conclusions and Relevance: In this retrospective cohort study of critically ill patients admitted to ICUs in Lombardy, Italy, with laboratory-confirmed COVID-19, most patients required IMV.
+ The mortality rate and absolute mortality were high</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0, Antonelli%M.%coreGivesNoEmail%0, Bellani%G.%coreGivesNoEmail%0, Bonanomi%E.%coreGivesNoEmail%0, Cabrini%L.%coreGivesNoEmail%0, Carlesso%E.%coreGivesNoEmail%0, Castelli%G.%coreGivesNoEmail%0, Cattaneo%S.%coreGivesNoEmail%0, Cecconi%M.%coreGivesNoEmail%0, Cereda%D.%coreGivesNoEmail%0, Colombo%S.%coreGivesNoEmail%0, Coluccello%A.%coreGivesNoEmail%0, Crescini%G.%coreGivesNoEmail%0, Forastieri%Molinari A.%coreGivesNoEmail%0, Foti%G.%coreGivesNoEmail%0, Fumagalli%R.%coreGivesNoEmail%0, Grasselli%G.%coreGivesNoEmail%0, Greco%M.%coreGivesNoEmail%0, Iotti%G. A.%coreGivesNoEmail%0, Langer%T.%coreGivesNoEmail%0, Latronico%N.%coreGivesNoEmail%0, Lorini%F. L.%coreGivesNoEmail%0, Mojoli%F.%coreGivesNoEmail%0, Natalini%G.%coreGivesNoEmail%0, Pesenti%A.%coreGivesNoEmail%0, Pessina%C. M.%coreGivesNoEmail%0, Ranieri%V. M.%coreGivesNoEmail%0, Rech%R.%coreGivesNoEmail%0, Rosano%A.%coreGivesNoEmail%0, Scudeller%L.%coreGivesNoEmail%0, Storti%E.%coreGivesNoEmail%0, Thompson%B. T.%coreGivesNoEmail%0, Tirani%M.%coreGivesNoEmail%0, Villani%P. G.%coreGivesNoEmail%0, Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,   Keum-Ju%Choi%NULL%1,   Sun Ha%Choi%NULL%1,   Shin Yup%Lee%NULL%1,   Kyung Chan%Kim%NULL%1,   Eun Jin%Kim%NULL%1,   Jaehee%Lee%NULL%2,   Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,   Siddique%Chaudhary%NULL%1,   Kevin%Bryan Lo%NULL%2,   Kevin%Bryan Lo%NULL%0,   Robert%DeJoy%NULL%1,   Fahad%Gul%NULL%1,   Ricardo%Torres%NULL%1,   Neal%Chaisson%NULL%2,   Neal%Chaisson%NULL%0,   Gabriel%Patarroyo-Aponte%NULL%2,   Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,   Bruno L.%Ferreyro%NULL%2,   Bruno L.%Ferreyro%NULL%0,   Federico%Angriman%NULL%1,   María%Hernández-Sanz%NULL%2,   Egoitz%Arruti%NULL%1,   Antoni%Torres%NULL%2,   Jesús%Villar%NULL%1,   Laurent%Brochard%NULL%1,   Carlos%Ferrando%NULL%2,   Ricard%Mellado-Artigas%NULL%1,   María%Hernández-Sanz%NULL%0,   Carlos%Ferrando%NULL%0,   Marina%Vendrell%NULL%1,   Gerard%Sánchez-Etayo%NULL%1,   Amalia%Alcón%NULL%1,   Isabel%Belda%NULL%1,   Mercé%Agustí%NULL%1,   Albert%Carramiñana%NULL%1,   Isabel%Gracia%NULL%1,   Miriam%Panzeri%NULL%1,   Irene%León%NULL%1,   Jaume%Balust%NULL%1,   Ricard%Navarro%NULL%2,   María José%Arguís%NULL%1,   María José%Carretero%NULL%1,   Cristina%Ibáñez%NULL%1,   Juan%Perdomo%NULL%1,   Antonio%López%NULL%1,   Manuel%López-Baamonde%NULL%1,   Tomás%Cuñat%NULL%1,   Marta%Ubré%NULL%1,   Antonio%Ojeda%NULL%1,   Andrea%Calvo%NULL%1,   Eva%Rivas%NULL%1,   Paola%Hurtado%NULL%1,   Roger%Pujol%NULL%1,   Nuria%Martín%NULL%1,   Javier%Tercero%NULL%1,   Pepe%Sanahuja%NULL%1,   Marta%Magaldi%NULL%1,   Miquel%Coca%NULL%1,   Elena%del Rio%NULL%1,   Julia%Martínez-Ocon%NULL%1,   Paula%Masgoret%NULL%1,   Monserrat%Tio%NULL%1,   Angel%Caballero%NULL%1,   Raquel%Risco%NULL%1,   Raquel%Bergé%NULL%1,   Lidia%Gómez%NULL%1,   Nicolás%de Riva%NULL%1,   Ana%Ruiz%NULL%1,   Beatriz%Tena%NULL%1,   Sebastián%Jaramillo%NULL%1,   José María%Balibrea%NULL%1,   Francisco Borja de Borja%de Lacy%NULL%1,   Ana%Otero%NULL%1,   Ainitze%Ibarzabal%NULL%1,   Raquel%Bravo%NULL%1,   Anna%Carreras%NULL%1,   Daniel%Martín-Barreda%NULL%1,   Alfonso Jesús%Alias%NULL%1,   Mariano%Balaguer%NULL%1,   Jorge%Aliaga%NULL%1,   Alex%Almuedo%NULL%1,   Joan Ramón%Alonso%NULL%1,   Rut%Andrea%NULL%1,   Gerard Sergi%Angelès%NULL%1,    Marilyn%Arias%NULL%1,   Fátima%Aziz%NULL%1,   Joan Ramon%Badía%NULL%1,   Enric%Barbeta%NULL%1,   Toni%Torres%NULL%1,   Guillem%Batiste%NULL%1,   Pau%Benet%NULL%1,   Xavi%Borrat%NULL%1,   María%Borrell%NULL%1,   Ernest%Bragulat%NULL%1,   Inmaculada%Carmona%NULL%1,   Manuel%Castellà%NULL%1,   Pedro%Castro%NULL%1,   Joan%Ceravalls%NULL%1,   Oscar%Comino%NULL%1,   Claudia%Cucciniello%NULL%1,   Clàudia%De Deray%NULL%1,   Oriol%De Diego%NULL%1,   Paula%De la Matta%NULL%1,   Marta%Farrero%NULL%1,   Javier%Fernández%NULL%1,   Sara%Fernández%NULL%1,   Anna%Fernández%NULL%1,   Miquel%Ferrer%NULL%1,   Ana%Fervienza%NULL%1,   María%Tallo Forga%NULL%1,   Daniel%Forné%NULL%1,   Clàudia%Galán%NULL%1,   Andrea%Gómez%NULL%1,   Eduard%Guasch%NULL%1,   María%Hernández-Tejero%NULL%1,   Adriana%Jacas%NULL%1,   Beltrán%Jiménez%NULL%1,   Pere%Leyes%NULL%1,   Teresa%López%NULL%1,   José Antonio%Martínez%NULL%1,   Graciela%Martínez-Pallí%NULL%1,   Jordi%Mercadal%NULL%1,   Guido%Muñoz%NULL%1,   José%Muñoz%NULL%1,   Ricard%Navarro%NULL%0,   Josep María%Nicolás%NULL%1,   José Tomás%Ortiz%NULL%1,   Anna%Peiró%NULL%1,   Manuel%Pérez%NULL%1,   Esteban%Poch%NULL%1,   Margarida%Pujol%NULL%1,   Eduard%Quintana%NULL%1,   Bartomeu%Ramis%NULL%1,   Enric%Reverter%NULL%1,   Irene%Rovira%NULL%1,   Pablo%Ruiz%NULL%1,   Elena%Sandoval%NULL%1,   Stefan%Schneider%NULL%1,   Oriol%Sibila%NULL%1,   Carla%Solé%NULL%1,   Alex%Soriano%NULL%1,   Dolors%Soy%NULL%1,   M.%Suárez%NULL%1,   Adrián%Téllez%NULL%1,   Néstor David%Toapanta%NULL%1,   Antoni%Torres%NULL%0,   Xavier%Urra%NULL%1,   César%Aldecoa%NULL%1,   Alicia%Bordell%NULL%1,   Silvia%Martín%NULL%1,   Judith%Andrés%NULL%1,   Alberto Martínez%Ruiz%NULL%1,   Gonzalo Tamayo%Medel%NULL%1,   Iñaki Bilbao Bilbao%Villasante%NULL%1,   Fernando Iturri%Clavero%NULL%1,   Covadonga Peralta%Álvarez%NULL%1,   Julia T.%Herrera Díez%NULL%1,   Andrea García%Trancho%NULL%1,   Iñaki Sainz %Mandiola%NULL%1,   Carmen Ruano%Suarez%NULL%1,   Angela Ruiz%Bocos%NULL%1,   Eneritz Urrutia%Izagirre%NULL%1,   Pablo Ortiz%de Urbina Fernández%NULL%1,   Naiara Apodaka%López%NULL%1,   Leire Prieto%Molano%NULL%1,   Eunate Ganuza%Martínez%NULL%1,   Iratxe Vallinas%Hidalgo%NULL%1,   Karmele%de Orte Sancho%NULL%1,   Celia González%Paniagua%NULL%1,   Gemma Ortiz%Labrador%NULL%1,   Mireia Pérez%Larrañaga%NULL%1,   Marta López%Miguelez%NULL%1,   Estíbaliz Bárcena%Andrés%NULL%1,   Erik Urutxurtu%Laureano%NULL%1,   Maria Jesús Maroño%Boedo%NULL%1,   Blanca Escontrela%Rodríguez%NULL%1,   Aitziber Ereñozaga%Camiruaga%NULL%1,   Deiene Lasuen%Aguirre%NULL%1,   Ainhoa Zabal%Maeztu%NULL%1,   Ane Guereca%Gala%NULL%1,   Iker Castelo%Korro%NULL%1,   Andrés Álvarez%Campo%NULL%1,   Alejandro Carcelen%Viana%NULL%1,   Alejandro Alberdi%Enríquez%NULL%1,   Xabier Ormazábal%Rementeria%NULL%1,   Alberto Sánchez%Campos%NULL%1,   Rosa Gutiérrez%Rico%NULL%1,   Pablo Barbier%Damborenea%NULL%1,   Marta Guerenabarrena%Momeñe%NULL%1,   Borja Cuesta%Ruiz%NULL%1,   Alejandro López%Rico%NULL%1,   Ana Rojo%Polo%NULL%1,   Covadonga García%Grijelmo%NULL%1,   Mikel Celorrio%Reta%NULL%1,   Eneko Martín%Arroyo%NULL%1,   Leire Artaza%Aparicio%NULL%1,   Iñaki Ituarte%Aspiazu%NULL%1,   Ane Igeregi%Basabe%NULL%1,   Itxaso Merino%Julian%NULL%1,   Isabel Diaz%Rico%NULL%1,   Maria Paz%Martínez%NULL%1,   Ramón%Adalia Bartolomé%NULL%1,   Luigi%Zattera%NULL%1,   Irina Adalid%Hernandez%NULL%1,   Leire Larrañaga%Altuna%NULL%1,   Aina Serrallonga%Castells%NULL%1,   Adriana Vílchez%Garcia%NULL%1,   María%Núñez%NULL%1,   Lorena%Román%NULL%1,   Isabel Ramos%Delgado%NULL%1,   Adela Benítez-Cano%Martínez%NULL%1,   Mireia Chanzá%Albert%NULL%1,   Juan Carlos Álvarez%García%NULL%1,   Luis Aguilera%Cuchillo%NULL%1,   Sandra Beltrán%de Heredia%NULL%1,   Jesús Carazo%Cordobés%NULL%1,   Carlos Alberto García%Bernedo%NULL%1,   Fernando Escolano%Villén%NULL%1,   Francisco Javier Redondo%Calvo%NULL%1,   Rubén Villazala%González%NULL%1,   Victor Baladron%González%NULL%1,   Patricia%Faba%NULL%1,   Omar%Montenegro%NULL%1,   Natalia Bejarano%Ramírez%NULL%1,   Sergio Marcos%Contreras%NULL%1,   Alejandro Garcia%Rodríguez%NULL%1,   Saleta Rey%Vázquez%NULL%1,   Cristina Garcia%Pérez%NULL%1,   Eva Higuera%Miguelez%NULL%1,   Irene Pérez%Blanco%NULL%1,   David García%Rivera%NULL%1,   Ane Martín%de la Fuente%NULL%1,   Marta%Pardo%NULL%1,   Vanessa%Rodriguez%NULL%1,   Unai%Bengoetxea%NULL%1,   Fernando%Ramasco%NULL%1,   Sheila Olga Santidrián%Bernal%NULL%1,   Alvar Santa Cruz%Hernando%NULL%1,   Antonio Planas%Roca%NULL%1,   Carlos Figueroa%Yusta%NULL%1,   Esther García%Villabona%NULL%1,   Carmen Vallejo%Lantero%NULL%1,   Eva Patiño%Rodriguez%NULL%1,   Alvaro Esquivel%Toledo%NULL%1,   David Arribas%Méndez%NULL%1,   Mar Orts%Rodriguez%NULL%1,   Rosa Méndez%Hernández%NULL%1,   Jesús Nieves%Alonso%NULL%1,   Inés Imaz%Artazcoz%NULL%1,   Sonia Expósito%Carazo%NULL%1,   Carlos Román%Guerrero%NULL%1,   Elena Rojo%Rodríguez%NULL%1,   Ricardo Moreno%González%NULL%1,   Julia Hernando%Santos%NULL%1,   Jara Torrente%Pérez%NULL%1,   Esperanza Mata%Mena%NULL%1,   Manuel José Muñoz%Martínez%NULL%1,   Enrique Alday%Muñoz%NULL%1,   Patricia Martin%Serrano%NULL%1,   Laura Cotter%Muñoz%NULL%1,   Amadea%Mjertan%NULL%1,   Diego Gutierrez%Martínez%NULL%1,   Carmen Rodríguez%García%NULL%1,   Olaya Alonso%Viejo%NULL%1,   Juan Alvarez%Pereira%NULL%1,   Ana Carmona%Bonet%NULL%1,   Diana Parrado%López%NULL%1,   Eva%de Dios Tomas%NULL%1,   Rafael Martín%Celemin%NULL%1,   María Luisa Meilan%Paz%NULL%1,   Luis Quecedo%Gutiérrez%NULL%1,   Noemí Diaz%Velasco%NULL%1,   Gabriel Martin%Hernández%NULL%1,   Francisco Garcia%del Corral%NULL%1,   Gloria Hernandez%Arias%NULL%1,   David Rodriguez%Cuesta%NULL%1,   Ana Gómez%Rice%NULL%1,   Encarna Mateos%Sevillano%NULL%1,   Natalia Olmos%Molpeceres%NULL%1,   Beatriz%Domínguez%NULL%1,   Ana Vázquez%Lima%NULL%1,   Ángel%Candela%NULL%1,   Ismael A. Acevedo%Bambaren%NULL%1,   Maria Isabel Albala%Blanco%NULL%1,   Paloma Alonso%Montoiro%NULL%1,   Fernando Álvarez%Utrera%NULL%1,   Juan Avellanosa%Esteruelas%NULL%1,   Amal Azzam%López%NULL%1,   Alberto José%Balvis%NULL%1,   Balvis Tommaso%Bardi%NULL%1,   María Beltrán%Martín%NULL%1,   Jacobo Benatar%Haserfaty%NULL%1,   Alberto Berruezo%Camacho%NULL%1,   Laura Betolaza%Weimer%NULL%1,   María%del Mar Carbonell Soto%NULL%1,   Cristina Carrasco%Seral%NULL%1,   Cristina Cerro %Zaballos%NULL%1,   Elizabeth Claros%Llamas%NULL%1,   Pilar Coleta%Orduna%NULL%1,   Ingrid P. Cortes%Forero%NULL%1,   Pascual Agustín Crespo%Aliseda%NULL%1,   María Angélica%de Pablo Pajares%NULL%1,   Yolanda Díez%Remesal%NULL%1,   Trinidad Dorado%Díaz%NULL%1,   Noemí Echevarría%Blasco%NULL%1,   María Elena Elías%Martín%NULL%1,   Javier Felices%Triviño%NULL%1,   Natalia Fernández%López%NULL%1,   Cristina Fernández%Martín%NULL%1,   Natalia Ferreiro%Pozuelo%NULL%1,   Luis Gajate%Martín%NULL%1,   Clara Gallego%Santos%NULL%1,   Diego Gil%Mayo%NULL%1,   María Gómez%Rojo%NULL%1,   Claudia González%Cibrián%NULL%1,   Elena Herrera%López%NULL%1,   Borja Hinojal%Olmedillo%NULL%1,   Berta Iglesias%Gallego%NULL%1,   Sassan%Khonsari%NULL%1,   María Nuria Mane%Ruiz%NULL%1,   María Manzanero%Arroyo%NULL%1,   Ana María Mariscal%Ortega%NULL%1,   Sara Martín%Burcio%NULL%1,   María%del Carmen Martín González%NULL%1,   Ascensión Martín%Grande%NULL%1,   Jose Juan Martín%López%NULL%1,   Cecilia Martín%Rabes%NULL%1,   Marcos Martínez%Borja%NULL%1,   Nilda Martínez%Castro%NULL%1,   Adolfo Martínez%Pérez%NULL%1,   Snejana%Matcan%NULL%1,   Cristina Medrano%Viñas%NULL%1,   Lisset Miguel%Herrera%NULL%1,   Adrián Mira%Betancur%NULL%1,   María Montiel%Carbajo%NULL%1,   Javier Moya%Moradas%NULL%1,   Lorena Muñoz%Pérez%NULL%1,   Mónica Nuñez%Murias%NULL%1,   Eva Ordiales%González%NULL%1,   Óscar Ordoñez%Recio%NULL%1,   Miguel Ángel Palomero%Rodriguez%NULL%1,   Diego Parise%Roux%NULL%1,   Lucia Pereira%Torres%NULL%1,   David Pestaña%Lagunas%NULL%1,   Juana María Pinto%Corraliza%NULL%1,   Marian Prieto%Rodrigo%NULL%1,   Inmaculada Rodriguez%Diaz-Regaño%NULL%1,   David Rodriguez%Esteban%NULL%1,   Víctor Rojas%Pernia%NULL%1,   Álvaro Ruigómez%Saiz%NULL%1,   Bárbara Saavedra%Villarino%NULL%1,   Noemí Samaranch%Palero%NULL%1,   Gloria Santos%Pérez%NULL%1,   Jaume Serna%Pérez%NULL%1,   Ana Belén Serrano%Romero%NULL%1,   Jesús Tercero%López%NULL%1,   Carlos Tiscar%García%NULL%1,   Marta%de la Torre Concostrina%NULL%1,   Eva María Ureta%Mesa%NULL%1,   Eva Velasco%Olarte%NULL%1,   Judith Villahoz%Martínez%NULL%1,   Raúl Villalaba%Palacios%NULL%1,   Gema Villanueva%García%NULL%1,   Cristina Vogel%de Medeiros%NULL%1,   Soraya Gholamian%Ovejero%NULL%1,   Marta Vicente%Orgaz%NULL%1,   Patricia Lloreda%Herradon%NULL%1,   Cristina Crespo%Gómez%NULL%1,   Tatiana%Sarmiento-Trujillo%NULL%1,   Noemí García%Medina%NULL%1,   María Martínez%García%NULL%1,   Carles Espinós%Ramírez%NULL%1,   Nabil Mouhaffel%Rivero%NULL%1,   Jose Antonio Bernia%Gil%NULL%1,   Sonsoles%Martín%NULL%1,   María Victoria%Moral%NULL%1,   Josefina%Galán%NULL%1,   Pilar%Paniagua%NULL%1,   Sergio%Pérez%NULL%1,   Albert%Bainac%NULL%1,   Ana%Arias%NULL%1,   Elsa%Ramil%NULL%1,   Jorge%Escudero%NULL%1,   Pablo%Monedero%NULL%1,   Carmen%Cara%NULL%1,   Andrea%Lara%NULL%1,   Elena Mendez%Martínez%NULL%1,   Jorge%Mendoza%NULL%1,   Íñigo Rubio%Baines%NULL%1,   Carmen Sala%Trull%NULL%1,   Pablo Montero%López%NULL%1,   Alfredo%Gea%NULL%1,   Alejandro%Montero%NULL%1,   Rocío Armero%Ibañez%NULL%1,   Juan Vicente Llau%Pitarch%NULL%1,   Fernando Rauer%Alcóver%NULL%1,   Cristina Álvarez%Herreros%NULL%1,   Cyntia Sánchez%Martín%NULL%1,   Lucía López Ocáriz%Olmos%NULL%1,   Marta Navas%Moruno%NULL%1,   Fernando García%Montoto%NULL%1,   M. F. Mirón%Rodriguez%NULL%1,   Laura Fuentes%Coco%NULL%1,   Cristina Hernández%Gamito%NULL%1,   Antonio Barba%Orejudo%NULL%1,   Luis Gerardo Smith%Vielma%NULL%1,   Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,   Marta Donoso%Domínguez%NULL%1,   Silvia Esquivel%Ramírez%NULL%1,   José Antonio%Carbonell%NULL%1,   Berta Monleón%López%NULL%1,   Sara%Martínez-Castro%NULL%1,   Gerardo%Aguilar%NULL%1,   María Gestal Pablo%Casas%NULL%1,   Angel Outeiro%Rosato%NULL%1,   Andrea Naveiro%Pan%NULL%1,   María Alonso%Portela%NULL%1,   Adrián García%Romar%NULL%1,   Eva Mosquera%Rodríguez%NULL%1,   Diego Ruanova%Seijo%NULL%1,   Pablo Rama%Maceiras%NULL%1,   Francisco%Castro-Ceoane%NULL%1,   Esther Moreno%López%NULL%1,   Sergio%Gil%NULL%1,   Julia Guillén%Antón%NULL%1,   Patricia García-Consuegra%Tirado%NULL%1,   Aurora Callau%Calvo%NULL%1,   Laura Forés%Lisbona%NULL%1,   María Carbonell%Romero%NULL%1,   Belén Albericio%Gil%NULL%1,   Laura Pradal%Jarne%NULL%1,   María Soria%Lozano%NULL%1,   Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,   Navjot Ariyana%Kaur%NULL%1,   Daniel%Sacher%NULL%1,   Oisin%O’Corragain%NULL%1,   Daniel%Salerno%NULL%1,   Parag%Desai%NULL%1,   Sameep%Sehgal%NULL%1,   Matthew%Gordon%NULL%2,   Rohit%Gupta%NULL%2,   Nathaniel%Marchetti%NULL%1,   Huaqing%Zhao%NULL%2,   Nicole%Patlakh%NULL%2,   Gerard J.%Criner%NULL%1,   Temple%University%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,   Dominik%Jarczak%NULL%1,   Liina%Thasler%NULL%1,   Martin%Bachmann%NULL%1,   Frank%Schulte%NULL%1,   Berthold%Bein%NULL%1,   Christian Friedrich%Weber%NULL%1,   Ulrich%Schäfer%NULL%1,   Carsten%Veit%NULL%1,   Hans-Peter%Hauber%NULL%1,   Sebastian%Kopp%NULL%1,   Karsten%Sydow%NULL%1,   Andreas%de Weerth%NULL%0,   Marc%Bota%NULL%1,   Rüdiger%Schreiber%NULL%1,   Oliver%Detsch%NULL%1,   Jan-Peer%Rogmann%NULL%1,   Daniel%Frings%NULL%0,   Barbara%Sensen%NULL%1,   Christoph%Burdelski%NULL%0,   Olaf%Boenisch%NULL%1,   Axel%Nierhaus%NULL%0,   Geraldine%de Heer%NULL%0,   Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,    Paolo%Comassi%NULL%1,    Luca%Adriani%NULL%1,    Giulio%Bergamaschini%NULL%1,    Elena%Bertin%NULL%1,    Raffaella%Borromeo%NULL%1,    Serena%Corti%NULL%1,    Federica%De Petri%NULL%1,    Francesco%Dolci%NULL%1,    Attilio%Galmozzi%NULL%1,    Alberto%Gigliotti%NULL%1,    Livio%Gualdoni%NULL%1,    Claudia%Guerra%NULL%1,    Anna%Khosthiova%NULL%1,    Giovanni%Leati%NULL%1,    Giuseppe%Lupi%NULL%1,    Paolo%Moscato%NULL%1,    Vittorio%Perotti%NULL%1,    Miriam%Piantelli%NULL%1,    Alain%Ruini%NULL%1,    Silvia%Sportelli%NULL%1,    Micaela%Susca%NULL%1,    Carmine%Troiano%NULL%1,    Giampaolo%Benelli%NULL%1,    Elisabetta%Buscarini%NULL%1,    Ciro%Canetta%NULL%1,    Guido%Merli%NULL%1,    Alessandro%Scartabellati%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,    Emna%Ennouri%NULL%1,    Rayane%Nachi%NULL%1,    Khaoula%Meddeb%NULL%1,    Jihene%Mahmoud%NULL%1,    Nesrine%Thabet%NULL%1,    Salma%Jerbi%NULL%1,    Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,    Eleni%Xourgia%NULL%1,    Theodora K.%Ntaidou%NULL%1,    Dimitris%Zervakis%NULL%1,    Eleni E.%Magira%NULL%1,    Anastasia%Kotanidou%NULL%1,    Christina%Routsi%NULL%1,    Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,    Carina%Mostert%NULL%1,    Corinna%Hentschker%NULL%1,    Thomas%Voshaar%NULL%1,    Jürgen%Malzahn%NULL%1,    Gerhard%Schillinger%NULL%1,    Jürgen%Klauber%NULL%1,    Uwe%Janssens%NULL%1,    Gernot%Marx%NULL%1,    Steffen%Weber-Carstens%NULL%1,    Stefan%Kluge%NULL%0,    Michael%Pfeifer%NULL%1,    Linus%Grabenhenrich%NULL%1,    Tobias%Welte%NULL%1,    Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,    David%Hajage%NULL%2,    David%Hajage%NULL%0,    Alexandre%Demoule%NULL%1,    Tài%Pham%NULL%1,    Alain%Combes%NULL%1,    Martin%Dres%NULL%1,    Said%Lebbah%NULL%1,    Antoine%Kimmoun%NULL%1,    Alain%Mercat%NULL%1,    Gaëtan%Beduneau%NULL%1,    Jessica%Palmyre%NULL%1,    Margot%Prevost%NULL%1,    Pierre%Asfar%NULL%1,    François%Beloncle%NULL%1,    Julien%Demiselle%NULL%1,    Arthur%Pavot%NULL%1,    Xavier%Monnet%NULL%1,    Christian%Richard%NULL%1,    Julien%Mayaux%NULL%1,    Alexandra%Beurton%NULL%1,    Richard%Descamps%NULL%1,    Aurélie%Joret%NULL%1,    Damien%Du Cheyron%NULL%1,    Frédéric%Pene%NULL%1,    Jean-Daniel%Chiche%NULL%1,    Mathieu%Jozwiak%NULL%1,    Paul%Jaubert%NULL%1,    Guillaume%Voiriot%NULL%1,    Muriel%Fartoukh%NULL%1,    Marion%Teulier%NULL%1,    Clarisse%Blayau%NULL%1,    Erwen%L’Her%NULL%1,    Cécile%Aubron%NULL%1,    Laetitia%Bodenes%NULL%1,    Nicolas%Ferriere%NULL%1,    Johann%Auchabie%NULL%1,    Anthony%Le Meur%NULL%1,    Sylvain%Pignal%NULL%1,    Thierry%Mazzoni%NULL%1,    Jean-Pierre%Quenot%NULL%1,    Pascal%Andreu%NULL%1,    Jean-Baptiste%Roudau%NULL%1,    Marie%Labruyère%NULL%1,    Saad%Nseir%NULL%0,    Sébastien%Preau%NULL%1,    Julien%Poissy%NULL%0,    Daniel%Mathieu%NULL%0,    Sarah%Benhamida%NULL%1,    Rémi%Paulet%NULL%1,    Nicolas%Roucaud%NULL%1,    Martial%Thyrault%NULL%1,    Florence%Daviet%NULL%1,    Sami%Hraiech%NULL%1,    Gabriel%Parzy%NULL%1,    Aude%Sylvestre%NULL%1,    Sébastien%Jochmans%NULL%1,    Anne-Laure%Bouilland%NULL%1,    Mehran%Monchi%NULL%1,    Marc%Danguy des Déserts%NULL%1,    Quentin%Mathais%NULL%1,    Gwendoline%Rager%NULL%1,    Pierre%Pasquier%NULL%1,    Reignier%Jean%NULL%1,    Seguin%Amélie%NULL%1,    Garret%Charlotte%NULL%1,    Canet%Emmanuel%NULL%1,    Jean%Dellamonica%NULL%1,    Clément%Saccheri%NULL%1,    Romain%Lombardi%NULL%1,    Yanis%Kouchit%NULL%1,    Sophie%Jacquier%NULL%1,    Armelle%Mathonnet%NULL%1,    Mai-Ahn%Nay%NULL%1,    Isabelle%Runge%NULL%1,    Frédéric%Martino%NULL%1,    Laure%Flurin%NULL%1,    Amélie%Rolle%NULL%1,    Michel%Carles%NULL%1,    Rémi%Coudroy%NULL%1,    Arnaud W.%Thille%NULL%1,    Jean-Pierre%Frat%NULL%1,    Maeva%Rodriguez%NULL%1,    Pascal%Beuret%NULL%1,    Audrey%Tientcheu%NULL%1,    Arthur%Vincent%NULL%1,    Florian%Michelin%NULL%1,    Marie Anne%Melone%NULL%1,    Maxime%Gauzi%NULL%1,    Arnaud%Guilbert%NULL%1,    Geoffrey%Kouadri%NULL%1,    Valérie%Gissot%NULL%1,    Stéphan%Ehrmann%NULL%1,    Charlotte%Salmon-Gandonnière%NULL%1,    Djlali%Elaroussi%NULL%1,    Agathe%Delbove%NULL%1,    Yannick%Fedun%NULL%1,    Julien%Huntzinger%NULL%1,    Eddy%Lebas%NULL%1,    Grâce%Kisoka%NULL%1,    Céline%Grégoire%NULL%1,    Stella%Marchetta%NULL%1,    Bernard%Lambermont%NULL%1,    Laurent%Argaud%NULL%1,    Thomas%Baudry%NULL%1,    Pierre-Jean%Bertrand%NULL%1,    Auguste%Dargent%NULL%1,    Christophe%Guitton%NULL%1,    Nicolas%Chudeau%NULL%1,    Mickaël%Landais%NULL%1,    Cédric%Darreau%NULL%1,    Alexis%Ferre%NULL%1,    Antoine%Gros%NULL%1,    Guillaume%Lacave%NULL%1,    Fabrice%Bruneel%NULL%1,    Mathilde%Neuville%NULL%1,    Jérôme%Devaquet%NULL%1,    Guillaume%Tachon%NULL%1,    Richard%Gallot%NULL%1,    Riad%Chelha%NULL%1,    Arnaud%Galbois%NULL%1,    Anne%Jallot%NULL%1,    Ludivine Chalumeau%Lemoine%NULL%1,    Khaldoun%Kuteifan%NULL%1,    Valentin%Pointurier%NULL%1,    Louise-Marie%Jandeaux%NULL%1,    Joy%Mootien%NULL%1,    Charles%Damoisel%NULL%1,    Benjamin%Sztrymf%NULL%2,    Juliette%Chommeloux%NULL%1,    Charles Edouard%Luyt%NULL%1,    Frédérique%Schortgen%NULL%1,    Leon%Rusel%NULL%1,    Camille%Jung%NULL%1,    Florent%Gobert%NULL%1,    Damien%Vimpere%NULL%1,    Lionel%Lamhaut%NULL%1,    Bertrand%Sauneuf%NULL%1,    Liliane%Charrier%NULL%1,    Julien%Calus%NULL%1,    Isabelle%Desmeules%NULL%1,    Benoît%Painvin%NULL%1,    Jean-Marc%Tadie%NULL%1,    Vincent%Castelain%NULL%1,    Baptiste%Michard%NULL%1,    Jean-Etienne%Herbrecht%NULL%1,    Mathieu%Baldacini%NULL%1,    Nicolas%Weiss%NULL%1,    Sophie%Demeret%NULL%1,    Clémence%Marois%NULL%1,    Benjamin%Rohaut%NULL%1,    Pierre-Henri%Moury%NULL%1,    Anne-Charlotte%Savida%NULL%1,    Emmanuel%Couadau%NULL%1,    Mathieu%Série%NULL%1,    Nica%Alexandru%NULL%1,    Cédric%Bruel%NULL%1,    Candice%Fontaine%NULL%1,    Sonia%Garrigou%NULL%1,    Juliette Courtiade%Mahler%NULL%1,    Maxime%Leclerc%NULL%1,    Michel%Ramakers%NULL%1,    Pierre%Garçon%NULL%1,    Nicole%Massou%NULL%1,    Ly Phacs%Van Vong%NULL%1,    Juliane%Sen%NULL%1,    Nolwenn%Lucas%NULL%1,    Franck%Chemouni%NULL%1,    Annabelle%Stoclin%NULL%1,    Alexandre%Avenel%NULL%1,    Henri%Faure%NULL%1,    Angélie%Gentilhomme%NULL%1,    Sylvie%Ricome%NULL%1,    Paul%Abraham%NULL%1,    Céline%Monard%NULL%1,    Julien%Textoris%NULL%1,    Thomas%Rimmele%NULL%1,    Florent%Montini%NULL%1,    Gabriel%Lejour%NULL%1,    Thierry%Lazard%NULL%1,    Isabelle%Etienney%NULL%1,    Younes%Kerroumi%NULL%1,    Dupuis%Claire%NULL%1,    Bereiziat Marine%Coupez%NULL%1,    Thouy%François%NULL%1,    Clémet%Hoffmann%NULL%1,    Nicolas%Donat%NULL%1,    Violaine%Muller%NULL%1,    Thibault%Martinez%NULL%1,    Audrey%Jacquot%NULL%1,    Matthieu%Mattei%NULL%1,    Bruno%Levy%NULL%1,    Ramin%Ravan%NULL%1,    Loïc%Dopeux%NULL%1,    Jean-Mathias%Liteaudon%NULL%1,    Delphine%Roux%NULL%1,    Brice%Rey%NULL%1,    Radu%Anghel%NULL%1,    Deborah%Schenesse%NULL%1,    Vincent%Gevrey%NULL%1,    Jermy%Castanera%NULL%1,    Philippe%Petua%NULL%1,    Benjamin%Madeux%NULL%1,    Otto%Hartman%NULL%1,    Michael%Piagnerelli%NULL%1,    Anne%Joosten%NULL%1,    Cinderella%Noel%NULL%1,    Patrick%Biston%NULL%1,    Thibaut%Noel%NULL%1,    Gurvan L. E.%Bouar%NULL%1,    Messabi%Boukhanza%NULL%1,    Elsa%Demarest%NULL%1,    Marie-France%Bajolet%NULL%1,    Nathanaël%Charrier%NULL%1,    Audrey%Quenet%NULL%1,    Cécile%Zylberfajn%NULL%1,    Nicolas%Dufour%NULL%1,    Buno%Mégarbane%NULL%1,    Sqébastian%Voicu%NULL%1,    Nicolas%Deye%NULL%1,    Isabelle%Malissin%NULL%1,    François%Legay%NULL%1,    Matthieu%Debarre%NULL%1,    Nicolas%Barbarot%NULL%1,    Pierre%Fillatre%NULL%1,    Bertrand%Delord%NULL%1,    Thomas%Laterrade%NULL%1,    Tahar%Saghi%NULL%1,    Wilfried%Pujol%NULL%1,    Pierre Julien%Cungi%NULL%1,    Pierre%Esnault%NULL%1,    Mickael%Cardinale%NULL%1,    Vivien%Hong Tuan Ha%NULL%1,    Grégory%Fleury%NULL%1,    Marie-Ange%Brou%NULL%1,    Daniel%Zafimahazo%NULL%1,    David%Tran-Van%NULL%1,    Patrick%Avargues%NULL%1,    Lisa%Carenco%NULL%1,    Nicolas%Robin%NULL%1,    Alexandre%Ouali%NULL%1,    Lucie%Houdou%NULL%1,    Christophe%Le Terrier%NULL%1,    Noémie%Suh%NULL%1,    Steve%Primmaz%NULL%1,    Jérome%Pugin%NULL%1,    Emmanuel%Weiss%NULL%1,    Tobias%Gauss%NULL%1,    Jean-Denis%Moyer%NULL%1,    Catherine%Paugam-Burtz%NULL%1,    Béatrice%La Combe%NULL%1,    Rolland%Smonig%NULL%1,    Jade%Violleau%NULL%1,    Pauline%Cailliez%NULL%1,    Jonathan%Chelly%NULL%1,    Antoine%Marchalot%NULL%1,    Cécile%Saladin%NULL%1,    Christelle%Bigot%NULL%1,    Pierre-Marie%Fayolle%NULL%1,    Jules%Fatséas%NULL%1,    Amr%Ibrahim%NULL%1,    Dabor%Resiere%NULL%1,    Rabih%Hage%NULL%1,    Clémentine%Cholet%NULL%1,    Marie%Cantier%NULL%1,    Pierre%Trouiller%NULL%1,    Philippe%Montravers%NULL%1,    Brice%Lortat-Jacob%NULL%1,    Sebastien%Tanaka%NULL%1,    Alexy%Tran-Dinh%NULL%1,    Jacques%Duranteau%NULL%1,    Anatole%Harrois%NULL%1,    Guillaume%Dubreuil%NULL%1,    Marie%Werner%NULL%1,    Anne%Godier%NULL%1,    Sophie%Hamada%NULL%1,    Diane%Zlotnik%NULL%1,    Hélène%Nougue%NULL%1,    Armand%Mekontso-Dessap%NULL%1,    Guillaume%Carteaux%NULL%1,    Keyvan%Razazi%NULL%1,    Nicolas%De Prost%NULL%1,    Nicolas%Mongardon%NULL%1,    Olivier%Langeron%NULL%1,    Eric%Levesque%NULL%1,    Arié%Attias%NULL%1,    Charles%de Roquetaillade%NULL%1,    Benjamin G.%Chousterman%NULL%1,    Alexandre%Mebazaa%NULL%1,    Etienne%Gayat%NULL%1,    Marc%Garnier%NULL%1,    Emmanuel%Pardo%NULL%1,    Lea%Satre-Buisson%NULL%1,    Christophe%Gutton%NULL%1,    Elise%Yvin%NULL%1,    Clémence%Marcault%NULL%1,    Elie%Azoulay%NULL%1,    Michael%Darmon%NULL%1,    Nicolas%Bonnet%NULL%1,    Nathan%Ebstein%NULL%1,    Stéphane%Gaudry%NULL%1,    Yves%Cohen%NULL%1,     Hafid%Ait-Oufella%NULL%1,    Geoffroy%Hariri%NULL%1,    Tomas%Urbina%NULL%1,    Sandie%Mazerand%NULL%1,    Nicholas%Heming%NULL%1,    Francesca%Santi%NULL%1,    Pierre%Moine%NULL%1,    Djillali%Annane%NULL%1,    Adrien%Bouglé%NULL%1,    Edris%Omar%NULL%1,    Aymeric%Lancelot%NULL%1,    Emmanuelle%Begot%NULL%1,    Gaétan%Plantefeve%NULL%1,    Damien%Contou%NULL%1,    Hervé%Mentec%NULL%1,    Olivier%Pajot%NULL%1,    Stanislas%Faguer%NULL%1,    Olivier%Cointault%NULL%1,    Laurence%Lavayssiere%NULL%1,    Marie-Béatrice%Nogier%NULL%1,    Matthieu%Jamme%NULL%1,    Claire%Pichereau%NULL%1,    Jan%Hayon%NULL%1,    Hervé%Outin%NULL%1,    François%Dépret%NULL%1,    Maxime%Coutrot%NULL%1,    Maité%Chaussard%NULL%1,    Lucie%Guillemet%NULL%1,    Pierre%Goffin%NULL%1,    Romain%Thouny%NULL%1,    Julien%Guntz%NULL%1,    Laurent%Jadot%NULL%1,    Romain%Persichini%NULL%1,    Vanessa%Jean-Michel%NULL%1,    Hugues%Georges%NULL%1,    Thomas%Caulier%NULL%1,    Gaël%Pradel%NULL%1,    Marie-Hélène%Hausermann%NULL%1,    ThiMy Hue%Nguyen-Valat%NULL%1,    Michel%Boudinaud%NULL%1,    Emmanuel%Vivier%NULL%1,    Sylvène%Rosseli%NULL%1,    Gaël%Bourdin%NULL%1,    Christian%Pommier%NULL%1,    Marc%Vinclair%NULL%1,    Simon%Poignant%NULL%1,    Sandrine%Mons%NULL%1,    Wulfran%Bougouin%NULL%1,    Franklin%Bruna%NULL%1,    Quentin%Maestraggi%NULL%1,    Christian%Roth%NULL%1,    Laurent%Bitker%NULL%1,    François%Dhelft%NULL%1,    Justine%Bonnet-Chateau%NULL%1,    Mathilde%Filippelli%NULL%1,    Tristan%Morichau-Beauchant%NULL%1,    Stéphane%Thierry%NULL%1,    Charlotte%Le Roy%NULL%1,    Mélanie%Saint Jouan%NULL%1,    Bruno%Goncalves%NULL%1,    Aurélien%Mazeraud%NULL%1,    Matthieu%Daniel%NULL%1,    Tarek%Sharshar%NULL%1,    Cyril%Cadoz%NULL%1,    Rostane%Gaci%NULL%1,    Sébastien%Gette%NULL%1,    Guillaune%Louis%NULL%1,    Sophe-Caroline%Sacleux%NULL%1,    Marie-Amélie%Ordan%NULL%1,    Aurélie%Cravoisy%NULL%1,    Marie%Conrad%NULL%1,    Guilhem%Courte%NULL%1,    Sébastien%Gibot%NULL%1,    Younès%Benzidi%NULL%1,    Claudia%Casella%NULL%1,    Laurent%Serpin%NULL%1,    Jean-Lou%Setti%NULL%1,    Marie-Catherine%Besse%NULL%1,    Anna%Bourreau%NULL%1,    Jérôme%Pillot%NULL%1,    Caroline%Rivera%NULL%1,    Camille%Vinclair%NULL%1,    Marie-Aline%Robaux%NULL%1,    Chloé%Achino%NULL%1,    Marie-Charlotte%Delignette%NULL%1,    Tessa%Mazard%NULL%1,    Frédéric%Aubrun%NULL%1,    Bruno%Bouchet%NULL%1,    Aurélien%Frérou%NULL%1,    Laura%Muller%NULL%1,    Charlotte%Quentin%NULL%1,    Samuel%Degoul%NULL%1,    Xavier%Stihle%NULL%1,    Claude%Sumian%NULL%1,    Nicoletta%Bergero%NULL%1,    Bernard%Lanaspre%NULL%1,    Hervé%Quintard%NULL%1,    Eve Marie%Maiziere%NULL%1,    Pierre-Yves%Egreteau%NULL%1,    Guillaume%Leloup%NULL%1,    Florin%Berteau%NULL%1,    Marjolaine%Cottrel%NULL%1,    Marie%Bouteloup%NULL%1,    Matthieu%Jeannot%NULL%1,    Quentin%Blanc%NULL%1,    Julien%Saison%NULL%1,    Isabelle%Geneau%NULL%1,    Romaric%Grenot%NULL%1,    Abdel%Ouchike%NULL%1,    Pascal%Hazera%NULL%1,    Anne-Lyse%Masse%NULL%1,    Suela%Demiri%NULL%1,    Corinne%Vezinet%NULL%1,    Elodie%Baron%NULL%1,    Déborah%Benchetrit%NULL%1,    Antoine%Monsel%NULL%1,    Grégoire%Trebbia%NULL%1,    Emmanuelle%Schaack%NULL%1,    Raphaël%Lepecq%NULL%1,    Mathieu%Bobet%NULL%1,    Christophe%Vinsonneau%NULL%1,    Thibault%Dekeyser%NULL%1,    Quentin%Delforge%NULL%1,    Imen%Rahmani%NULL%1,    Bérengère%Vivet%NULL%1,    Jonathan%Paillot%NULL%1,    Lucie%Hierle%NULL%1,    Claire%Chaignat%NULL%1,    Sarah%Valette%NULL%1,    Benoït%Her%NULL%1,    Jennifier%Brunet%NULL%1,    Mathieu%Page%NULL%1,    Fabienne%Boiste%NULL%1,    Anthony%Collin%NULL%1,    Florent%Bavozet%NULL%2,    Aude%Garin%NULL%1,    Mohamed%Dlala%NULL%1,    Kais%Mhamdi%NULL%1,    Bassem%Beilouny%NULL%1,    Alexandra%Lavalard%NULL%1,    Severine%Perez%NULL%1,    Benoit%Veber%NULL%1,    Pierre-Gildas%Guitard%NULL%1,    Philippe%Gouin%NULL%1,    Anna%Lamacz%NULL%1,    Fabienne%Plouvier%NULL%1,    Bertrand P.%Delaborde%NULL%1,    Aïssa%Kherchache%NULL%1,    Amina%Chaalal%NULL%1,    Jean-Damien%Ricard%NULL%2,    Marc%Amouretti%NULL%1,    Santiago%Freita-Ramos%NULL%1,    Damien%Roux%NULL%1,    Jean-Michel%Constantin%NULL%1,    Mona%Assefi%NULL%1,    Marine%Lecore%NULL%1,    Agathe%Selves%NULL%1,    Florian%Prevost%NULL%1,    Christian%Lamer%NULL%1,    Ruiying%Shi%NULL%1,    Lyes%Knani%NULL%1,    Sébastien%Pili-Floury%NULL%1,    Lucie%Vettoretti%NULL%1,    Michael%Levy%NULL%1,    Lucile%Marsac%NULL%1,    Stéphane%Dauger%NULL%1,    Sophie%Guilmin-Crépon%NULL%1,    Jean-Baptiste%Putegnat%NULL%1,    Frédérique%Bayle%NULL%1,    Maya%Perrou%NULL%1,    Ghyslaine%Thao%NULL%1,    Guillaume%Géri%NULL%1,    Cyril%Charron%NULL%1,    Xavier%Repessé%NULL%1,    Antoine%Vieillard-Baron%NULL%1,    Mathieu%Guilbart%NULL%1,    Pierre-Alexandre%Roger%NULL%1,    Sébastien%Hinard%NULL%1,    Pierre-Yves%Macq%NULL%1,    Kevin%Chaulier%NULL%1,    Sylvie%Goutte%NULL%1,    Patrick%Chillet%NULL%1,    Anaïs%Pitta%NULL%1,    Barbara%Darjent%NULL%1,    Amandine%Bruneau%NULL%1,    Sigismond%Lasocki%NULL%1,    Maxime%Leger%NULL%1,    Soizic%Gergaud%NULL%1,    Pierre%Lemarie%NULL%1,    Nicolas%Terzi%NULL%1,    Carole%Schwebel%NULL%1,    Anaïs%Dartevel%NULL%1,    Louis-Marie%Galerneau%NULL%1,    Jean-Luc%Diehl%NULL%1,    Caroline%Hauw-Berlemont%NULL%0,    Nicolas%Péron%NULL%1,    Emmanuel%Guérot%NULL%1,    Abolfazl Mohebbi%Amoli%NULL%1,    Michel%Benhamou%NULL%1,    Jean-Pierre%Deyme%NULL%1,    Olivier%Andremont%NULL%1,    Diane%Lena%NULL%1,    Julien%Cady%NULL%1,    Arnaud%Causeret%NULL%1,    Arnaud%De La Chapelle%NULL%1,    Christophe%Cracco%NULL%1,    Stéphane%Rouleau%NULL%1,    David%Schnell%NULL%1,    Cécile%Lory%NULL%1,    Thibault%Chapelle%NULL%1,    Vincent%Bruckert%NULL%1,    Julie%Garcia%NULL%1,    Abdlazize%Sahraoui%NULL%1,    Nathalie%Abbosh%NULL%1,    Caroline%Bornstain%NULL%1,    Pierre%Pernet%NULL%1,    Florent%Poirson%NULL%1,    Ahmed%Pasem%NULL%1,    Philippe%Karoubi%NULL%1,    Virginie%Poupinel%NULL%1,    Caroline%Gauthier%NULL%1,    François%Bouniol%NULL%1,    Philippe%Feuchere%NULL%1,    Florent%Bavozet%NULL%0,    Anne%Heron%NULL%1,    Serge%Carreira%NULL%1,    Malo%Emery%NULL%1,    Anne%Le Floch%NULL%1,    Luana%Giovannangeli%NULL%1,    Nicolas%Herzog%NULL%1,    Christophe%Giacardi%NULL%1,    Thibaut%Baudic%NULL%1,    Chloé%Thill%NULL%1,    Florence%Tubach%NULL%1,    Olivier%Lesieur%NULL%1,    Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,    Max W.%Adelman%NULL%2,    Maxwell A.%Hockstein%NULL%1,    Chad J.%Robichaux%NULL%1,    Johnathan A.%Edwards%NULL%1,    Jane C.%Fazio%NULL%1,    James M.%Blum%NULL%3,    Craig S.%Jabaley%NULL%2,    Mark%Caridi-Scheible%NULL%2,    Greg S.%Martin%NULL%2,    David J.%Murphy%NULL%3,    Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,  Antonelli%M.%coreGivesNoEmail%0,  Bellani%G.%coreGivesNoEmail%0,  Bonanomi%E.%coreGivesNoEmail%0,  Cabrini%L.%coreGivesNoEmail%0,  Carlesso%E.%coreGivesNoEmail%0,  Castelli%G.%coreGivesNoEmail%0,  Cattaneo%S.%coreGivesNoEmail%0,  Cecconi%M.%coreGivesNoEmail%0,  Cereda%D.%coreGivesNoEmail%0,  Colombo%S.%coreGivesNoEmail%0,  Coluccello%A.%coreGivesNoEmail%0,  Crescini%G.%coreGivesNoEmail%0,  Forastieri%Molinari A.%coreGivesNoEmail%0,  Foti%G.%coreGivesNoEmail%0,  Fumagalli%R.%coreGivesNoEmail%0,  Grasselli%G.%coreGivesNoEmail%0,  Greco%M.%coreGivesNoEmail%0,  Iotti%G. A.%coreGivesNoEmail%0,  Langer%T.%coreGivesNoEmail%0,  Latronico%N.%coreGivesNoEmail%0,  Lorini%F. L.%coreGivesNoEmail%0,  Mojoli%F.%coreGivesNoEmail%0,  Natalini%G.%coreGivesNoEmail%0,  Pesenti%A.%coreGivesNoEmail%0,  Pessina%C. M.%coreGivesNoEmail%0,  Ranieri%V. M.%coreGivesNoEmail%0,  Rech%R.%coreGivesNoEmail%0,  Rosano%A.%coreGivesNoEmail%0,  Scudeller%L.%coreGivesNoEmail%0,  Storti%E.%coreGivesNoEmail%0,  Thompson%B. T.%coreGivesNoEmail%0,  Tirani%M.%coreGivesNoEmail%0,  Villani%P. G.%coreGivesNoEmail%0,  Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,    Keum-Ju%Choi%NULL%1,    Sun Ha%Choi%NULL%1,    Shin Yup%Lee%NULL%1,    Kyung Chan%Kim%NULL%1,    Eun Jin%Kim%NULL%1,    Jaehee%Lee%NULL%2,    Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,    Siddique%Chaudhary%NULL%1,    Kevin%Bryan Lo%NULL%2,    Kevin%Bryan Lo%NULL%0,    Robert%DeJoy%NULL%1,    Fahad%Gul%NULL%1,    Ricardo%Torres%NULL%1,    Neal%Chaisson%NULL%2,    Neal%Chaisson%NULL%0,    Gabriel%Patarroyo-Aponte%NULL%2,    Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,    Bruno L.%Ferreyro%NULL%2,    Bruno L.%Ferreyro%NULL%0,    Federico%Angriman%NULL%1,    María%Hernández-Sanz%NULL%2,    Egoitz%Arruti%NULL%1,    Antoni%Torres%NULL%2,    Jesús%Villar%NULL%1,    Laurent%Brochard%NULL%1,    Carlos%Ferrando%NULL%2,    Ricard%Mellado-Artigas%NULL%1,    María%Hernández-Sanz%NULL%0,    Carlos%Ferrando%NULL%0,    Marina%Vendrell%NULL%1,    Gerard%Sánchez-Etayo%NULL%1,    Amalia%Alcón%NULL%1,    Isabel%Belda%NULL%1,    Mercé%Agustí%NULL%1,    Albert%Carramiñana%NULL%1,    Isabel%Gracia%NULL%1,    Miriam%Panzeri%NULL%1,    Irene%León%NULL%1,    Jaume%Balust%NULL%1,    Ricard%Navarro%NULL%2,    María José%Arguís%NULL%1,    María José%Carretero%NULL%1,    Cristina%Ibáñez%NULL%1,    Juan%Perdomo%NULL%1,    Antonio%López%NULL%1,    Manuel%López-Baamonde%NULL%1,    Tomás%Cuñat%NULL%1,    Marta%Ubré%NULL%1,    Antonio%Ojeda%NULL%1,    Andrea%Calvo%NULL%1,    Eva%Rivas%NULL%1,    Paola%Hurtado%NULL%1,    Roger%Pujol%NULL%1,    Nuria%Martín%NULL%1,    Javier%Tercero%NULL%1,    Pepe%Sanahuja%NULL%1,    Marta%Magaldi%NULL%1,    Miquel%Coca%NULL%1,    Elena%del Rio%NULL%1,    Julia%Martínez-Ocon%NULL%1,    Paula%Masgoret%NULL%1,    Monserrat%Tio%NULL%1,    Angel%Caballero%NULL%1,    Raquel%Risco%NULL%1,    Raquel%Bergé%NULL%1,    Lidia%Gómez%NULL%1,    Nicolás%de Riva%NULL%1,    Ana%Ruiz%NULL%1,    Beatriz%Tena%NULL%1,    Sebastián%Jaramillo%NULL%1,    José María%Balibrea%NULL%1,    Francisco Borja de Borja%de Lacy%NULL%1,    Ana%Otero%NULL%1,    Ainitze%Ibarzabal%NULL%1,    Raquel%Bravo%NULL%1,    Anna%Carreras%NULL%1,    Daniel%Martín-Barreda%NULL%1,    Alfonso Jesús%Alias%NULL%1,    Mariano%Balaguer%NULL%1,    Jorge%Aliaga%NULL%1,    Alex%Almuedo%NULL%1,    Joan Ramón%Alonso%NULL%1,    Rut%Andrea%NULL%1,    Gerard Sergi%Angelès%NULL%1,     Marilyn%Arias%NULL%1,    Fátima%Aziz%NULL%1,    Joan Ramon%Badía%NULL%1,    Enric%Barbeta%NULL%1,    Toni%Torres%NULL%1,    Guillem%Batiste%NULL%1,    Pau%Benet%NULL%1,    Xavi%Borrat%NULL%1,    María%Borrell%NULL%1,    Ernest%Bragulat%NULL%1,    Inmaculada%Carmona%NULL%1,    Manuel%Castellà%NULL%1,    Pedro%Castro%NULL%1,    Joan%Ceravalls%NULL%1,    Oscar%Comino%NULL%1,    Claudia%Cucciniello%NULL%1,    Clàudia%De Deray%NULL%1,    Oriol%De Diego%NULL%1,    Paula%De la Matta%NULL%1,    Marta%Farrero%NULL%1,    Javier%Fernández%NULL%1,    Sara%Fernández%NULL%1,    Anna%Fernández%NULL%1,    Miquel%Ferrer%NULL%1,    Ana%Fervienza%NULL%1,    María%Tallo Forga%NULL%1,    Daniel%Forné%NULL%1,    Clàudia%Galán%NULL%1,    Andrea%Gómez%NULL%1,    Eduard%Guasch%NULL%1,    María%Hernández-Tejero%NULL%1,    Adriana%Jacas%NULL%1,    Beltrán%Jiménez%NULL%1,    Pere%Leyes%NULL%1,    Teresa%López%NULL%1,    José Antonio%Martínez%NULL%1,    Graciela%Martínez-Pallí%NULL%1,    Jordi%Mercadal%NULL%1,    Guido%Muñoz%NULL%1,    José%Muñoz%NULL%1,    Ricard%Navarro%NULL%0,    Josep María%Nicolás%NULL%1,    José Tomás%Ortiz%NULL%1,    Anna%Peiró%NULL%1,    Manuel%Pérez%NULL%1,    Esteban%Poch%NULL%1,    Margarida%Pujol%NULL%1,    Eduard%Quintana%NULL%1,    Bartomeu%Ramis%NULL%1,    Enric%Reverter%NULL%1,    Irene%Rovira%NULL%1,    Pablo%Ruiz%NULL%1,    Elena%Sandoval%NULL%1,    Stefan%Schneider%NULL%1,    Oriol%Sibila%NULL%1,    Carla%Solé%NULL%1,    Alex%Soriano%NULL%1,    Dolors%Soy%NULL%1,    M.%Suárez%NULL%1,    Adrián%Téllez%NULL%1,    Néstor David%Toapanta%NULL%1,    Antoni%Torres%NULL%0,    Xavier%Urra%NULL%1,    César%Aldecoa%NULL%1,    Alicia%Bordell%NULL%1,    Silvia%Martín%NULL%1,    Judith%Andrés%NULL%1,    Alberto Martínez%Ruiz%NULL%1,    Gonzalo Tamayo%Medel%NULL%1,    Iñaki Bilbao Bilbao%Villasante%NULL%1,    Fernando Iturri%Clavero%NULL%1,    Covadonga Peralta%Álvarez%NULL%1,    Julia T.%Herrera Díez%NULL%1,    Andrea García%Trancho%NULL%1,    Iñaki Sainz %Mandiola%NULL%1,    Carmen Ruano%Suarez%NULL%1,    Angela Ruiz%Bocos%NULL%1,    Eneritz Urrutia%Izagirre%NULL%1,    Pablo Ortiz%de Urbina Fernández%NULL%1,    Naiara Apodaka%López%NULL%1,    Leire Prieto%Molano%NULL%1,    Eunate Ganuza%Martínez%NULL%1,    Iratxe Vallinas%Hidalgo%NULL%1,    Karmele%de Orte Sancho%NULL%1,    Celia González%Paniagua%NULL%1,    Gemma Ortiz%Labrador%NULL%1,    Mireia Pérez%Larrañaga%NULL%1,    Marta López%Miguelez%NULL%1,    Estíbaliz Bárcena%Andrés%NULL%1,    Erik Urutxurtu%Laureano%NULL%1,    Maria Jesús Maroño%Boedo%NULL%1,    Blanca Escontrela%Rodríguez%NULL%1,    Aitziber Ereñozaga%Camiruaga%NULL%1,    Deiene Lasuen%Aguirre%NULL%1,    Ainhoa Zabal%Maeztu%NULL%1,    Ane Guereca%Gala%NULL%1,    Iker Castelo%Korro%NULL%1,    Andrés Álvarez%Campo%NULL%1,    Alejandro Carcelen%Viana%NULL%1,    Alejandro Alberdi%Enríquez%NULL%1,    Xabier Ormazábal%Rementeria%NULL%1,    Alberto Sánchez%Campos%NULL%1,    Rosa Gutiérrez%Rico%NULL%1,    Pablo Barbier%Damborenea%NULL%1,    Marta Guerenabarrena%Momeñe%NULL%1,    Borja Cuesta%Ruiz%NULL%1,    Alejandro López%Rico%NULL%1,    Ana Rojo%Polo%NULL%1,    Covadonga García%Grijelmo%NULL%1,    Mikel Celorrio%Reta%NULL%1,    Eneko Martín%Arroyo%NULL%1,    Leire Artaza%Aparicio%NULL%1,    Iñaki Ituarte%Aspiazu%NULL%1,    Ane Igeregi%Basabe%NULL%1,    Itxaso Merino%Julian%NULL%1,    Isabel Diaz%Rico%NULL%1,    Maria Paz%Martínez%NULL%1,    Ramón%Adalia Bartolomé%NULL%1,    Luigi%Zattera%NULL%1,    Irina Adalid%Hernandez%NULL%1,    Leire Larrañaga%Altuna%NULL%1,    Aina Serrallonga%Castells%NULL%1,    Adriana Vílchez%Garcia%NULL%1,    María%Núñez%NULL%1,    Lorena%Román%NULL%1,    Isabel Ramos%Delgado%NULL%1,    Adela Benítez-Cano%Martínez%NULL%1,    Mireia Chanzá%Albert%NULL%1,    Juan Carlos Álvarez%García%NULL%1,    Luis Aguilera%Cuchillo%NULL%1,    Sandra Beltrán%de Heredia%NULL%1,    Jesús Carazo%Cordobés%NULL%1,    Carlos Alberto García%Bernedo%NULL%1,    Fernando Escolano%Villén%NULL%1,    Francisco Javier Redondo%Calvo%NULL%1,    Rubén Villazala%González%NULL%1,    Victor Baladron%González%NULL%1,    Patricia%Faba%NULL%1,    Omar%Montenegro%NULL%1,    Natalia Bejarano%Ramírez%NULL%1,    Sergio Marcos%Contreras%NULL%1,    Alejandro Garcia%Rodríguez%NULL%1,    Saleta Rey%Vázquez%NULL%1,    Cristina Garcia%Pérez%NULL%1,    Eva Higuera%Miguelez%NULL%1,    Irene Pérez%Blanco%NULL%1,    David García%Rivera%NULL%1,    Ane Martín%de la Fuente%NULL%1,    Marta%Pardo%NULL%1,    Vanessa%Rodriguez%NULL%1,    Unai%Bengoetxea%NULL%1,    Fernando%Ramasco%NULL%1,    Sheila Olga Santidrián%Bernal%NULL%1,    Alvar Santa Cruz%Hernando%NULL%1,    Antonio Planas%Roca%NULL%1,    Carlos Figueroa%Yusta%NULL%1,    Esther García%Villabona%NULL%1,    Carmen Vallejo%Lantero%NULL%1,    Eva Patiño%Rodriguez%NULL%1,    Alvaro Esquivel%Toledo%NULL%1,    David Arribas%Méndez%NULL%1,    Mar Orts%Rodriguez%NULL%1,    Rosa Méndez%Hernández%NULL%1,    Jesús Nieves%Alonso%NULL%1,    Inés Imaz%Artazcoz%NULL%1,    Sonia Expósito%Carazo%NULL%1,    Carlos Román%Guerrero%NULL%1,    Elena Rojo%Rodríguez%NULL%1,    Ricardo Moreno%González%NULL%1,    Julia Hernando%Santos%NULL%1,    Jara Torrente%Pérez%NULL%1,    Esperanza Mata%Mena%NULL%1,    Manuel José Muñoz%Martínez%NULL%1,    Enrique Alday%Muñoz%NULL%1,    Patricia Martin%Serrano%NULL%1,    Laura Cotter%Muñoz%NULL%1,    Amadea%Mjertan%NULL%1,    Diego Gutierrez%Martínez%NULL%1,    Carmen Rodríguez%García%NULL%1,    Olaya Alonso%Viejo%NULL%1,    Juan Alvarez%Pereira%NULL%1,    Ana Carmona%Bonet%NULL%1,    Diana Parrado%López%NULL%1,    Eva%de Dios Tomas%NULL%1,    Rafael Martín%Celemin%NULL%1,    María Luisa Meilan%Paz%NULL%1,    Luis Quecedo%Gutiérrez%NULL%1,    Noemí Diaz%Velasco%NULL%1,    Gabriel Martin%Hernández%NULL%1,    Francisco Garcia%del Corral%NULL%1,    Gloria Hernandez%Arias%NULL%1,    David Rodriguez%Cuesta%NULL%1,    Ana Gómez%Rice%NULL%1,    Encarna Mateos%Sevillano%NULL%1,    Natalia Olmos%Molpeceres%NULL%1,    Beatriz%Domínguez%NULL%1,    Ana Vázquez%Lima%NULL%1,    Ángel%Candela%NULL%1,    Ismael A. Acevedo%Bambaren%NULL%1,    Maria Isabel Albala%Blanco%NULL%1,    Paloma Alonso%Montoiro%NULL%1,    Fernando Álvarez%Utrera%NULL%1,    Juan Avellanosa%Esteruelas%NULL%1,    Amal Azzam%López%NULL%1,    Alberto José%Balvis%NULL%1,    Balvis Tommaso%Bardi%NULL%1,    María Beltrán%Martín%NULL%1,    Jacobo Benatar%Haserfaty%NULL%1,    Alberto Berruezo%Camacho%NULL%1,    Laura Betolaza%Weimer%NULL%1,    María%del Mar Carbonell Soto%NULL%1,    Cristina Carrasco%Seral%NULL%1,    Cristina Cerro %Zaballos%NULL%1,    Elizabeth Claros%Llamas%NULL%1,    Pilar Coleta%Orduna%NULL%1,    Ingrid P. Cortes%Forero%NULL%1,    Pascual Agustín Crespo%Aliseda%NULL%1,    María Angélica%de Pablo Pajares%NULL%1,    Yolanda Díez%Remesal%NULL%1,    Trinidad Dorado%Díaz%NULL%1,    Noemí Echevarría%Blasco%NULL%1,    María Elena Elías%Martín%NULL%1,    Javier Felices%Triviño%NULL%1,    Natalia Fernández%López%NULL%1,    Cristina Fernández%Martín%NULL%1,    Natalia Ferreiro%Pozuelo%NULL%1,    Luis Gajate%Martín%NULL%1,    Clara Gallego%Santos%NULL%1,    Diego Gil%Mayo%NULL%1,    María Gómez%Rojo%NULL%1,    Claudia González%Cibrián%NULL%1,    Elena Herrera%López%NULL%1,    Borja Hinojal%Olmedillo%NULL%1,    Berta Iglesias%Gallego%NULL%1,    Sassan%Khonsari%NULL%1,    María Nuria Mane%Ruiz%NULL%1,    María Manzanero%Arroyo%NULL%1,    Ana María Mariscal%Ortega%NULL%1,    Sara Martín%Burcio%NULL%1,    María%del Carmen Martín González%NULL%1,    Ascensión Martín%Grande%NULL%1,    Jose Juan Martín%López%NULL%1,    Cecilia Martín%Rabes%NULL%1,    Marcos Martínez%Borja%NULL%1,    Nilda Martínez%Castro%NULL%1,    Adolfo Martínez%Pérez%NULL%1,    Snejana%Matcan%NULL%1,    Cristina Medrano%Viñas%NULL%1,    Lisset Miguel%Herrera%NULL%1,    Adrián Mira%Betancur%NULL%1,    María Montiel%Carbajo%NULL%1,    Javier Moya%Moradas%NULL%1,    Lorena Muñoz%Pérez%NULL%1,    Mónica Nuñez%Murias%NULL%1,    Eva Ordiales%González%NULL%1,    Óscar Ordoñez%Recio%NULL%1,    Miguel Ángel Palomero%Rodriguez%NULL%1,    Diego Parise%Roux%NULL%1,    Lucia Pereira%Torres%NULL%1,    David Pestaña%Lagunas%NULL%1,    Juana María Pinto%Corraliza%NULL%1,    Marian Prieto%Rodrigo%NULL%1,    Inmaculada Rodriguez%Diaz-Regaño%NULL%1,    David Rodriguez%Esteban%NULL%1,    Víctor Rojas%Pernia%NULL%1,    Álvaro Ruigómez%Saiz%NULL%1,    Bárbara Saavedra%Villarino%NULL%1,    Noemí Samaranch%Palero%NULL%1,    Gloria Santos%Pérez%NULL%1,    Jaume Serna%Pérez%NULL%1,    Ana Belén Serrano%Romero%NULL%1,    Jesús Tercero%López%NULL%1,    Carlos Tiscar%García%NULL%1,    Marta%de la Torre Concostrina%NULL%1,    Eva María Ureta%Mesa%NULL%1,    Eva Velasco%Olarte%NULL%1,    Judith Villahoz%Martínez%NULL%1,    Raúl Villalaba%Palacios%NULL%1,    Gema Villanueva%García%NULL%1,    Cristina Vogel%de Medeiros%NULL%1,    Soraya Gholamian%Ovejero%NULL%1,    Marta Vicente%Orgaz%NULL%1,    Patricia Lloreda%Herradon%NULL%1,    Cristina Crespo%Gómez%NULL%1,    Tatiana%Sarmiento-Trujillo%NULL%1,    Noemí García%Medina%NULL%1,    María Martínez%García%NULL%1,    Carles Espinós%Ramírez%NULL%1,    Nabil Mouhaffel%Rivero%NULL%1,    Jose Antonio Bernia%Gil%NULL%1,    Sonsoles%Martín%NULL%1,    María Victoria%Moral%NULL%1,    Josefina%Galán%NULL%1,    Pilar%Paniagua%NULL%1,    Sergio%Pérez%NULL%1,    Albert%Bainac%NULL%1,    Ana%Arias%NULL%1,    Elsa%Ramil%NULL%1,    Jorge%Escudero%NULL%1,    Pablo%Monedero%NULL%1,    Carmen%Cara%NULL%1,    Andrea%Lara%NULL%1,    Elena Mendez%Martínez%NULL%1,    Jorge%Mendoza%NULL%1,    Íñigo Rubio%Baines%NULL%1,    Carmen Sala%Trull%NULL%1,    Pablo Montero%López%NULL%1,    Alfredo%Gea%NULL%1,    Alejandro%Montero%NULL%1,    Rocío Armero%Ibañez%NULL%1,    Juan Vicente Llau%Pitarch%NULL%1,    Fernando Rauer%Alcóver%NULL%1,    Cristina Álvarez%Herreros%NULL%1,    Cyntia Sánchez%Martín%NULL%1,    Lucía López Ocáriz%Olmos%NULL%1,    Marta Navas%Moruno%NULL%1,    Fernando García%Montoto%NULL%1,    M. F. Mirón%Rodriguez%NULL%1,    Laura Fuentes%Coco%NULL%1,    Cristina Hernández%Gamito%NULL%1,    Antonio Barba%Orejudo%NULL%1,    Luis Gerardo Smith%Vielma%NULL%1,    Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,    Marta Donoso%Domínguez%NULL%1,    Silvia Esquivel%Ramírez%NULL%1,    José Antonio%Carbonell%NULL%1,    Berta Monleón%López%NULL%1,    Sara%Martínez-Castro%NULL%1,    Gerardo%Aguilar%NULL%1,    María Gestal Pablo%Casas%NULL%1,    Angel Outeiro%Rosato%NULL%1,    Andrea Naveiro%Pan%NULL%1,    María Alonso%Portela%NULL%1,    Adrián García%Romar%NULL%1,    Eva Mosquera%Rodríguez%NULL%1,    Diego Ruanova%Seijo%NULL%1,    Pablo Rama%Maceiras%NULL%1,    Francisco%Castro-Ceoane%NULL%1,    Esther Moreno%López%NULL%1,    Sergio%Gil%NULL%1,    Julia Guillén%Antón%NULL%1,    Patricia García-Consuegra%Tirado%NULL%1,    Aurora Callau%Calvo%NULL%1,    Laura Forés%Lisbona%NULL%1,    María Carbonell%Romero%NULL%1,    Belén Albericio%Gil%NULL%1,    Laura Pradal%Jarne%NULL%1,    María Soria%Lozano%NULL%1,    Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,    Navjot Ariyana%Kaur%NULL%1,    Daniel%Sacher%NULL%1,    Oisin%O’Corragain%NULL%1,    Daniel%Salerno%NULL%1,    Parag%Desai%NULL%1,    Sameep%Sehgal%NULL%1,    Matthew%Gordon%NULL%2,    Rohit%Gupta%NULL%2,    Nathaniel%Marchetti%NULL%1,    Huaqing%Zhao%NULL%2,    Nicole%Patlakh%NULL%2,    Gerard J.%Criner%NULL%1,    Temple%University%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,    Dominik%Jarczak%NULL%1,    Liina%Thasler%NULL%1,    Martin%Bachmann%NULL%1,    Frank%Schulte%NULL%1,    Berthold%Bein%NULL%1,    Christian Friedrich%Weber%NULL%1,    Ulrich%Schäfer%NULL%1,    Carsten%Veit%NULL%1,    Hans-Peter%Hauber%NULL%1,    Sebastian%Kopp%NULL%1,    Karsten%Sydow%NULL%1,    Andreas%de Weerth%NULL%0,    Marc%Bota%NULL%1,    Rüdiger%Schreiber%NULL%1,    Oliver%Detsch%NULL%1,    Jan-Peer%Rogmann%NULL%1,    Daniel%Frings%NULL%0,    Barbara%Sensen%NULL%1,    Christoph%Burdelski%NULL%0,    Olaf%Boenisch%NULL%1,    Axel%Nierhaus%NULL%0,    Geraldine%de Heer%NULL%0,    Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,     Paolo%Comassi%NULL%1,     Luca%Adriani%NULL%1,     Giulio%Bergamaschini%NULL%1,     Elena%Bertin%NULL%1,     Raffaella%Borromeo%NULL%1,     Serena%Corti%NULL%1,     Federica%De Petri%NULL%1,     Francesco%Dolci%NULL%1,     Attilio%Galmozzi%NULL%1,     Alberto%Gigliotti%NULL%1,     Livio%Gualdoni%NULL%1,     Claudia%Guerra%NULL%1,     Anna%Khosthiova%NULL%1,     Giovanni%Leati%NULL%1,     Giuseppe%Lupi%NULL%1,     Paolo%Moscato%NULL%1,     Vittorio%Perotti%NULL%1,     Miriam%Piantelli%NULL%1,     Alain%Ruini%NULL%1,     Silvia%Sportelli%NULL%1,     Micaela%Susca%NULL%1,     Carmine%Troiano%NULL%1,     Giampaolo%Benelli%NULL%1,     Elisabetta%Buscarini%NULL%1,     Ciro%Canetta%NULL%1,     Guido%Merli%NULL%1,     Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,     Emna%Ennouri%NULL%1,     Rayane%Nachi%NULL%1,     Khaoula%Meddeb%NULL%1,     Jihene%Mahmoud%NULL%1,     Nesrine%Thabet%NULL%1,     Salma%Jerbi%NULL%1,     Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,     Eleni%Xourgia%NULL%1,     Theodora K.%Ntaidou%NULL%1,     Dimitris%Zervakis%NULL%1,     Eleni E.%Magira%NULL%1,     Anastasia%Kotanidou%NULL%1,     Christina%Routsi%NULL%1,     Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,     Carina%Mostert%NULL%1,     Corinna%Hentschker%NULL%1,     Thomas%Voshaar%NULL%1,     Jürgen%Malzahn%NULL%1,     Gerhard%Schillinger%NULL%1,     Jürgen%Klauber%NULL%1,     Uwe%Janssens%NULL%1,     Gernot%Marx%NULL%1,     Steffen%Weber-Carstens%NULL%1,     Stefan%Kluge%NULL%0,     Michael%Pfeifer%NULL%1,     Linus%Grabenhenrich%NULL%1,     Tobias%Welte%NULL%1,     Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,     David%Hajage%NULL%2,     David%Hajage%NULL%0,     Alexandre%Demoule%NULL%1,     Tài%Pham%NULL%1,     Alain%Combes%NULL%1,     Martin%Dres%NULL%1,     Said%Lebbah%NULL%1,     Antoine%Kimmoun%NULL%1,     Alain%Mercat%NULL%1,     Gaëtan%Beduneau%NULL%1,     Jessica%Palmyre%NULL%1,     Margot%Prevost%NULL%1,     Pierre%Asfar%NULL%1,     François%Beloncle%NULL%1,     Julien%Demiselle%NULL%1,     Arthur%Pavot%NULL%1,     Xavier%Monnet%NULL%1,     Christian%Richard%NULL%1,     Julien%Mayaux%NULL%1,     Alexandra%Beurton%NULL%1,     Richard%Descamps%NULL%1,     Aurélie%Joret%NULL%1,     Damien%Du Cheyron%NULL%1,     Frédéric%Pene%NULL%1,     Jean-Daniel%Chiche%NULL%1,     Mathieu%Jozwiak%NULL%1,     Paul%Jaubert%NULL%1,     Guillaume%Voiriot%NULL%1,     Muriel%Fartoukh%NULL%1,     Marion%Teulier%NULL%1,     Clarisse%Blayau%NULL%1,     Erwen%L’Her%NULL%1,     Cécile%Aubron%NULL%1,     Laetitia%Bodenes%NULL%1,     Nicolas%Ferriere%NULL%1,     Johann%Auchabie%NULL%1,     Anthony%Le Meur%NULL%1,     Sylvain%Pignal%NULL%1,     Thierry%Mazzoni%NULL%1,     Jean-Pierre%Quenot%NULL%1,     Pascal%Andreu%NULL%1,     Jean-Baptiste%Roudau%NULL%1,     Marie%Labruyère%NULL%1,     Saad%Nseir%NULL%0,     Sébastien%Preau%NULL%1,     Julien%Poissy%NULL%0,     Daniel%Mathieu%NULL%0,     Sarah%Benhamida%NULL%1,     Rémi%Paulet%NULL%1,     Nicolas%Roucaud%NULL%1,     Martial%Thyrault%NULL%1,     Florence%Daviet%NULL%1,     Sami%Hraiech%NULL%1,     Gabriel%Parzy%NULL%1,     Aude%Sylvestre%NULL%1,     Sébastien%Jochmans%NULL%1,     Anne-Laure%Bouilland%NULL%1,     Mehran%Monchi%NULL%1,     Marc%Danguy des Déserts%NULL%1,     Quentin%Mathais%NULL%1,     Gwendoline%Rager%NULL%1,     Pierre%Pasquier%NULL%1,     Reignier%Jean%NULL%1,     Seguin%Amélie%NULL%1,     Garret%Charlotte%NULL%1,     Canet%Emmanuel%NULL%1,     Jean%Dellamonica%NULL%1,     Clément%Saccheri%NULL%1,     Romain%Lombardi%NULL%1,     Yanis%Kouchit%NULL%1,     Sophie%Jacquier%NULL%1,     Armelle%Mathonnet%NULL%1,     Mai-Ahn%Nay%NULL%1,     Isabelle%Runge%NULL%1,     Frédéric%Martino%NULL%1,     Laure%Flurin%NULL%1,     Amélie%Rolle%NULL%1,     Michel%Carles%NULL%1,     Rémi%Coudroy%NULL%1,     Arnaud W.%Thille%NULL%1,     Jean-Pierre%Frat%NULL%1,     Maeva%Rodriguez%NULL%1,     Pascal%Beuret%NULL%1,     Audrey%Tientcheu%NULL%1,     Arthur%Vincent%NULL%1,     Florian%Michelin%NULL%1,     Marie Anne%Melone%NULL%1,     Maxime%Gauzi%NULL%1,     Arnaud%Guilbert%NULL%1,     Geoffrey%Kouadri%NULL%1,     Valérie%Gissot%NULL%1,     Stéphan%Ehrmann%NULL%1,     Charlotte%Salmon-Gandonnière%NULL%1,     Djlali%Elaroussi%NULL%1,     Agathe%Delbove%NULL%1,     Yannick%Fedun%NULL%1,     Julien%Huntzinger%NULL%1,     Eddy%Lebas%NULL%1,     Grâce%Kisoka%NULL%1,     Céline%Grégoire%NULL%1,     Stella%Marchetta%NULL%1,     Bernard%Lambermont%NULL%1,     Laurent%Argaud%NULL%1,     Thomas%Baudry%NULL%1,     Pierre-Jean%Bertrand%NULL%1,     Auguste%Dargent%NULL%1,     Christophe%Guitton%NULL%1,     Nicolas%Chudeau%NULL%1,     Mickaël%Landais%NULL%1,     Cédric%Darreau%NULL%1,     Alexis%Ferre%NULL%1,     Antoine%Gros%NULL%1,     Guillaume%Lacave%NULL%1,     Fabrice%Bruneel%NULL%1,     Mathilde%Neuville%NULL%1,     Jérôme%Devaquet%NULL%1,     Guillaume%Tachon%NULL%1,     Richard%Gallot%NULL%1,     Riad%Chelha%NULL%1,     Arnaud%Galbois%NULL%1,     Anne%Jallot%NULL%1,     Ludivine Chalumeau%Lemoine%NULL%1,     Khaldoun%Kuteifan%NULL%1,     Valentin%Pointurier%NULL%1,     Louise-Marie%Jandeaux%NULL%1,     Joy%Mootien%NULL%1,     Charles%Damoisel%NULL%1,     Benjamin%Sztrymf%NULL%2,     Juliette%Chommeloux%NULL%1,     Charles Edouard%Luyt%NULL%1,     Frédérique%Schortgen%NULL%1,     Leon%Rusel%NULL%1,     Camille%Jung%NULL%1,     Florent%Gobert%NULL%1,     Damien%Vimpere%NULL%1,     Lionel%Lamhaut%NULL%1,     Bertrand%Sauneuf%NULL%1,     Liliane%Charrier%NULL%1,     Julien%Calus%NULL%1,     Isabelle%Desmeules%NULL%1,     Benoît%Painvin%NULL%1,     Jean-Marc%Tadie%NULL%1,     Vincent%Castelain%NULL%1,     Baptiste%Michard%NULL%1,     Jean-Etienne%Herbrecht%NULL%1,     Mathieu%Baldacini%NULL%1,     Nicolas%Weiss%NULL%1,     Sophie%Demeret%NULL%1,     Clémence%Marois%NULL%1,     Benjamin%Rohaut%NULL%1,     Pierre-Henri%Moury%NULL%1,     Anne-Charlotte%Savida%NULL%1,     Emmanuel%Couadau%NULL%1,     Mathieu%Série%NULL%1,     Nica%Alexandru%NULL%1,     Cédric%Bruel%NULL%1,     Candice%Fontaine%NULL%1,     Sonia%Garrigou%NULL%1,     Juliette Courtiade%Mahler%NULL%1,     Maxime%Leclerc%NULL%1,     Michel%Ramakers%NULL%1,     Pierre%Garçon%NULL%1,     Nicole%Massou%NULL%1,     Ly Phacs%Van Vong%NULL%1,     Juliane%Sen%NULL%1,     Nolwenn%Lucas%NULL%1,     Franck%Chemouni%NULL%1,     Annabelle%Stoclin%NULL%1,     Alexandre%Avenel%NULL%1,     Henri%Faure%NULL%1,     Angélie%Gentilhomme%NULL%1,     Sylvie%Ricome%NULL%1,     Paul%Abraham%NULL%1,     Céline%Monard%NULL%1,     Julien%Textoris%NULL%1,     Thomas%Rimmele%NULL%1,     Florent%Montini%NULL%1,     Gabriel%Lejour%NULL%1,     Thierry%Lazard%NULL%1,     Isabelle%Etienney%NULL%1,     Younes%Kerroumi%NULL%1,     Dupuis%Claire%NULL%1,     Bereiziat Marine%Coupez%NULL%1,     Thouy%François%NULL%1,     Clémet%Hoffmann%NULL%1,     Nicolas%Donat%NULL%1,     Violaine%Muller%NULL%1,     Thibault%Martinez%NULL%1,     Audrey%Jacquot%NULL%1,     Matthieu%Mattei%NULL%1,     Bruno%Levy%NULL%1,     Ramin%Ravan%NULL%1,     Loïc%Dopeux%NULL%1,     Jean-Mathias%Liteaudon%NULL%1,     Delphine%Roux%NULL%1,     Brice%Rey%NULL%1,     Radu%Anghel%NULL%1,     Deborah%Schenesse%NULL%1,     Vincent%Gevrey%NULL%1,     Jermy%Castanera%NULL%1,     Philippe%Petua%NULL%1,     Benjamin%Madeux%NULL%1,     Otto%Hartman%NULL%1,     Michael%Piagnerelli%NULL%1,     Anne%Joosten%NULL%1,     Cinderella%Noel%NULL%1,     Patrick%Biston%NULL%1,     Thibaut%Noel%NULL%1,     Gurvan L. E.%Bouar%NULL%1,     Messabi%Boukhanza%NULL%1,     Elsa%Demarest%NULL%1,     Marie-France%Bajolet%NULL%1,     Nathanaël%Charrier%NULL%1,     Audrey%Quenet%NULL%1,     Cécile%Zylberfajn%NULL%1,     Nicolas%Dufour%NULL%1,     Buno%Mégarbane%NULL%1,     Sqébastian%Voicu%NULL%1,     Nicolas%Deye%NULL%1,     Isabelle%Malissin%NULL%1,     François%Legay%NULL%1,     Matthieu%Debarre%NULL%1,     Nicolas%Barbarot%NULL%1,     Pierre%Fillatre%NULL%1,     Bertrand%Delord%NULL%1,     Thomas%Laterrade%NULL%1,     Tahar%Saghi%NULL%1,     Wilfried%Pujol%NULL%1,     Pierre Julien%Cungi%NULL%1,     Pierre%Esnault%NULL%1,     Mickael%Cardinale%NULL%1,     Vivien%Hong Tuan Ha%NULL%1,     Grégory%Fleury%NULL%1,     Marie-Ange%Brou%NULL%1,     Daniel%Zafimahazo%NULL%1,     David%Tran-Van%NULL%1,     Patrick%Avargues%NULL%1,     Lisa%Carenco%NULL%1,     Nicolas%Robin%NULL%1,     Alexandre%Ouali%NULL%1,     Lucie%Houdou%NULL%1,     Christophe%Le Terrier%NULL%1,     Noémie%Suh%NULL%1,     Steve%Primmaz%NULL%1,     Jérome%Pugin%NULL%1,     Emmanuel%Weiss%NULL%1,     Tobias%Gauss%NULL%1,     Jean-Denis%Moyer%NULL%1,     Catherine%Paugam-Burtz%NULL%1,     Béatrice%La Combe%NULL%1,     Rolland%Smonig%NULL%1,     Jade%Violleau%NULL%1,     Pauline%Cailliez%NULL%1,     Jonathan%Chelly%NULL%1,     Antoine%Marchalot%NULL%1,     Cécile%Saladin%NULL%1,     Christelle%Bigot%NULL%1,     Pierre-Marie%Fayolle%NULL%1,     Jules%Fatséas%NULL%1,     Amr%Ibrahim%NULL%1,     Dabor%Resiere%NULL%1,     Rabih%Hage%NULL%1,     Clémentine%Cholet%NULL%1,     Marie%Cantier%NULL%1,     Pierre%Trouiller%NULL%1,     Philippe%Montravers%NULL%1,     Brice%Lortat-Jacob%NULL%1,     Sebastien%Tanaka%NULL%1,     Alexy%Tran-Dinh%NULL%1,     Jacques%Duranteau%NULL%1,     Anatole%Harrois%NULL%1,     Guillaume%Dubreuil%NULL%1,     Marie%Werner%NULL%1,     Anne%Godier%NULL%1,     Sophie%Hamada%NULL%1,     Diane%Zlotnik%NULL%1,     Hélène%Nougue%NULL%1,     Armand%Mekontso-Dessap%NULL%1,     Guillaume%Carteaux%NULL%1,     Keyvan%Razazi%NULL%1,     Nicolas%De Prost%NULL%1,     Nicolas%Mongardon%NULL%1,     Olivier%Langeron%NULL%1,     Eric%Levesque%NULL%1,     Arié%Attias%NULL%1,     Charles%de Roquetaillade%NULL%1,     Benjamin G.%Chousterman%NULL%1,     Alexandre%Mebazaa%NULL%1,     Etienne%Gayat%NULL%1,     Marc%Garnier%NULL%1,     Emmanuel%Pardo%NULL%1,     Lea%Satre-Buisson%NULL%1,     Christophe%Gutton%NULL%1,     Elise%Yvin%NULL%1,     Clémence%Marcault%NULL%1,     Elie%Azoulay%NULL%1,     Michael%Darmon%NULL%1,     Nicolas%Bonnet%NULL%1,     Nathan%Ebstein%NULL%1,     Stéphane%Gaudry%NULL%1,     Yves%Cohen%NULL%1,      Hafid%Ait-Oufella%NULL%1,     Geoffroy%Hariri%NULL%1,     Tomas%Urbina%NULL%1,     Sandie%Mazerand%NULL%1,     Nicholas%Heming%NULL%1,     Francesca%Santi%NULL%1,     Pierre%Moine%NULL%1,     Djillali%Annane%NULL%1,     Adrien%Bouglé%NULL%1,     Edris%Omar%NULL%1,     Aymeric%Lancelot%NULL%1,     Emmanuelle%Begot%NULL%1,     Gaétan%Plantefeve%NULL%1,     Damien%Contou%NULL%1,     Hervé%Mentec%NULL%1,     Olivier%Pajot%NULL%1,     Stanislas%Faguer%NULL%1,     Olivier%Cointault%NULL%1,     Laurence%Lavayssiere%NULL%1,     Marie-Béatrice%Nogier%NULL%1,     Matthieu%Jamme%NULL%1,     Claire%Pichereau%NULL%1,     Jan%Hayon%NULL%1,     Hervé%Outin%NULL%1,     François%Dépret%NULL%1,     Maxime%Coutrot%NULL%1,     Maité%Chaussard%NULL%1,     Lucie%Guillemet%NULL%1,     Pierre%Goffin%NULL%1,     Romain%Thouny%NULL%1,     Julien%Guntz%NULL%1,     Laurent%Jadot%NULL%1,     Romain%Persichini%NULL%1,     Vanessa%Jean-Michel%NULL%1,     Hugues%Georges%NULL%1,     Thomas%Caulier%NULL%1,     Gaël%Pradel%NULL%1,     Marie-Hélène%Hausermann%NULL%1,     ThiMy Hue%Nguyen-Valat%NULL%1,     Michel%Boudinaud%NULL%1,     Emmanuel%Vivier%NULL%1,     Sylvène%Rosseli%NULL%1,     Gaël%Bourdin%NULL%1,     Christian%Pommier%NULL%1,     Marc%Vinclair%NULL%1,     Simon%Poignant%NULL%1,     Sandrine%Mons%NULL%1,     Wulfran%Bougouin%NULL%1,     Franklin%Bruna%NULL%1,     Quentin%Maestraggi%NULL%1,     Christian%Roth%NULL%1,     Laurent%Bitker%NULL%1,     François%Dhelft%NULL%1,     Justine%Bonnet-Chateau%NULL%1,     Mathilde%Filippelli%NULL%1,     Tristan%Morichau-Beauchant%NULL%1,     Stéphane%Thierry%NULL%1,     Charlotte%Le Roy%NULL%1,     Mélanie%Saint Jouan%NULL%1,     Bruno%Goncalves%NULL%1,     Aurélien%Mazeraud%NULL%1,     Matthieu%Daniel%NULL%1,     Tarek%Sharshar%NULL%1,     Cyril%Cadoz%NULL%1,     Rostane%Gaci%NULL%1,     Sébastien%Gette%NULL%1,     Guillaune%Louis%NULL%1,     Sophe-Caroline%Sacleux%NULL%1,     Marie-Amélie%Ordan%NULL%1,     Aurélie%Cravoisy%NULL%1,     Marie%Conrad%NULL%1,     Guilhem%Courte%NULL%1,     Sébastien%Gibot%NULL%1,     Younès%Benzidi%NULL%1,     Claudia%Casella%NULL%1,     Laurent%Serpin%NULL%1,     Jean-Lou%Setti%NULL%1,     Marie-Catherine%Besse%NULL%1,     Anna%Bourreau%NULL%1,     Jérôme%Pillot%NULL%1,     Caroline%Rivera%NULL%1,     Camille%Vinclair%NULL%1,     Marie-Aline%Robaux%NULL%1,     Chloé%Achino%NULL%1,     Marie-Charlotte%Delignette%NULL%1,     Tessa%Mazard%NULL%1,     Frédéric%Aubrun%NULL%1,     Bruno%Bouchet%NULL%1,     Aurélien%Frérou%NULL%1,     Laura%Muller%NULL%1,     Charlotte%Quentin%NULL%1,     Samuel%Degoul%NULL%1,     Xavier%Stihle%NULL%1,     Claude%Sumian%NULL%1,     Nicoletta%Bergero%NULL%1,     Bernard%Lanaspre%NULL%1,     Hervé%Quintard%NULL%1,     Eve Marie%Maiziere%NULL%1,     Pierre-Yves%Egreteau%NULL%1,     Guillaume%Leloup%NULL%1,     Florin%Berteau%NULL%1,     Marjolaine%Cottrel%NULL%1,     Marie%Bouteloup%NULL%1,     Matthieu%Jeannot%NULL%1,     Quentin%Blanc%NULL%1,     Julien%Saison%NULL%1,     Isabelle%Geneau%NULL%1,     Romaric%Grenot%NULL%1,     Abdel%Ouchike%NULL%1,     Pascal%Hazera%NULL%1,     Anne-Lyse%Masse%NULL%1,     Suela%Demiri%NULL%1,     Corinne%Vezinet%NULL%1,     Elodie%Baron%NULL%1,     Déborah%Benchetrit%NULL%1,     Antoine%Monsel%NULL%1,     Grégoire%Trebbia%NULL%1,     Emmanuelle%Schaack%NULL%1,     Raphaël%Lepecq%NULL%1,     Mathieu%Bobet%NULL%1,     Christophe%Vinsonneau%NULL%1,     Thibault%Dekeyser%NULL%1,     Quentin%Delforge%NULL%1,     Imen%Rahmani%NULL%1,     Bérengère%Vivet%NULL%1,     Jonathan%Paillot%NULL%1,     Lucie%Hierle%NULL%1,     Claire%Chaignat%NULL%1,     Sarah%Valette%NULL%1,     Benoït%Her%NULL%1,     Jennifier%Brunet%NULL%1,     Mathieu%Page%NULL%1,     Fabienne%Boiste%NULL%1,     Anthony%Collin%NULL%1,     Florent%Bavozet%NULL%2,     Aude%Garin%NULL%1,     Mohamed%Dlala%NULL%1,     Kais%Mhamdi%NULL%1,     Bassem%Beilouny%NULL%1,     Alexandra%Lavalard%NULL%1,     Severine%Perez%NULL%1,     Benoit%Veber%NULL%1,     Pierre-Gildas%Guitard%NULL%1,     Philippe%Gouin%NULL%1,     Anna%Lamacz%NULL%1,     Fabienne%Plouvier%NULL%1,     Bertrand P.%Delaborde%NULL%1,     Aïssa%Kherchache%NULL%1,     Amina%Chaalal%NULL%1,     Jean-Damien%Ricard%NULL%2,     Marc%Amouretti%NULL%1,     Santiago%Freita-Ramos%NULL%1,     Damien%Roux%NULL%1,     Jean-Michel%Constantin%NULL%1,     Mona%Assefi%NULL%1,     Marine%Lecore%NULL%1,     Agathe%Selves%NULL%1,     Florian%Prevost%NULL%1,     Christian%Lamer%NULL%1,     Ruiying%Shi%NULL%1,     Lyes%Knani%NULL%1,     Sébastien%Pili-Floury%NULL%1,     Lucie%Vettoretti%NULL%1,     Michael%Levy%NULL%1,     Lucile%Marsac%NULL%1,     Stéphane%Dauger%NULL%1,     Sophie%Guilmin-Crépon%NULL%1,     Jean-Baptiste%Putegnat%NULL%1,     Frédérique%Bayle%NULL%1,     Maya%Perrou%NULL%1,     Ghyslaine%Thao%NULL%1,     Guillaume%Géri%NULL%1,     Cyril%Charron%NULL%1,     Xavier%Repessé%NULL%1,     Antoine%Vieillard-Baron%NULL%1,     Mathieu%Guilbart%NULL%1,     Pierre-Alexandre%Roger%NULL%1,     Sébastien%Hinard%NULL%1,     Pierre-Yves%Macq%NULL%1,     Kevin%Chaulier%NULL%1,     Sylvie%Goutte%NULL%1,     Patrick%Chillet%NULL%1,     Anaïs%Pitta%NULL%1,     Barbara%Darjent%NULL%1,     Amandine%Bruneau%NULL%1,     Sigismond%Lasocki%NULL%1,     Maxime%Leger%NULL%1,     Soizic%Gergaud%NULL%1,     Pierre%Lemarie%NULL%1,     Nicolas%Terzi%NULL%1,     Carole%Schwebel%NULL%1,     Anaïs%Dartevel%NULL%1,     Louis-Marie%Galerneau%NULL%1,     Jean-Luc%Diehl%NULL%1,     Caroline%Hauw-Berlemont%NULL%0,     Nicolas%Péron%NULL%1,     Emmanuel%Guérot%NULL%1,     Abolfazl Mohebbi%Amoli%NULL%1,     Michel%Benhamou%NULL%1,     Jean-Pierre%Deyme%NULL%1,     Olivier%Andremont%NULL%1,     Diane%Lena%NULL%1,     Julien%Cady%NULL%1,     Arnaud%Causeret%NULL%1,     Arnaud%De La Chapelle%NULL%1,     Christophe%Cracco%NULL%1,     Stéphane%Rouleau%NULL%1,     David%Schnell%NULL%1,     Cécile%Lory%NULL%1,     Thibault%Chapelle%NULL%1,     Vincent%Bruckert%NULL%1,     Julie%Garcia%NULL%1,     Abdlazize%Sahraoui%NULL%1,     Nathalie%Abbosh%NULL%1,     Caroline%Bornstain%NULL%1,     Pierre%Pernet%NULL%1,     Florent%Poirson%NULL%1,     Ahmed%Pasem%NULL%1,     Philippe%Karoubi%NULL%1,     Virginie%Poupinel%NULL%1,     Caroline%Gauthier%NULL%1,     François%Bouniol%NULL%1,     Philippe%Feuchere%NULL%1,     Florent%Bavozet%NULL%0,     Anne%Heron%NULL%1,     Serge%Carreira%NULL%1,     Malo%Emery%NULL%1,     Anne%Le Floch%NULL%1,     Luana%Giovannangeli%NULL%1,     Nicolas%Herzog%NULL%1,     Christophe%Giacardi%NULL%1,     Thibaut%Baudic%NULL%1,     Chloé%Thill%NULL%1,     Florence%Tubach%NULL%1,     Olivier%Lesieur%NULL%1,     Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,     Max W.%Adelman%NULL%3,     Maxwell A.%Hockstein%NULL%1,     Chad J.%Robichaux%NULL%1,     Johnathan A.%Edwards%NULL%1,     Jane C.%Fazio%NULL%1,     James M.%Blum%NULL%4,     Craig S.%Jabaley%NULL%3,     Mark%Caridi-Scheible%NULL%3,     Greg S.%Martin%NULL%3,     David J.%Murphy%NULL%4,     Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,   Antonelli%M.%coreGivesNoEmail%0,   Bellani%G.%coreGivesNoEmail%0,   Bonanomi%E.%coreGivesNoEmail%0,   Cabrini%L.%coreGivesNoEmail%0,   Carlesso%E.%coreGivesNoEmail%0,   Castelli%G.%coreGivesNoEmail%0,   Cattaneo%S.%coreGivesNoEmail%0,   Cecconi%M.%coreGivesNoEmail%0,   Cereda%D.%coreGivesNoEmail%0,   Colombo%S.%coreGivesNoEmail%0,   Coluccello%A.%coreGivesNoEmail%0,   Crescini%G.%coreGivesNoEmail%0,   Forastieri%Molinari A.%coreGivesNoEmail%0,   Foti%G.%coreGivesNoEmail%0,   Fumagalli%R.%coreGivesNoEmail%0,   Grasselli%G.%coreGivesNoEmail%0,   Greco%M.%coreGivesNoEmail%0,   Iotti%G. A.%coreGivesNoEmail%0,   Langer%T.%coreGivesNoEmail%0,   Latronico%N.%coreGivesNoEmail%0,   Lorini%F. L.%coreGivesNoEmail%0,   Mojoli%F.%coreGivesNoEmail%0,   Natalini%G.%coreGivesNoEmail%0,   Pesenti%A.%coreGivesNoEmail%0,   Pessina%C. M.%coreGivesNoEmail%0,   Ranieri%V. M.%coreGivesNoEmail%0,   Rech%R.%coreGivesNoEmail%0,   Rosano%A.%coreGivesNoEmail%0,   Scudeller%L.%coreGivesNoEmail%0,   Storti%E.%coreGivesNoEmail%0,   Thompson%B. T.%coreGivesNoEmail%0,   Tirani%M.%coreGivesNoEmail%0,   Villani%P. G.%coreGivesNoEmail%0,   Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,     Keum-Ju%Choi%NULL%1,     Sun Ha%Choi%NULL%1,     Shin Yup%Lee%NULL%1,     Kyung Chan%Kim%NULL%1,     Eun Jin%Kim%NULL%1,     Jaehee%Lee%NULL%2,     Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,     Siddique%Chaudhary%NULL%1,     Kevin%Bryan Lo%NULL%2,     Kevin%Bryan Lo%NULL%0,     Robert%DeJoy%NULL%1,     Fahad%Gul%NULL%1,     Ricardo%Torres%NULL%1,     Neal%Chaisson%NULL%2,     Neal%Chaisson%NULL%0,     Gabriel%Patarroyo-Aponte%NULL%2,     Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,     Bruno L.%Ferreyro%NULL%2,     Bruno L.%Ferreyro%NULL%0,     Federico%Angriman%NULL%1,     María%Hernández-Sanz%NULL%2,     Egoitz%Arruti%NULL%1,     Antoni%Torres%NULL%2,     Jesús%Villar%NULL%1,     Laurent%Brochard%NULL%1,     Carlos%Ferrando%NULL%2,     Ricard%Mellado-Artigas%NULL%1,     María%Hernández-Sanz%NULL%0,     Carlos%Ferrando%NULL%0,     Marina%Vendrell%NULL%1,     Gerard%Sánchez-Etayo%NULL%1,     Amalia%Alcón%NULL%1,     Isabel%Belda%NULL%1,     Mercé%Agustí%NULL%1,     Albert%Carramiñana%NULL%1,     Isabel%Gracia%NULL%1,     Miriam%Panzeri%NULL%1,     Irene%León%NULL%1,     Jaume%Balust%NULL%1,     Ricard%Navarro%NULL%2,     María José%Arguís%NULL%1,     María José%Carretero%NULL%1,     Cristina%Ibáñez%NULL%1,     Juan%Perdomo%NULL%1,     Antonio%López%NULL%1,     Manuel%López-Baamonde%NULL%1,     Tomás%Cuñat%NULL%1,     Marta%Ubré%NULL%1,     Antonio%Ojeda%NULL%1,     Andrea%Calvo%NULL%1,     Eva%Rivas%NULL%1,     Paola%Hurtado%NULL%1,     Roger%Pujol%NULL%1,     Nuria%Martín%NULL%1,     Javier%Tercero%NULL%1,     Pepe%Sanahuja%NULL%1,     Marta%Magaldi%NULL%1,     Miquel%Coca%NULL%1,     Elena%del Rio%NULL%1,     Julia%Martínez-Ocon%NULL%1,     Paula%Masgoret%NULL%1,     Monserrat%Tio%NULL%1,     Angel%Caballero%NULL%1,     Raquel%Risco%NULL%1,     Raquel%Bergé%NULL%1,     Lidia%Gómez%NULL%1,     Nicolás%de Riva%NULL%1,     Ana%Ruiz%NULL%1,     Beatriz%Tena%NULL%1,     Sebastián%Jaramillo%NULL%1,     José María%Balibrea%NULL%1,     Francisco Borja de Borja%de Lacy%NULL%1,     Ana%Otero%NULL%1,     Ainitze%Ibarzabal%NULL%1,     Raquel%Bravo%NULL%1,     Anna%Carreras%NULL%1,     Daniel%Martín-Barreda%NULL%1,     Alfonso Jesús%Alias%NULL%1,     Mariano%Balaguer%NULL%1,     Jorge%Aliaga%NULL%1,     Alex%Almuedo%NULL%1,     Joan Ramón%Alonso%NULL%1,     Rut%Andrea%NULL%1,     Gerard Sergi%Angelès%NULL%1,      Marilyn%Arias%NULL%1,     Fátima%Aziz%NULL%1,     Joan Ramon%Badía%NULL%1,     Enric%Barbeta%NULL%1,     Toni%Torres%NULL%1,     Guillem%Batiste%NULL%1,     Pau%Benet%NULL%1,     Xavi%Borrat%NULL%1,     María%Borrell%NULL%1,     Ernest%Bragulat%NULL%1,     Inmaculada%Carmona%NULL%1,     Manuel%Castellà%NULL%1,     Pedro%Castro%NULL%1,     Joan%Ceravalls%NULL%1,     Oscar%Comino%NULL%1,     Claudia%Cucciniello%NULL%1,     Clàudia%De Deray%NULL%1,     Oriol%De Diego%NULL%1,     Paula%De la Matta%NULL%1,     Marta%Farrero%NULL%1,     Javier%Fernández%NULL%1,     Sara%Fernández%NULL%1,     Anna%Fernández%NULL%1,     Miquel%Ferrer%NULL%1,     Ana%Fervienza%NULL%1,     María%Tallo Forga%NULL%1,     Daniel%Forné%NULL%1,     Clàudia%Galán%NULL%1,     Andrea%Gómez%NULL%1,     Eduard%Guasch%NULL%1,     María%Hernández-Tejero%NULL%1,     Adriana%Jacas%NULL%1,     Beltrán%Jiménez%NULL%1,     Pere%Leyes%NULL%1,     Teresa%López%NULL%1,     José Antonio%Martínez%NULL%1,     Graciela%Martínez-Pallí%NULL%1,     Jordi%Mercadal%NULL%1,     Guido%Muñoz%NULL%1,     José%Muñoz%NULL%1,     Ricard%Navarro%NULL%0,     Josep María%Nicolás%NULL%1,     José Tomás%Ortiz%NULL%1,     Anna%Peiró%NULL%1,     Manuel%Pérez%NULL%1,     Esteban%Poch%NULL%1,     Margarida%Pujol%NULL%1,     Eduard%Quintana%NULL%1,     Bartomeu%Ramis%NULL%1,     Enric%Reverter%NULL%1,     Irene%Rovira%NULL%1,     Pablo%Ruiz%NULL%1,     Elena%Sandoval%NULL%1,     Stefan%Schneider%NULL%1,     Oriol%Sibila%NULL%1,     Carla%Solé%NULL%1,     Alex%Soriano%NULL%1,     Dolors%Soy%NULL%1,     M.%Suárez%NULL%1,     Adrián%Téllez%NULL%1,     Néstor David%Toapanta%NULL%1,     Antoni%Torres%NULL%0,     Xavier%Urra%NULL%1,     César%Aldecoa%NULL%1,     Alicia%Bordell%NULL%1,     Silvia%Martín%NULL%1,     Judith%Andrés%NULL%1,     Alberto Martínez%Ruiz%NULL%1,     Gonzalo Tamayo%Medel%NULL%1,     Iñaki Bilbao Bilbao%Villasante%NULL%1,     Fernando Iturri%Clavero%NULL%1,     Covadonga Peralta%Álvarez%NULL%1,     Julia T.%Herrera Díez%NULL%1,     Andrea García%Trancho%NULL%1,     Iñaki Sainz %Mandiola%NULL%1,     Carmen Ruano%Suarez%NULL%1,     Angela Ruiz%Bocos%NULL%1,     Eneritz Urrutia%Izagirre%NULL%1,     Pablo Ortiz%de Urbina Fernández%NULL%1,     Naiara Apodaka%López%NULL%1,     Leire Prieto%Molano%NULL%1,     Eunate Ganuza%Martínez%NULL%1,     Iratxe Vallinas%Hidalgo%NULL%1,     Karmele%de Orte Sancho%NULL%1,     Celia González%Paniagua%NULL%1,     Gemma Ortiz%Labrador%NULL%1,     Mireia Pérez%Larrañaga%NULL%1,     Marta López%Miguelez%NULL%1,     Estíbaliz Bárcena%Andrés%NULL%1,     Erik Urutxurtu%Laureano%NULL%1,     Maria Jesús Maroño%Boedo%NULL%1,     Blanca Escontrela%Rodríguez%NULL%1,     Aitziber Ereñozaga%Camiruaga%NULL%1,     Deiene Lasuen%Aguirre%NULL%1,     Ainhoa Zabal%Maeztu%NULL%1,     Ane Guereca%Gala%NULL%1,     Iker Castelo%Korro%NULL%1,     Andrés Álvarez%Campo%NULL%1,     Alejandro Carcelen%Viana%NULL%1,     Alejandro Alberdi%Enríquez%NULL%1,     Xabier Ormazábal%Rementeria%NULL%1,     Alberto Sánchez%Campos%NULL%1,     Rosa Gutiérrez%Rico%NULL%1,     Pablo Barbier%Damborenea%NULL%1,     Marta Guerenabarrena%Momeñe%NULL%1,     Borja Cuesta%Ruiz%NULL%1,     Alejandro López%Rico%NULL%1,     Ana Rojo%Polo%NULL%1,     Covadonga García%Grijelmo%NULL%1,     Mikel Celorrio%Reta%NULL%1,     Eneko Martín%Arroyo%NULL%1,     Leire Artaza%Aparicio%NULL%1,     Iñaki Ituarte%Aspiazu%NULL%1,     Ane Igeregi%Basabe%NULL%1,     Itxaso Merino%Julian%NULL%1,     Isabel Diaz%Rico%NULL%1,     Maria Paz%Martínez%NULL%1,     Ramón%Adalia Bartolomé%NULL%1,     Luigi%Zattera%NULL%1,     Irina Adalid%Hernandez%NULL%1,     Leire Larrañaga%Altuna%NULL%1,     Aina Serrallonga%Castells%NULL%1,     Adriana Vílchez%Garcia%NULL%1,     María%Núñez%NULL%1,     Lorena%Román%NULL%1,     Isabel Ramos%Delgado%NULL%1,     Adela Benítez-Cano%Martínez%NULL%1,     Mireia Chanzá%Albert%NULL%1,     Juan Carlos Álvarez%García%NULL%1,     Luis Aguilera%Cuchillo%NULL%1,     Sandra Beltrán%de Heredia%NULL%1,     Jesús Carazo%Cordobés%NULL%1,     Carlos Alberto García%Bernedo%NULL%1,     Fernando Escolano%Villén%NULL%1,     Francisco Javier Redondo%Calvo%NULL%1,     Rubén Villazala%González%NULL%1,     Victor Baladron%González%NULL%1,     Patricia%Faba%NULL%1,     Omar%Montenegro%NULL%1,     Natalia Bejarano%Ramírez%NULL%1,     Sergio Marcos%Contreras%NULL%1,     Alejandro Garcia%Rodríguez%NULL%1,     Saleta Rey%Vázquez%NULL%1,     Cristina Garcia%Pérez%NULL%1,     Eva Higuera%Miguelez%NULL%1,     Irene Pérez%Blanco%NULL%1,     David García%Rivera%NULL%1,     Ane Martín%de la Fuente%NULL%1,     Marta%Pardo%NULL%1,     Vanessa%Rodriguez%NULL%1,     Unai%Bengoetxea%NULL%1,     Fernando%Ramasco%NULL%1,     Sheila Olga Santidrián%Bernal%NULL%1,     Alvar Santa Cruz%Hernando%NULL%1,     Antonio Planas%Roca%NULL%1,     Carlos Figueroa%Yusta%NULL%1,     Esther García%Villabona%NULL%1,     Carmen Vallejo%Lantero%NULL%1,     Eva Patiño%Rodriguez%NULL%1,     Alvaro Esquivel%Toledo%NULL%1,     David Arribas%Méndez%NULL%1,     Mar Orts%Rodriguez%NULL%1,     Rosa Méndez%Hernández%NULL%1,     Jesús Nieves%Alonso%NULL%1,     Inés Imaz%Artazcoz%NULL%1,     Sonia Expósito%Carazo%NULL%1,     Carlos Román%Guerrero%NULL%1,     Elena Rojo%Rodríguez%NULL%1,     Ricardo Moreno%González%NULL%1,     Julia Hernando%Santos%NULL%1,     Jara Torrente%Pérez%NULL%1,     Esperanza Mata%Mena%NULL%1,     Manuel José Muñoz%Martínez%NULL%1,     Enrique Alday%Muñoz%NULL%1,     Patricia Martin%Serrano%NULL%1,     Laura Cotter%Muñoz%NULL%1,     Amadea%Mjertan%NULL%1,     Diego Gutierrez%Martínez%NULL%1,     Carmen Rodríguez%García%NULL%1,     Olaya Alonso%Viejo%NULL%1,     Juan Alvarez%Pereira%NULL%1,     Ana Carmona%Bonet%NULL%1,     Diana Parrado%López%NULL%1,     Eva%de Dios Tomas%NULL%1,     Rafael Martín%Celemin%NULL%1,     María Luisa Meilan%Paz%NULL%1,     Luis Quecedo%Gutiérrez%NULL%1,     Noemí Diaz%Velasco%NULL%1,     Gabriel Martin%Hernández%NULL%1,     Francisco Garcia%del Corral%NULL%1,     Gloria Hernandez%Arias%NULL%1,     David Rodriguez%Cuesta%NULL%1,     Ana Gómez%Rice%NULL%1,     Encarna Mateos%Sevillano%NULL%1,     Natalia Olmos%Molpeceres%NULL%1,     Beatriz%Domínguez%NULL%1,     Ana Vázquez%Lima%NULL%1,     Ángel%Candela%NULL%1,     Ismael A. Acevedo%Bambaren%NULL%1,     Maria Isabel Albala%Blanco%NULL%1,     Paloma Alonso%Montoiro%NULL%1,     Fernando Álvarez%Utrera%NULL%1,     Juan Avellanosa%Esteruelas%NULL%1,     Amal Azzam%López%NULL%1,     Alberto José%Balvis%NULL%1,     Balvis Tommaso%Bardi%NULL%1,     María Beltrán%Martín%NULL%1,     Jacobo Benatar%Haserfaty%NULL%1,     Alberto Berruezo%Camacho%NULL%1,     Laura Betolaza%Weimer%NULL%1,     María%del Mar Carbonell Soto%NULL%1,     Cristina Carrasco%Seral%NULL%1,     Cristina Cerro %Zaballos%NULL%1,     Elizabeth Claros%Llamas%NULL%1,     Pilar Coleta%Orduna%NULL%1,     Ingrid P. Cortes%Forero%NULL%1,     Pascual Agustín Crespo%Aliseda%NULL%1,     María Angélica%de Pablo Pajares%NULL%1,     Yolanda Díez%Remesal%NULL%1,     Trinidad Dorado%Díaz%NULL%1,     Noemí Echevarría%Blasco%NULL%1,     María Elena Elías%Martín%NULL%1,     Javier Felices%Triviño%NULL%1,     Natalia Fernández%López%NULL%1,     Cristina Fernández%Martín%NULL%1,     Natalia Ferreiro%Pozuelo%NULL%1,     Luis Gajate%Martín%NULL%1,     Clara Gallego%Santos%NULL%1,     Diego Gil%Mayo%NULL%1,     María Gómez%Rojo%NULL%1,     Claudia González%Cibrián%NULL%1,     Elena Herrera%López%NULL%1,     Borja Hinojal%Olmedillo%NULL%1,     Berta Iglesias%Gallego%NULL%1,     Sassan%Khonsari%NULL%1,     María Nuria Mane%Ruiz%NULL%1,     María Manzanero%Arroyo%NULL%1,     Ana María Mariscal%Ortega%NULL%1,     Sara Martín%Burcio%NULL%1,     María%del Carmen Martín González%NULL%1,     Ascensión Martín%Grande%NULL%1,     Jose Juan Martín%López%NULL%1,     Cecilia Martín%Rabes%NULL%1,     Marcos Martínez%Borja%NULL%1,     Nilda Martínez%Castro%NULL%1,     Adolfo Martínez%Pérez%NULL%1,     Snejana%Matcan%NULL%1,     Cristina Medrano%Viñas%NULL%1,     Lisset Miguel%Herrera%NULL%1,     Adrián Mira%Betancur%NULL%1,     María Montiel%Carbajo%NULL%1,     Javier Moya%Moradas%NULL%1,     Lorena Muñoz%Pérez%NULL%1,     Mónica Nuñez%Murias%NULL%1,     Eva Ordiales%González%NULL%1,     Óscar Ordoñez%Recio%NULL%1,     Miguel Ángel Palomero%Rodriguez%NULL%1,     Diego Parise%Roux%NULL%1,     Lucia Pereira%Torres%NULL%1,     David Pestaña%Lagunas%NULL%1,     Juana María Pinto%Corraliza%NULL%1,     Marian Prieto%Rodrigo%NULL%1,     Inmaculada Rodriguez%Diaz-Regaño%NULL%1,     David Rodriguez%Esteban%NULL%1,     Víctor Rojas%Pernia%NULL%1,     Álvaro Ruigómez%Saiz%NULL%1,     Bárbara Saavedra%Villarino%NULL%1,     Noemí Samaranch%Palero%NULL%1,     Gloria Santos%Pérez%NULL%1,     Jaume Serna%Pérez%NULL%1,     Ana Belén Serrano%Romero%NULL%1,     Jesús Tercero%López%NULL%1,     Carlos Tiscar%García%NULL%1,     Marta%de la Torre Concostrina%NULL%1,     Eva María Ureta%Mesa%NULL%1,     Eva Velasco%Olarte%NULL%1,     Judith Villahoz%Martínez%NULL%1,     Raúl Villalaba%Palacios%NULL%1,     Gema Villanueva%García%NULL%1,     Cristina Vogel%de Medeiros%NULL%1,     Soraya Gholamian%Ovejero%NULL%1,     Marta Vicente%Orgaz%NULL%1,     Patricia Lloreda%Herradon%NULL%1,     Cristina Crespo%Gómez%NULL%1,     Tatiana%Sarmiento-Trujillo%NULL%1,     Noemí García%Medina%NULL%1,     María Martínez%García%NULL%1,     Carles Espinós%Ramírez%NULL%1,     Nabil Mouhaffel%Rivero%NULL%1,     Jose Antonio Bernia%Gil%NULL%1,     Sonsoles%Martín%NULL%1,     María Victoria%Moral%NULL%1,     Josefina%Galán%NULL%1,     Pilar%Paniagua%NULL%1,     Sergio%Pérez%NULL%1,     Albert%Bainac%NULL%1,     Ana%Arias%NULL%1,     Elsa%Ramil%NULL%1,     Jorge%Escudero%NULL%1,     Pablo%Monedero%NULL%1,     Carmen%Cara%NULL%1,     Andrea%Lara%NULL%1,     Elena Mendez%Martínez%NULL%1,     Jorge%Mendoza%NULL%1,     Íñigo Rubio%Baines%NULL%1,     Carmen Sala%Trull%NULL%1,     Pablo Montero%López%NULL%1,     Alfredo%Gea%NULL%1,     Alejandro%Montero%NULL%1,     Rocío Armero%Ibañez%NULL%1,     Juan Vicente Llau%Pitarch%NULL%1,     Fernando Rauer%Alcóver%NULL%1,     Cristina Álvarez%Herreros%NULL%1,     Cyntia Sánchez%Martín%NULL%1,     Lucía López Ocáriz%Olmos%NULL%1,     Marta Navas%Moruno%NULL%1,     Fernando García%Montoto%NULL%1,     M. F. Mirón%Rodriguez%NULL%1,     Laura Fuentes%Coco%NULL%1,     Cristina Hernández%Gamito%NULL%1,     Antonio Barba%Orejudo%NULL%1,     Luis Gerardo Smith%Vielma%NULL%1,     Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,     Marta Donoso%Domínguez%NULL%1,     Silvia Esquivel%Ramírez%NULL%1,     José Antonio%Carbonell%NULL%1,     Berta Monleón%López%NULL%1,     Sara%Martínez-Castro%NULL%1,     Gerardo%Aguilar%NULL%1,     María Gestal Pablo%Casas%NULL%1,     Angel Outeiro%Rosato%NULL%1,     Andrea Naveiro%Pan%NULL%1,     María Alonso%Portela%NULL%1,     Adrián García%Romar%NULL%1,     Eva Mosquera%Rodríguez%NULL%1,     Diego Ruanova%Seijo%NULL%1,     Pablo Rama%Maceiras%NULL%1,     Francisco%Castro-Ceoane%NULL%1,     Esther Moreno%López%NULL%1,     Sergio%Gil%NULL%1,     Julia Guillén%Antón%NULL%1,     Patricia García-Consuegra%Tirado%NULL%1,     Aurora Callau%Calvo%NULL%1,     Laura Forés%Lisbona%NULL%1,     María Carbonell%Romero%NULL%1,     Belén Albericio%Gil%NULL%1,     Laura Pradal%Jarne%NULL%1,     María Soria%Lozano%NULL%1,     Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,     Navjot Ariyana%Kaur%NULL%1,     Daniel%Sacher%NULL%1,     Oisin%O’Corragain%NULL%1,     Daniel%Salerno%NULL%1,     Parag%Desai%NULL%1,     Sameep%Sehgal%NULL%1,     Matthew%Gordon%NULL%2,     Rohit%Gupta%NULL%2,     Nathaniel%Marchetti%NULL%1,     Huaqing%Zhao%NULL%2,     Nicole%Patlakh%NULL%2,     Gerard J.%Criner%NULL%1,     Temple%University%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,     Dominik%Jarczak%NULL%1,     Liina%Thasler%NULL%1,     Martin%Bachmann%NULL%1,     Frank%Schulte%NULL%1,     Berthold%Bein%NULL%1,     Christian Friedrich%Weber%NULL%1,     Ulrich%Schäfer%NULL%1,     Carsten%Veit%NULL%1,     Hans-Peter%Hauber%NULL%1,     Sebastian%Kopp%NULL%1,     Karsten%Sydow%NULL%1,     Andreas%de Weerth%NULL%0,     Marc%Bota%NULL%1,     Rüdiger%Schreiber%NULL%1,     Oliver%Detsch%NULL%1,     Jan-Peer%Rogmann%NULL%1,     Daniel%Frings%NULL%0,     Barbara%Sensen%NULL%1,     Christoph%Burdelski%NULL%0,     Olaf%Boenisch%NULL%1,     Axel%Nierhaus%NULL%0,     Geraldine%de Heer%NULL%0,     Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,      Paolo%Comassi%NULL%1,      Luca%Adriani%NULL%1,      Giulio%Bergamaschini%NULL%1,      Elena%Bertin%NULL%1,      Raffaella%Borromeo%NULL%1,      Serena%Corti%NULL%1,      Federica%De Petri%NULL%1,      Francesco%Dolci%NULL%1,      Attilio%Galmozzi%NULL%1,      Alberto%Gigliotti%NULL%1,      Livio%Gualdoni%NULL%1,      Claudia%Guerra%NULL%1,      Anna%Khosthiova%NULL%1,      Giovanni%Leati%NULL%1,      Giuseppe%Lupi%NULL%1,      Paolo%Moscato%NULL%1,      Vittorio%Perotti%NULL%1,      Miriam%Piantelli%NULL%1,      Alain%Ruini%NULL%1,      Silvia%Sportelli%NULL%1,      Micaela%Susca%NULL%1,      Carmine%Troiano%NULL%1,      Giampaolo%Benelli%NULL%1,      Elisabetta%Buscarini%NULL%1,      Ciro%Canetta%NULL%1,      Guido%Merli%NULL%1,      Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,      Emna%Ennouri%NULL%1,      Rayane%Nachi%NULL%1,      Khaoula%Meddeb%NULL%1,      Jihene%Mahmoud%NULL%1,      Nesrine%Thabet%NULL%1,      Salma%Jerbi%NULL%1,      Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,      Eleni%Xourgia%NULL%1,      Theodora K.%Ntaidou%NULL%1,      Dimitris%Zervakis%NULL%1,      Eleni E.%Magira%NULL%1,      Anastasia%Kotanidou%NULL%1,      Christina%Routsi%NULL%1,      Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,      Carina%Mostert%NULL%1,      Corinna%Hentschker%NULL%1,      Thomas%Voshaar%NULL%1,      Jürgen%Malzahn%NULL%1,      Gerhard%Schillinger%NULL%1,      Jürgen%Klauber%NULL%1,      Uwe%Janssens%NULL%1,      Gernot%Marx%NULL%1,      Steffen%Weber-Carstens%NULL%1,      Stefan%Kluge%NULL%0,      Michael%Pfeifer%NULL%1,      Linus%Grabenhenrich%NULL%1,      Tobias%Welte%NULL%1,      Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,      David%Hajage%NULL%2,      David%Hajage%NULL%0,      Alexandre%Demoule%NULL%1,      Tài%Pham%NULL%1,      Alain%Combes%NULL%1,      Martin%Dres%NULL%1,      Said%Lebbah%NULL%1,      Antoine%Kimmoun%NULL%1,      Alain%Mercat%NULL%1,      Gaëtan%Beduneau%NULL%1,      Jessica%Palmyre%NULL%1,      Margot%Prevost%NULL%1,      Pierre%Asfar%NULL%1,      François%Beloncle%NULL%1,      Julien%Demiselle%NULL%1,      Arthur%Pavot%NULL%1,      Xavier%Monnet%NULL%1,      Christian%Richard%NULL%1,      Julien%Mayaux%NULL%1,      Alexandra%Beurton%NULL%1,      Richard%Descamps%NULL%1,      Aurélie%Joret%NULL%1,      Damien%Du Cheyron%NULL%1,      Frédéric%Pene%NULL%1,      Jean-Daniel%Chiche%NULL%1,      Mathieu%Jozwiak%NULL%1,      Paul%Jaubert%NULL%1,      Guillaume%Voiriot%NULL%1,      Muriel%Fartoukh%NULL%1,      Marion%Teulier%NULL%1,      Clarisse%Blayau%NULL%1,      Erwen%L’Her%NULL%1,      Cécile%Aubron%NULL%1,      Laetitia%Bodenes%NULL%1,      Nicolas%Ferriere%NULL%1,      Johann%Auchabie%NULL%1,      Anthony%Le Meur%NULL%1,      Sylvain%Pignal%NULL%1,      Thierry%Mazzoni%NULL%1,      Jean-Pierre%Quenot%NULL%1,      Pascal%Andreu%NULL%1,      Jean-Baptiste%Roudau%NULL%1,      Marie%Labruyère%NULL%1,      Saad%Nseir%NULL%0,      Sébastien%Preau%NULL%1,      Julien%Poissy%NULL%0,      Daniel%Mathieu%NULL%0,      Sarah%Benhamida%NULL%1,      Rémi%Paulet%NULL%1,      Nicolas%Roucaud%NULL%1,      Martial%Thyrault%NULL%1,      Florence%Daviet%NULL%1,      Sami%Hraiech%NULL%1,      Gabriel%Parzy%NULL%1,      Aude%Sylvestre%NULL%1,      Sébastien%Jochmans%NULL%1,      Anne-Laure%Bouilland%NULL%1,      Mehran%Monchi%NULL%1,      Marc%Danguy des Déserts%NULL%1,      Quentin%Mathais%NULL%1,      Gwendoline%Rager%NULL%1,      Pierre%Pasquier%NULL%1,      Reignier%Jean%NULL%1,      Seguin%Amélie%NULL%1,      Garret%Charlotte%NULL%1,      Canet%Emmanuel%NULL%1,      Jean%Dellamonica%NULL%1,      Clément%Saccheri%NULL%1,      Romain%Lombardi%NULL%1,      Yanis%Kouchit%NULL%1,      Sophie%Jacquier%NULL%1,      Armelle%Mathonnet%NULL%1,      Mai-Ahn%Nay%NULL%1,      Isabelle%Runge%NULL%1,      Frédéric%Martino%NULL%1,      Laure%Flurin%NULL%1,      Amélie%Rolle%NULL%1,      Michel%Carles%NULL%1,      Rémi%Coudroy%NULL%1,      Arnaud W.%Thille%NULL%1,      Jean-Pierre%Frat%NULL%1,      Maeva%Rodriguez%NULL%1,      Pascal%Beuret%NULL%1,      Audrey%Tientcheu%NULL%1,      Arthur%Vincent%NULL%1,      Florian%Michelin%NULL%1,      Marie Anne%Melone%NULL%1,      Maxime%Gauzi%NULL%1,      Arnaud%Guilbert%NULL%1,      Geoffrey%Kouadri%NULL%1,      Valérie%Gissot%NULL%1,      Stéphan%Ehrmann%NULL%1,      Charlotte%Salmon-Gandonnière%NULL%1,      Djlali%Elaroussi%NULL%1,      Agathe%Delbove%NULL%1,      Yannick%Fedun%NULL%1,      Julien%Huntzinger%NULL%1,      Eddy%Lebas%NULL%1,      Grâce%Kisoka%NULL%1,      Céline%Grégoire%NULL%1,      Stella%Marchetta%NULL%1,      Bernard%Lambermont%NULL%1,      Laurent%Argaud%NULL%1,      Thomas%Baudry%NULL%1,      Pierre-Jean%Bertrand%NULL%1,      Auguste%Dargent%NULL%1,      Christophe%Guitton%NULL%1,      Nicolas%Chudeau%NULL%1,      Mickaël%Landais%NULL%1,      Cédric%Darreau%NULL%1,      Alexis%Ferre%NULL%1,      Antoine%Gros%NULL%1,      Guillaume%Lacave%NULL%1,      Fabrice%Bruneel%NULL%1,      Mathilde%Neuville%NULL%1,      Jérôme%Devaquet%NULL%1,      Guillaume%Tachon%NULL%1,      Richard%Gallot%NULL%1,      Riad%Chelha%NULL%1,      Arnaud%Galbois%NULL%1,      Anne%Jallot%NULL%1,      Ludivine Chalumeau%Lemoine%NULL%1,      Khaldoun%Kuteifan%NULL%1,      Valentin%Pointurier%NULL%1,      Louise-Marie%Jandeaux%NULL%1,      Joy%Mootien%NULL%1,      Charles%Damoisel%NULL%1,      Benjamin%Sztrymf%NULL%2,      Juliette%Chommeloux%NULL%1,      Charles Edouard%Luyt%NULL%1,      Frédérique%Schortgen%NULL%1,      Leon%Rusel%NULL%1,      Camille%Jung%NULL%1,      Florent%Gobert%NULL%1,      Damien%Vimpere%NULL%1,      Lionel%Lamhaut%NULL%1,      Bertrand%Sauneuf%NULL%1,      Liliane%Charrier%NULL%1,      Julien%Calus%NULL%1,      Isabelle%Desmeules%NULL%1,      Benoît%Painvin%NULL%1,      Jean-Marc%Tadie%NULL%1,      Vincent%Castelain%NULL%1,      Baptiste%Michard%NULL%1,      Jean-Etienne%Herbrecht%NULL%1,      Mathieu%Baldacini%NULL%1,      Nicolas%Weiss%NULL%1,      Sophie%Demeret%NULL%1,      Clémence%Marois%NULL%1,      Benjamin%Rohaut%NULL%1,      Pierre-Henri%Moury%NULL%1,      Anne-Charlotte%Savida%NULL%1,      Emmanuel%Couadau%NULL%1,      Mathieu%Série%NULL%1,      Nica%Alexandru%NULL%1,      Cédric%Bruel%NULL%1,      Candice%Fontaine%NULL%1,      Sonia%Garrigou%NULL%1,      Juliette Courtiade%Mahler%NULL%1,      Maxime%Leclerc%NULL%1,      Michel%Ramakers%NULL%1,      Pierre%Garçon%NULL%1,      Nicole%Massou%NULL%1,      Ly Phacs%Van Vong%NULL%1,      Juliane%Sen%NULL%1,      Nolwenn%Lucas%NULL%1,      Franck%Chemouni%NULL%1,      Annabelle%Stoclin%NULL%1,      Alexandre%Avenel%NULL%1,      Henri%Faure%NULL%1,      Angélie%Gentilhomme%NULL%1,      Sylvie%Ricome%NULL%1,      Paul%Abraham%NULL%1,      Céline%Monard%NULL%1,      Julien%Textoris%NULL%1,      Thomas%Rimmele%NULL%1,      Florent%Montini%NULL%1,      Gabriel%Lejour%NULL%1,      Thierry%Lazard%NULL%1,      Isabelle%Etienney%NULL%1,      Younes%Kerroumi%NULL%1,      Dupuis%Claire%NULL%1,      Bereiziat Marine%Coupez%NULL%1,      Thouy%François%NULL%1,      Clémet%Hoffmann%NULL%1,      Nicolas%Donat%NULL%1,      Violaine%Muller%NULL%1,      Thibault%Martinez%NULL%1,      Audrey%Jacquot%NULL%1,      Matthieu%Mattei%NULL%1,      Bruno%Levy%NULL%1,      Ramin%Ravan%NULL%1,      Loïc%Dopeux%NULL%1,      Jean-Mathias%Liteaudon%NULL%1,      Delphine%Roux%NULL%1,      Brice%Rey%NULL%1,      Radu%Anghel%NULL%1,      Deborah%Schenesse%NULL%1,      Vincent%Gevrey%NULL%1,      Jermy%Castanera%NULL%1,      Philippe%Petua%NULL%1,      Benjamin%Madeux%NULL%1,      Otto%Hartman%NULL%1,      Michael%Piagnerelli%NULL%1,      Anne%Joosten%NULL%1,      Cinderella%Noel%NULL%1,      Patrick%Biston%NULL%1,      Thibaut%Noel%NULL%1,      Gurvan L. E.%Bouar%NULL%1,      Messabi%Boukhanza%NULL%1,      Elsa%Demarest%NULL%1,      Marie-France%Bajolet%NULL%1,      Nathanaël%Charrier%NULL%1,      Audrey%Quenet%NULL%1,      Cécile%Zylberfajn%NULL%1,      Nicolas%Dufour%NULL%1,      Buno%Mégarbane%NULL%1,      Sqébastian%Voicu%NULL%1,      Nicolas%Deye%NULL%1,      Isabelle%Malissin%NULL%1,      François%Legay%NULL%1,      Matthieu%Debarre%NULL%1,      Nicolas%Barbarot%NULL%1,      Pierre%Fillatre%NULL%1,      Bertrand%Delord%NULL%1,      Thomas%Laterrade%NULL%1,      Tahar%Saghi%NULL%1,      Wilfried%Pujol%NULL%1,      Pierre Julien%Cungi%NULL%1,      Pierre%Esnault%NULL%1,      Mickael%Cardinale%NULL%1,      Vivien%Hong Tuan Ha%NULL%1,      Grégory%Fleury%NULL%1,      Marie-Ange%Brou%NULL%1,      Daniel%Zafimahazo%NULL%1,      David%Tran-Van%NULL%1,      Patrick%Avargues%NULL%1,      Lisa%Carenco%NULL%1,      Nicolas%Robin%NULL%1,      Alexandre%Ouali%NULL%1,      Lucie%Houdou%NULL%1,      Christophe%Le Terrier%NULL%1,      Noémie%Suh%NULL%1,      Steve%Primmaz%NULL%1,      Jérome%Pugin%NULL%1,      Emmanuel%Weiss%NULL%1,      Tobias%Gauss%NULL%1,      Jean-Denis%Moyer%NULL%1,      Catherine%Paugam-Burtz%NULL%1,      Béatrice%La Combe%NULL%1,      Rolland%Smonig%NULL%1,      Jade%Violleau%NULL%1,      Pauline%Cailliez%NULL%1,      Jonathan%Chelly%NULL%1,      Antoine%Marchalot%NULL%1,      Cécile%Saladin%NULL%1,      Christelle%Bigot%NULL%1,      Pierre-Marie%Fayolle%NULL%1,      Jules%Fatséas%NULL%1,      Amr%Ibrahim%NULL%1,      Dabor%Resiere%NULL%1,      Rabih%Hage%NULL%1,      Clémentine%Cholet%NULL%1,      Marie%Cantier%NULL%1,      Pierre%Trouiller%NULL%1,      Philippe%Montravers%NULL%1,      Brice%Lortat-Jacob%NULL%1,      Sebastien%Tanaka%NULL%1,      Alexy%Tran-Dinh%NULL%1,      Jacques%Duranteau%NULL%1,      Anatole%Harrois%NULL%1,      Guillaume%Dubreuil%NULL%1,      Marie%Werner%NULL%1,      Anne%Godier%NULL%1,      Sophie%Hamada%NULL%1,      Diane%Zlotnik%NULL%1,      Hélène%Nougue%NULL%1,      Armand%Mekontso-Dessap%NULL%1,      Guillaume%Carteaux%NULL%1,      Keyvan%Razazi%NULL%1,      Nicolas%De Prost%NULL%1,      Nicolas%Mongardon%NULL%1,      Olivier%Langeron%NULL%1,      Eric%Levesque%NULL%1,      Arié%Attias%NULL%1,      Charles%de Roquetaillade%NULL%1,      Benjamin G.%Chousterman%NULL%1,      Alexandre%Mebazaa%NULL%1,      Etienne%Gayat%NULL%1,      Marc%Garnier%NULL%1,      Emmanuel%Pardo%NULL%1,      Lea%Satre-Buisson%NULL%1,      Christophe%Gutton%NULL%1,      Elise%Yvin%NULL%1,      Clémence%Marcault%NULL%1,      Elie%Azoulay%NULL%1,      Michael%Darmon%NULL%1,      Nicolas%Bonnet%NULL%1,      Nathan%Ebstein%NULL%1,      Stéphane%Gaudry%NULL%1,      Yves%Cohen%NULL%1,       Hafid%Ait-Oufella%NULL%1,      Geoffroy%Hariri%NULL%1,      Tomas%Urbina%NULL%1,      Sandie%Mazerand%NULL%1,      Nicholas%Heming%NULL%1,      Francesca%Santi%NULL%1,      Pierre%Moine%NULL%1,      Djillali%Annane%NULL%1,      Adrien%Bouglé%NULL%1,      Edris%Omar%NULL%1,      Aymeric%Lancelot%NULL%1,      Emmanuelle%Begot%NULL%1,      Gaétan%Plantefeve%NULL%1,      Damien%Contou%NULL%1,      Hervé%Mentec%NULL%1,      Olivier%Pajot%NULL%1,      Stanislas%Faguer%NULL%1,      Olivier%Cointault%NULL%1,      Laurence%Lavayssiere%NULL%1,      Marie-Béatrice%Nogier%NULL%1,      Matthieu%Jamme%NULL%1,      Claire%Pichereau%NULL%1,      Jan%Hayon%NULL%1,      Hervé%Outin%NULL%1,      François%Dépret%NULL%1,      Maxime%Coutrot%NULL%1,      Maité%Chaussard%NULL%1,      Lucie%Guillemet%NULL%1,      Pierre%Goffin%NULL%1,      Romain%Thouny%NULL%1,      Julien%Guntz%NULL%1,      Laurent%Jadot%NULL%1,      Romain%Persichini%NULL%1,      Vanessa%Jean-Michel%NULL%1,      Hugues%Georges%NULL%1,      Thomas%Caulier%NULL%1,      Gaël%Pradel%NULL%1,      Marie-Hélène%Hausermann%NULL%1,      ThiMy Hue%Nguyen-Valat%NULL%1,      Michel%Boudinaud%NULL%1,      Emmanuel%Vivier%NULL%1,      Sylvène%Rosseli%NULL%1,      Gaël%Bourdin%NULL%1,      Christian%Pommier%NULL%1,      Marc%Vinclair%NULL%1,      Simon%Poignant%NULL%1,      Sandrine%Mons%NULL%1,      Wulfran%Bougouin%NULL%1,      Franklin%Bruna%NULL%1,      Quentin%Maestraggi%NULL%1,      Christian%Roth%NULL%1,      Laurent%Bitker%NULL%1,      François%Dhelft%NULL%1,      Justine%Bonnet-Chateau%NULL%1,      Mathilde%Filippelli%NULL%1,      Tristan%Morichau-Beauchant%NULL%1,      Stéphane%Thierry%NULL%1,      Charlotte%Le Roy%NULL%1,      Mélanie%Saint Jouan%NULL%1,      Bruno%Goncalves%NULL%1,      Aurélien%Mazeraud%NULL%1,      Matthieu%Daniel%NULL%1,      Tarek%Sharshar%NULL%1,      Cyril%Cadoz%NULL%1,      Rostane%Gaci%NULL%1,      Sébastien%Gette%NULL%1,      Guillaune%Louis%NULL%1,      Sophe-Caroline%Sacleux%NULL%1,      Marie-Amélie%Ordan%NULL%1,      Aurélie%Cravoisy%NULL%1,      Marie%Conrad%NULL%1,      Guilhem%Courte%NULL%1,      Sébastien%Gibot%NULL%1,      Younès%Benzidi%NULL%1,      Claudia%Casella%NULL%1,      Laurent%Serpin%NULL%1,      Jean-Lou%Setti%NULL%1,      Marie-Catherine%Besse%NULL%1,      Anna%Bourreau%NULL%1,      Jérôme%Pillot%NULL%1,      Caroline%Rivera%NULL%1,      Camille%Vinclair%NULL%1,      Marie-Aline%Robaux%NULL%1,      Chloé%Achino%NULL%1,      Marie-Charlotte%Delignette%NULL%1,      Tessa%Mazard%NULL%1,      Frédéric%Aubrun%NULL%1,      Bruno%Bouchet%NULL%1,      Aurélien%Frérou%NULL%1,      Laura%Muller%NULL%1,      Charlotte%Quentin%NULL%1,      Samuel%Degoul%NULL%1,      Xavier%Stihle%NULL%1,      Claude%Sumian%NULL%1,      Nicoletta%Bergero%NULL%1,      Bernard%Lanaspre%NULL%1,      Hervé%Quintard%NULL%1,      Eve Marie%Maiziere%NULL%1,      Pierre-Yves%Egreteau%NULL%1,      Guillaume%Leloup%NULL%1,      Florin%Berteau%NULL%1,      Marjolaine%Cottrel%NULL%1,      Marie%Bouteloup%NULL%1,      Matthieu%Jeannot%NULL%1,      Quentin%Blanc%NULL%1,      Julien%Saison%NULL%1,      Isabelle%Geneau%NULL%1,      Romaric%Grenot%NULL%1,      Abdel%Ouchike%NULL%1,      Pascal%Hazera%NULL%1,      Anne-Lyse%Masse%NULL%1,      Suela%Demiri%NULL%1,      Corinne%Vezinet%NULL%1,      Elodie%Baron%NULL%1,      Déborah%Benchetrit%NULL%1,      Antoine%Monsel%NULL%1,      Grégoire%Trebbia%NULL%1,      Emmanuelle%Schaack%NULL%1,      Raphaël%Lepecq%NULL%1,      Mathieu%Bobet%NULL%1,      Christophe%Vinsonneau%NULL%1,      Thibault%Dekeyser%NULL%1,      Quentin%Delforge%NULL%1,      Imen%Rahmani%NULL%1,      Bérengère%Vivet%NULL%1,      Jonathan%Paillot%NULL%1,      Lucie%Hierle%NULL%1,      Claire%Chaignat%NULL%1,      Sarah%Valette%NULL%1,      Benoït%Her%NULL%1,      Jennifier%Brunet%NULL%1,      Mathieu%Page%NULL%1,      Fabienne%Boiste%NULL%1,      Anthony%Collin%NULL%1,      Florent%Bavozet%NULL%2,      Aude%Garin%NULL%1,      Mohamed%Dlala%NULL%1,      Kais%Mhamdi%NULL%1,      Bassem%Beilouny%NULL%1,      Alexandra%Lavalard%NULL%1,      Severine%Perez%NULL%1,      Benoit%Veber%NULL%1,      Pierre-Gildas%Guitard%NULL%1,      Philippe%Gouin%NULL%1,      Anna%Lamacz%NULL%1,      Fabienne%Plouvier%NULL%1,      Bertrand P.%Delaborde%NULL%1,      Aïssa%Kherchache%NULL%1,      Amina%Chaalal%NULL%1,      Jean-Damien%Ricard%NULL%2,      Marc%Amouretti%NULL%1,      Santiago%Freita-Ramos%NULL%1,      Damien%Roux%NULL%1,      Jean-Michel%Constantin%NULL%1,      Mona%Assefi%NULL%1,      Marine%Lecore%NULL%1,      Agathe%Selves%NULL%1,      Florian%Prevost%NULL%1,      Christian%Lamer%NULL%1,      Ruiying%Shi%NULL%1,      Lyes%Knani%NULL%1,      Sébastien%Pili-Floury%NULL%1,      Lucie%Vettoretti%NULL%1,      Michael%Levy%NULL%1,      Lucile%Marsac%NULL%1,      Stéphane%Dauger%NULL%1,      Sophie%Guilmin-Crépon%NULL%1,      Jean-Baptiste%Putegnat%NULL%1,      Frédérique%Bayle%NULL%1,      Maya%Perrou%NULL%1,      Ghyslaine%Thao%NULL%1,      Guillaume%Géri%NULL%1,      Cyril%Charron%NULL%1,      Xavier%Repessé%NULL%1,      Antoine%Vieillard-Baron%NULL%1,      Mathieu%Guilbart%NULL%1,      Pierre-Alexandre%Roger%NULL%1,      Sébastien%Hinard%NULL%1,      Pierre-Yves%Macq%NULL%1,      Kevin%Chaulier%NULL%1,      Sylvie%Goutte%NULL%1,      Patrick%Chillet%NULL%1,      Anaïs%Pitta%NULL%1,      Barbara%Darjent%NULL%1,      Amandine%Bruneau%NULL%1,      Sigismond%Lasocki%NULL%1,      Maxime%Leger%NULL%1,      Soizic%Gergaud%NULL%1,      Pierre%Lemarie%NULL%1,      Nicolas%Terzi%NULL%1,      Carole%Schwebel%NULL%1,      Anaïs%Dartevel%NULL%1,      Louis-Marie%Galerneau%NULL%1,      Jean-Luc%Diehl%NULL%1,      Caroline%Hauw-Berlemont%NULL%0,      Nicolas%Péron%NULL%1,      Emmanuel%Guérot%NULL%1,      Abolfazl Mohebbi%Amoli%NULL%1,      Michel%Benhamou%NULL%1,      Jean-Pierre%Deyme%NULL%1,      Olivier%Andremont%NULL%1,      Diane%Lena%NULL%1,      Julien%Cady%NULL%1,      Arnaud%Causeret%NULL%1,      Arnaud%De La Chapelle%NULL%1,      Christophe%Cracco%NULL%1,      Stéphane%Rouleau%NULL%1,      David%Schnell%NULL%1,      Cécile%Lory%NULL%1,      Thibault%Chapelle%NULL%1,      Vincent%Bruckert%NULL%1,      Julie%Garcia%NULL%1,      Abdlazize%Sahraoui%NULL%1,      Nathalie%Abbosh%NULL%1,      Caroline%Bornstain%NULL%1,      Pierre%Pernet%NULL%1,      Florent%Poirson%NULL%1,      Ahmed%Pasem%NULL%1,      Philippe%Karoubi%NULL%1,      Virginie%Poupinel%NULL%1,      Caroline%Gauthier%NULL%1,      François%Bouniol%NULL%1,      Philippe%Feuchere%NULL%1,      Florent%Bavozet%NULL%0,      Anne%Heron%NULL%1,      Serge%Carreira%NULL%1,      Malo%Emery%NULL%1,      Anne%Le Floch%NULL%1,      Luana%Giovannangeli%NULL%1,      Nicolas%Herzog%NULL%1,      Christophe%Giacardi%NULL%1,      Thibaut%Baudic%NULL%1,      Chloé%Thill%NULL%1,      Florence%Tubach%NULL%1,      Olivier%Lesieur%NULL%1,      Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,      Max W.%Adelman%NULL%3,      Maxwell A.%Hockstein%NULL%1,      Chad J.%Robichaux%NULL%1,      Johnathan A.%Edwards%NULL%1,      Jane C.%Fazio%NULL%1,      James M.%Blum%NULL%4,      Craig S.%Jabaley%NULL%3,      Mark%Caridi-Scheible%NULL%3,      Greg S.%Martin%NULL%3,      David J.%Murphy%NULL%4,      Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,    Antonelli%M.%coreGivesNoEmail%0,    Bellani%G.%coreGivesNoEmail%0,    Bonanomi%E.%coreGivesNoEmail%0,    Cabrini%L.%coreGivesNoEmail%0,    Carlesso%E.%coreGivesNoEmail%0,    Castelli%G.%coreGivesNoEmail%0,    Cattaneo%S.%coreGivesNoEmail%0,    Cecconi%M.%coreGivesNoEmail%0,    Cereda%D.%coreGivesNoEmail%0,    Colombo%S.%coreGivesNoEmail%0,    Coluccello%A.%coreGivesNoEmail%0,    Crescini%G.%coreGivesNoEmail%0,    Forastieri%Molinari A.%coreGivesNoEmail%0,    Foti%G.%coreGivesNoEmail%0,    Fumagalli%R.%coreGivesNoEmail%0,    Grasselli%G.%coreGivesNoEmail%0,    Greco%M.%coreGivesNoEmail%0,    Iotti%G. A.%coreGivesNoEmail%0,    Langer%T.%coreGivesNoEmail%0,    Latronico%N.%coreGivesNoEmail%0,    Lorini%F. L.%coreGivesNoEmail%0,    Mojoli%F.%coreGivesNoEmail%0,    Natalini%G.%coreGivesNoEmail%0,    Pesenti%A.%coreGivesNoEmail%0,    Pessina%C. M.%coreGivesNoEmail%0,    Ranieri%V. M.%coreGivesNoEmail%0,    Rech%R.%coreGivesNoEmail%0,    Rosano%A.%coreGivesNoEmail%0,    Scudeller%L.%coreGivesNoEmail%0,    Storti%E.%coreGivesNoEmail%0,    Thompson%B. T.%coreGivesNoEmail%0,    Tirani%M.%coreGivesNoEmail%0,    Villani%P. G.%coreGivesNoEmail%0,    Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,      Keum-Ju%Choi%NULL%1,      Sun Ha%Choi%NULL%1,      Shin Yup%Lee%NULL%1,      Kyung Chan%Kim%NULL%1,      Eun Jin%Kim%NULL%1,      Jaehee%Lee%NULL%2,      Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,      Siddique%Chaudhary%NULL%1,      Kevin%Bryan Lo%NULL%2,      Kevin%Bryan Lo%NULL%0,      Robert%DeJoy%NULL%1,      Fahad%Gul%NULL%1,      Ricardo%Torres%NULL%1,      Neal%Chaisson%NULL%2,      Neal%Chaisson%NULL%0,      Gabriel%Patarroyo-Aponte%NULL%2,      Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,      Bruno L.%Ferreyro%NULL%2,      Bruno L.%Ferreyro%NULL%0,      Federico%Angriman%NULL%1,      María%Hernández-Sanz%NULL%2,      Egoitz%Arruti%NULL%1,      Antoni%Torres%NULL%2,      Jesús%Villar%NULL%1,      Laurent%Brochard%NULL%1,      Carlos%Ferrando%NULL%2,      Ricard%Mellado-Artigas%NULL%1,      María%Hernández-Sanz%NULL%0,      Carlos%Ferrando%NULL%0,      Marina%Vendrell%NULL%1,      Gerard%Sánchez-Etayo%NULL%1,      Amalia%Alcón%NULL%1,      Isabel%Belda%NULL%1,      Mercé%Agustí%NULL%1,      Albert%Carramiñana%NULL%1,      Isabel%Gracia%NULL%1,      Miriam%Panzeri%NULL%1,      Irene%León%NULL%1,      Jaume%Balust%NULL%1,      Ricard%Navarro%NULL%2,      María José%Arguís%NULL%1,      María José%Carretero%NULL%1,      Cristina%Ibáñez%NULL%1,      Juan%Perdomo%NULL%1,      Antonio%López%NULL%1,      Manuel%López-Baamonde%NULL%1,      Tomás%Cuñat%NULL%1,      Marta%Ubré%NULL%1,      Antonio%Ojeda%NULL%1,      Andrea%Calvo%NULL%1,      Eva%Rivas%NULL%1,      Paola%Hurtado%NULL%1,      Roger%Pujol%NULL%1,      Nuria%Martín%NULL%1,      Javier%Tercero%NULL%1,      Pepe%Sanahuja%NULL%1,      Marta%Magaldi%NULL%1,      Miquel%Coca%NULL%1,      Elena%del Rio%NULL%1,      Julia%Martínez-Ocon%NULL%1,      Paula%Masgoret%NULL%1,      Monserrat%Tio%NULL%1,      Angel%Caballero%NULL%1,      Raquel%Risco%NULL%1,      Raquel%Bergé%NULL%1,      Lidia%Gómez%NULL%1,      Nicolás%de Riva%NULL%1,      Ana%Ruiz%NULL%1,      Beatriz%Tena%NULL%1,      Sebastián%Jaramillo%NULL%1,      José María%Balibrea%NULL%1,      Francisco Borja de Borja%de Lacy%NULL%1,      Ana%Otero%NULL%1,      Ainitze%Ibarzabal%NULL%1,      Raquel%Bravo%NULL%1,      Anna%Carreras%NULL%1,      Daniel%Martín-Barreda%NULL%1,      Alfonso Jesús%Alias%NULL%1,      Mariano%Balaguer%NULL%1,      Jorge%Aliaga%NULL%1,      Alex%Almuedo%NULL%1,      Joan Ramón%Alonso%NULL%1,      Rut%Andrea%NULL%1,      Gerard Sergi%Angelès%NULL%1,       Marilyn%Arias%NULL%1,      Fátima%Aziz%NULL%1,      Joan Ramon%Badía%NULL%1,      Enric%Barbeta%NULL%1,      Toni%Torres%NULL%1,      Guillem%Batiste%NULL%1,      Pau%Benet%NULL%1,      Xavi%Borrat%NULL%1,      María%Borrell%NULL%1,      Ernest%Bragulat%NULL%1,      Inmaculada%Carmona%NULL%1,      Manuel%Castellà%NULL%1,      Pedro%Castro%NULL%1,      Joan%Ceravalls%NULL%1,      Oscar%Comino%NULL%1,      Claudia%Cucciniello%NULL%1,      Clàudia%De Deray%NULL%1,      Oriol%De Diego%NULL%1,      Paula%De la Matta%NULL%1,      Marta%Farrero%NULL%1,      Javier%Fernández%NULL%1,      Sara%Fernández%NULL%1,      Anna%Fernández%NULL%1,      Miquel%Ferrer%NULL%1,      Ana%Fervienza%NULL%1,      María%Tallo Forga%NULL%1,      Daniel%Forné%NULL%1,      Clàudia%Galán%NULL%1,      Andrea%Gómez%NULL%1,      Eduard%Guasch%NULL%1,      María%Hernández-Tejero%NULL%1,      Adriana%Jacas%NULL%1,      Beltrán%Jiménez%NULL%1,      Pere%Leyes%NULL%1,      Teresa%López%NULL%1,      José Antonio%Martínez%NULL%1,      Graciela%Martínez-Pallí%NULL%1,      Jordi%Mercadal%NULL%1,      Guido%Muñoz%NULL%1,      José%Muñoz%NULL%1,      Ricard%Navarro%NULL%0,      Josep María%Nicolás%NULL%1,      José Tomás%Ortiz%NULL%1,      Anna%Peiró%NULL%1,      Manuel%Pérez%NULL%1,      Esteban%Poch%NULL%1,      Margarida%Pujol%NULL%1,      Eduard%Quintana%NULL%1,      Bartomeu%Ramis%NULL%1,      Enric%Reverter%NULL%1,      Irene%Rovira%NULL%1,      Pablo%Ruiz%NULL%1,      Elena%Sandoval%NULL%1,      Stefan%Schneider%NULL%1,      Oriol%Sibila%NULL%1,      Carla%Solé%NULL%1,      Alex%Soriano%NULL%1,      Dolors%Soy%NULL%1,      M.%Suárez%NULL%1,      Adrián%Téllez%NULL%1,      Néstor David%Toapanta%NULL%1,      Antoni%Torres%NULL%0,      Xavier%Urra%NULL%1,      César%Aldecoa%NULL%1,      Alicia%Bordell%NULL%1,      Silvia%Martín%NULL%1,      Judith%Andrés%NULL%1,      Alberto Martínez%Ruiz%NULL%1,      Gonzalo Tamayo%Medel%NULL%1,      Iñaki Bilbao Bilbao%Villasante%NULL%1,      Fernando Iturri%Clavero%NULL%1,      Covadonga Peralta%Álvarez%NULL%1,      Julia T.%Herrera Díez%NULL%1,      Andrea García%Trancho%NULL%1,      Iñaki Sainz %Mandiola%NULL%1,      Carmen Ruano%Suarez%NULL%1,      Angela Ruiz%Bocos%NULL%1,      Eneritz Urrutia%Izagirre%NULL%1,      Pablo Ortiz%de Urbina Fernández%NULL%1,      Naiara Apodaka%López%NULL%1,      Leire Prieto%Molano%NULL%1,      Eunate Ganuza%Martínez%NULL%1,      Iratxe Vallinas%Hidalgo%NULL%1,      Karmele%de Orte Sancho%NULL%1,      Celia González%Paniagua%NULL%1,      Gemma Ortiz%Labrador%NULL%1,      Mireia Pérez%Larrañaga%NULL%1,      Marta López%Miguelez%NULL%1,      Estíbaliz Bárcena%Andrés%NULL%1,      Erik Urutxurtu%Laureano%NULL%1,      Maria Jesús Maroño%Boedo%NULL%1,      Blanca Escontrela%Rodríguez%NULL%1,      Aitziber Ereñozaga%Camiruaga%NULL%1,      Deiene Lasuen%Aguirre%NULL%1,      Ainhoa Zabal%Maeztu%NULL%1,      Ane Guereca%Gala%NULL%1,      Iker Castelo%Korro%NULL%1,      Andrés Álvarez%Campo%NULL%1,      Alejandro Carcelen%Viana%NULL%1,      Alejandro Alberdi%Enríquez%NULL%1,      Xabier Ormazábal%Rementeria%NULL%1,      Alberto Sánchez%Campos%NULL%1,      Rosa Gutiérrez%Rico%NULL%1,      Pablo Barbier%Damborenea%NULL%1,      Marta Guerenabarrena%Momeñe%NULL%1,      Borja Cuesta%Ruiz%NULL%1,      Alejandro López%Rico%NULL%1,      Ana Rojo%Polo%NULL%1,      Covadonga García%Grijelmo%NULL%1,      Mikel Celorrio%Reta%NULL%1,      Eneko Martín%Arroyo%NULL%1,      Leire Artaza%Aparicio%NULL%1,      Iñaki Ituarte%Aspiazu%NULL%1,      Ane Igeregi%Basabe%NULL%1,      Itxaso Merino%Julian%NULL%1,      Isabel Diaz%Rico%NULL%1,      Maria Paz%Martínez%NULL%1,      Ramón%Adalia Bartolomé%NULL%1,      Luigi%Zattera%NULL%1,      Irina Adalid%Hernandez%NULL%1,      Leire Larrañaga%Altuna%NULL%1,      Aina Serrallonga%Castells%NULL%1,      Adriana Vílchez%Garcia%NULL%1,      María%Núñez%NULL%1,      Lorena%Román%NULL%1,      Isabel Ramos%Delgado%NULL%1,      Adela Benítez-Cano%Martínez%NULL%1,      Mireia Chanzá%Albert%NULL%1,      Juan Carlos Álvarez%García%NULL%1,      Luis Aguilera%Cuchillo%NULL%1,      Sandra Beltrán%de Heredia%NULL%1,      Jesús Carazo%Cordobés%NULL%1,      Carlos Alberto García%Bernedo%NULL%1,      Fernando Escolano%Villén%NULL%1,      Francisco Javier Redondo%Calvo%NULL%1,      Rubén Villazala%González%NULL%1,      Victor Baladron%González%NULL%1,      Patricia%Faba%NULL%1,      Omar%Montenegro%NULL%1,      Natalia Bejarano%Ramírez%NULL%1,      Sergio Marcos%Contreras%NULL%1,      Alejandro Garcia%Rodríguez%NULL%1,      Saleta Rey%Vázquez%NULL%1,      Cristina Garcia%Pérez%NULL%1,      Eva Higuera%Miguelez%NULL%1,      Irene Pérez%Blanco%NULL%1,      David García%Rivera%NULL%1,      Ane Martín%de la Fuente%NULL%1,      Marta%Pardo%NULL%1,      Vanessa%Rodriguez%NULL%1,      Unai%Bengoetxea%NULL%1,      Fernando%Ramasco%NULL%1,      Sheila Olga Santidrián%Bernal%NULL%1,      Alvar Santa Cruz%Hernando%NULL%1,      Antonio Planas%Roca%NULL%1,      Carlos Figueroa%Yusta%NULL%1,      Esther García%Villabona%NULL%1,      Carmen Vallejo%Lantero%NULL%1,      Eva Patiño%Rodriguez%NULL%1,      Alvaro Esquivel%Toledo%NULL%1,      David Arribas%Méndez%NULL%1,      Mar Orts%Rodriguez%NULL%1,      Rosa Méndez%Hernández%NULL%1,      Jesús Nieves%Alonso%NULL%1,      Inés Imaz%Artazcoz%NULL%1,      Sonia Expósito%Carazo%NULL%1,      Carlos Román%Guerrero%NULL%1,      Elena Rojo%Rodríguez%NULL%1,      Ricardo Moreno%González%NULL%1,      Julia Hernando%Santos%NULL%1,      Jara Torrente%Pérez%NULL%1,      Esperanza Mata%Mena%NULL%1,      Manuel José Muñoz%Martínez%NULL%1,      Enrique Alday%Muñoz%NULL%1,      Patricia Martin%Serrano%NULL%1,      Laura Cotter%Muñoz%NULL%1,      Amadea%Mjertan%NULL%1,      Diego Gutierrez%Martínez%NULL%1,      Carmen Rodríguez%García%NULL%1,      Olaya Alonso%Viejo%NULL%1,      Juan Alvarez%Pereira%NULL%1,      Ana Carmona%Bonet%NULL%1,      Diana Parrado%López%NULL%1,      Eva%de Dios Tomas%NULL%1,      Rafael Martín%Celemin%NULL%1,      María Luisa Meilan%Paz%NULL%1,      Luis Quecedo%Gutiérrez%NULL%1,      Noemí Diaz%Velasco%NULL%1,      Gabriel Martin%Hernández%NULL%1,      Francisco Garcia%del Corral%NULL%1,      Gloria Hernandez%Arias%NULL%1,      David Rodriguez%Cuesta%NULL%1,      Ana Gómez%Rice%NULL%1,      Encarna Mateos%Sevillano%NULL%1,      Natalia Olmos%Molpeceres%NULL%1,      Beatriz%Domínguez%NULL%1,      Ana Vázquez%Lima%NULL%1,      Ángel%Candela%NULL%1,      Ismael A. Acevedo%Bambaren%NULL%1,      Maria Isabel Albala%Blanco%NULL%1,      Paloma Alonso%Montoiro%NULL%1,      Fernando Álvarez%Utrera%NULL%1,      Juan Avellanosa%Esteruelas%NULL%1,      Amal Azzam%López%NULL%1,      Alberto José%Balvis%NULL%1,      Balvis Tommaso%Bardi%NULL%1,      María Beltrán%Martín%NULL%1,      Jacobo Benatar%Haserfaty%NULL%1,      Alberto Berruezo%Camacho%NULL%1,      Laura Betolaza%Weimer%NULL%1,      María%del Mar Carbonell Soto%NULL%1,      Cristina Carrasco%Seral%NULL%1,      Cristina Cerro %Zaballos%NULL%1,      Elizabeth Claros%Llamas%NULL%1,      Pilar Coleta%Orduna%NULL%1,      Ingrid P. Cortes%Forero%NULL%1,      Pascual Agustín Crespo%Aliseda%NULL%1,      María Angélica%de Pablo Pajares%NULL%1,      Yolanda Díez%Remesal%NULL%1,      Trinidad Dorado%Díaz%NULL%1,      Noemí Echevarría%Blasco%NULL%1,      María Elena Elías%Martín%NULL%1,      Javier Felices%Triviño%NULL%1,      Natalia Fernández%López%NULL%1,      Cristina Fernández%Martín%NULL%1,      Natalia Ferreiro%Pozuelo%NULL%1,      Luis Gajate%Martín%NULL%1,      Clara Gallego%Santos%NULL%1,      Diego Gil%Mayo%NULL%1,      María Gómez%Rojo%NULL%1,      Claudia González%Cibrián%NULL%1,      Elena Herrera%López%NULL%1,      Borja Hinojal%Olmedillo%NULL%1,      Berta Iglesias%Gallego%NULL%1,      Sassan%Khonsari%NULL%1,      María Nuria Mane%Ruiz%NULL%1,      María Manzanero%Arroyo%NULL%1,      Ana María Mariscal%Ortega%NULL%1,      Sara Martín%Burcio%NULL%1,      María%del Carmen Martín González%NULL%1,      Ascensión Martín%Grande%NULL%1,      Jose Juan Martín%López%NULL%1,      Cecilia Martín%Rabes%NULL%1,      Marcos Martínez%Borja%NULL%1,      Nilda Martínez%Castro%NULL%1,      Adolfo Martínez%Pérez%NULL%1,      Snejana%Matcan%NULL%1,      Cristina Medrano%Viñas%NULL%1,      Lisset Miguel%Herrera%NULL%1,      Adrián Mira%Betancur%NULL%1,      María Montiel%Carbajo%NULL%1,      Javier Moya%Moradas%NULL%1,      Lorena Muñoz%Pérez%NULL%1,      Mónica Nuñez%Murias%NULL%1,      Eva Ordiales%González%NULL%1,      Óscar Ordoñez%Recio%NULL%1,      Miguel Ángel Palomero%Rodriguez%NULL%1,      Diego Parise%Roux%NULL%1,      Lucia Pereira%Torres%NULL%1,      David Pestaña%Lagunas%NULL%1,      Juana María Pinto%Corraliza%NULL%1,      Marian Prieto%Rodrigo%NULL%1,      Inmaculada Rodriguez%Diaz-Regaño%NULL%1,      David Rodriguez%Esteban%NULL%1,      Víctor Rojas%Pernia%NULL%1,      Álvaro Ruigómez%Saiz%NULL%1,      Bárbara Saavedra%Villarino%NULL%1,      Noemí Samaranch%Palero%NULL%1,      Gloria Santos%Pérez%NULL%1,      Jaume Serna%Pérez%NULL%1,      Ana Belén Serrano%Romero%NULL%1,      Jesús Tercero%López%NULL%1,      Carlos Tiscar%García%NULL%1,      Marta%de la Torre Concostrina%NULL%1,      Eva María Ureta%Mesa%NULL%1,      Eva Velasco%Olarte%NULL%1,      Judith Villahoz%Martínez%NULL%1,      Raúl Villalaba%Palacios%NULL%1,      Gema Villanueva%García%NULL%1,      Cristina Vogel%de Medeiros%NULL%1,      Soraya Gholamian%Ovejero%NULL%1,      Marta Vicente%Orgaz%NULL%1,      Patricia Lloreda%Herradon%NULL%1,      Cristina Crespo%Gómez%NULL%1,      Tatiana%Sarmiento-Trujillo%NULL%1,      Noemí García%Medina%NULL%1,      María Martínez%García%NULL%1,      Carles Espinós%Ramírez%NULL%1,      Nabil Mouhaffel%Rivero%NULL%1,      Jose Antonio Bernia%Gil%NULL%1,      Sonsoles%Martín%NULL%1,      María Victoria%Moral%NULL%1,      Josefina%Galán%NULL%1,      Pilar%Paniagua%NULL%1,      Sergio%Pérez%NULL%1,      Albert%Bainac%NULL%1,      Ana%Arias%NULL%1,      Elsa%Ramil%NULL%1,      Jorge%Escudero%NULL%1,      Pablo%Monedero%NULL%1,      Carmen%Cara%NULL%1,      Andrea%Lara%NULL%1,      Elena Mendez%Martínez%NULL%1,      Jorge%Mendoza%NULL%1,      Íñigo Rubio%Baines%NULL%1,      Carmen Sala%Trull%NULL%1,      Pablo Montero%López%NULL%1,      Alfredo%Gea%NULL%1,      Alejandro%Montero%NULL%1,      Rocío Armero%Ibañez%NULL%1,      Juan Vicente Llau%Pitarch%NULL%1,      Fernando Rauer%Alcóver%NULL%1,      Cristina Álvarez%Herreros%NULL%1,      Cyntia Sánchez%Martín%NULL%1,      Lucía López Ocáriz%Olmos%NULL%1,      Marta Navas%Moruno%NULL%1,      Fernando García%Montoto%NULL%1,      M. F. Mirón%Rodriguez%NULL%1,      Laura Fuentes%Coco%NULL%1,      Cristina Hernández%Gamito%NULL%1,      Antonio Barba%Orejudo%NULL%1,      Luis Gerardo Smith%Vielma%NULL%1,      Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,      Marta Donoso%Domínguez%NULL%1,      Silvia Esquivel%Ramírez%NULL%1,      José Antonio%Carbonell%NULL%1,      Berta Monleón%López%NULL%1,      Sara%Martínez-Castro%NULL%1,      Gerardo%Aguilar%NULL%1,      María Gestal Pablo%Casas%NULL%1,      Angel Outeiro%Rosato%NULL%1,      Andrea Naveiro%Pan%NULL%1,      María Alonso%Portela%NULL%1,      Adrián García%Romar%NULL%1,      Eva Mosquera%Rodríguez%NULL%1,      Diego Ruanova%Seijo%NULL%1,      Pablo Rama%Maceiras%NULL%1,      Francisco%Castro-Ceoane%NULL%1,      Esther Moreno%López%NULL%1,      Sergio%Gil%NULL%1,      Julia Guillén%Antón%NULL%1,      Patricia García-Consuegra%Tirado%NULL%1,      Aurora Callau%Calvo%NULL%1,      Laura Forés%Lisbona%NULL%1,      María Carbonell%Romero%NULL%1,      Belén Albericio%Gil%NULL%1,      Laura Pradal%Jarne%NULL%1,      María Soria%Lozano%NULL%1,      Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,      Navjot Ariyana%Kaur%NULL%1,      Daniel%Sacher%NULL%1,      Oisin%O’Corragain%NULL%1,      Daniel%Salerno%NULL%1,      Parag%Desai%NULL%1,      Sameep%Sehgal%NULL%1,      Matthew%Gordon%NULL%2,      Rohit%Gupta%NULL%2,      Nathaniel%Marchetti%NULL%1,      Huaqing%Zhao%NULL%2,      Nicole%Patlakh%NULL%2,      Gerard J.%Criner%NULL%1,      Temple%University%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,      Dominik%Jarczak%NULL%1,      Liina%Thasler%NULL%1,      Martin%Bachmann%NULL%1,      Frank%Schulte%NULL%1,      Berthold%Bein%NULL%1,      Christian Friedrich%Weber%NULL%1,      Ulrich%Schäfer%NULL%1,      Carsten%Veit%NULL%1,      Hans-Peter%Hauber%NULL%1,      Sebastian%Kopp%NULL%1,      Karsten%Sydow%NULL%1,      Andreas%de Weerth%NULL%0,      Marc%Bota%NULL%1,      Rüdiger%Schreiber%NULL%1,      Oliver%Detsch%NULL%1,      Jan-Peer%Rogmann%NULL%1,      Daniel%Frings%NULL%0,      Barbara%Sensen%NULL%1,      Christoph%Burdelski%NULL%0,      Olaf%Boenisch%NULL%1,      Axel%Nierhaus%NULL%0,      Geraldine%de Heer%NULL%0,      Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -841,7 +1009,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -870,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -899,7 +1067,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -928,7 +1096,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -957,7 +1125,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -986,7 +1154,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1009,19 +1177,19 @@
         <v>44027.0</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
         <v>45</v>
@@ -1044,7 +1212,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1073,7 +1241,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1102,7 +1270,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1131,7 +1299,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1160,7 +1328,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="167">
   <si>
     <t>Doi</t>
   </si>
@@ -613,6 +613,78 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,      Dominik%Jarczak%NULL%1,      Liina%Thasler%NULL%1,      Martin%Bachmann%NULL%1,      Frank%Schulte%NULL%1,      Berthold%Bein%NULL%1,      Christian Friedrich%Weber%NULL%1,      Ulrich%Schäfer%NULL%1,      Carsten%Veit%NULL%1,      Hans-Peter%Hauber%NULL%1,      Sebastian%Kopp%NULL%1,      Karsten%Sydow%NULL%1,      Andreas%de Weerth%NULL%0,      Marc%Bota%NULL%1,      Rüdiger%Schreiber%NULL%1,      Oliver%Detsch%NULL%1,      Jan-Peer%Rogmann%NULL%1,      Daniel%Frings%NULL%0,      Barbara%Sensen%NULL%1,      Christoph%Burdelski%NULL%0,      Olaf%Boenisch%NULL%1,      Axel%Nierhaus%NULL%0,      Geraldine%de Heer%NULL%0,      Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,       Paolo%Comassi%NULL%1,       Luca%Adriani%NULL%1,       Giulio%Bergamaschini%NULL%1,       Elena%Bertin%NULL%1,       Raffaella%Borromeo%NULL%1,       Serena%Corti%NULL%1,       Federica%De Petri%NULL%1,       Francesco%Dolci%NULL%1,       Attilio%Galmozzi%NULL%1,       Alberto%Gigliotti%NULL%1,       Livio%Gualdoni%NULL%1,       Claudia%Guerra%NULL%1,       Anna%Khosthiova%NULL%1,       Giovanni%Leati%NULL%1,       Giuseppe%Lupi%NULL%1,       Paolo%Moscato%NULL%1,       Vittorio%Perotti%NULL%1,       Miriam%Piantelli%NULL%1,       Alain%Ruini%NULL%1,       Silvia%Sportelli%NULL%1,       Micaela%Susca%NULL%1,       Carmine%Troiano%NULL%1,       Giampaolo%Benelli%NULL%1,       Elisabetta%Buscarini%NULL%1,       Ciro%Canetta%NULL%1,       Guido%Merli%NULL%1,       Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,       Emna%Ennouri%NULL%1,       Rayane%Nachi%NULL%1,       Khaoula%Meddeb%NULL%1,       Jihene%Mahmoud%NULL%1,       Nesrine%Thabet%NULL%1,       Salma%Jerbi%NULL%1,       Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,       Eleni%Xourgia%NULL%1,       Theodora K.%Ntaidou%NULL%1,       Dimitris%Zervakis%NULL%1,       Eleni E.%Magira%NULL%1,       Anastasia%Kotanidou%NULL%1,       Christina%Routsi%NULL%1,       Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,       Carina%Mostert%NULL%1,       Corinna%Hentschker%NULL%1,       Thomas%Voshaar%NULL%1,       Jürgen%Malzahn%NULL%1,       Gerhard%Schillinger%NULL%1,       Jürgen%Klauber%NULL%1,       Uwe%Janssens%NULL%1,       Gernot%Marx%NULL%1,       Steffen%Weber-Carstens%NULL%1,       Stefan%Kluge%NULL%0,       Michael%Pfeifer%NULL%1,       Linus%Grabenhenrich%NULL%1,       Tobias%Welte%NULL%1,       Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,       David%Hajage%NULL%2,       David%Hajage%NULL%0,       Alexandre%Demoule%NULL%1,       Tài%Pham%NULL%1,       Alain%Combes%NULL%1,       Martin%Dres%NULL%1,       Said%Lebbah%NULL%1,       Antoine%Kimmoun%NULL%1,       Alain%Mercat%NULL%1,       Gaëtan%Beduneau%NULL%1,       Jessica%Palmyre%NULL%1,       Margot%Prevost%NULL%1,       Pierre%Asfar%NULL%1,       François%Beloncle%NULL%1,       Julien%Demiselle%NULL%1,       Arthur%Pavot%NULL%1,       Xavier%Monnet%NULL%1,       Christian%Richard%NULL%1,       Julien%Mayaux%NULL%1,       Alexandra%Beurton%NULL%1,       Richard%Descamps%NULL%1,       Aurélie%Joret%NULL%1,       Damien%Du Cheyron%NULL%1,       Frédéric%Pene%NULL%1,       Jean-Daniel%Chiche%NULL%1,       Mathieu%Jozwiak%NULL%1,       Paul%Jaubert%NULL%1,       Guillaume%Voiriot%NULL%1,       Muriel%Fartoukh%NULL%1,       Marion%Teulier%NULL%1,       Clarisse%Blayau%NULL%1,       Erwen%L’Her%NULL%1,       Cécile%Aubron%NULL%1,       Laetitia%Bodenes%NULL%1,       Nicolas%Ferriere%NULL%1,       Johann%Auchabie%NULL%1,       Anthony%Le Meur%NULL%1,       Sylvain%Pignal%NULL%1,       Thierry%Mazzoni%NULL%1,       Jean-Pierre%Quenot%NULL%1,       Pascal%Andreu%NULL%1,       Jean-Baptiste%Roudau%NULL%1,       Marie%Labruyère%NULL%1,       Saad%Nseir%NULL%0,       Sébastien%Preau%NULL%1,       Julien%Poissy%NULL%0,       Daniel%Mathieu%NULL%0,       Sarah%Benhamida%NULL%1,       Rémi%Paulet%NULL%1,       Nicolas%Roucaud%NULL%1,       Martial%Thyrault%NULL%1,       Florence%Daviet%NULL%1,       Sami%Hraiech%NULL%1,       Gabriel%Parzy%NULL%1,       Aude%Sylvestre%NULL%1,       Sébastien%Jochmans%NULL%1,       Anne-Laure%Bouilland%NULL%1,       Mehran%Monchi%NULL%1,       Marc%Danguy des Déserts%NULL%1,       Quentin%Mathais%NULL%1,       Gwendoline%Rager%NULL%1,       Pierre%Pasquier%NULL%1,       Reignier%Jean%NULL%1,       Seguin%Amélie%NULL%1,       Garret%Charlotte%NULL%1,       Canet%Emmanuel%NULL%1,       Jean%Dellamonica%NULL%1,       Clément%Saccheri%NULL%1,       Romain%Lombardi%NULL%1,       Yanis%Kouchit%NULL%1,       Sophie%Jacquier%NULL%1,       Armelle%Mathonnet%NULL%1,       Mai-Ahn%Nay%NULL%1,       Isabelle%Runge%NULL%1,       Frédéric%Martino%NULL%1,       Laure%Flurin%NULL%1,       Amélie%Rolle%NULL%1,       Michel%Carles%NULL%1,       Rémi%Coudroy%NULL%1,       Arnaud W.%Thille%NULL%1,       Jean-Pierre%Frat%NULL%1,       Maeva%Rodriguez%NULL%1,       Pascal%Beuret%NULL%1,       Audrey%Tientcheu%NULL%1,       Arthur%Vincent%NULL%1,       Florian%Michelin%NULL%1,       Marie Anne%Melone%NULL%1,       Maxime%Gauzi%NULL%1,       Arnaud%Guilbert%NULL%1,       Geoffrey%Kouadri%NULL%1,       Valérie%Gissot%NULL%1,       Stéphan%Ehrmann%NULL%1,       Charlotte%Salmon-Gandonnière%NULL%1,       Djlali%Elaroussi%NULL%1,       Agathe%Delbove%NULL%1,       Yannick%Fedun%NULL%1,       Julien%Huntzinger%NULL%1,       Eddy%Lebas%NULL%1,       Grâce%Kisoka%NULL%1,       Céline%Grégoire%NULL%1,       Stella%Marchetta%NULL%1,       Bernard%Lambermont%NULL%1,       Laurent%Argaud%NULL%1,       Thomas%Baudry%NULL%1,       Pierre-Jean%Bertrand%NULL%1,       Auguste%Dargent%NULL%1,       Christophe%Guitton%NULL%1,       Nicolas%Chudeau%NULL%1,       Mickaël%Landais%NULL%1,       Cédric%Darreau%NULL%1,       Alexis%Ferre%NULL%1,       Antoine%Gros%NULL%1,       Guillaume%Lacave%NULL%1,       Fabrice%Bruneel%NULL%1,       Mathilde%Neuville%NULL%1,       Jérôme%Devaquet%NULL%1,       Guillaume%Tachon%NULL%1,       Richard%Gallot%NULL%1,       Riad%Chelha%NULL%1,       Arnaud%Galbois%NULL%1,       Anne%Jallot%NULL%1,       Ludivine Chalumeau%Lemoine%NULL%1,       Khaldoun%Kuteifan%NULL%1,       Valentin%Pointurier%NULL%1,       Louise-Marie%Jandeaux%NULL%1,       Joy%Mootien%NULL%1,       Charles%Damoisel%NULL%1,       Benjamin%Sztrymf%NULL%1,       Juliette%Chommeloux%NULL%1,       Charles Edouard%Luyt%NULL%1,       Frédérique%Schortgen%NULL%1,       Leon%Rusel%NULL%1,       Camille%Jung%NULL%1,       Florent%Gobert%NULL%1,       Damien%Vimpere%NULL%1,       Lionel%Lamhaut%NULL%1,       Bertrand%Sauneuf%NULL%1,       Liliane%Charrier%NULL%1,       Julien%Calus%NULL%1,       Isabelle%Desmeules%NULL%1,       Benoît%Painvin%NULL%1,       Jean-Marc%Tadie%NULL%1,       Vincent%Castelain%NULL%1,       Baptiste%Michard%NULL%1,       Jean-Etienne%Herbrecht%NULL%1,       Mathieu%Baldacini%NULL%1,       Nicolas%Weiss%NULL%1,       Sophie%Demeret%NULL%1,       Clémence%Marois%NULL%1,       Benjamin%Rohaut%NULL%1,       Pierre-Henri%Moury%NULL%1,       Anne-Charlotte%Savida%NULL%1,       Emmanuel%Couadau%NULL%1,       Mathieu%Série%NULL%1,       Nica%Alexandru%NULL%1,       Cédric%Bruel%NULL%1,       Candice%Fontaine%NULL%1,       Sonia%Garrigou%NULL%1,       Juliette Courtiade%Mahler%NULL%1,       Maxime%Leclerc%NULL%1,       Michel%Ramakers%NULL%1,       Pierre%Garçon%NULL%1,       Nicole%Massou%NULL%1,       Ly Phacs%Van Vong%NULL%1,       Juliane%Sen%NULL%1,       Nolwenn%Lucas%NULL%1,       Franck%Chemouni%NULL%1,       Annabelle%Stoclin%NULL%1,       Alexandre%Avenel%NULL%1,       Henri%Faure%NULL%1,       Angélie%Gentilhomme%NULL%1,       Sylvie%Ricome%NULL%1,       Paul%Abraham%NULL%1,       Céline%Monard%NULL%1,       Julien%Textoris%NULL%1,       Thomas%Rimmele%NULL%1,       Florent%Montini%NULL%1,       Gabriel%Lejour%NULL%1,       Thierry%Lazard%NULL%1,       Isabelle%Etienney%NULL%1,       Younes%Kerroumi%NULL%1,       Dupuis%Claire%NULL%1,       Bereiziat Marine%Coupez%NULL%1,       Thouy%François%NULL%1,       Clémet%Hoffmann%NULL%1,       Nicolas%Donat%NULL%1,       Violaine%Muller%NULL%1,       Thibault%Martinez%NULL%1,       Audrey%Jacquot%NULL%1,       Matthieu%Mattei%NULL%1,       Bruno%Levy%NULL%1,       Ramin%Ravan%NULL%1,       Loïc%Dopeux%NULL%1,       Jean-Mathias%Liteaudon%NULL%1,       Delphine%Roux%NULL%1,       Brice%Rey%NULL%1,       Radu%Anghel%NULL%1,       Deborah%Schenesse%NULL%1,       Vincent%Gevrey%NULL%1,       Jermy%Castanera%NULL%1,       Philippe%Petua%NULL%1,       Benjamin%Madeux%NULL%1,       Otto%Hartman%NULL%1,       Michael%Piagnerelli%NULL%1,       Anne%Joosten%NULL%1,       Cinderella%Noel%NULL%1,       Patrick%Biston%NULL%1,       Thibaut%Noel%NULL%1,       Gurvan L. E.%Bouar%NULL%1,       Messabi%Boukhanza%NULL%1,       Elsa%Demarest%NULL%1,       Marie-France%Bajolet%NULL%1,       Nathanaël%Charrier%NULL%1,       Audrey%Quenet%NULL%1,       Cécile%Zylberfajn%NULL%1,       Nicolas%Dufour%NULL%1,       Buno%Mégarbane%NULL%1,       Sqébastian%Voicu%NULL%1,       Nicolas%Deye%NULL%1,       Isabelle%Malissin%NULL%1,       François%Legay%NULL%1,       Matthieu%Debarre%NULL%1,       Nicolas%Barbarot%NULL%1,       Pierre%Fillatre%NULL%1,       Bertrand%Delord%NULL%1,       Thomas%Laterrade%NULL%1,       Tahar%Saghi%NULL%1,       Wilfried%Pujol%NULL%1,       Pierre Julien%Cungi%NULL%1,       Pierre%Esnault%NULL%1,       Mickael%Cardinale%NULL%1,       Vivien%Hong Tuan Ha%NULL%1,       Grégory%Fleury%NULL%1,       Marie-Ange%Brou%NULL%1,       Daniel%Zafimahazo%NULL%1,       David%Tran-Van%NULL%1,       Patrick%Avargues%NULL%1,       Lisa%Carenco%NULL%1,       Nicolas%Robin%NULL%1,       Alexandre%Ouali%NULL%1,       Lucie%Houdou%NULL%1,       Christophe%Le Terrier%NULL%1,       Noémie%Suh%NULL%1,       Steve%Primmaz%NULL%1,       Jérome%Pugin%NULL%1,       Emmanuel%Weiss%NULL%1,       Tobias%Gauss%NULL%1,       Jean-Denis%Moyer%NULL%1,       Catherine%Paugam-Burtz%NULL%1,       Béatrice%La Combe%NULL%1,       Rolland%Smonig%NULL%1,       Jade%Violleau%NULL%1,       Pauline%Cailliez%NULL%1,       Jonathan%Chelly%NULL%1,       Antoine%Marchalot%NULL%1,       Cécile%Saladin%NULL%1,       Christelle%Bigot%NULL%1,       Pierre-Marie%Fayolle%NULL%1,       Jules%Fatséas%NULL%1,       Amr%Ibrahim%NULL%1,       Dabor%Resiere%NULL%1,       Rabih%Hage%NULL%1,       Clémentine%Cholet%NULL%1,       Marie%Cantier%NULL%1,       Pierre%Trouiller%NULL%1,       Philippe%Montravers%NULL%1,       Brice%Lortat-Jacob%NULL%1,       Sebastien%Tanaka%NULL%1,       Alexy%Tran-Dinh%NULL%1,       Jacques%Duranteau%NULL%1,       Anatole%Harrois%NULL%1,       Guillaume%Dubreuil%NULL%1,       Marie%Werner%NULL%1,       Anne%Godier%NULL%1,       Sophie%Hamada%NULL%1,       Diane%Zlotnik%NULL%1,       Hélène%Nougue%NULL%1,       Armand%Mekontso-Dessap%NULL%1,       Guillaume%Carteaux%NULL%1,       Keyvan%Razazi%NULL%1,       Nicolas%De Prost%NULL%1,       Nicolas%Mongardon%NULL%1,       Olivier%Langeron%NULL%1,       Eric%Levesque%NULL%1,       Arié%Attias%NULL%1,       Charles%de Roquetaillade%NULL%1,       Benjamin G.%Chousterman%NULL%1,       Alexandre%Mebazaa%NULL%1,       Etienne%Gayat%NULL%1,       Marc%Garnier%NULL%1,       Emmanuel%Pardo%NULL%1,       Lea%Satre-Buisson%NULL%1,       Christophe%Gutton%NULL%1,       Elise%Yvin%NULL%1,       Clémence%Marcault%NULL%1,       Elie%Azoulay%NULL%1,       Michael%Darmon%NULL%1,       Nicolas%Bonnet%NULL%1,       Nathan%Ebstein%NULL%1,       Stéphane%Gaudry%NULL%1,       Yves%Cohen%NULL%1,        Hafid%Ait-Oufella%NULL%1,       Geoffroy%Hariri%NULL%1,       Tomas%Urbina%NULL%1,       Sandie%Mazerand%NULL%1,       Nicholas%Heming%NULL%1,       Francesca%Santi%NULL%1,       Pierre%Moine%NULL%1,       Djillali%Annane%NULL%1,       Adrien%Bouglé%NULL%1,       Edris%Omar%NULL%1,       Aymeric%Lancelot%NULL%1,       Emmanuelle%Begot%NULL%1,       Gaétan%Plantefeve%NULL%1,       Damien%Contou%NULL%1,       Hervé%Mentec%NULL%1,       Olivier%Pajot%NULL%1,       Stanislas%Faguer%NULL%1,       Olivier%Cointault%NULL%1,       Laurence%Lavayssiere%NULL%1,       Marie-Béatrice%Nogier%NULL%1,       Matthieu%Jamme%NULL%1,       Claire%Pichereau%NULL%1,       Jan%Hayon%NULL%1,       Hervé%Outin%NULL%1,       François%Dépret%NULL%1,       Maxime%Coutrot%NULL%1,       Maité%Chaussard%NULL%1,       Lucie%Guillemet%NULL%1,       Pierre%Goffin%NULL%1,       Romain%Thouny%NULL%1,       Julien%Guntz%NULL%1,       Laurent%Jadot%NULL%1,       Romain%Persichini%NULL%1,       Vanessa%Jean-Michel%NULL%1,       Hugues%Georges%NULL%1,       Thomas%Caulier%NULL%1,       Gaël%Pradel%NULL%1,       Marie-Hélène%Hausermann%NULL%1,       ThiMy Hue%Nguyen-Valat%NULL%1,       Michel%Boudinaud%NULL%1,       Emmanuel%Vivier%NULL%1,       Sylvène%Rosseli%NULL%1,       Gaël%Bourdin%NULL%1,       Christian%Pommier%NULL%1,       Marc%Vinclair%NULL%1,       Simon%Poignant%NULL%1,       Sandrine%Mons%NULL%1,       Wulfran%Bougouin%NULL%1,       Franklin%Bruna%NULL%1,       Quentin%Maestraggi%NULL%1,       Christian%Roth%NULL%1,       Laurent%Bitker%NULL%1,       François%Dhelft%NULL%1,       Justine%Bonnet-Chateau%NULL%1,       Mathilde%Filippelli%NULL%1,       Tristan%Morichau-Beauchant%NULL%1,       Stéphane%Thierry%NULL%1,       Charlotte%Le Roy%NULL%1,       Mélanie%Saint Jouan%NULL%1,       Bruno%Goncalves%NULL%1,       Aurélien%Mazeraud%NULL%1,       Matthieu%Daniel%NULL%1,       Tarek%Sharshar%NULL%1,       Cyril%Cadoz%NULL%1,       Rostane%Gaci%NULL%1,       Sébastien%Gette%NULL%1,       Guillaune%Louis%NULL%1,       Sophe-Caroline%Sacleux%NULL%1,       Marie-Amélie%Ordan%NULL%1,       Aurélie%Cravoisy%NULL%1,       Marie%Conrad%NULL%1,       Guilhem%Courte%NULL%1,       Sébastien%Gibot%NULL%1,       Younès%Benzidi%NULL%1,       Claudia%Casella%NULL%1,       Laurent%Serpin%NULL%1,       Jean-Lou%Setti%NULL%1,       Marie-Catherine%Besse%NULL%1,       Anna%Bourreau%NULL%1,       Jérôme%Pillot%NULL%1,       Caroline%Rivera%NULL%1,       Camille%Vinclair%NULL%1,       Marie-Aline%Robaux%NULL%1,       Chloé%Achino%NULL%1,       Marie-Charlotte%Delignette%NULL%1,       Tessa%Mazard%NULL%1,       Frédéric%Aubrun%NULL%1,       Bruno%Bouchet%NULL%1,       Aurélien%Frérou%NULL%1,       Laura%Muller%NULL%1,       Charlotte%Quentin%NULL%1,       Samuel%Degoul%NULL%1,       Xavier%Stihle%NULL%1,       Claude%Sumian%NULL%1,       Nicoletta%Bergero%NULL%1,       Bernard%Lanaspre%NULL%1,       Hervé%Quintard%NULL%1,       Eve Marie%Maiziere%NULL%1,       Pierre-Yves%Egreteau%NULL%1,       Guillaume%Leloup%NULL%1,       Florin%Berteau%NULL%1,       Marjolaine%Cottrel%NULL%1,       Marie%Bouteloup%NULL%1,       Matthieu%Jeannot%NULL%1,       Quentin%Blanc%NULL%1,       Julien%Saison%NULL%1,       Isabelle%Geneau%NULL%1,       Romaric%Grenot%NULL%1,       Abdel%Ouchike%NULL%1,       Pascal%Hazera%NULL%1,       Anne-Lyse%Masse%NULL%1,       Suela%Demiri%NULL%1,       Corinne%Vezinet%NULL%1,       Elodie%Baron%NULL%1,       Déborah%Benchetrit%NULL%1,       Antoine%Monsel%NULL%1,       Grégoire%Trebbia%NULL%1,       Emmanuelle%Schaack%NULL%1,       Raphaël%Lepecq%NULL%1,       Mathieu%Bobet%NULL%1,       Christophe%Vinsonneau%NULL%1,       Thibault%Dekeyser%NULL%1,       Quentin%Delforge%NULL%1,       Imen%Rahmani%NULL%1,       Bérengère%Vivet%NULL%1,       Jonathan%Paillot%NULL%1,       Lucie%Hierle%NULL%1,       Claire%Chaignat%NULL%1,       Sarah%Valette%NULL%1,       Benoït%Her%NULL%1,       Jennifier%Brunet%NULL%1,       Mathieu%Page%NULL%1,       Fabienne%Boiste%NULL%1,       Anthony%Collin%NULL%1,       Florent%Bavozet%NULL%2,       Aude%Garin%NULL%1,       Mohamed%Dlala%NULL%1,       Kais%Mhamdi%NULL%1,       Bassem%Beilouny%NULL%1,       Alexandra%Lavalard%NULL%1,       Severine%Perez%NULL%1,       Benoit%Veber%NULL%1,       Pierre-Gildas%Guitard%NULL%1,       Philippe%Gouin%NULL%1,       Anna%Lamacz%NULL%1,       Fabienne%Plouvier%NULL%1,       Bertrand P.%Delaborde%NULL%1,       Aïssa%Kherchache%NULL%1,       Amina%Chaalal%NULL%1,       Jean-Damien%Ricard%NULL%1,       Marc%Amouretti%NULL%1,       Santiago%Freita-Ramos%NULL%1,       Damien%Roux%NULL%1,       Jean-Michel%Constantin%NULL%1,       Mona%Assefi%NULL%1,       Marine%Lecore%NULL%1,       Agathe%Selves%NULL%1,       Florian%Prevost%NULL%1,       Christian%Lamer%NULL%1,       Ruiying%Shi%NULL%1,       Lyes%Knani%NULL%1,       Sébastien%Pili-Floury%NULL%1,       Lucie%Vettoretti%NULL%1,       Michael%Levy%NULL%1,       Lucile%Marsac%NULL%1,       Stéphane%Dauger%NULL%1,       Sophie%Guilmin-Crépon%NULL%1,       Jean-Baptiste%Putegnat%NULL%1,       Frédérique%Bayle%NULL%1,       Maya%Perrou%NULL%1,       Ghyslaine%Thao%NULL%1,       Guillaume%Géri%NULL%1,       Cyril%Charron%NULL%1,       Xavier%Repessé%NULL%1,       Antoine%Vieillard-Baron%NULL%1,       Mathieu%Guilbart%NULL%1,       Pierre-Alexandre%Roger%NULL%1,       Sébastien%Hinard%NULL%1,       Pierre-Yves%Macq%NULL%1,       Kevin%Chaulier%NULL%1,       Sylvie%Goutte%NULL%1,       Patrick%Chillet%NULL%1,       Anaïs%Pitta%NULL%1,       Barbara%Darjent%NULL%1,       Amandine%Bruneau%NULL%1,       Sigismond%Lasocki%NULL%1,       Maxime%Leger%NULL%1,       Soizic%Gergaud%NULL%1,       Pierre%Lemarie%NULL%1,       Nicolas%Terzi%NULL%1,       Carole%Schwebel%NULL%1,       Anaïs%Dartevel%NULL%1,       Louis-Marie%Galerneau%NULL%1,       Jean-Luc%Diehl%NULL%1,       Caroline%Hauw-Berlemont%NULL%0,       Nicolas%Péron%NULL%1,       Emmanuel%Guérot%NULL%1,       Abolfazl Mohebbi%Amoli%NULL%1,       Michel%Benhamou%NULL%1,       Jean-Pierre%Deyme%NULL%1,       Olivier%Andremont%NULL%1,       Diane%Lena%NULL%1,       Julien%Cady%NULL%1,       Arnaud%Causeret%NULL%1,       Arnaud%De La Chapelle%NULL%1,       Christophe%Cracco%NULL%1,       Stéphane%Rouleau%NULL%1,       David%Schnell%NULL%1,       Cécile%Lory%NULL%1,       Thibault%Chapelle%NULL%1,       Vincent%Bruckert%NULL%1,       Julie%Garcia%NULL%1,       Abdlazize%Sahraoui%NULL%1,       Nathalie%Abbosh%NULL%1,       Caroline%Bornstain%NULL%1,       Pierre%Pernet%NULL%1,       Florent%Poirson%NULL%1,       Ahmed%Pasem%NULL%1,       Philippe%Karoubi%NULL%1,       Virginie%Poupinel%NULL%1,       Caroline%Gauthier%NULL%1,       François%Bouniol%NULL%1,       Philippe%Feuchere%NULL%1,       Florent%Bavozet%NULL%0,       Anne%Heron%NULL%1,       Serge%Carreira%NULL%1,       Malo%Emery%NULL%1,       Anne%Le Floch%NULL%1,       Luana%Giovannangeli%NULL%1,       Nicolas%Herzog%NULL%1,       Christophe%Giacardi%NULL%1,       Thibaut%Baudic%NULL%1,       Chloé%Thill%NULL%1,       Florence%Tubach%NULL%1,       Olivier%Lesieur%NULL%1,       Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,       Max W.%Adelman%NULL%2,       Maxwell A.%Hockstein%NULL%1,       Chad J.%Robichaux%NULL%1,       Johnathan A.%Edwards%NULL%1,       Jane C.%Fazio%NULL%1,       James M.%Blum%NULL%3,       Craig S.%Jabaley%NULL%2,       Mark%Caridi-Scheible%NULL%2,       Greg S.%Martin%NULL%2,       David J.%Murphy%NULL%3,       Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,     Antonelli%M.%coreGivesNoEmail%0,     Bellani%G.%coreGivesNoEmail%0,     Bonanomi%E.%coreGivesNoEmail%0,     Cabrini%L.%coreGivesNoEmail%0,     Carlesso%E.%coreGivesNoEmail%0,     Castelli%G.%coreGivesNoEmail%0,     Cattaneo%S.%coreGivesNoEmail%0,     Cecconi%M.%coreGivesNoEmail%0,     Cereda%D.%coreGivesNoEmail%0,     Colombo%S.%coreGivesNoEmail%0,     Coluccello%A.%coreGivesNoEmail%0,     Crescini%G.%coreGivesNoEmail%0,     Forastieri%Molinari A.%coreGivesNoEmail%0,     Foti%G.%coreGivesNoEmail%0,     Fumagalli%R.%coreGivesNoEmail%0,     Grasselli%G.%coreGivesNoEmail%0,     Greco%M.%coreGivesNoEmail%0,     Iotti%G. A.%coreGivesNoEmail%0,     Langer%T.%coreGivesNoEmail%0,     Latronico%N.%coreGivesNoEmail%0,     Lorini%F. L.%coreGivesNoEmail%0,     Mojoli%F.%coreGivesNoEmail%0,     Natalini%G.%coreGivesNoEmail%0,     Pesenti%A.%coreGivesNoEmail%0,     Pessina%C. M.%coreGivesNoEmail%0,     Ranieri%V. M.%coreGivesNoEmail%0,     Rech%R.%coreGivesNoEmail%0,     Rosano%A.%coreGivesNoEmail%0,     Scudeller%L.%coreGivesNoEmail%0,     Storti%E.%coreGivesNoEmail%0,     Thompson%B. T.%coreGivesNoEmail%0,     Tirani%M.%coreGivesNoEmail%0,     Villani%P. G.%coreGivesNoEmail%0,     Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,       Keum-Ju%Choi%NULL%1,       Sun Ha%Choi%NULL%1,       Shin Yup%Lee%NULL%1,       Kyung Chan%Kim%NULL%1,       Eun Jin%Kim%NULL%1,       Jaehee%Lee%NULL%2,       Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,       Siddique%Chaudhary%NULL%1,       Kevin%Bryan Lo%NULL%2,       Kevin%Bryan Lo%NULL%0,       Robert%DeJoy%NULL%1,       Fahad%Gul%NULL%1,       Ricardo%Torres%NULL%1,       Neal%Chaisson%NULL%2,       Neal%Chaisson%NULL%0,       Gabriel%Patarroyo-Aponte%NULL%2,       Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,       Bruno L.%Ferreyro%NULL%2,       Bruno L.%Ferreyro%NULL%0,       Federico%Angriman%NULL%1,       María%Hernández-Sanz%NULL%2,       Egoitz%Arruti%NULL%1,       Antoni%Torres%NULL%2,       Jesús%Villar%NULL%1,       Laurent%Brochard%NULL%1,       Carlos%Ferrando%NULL%2,       Ricard%Mellado-Artigas%NULL%1,       María%Hernández-Sanz%NULL%0,       Carlos%Ferrando%NULL%0,       Marina%Vendrell%NULL%1,       Gerard%Sánchez-Etayo%NULL%1,       Amalia%Alcón%NULL%1,       Isabel%Belda%NULL%1,       Mercé%Agustí%NULL%1,       Albert%Carramiñana%NULL%1,       Isabel%Gracia%NULL%1,       Miriam%Panzeri%NULL%1,       Irene%León%NULL%1,       Jaume%Balust%NULL%1,       Ricard%Navarro%NULL%2,       María José%Arguís%NULL%1,       María José%Carretero%NULL%1,       Cristina%Ibáñez%NULL%1,       Juan%Perdomo%NULL%1,       Antonio%López%NULL%1,       Manuel%López-Baamonde%NULL%1,       Tomás%Cuñat%NULL%1,       Marta%Ubré%NULL%1,       Antonio%Ojeda%NULL%1,       Andrea%Calvo%NULL%1,       Eva%Rivas%NULL%1,       Paola%Hurtado%NULL%1,       Roger%Pujol%NULL%1,       Nuria%Martín%NULL%1,       Javier%Tercero%NULL%1,       Pepe%Sanahuja%NULL%1,       Marta%Magaldi%NULL%1,       Miquel%Coca%NULL%1,       Elena%del Rio%NULL%1,       Julia%Martínez-Ocon%NULL%1,       Paula%Masgoret%NULL%1,       Monserrat%Tio%NULL%1,       Angel%Caballero%NULL%1,       Raquel%Risco%NULL%1,       Raquel%Bergé%NULL%1,       Lidia%Gómez%NULL%1,       Nicolás%de Riva%NULL%1,       Ana%Ruiz%NULL%1,       Beatriz%Tena%NULL%1,       Sebastián%Jaramillo%NULL%1,       José María%Balibrea%NULL%1,       Francisco Borja de Borja%de Lacy%NULL%1,       Ana%Otero%NULL%1,       Ainitze%Ibarzabal%NULL%1,       Raquel%Bravo%NULL%1,       Anna%Carreras%NULL%1,       Daniel%Martín-Barreda%NULL%1,       Alfonso Jesús%Alias%NULL%1,       Mariano%Balaguer%NULL%1,       Jorge%Aliaga%NULL%1,       Alex%Almuedo%NULL%1,       Joan Ramón%Alonso%NULL%1,       Rut%Andrea%NULL%1,       Gerard Sergi%Angelès%NULL%1,        Marilyn%Arias%NULL%1,       Fátima%Aziz%NULL%1,       Joan Ramon%Badía%NULL%1,       Enric%Barbeta%NULL%1,       Toni%Torres%NULL%1,       Guillem%Batiste%NULL%1,       Pau%Benet%NULL%1,       Xavi%Borrat%NULL%1,       María%Borrell%NULL%1,       Ernest%Bragulat%NULL%1,       Inmaculada%Carmona%NULL%1,       Manuel%Castellà%NULL%1,       Pedro%Castro%NULL%1,       Joan%Ceravalls%NULL%1,       Oscar%Comino%NULL%1,       Claudia%Cucciniello%NULL%1,       Clàudia%De Deray%NULL%1,       Oriol%De Diego%NULL%1,       Paula%De la Matta%NULL%1,       Marta%Farrero%NULL%1,       Javier%Fernández%NULL%1,       Sara%Fernández%NULL%1,       Anna%Fernández%NULL%1,       Miquel%Ferrer%NULL%1,       Ana%Fervienza%NULL%1,       María%Tallo Forga%NULL%1,       Daniel%Forné%NULL%1,       Clàudia%Galán%NULL%1,       Andrea%Gómez%NULL%1,       Eduard%Guasch%NULL%1,       María%Hernández-Tejero%NULL%1,       Adriana%Jacas%NULL%1,       Beltrán%Jiménez%NULL%1,       Pere%Leyes%NULL%1,       Teresa%López%NULL%1,       José Antonio%Martínez%NULL%1,       Graciela%Martínez-Pallí%NULL%1,       Jordi%Mercadal%NULL%1,       Guido%Muñoz%NULL%1,       José%Muñoz%NULL%1,       Ricard%Navarro%NULL%0,       Josep María%Nicolás%NULL%1,       José Tomás%Ortiz%NULL%1,       Anna%Peiró%NULL%1,       Manuel%Pérez%NULL%1,       Esteban%Poch%NULL%1,       Margarida%Pujol%NULL%1,       Eduard%Quintana%NULL%1,       Bartomeu%Ramis%NULL%1,       Enric%Reverter%NULL%1,       Irene%Rovira%NULL%1,       Pablo%Ruiz%NULL%1,       Elena%Sandoval%NULL%1,       Stefan%Schneider%NULL%1,       Oriol%Sibila%NULL%1,       Carla%Solé%NULL%1,       Alex%Soriano%NULL%1,       Dolors%Soy%NULL%1,       M.%Suárez%NULL%1,       Adrián%Téllez%NULL%1,       Néstor David%Toapanta%NULL%1,       Antoni%Torres%NULL%0,       Xavier%Urra%NULL%1,       César%Aldecoa%NULL%1,       Alicia%Bordell%NULL%1,       Silvia%Martín%NULL%1,       Judith%Andrés%NULL%1,       Alberto Martínez%Ruiz%NULL%1,       Gonzalo Tamayo%Medel%NULL%1,       Iñaki Bilbao Bilbao%Villasante%NULL%1,       Fernando Iturri%Clavero%NULL%1,       Covadonga Peralta%Álvarez%NULL%1,       Julia T.%Herrera Díez%NULL%1,       Andrea García%Trancho%NULL%1,       Iñaki Sainz %Mandiola%NULL%1,       Carmen Ruano%Suarez%NULL%1,       Angela Ruiz%Bocos%NULL%1,       Eneritz Urrutia%Izagirre%NULL%1,       Pablo Ortiz%de Urbina Fernández%NULL%1,       Naiara Apodaka%López%NULL%1,       Leire Prieto%Molano%NULL%1,       Eunate Ganuza%Martínez%NULL%1,       Iratxe Vallinas%Hidalgo%NULL%1,       Karmele%de Orte Sancho%NULL%1,       Celia González%Paniagua%NULL%1,       Gemma Ortiz%Labrador%NULL%1,       Mireia Pérez%Larrañaga%NULL%1,       Marta López%Miguelez%NULL%1,       Estíbaliz Bárcena%Andrés%NULL%1,       Erik Urutxurtu%Laureano%NULL%1,       Maria Jesús Maroño%Boedo%NULL%1,       Blanca Escontrela%Rodríguez%NULL%1,       Aitziber Ereñozaga%Camiruaga%NULL%1,       Deiene Lasuen%Aguirre%NULL%1,       Ainhoa Zabal%Maeztu%NULL%1,       Ane Guereca%Gala%NULL%1,       Iker Castelo%Korro%NULL%1,       Andrés Álvarez%Campo%NULL%1,       Alejandro Carcelen%Viana%NULL%1,       Alejandro Alberdi%Enríquez%NULL%1,       Xabier Ormazábal%Rementeria%NULL%1,       Alberto Sánchez%Campos%NULL%1,       Rosa Gutiérrez%Rico%NULL%1,       Pablo Barbier%Damborenea%NULL%1,       Marta Guerenabarrena%Momeñe%NULL%1,       Borja Cuesta%Ruiz%NULL%1,       Alejandro López%Rico%NULL%1,       Ana Rojo%Polo%NULL%1,       Covadonga García%Grijelmo%NULL%1,       Mikel Celorrio%Reta%NULL%1,       Eneko Martín%Arroyo%NULL%1,       Leire Artaza%Aparicio%NULL%1,       Iñaki Ituarte%Aspiazu%NULL%1,       Ane Igeregi%Basabe%NULL%1,       Itxaso Merino%Julian%NULL%1,       Isabel Diaz%Rico%NULL%1,       Maria Paz%Martínez%NULL%1,       Ramón%Adalia Bartolomé%NULL%1,       Luigi%Zattera%NULL%1,       Irina Adalid%Hernandez%NULL%1,       Leire Larrañaga%Altuna%NULL%1,       Aina Serrallonga%Castells%NULL%1,       Adriana Vílchez%Garcia%NULL%1,       María%Núñez%NULL%1,       Lorena%Román%NULL%1,       Isabel Ramos%Delgado%NULL%1,       Adela Benítez-Cano%Martínez%NULL%1,       Mireia Chanzá%Albert%NULL%1,       Juan Carlos Álvarez%García%NULL%1,       Luis Aguilera%Cuchillo%NULL%1,       Sandra Beltrán%de Heredia%NULL%1,       Jesús Carazo%Cordobés%NULL%1,       Carlos Alberto García%Bernedo%NULL%1,       Fernando Escolano%Villén%NULL%1,       Francisco Javier Redondo%Calvo%NULL%1,       Rubén Villazala%González%NULL%1,       Victor Baladron%González%NULL%1,       Patricia%Faba%NULL%1,       Omar%Montenegro%NULL%1,       Natalia Bejarano%Ramírez%NULL%1,       Sergio Marcos%Contreras%NULL%1,       Alejandro Garcia%Rodríguez%NULL%1,       Saleta Rey%Vázquez%NULL%1,       Cristina Garcia%Pérez%NULL%1,       Eva Higuera%Miguelez%NULL%1,       Irene Pérez%Blanco%NULL%1,       David García%Rivera%NULL%1,       Ane Martín%de la Fuente%NULL%1,       Marta%Pardo%NULL%1,       Vanessa%Rodriguez%NULL%1,       Unai%Bengoetxea%NULL%1,       Fernando%Ramasco%NULL%1,       Sheila Olga Santidrián%Bernal%NULL%1,       Alvar Santa Cruz%Hernando%NULL%1,       Antonio Planas%Roca%NULL%1,       Carlos Figueroa%Yusta%NULL%1,       Esther García%Villabona%NULL%1,       Carmen Vallejo%Lantero%NULL%1,       Eva Patiño%Rodriguez%NULL%1,       Alvaro Esquivel%Toledo%NULL%1,       David Arribas%Méndez%NULL%1,       Mar Orts%Rodriguez%NULL%1,       Rosa Méndez%Hernández%NULL%1,       Jesús Nieves%Alonso%NULL%1,       Inés Imaz%Artazcoz%NULL%1,       Sonia Expósito%Carazo%NULL%1,       Carlos Román%Guerrero%NULL%1,       Elena Rojo%Rodríguez%NULL%1,       Ricardo Moreno%González%NULL%1,       Julia Hernando%Santos%NULL%1,       Jara Torrente%Pérez%NULL%1,       Esperanza Mata%Mena%NULL%1,       Manuel José Muñoz%Martínez%NULL%1,       Enrique Alday%Muñoz%NULL%1,       Patricia Martin%Serrano%NULL%1,       Laura Cotter%Muñoz%NULL%1,       Amadea%Mjertan%NULL%1,       Diego Gutierrez%Martínez%NULL%1,       Carmen Rodríguez%García%NULL%1,       Olaya Alonso%Viejo%NULL%1,       Juan Alvarez%Pereira%NULL%1,       Ana Carmona%Bonet%NULL%1,       Diana Parrado%López%NULL%1,       Eva%de Dios Tomas%NULL%1,       Rafael Martín%Celemin%NULL%1,       María Luisa Meilan%Paz%NULL%1,       Luis Quecedo%Gutiérrez%NULL%1,       Noemí Diaz%Velasco%NULL%1,       Gabriel Martin%Hernández%NULL%1,       Francisco Garcia%del Corral%NULL%1,       Gloria Hernandez%Arias%NULL%1,       David Rodriguez%Cuesta%NULL%1,       Ana Gómez%Rice%NULL%1,       Encarna Mateos%Sevillano%NULL%1,       Natalia Olmos%Molpeceres%NULL%1,       Beatriz%Domínguez%NULL%1,       Ana Vázquez%Lima%NULL%1,       Ángel%Candela%NULL%1,       Ismael A. Acevedo%Bambaren%NULL%1,       Maria Isabel Albala%Blanco%NULL%1,       Paloma Alonso%Montoiro%NULL%1,       Fernando Álvarez%Utrera%NULL%1,       Juan Avellanosa%Esteruelas%NULL%1,       Amal Azzam%López%NULL%1,       Alberto José%Balvis%NULL%1,       Balvis Tommaso%Bardi%NULL%1,       María Beltrán%Martín%NULL%1,       Jacobo Benatar%Haserfaty%NULL%1,       Alberto Berruezo%Camacho%NULL%1,       Laura Betolaza%Weimer%NULL%1,       María%del Mar Carbonell Soto%NULL%1,       Cristina Carrasco%Seral%NULL%1,       Cristina Cerro %Zaballos%NULL%1,       Elizabeth Claros%Llamas%NULL%1,       Pilar Coleta%Orduna%NULL%1,       Ingrid P. Cortes%Forero%NULL%1,       Pascual Agustín Crespo%Aliseda%NULL%1,       María Angélica%de Pablo Pajares%NULL%1,       Yolanda Díez%Remesal%NULL%1,       Trinidad Dorado%Díaz%NULL%1,       Noemí Echevarría%Blasco%NULL%1,       María Elena Elías%Martín%NULL%1,       Javier Felices%Triviño%NULL%1,       Natalia Fernández%López%NULL%1,       Cristina Fernández%Martín%NULL%1,       Natalia Ferreiro%Pozuelo%NULL%1,       Luis Gajate%Martín%NULL%1,       Clara Gallego%Santos%NULL%1,       Diego Gil%Mayo%NULL%1,       María Gómez%Rojo%NULL%1,       Claudia González%Cibrián%NULL%1,       Elena Herrera%López%NULL%1,       Borja Hinojal%Olmedillo%NULL%1,       Berta Iglesias%Gallego%NULL%1,       Sassan%Khonsari%NULL%1,       María Nuria Mane%Ruiz%NULL%1,       María Manzanero%Arroyo%NULL%1,       Ana María Mariscal%Ortega%NULL%1,       Sara Martín%Burcio%NULL%1,       María%del Carmen Martín González%NULL%1,       Ascensión Martín%Grande%NULL%1,       Jose Juan Martín%López%NULL%1,       Cecilia Martín%Rabes%NULL%1,       Marcos Martínez%Borja%NULL%1,       Nilda Martínez%Castro%NULL%1,       Adolfo Martínez%Pérez%NULL%1,       Snejana%Matcan%NULL%1,       Cristina Medrano%Viñas%NULL%1,       Lisset Miguel%Herrera%NULL%1,       Adrián Mira%Betancur%NULL%1,       María Montiel%Carbajo%NULL%1,       Javier Moya%Moradas%NULL%1,       Lorena Muñoz%Pérez%NULL%1,       Mónica Nuñez%Murias%NULL%1,       Eva Ordiales%González%NULL%1,       Óscar Ordoñez%Recio%NULL%1,       Miguel Ángel Palomero%Rodriguez%NULL%1,       Diego Parise%Roux%NULL%1,       Lucia Pereira%Torres%NULL%1,       David Pestaña%Lagunas%NULL%1,       Juana María Pinto%Corraliza%NULL%1,       Marian Prieto%Rodrigo%NULL%1,       Inmaculada Rodriguez%Diaz-Regaño%NULL%1,       David Rodriguez%Esteban%NULL%1,       Víctor Rojas%Pernia%NULL%1,       Álvaro Ruigómez%Saiz%NULL%1,       Bárbara Saavedra%Villarino%NULL%1,       Noemí Samaranch%Palero%NULL%1,       Gloria Santos%Pérez%NULL%1,       Jaume Serna%Pérez%NULL%1,       Ana Belén Serrano%Romero%NULL%1,       Jesús Tercero%López%NULL%1,       Carlos Tiscar%García%NULL%1,       Marta%de la Torre Concostrina%NULL%1,       Eva María Ureta%Mesa%NULL%1,       Eva Velasco%Olarte%NULL%1,       Judith Villahoz%Martínez%NULL%1,       Raúl Villalaba%Palacios%NULL%1,       Gema Villanueva%García%NULL%1,       Cristina Vogel%de Medeiros%NULL%1,       Soraya Gholamian%Ovejero%NULL%1,       Marta Vicente%Orgaz%NULL%1,       Patricia Lloreda%Herradon%NULL%1,       Cristina Crespo%Gómez%NULL%1,       Tatiana%Sarmiento-Trujillo%NULL%1,       Noemí García%Medina%NULL%1,       María Martínez%García%NULL%1,       Carles Espinós%Ramírez%NULL%1,       Nabil Mouhaffel%Rivero%NULL%1,       Jose Antonio Bernia%Gil%NULL%1,       Sonsoles%Martín%NULL%1,       María Victoria%Moral%NULL%1,       Josefina%Galán%NULL%1,       Pilar%Paniagua%NULL%1,       Sergio%Pérez%NULL%1,       Albert%Bainac%NULL%1,       Ana%Arias%NULL%1,       Elsa%Ramil%NULL%1,       Jorge%Escudero%NULL%1,       Pablo%Monedero%NULL%1,       Carmen%Cara%NULL%1,       Andrea%Lara%NULL%1,       Elena Mendez%Martínez%NULL%1,       Jorge%Mendoza%NULL%1,       Íñigo Rubio%Baines%NULL%1,       Carmen Sala%Trull%NULL%1,       Pablo Montero%López%NULL%1,       Alfredo%Gea%NULL%1,       Alejandro%Montero%NULL%1,       Rocío Armero%Ibañez%NULL%1,       Juan Vicente Llau%Pitarch%NULL%1,       Fernando Rauer%Alcóver%NULL%1,       Cristina Álvarez%Herreros%NULL%1,       Cyntia Sánchez%Martín%NULL%1,       Lucía López Ocáriz%Olmos%NULL%1,       Marta Navas%Moruno%NULL%1,       Fernando García%Montoto%NULL%1,       M. F. Mirón%Rodriguez%NULL%1,       Laura Fuentes%Coco%NULL%1,       Cristina Hernández%Gamito%NULL%1,       Antonio Barba%Orejudo%NULL%1,       Luis Gerardo Smith%Vielma%NULL%1,       Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,       Marta Donoso%Domínguez%NULL%1,       Silvia Esquivel%Ramírez%NULL%1,       José Antonio%Carbonell%NULL%1,       Berta Monleón%López%NULL%1,       Sara%Martínez-Castro%NULL%1,       Gerardo%Aguilar%NULL%1,       María Gestal Pablo%Casas%NULL%1,       Angel Outeiro%Rosato%NULL%1,       Andrea Naveiro%Pan%NULL%1,       María Alonso%Portela%NULL%1,       Adrián García%Romar%NULL%1,       Eva Mosquera%Rodríguez%NULL%1,       Diego Ruanova%Seijo%NULL%1,       Pablo Rama%Maceiras%NULL%1,       Francisco%Castro-Ceoane%NULL%1,       Esther Moreno%López%NULL%1,       Sergio%Gil%NULL%1,       Julia Guillén%Antón%NULL%1,       Patricia García-Consuegra%Tirado%NULL%1,       Aurora Callau%Calvo%NULL%1,       Laura Forés%Lisbona%NULL%1,       María Carbonell%Romero%NULL%1,       Belén Albericio%Gil%NULL%1,       Laura Pradal%Jarne%NULL%1,       María Soria%Lozano%NULL%1,       Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,       Navjot Ariyana%Kaur%NULL%1,       Daniel%Sacher%NULL%1,       Oisin%O’Corragain%NULL%1,       Daniel%Salerno%NULL%1,       Parag%Desai%NULL%1,       Sameep%Sehgal%NULL%1,       Matthew%Gordon%NULL%2,       Rohit%Gupta%NULL%2,       Nathaniel%Marchetti%NULL%1,       Huaqing%Zhao%NULL%2,       Nicole%Patlakh%NULL%2,       Gerard J.%Criner%NULL%1,       Temple%University%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,       Dominik%Jarczak%NULL%1,       Liina%Thasler%NULL%1,       Martin%Bachmann%NULL%1,       Frank%Schulte%NULL%1,       Berthold%Bein%NULL%1,       Christian Friedrich%Weber%NULL%1,       Ulrich%Schäfer%NULL%1,       Carsten%Veit%NULL%1,       Hans-Peter%Hauber%NULL%1,       Sebastian%Kopp%NULL%1,       Karsten%Sydow%NULL%1,       Andreas%de Weerth%NULL%0,       Marc%Bota%NULL%1,       Rüdiger%Schreiber%NULL%1,       Oliver%Detsch%NULL%1,       Jan-Peer%Rogmann%NULL%1,       Daniel%Frings%NULL%0,       Barbara%Sensen%NULL%1,       Christoph%Burdelski%NULL%0,       Olaf%Boenisch%NULL%1,       Axel%Nierhaus%NULL%0,       Geraldine%de Heer%NULL%0,       Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,        Paolo%Comassi%NULL%1,        Luca%Adriani%NULL%1,        Giulio%Bergamaschini%NULL%1,        Elena%Bertin%NULL%1,        Raffaella%Borromeo%NULL%1,        Serena%Corti%NULL%1,        Federica%De Petri%NULL%1,        Francesco%Dolci%NULL%1,        Attilio%Galmozzi%NULL%1,        Alberto%Gigliotti%NULL%1,        Livio%Gualdoni%NULL%1,        Claudia%Guerra%NULL%1,        Anna%Khosthiova%NULL%1,        Giovanni%Leati%NULL%1,        Giuseppe%Lupi%NULL%1,        Paolo%Moscato%NULL%1,        Vittorio%Perotti%NULL%1,        Miriam%Piantelli%NULL%1,        Alain%Ruini%NULL%1,        Silvia%Sportelli%NULL%1,        Micaela%Susca%NULL%1,        Carmine%Troiano%NULL%1,        Giampaolo%Benelli%NULL%1,        Elisabetta%Buscarini%NULL%1,        Ciro%Canetta%NULL%1,        Guido%Merli%NULL%1,        Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,        Emna%Ennouri%NULL%1,        Rayane%Nachi%NULL%1,        Khaoula%Meddeb%NULL%1,        Jihene%Mahmoud%NULL%1,        Nesrine%Thabet%NULL%1,        Salma%Jerbi%NULL%1,        Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,        Eleni%Xourgia%NULL%1,        Theodora K.%Ntaidou%NULL%1,        Dimitris%Zervakis%NULL%1,        Eleni E.%Magira%NULL%1,        Anastasia%Kotanidou%NULL%1,        Christina%Routsi%NULL%1,        Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,        Carina%Mostert%NULL%1,        Corinna%Hentschker%NULL%1,        Thomas%Voshaar%NULL%1,        Jürgen%Malzahn%NULL%1,        Gerhard%Schillinger%NULL%1,        Jürgen%Klauber%NULL%1,        Uwe%Janssens%NULL%1,        Gernot%Marx%NULL%1,        Steffen%Weber-Carstens%NULL%1,        Stefan%Kluge%NULL%0,        Michael%Pfeifer%NULL%1,        Linus%Grabenhenrich%NULL%1,        Tobias%Welte%NULL%1,        Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,        David%Hajage%NULL%2,        David%Hajage%NULL%0,        Alexandre%Demoule%NULL%1,        Tài%Pham%NULL%1,        Alain%Combes%NULL%1,        Martin%Dres%NULL%1,        Said%Lebbah%NULL%1,        Antoine%Kimmoun%NULL%1,        Alain%Mercat%NULL%1,        Gaëtan%Beduneau%NULL%1,        Jessica%Palmyre%NULL%1,        Margot%Prevost%NULL%1,        Pierre%Asfar%NULL%1,        François%Beloncle%NULL%1,        Julien%Demiselle%NULL%1,        Arthur%Pavot%NULL%1,        Xavier%Monnet%NULL%1,        Christian%Richard%NULL%1,        Julien%Mayaux%NULL%1,        Alexandra%Beurton%NULL%1,        Richard%Descamps%NULL%1,        Aurélie%Joret%NULL%1,        Damien%Du Cheyron%NULL%1,        Frédéric%Pene%NULL%1,        Jean-Daniel%Chiche%NULL%1,        Mathieu%Jozwiak%NULL%1,        Paul%Jaubert%NULL%1,        Guillaume%Voiriot%NULL%1,        Muriel%Fartoukh%NULL%1,        Marion%Teulier%NULL%1,        Clarisse%Blayau%NULL%1,        Erwen%L’Her%NULL%1,        Cécile%Aubron%NULL%1,        Laetitia%Bodenes%NULL%1,        Nicolas%Ferriere%NULL%1,        Johann%Auchabie%NULL%1,        Anthony%Le Meur%NULL%1,        Sylvain%Pignal%NULL%1,        Thierry%Mazzoni%NULL%1,        Jean-Pierre%Quenot%NULL%1,        Pascal%Andreu%NULL%1,        Jean-Baptiste%Roudau%NULL%1,        Marie%Labruyère%NULL%1,        Saad%Nseir%NULL%0,        Sébastien%Preau%NULL%1,        Julien%Poissy%NULL%0,        Daniel%Mathieu%NULL%0,        Sarah%Benhamida%NULL%1,        Rémi%Paulet%NULL%1,        Nicolas%Roucaud%NULL%1,        Martial%Thyrault%NULL%1,        Florence%Daviet%NULL%1,        Sami%Hraiech%NULL%1,        Gabriel%Parzy%NULL%1,        Aude%Sylvestre%NULL%1,        Sébastien%Jochmans%NULL%1,        Anne-Laure%Bouilland%NULL%1,        Mehran%Monchi%NULL%1,        Marc%Danguy des Déserts%NULL%1,        Quentin%Mathais%NULL%1,        Gwendoline%Rager%NULL%1,        Pierre%Pasquier%NULL%1,        Reignier%Jean%NULL%1,        Seguin%Amélie%NULL%1,        Garret%Charlotte%NULL%1,        Canet%Emmanuel%NULL%1,        Jean%Dellamonica%NULL%1,        Clément%Saccheri%NULL%1,        Romain%Lombardi%NULL%1,        Yanis%Kouchit%NULL%1,        Sophie%Jacquier%NULL%1,        Armelle%Mathonnet%NULL%1,        Mai-Ahn%Nay%NULL%1,        Isabelle%Runge%NULL%1,        Frédéric%Martino%NULL%1,        Laure%Flurin%NULL%1,        Amélie%Rolle%NULL%1,        Michel%Carles%NULL%1,        Rémi%Coudroy%NULL%1,        Arnaud W.%Thille%NULL%1,        Jean-Pierre%Frat%NULL%1,        Maeva%Rodriguez%NULL%1,        Pascal%Beuret%NULL%1,        Audrey%Tientcheu%NULL%1,        Arthur%Vincent%NULL%1,        Florian%Michelin%NULL%1,        Marie Anne%Melone%NULL%1,        Maxime%Gauzi%NULL%1,        Arnaud%Guilbert%NULL%1,        Geoffrey%Kouadri%NULL%1,        Valérie%Gissot%NULL%1,        Stéphan%Ehrmann%NULL%1,        Charlotte%Salmon-Gandonnière%NULL%1,        Djlali%Elaroussi%NULL%1,        Agathe%Delbove%NULL%1,        Yannick%Fedun%NULL%1,        Julien%Huntzinger%NULL%1,        Eddy%Lebas%NULL%1,        Grâce%Kisoka%NULL%1,        Céline%Grégoire%NULL%1,        Stella%Marchetta%NULL%1,        Bernard%Lambermont%NULL%1,        Laurent%Argaud%NULL%1,        Thomas%Baudry%NULL%1,        Pierre-Jean%Bertrand%NULL%1,        Auguste%Dargent%NULL%1,        Christophe%Guitton%NULL%1,        Nicolas%Chudeau%NULL%1,        Mickaël%Landais%NULL%1,        Cédric%Darreau%NULL%1,        Alexis%Ferre%NULL%1,        Antoine%Gros%NULL%1,        Guillaume%Lacave%NULL%1,        Fabrice%Bruneel%NULL%1,        Mathilde%Neuville%NULL%1,        Jérôme%Devaquet%NULL%1,        Guillaume%Tachon%NULL%1,        Richard%Gallot%NULL%1,        Riad%Chelha%NULL%1,        Arnaud%Galbois%NULL%1,        Anne%Jallot%NULL%1,        Ludivine Chalumeau%Lemoine%NULL%1,        Khaldoun%Kuteifan%NULL%1,        Valentin%Pointurier%NULL%1,        Louise-Marie%Jandeaux%NULL%1,        Joy%Mootien%NULL%1,        Charles%Damoisel%NULL%1,        Benjamin%Sztrymf%NULL%1,        Juliette%Chommeloux%NULL%1,        Charles Edouard%Luyt%NULL%1,        Frédérique%Schortgen%NULL%1,        Leon%Rusel%NULL%1,        Camille%Jung%NULL%1,        Florent%Gobert%NULL%1,        Damien%Vimpere%NULL%1,        Lionel%Lamhaut%NULL%1,        Bertrand%Sauneuf%NULL%1,        Liliane%Charrier%NULL%1,        Julien%Calus%NULL%1,        Isabelle%Desmeules%NULL%1,        Benoît%Painvin%NULL%1,        Jean-Marc%Tadie%NULL%1,        Vincent%Castelain%NULL%1,        Baptiste%Michard%NULL%1,        Jean-Etienne%Herbrecht%NULL%1,        Mathieu%Baldacini%NULL%1,        Nicolas%Weiss%NULL%1,        Sophie%Demeret%NULL%1,        Clémence%Marois%NULL%1,        Benjamin%Rohaut%NULL%1,        Pierre-Henri%Moury%NULL%1,        Anne-Charlotte%Savida%NULL%1,        Emmanuel%Couadau%NULL%1,        Mathieu%Série%NULL%1,        Nica%Alexandru%NULL%1,        Cédric%Bruel%NULL%1,        Candice%Fontaine%NULL%1,        Sonia%Garrigou%NULL%1,        Juliette Courtiade%Mahler%NULL%1,        Maxime%Leclerc%NULL%1,        Michel%Ramakers%NULL%1,        Pierre%Garçon%NULL%1,        Nicole%Massou%NULL%1,        Ly Phacs%Van Vong%NULL%1,        Juliane%Sen%NULL%1,        Nolwenn%Lucas%NULL%1,        Franck%Chemouni%NULL%1,        Annabelle%Stoclin%NULL%1,        Alexandre%Avenel%NULL%1,        Henri%Faure%NULL%1,        Angélie%Gentilhomme%NULL%1,        Sylvie%Ricome%NULL%1,        Paul%Abraham%NULL%1,        Céline%Monard%NULL%1,        Julien%Textoris%NULL%1,        Thomas%Rimmele%NULL%1,        Florent%Montini%NULL%1,        Gabriel%Lejour%NULL%1,        Thierry%Lazard%NULL%1,        Isabelle%Etienney%NULL%1,        Younes%Kerroumi%NULL%1,        Dupuis%Claire%NULL%1,        Bereiziat Marine%Coupez%NULL%1,        Thouy%François%NULL%1,        Clémet%Hoffmann%NULL%1,        Nicolas%Donat%NULL%1,        Violaine%Muller%NULL%1,        Thibault%Martinez%NULL%1,        Audrey%Jacquot%NULL%1,        Matthieu%Mattei%NULL%1,        Bruno%Levy%NULL%1,        Ramin%Ravan%NULL%1,        Loïc%Dopeux%NULL%1,        Jean-Mathias%Liteaudon%NULL%1,        Delphine%Roux%NULL%1,        Brice%Rey%NULL%1,        Radu%Anghel%NULL%1,        Deborah%Schenesse%NULL%1,        Vincent%Gevrey%NULL%1,        Jermy%Castanera%NULL%1,        Philippe%Petua%NULL%1,        Benjamin%Madeux%NULL%1,        Otto%Hartman%NULL%1,        Michael%Piagnerelli%NULL%1,        Anne%Joosten%NULL%1,        Cinderella%Noel%NULL%1,        Patrick%Biston%NULL%1,        Thibaut%Noel%NULL%1,        Gurvan L. E.%Bouar%NULL%1,        Messabi%Boukhanza%NULL%1,        Elsa%Demarest%NULL%1,        Marie-France%Bajolet%NULL%1,        Nathanaël%Charrier%NULL%1,        Audrey%Quenet%NULL%1,        Cécile%Zylberfajn%NULL%1,        Nicolas%Dufour%NULL%1,        Buno%Mégarbane%NULL%1,        Sqébastian%Voicu%NULL%1,        Nicolas%Deye%NULL%1,        Isabelle%Malissin%NULL%1,        François%Legay%NULL%1,        Matthieu%Debarre%NULL%1,        Nicolas%Barbarot%NULL%1,        Pierre%Fillatre%NULL%1,        Bertrand%Delord%NULL%1,        Thomas%Laterrade%NULL%1,        Tahar%Saghi%NULL%1,        Wilfried%Pujol%NULL%1,        Pierre Julien%Cungi%NULL%1,        Pierre%Esnault%NULL%1,        Mickael%Cardinale%NULL%1,        Vivien%Hong Tuan Ha%NULL%1,        Grégory%Fleury%NULL%1,        Marie-Ange%Brou%NULL%1,        Daniel%Zafimahazo%NULL%1,        David%Tran-Van%NULL%1,        Patrick%Avargues%NULL%1,        Lisa%Carenco%NULL%1,        Nicolas%Robin%NULL%1,        Alexandre%Ouali%NULL%1,        Lucie%Houdou%NULL%1,        Christophe%Le Terrier%NULL%1,        Noémie%Suh%NULL%1,        Steve%Primmaz%NULL%1,        Jérome%Pugin%NULL%1,        Emmanuel%Weiss%NULL%1,        Tobias%Gauss%NULL%1,        Jean-Denis%Moyer%NULL%1,        Catherine%Paugam-Burtz%NULL%1,        Béatrice%La Combe%NULL%1,        Rolland%Smonig%NULL%1,        Jade%Violleau%NULL%1,        Pauline%Cailliez%NULL%1,        Jonathan%Chelly%NULL%1,        Antoine%Marchalot%NULL%1,        Cécile%Saladin%NULL%1,        Christelle%Bigot%NULL%1,        Pierre-Marie%Fayolle%NULL%1,        Jules%Fatséas%NULL%1,        Amr%Ibrahim%NULL%1,        Dabor%Resiere%NULL%1,        Rabih%Hage%NULL%1,        Clémentine%Cholet%NULL%1,        Marie%Cantier%NULL%1,        Pierre%Trouiller%NULL%1,        Philippe%Montravers%NULL%1,        Brice%Lortat-Jacob%NULL%1,        Sebastien%Tanaka%NULL%1,        Alexy%Tran-Dinh%NULL%1,        Jacques%Duranteau%NULL%1,        Anatole%Harrois%NULL%1,        Guillaume%Dubreuil%NULL%1,        Marie%Werner%NULL%1,        Anne%Godier%NULL%1,        Sophie%Hamada%NULL%1,        Diane%Zlotnik%NULL%1,        Hélène%Nougue%NULL%1,        Armand%Mekontso-Dessap%NULL%1,        Guillaume%Carteaux%NULL%1,        Keyvan%Razazi%NULL%1,        Nicolas%De Prost%NULL%1,        Nicolas%Mongardon%NULL%1,        Olivier%Langeron%NULL%1,        Eric%Levesque%NULL%1,        Arié%Attias%NULL%1,        Charles%de Roquetaillade%NULL%1,        Benjamin G.%Chousterman%NULL%1,        Alexandre%Mebazaa%NULL%1,        Etienne%Gayat%NULL%1,        Marc%Garnier%NULL%1,        Emmanuel%Pardo%NULL%1,        Lea%Satre-Buisson%NULL%1,        Christophe%Gutton%NULL%1,        Elise%Yvin%NULL%1,        Clémence%Marcault%NULL%1,        Elie%Azoulay%NULL%1,        Michael%Darmon%NULL%1,        Nicolas%Bonnet%NULL%1,        Nathan%Ebstein%NULL%1,        Stéphane%Gaudry%NULL%1,        Yves%Cohen%NULL%1,         Hafid%Ait-Oufella%NULL%1,        Geoffroy%Hariri%NULL%1,        Tomas%Urbina%NULL%1,        Sandie%Mazerand%NULL%1,        Nicholas%Heming%NULL%1,        Francesca%Santi%NULL%1,        Pierre%Moine%NULL%1,        Djillali%Annane%NULL%1,        Adrien%Bouglé%NULL%1,        Edris%Omar%NULL%1,        Aymeric%Lancelot%NULL%1,        Emmanuelle%Begot%NULL%1,        Gaétan%Plantefeve%NULL%1,        Damien%Contou%NULL%1,        Hervé%Mentec%NULL%1,        Olivier%Pajot%NULL%1,        Stanislas%Faguer%NULL%1,        Olivier%Cointault%NULL%1,        Laurence%Lavayssiere%NULL%1,        Marie-Béatrice%Nogier%NULL%1,        Matthieu%Jamme%NULL%1,        Claire%Pichereau%NULL%1,        Jan%Hayon%NULL%1,        Hervé%Outin%NULL%1,        François%Dépret%NULL%1,        Maxime%Coutrot%NULL%1,        Maité%Chaussard%NULL%1,        Lucie%Guillemet%NULL%1,        Pierre%Goffin%NULL%1,        Romain%Thouny%NULL%1,        Julien%Guntz%NULL%1,        Laurent%Jadot%NULL%1,        Romain%Persichini%NULL%1,        Vanessa%Jean-Michel%NULL%1,        Hugues%Georges%NULL%1,        Thomas%Caulier%NULL%1,        Gaël%Pradel%NULL%1,        Marie-Hélène%Hausermann%NULL%1,        ThiMy Hue%Nguyen-Valat%NULL%1,        Michel%Boudinaud%NULL%1,        Emmanuel%Vivier%NULL%1,        Sylvène%Rosseli%NULL%1,        Gaël%Bourdin%NULL%1,        Christian%Pommier%NULL%1,        Marc%Vinclair%NULL%1,        Simon%Poignant%NULL%1,        Sandrine%Mons%NULL%1,        Wulfran%Bougouin%NULL%1,        Franklin%Bruna%NULL%1,        Quentin%Maestraggi%NULL%1,        Christian%Roth%NULL%1,        Laurent%Bitker%NULL%1,        François%Dhelft%NULL%1,        Justine%Bonnet-Chateau%NULL%1,        Mathilde%Filippelli%NULL%1,        Tristan%Morichau-Beauchant%NULL%1,        Stéphane%Thierry%NULL%1,        Charlotte%Le Roy%NULL%1,        Mélanie%Saint Jouan%NULL%1,        Bruno%Goncalves%NULL%1,        Aurélien%Mazeraud%NULL%1,        Matthieu%Daniel%NULL%1,        Tarek%Sharshar%NULL%1,        Cyril%Cadoz%NULL%1,        Rostane%Gaci%NULL%1,        Sébastien%Gette%NULL%1,        Guillaune%Louis%NULL%1,        Sophe-Caroline%Sacleux%NULL%1,        Marie-Amélie%Ordan%NULL%1,        Aurélie%Cravoisy%NULL%1,        Marie%Conrad%NULL%1,        Guilhem%Courte%NULL%1,        Sébastien%Gibot%NULL%1,        Younès%Benzidi%NULL%1,        Claudia%Casella%NULL%1,        Laurent%Serpin%NULL%1,        Jean-Lou%Setti%NULL%1,        Marie-Catherine%Besse%NULL%1,        Anna%Bourreau%NULL%1,        Jérôme%Pillot%NULL%1,        Caroline%Rivera%NULL%1,        Camille%Vinclair%NULL%1,        Marie-Aline%Robaux%NULL%1,        Chloé%Achino%NULL%1,        Marie-Charlotte%Delignette%NULL%1,        Tessa%Mazard%NULL%1,        Frédéric%Aubrun%NULL%1,        Bruno%Bouchet%NULL%1,        Aurélien%Frérou%NULL%1,        Laura%Muller%NULL%1,        Charlotte%Quentin%NULL%1,        Samuel%Degoul%NULL%1,        Xavier%Stihle%NULL%1,        Claude%Sumian%NULL%1,        Nicoletta%Bergero%NULL%1,        Bernard%Lanaspre%NULL%1,        Hervé%Quintard%NULL%1,        Eve Marie%Maiziere%NULL%1,        Pierre-Yves%Egreteau%NULL%1,        Guillaume%Leloup%NULL%1,        Florin%Berteau%NULL%1,        Marjolaine%Cottrel%NULL%1,        Marie%Bouteloup%NULL%1,        Matthieu%Jeannot%NULL%1,        Quentin%Blanc%NULL%1,        Julien%Saison%NULL%1,        Isabelle%Geneau%NULL%1,        Romaric%Grenot%NULL%1,        Abdel%Ouchike%NULL%1,        Pascal%Hazera%NULL%1,        Anne-Lyse%Masse%NULL%1,        Suela%Demiri%NULL%1,        Corinne%Vezinet%NULL%1,        Elodie%Baron%NULL%1,        Déborah%Benchetrit%NULL%1,        Antoine%Monsel%NULL%1,        Grégoire%Trebbia%NULL%1,        Emmanuelle%Schaack%NULL%1,        Raphaël%Lepecq%NULL%1,        Mathieu%Bobet%NULL%1,        Christophe%Vinsonneau%NULL%1,        Thibault%Dekeyser%NULL%1,        Quentin%Delforge%NULL%1,        Imen%Rahmani%NULL%1,        Bérengère%Vivet%NULL%1,        Jonathan%Paillot%NULL%1,        Lucie%Hierle%NULL%1,        Claire%Chaignat%NULL%1,        Sarah%Valette%NULL%1,        Benoït%Her%NULL%1,        Jennifier%Brunet%NULL%1,        Mathieu%Page%NULL%1,        Fabienne%Boiste%NULL%1,        Anthony%Collin%NULL%1,        Florent%Bavozet%NULL%2,        Aude%Garin%NULL%1,        Mohamed%Dlala%NULL%1,        Kais%Mhamdi%NULL%1,        Bassem%Beilouny%NULL%1,        Alexandra%Lavalard%NULL%1,        Severine%Perez%NULL%1,        Benoit%Veber%NULL%1,        Pierre-Gildas%Guitard%NULL%1,        Philippe%Gouin%NULL%1,        Anna%Lamacz%NULL%1,        Fabienne%Plouvier%NULL%1,        Bertrand P.%Delaborde%NULL%1,        Aïssa%Kherchache%NULL%1,        Amina%Chaalal%NULL%1,        Jean-Damien%Ricard%NULL%1,        Marc%Amouretti%NULL%1,        Santiago%Freita-Ramos%NULL%1,        Damien%Roux%NULL%1,        Jean-Michel%Constantin%NULL%1,        Mona%Assefi%NULL%1,        Marine%Lecore%NULL%1,        Agathe%Selves%NULL%1,        Florian%Prevost%NULL%1,        Christian%Lamer%NULL%1,        Ruiying%Shi%NULL%1,        Lyes%Knani%NULL%1,        Sébastien%Pili-Floury%NULL%1,        Lucie%Vettoretti%NULL%1,        Michael%Levy%NULL%1,        Lucile%Marsac%NULL%1,        Stéphane%Dauger%NULL%1,        Sophie%Guilmin-Crépon%NULL%1,        Jean-Baptiste%Putegnat%NULL%1,        Frédérique%Bayle%NULL%1,        Maya%Perrou%NULL%1,        Ghyslaine%Thao%NULL%1,        Guillaume%Géri%NULL%1,        Cyril%Charron%NULL%1,        Xavier%Repessé%NULL%1,        Antoine%Vieillard-Baron%NULL%1,        Mathieu%Guilbart%NULL%1,        Pierre-Alexandre%Roger%NULL%1,        Sébastien%Hinard%NULL%1,        Pierre-Yves%Macq%NULL%1,        Kevin%Chaulier%NULL%1,        Sylvie%Goutte%NULL%1,        Patrick%Chillet%NULL%1,        Anaïs%Pitta%NULL%1,        Barbara%Darjent%NULL%1,        Amandine%Bruneau%NULL%1,        Sigismond%Lasocki%NULL%1,        Maxime%Leger%NULL%1,        Soizic%Gergaud%NULL%1,        Pierre%Lemarie%NULL%1,        Nicolas%Terzi%NULL%1,        Carole%Schwebel%NULL%1,        Anaïs%Dartevel%NULL%1,        Louis-Marie%Galerneau%NULL%1,        Jean-Luc%Diehl%NULL%1,        Caroline%Hauw-Berlemont%NULL%0,        Nicolas%Péron%NULL%1,        Emmanuel%Guérot%NULL%1,        Abolfazl Mohebbi%Amoli%NULL%1,        Michel%Benhamou%NULL%1,        Jean-Pierre%Deyme%NULL%1,        Olivier%Andremont%NULL%1,        Diane%Lena%NULL%1,        Julien%Cady%NULL%1,        Arnaud%Causeret%NULL%1,        Arnaud%De La Chapelle%NULL%1,        Christophe%Cracco%NULL%1,        Stéphane%Rouleau%NULL%1,        David%Schnell%NULL%1,        Cécile%Lory%NULL%1,        Thibault%Chapelle%NULL%1,        Vincent%Bruckert%NULL%1,        Julie%Garcia%NULL%1,        Abdlazize%Sahraoui%NULL%1,        Nathalie%Abbosh%NULL%1,        Caroline%Bornstain%NULL%1,        Pierre%Pernet%NULL%1,        Florent%Poirson%NULL%1,        Ahmed%Pasem%NULL%1,        Philippe%Karoubi%NULL%1,        Virginie%Poupinel%NULL%1,        Caroline%Gauthier%NULL%1,        François%Bouniol%NULL%1,        Philippe%Feuchere%NULL%1,        Florent%Bavozet%NULL%0,        Anne%Heron%NULL%1,        Serge%Carreira%NULL%1,        Malo%Emery%NULL%1,        Anne%Le Floch%NULL%1,        Luana%Giovannangeli%NULL%1,        Nicolas%Herzog%NULL%1,        Christophe%Giacardi%NULL%1,        Thibaut%Baudic%NULL%1,        Chloé%Thill%NULL%1,        Florence%Tubach%NULL%1,        Olivier%Lesieur%NULL%1,        Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,        Max W.%Adelman%NULL%2,        Maxwell A.%Hockstein%NULL%1,        Chad J.%Robichaux%NULL%1,        Johnathan A.%Edwards%NULL%1,        Jane C.%Fazio%NULL%1,        James M.%Blum%NULL%3,        Craig S.%Jabaley%NULL%2,        Mark%Caridi-Scheible%NULL%2,        Greg S.%Martin%NULL%2,        David J.%Murphy%NULL%3,        Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,      Antonelli%M.%coreGivesNoEmail%0,      Bellani%G.%coreGivesNoEmail%0,      Bonanomi%E.%coreGivesNoEmail%0,      Cabrini%L.%coreGivesNoEmail%0,      Carlesso%E.%coreGivesNoEmail%0,      Castelli%G.%coreGivesNoEmail%0,      Cattaneo%S.%coreGivesNoEmail%0,      Cecconi%M.%coreGivesNoEmail%0,      Cereda%D.%coreGivesNoEmail%0,      Colombo%S.%coreGivesNoEmail%0,      Coluccello%A.%coreGivesNoEmail%0,      Crescini%G.%coreGivesNoEmail%0,      Forastieri%Molinari A.%coreGivesNoEmail%0,      Foti%G.%coreGivesNoEmail%0,      Fumagalli%R.%coreGivesNoEmail%0,      Grasselli%G.%coreGivesNoEmail%0,      Greco%M.%coreGivesNoEmail%0,      Iotti%G. A.%coreGivesNoEmail%0,      Langer%T.%coreGivesNoEmail%0,      Latronico%N.%coreGivesNoEmail%0,      Lorini%F. L.%coreGivesNoEmail%0,      Mojoli%F.%coreGivesNoEmail%0,      Natalini%G.%coreGivesNoEmail%0,      Pesenti%A.%coreGivesNoEmail%0,      Pessina%C. M.%coreGivesNoEmail%0,      Ranieri%V. M.%coreGivesNoEmail%0,      Rech%R.%coreGivesNoEmail%0,      Rosano%A.%coreGivesNoEmail%0,      Scudeller%L.%coreGivesNoEmail%0,      Storti%E.%coreGivesNoEmail%0,      Thompson%B. T.%coreGivesNoEmail%0,      Tirani%M.%coreGivesNoEmail%0,      Villani%P. G.%coreGivesNoEmail%0,      Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,        Keum-Ju%Choi%NULL%1,        Sun Ha%Choi%NULL%1,        Shin Yup%Lee%NULL%1,        Kyung Chan%Kim%NULL%1,        Eun Jin%Kim%NULL%1,        Jaehee%Lee%NULL%2,        Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,        Siddique%Chaudhary%NULL%1,        Kevin%Bryan Lo%NULL%2,        Kevin%Bryan Lo%NULL%0,        Robert%DeJoy%NULL%1,        Fahad%Gul%NULL%1,        Ricardo%Torres%NULL%1,        Neal%Chaisson%NULL%2,        Neal%Chaisson%NULL%0,        Gabriel%Patarroyo-Aponte%NULL%2,        Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,        Bruno L.%Ferreyro%NULL%2,        Bruno L.%Ferreyro%NULL%0,        Federico%Angriman%NULL%1,        María%Hernández-Sanz%NULL%2,        Egoitz%Arruti%NULL%1,        Antoni%Torres%NULL%2,        Jesús%Villar%NULL%1,        Laurent%Brochard%NULL%1,        Carlos%Ferrando%NULL%2,        Ricard%Mellado-Artigas%NULL%1,        María%Hernández-Sanz%NULL%0,        Carlos%Ferrando%NULL%0,        Marina%Vendrell%NULL%1,        Gerard%Sánchez-Etayo%NULL%1,        Amalia%Alcón%NULL%1,        Isabel%Belda%NULL%1,        Mercé%Agustí%NULL%1,        Albert%Carramiñana%NULL%1,        Isabel%Gracia%NULL%1,        Miriam%Panzeri%NULL%1,        Irene%León%NULL%1,        Jaume%Balust%NULL%1,        Ricard%Navarro%NULL%2,        María José%Arguís%NULL%1,        María José%Carretero%NULL%1,        Cristina%Ibáñez%NULL%1,        Juan%Perdomo%NULL%1,        Antonio%López%NULL%1,        Manuel%López-Baamonde%NULL%1,        Tomás%Cuñat%NULL%1,        Marta%Ubré%NULL%1,        Antonio%Ojeda%NULL%1,        Andrea%Calvo%NULL%1,        Eva%Rivas%NULL%1,        Paola%Hurtado%NULL%1,        Roger%Pujol%NULL%1,        Nuria%Martín%NULL%1,        Javier%Tercero%NULL%1,        Pepe%Sanahuja%NULL%1,        Marta%Magaldi%NULL%1,        Miquel%Coca%NULL%1,        Elena%del Rio%NULL%1,        Julia%Martínez-Ocon%NULL%1,        Paula%Masgoret%NULL%1,        Monserrat%Tio%NULL%1,        Angel%Caballero%NULL%1,        Raquel%Risco%NULL%1,        Raquel%Bergé%NULL%1,        Lidia%Gómez%NULL%1,        Nicolás%de Riva%NULL%1,        Ana%Ruiz%NULL%1,        Beatriz%Tena%NULL%1,        Sebastián%Jaramillo%NULL%1,        José María%Balibrea%NULL%1,        Francisco Borja de Borja%de Lacy%NULL%1,        Ana%Otero%NULL%1,        Ainitze%Ibarzabal%NULL%1,        Raquel%Bravo%NULL%1,        Anna%Carreras%NULL%1,        Daniel%Martín-Barreda%NULL%1,        Alfonso Jesús%Alias%NULL%1,        Mariano%Balaguer%NULL%1,        Jorge%Aliaga%NULL%1,        Alex%Almuedo%NULL%1,        Joan Ramón%Alonso%NULL%1,        Rut%Andrea%NULL%1,        Gerard Sergi%Angelès%NULL%1,         Marilyn%Arias%NULL%1,        Fátima%Aziz%NULL%1,        Joan Ramon%Badía%NULL%1,        Enric%Barbeta%NULL%1,        Toni%Torres%NULL%1,        Guillem%Batiste%NULL%1,        Pau%Benet%NULL%1,        Xavi%Borrat%NULL%1,        María%Borrell%NULL%1,        Ernest%Bragulat%NULL%1,        Inmaculada%Carmona%NULL%1,        Manuel%Castellà%NULL%1,        Pedro%Castro%NULL%1,        Joan%Ceravalls%NULL%1,        Oscar%Comino%NULL%1,        Claudia%Cucciniello%NULL%1,        Clàudia%De Deray%NULL%1,        Oriol%De Diego%NULL%1,        Paula%De la Matta%NULL%1,        Marta%Farrero%NULL%1,        Javier%Fernández%NULL%1,        Sara%Fernández%NULL%1,        Anna%Fernández%NULL%1,        Miquel%Ferrer%NULL%1,        Ana%Fervienza%NULL%1,        María%Tallo Forga%NULL%1,        Daniel%Forné%NULL%1,        Clàudia%Galán%NULL%1,        Andrea%Gómez%NULL%1,        Eduard%Guasch%NULL%1,        María%Hernández-Tejero%NULL%1,        Adriana%Jacas%NULL%1,        Beltrán%Jiménez%NULL%1,        Pere%Leyes%NULL%1,        Teresa%López%NULL%1,        José Antonio%Martínez%NULL%1,        Graciela%Martínez-Pallí%NULL%1,        Jordi%Mercadal%NULL%1,        Guido%Muñoz%NULL%1,        José%Muñoz%NULL%1,        Ricard%Navarro%NULL%0,        Josep María%Nicolás%NULL%1,        José Tomás%Ortiz%NULL%1,        Anna%Peiró%NULL%1,        Manuel%Pérez%NULL%1,        Esteban%Poch%NULL%1,        Margarida%Pujol%NULL%1,        Eduard%Quintana%NULL%1,        Bartomeu%Ramis%NULL%1,        Enric%Reverter%NULL%1,        Irene%Rovira%NULL%1,        Pablo%Ruiz%NULL%1,        Elena%Sandoval%NULL%1,        Stefan%Schneider%NULL%1,        Oriol%Sibila%NULL%1,        Carla%Solé%NULL%1,        Alex%Soriano%NULL%1,        Dolors%Soy%NULL%1,        M.%Suárez%NULL%1,        Adrián%Téllez%NULL%1,        Néstor David%Toapanta%NULL%1,        Antoni%Torres%NULL%0,        Xavier%Urra%NULL%1,        César%Aldecoa%NULL%1,        Alicia%Bordell%NULL%1,        Silvia%Martín%NULL%1,        Judith%Andrés%NULL%1,        Alberto Martínez%Ruiz%NULL%1,        Gonzalo Tamayo%Medel%NULL%1,        Iñaki Bilbao Bilbao%Villasante%NULL%1,        Fernando Iturri%Clavero%NULL%1,        Covadonga Peralta%Álvarez%NULL%1,        Julia T.%Herrera Díez%NULL%1,        Andrea García%Trancho%NULL%1,        Iñaki Sainz %Mandiola%NULL%1,        Carmen Ruano%Suarez%NULL%1,        Angela Ruiz%Bocos%NULL%1,        Eneritz Urrutia%Izagirre%NULL%1,        Pablo Ortiz%de Urbina Fernández%NULL%1,        Naiara Apodaka%López%NULL%1,        Leire Prieto%Molano%NULL%1,        Eunate Ganuza%Martínez%NULL%1,        Iratxe Vallinas%Hidalgo%NULL%1,        Karmele%de Orte Sancho%NULL%1,        Celia González%Paniagua%NULL%1,        Gemma Ortiz%Labrador%NULL%1,        Mireia Pérez%Larrañaga%NULL%1,        Marta López%Miguelez%NULL%1,        Estíbaliz Bárcena%Andrés%NULL%1,        Erik Urutxurtu%Laureano%NULL%1,        Maria Jesús Maroño%Boedo%NULL%1,        Blanca Escontrela%Rodríguez%NULL%1,        Aitziber Ereñozaga%Camiruaga%NULL%1,        Deiene Lasuen%Aguirre%NULL%1,        Ainhoa Zabal%Maeztu%NULL%1,        Ane Guereca%Gala%NULL%1,        Iker Castelo%Korro%NULL%1,        Andrés Álvarez%Campo%NULL%1,        Alejandro Carcelen%Viana%NULL%1,        Alejandro Alberdi%Enríquez%NULL%1,        Xabier Ormazábal%Rementeria%NULL%1,        Alberto Sánchez%Campos%NULL%1,        Rosa Gutiérrez%Rico%NULL%1,        Pablo Barbier%Damborenea%NULL%1,        Marta Guerenabarrena%Momeñe%NULL%1,        Borja Cuesta%Ruiz%NULL%1,        Alejandro López%Rico%NULL%1,        Ana Rojo%Polo%NULL%1,        Covadonga García%Grijelmo%NULL%1,        Mikel Celorrio%Reta%NULL%1,        Eneko Martín%Arroyo%NULL%1,        Leire Artaza%Aparicio%NULL%1,        Iñaki Ituarte%Aspiazu%NULL%1,        Ane Igeregi%Basabe%NULL%1,        Itxaso Merino%Julian%NULL%1,        Isabel Diaz%Rico%NULL%1,        Maria Paz%Martínez%NULL%1,        Ramón%Adalia Bartolomé%NULL%1,        Luigi%Zattera%NULL%1,        Irina Adalid%Hernandez%NULL%1,        Leire Larrañaga%Altuna%NULL%1,        Aina Serrallonga%Castells%NULL%1,        Adriana Vílchez%Garcia%NULL%1,        María%Núñez%NULL%1,        Lorena%Román%NULL%1,        Isabel Ramos%Delgado%NULL%1,        Adela Benítez-Cano%Martínez%NULL%1,        Mireia Chanzá%Albert%NULL%1,        Juan Carlos Álvarez%García%NULL%1,        Luis Aguilera%Cuchillo%NULL%1,        Sandra Beltrán%de Heredia%NULL%1,        Jesús Carazo%Cordobés%NULL%1,        Carlos Alberto García%Bernedo%NULL%1,        Fernando Escolano%Villén%NULL%1,        Francisco Javier Redondo%Calvo%NULL%1,        Rubén Villazala%González%NULL%1,        Victor Baladron%González%NULL%1,        Patricia%Faba%NULL%1,        Omar%Montenegro%NULL%1,        Natalia Bejarano%Ramírez%NULL%1,        Sergio Marcos%Contreras%NULL%1,        Alejandro Garcia%Rodríguez%NULL%1,        Saleta Rey%Vázquez%NULL%1,        Cristina Garcia%Pérez%NULL%1,        Eva Higuera%Miguelez%NULL%1,        Irene Pérez%Blanco%NULL%1,        David García%Rivera%NULL%1,        Ane Martín%de la Fuente%NULL%1,        Marta%Pardo%NULL%1,        Vanessa%Rodriguez%NULL%1,        Unai%Bengoetxea%NULL%1,        Fernando%Ramasco%NULL%1,        Sheila Olga Santidrián%Bernal%NULL%1,        Alvar Santa Cruz%Hernando%NULL%1,        Antonio Planas%Roca%NULL%1,        Carlos Figueroa%Yusta%NULL%1,        Esther García%Villabona%NULL%1,        Carmen Vallejo%Lantero%NULL%1,        Eva Patiño%Rodriguez%NULL%1,        Alvaro Esquivel%Toledo%NULL%1,        David Arribas%Méndez%NULL%1,        Mar Orts%Rodriguez%NULL%1,        Rosa Méndez%Hernández%NULL%1,        Jesús Nieves%Alonso%NULL%1,        Inés Imaz%Artazcoz%NULL%1,        Sonia Expósito%Carazo%NULL%1,        Carlos Román%Guerrero%NULL%1,        Elena Rojo%Rodríguez%NULL%1,        Ricardo Moreno%González%NULL%1,        Julia Hernando%Santos%NULL%1,        Jara Torrente%Pérez%NULL%1,        Esperanza Mata%Mena%NULL%1,        Manuel José Muñoz%Martínez%NULL%1,        Enrique Alday%Muñoz%NULL%1,        Patricia Martin%Serrano%NULL%1,        Laura Cotter%Muñoz%NULL%1,        Amadea%Mjertan%NULL%1,        Diego Gutierrez%Martínez%NULL%1,        Carmen Rodríguez%García%NULL%1,        Olaya Alonso%Viejo%NULL%1,        Juan Alvarez%Pereira%NULL%1,        Ana Carmona%Bonet%NULL%1,        Diana Parrado%López%NULL%1,        Eva%de Dios Tomas%NULL%1,        Rafael Martín%Celemin%NULL%1,        María Luisa Meilan%Paz%NULL%1,        Luis Quecedo%Gutiérrez%NULL%1,        Noemí Diaz%Velasco%NULL%1,        Gabriel Martin%Hernández%NULL%1,        Francisco Garcia%del Corral%NULL%1,        Gloria Hernandez%Arias%NULL%1,        David Rodriguez%Cuesta%NULL%1,        Ana Gómez%Rice%NULL%1,        Encarna Mateos%Sevillano%NULL%1,        Natalia Olmos%Molpeceres%NULL%1,        Beatriz%Domínguez%NULL%1,        Ana Vázquez%Lima%NULL%1,        Ángel%Candela%NULL%1,        Ismael A. Acevedo%Bambaren%NULL%1,        Maria Isabel Albala%Blanco%NULL%1,        Paloma Alonso%Montoiro%NULL%1,        Fernando Álvarez%Utrera%NULL%1,        Juan Avellanosa%Esteruelas%NULL%1,        Amal Azzam%López%NULL%1,        Alberto José%Balvis%NULL%1,        Balvis Tommaso%Bardi%NULL%1,        María Beltrán%Martín%NULL%1,        Jacobo Benatar%Haserfaty%NULL%1,        Alberto Berruezo%Camacho%NULL%1,        Laura Betolaza%Weimer%NULL%1,        María%del Mar Carbonell Soto%NULL%1,        Cristina Carrasco%Seral%NULL%1,        Cristina Cerro %Zaballos%NULL%1,        Elizabeth Claros%Llamas%NULL%1,        Pilar Coleta%Orduna%NULL%1,        Ingrid P. Cortes%Forero%NULL%1,        Pascual Agustín Crespo%Aliseda%NULL%1,        María Angélica%de Pablo Pajares%NULL%1,        Yolanda Díez%Remesal%NULL%1,        Trinidad Dorado%Díaz%NULL%1,        Noemí Echevarría%Blasco%NULL%1,        María Elena Elías%Martín%NULL%1,        Javier Felices%Triviño%NULL%1,        Natalia Fernández%López%NULL%1,        Cristina Fernández%Martín%NULL%1,        Natalia Ferreiro%Pozuelo%NULL%1,        Luis Gajate%Martín%NULL%1,        Clara Gallego%Santos%NULL%1,        Diego Gil%Mayo%NULL%1,        María Gómez%Rojo%NULL%1,        Claudia González%Cibrián%NULL%1,        Elena Herrera%López%NULL%1,        Borja Hinojal%Olmedillo%NULL%1,        Berta Iglesias%Gallego%NULL%1,        Sassan%Khonsari%NULL%1,        María Nuria Mane%Ruiz%NULL%1,        María Manzanero%Arroyo%NULL%1,        Ana María Mariscal%Ortega%NULL%1,        Sara Martín%Burcio%NULL%1,        María%del Carmen Martín González%NULL%1,        Ascensión Martín%Grande%NULL%1,        Jose Juan Martín%López%NULL%1,        Cecilia Martín%Rabes%NULL%1,        Marcos Martínez%Borja%NULL%1,        Nilda Martínez%Castro%NULL%1,        Adolfo Martínez%Pérez%NULL%1,        Snejana%Matcan%NULL%1,        Cristina Medrano%Viñas%NULL%1,        Lisset Miguel%Herrera%NULL%1,        Adrián Mira%Betancur%NULL%1,        María Montiel%Carbajo%NULL%1,        Javier Moya%Moradas%NULL%1,        Lorena Muñoz%Pérez%NULL%1,        Mónica Nuñez%Murias%NULL%1,        Eva Ordiales%González%NULL%1,        Óscar Ordoñez%Recio%NULL%1,        Miguel Ángel Palomero%Rodriguez%NULL%1,        Diego Parise%Roux%NULL%1,        Lucia Pereira%Torres%NULL%1,        David Pestaña%Lagunas%NULL%1,        Juana María Pinto%Corraliza%NULL%1,        Marian Prieto%Rodrigo%NULL%1,        Inmaculada Rodriguez%Diaz-Regaño%NULL%1,        David Rodriguez%Esteban%NULL%1,        Víctor Rojas%Pernia%NULL%1,        Álvaro Ruigómez%Saiz%NULL%1,        Bárbara Saavedra%Villarino%NULL%1,        Noemí Samaranch%Palero%NULL%1,        Gloria Santos%Pérez%NULL%1,        Jaume Serna%Pérez%NULL%1,        Ana Belén Serrano%Romero%NULL%1,        Jesús Tercero%López%NULL%1,        Carlos Tiscar%García%NULL%1,        Marta%de la Torre Concostrina%NULL%1,        Eva María Ureta%Mesa%NULL%1,        Eva Velasco%Olarte%NULL%1,        Judith Villahoz%Martínez%NULL%1,        Raúl Villalaba%Palacios%NULL%1,        Gema Villanueva%García%NULL%1,        Cristina Vogel%de Medeiros%NULL%1,        Soraya Gholamian%Ovejero%NULL%1,        Marta Vicente%Orgaz%NULL%1,        Patricia Lloreda%Herradon%NULL%1,        Cristina Crespo%Gómez%NULL%1,        Tatiana%Sarmiento-Trujillo%NULL%1,        Noemí García%Medina%NULL%1,        María Martínez%García%NULL%1,        Carles Espinós%Ramírez%NULL%1,        Nabil Mouhaffel%Rivero%NULL%1,        Jose Antonio Bernia%Gil%NULL%1,        Sonsoles%Martín%NULL%1,        María Victoria%Moral%NULL%1,        Josefina%Galán%NULL%1,        Pilar%Paniagua%NULL%1,        Sergio%Pérez%NULL%1,        Albert%Bainac%NULL%1,        Ana%Arias%NULL%1,        Elsa%Ramil%NULL%1,        Jorge%Escudero%NULL%1,        Pablo%Monedero%NULL%1,        Carmen%Cara%NULL%1,        Andrea%Lara%NULL%1,        Elena Mendez%Martínez%NULL%1,        Jorge%Mendoza%NULL%1,        Íñigo Rubio%Baines%NULL%1,        Carmen Sala%Trull%NULL%1,        Pablo Montero%López%NULL%1,        Alfredo%Gea%NULL%1,        Alejandro%Montero%NULL%1,        Rocío Armero%Ibañez%NULL%1,        Juan Vicente Llau%Pitarch%NULL%1,        Fernando Rauer%Alcóver%NULL%1,        Cristina Álvarez%Herreros%NULL%1,        Cyntia Sánchez%Martín%NULL%1,        Lucía López Ocáriz%Olmos%NULL%1,        Marta Navas%Moruno%NULL%1,        Fernando García%Montoto%NULL%1,        M. F. Mirón%Rodriguez%NULL%1,        Laura Fuentes%Coco%NULL%1,        Cristina Hernández%Gamito%NULL%1,        Antonio Barba%Orejudo%NULL%1,        Luis Gerardo Smith%Vielma%NULL%1,        Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,        Marta Donoso%Domínguez%NULL%1,        Silvia Esquivel%Ramírez%NULL%1,        José Antonio%Carbonell%NULL%1,        Berta Monleón%López%NULL%1,        Sara%Martínez-Castro%NULL%1,        Gerardo%Aguilar%NULL%1,        María Gestal Pablo%Casas%NULL%1,        Angel Outeiro%Rosato%NULL%1,        Andrea Naveiro%Pan%NULL%1,        María Alonso%Portela%NULL%1,        Adrián García%Romar%NULL%1,        Eva Mosquera%Rodríguez%NULL%1,        Diego Ruanova%Seijo%NULL%1,        Pablo Rama%Maceiras%NULL%1,        Francisco%Castro-Ceoane%NULL%1,        Esther Moreno%López%NULL%1,        Sergio%Gil%NULL%1,        Julia Guillén%Antón%NULL%1,        Patricia García-Consuegra%Tirado%NULL%1,        Aurora Callau%Calvo%NULL%1,        Laura Forés%Lisbona%NULL%1,        María Carbonell%Romero%NULL%1,        Belén Albericio%Gil%NULL%1,        Laura Pradal%Jarne%NULL%1,        María Soria%Lozano%NULL%1,        Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,        Navjot Ariyana%Kaur%NULL%1,        Daniel%Sacher%NULL%1,        Oisin%O’Corragain%NULL%1,        Daniel%Salerno%NULL%1,        Parag%Desai%NULL%1,        Sameep%Sehgal%NULL%1,        Matthew%Gordon%NULL%2,        Rohit%Gupta%NULL%2,        Nathaniel%Marchetti%NULL%1,        Huaqing%Zhao%NULL%2,        Nicole%Patlakh%NULL%2,        Gerard J.%Criner%NULL%1,        Temple%University%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,        Dominik%Jarczak%NULL%1,        Liina%Thasler%NULL%1,        Martin%Bachmann%NULL%1,        Frank%Schulte%NULL%1,        Berthold%Bein%NULL%1,        Christian Friedrich%Weber%NULL%1,        Ulrich%Schäfer%NULL%1,        Carsten%Veit%NULL%1,        Hans-Peter%Hauber%NULL%1,        Sebastian%Kopp%NULL%1,        Karsten%Sydow%NULL%1,        Andreas%de Weerth%NULL%0,        Marc%Bota%NULL%1,        Rüdiger%Schreiber%NULL%1,        Oliver%Detsch%NULL%1,        Jan-Peer%Rogmann%NULL%1,        Daniel%Frings%NULL%0,        Barbara%Sensen%NULL%1,        Christoph%Burdelski%NULL%0,        Olaf%Boenisch%NULL%1,        Axel%Nierhaus%NULL%0,        Geraldine%de Heer%NULL%0,        Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1081,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1038,7 +1110,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1067,7 +1139,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1096,7 +1168,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1125,7 +1197,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1154,7 +1226,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1183,7 +1255,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1212,7 +1284,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1241,7 +1313,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1270,7 +1342,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1299,7 +1371,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1328,7 +1400,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="191">
   <si>
     <t>Doi</t>
   </si>
@@ -685,6 +685,78 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,        Dominik%Jarczak%NULL%1,        Liina%Thasler%NULL%1,        Martin%Bachmann%NULL%1,        Frank%Schulte%NULL%1,        Berthold%Bein%NULL%1,        Christian Friedrich%Weber%NULL%1,        Ulrich%Schäfer%NULL%1,        Carsten%Veit%NULL%1,        Hans-Peter%Hauber%NULL%1,        Sebastian%Kopp%NULL%1,        Karsten%Sydow%NULL%1,        Andreas%de Weerth%NULL%0,        Marc%Bota%NULL%1,        Rüdiger%Schreiber%NULL%1,        Oliver%Detsch%NULL%1,        Jan-Peer%Rogmann%NULL%1,        Daniel%Frings%NULL%0,        Barbara%Sensen%NULL%1,        Christoph%Burdelski%NULL%0,        Olaf%Boenisch%NULL%1,        Axel%Nierhaus%NULL%0,        Geraldine%de Heer%NULL%0,        Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,         Paolo%Comassi%NULL%1,         Luca%Adriani%NULL%1,         Giulio%Bergamaschini%NULL%1,         Elena%Bertin%NULL%1,         Raffaella%Borromeo%NULL%1,         Serena%Corti%NULL%1,         Federica%De Petri%NULL%1,         Francesco%Dolci%NULL%1,         Attilio%Galmozzi%NULL%1,         Alberto%Gigliotti%NULL%1,         Livio%Gualdoni%NULL%1,         Claudia%Guerra%NULL%1,         Anna%Khosthiova%NULL%1,         Giovanni%Leati%NULL%1,         Giuseppe%Lupi%NULL%1,         Paolo%Moscato%NULL%1,         Vittorio%Perotti%NULL%1,         Miriam%Piantelli%NULL%1,         Alain%Ruini%NULL%1,         Silvia%Sportelli%NULL%1,         Micaela%Susca%NULL%1,         Carmine%Troiano%NULL%1,         Giampaolo%Benelli%NULL%1,         Elisabetta%Buscarini%NULL%1,         Ciro%Canetta%NULL%1,         Guido%Merli%NULL%1,         Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,         Emna%Ennouri%NULL%1,         Rayane%Nachi%NULL%1,         Khaoula%Meddeb%NULL%1,         Jihene%Mahmoud%NULL%1,         Nesrine%Thabet%NULL%1,         Salma%Jerbi%NULL%1,         Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,         Eleni%Xourgia%NULL%1,         Theodora K.%Ntaidou%NULL%1,         Dimitris%Zervakis%NULL%1,         Eleni E.%Magira%NULL%1,         Anastasia%Kotanidou%NULL%1,         Christina%Routsi%NULL%1,         Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,         Carina%Mostert%NULL%1,         Corinna%Hentschker%NULL%1,         Thomas%Voshaar%NULL%1,         Jürgen%Malzahn%NULL%1,         Gerhard%Schillinger%NULL%1,         Jürgen%Klauber%NULL%1,         Uwe%Janssens%NULL%1,         Gernot%Marx%NULL%1,         Steffen%Weber-Carstens%NULL%1,         Stefan%Kluge%NULL%0,         Michael%Pfeifer%NULL%1,         Linus%Grabenhenrich%NULL%1,         Tobias%Welte%NULL%1,         Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,         David%Hajage%NULL%2,         David%Hajage%NULL%0,         Alexandre%Demoule%NULL%1,         Tài%Pham%NULL%1,         Alain%Combes%NULL%1,         Martin%Dres%NULL%1,         Said%Lebbah%NULL%1,         Antoine%Kimmoun%NULL%1,         Alain%Mercat%NULL%1,         Gaëtan%Beduneau%NULL%1,         Jessica%Palmyre%NULL%1,         Margot%Prevost%NULL%1,         Pierre%Asfar%NULL%1,         François%Beloncle%NULL%1,         Julien%Demiselle%NULL%1,         Arthur%Pavot%NULL%1,         Xavier%Monnet%NULL%1,         Christian%Richard%NULL%1,         Julien%Mayaux%NULL%1,         Alexandra%Beurton%NULL%1,         Richard%Descamps%NULL%1,         Aurélie%Joret%NULL%1,         Damien%Du Cheyron%NULL%1,         Frédéric%Pene%NULL%1,         Jean-Daniel%Chiche%NULL%1,         Mathieu%Jozwiak%NULL%1,         Paul%Jaubert%NULL%1,         Guillaume%Voiriot%NULL%1,         Muriel%Fartoukh%NULL%1,         Marion%Teulier%NULL%1,         Clarisse%Blayau%NULL%1,         Erwen%L’Her%NULL%1,         Cécile%Aubron%NULL%1,         Laetitia%Bodenes%NULL%1,         Nicolas%Ferriere%NULL%1,         Johann%Auchabie%NULL%1,         Anthony%Le Meur%NULL%1,         Sylvain%Pignal%NULL%1,         Thierry%Mazzoni%NULL%1,         Jean-Pierre%Quenot%NULL%1,         Pascal%Andreu%NULL%1,         Jean-Baptiste%Roudau%NULL%1,         Marie%Labruyère%NULL%1,         Saad%Nseir%NULL%0,         Sébastien%Preau%NULL%1,         Julien%Poissy%NULL%0,         Daniel%Mathieu%NULL%0,         Sarah%Benhamida%NULL%1,         Rémi%Paulet%NULL%1,         Nicolas%Roucaud%NULL%1,         Martial%Thyrault%NULL%1,         Florence%Daviet%NULL%1,         Sami%Hraiech%NULL%1,         Gabriel%Parzy%NULL%1,         Aude%Sylvestre%NULL%1,         Sébastien%Jochmans%NULL%1,         Anne-Laure%Bouilland%NULL%1,         Mehran%Monchi%NULL%1,         Marc%Danguy des Déserts%NULL%1,         Quentin%Mathais%NULL%1,         Gwendoline%Rager%NULL%1,         Pierre%Pasquier%NULL%1,         Reignier%Jean%NULL%1,         Seguin%Amélie%NULL%1,         Garret%Charlotte%NULL%1,         Canet%Emmanuel%NULL%1,         Jean%Dellamonica%NULL%1,         Clément%Saccheri%NULL%1,         Romain%Lombardi%NULL%1,         Yanis%Kouchit%NULL%1,         Sophie%Jacquier%NULL%1,         Armelle%Mathonnet%NULL%1,         Mai-Ahn%Nay%NULL%1,         Isabelle%Runge%NULL%1,         Frédéric%Martino%NULL%1,         Laure%Flurin%NULL%1,         Amélie%Rolle%NULL%1,         Michel%Carles%NULL%1,         Rémi%Coudroy%NULL%1,         Arnaud W.%Thille%NULL%1,         Jean-Pierre%Frat%NULL%1,         Maeva%Rodriguez%NULL%1,         Pascal%Beuret%NULL%1,         Audrey%Tientcheu%NULL%1,         Arthur%Vincent%NULL%1,         Florian%Michelin%NULL%1,         Marie Anne%Melone%NULL%1,         Maxime%Gauzi%NULL%1,         Arnaud%Guilbert%NULL%1,         Geoffrey%Kouadri%NULL%1,         Valérie%Gissot%NULL%1,         Stéphan%Ehrmann%NULL%1,         Charlotte%Salmon-Gandonnière%NULL%1,         Djlali%Elaroussi%NULL%1,         Agathe%Delbove%NULL%1,         Yannick%Fedun%NULL%1,         Julien%Huntzinger%NULL%1,         Eddy%Lebas%NULL%1,         Grâce%Kisoka%NULL%1,         Céline%Grégoire%NULL%1,         Stella%Marchetta%NULL%1,         Bernard%Lambermont%NULL%1,         Laurent%Argaud%NULL%1,         Thomas%Baudry%NULL%1,         Pierre-Jean%Bertrand%NULL%1,         Auguste%Dargent%NULL%1,         Christophe%Guitton%NULL%1,         Nicolas%Chudeau%NULL%1,         Mickaël%Landais%NULL%1,         Cédric%Darreau%NULL%1,         Alexis%Ferre%NULL%1,         Antoine%Gros%NULL%1,         Guillaume%Lacave%NULL%1,         Fabrice%Bruneel%NULL%1,         Mathilde%Neuville%NULL%1,         Jérôme%Devaquet%NULL%1,         Guillaume%Tachon%NULL%1,         Richard%Gallot%NULL%1,         Riad%Chelha%NULL%1,         Arnaud%Galbois%NULL%1,         Anne%Jallot%NULL%1,         Ludivine Chalumeau%Lemoine%NULL%1,         Khaldoun%Kuteifan%NULL%1,         Valentin%Pointurier%NULL%1,         Louise-Marie%Jandeaux%NULL%1,         Joy%Mootien%NULL%1,         Charles%Damoisel%NULL%1,         Benjamin%Sztrymf%NULL%1,         Juliette%Chommeloux%NULL%1,         Charles Edouard%Luyt%NULL%1,         Frédérique%Schortgen%NULL%1,         Leon%Rusel%NULL%1,         Camille%Jung%NULL%1,         Florent%Gobert%NULL%1,         Damien%Vimpere%NULL%1,         Lionel%Lamhaut%NULL%1,         Bertrand%Sauneuf%NULL%1,         Liliane%Charrier%NULL%1,         Julien%Calus%NULL%1,         Isabelle%Desmeules%NULL%1,         Benoît%Painvin%NULL%1,         Jean-Marc%Tadie%NULL%1,         Vincent%Castelain%NULL%1,         Baptiste%Michard%NULL%1,         Jean-Etienne%Herbrecht%NULL%1,         Mathieu%Baldacini%NULL%1,         Nicolas%Weiss%NULL%1,         Sophie%Demeret%NULL%1,         Clémence%Marois%NULL%1,         Benjamin%Rohaut%NULL%1,         Pierre-Henri%Moury%NULL%1,         Anne-Charlotte%Savida%NULL%1,         Emmanuel%Couadau%NULL%1,         Mathieu%Série%NULL%1,         Nica%Alexandru%NULL%1,         Cédric%Bruel%NULL%1,         Candice%Fontaine%NULL%1,         Sonia%Garrigou%NULL%1,         Juliette Courtiade%Mahler%NULL%1,         Maxime%Leclerc%NULL%1,         Michel%Ramakers%NULL%1,         Pierre%Garçon%NULL%1,         Nicole%Massou%NULL%1,         Ly Phacs%Van Vong%NULL%1,         Juliane%Sen%NULL%1,         Nolwenn%Lucas%NULL%1,         Franck%Chemouni%NULL%1,         Annabelle%Stoclin%NULL%1,         Alexandre%Avenel%NULL%1,         Henri%Faure%NULL%1,         Angélie%Gentilhomme%NULL%1,         Sylvie%Ricome%NULL%1,         Paul%Abraham%NULL%1,         Céline%Monard%NULL%1,         Julien%Textoris%NULL%1,         Thomas%Rimmele%NULL%1,         Florent%Montini%NULL%1,         Gabriel%Lejour%NULL%1,         Thierry%Lazard%NULL%1,         Isabelle%Etienney%NULL%1,         Younes%Kerroumi%NULL%1,         Dupuis%Claire%NULL%1,         Bereiziat Marine%Coupez%NULL%1,         Thouy%François%NULL%1,         Clémet%Hoffmann%NULL%1,         Nicolas%Donat%NULL%1,         Violaine%Muller%NULL%1,         Thibault%Martinez%NULL%1,         Audrey%Jacquot%NULL%1,         Matthieu%Mattei%NULL%1,         Bruno%Levy%NULL%1,         Ramin%Ravan%NULL%1,         Loïc%Dopeux%NULL%1,         Jean-Mathias%Liteaudon%NULL%1,         Delphine%Roux%NULL%1,         Brice%Rey%NULL%1,         Radu%Anghel%NULL%1,         Deborah%Schenesse%NULL%1,         Vincent%Gevrey%NULL%1,         Jermy%Castanera%NULL%1,         Philippe%Petua%NULL%1,         Benjamin%Madeux%NULL%1,         Otto%Hartman%NULL%1,         Michael%Piagnerelli%NULL%1,         Anne%Joosten%NULL%1,         Cinderella%Noel%NULL%1,         Patrick%Biston%NULL%1,         Thibaut%Noel%NULL%1,         Gurvan L. E.%Bouar%NULL%1,         Messabi%Boukhanza%NULL%1,         Elsa%Demarest%NULL%1,         Marie-France%Bajolet%NULL%1,         Nathanaël%Charrier%NULL%1,         Audrey%Quenet%NULL%1,         Cécile%Zylberfajn%NULL%1,         Nicolas%Dufour%NULL%1,         Buno%Mégarbane%NULL%1,         Sqébastian%Voicu%NULL%1,         Nicolas%Deye%NULL%1,         Isabelle%Malissin%NULL%1,         François%Legay%NULL%1,         Matthieu%Debarre%NULL%1,         Nicolas%Barbarot%NULL%1,         Pierre%Fillatre%NULL%1,         Bertrand%Delord%NULL%1,         Thomas%Laterrade%NULL%1,         Tahar%Saghi%NULL%1,         Wilfried%Pujol%NULL%1,         Pierre Julien%Cungi%NULL%1,         Pierre%Esnault%NULL%1,         Mickael%Cardinale%NULL%1,         Vivien%Hong Tuan Ha%NULL%1,         Grégory%Fleury%NULL%1,         Marie-Ange%Brou%NULL%1,         Daniel%Zafimahazo%NULL%1,         David%Tran-Van%NULL%1,         Patrick%Avargues%NULL%1,         Lisa%Carenco%NULL%1,         Nicolas%Robin%NULL%1,         Alexandre%Ouali%NULL%1,         Lucie%Houdou%NULL%1,         Christophe%Le Terrier%NULL%1,         Noémie%Suh%NULL%1,         Steve%Primmaz%NULL%1,         Jérome%Pugin%NULL%1,         Emmanuel%Weiss%NULL%1,         Tobias%Gauss%NULL%1,         Jean-Denis%Moyer%NULL%1,         Catherine%Paugam-Burtz%NULL%1,         Béatrice%La Combe%NULL%1,         Rolland%Smonig%NULL%1,         Jade%Violleau%NULL%1,         Pauline%Cailliez%NULL%1,         Jonathan%Chelly%NULL%1,         Antoine%Marchalot%NULL%1,         Cécile%Saladin%NULL%1,         Christelle%Bigot%NULL%1,         Pierre-Marie%Fayolle%NULL%1,         Jules%Fatséas%NULL%1,         Amr%Ibrahim%NULL%1,         Dabor%Resiere%NULL%1,         Rabih%Hage%NULL%1,         Clémentine%Cholet%NULL%1,         Marie%Cantier%NULL%1,         Pierre%Trouiller%NULL%1,         Philippe%Montravers%NULL%1,         Brice%Lortat-Jacob%NULL%1,         Sebastien%Tanaka%NULL%1,         Alexy%Tran-Dinh%NULL%1,         Jacques%Duranteau%NULL%1,         Anatole%Harrois%NULL%1,         Guillaume%Dubreuil%NULL%1,         Marie%Werner%NULL%1,         Anne%Godier%NULL%1,         Sophie%Hamada%NULL%1,         Diane%Zlotnik%NULL%1,         Hélène%Nougue%NULL%1,         Armand%Mekontso-Dessap%NULL%1,         Guillaume%Carteaux%NULL%1,         Keyvan%Razazi%NULL%1,         Nicolas%De Prost%NULL%1,         Nicolas%Mongardon%NULL%1,         Olivier%Langeron%NULL%1,         Eric%Levesque%NULL%1,         Arié%Attias%NULL%1,         Charles%de Roquetaillade%NULL%1,         Benjamin G.%Chousterman%NULL%1,         Alexandre%Mebazaa%NULL%1,         Etienne%Gayat%NULL%1,         Marc%Garnier%NULL%1,         Emmanuel%Pardo%NULL%1,         Lea%Satre-Buisson%NULL%1,         Christophe%Gutton%NULL%1,         Elise%Yvin%NULL%1,         Clémence%Marcault%NULL%1,         Elie%Azoulay%NULL%1,         Michael%Darmon%NULL%1,         Nicolas%Bonnet%NULL%1,         Nathan%Ebstein%NULL%1,         Stéphane%Gaudry%NULL%1,         Yves%Cohen%NULL%1,          Hafid%Ait-Oufella%NULL%1,         Geoffroy%Hariri%NULL%1,         Tomas%Urbina%NULL%1,         Sandie%Mazerand%NULL%1,         Nicholas%Heming%NULL%1,         Francesca%Santi%NULL%1,         Pierre%Moine%NULL%1,         Djillali%Annane%NULL%1,         Adrien%Bouglé%NULL%1,         Edris%Omar%NULL%1,         Aymeric%Lancelot%NULL%1,         Emmanuelle%Begot%NULL%1,         Gaétan%Plantefeve%NULL%1,         Damien%Contou%NULL%1,         Hervé%Mentec%NULL%1,         Olivier%Pajot%NULL%1,         Stanislas%Faguer%NULL%1,         Olivier%Cointault%NULL%1,         Laurence%Lavayssiere%NULL%1,         Marie-Béatrice%Nogier%NULL%1,         Matthieu%Jamme%NULL%1,         Claire%Pichereau%NULL%1,         Jan%Hayon%NULL%1,         Hervé%Outin%NULL%1,         François%Dépret%NULL%1,         Maxime%Coutrot%NULL%1,         Maité%Chaussard%NULL%1,         Lucie%Guillemet%NULL%1,         Pierre%Goffin%NULL%1,         Romain%Thouny%NULL%1,         Julien%Guntz%NULL%1,         Laurent%Jadot%NULL%1,         Romain%Persichini%NULL%1,         Vanessa%Jean-Michel%NULL%1,         Hugues%Georges%NULL%1,         Thomas%Caulier%NULL%1,         Gaël%Pradel%NULL%1,         Marie-Hélène%Hausermann%NULL%1,         ThiMy Hue%Nguyen-Valat%NULL%1,         Michel%Boudinaud%NULL%1,         Emmanuel%Vivier%NULL%1,         Sylvène%Rosseli%NULL%1,         Gaël%Bourdin%NULL%1,         Christian%Pommier%NULL%1,         Marc%Vinclair%NULL%1,         Simon%Poignant%NULL%1,         Sandrine%Mons%NULL%1,         Wulfran%Bougouin%NULL%1,         Franklin%Bruna%NULL%1,         Quentin%Maestraggi%NULL%1,         Christian%Roth%NULL%1,         Laurent%Bitker%NULL%1,         François%Dhelft%NULL%1,         Justine%Bonnet-Chateau%NULL%1,         Mathilde%Filippelli%NULL%1,         Tristan%Morichau-Beauchant%NULL%1,         Stéphane%Thierry%NULL%1,         Charlotte%Le Roy%NULL%1,         Mélanie%Saint Jouan%NULL%1,         Bruno%Goncalves%NULL%1,         Aurélien%Mazeraud%NULL%1,         Matthieu%Daniel%NULL%1,         Tarek%Sharshar%NULL%1,         Cyril%Cadoz%NULL%1,         Rostane%Gaci%NULL%1,         Sébastien%Gette%NULL%1,         Guillaune%Louis%NULL%1,         Sophe-Caroline%Sacleux%NULL%1,         Marie-Amélie%Ordan%NULL%1,         Aurélie%Cravoisy%NULL%1,         Marie%Conrad%NULL%1,         Guilhem%Courte%NULL%1,         Sébastien%Gibot%NULL%1,         Younès%Benzidi%NULL%1,         Claudia%Casella%NULL%1,         Laurent%Serpin%NULL%1,         Jean-Lou%Setti%NULL%1,         Marie-Catherine%Besse%NULL%1,         Anna%Bourreau%NULL%1,         Jérôme%Pillot%NULL%1,         Caroline%Rivera%NULL%1,         Camille%Vinclair%NULL%1,         Marie-Aline%Robaux%NULL%1,         Chloé%Achino%NULL%1,         Marie-Charlotte%Delignette%NULL%1,         Tessa%Mazard%NULL%1,         Frédéric%Aubrun%NULL%1,         Bruno%Bouchet%NULL%1,         Aurélien%Frérou%NULL%1,         Laura%Muller%NULL%1,         Charlotte%Quentin%NULL%1,         Samuel%Degoul%NULL%1,         Xavier%Stihle%NULL%1,         Claude%Sumian%NULL%1,         Nicoletta%Bergero%NULL%1,         Bernard%Lanaspre%NULL%1,         Hervé%Quintard%NULL%1,         Eve Marie%Maiziere%NULL%1,         Pierre-Yves%Egreteau%NULL%1,         Guillaume%Leloup%NULL%1,         Florin%Berteau%NULL%1,         Marjolaine%Cottrel%NULL%1,         Marie%Bouteloup%NULL%1,         Matthieu%Jeannot%NULL%1,         Quentin%Blanc%NULL%1,         Julien%Saison%NULL%1,         Isabelle%Geneau%NULL%1,         Romaric%Grenot%NULL%1,         Abdel%Ouchike%NULL%1,         Pascal%Hazera%NULL%1,         Anne-Lyse%Masse%NULL%1,         Suela%Demiri%NULL%1,         Corinne%Vezinet%NULL%1,         Elodie%Baron%NULL%1,         Déborah%Benchetrit%NULL%1,         Antoine%Monsel%NULL%1,         Grégoire%Trebbia%NULL%1,         Emmanuelle%Schaack%NULL%1,         Raphaël%Lepecq%NULL%1,         Mathieu%Bobet%NULL%1,         Christophe%Vinsonneau%NULL%1,         Thibault%Dekeyser%NULL%1,         Quentin%Delforge%NULL%1,         Imen%Rahmani%NULL%1,         Bérengère%Vivet%NULL%1,         Jonathan%Paillot%NULL%1,         Lucie%Hierle%NULL%1,         Claire%Chaignat%NULL%1,         Sarah%Valette%NULL%1,         Benoït%Her%NULL%1,         Jennifier%Brunet%NULL%1,         Mathieu%Page%NULL%1,         Fabienne%Boiste%NULL%1,         Anthony%Collin%NULL%1,         Florent%Bavozet%NULL%2,         Aude%Garin%NULL%1,         Mohamed%Dlala%NULL%1,         Kais%Mhamdi%NULL%1,         Bassem%Beilouny%NULL%1,         Alexandra%Lavalard%NULL%1,         Severine%Perez%NULL%1,         Benoit%Veber%NULL%1,         Pierre-Gildas%Guitard%NULL%1,         Philippe%Gouin%NULL%1,         Anna%Lamacz%NULL%1,         Fabienne%Plouvier%NULL%1,         Bertrand P.%Delaborde%NULL%1,         Aïssa%Kherchache%NULL%1,         Amina%Chaalal%NULL%1,         Jean-Damien%Ricard%NULL%1,         Marc%Amouretti%NULL%1,         Santiago%Freita-Ramos%NULL%1,         Damien%Roux%NULL%1,         Jean-Michel%Constantin%NULL%1,         Mona%Assefi%NULL%1,         Marine%Lecore%NULL%1,         Agathe%Selves%NULL%1,         Florian%Prevost%NULL%1,         Christian%Lamer%NULL%1,         Ruiying%Shi%NULL%1,         Lyes%Knani%NULL%1,         Sébastien%Pili-Floury%NULL%1,         Lucie%Vettoretti%NULL%1,         Michael%Levy%NULL%1,         Lucile%Marsac%NULL%1,         Stéphane%Dauger%NULL%1,         Sophie%Guilmin-Crépon%NULL%1,         Jean-Baptiste%Putegnat%NULL%1,         Frédérique%Bayle%NULL%1,         Maya%Perrou%NULL%1,         Ghyslaine%Thao%NULL%1,         Guillaume%Géri%NULL%1,         Cyril%Charron%NULL%1,         Xavier%Repessé%NULL%1,         Antoine%Vieillard-Baron%NULL%1,         Mathieu%Guilbart%NULL%1,         Pierre-Alexandre%Roger%NULL%1,         Sébastien%Hinard%NULL%1,         Pierre-Yves%Macq%NULL%1,         Kevin%Chaulier%NULL%1,         Sylvie%Goutte%NULL%1,         Patrick%Chillet%NULL%1,         Anaïs%Pitta%NULL%1,         Barbara%Darjent%NULL%1,         Amandine%Bruneau%NULL%1,         Sigismond%Lasocki%NULL%1,         Maxime%Leger%NULL%1,         Soizic%Gergaud%NULL%1,         Pierre%Lemarie%NULL%1,         Nicolas%Terzi%NULL%1,         Carole%Schwebel%NULL%1,         Anaïs%Dartevel%NULL%1,         Louis-Marie%Galerneau%NULL%1,         Jean-Luc%Diehl%NULL%1,         Caroline%Hauw-Berlemont%NULL%0,         Nicolas%Péron%NULL%1,         Emmanuel%Guérot%NULL%1,         Abolfazl Mohebbi%Amoli%NULL%1,         Michel%Benhamou%NULL%1,         Jean-Pierre%Deyme%NULL%1,         Olivier%Andremont%NULL%1,         Diane%Lena%NULL%1,         Julien%Cady%NULL%1,         Arnaud%Causeret%NULL%1,         Arnaud%De La Chapelle%NULL%1,         Christophe%Cracco%NULL%1,         Stéphane%Rouleau%NULL%1,         David%Schnell%NULL%1,         Cécile%Lory%NULL%1,         Thibault%Chapelle%NULL%1,         Vincent%Bruckert%NULL%1,         Julie%Garcia%NULL%1,         Abdlazize%Sahraoui%NULL%1,         Nathalie%Abbosh%NULL%1,         Caroline%Bornstain%NULL%1,         Pierre%Pernet%NULL%1,         Florent%Poirson%NULL%1,         Ahmed%Pasem%NULL%1,         Philippe%Karoubi%NULL%1,         Virginie%Poupinel%NULL%1,         Caroline%Gauthier%NULL%1,         François%Bouniol%NULL%1,         Philippe%Feuchere%NULL%1,         Florent%Bavozet%NULL%0,         Anne%Heron%NULL%1,         Serge%Carreira%NULL%1,         Malo%Emery%NULL%1,         Anne%Le Floch%NULL%1,         Luana%Giovannangeli%NULL%1,         Nicolas%Herzog%NULL%1,         Christophe%Giacardi%NULL%1,         Thibaut%Baudic%NULL%1,         Chloé%Thill%NULL%1,         Florence%Tubach%NULL%1,         Olivier%Lesieur%NULL%1,         Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,         Max W.%Adelman%NULL%2,         Maxwell A.%Hockstein%NULL%1,         Chad J.%Robichaux%NULL%1,         Johnathan A.%Edwards%NULL%1,         Jane C.%Fazio%NULL%1,         James M.%Blum%NULL%3,         Craig S.%Jabaley%NULL%2,         Mark%Caridi-Scheible%NULL%2,         Greg S.%Martin%NULL%2,         David J.%Murphy%NULL%3,         Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,       Antonelli%M.%coreGivesNoEmail%0,       Bellani%G.%coreGivesNoEmail%0,       Bonanomi%E.%coreGivesNoEmail%0,       Cabrini%L.%coreGivesNoEmail%0,       Carlesso%E.%coreGivesNoEmail%0,       Castelli%G.%coreGivesNoEmail%0,       Cattaneo%S.%coreGivesNoEmail%0,       Cecconi%M.%coreGivesNoEmail%0,       Cereda%D.%coreGivesNoEmail%0,       Colombo%S.%coreGivesNoEmail%0,       Coluccello%A.%coreGivesNoEmail%0,       Crescini%G.%coreGivesNoEmail%0,       Forastieri%Molinari A.%coreGivesNoEmail%0,       Foti%G.%coreGivesNoEmail%0,       Fumagalli%R.%coreGivesNoEmail%0,       Grasselli%G.%coreGivesNoEmail%0,       Greco%M.%coreGivesNoEmail%0,       Iotti%G. A.%coreGivesNoEmail%0,       Langer%T.%coreGivesNoEmail%0,       Latronico%N.%coreGivesNoEmail%0,       Lorini%F. L.%coreGivesNoEmail%0,       Mojoli%F.%coreGivesNoEmail%0,       Natalini%G.%coreGivesNoEmail%0,       Pesenti%A.%coreGivesNoEmail%0,       Pessina%C. M.%coreGivesNoEmail%0,       Ranieri%V. M.%coreGivesNoEmail%0,       Rech%R.%coreGivesNoEmail%0,       Rosano%A.%coreGivesNoEmail%0,       Scudeller%L.%coreGivesNoEmail%0,       Storti%E.%coreGivesNoEmail%0,       Thompson%B. T.%coreGivesNoEmail%0,       Tirani%M.%coreGivesNoEmail%0,       Villani%P. G.%coreGivesNoEmail%0,       Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,         Keum-Ju%Choi%NULL%1,         Sun Ha%Choi%NULL%1,         Shin Yup%Lee%NULL%1,         Kyung Chan%Kim%NULL%1,         Eun Jin%Kim%NULL%1,         Jaehee%Lee%NULL%2,         Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,         Siddique%Chaudhary%NULL%1,         Kevin%Bryan Lo%NULL%2,         Kevin%Bryan Lo%NULL%0,         Robert%DeJoy%NULL%1,         Fahad%Gul%NULL%1,         Ricardo%Torres%NULL%1,         Neal%Chaisson%NULL%2,         Neal%Chaisson%NULL%0,         Gabriel%Patarroyo-Aponte%NULL%2,         Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,         Bruno L.%Ferreyro%NULL%2,         Bruno L.%Ferreyro%NULL%0,         Federico%Angriman%NULL%1,         María%Hernández-Sanz%NULL%2,         Egoitz%Arruti%NULL%1,         Antoni%Torres%NULL%2,         Jesús%Villar%NULL%1,         Laurent%Brochard%NULL%1,         Carlos%Ferrando%NULL%2,         Ricard%Mellado-Artigas%NULL%1,         María%Hernández-Sanz%NULL%0,         Carlos%Ferrando%NULL%0,         Marina%Vendrell%NULL%1,         Gerard%Sánchez-Etayo%NULL%1,         Amalia%Alcón%NULL%1,         Isabel%Belda%NULL%1,         Mercé%Agustí%NULL%1,         Albert%Carramiñana%NULL%1,         Isabel%Gracia%NULL%1,         Miriam%Panzeri%NULL%1,         Irene%León%NULL%1,         Jaume%Balust%NULL%1,         Ricard%Navarro%NULL%2,         María José%Arguís%NULL%1,         María José%Carretero%NULL%1,         Cristina%Ibáñez%NULL%1,         Juan%Perdomo%NULL%1,         Antonio%López%NULL%1,         Manuel%López-Baamonde%NULL%1,         Tomás%Cuñat%NULL%1,         Marta%Ubré%NULL%1,         Antonio%Ojeda%NULL%1,         Andrea%Calvo%NULL%1,         Eva%Rivas%NULL%1,         Paola%Hurtado%NULL%1,         Roger%Pujol%NULL%1,         Nuria%Martín%NULL%1,         Javier%Tercero%NULL%1,         Pepe%Sanahuja%NULL%1,         Marta%Magaldi%NULL%1,         Miquel%Coca%NULL%1,         Elena%del Rio%NULL%1,         Julia%Martínez-Ocon%NULL%1,         Paula%Masgoret%NULL%1,         Monserrat%Tio%NULL%1,         Angel%Caballero%NULL%1,         Raquel%Risco%NULL%1,         Raquel%Bergé%NULL%1,         Lidia%Gómez%NULL%1,         Nicolás%de Riva%NULL%1,         Ana%Ruiz%NULL%1,         Beatriz%Tena%NULL%1,         Sebastián%Jaramillo%NULL%1,         José María%Balibrea%NULL%1,         Francisco Borja de Borja%de Lacy%NULL%1,         Ana%Otero%NULL%1,         Ainitze%Ibarzabal%NULL%1,         Raquel%Bravo%NULL%1,         Anna%Carreras%NULL%1,         Daniel%Martín-Barreda%NULL%1,         Alfonso Jesús%Alias%NULL%1,         Mariano%Balaguer%NULL%1,         Jorge%Aliaga%NULL%1,         Alex%Almuedo%NULL%1,         Joan Ramón%Alonso%NULL%1,         Rut%Andrea%NULL%1,         Gerard Sergi%Angelès%NULL%1,          Marilyn%Arias%NULL%1,         Fátima%Aziz%NULL%1,         Joan Ramon%Badía%NULL%1,         Enric%Barbeta%NULL%1,         Toni%Torres%NULL%1,         Guillem%Batiste%NULL%1,         Pau%Benet%NULL%1,         Xavi%Borrat%NULL%1,         María%Borrell%NULL%1,         Ernest%Bragulat%NULL%1,         Inmaculada%Carmona%NULL%1,         Manuel%Castellà%NULL%1,         Pedro%Castro%NULL%1,         Joan%Ceravalls%NULL%1,         Oscar%Comino%NULL%1,         Claudia%Cucciniello%NULL%1,         Clàudia%De Deray%NULL%1,         Oriol%De Diego%NULL%1,         Paula%De la Matta%NULL%1,         Marta%Farrero%NULL%1,         Javier%Fernández%NULL%1,         Sara%Fernández%NULL%1,         Anna%Fernández%NULL%1,         Miquel%Ferrer%NULL%1,         Ana%Fervienza%NULL%1,         María%Tallo Forga%NULL%1,         Daniel%Forné%NULL%1,         Clàudia%Galán%NULL%1,         Andrea%Gómez%NULL%1,         Eduard%Guasch%NULL%1,         María%Hernández-Tejero%NULL%1,         Adriana%Jacas%NULL%1,         Beltrán%Jiménez%NULL%1,         Pere%Leyes%NULL%1,         Teresa%López%NULL%1,         José Antonio%Martínez%NULL%1,         Graciela%Martínez-Pallí%NULL%1,         Jordi%Mercadal%NULL%1,         Guido%Muñoz%NULL%1,         José%Muñoz%NULL%1,         Ricard%Navarro%NULL%0,         Josep María%Nicolás%NULL%1,         José Tomás%Ortiz%NULL%1,         Anna%Peiró%NULL%1,         Manuel%Pérez%NULL%1,         Esteban%Poch%NULL%1,         Margarida%Pujol%NULL%1,         Eduard%Quintana%NULL%1,         Bartomeu%Ramis%NULL%1,         Enric%Reverter%NULL%1,         Irene%Rovira%NULL%1,         Pablo%Ruiz%NULL%1,         Elena%Sandoval%NULL%1,         Stefan%Schneider%NULL%1,         Oriol%Sibila%NULL%1,         Carla%Solé%NULL%1,         Alex%Soriano%NULL%1,         Dolors%Soy%NULL%1,         M.%Suárez%NULL%1,         Adrián%Téllez%NULL%1,         Néstor David%Toapanta%NULL%1,         Antoni%Torres%NULL%0,         Xavier%Urra%NULL%1,         César%Aldecoa%NULL%1,         Alicia%Bordell%NULL%1,         Silvia%Martín%NULL%1,         Judith%Andrés%NULL%1,         Alberto Martínez%Ruiz%NULL%1,         Gonzalo Tamayo%Medel%NULL%1,         Iñaki Bilbao Bilbao%Villasante%NULL%1,         Fernando Iturri%Clavero%NULL%1,         Covadonga Peralta%Álvarez%NULL%1,         Julia T.%Herrera Díez%NULL%1,         Andrea García%Trancho%NULL%1,         Iñaki Sainz %Mandiola%NULL%1,         Carmen Ruano%Suarez%NULL%1,         Angela Ruiz%Bocos%NULL%1,         Eneritz Urrutia%Izagirre%NULL%1,         Pablo Ortiz%de Urbina Fernández%NULL%1,         Naiara Apodaka%López%NULL%1,         Leire Prieto%Molano%NULL%1,         Eunate Ganuza%Martínez%NULL%1,         Iratxe Vallinas%Hidalgo%NULL%1,         Karmele%de Orte Sancho%NULL%1,         Celia González%Paniagua%NULL%1,         Gemma Ortiz%Labrador%NULL%1,         Mireia Pérez%Larrañaga%NULL%1,         Marta López%Miguelez%NULL%1,         Estíbaliz Bárcena%Andrés%NULL%1,         Erik Urutxurtu%Laureano%NULL%1,         Maria Jesús Maroño%Boedo%NULL%1,         Blanca Escontrela%Rodríguez%NULL%1,         Aitziber Ereñozaga%Camiruaga%NULL%1,         Deiene Lasuen%Aguirre%NULL%1,         Ainhoa Zabal%Maeztu%NULL%1,         Ane Guereca%Gala%NULL%1,         Iker Castelo%Korro%NULL%1,         Andrés Álvarez%Campo%NULL%1,         Alejandro Carcelen%Viana%NULL%1,         Alejandro Alberdi%Enríquez%NULL%1,         Xabier Ormazábal%Rementeria%NULL%1,         Alberto Sánchez%Campos%NULL%1,         Rosa Gutiérrez%Rico%NULL%1,         Pablo Barbier%Damborenea%NULL%1,         Marta Guerenabarrena%Momeñe%NULL%1,         Borja Cuesta%Ruiz%NULL%1,         Alejandro López%Rico%NULL%1,         Ana Rojo%Polo%NULL%1,         Covadonga García%Grijelmo%NULL%1,         Mikel Celorrio%Reta%NULL%1,         Eneko Martín%Arroyo%NULL%1,         Leire Artaza%Aparicio%NULL%1,         Iñaki Ituarte%Aspiazu%NULL%1,         Ane Igeregi%Basabe%NULL%1,         Itxaso Merino%Julian%NULL%1,         Isabel Diaz%Rico%NULL%1,         Maria Paz%Martínez%NULL%1,         Ramón%Adalia Bartolomé%NULL%1,         Luigi%Zattera%NULL%1,         Irina Adalid%Hernandez%NULL%1,         Leire Larrañaga%Altuna%NULL%1,         Aina Serrallonga%Castells%NULL%1,         Adriana Vílchez%Garcia%NULL%1,         María%Núñez%NULL%1,         Lorena%Román%NULL%1,         Isabel Ramos%Delgado%NULL%1,         Adela Benítez-Cano%Martínez%NULL%1,         Mireia Chanzá%Albert%NULL%1,         Juan Carlos Álvarez%García%NULL%1,         Luis Aguilera%Cuchillo%NULL%1,         Sandra Beltrán%de Heredia%NULL%1,         Jesús Carazo%Cordobés%NULL%1,         Carlos Alberto García%Bernedo%NULL%1,         Fernando Escolano%Villén%NULL%1,         Francisco Javier Redondo%Calvo%NULL%1,         Rubén Villazala%González%NULL%1,         Victor Baladron%González%NULL%1,         Patricia%Faba%NULL%1,         Omar%Montenegro%NULL%1,         Natalia Bejarano%Ramírez%NULL%1,         Sergio Marcos%Contreras%NULL%1,         Alejandro Garcia%Rodríguez%NULL%1,         Saleta Rey%Vázquez%NULL%1,         Cristina Garcia%Pérez%NULL%1,         Eva Higuera%Miguelez%NULL%1,         Irene Pérez%Blanco%NULL%1,         David García%Rivera%NULL%1,         Ane Martín%de la Fuente%NULL%1,         Marta%Pardo%NULL%1,         Vanessa%Rodriguez%NULL%1,         Unai%Bengoetxea%NULL%1,         Fernando%Ramasco%NULL%1,         Sheila Olga Santidrián%Bernal%NULL%1,         Alvar Santa Cruz%Hernando%NULL%1,         Antonio Planas%Roca%NULL%1,         Carlos Figueroa%Yusta%NULL%1,         Esther García%Villabona%NULL%1,         Carmen Vallejo%Lantero%NULL%1,         Eva Patiño%Rodriguez%NULL%1,         Alvaro Esquivel%Toledo%NULL%1,         David Arribas%Méndez%NULL%1,         Mar Orts%Rodriguez%NULL%1,         Rosa Méndez%Hernández%NULL%1,         Jesús Nieves%Alonso%NULL%1,         Inés Imaz%Artazcoz%NULL%1,         Sonia Expósito%Carazo%NULL%1,         Carlos Román%Guerrero%NULL%1,         Elena Rojo%Rodríguez%NULL%1,         Ricardo Moreno%González%NULL%1,         Julia Hernando%Santos%NULL%1,         Jara Torrente%Pérez%NULL%1,         Esperanza Mata%Mena%NULL%1,         Manuel José Muñoz%Martínez%NULL%1,         Enrique Alday%Muñoz%NULL%1,         Patricia Martin%Serrano%NULL%1,         Laura Cotter%Muñoz%NULL%1,         Amadea%Mjertan%NULL%1,         Diego Gutierrez%Martínez%NULL%1,         Carmen Rodríguez%García%NULL%1,         Olaya Alonso%Viejo%NULL%1,         Juan Alvarez%Pereira%NULL%1,         Ana Carmona%Bonet%NULL%1,         Diana Parrado%López%NULL%1,         Eva%de Dios Tomas%NULL%1,         Rafael Martín%Celemin%NULL%1,         María Luisa Meilan%Paz%NULL%1,         Luis Quecedo%Gutiérrez%NULL%1,         Noemí Diaz%Velasco%NULL%1,         Gabriel Martin%Hernández%NULL%1,         Francisco Garcia%del Corral%NULL%1,         Gloria Hernandez%Arias%NULL%1,         David Rodriguez%Cuesta%NULL%1,         Ana Gómez%Rice%NULL%1,         Encarna Mateos%Sevillano%NULL%1,         Natalia Olmos%Molpeceres%NULL%1,         Beatriz%Domínguez%NULL%1,         Ana Vázquez%Lima%NULL%1,         Ángel%Candela%NULL%1,         Ismael A. Acevedo%Bambaren%NULL%1,         Maria Isabel Albala%Blanco%NULL%1,         Paloma Alonso%Montoiro%NULL%1,         Fernando Álvarez%Utrera%NULL%1,         Juan Avellanosa%Esteruelas%NULL%1,         Amal Azzam%López%NULL%1,         Alberto José%Balvis%NULL%1,         Balvis Tommaso%Bardi%NULL%1,         María Beltrán%Martín%NULL%1,         Jacobo Benatar%Haserfaty%NULL%1,         Alberto Berruezo%Camacho%NULL%1,         Laura Betolaza%Weimer%NULL%1,         María%del Mar Carbonell Soto%NULL%1,         Cristina Carrasco%Seral%NULL%1,         Cristina Cerro %Zaballos%NULL%1,         Elizabeth Claros%Llamas%NULL%1,         Pilar Coleta%Orduna%NULL%1,         Ingrid P. Cortes%Forero%NULL%1,         Pascual Agustín Crespo%Aliseda%NULL%1,         María Angélica%de Pablo Pajares%NULL%1,         Yolanda Díez%Remesal%NULL%1,         Trinidad Dorado%Díaz%NULL%1,         Noemí Echevarría%Blasco%NULL%1,         María Elena Elías%Martín%NULL%1,         Javier Felices%Triviño%NULL%1,         Natalia Fernández%López%NULL%1,         Cristina Fernández%Martín%NULL%1,         Natalia Ferreiro%Pozuelo%NULL%1,         Luis Gajate%Martín%NULL%1,         Clara Gallego%Santos%NULL%1,         Diego Gil%Mayo%NULL%1,         María Gómez%Rojo%NULL%1,         Claudia González%Cibrián%NULL%1,         Elena Herrera%López%NULL%1,         Borja Hinojal%Olmedillo%NULL%1,         Berta Iglesias%Gallego%NULL%1,         Sassan%Khonsari%NULL%1,         María Nuria Mane%Ruiz%NULL%1,         María Manzanero%Arroyo%NULL%1,         Ana María Mariscal%Ortega%NULL%1,         Sara Martín%Burcio%NULL%1,         María%del Carmen Martín González%NULL%1,         Ascensión Martín%Grande%NULL%1,         Jose Juan Martín%López%NULL%1,         Cecilia Martín%Rabes%NULL%1,         Marcos Martínez%Borja%NULL%1,         Nilda Martínez%Castro%NULL%1,         Adolfo Martínez%Pérez%NULL%1,         Snejana%Matcan%NULL%1,         Cristina Medrano%Viñas%NULL%1,         Lisset Miguel%Herrera%NULL%1,         Adrián Mira%Betancur%NULL%1,         María Montiel%Carbajo%NULL%1,         Javier Moya%Moradas%NULL%1,         Lorena Muñoz%Pérez%NULL%1,         Mónica Nuñez%Murias%NULL%1,         Eva Ordiales%González%NULL%1,         Óscar Ordoñez%Recio%NULL%1,         Miguel Ángel Palomero%Rodriguez%NULL%1,         Diego Parise%Roux%NULL%1,         Lucia Pereira%Torres%NULL%1,         David Pestaña%Lagunas%NULL%1,         Juana María Pinto%Corraliza%NULL%1,         Marian Prieto%Rodrigo%NULL%1,         Inmaculada Rodriguez%Diaz-Regaño%NULL%1,         David Rodriguez%Esteban%NULL%1,         Víctor Rojas%Pernia%NULL%1,         Álvaro Ruigómez%Saiz%NULL%1,         Bárbara Saavedra%Villarino%NULL%1,         Noemí Samaranch%Palero%NULL%1,         Gloria Santos%Pérez%NULL%1,         Jaume Serna%Pérez%NULL%1,         Ana Belén Serrano%Romero%NULL%1,         Jesús Tercero%López%NULL%1,         Carlos Tiscar%García%NULL%1,         Marta%de la Torre Concostrina%NULL%1,         Eva María Ureta%Mesa%NULL%1,         Eva Velasco%Olarte%NULL%1,         Judith Villahoz%Martínez%NULL%1,         Raúl Villalaba%Palacios%NULL%1,         Gema Villanueva%García%NULL%1,         Cristina Vogel%de Medeiros%NULL%1,         Soraya Gholamian%Ovejero%NULL%1,         Marta Vicente%Orgaz%NULL%1,         Patricia Lloreda%Herradon%NULL%1,         Cristina Crespo%Gómez%NULL%1,         Tatiana%Sarmiento-Trujillo%NULL%1,         Noemí García%Medina%NULL%1,         María Martínez%García%NULL%1,         Carles Espinós%Ramírez%NULL%1,         Nabil Mouhaffel%Rivero%NULL%1,         Jose Antonio Bernia%Gil%NULL%1,         Sonsoles%Martín%NULL%1,         María Victoria%Moral%NULL%1,         Josefina%Galán%NULL%1,         Pilar%Paniagua%NULL%1,         Sergio%Pérez%NULL%1,         Albert%Bainac%NULL%1,         Ana%Arias%NULL%1,         Elsa%Ramil%NULL%1,         Jorge%Escudero%NULL%1,         Pablo%Monedero%NULL%1,         Carmen%Cara%NULL%1,         Andrea%Lara%NULL%1,         Elena Mendez%Martínez%NULL%1,         Jorge%Mendoza%NULL%1,         Íñigo Rubio%Baines%NULL%1,         Carmen Sala%Trull%NULL%1,         Pablo Montero%López%NULL%1,         Alfredo%Gea%NULL%1,         Alejandro%Montero%NULL%1,         Rocío Armero%Ibañez%NULL%1,         Juan Vicente Llau%Pitarch%NULL%1,         Fernando Rauer%Alcóver%NULL%1,         Cristina Álvarez%Herreros%NULL%1,         Cyntia Sánchez%Martín%NULL%1,         Lucía López Ocáriz%Olmos%NULL%1,         Marta Navas%Moruno%NULL%1,         Fernando García%Montoto%NULL%1,         M. F. Mirón%Rodriguez%NULL%1,         Laura Fuentes%Coco%NULL%1,         Cristina Hernández%Gamito%NULL%1,         Antonio Barba%Orejudo%NULL%1,         Luis Gerardo Smith%Vielma%NULL%1,         Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,         Marta Donoso%Domínguez%NULL%1,         Silvia Esquivel%Ramírez%NULL%1,         José Antonio%Carbonell%NULL%1,         Berta Monleón%López%NULL%1,         Sara%Martínez-Castro%NULL%1,         Gerardo%Aguilar%NULL%1,         María Gestal Pablo%Casas%NULL%1,         Angel Outeiro%Rosato%NULL%1,         Andrea Naveiro%Pan%NULL%1,         María Alonso%Portela%NULL%1,         Adrián García%Romar%NULL%1,         Eva Mosquera%Rodríguez%NULL%1,         Diego Ruanova%Seijo%NULL%1,         Pablo Rama%Maceiras%NULL%1,         Francisco%Castro-Ceoane%NULL%1,         Esther Moreno%López%NULL%1,         Sergio%Gil%NULL%1,         Julia Guillén%Antón%NULL%1,         Patricia García-Consuegra%Tirado%NULL%1,         Aurora Callau%Calvo%NULL%1,         Laura Forés%Lisbona%NULL%1,         María Carbonell%Romero%NULL%1,         Belén Albericio%Gil%NULL%1,         Laura Pradal%Jarne%NULL%1,         María Soria%Lozano%NULL%1,         Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,         Navjot Ariyana%Kaur%NULL%1,         Daniel%Sacher%NULL%1,         Oisin%O’Corragain%NULL%1,         Daniel%Salerno%NULL%1,         Parag%Desai%NULL%1,         Sameep%Sehgal%NULL%1,         Matthew%Gordon%NULL%2,         Rohit%Gupta%NULL%2,         Nathaniel%Marchetti%NULL%1,         Huaqing%Zhao%NULL%2,         Nicole%Patlakh%NULL%2,         Gerard J.%Criner%NULL%1,         Temple%University%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,         Dominik%Jarczak%NULL%1,         Liina%Thasler%NULL%1,         Martin%Bachmann%NULL%1,         Frank%Schulte%NULL%1,         Berthold%Bein%NULL%1,         Christian Friedrich%Weber%NULL%1,         Ulrich%Schäfer%NULL%1,         Carsten%Veit%NULL%1,         Hans-Peter%Hauber%NULL%1,         Sebastian%Kopp%NULL%1,         Karsten%Sydow%NULL%1,         Andreas%de Weerth%NULL%0,         Marc%Bota%NULL%1,         Rüdiger%Schreiber%NULL%1,         Oliver%Detsch%NULL%1,         Jan-Peer%Rogmann%NULL%1,         Daniel%Frings%NULL%0,         Barbara%Sensen%NULL%1,         Christoph%Burdelski%NULL%0,         Olaf%Boenisch%NULL%1,         Axel%Nierhaus%NULL%0,         Geraldine%de Heer%NULL%0,         Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,          Paolo%Comassi%NULL%1,          Luca%Adriani%NULL%1,          Giulio%Bergamaschini%NULL%1,          Elena%Bertin%NULL%1,          Raffaella%Borromeo%NULL%1,          Serena%Corti%NULL%1,          Federica%De Petri%NULL%1,          Francesco%Dolci%NULL%1,          Attilio%Galmozzi%NULL%1,          Alberto%Gigliotti%NULL%1,          Livio%Gualdoni%NULL%1,          Claudia%Guerra%NULL%1,          Anna%Khosthiova%NULL%1,          Giovanni%Leati%NULL%1,          Giuseppe%Lupi%NULL%1,          Paolo%Moscato%NULL%1,          Vittorio%Perotti%NULL%1,          Miriam%Piantelli%NULL%1,          Alain%Ruini%NULL%1,          Silvia%Sportelli%NULL%1,          Micaela%Susca%NULL%1,          Carmine%Troiano%NULL%1,          Giampaolo%Benelli%NULL%1,          Elisabetta%Buscarini%NULL%1,          Ciro%Canetta%NULL%1,          Guido%Merli%NULL%1,          Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,          Emna%Ennouri%NULL%1,          Rayane%Nachi%NULL%1,          Khaoula%Meddeb%NULL%1,          Jihene%Mahmoud%NULL%1,          Nesrine%Thabet%NULL%1,          Salma%Jerbi%NULL%1,          Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,          Eleni%Xourgia%NULL%1,          Theodora K.%Ntaidou%NULL%1,          Dimitris%Zervakis%NULL%1,          Eleni E.%Magira%NULL%1,          Anastasia%Kotanidou%NULL%1,          Christina%Routsi%NULL%1,          Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,          Carina%Mostert%NULL%1,          Corinna%Hentschker%NULL%1,          Thomas%Voshaar%NULL%1,          Jürgen%Malzahn%NULL%1,          Gerhard%Schillinger%NULL%1,          Jürgen%Klauber%NULL%1,          Uwe%Janssens%NULL%1,          Gernot%Marx%NULL%1,          Steffen%Weber-Carstens%NULL%1,          Stefan%Kluge%NULL%0,          Michael%Pfeifer%NULL%1,          Linus%Grabenhenrich%NULL%1,          Tobias%Welte%NULL%1,          Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,          David%Hajage%NULL%2,          David%Hajage%NULL%0,          Alexandre%Demoule%NULL%1,          Tài%Pham%NULL%1,          Alain%Combes%NULL%1,          Martin%Dres%NULL%1,          Said%Lebbah%NULL%1,          Antoine%Kimmoun%NULL%1,          Alain%Mercat%NULL%1,          Gaëtan%Beduneau%NULL%1,          Jessica%Palmyre%NULL%1,          Margot%Prevost%NULL%1,          Pierre%Asfar%NULL%1,          François%Beloncle%NULL%1,          Julien%Demiselle%NULL%1,          Arthur%Pavot%NULL%1,          Xavier%Monnet%NULL%1,          Christian%Richard%NULL%1,          Julien%Mayaux%NULL%1,          Alexandra%Beurton%NULL%1,          Richard%Descamps%NULL%1,          Aurélie%Joret%NULL%1,          Damien%Du Cheyron%NULL%1,          Frédéric%Pene%NULL%1,          Jean-Daniel%Chiche%NULL%1,          Mathieu%Jozwiak%NULL%1,          Paul%Jaubert%NULL%1,          Guillaume%Voiriot%NULL%1,          Muriel%Fartoukh%NULL%1,          Marion%Teulier%NULL%1,          Clarisse%Blayau%NULL%1,          Erwen%L’Her%NULL%1,          Cécile%Aubron%NULL%1,          Laetitia%Bodenes%NULL%1,          Nicolas%Ferriere%NULL%1,          Johann%Auchabie%NULL%1,          Anthony%Le Meur%NULL%1,          Sylvain%Pignal%NULL%1,          Thierry%Mazzoni%NULL%1,          Jean-Pierre%Quenot%NULL%1,          Pascal%Andreu%NULL%1,          Jean-Baptiste%Roudau%NULL%1,          Marie%Labruyère%NULL%1,          Saad%Nseir%NULL%0,          Sébastien%Preau%NULL%1,          Julien%Poissy%NULL%0,          Daniel%Mathieu%NULL%0,          Sarah%Benhamida%NULL%1,          Rémi%Paulet%NULL%1,          Nicolas%Roucaud%NULL%1,          Martial%Thyrault%NULL%1,          Florence%Daviet%NULL%1,          Sami%Hraiech%NULL%1,          Gabriel%Parzy%NULL%1,          Aude%Sylvestre%NULL%1,          Sébastien%Jochmans%NULL%1,          Anne-Laure%Bouilland%NULL%1,          Mehran%Monchi%NULL%1,          Marc%Danguy des Déserts%NULL%1,          Quentin%Mathais%NULL%1,          Gwendoline%Rager%NULL%1,          Pierre%Pasquier%NULL%1,          Reignier%Jean%NULL%1,          Seguin%Amélie%NULL%1,          Garret%Charlotte%NULL%1,          Canet%Emmanuel%NULL%1,          Jean%Dellamonica%NULL%1,          Clément%Saccheri%NULL%1,          Romain%Lombardi%NULL%1,          Yanis%Kouchit%NULL%1,          Sophie%Jacquier%NULL%1,          Armelle%Mathonnet%NULL%1,          Mai-Ahn%Nay%NULL%1,          Isabelle%Runge%NULL%1,          Frédéric%Martino%NULL%1,          Laure%Flurin%NULL%1,          Amélie%Rolle%NULL%1,          Michel%Carles%NULL%1,          Rémi%Coudroy%NULL%1,          Arnaud W.%Thille%NULL%1,          Jean-Pierre%Frat%NULL%1,          Maeva%Rodriguez%NULL%1,          Pascal%Beuret%NULL%1,          Audrey%Tientcheu%NULL%1,          Arthur%Vincent%NULL%1,          Florian%Michelin%NULL%1,          Marie Anne%Melone%NULL%1,          Maxime%Gauzi%NULL%1,          Arnaud%Guilbert%NULL%1,          Geoffrey%Kouadri%NULL%1,          Valérie%Gissot%NULL%1,          Stéphan%Ehrmann%NULL%1,          Charlotte%Salmon-Gandonnière%NULL%1,          Djlali%Elaroussi%NULL%1,          Agathe%Delbove%NULL%1,          Yannick%Fedun%NULL%1,          Julien%Huntzinger%NULL%1,          Eddy%Lebas%NULL%1,          Grâce%Kisoka%NULL%1,          Céline%Grégoire%NULL%1,          Stella%Marchetta%NULL%1,          Bernard%Lambermont%NULL%1,          Laurent%Argaud%NULL%1,          Thomas%Baudry%NULL%1,          Pierre-Jean%Bertrand%NULL%1,          Auguste%Dargent%NULL%1,          Christophe%Guitton%NULL%1,          Nicolas%Chudeau%NULL%1,          Mickaël%Landais%NULL%1,          Cédric%Darreau%NULL%1,          Alexis%Ferre%NULL%1,          Antoine%Gros%NULL%1,          Guillaume%Lacave%NULL%1,          Fabrice%Bruneel%NULL%1,          Mathilde%Neuville%NULL%1,          Jérôme%Devaquet%NULL%1,          Guillaume%Tachon%NULL%1,          Richard%Gallot%NULL%1,          Riad%Chelha%NULL%1,          Arnaud%Galbois%NULL%1,          Anne%Jallot%NULL%1,          Ludivine Chalumeau%Lemoine%NULL%1,          Khaldoun%Kuteifan%NULL%1,          Valentin%Pointurier%NULL%1,          Louise-Marie%Jandeaux%NULL%1,          Joy%Mootien%NULL%1,          Charles%Damoisel%NULL%1,          Benjamin%Sztrymf%NULL%1,          Juliette%Chommeloux%NULL%1,          Charles Edouard%Luyt%NULL%1,          Frédérique%Schortgen%NULL%1,          Leon%Rusel%NULL%1,          Camille%Jung%NULL%1,          Florent%Gobert%NULL%1,          Damien%Vimpere%NULL%1,          Lionel%Lamhaut%NULL%1,          Bertrand%Sauneuf%NULL%1,          Liliane%Charrier%NULL%1,          Julien%Calus%NULL%1,          Isabelle%Desmeules%NULL%1,          Benoît%Painvin%NULL%1,          Jean-Marc%Tadie%NULL%1,          Vincent%Castelain%NULL%1,          Baptiste%Michard%NULL%1,          Jean-Etienne%Herbrecht%NULL%1,          Mathieu%Baldacini%NULL%1,          Nicolas%Weiss%NULL%1,          Sophie%Demeret%NULL%1,          Clémence%Marois%NULL%1,          Benjamin%Rohaut%NULL%1,          Pierre-Henri%Moury%NULL%1,          Anne-Charlotte%Savida%NULL%1,          Emmanuel%Couadau%NULL%1,          Mathieu%Série%NULL%1,          Nica%Alexandru%NULL%1,          Cédric%Bruel%NULL%1,          Candice%Fontaine%NULL%1,          Sonia%Garrigou%NULL%1,          Juliette Courtiade%Mahler%NULL%1,          Maxime%Leclerc%NULL%1,          Michel%Ramakers%NULL%1,          Pierre%Garçon%NULL%1,          Nicole%Massou%NULL%1,          Ly Phacs%Van Vong%NULL%1,          Juliane%Sen%NULL%1,          Nolwenn%Lucas%NULL%1,          Franck%Chemouni%NULL%1,          Annabelle%Stoclin%NULL%1,          Alexandre%Avenel%NULL%1,          Henri%Faure%NULL%1,          Angélie%Gentilhomme%NULL%1,          Sylvie%Ricome%NULL%1,          Paul%Abraham%NULL%1,          Céline%Monard%NULL%1,          Julien%Textoris%NULL%1,          Thomas%Rimmele%NULL%1,          Florent%Montini%NULL%1,          Gabriel%Lejour%NULL%1,          Thierry%Lazard%NULL%1,          Isabelle%Etienney%NULL%1,          Younes%Kerroumi%NULL%1,          Dupuis%Claire%NULL%1,          Bereiziat Marine%Coupez%NULL%1,          Thouy%François%NULL%1,          Clémet%Hoffmann%NULL%1,          Nicolas%Donat%NULL%1,          Violaine%Muller%NULL%1,          Thibault%Martinez%NULL%1,          Audrey%Jacquot%NULL%1,          Matthieu%Mattei%NULL%1,          Bruno%Levy%NULL%1,          Ramin%Ravan%NULL%1,          Loïc%Dopeux%NULL%1,          Jean-Mathias%Liteaudon%NULL%1,          Delphine%Roux%NULL%1,          Brice%Rey%NULL%1,          Radu%Anghel%NULL%1,          Deborah%Schenesse%NULL%1,          Vincent%Gevrey%NULL%1,          Jermy%Castanera%NULL%1,          Philippe%Petua%NULL%1,          Benjamin%Madeux%NULL%1,          Otto%Hartman%NULL%1,          Michael%Piagnerelli%NULL%1,          Anne%Joosten%NULL%1,          Cinderella%Noel%NULL%1,          Patrick%Biston%NULL%1,          Thibaut%Noel%NULL%1,          Gurvan L. E.%Bouar%NULL%1,          Messabi%Boukhanza%NULL%1,          Elsa%Demarest%NULL%1,          Marie-France%Bajolet%NULL%1,          Nathanaël%Charrier%NULL%1,          Audrey%Quenet%NULL%1,          Cécile%Zylberfajn%NULL%1,          Nicolas%Dufour%NULL%1,          Buno%Mégarbane%NULL%1,          Sqébastian%Voicu%NULL%1,          Nicolas%Deye%NULL%1,          Isabelle%Malissin%NULL%1,          François%Legay%NULL%1,          Matthieu%Debarre%NULL%1,          Nicolas%Barbarot%NULL%1,          Pierre%Fillatre%NULL%1,          Bertrand%Delord%NULL%1,          Thomas%Laterrade%NULL%1,          Tahar%Saghi%NULL%1,          Wilfried%Pujol%NULL%1,          Pierre Julien%Cungi%NULL%1,          Pierre%Esnault%NULL%1,          Mickael%Cardinale%NULL%1,          Vivien%Hong Tuan Ha%NULL%1,          Grégory%Fleury%NULL%1,          Marie-Ange%Brou%NULL%1,          Daniel%Zafimahazo%NULL%1,          David%Tran-Van%NULL%1,          Patrick%Avargues%NULL%1,          Lisa%Carenco%NULL%1,          Nicolas%Robin%NULL%1,          Alexandre%Ouali%NULL%1,          Lucie%Houdou%NULL%1,          Christophe%Le Terrier%NULL%1,          Noémie%Suh%NULL%1,          Steve%Primmaz%NULL%1,          Jérome%Pugin%NULL%1,          Emmanuel%Weiss%NULL%1,          Tobias%Gauss%NULL%1,          Jean-Denis%Moyer%NULL%1,          Catherine%Paugam-Burtz%NULL%1,          Béatrice%La Combe%NULL%1,          Rolland%Smonig%NULL%1,          Jade%Violleau%NULL%1,          Pauline%Cailliez%NULL%1,          Jonathan%Chelly%NULL%1,          Antoine%Marchalot%NULL%1,          Cécile%Saladin%NULL%1,          Christelle%Bigot%NULL%1,          Pierre-Marie%Fayolle%NULL%1,          Jules%Fatséas%NULL%1,          Amr%Ibrahim%NULL%1,          Dabor%Resiere%NULL%1,          Rabih%Hage%NULL%1,          Clémentine%Cholet%NULL%1,          Marie%Cantier%NULL%1,          Pierre%Trouiller%NULL%1,          Philippe%Montravers%NULL%1,          Brice%Lortat-Jacob%NULL%1,          Sebastien%Tanaka%NULL%1,          Alexy%Tran-Dinh%NULL%1,          Jacques%Duranteau%NULL%1,          Anatole%Harrois%NULL%1,          Guillaume%Dubreuil%NULL%1,          Marie%Werner%NULL%1,          Anne%Godier%NULL%1,          Sophie%Hamada%NULL%1,          Diane%Zlotnik%NULL%1,          Hélène%Nougue%NULL%1,          Armand%Mekontso-Dessap%NULL%1,          Guillaume%Carteaux%NULL%1,          Keyvan%Razazi%NULL%1,          Nicolas%De Prost%NULL%1,          Nicolas%Mongardon%NULL%1,          Olivier%Langeron%NULL%1,          Eric%Levesque%NULL%1,          Arié%Attias%NULL%1,          Charles%de Roquetaillade%NULL%1,          Benjamin G.%Chousterman%NULL%1,          Alexandre%Mebazaa%NULL%1,          Etienne%Gayat%NULL%1,          Marc%Garnier%NULL%1,          Emmanuel%Pardo%NULL%1,          Lea%Satre-Buisson%NULL%1,          Christophe%Gutton%NULL%1,          Elise%Yvin%NULL%1,          Clémence%Marcault%NULL%1,          Elie%Azoulay%NULL%1,          Michael%Darmon%NULL%1,          Nicolas%Bonnet%NULL%1,          Nathan%Ebstein%NULL%1,          Stéphane%Gaudry%NULL%1,          Yves%Cohen%NULL%1,           Hafid%Ait-Oufella%NULL%1,          Geoffroy%Hariri%NULL%1,          Tomas%Urbina%NULL%1,          Sandie%Mazerand%NULL%1,          Nicholas%Heming%NULL%1,          Francesca%Santi%NULL%1,          Pierre%Moine%NULL%1,          Djillali%Annane%NULL%1,          Adrien%Bouglé%NULL%1,          Edris%Omar%NULL%1,          Aymeric%Lancelot%NULL%1,          Emmanuelle%Begot%NULL%1,          Gaétan%Plantefeve%NULL%1,          Damien%Contou%NULL%1,          Hervé%Mentec%NULL%1,          Olivier%Pajot%NULL%1,          Stanislas%Faguer%NULL%1,          Olivier%Cointault%NULL%1,          Laurence%Lavayssiere%NULL%1,          Marie-Béatrice%Nogier%NULL%1,          Matthieu%Jamme%NULL%1,          Claire%Pichereau%NULL%1,          Jan%Hayon%NULL%1,          Hervé%Outin%NULL%1,          François%Dépret%NULL%1,          Maxime%Coutrot%NULL%1,          Maité%Chaussard%NULL%1,          Lucie%Guillemet%NULL%1,          Pierre%Goffin%NULL%1,          Romain%Thouny%NULL%1,          Julien%Guntz%NULL%1,          Laurent%Jadot%NULL%1,          Romain%Persichini%NULL%1,          Vanessa%Jean-Michel%NULL%1,          Hugues%Georges%NULL%1,          Thomas%Caulier%NULL%1,          Gaël%Pradel%NULL%1,          Marie-Hélène%Hausermann%NULL%1,          ThiMy Hue%Nguyen-Valat%NULL%1,          Michel%Boudinaud%NULL%1,          Emmanuel%Vivier%NULL%1,          Sylvène%Rosseli%NULL%1,          Gaël%Bourdin%NULL%1,          Christian%Pommier%NULL%1,          Marc%Vinclair%NULL%1,          Simon%Poignant%NULL%1,          Sandrine%Mons%NULL%1,          Wulfran%Bougouin%NULL%1,          Franklin%Bruna%NULL%1,          Quentin%Maestraggi%NULL%1,          Christian%Roth%NULL%1,          Laurent%Bitker%NULL%1,          François%Dhelft%NULL%1,          Justine%Bonnet-Chateau%NULL%1,          Mathilde%Filippelli%NULL%1,          Tristan%Morichau-Beauchant%NULL%1,          Stéphane%Thierry%NULL%1,          Charlotte%Le Roy%NULL%1,          Mélanie%Saint Jouan%NULL%1,          Bruno%Goncalves%NULL%1,          Aurélien%Mazeraud%NULL%1,          Matthieu%Daniel%NULL%1,          Tarek%Sharshar%NULL%1,          Cyril%Cadoz%NULL%1,          Rostane%Gaci%NULL%1,          Sébastien%Gette%NULL%1,          Guillaune%Louis%NULL%1,          Sophe-Caroline%Sacleux%NULL%1,          Marie-Amélie%Ordan%NULL%1,          Aurélie%Cravoisy%NULL%1,          Marie%Conrad%NULL%1,          Guilhem%Courte%NULL%1,          Sébastien%Gibot%NULL%1,          Younès%Benzidi%NULL%1,          Claudia%Casella%NULL%1,          Laurent%Serpin%NULL%1,          Jean-Lou%Setti%NULL%1,          Marie-Catherine%Besse%NULL%1,          Anna%Bourreau%NULL%1,          Jérôme%Pillot%NULL%1,          Caroline%Rivera%NULL%1,          Camille%Vinclair%NULL%1,          Marie-Aline%Robaux%NULL%1,          Chloé%Achino%NULL%1,          Marie-Charlotte%Delignette%NULL%1,          Tessa%Mazard%NULL%1,          Frédéric%Aubrun%NULL%1,          Bruno%Bouchet%NULL%1,          Aurélien%Frérou%NULL%1,          Laura%Muller%NULL%1,          Charlotte%Quentin%NULL%1,          Samuel%Degoul%NULL%1,          Xavier%Stihle%NULL%1,          Claude%Sumian%NULL%1,          Nicoletta%Bergero%NULL%1,          Bernard%Lanaspre%NULL%1,          Hervé%Quintard%NULL%1,          Eve Marie%Maiziere%NULL%1,          Pierre-Yves%Egreteau%NULL%1,          Guillaume%Leloup%NULL%1,          Florin%Berteau%NULL%1,          Marjolaine%Cottrel%NULL%1,          Marie%Bouteloup%NULL%1,          Matthieu%Jeannot%NULL%1,          Quentin%Blanc%NULL%1,          Julien%Saison%NULL%1,          Isabelle%Geneau%NULL%1,          Romaric%Grenot%NULL%1,          Abdel%Ouchike%NULL%1,          Pascal%Hazera%NULL%1,          Anne-Lyse%Masse%NULL%1,          Suela%Demiri%NULL%1,          Corinne%Vezinet%NULL%1,          Elodie%Baron%NULL%1,          Déborah%Benchetrit%NULL%1,          Antoine%Monsel%NULL%1,          Grégoire%Trebbia%NULL%1,          Emmanuelle%Schaack%NULL%1,          Raphaël%Lepecq%NULL%1,          Mathieu%Bobet%NULL%1,          Christophe%Vinsonneau%NULL%1,          Thibault%Dekeyser%NULL%1,          Quentin%Delforge%NULL%1,          Imen%Rahmani%NULL%1,          Bérengère%Vivet%NULL%1,          Jonathan%Paillot%NULL%1,          Lucie%Hierle%NULL%1,          Claire%Chaignat%NULL%1,          Sarah%Valette%NULL%1,          Benoït%Her%NULL%1,          Jennifier%Brunet%NULL%1,          Mathieu%Page%NULL%1,          Fabienne%Boiste%NULL%1,          Anthony%Collin%NULL%1,          Florent%Bavozet%NULL%2,          Aude%Garin%NULL%1,          Mohamed%Dlala%NULL%1,          Kais%Mhamdi%NULL%1,          Bassem%Beilouny%NULL%1,          Alexandra%Lavalard%NULL%1,          Severine%Perez%NULL%1,          Benoit%Veber%NULL%1,          Pierre-Gildas%Guitard%NULL%1,          Philippe%Gouin%NULL%1,          Anna%Lamacz%NULL%1,          Fabienne%Plouvier%NULL%1,          Bertrand P.%Delaborde%NULL%1,          Aïssa%Kherchache%NULL%1,          Amina%Chaalal%NULL%1,          Jean-Damien%Ricard%NULL%1,          Marc%Amouretti%NULL%1,          Santiago%Freita-Ramos%NULL%1,          Damien%Roux%NULL%1,          Jean-Michel%Constantin%NULL%1,          Mona%Assefi%NULL%1,          Marine%Lecore%NULL%1,          Agathe%Selves%NULL%1,          Florian%Prevost%NULL%1,          Christian%Lamer%NULL%1,          Ruiying%Shi%NULL%1,          Lyes%Knani%NULL%1,          Sébastien%Pili-Floury%NULL%1,          Lucie%Vettoretti%NULL%1,          Michael%Levy%NULL%1,          Lucile%Marsac%NULL%1,          Stéphane%Dauger%NULL%1,          Sophie%Guilmin-Crépon%NULL%1,          Jean-Baptiste%Putegnat%NULL%1,          Frédérique%Bayle%NULL%1,          Maya%Perrou%NULL%1,          Ghyslaine%Thao%NULL%1,          Guillaume%Géri%NULL%1,          Cyril%Charron%NULL%1,          Xavier%Repessé%NULL%1,          Antoine%Vieillard-Baron%NULL%1,          Mathieu%Guilbart%NULL%1,          Pierre-Alexandre%Roger%NULL%1,          Sébastien%Hinard%NULL%1,          Pierre-Yves%Macq%NULL%1,          Kevin%Chaulier%NULL%1,          Sylvie%Goutte%NULL%1,          Patrick%Chillet%NULL%1,          Anaïs%Pitta%NULL%1,          Barbara%Darjent%NULL%1,          Amandine%Bruneau%NULL%1,          Sigismond%Lasocki%NULL%1,          Maxime%Leger%NULL%1,          Soizic%Gergaud%NULL%1,          Pierre%Lemarie%NULL%1,          Nicolas%Terzi%NULL%1,          Carole%Schwebel%NULL%1,          Anaïs%Dartevel%NULL%1,          Louis-Marie%Galerneau%NULL%1,          Jean-Luc%Diehl%NULL%1,          Caroline%Hauw-Berlemont%NULL%0,          Nicolas%Péron%NULL%1,          Emmanuel%Guérot%NULL%1,          Abolfazl Mohebbi%Amoli%NULL%1,          Michel%Benhamou%NULL%1,          Jean-Pierre%Deyme%NULL%1,          Olivier%Andremont%NULL%1,          Diane%Lena%NULL%1,          Julien%Cady%NULL%1,          Arnaud%Causeret%NULL%1,          Arnaud%De La Chapelle%NULL%1,          Christophe%Cracco%NULL%1,          Stéphane%Rouleau%NULL%1,          David%Schnell%NULL%1,          Cécile%Lory%NULL%1,          Thibault%Chapelle%NULL%1,          Vincent%Bruckert%NULL%1,          Julie%Garcia%NULL%1,          Abdlazize%Sahraoui%NULL%1,          Nathalie%Abbosh%NULL%1,          Caroline%Bornstain%NULL%1,          Pierre%Pernet%NULL%1,          Florent%Poirson%NULL%1,          Ahmed%Pasem%NULL%1,          Philippe%Karoubi%NULL%1,          Virginie%Poupinel%NULL%1,          Caroline%Gauthier%NULL%1,          François%Bouniol%NULL%1,          Philippe%Feuchere%NULL%1,          Florent%Bavozet%NULL%0,          Anne%Heron%NULL%1,          Serge%Carreira%NULL%1,          Malo%Emery%NULL%1,          Anne%Le Floch%NULL%1,          Luana%Giovannangeli%NULL%1,          Nicolas%Herzog%NULL%1,          Christophe%Giacardi%NULL%1,          Thibaut%Baudic%NULL%1,          Chloé%Thill%NULL%1,          Florence%Tubach%NULL%1,          Olivier%Lesieur%NULL%1,          Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,          Max W.%Adelman%NULL%2,          Maxwell A.%Hockstein%NULL%1,          Chad J.%Robichaux%NULL%1,          Johnathan A.%Edwards%NULL%1,          Jane C.%Fazio%NULL%1,          James M.%Blum%NULL%3,          Craig S.%Jabaley%NULL%2,          Mark%Caridi-Scheible%NULL%2,          Greg S.%Martin%NULL%2,          David J.%Murphy%NULL%3,          Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,        Antonelli%M.%coreGivesNoEmail%0,        Bellani%G.%coreGivesNoEmail%0,        Bonanomi%E.%coreGivesNoEmail%0,        Cabrini%L.%coreGivesNoEmail%0,        Carlesso%E.%coreGivesNoEmail%0,        Castelli%G.%coreGivesNoEmail%0,        Cattaneo%S.%coreGivesNoEmail%0,        Cecconi%M.%coreGivesNoEmail%0,        Cereda%D.%coreGivesNoEmail%0,        Colombo%S.%coreGivesNoEmail%0,        Coluccello%A.%coreGivesNoEmail%0,        Crescini%G.%coreGivesNoEmail%0,        Forastieri%Molinari A.%coreGivesNoEmail%0,        Foti%G.%coreGivesNoEmail%0,        Fumagalli%R.%coreGivesNoEmail%0,        Grasselli%G.%coreGivesNoEmail%0,        Greco%M.%coreGivesNoEmail%0,        Iotti%G. A.%coreGivesNoEmail%0,        Langer%T.%coreGivesNoEmail%0,        Latronico%N.%coreGivesNoEmail%0,        Lorini%F. L.%coreGivesNoEmail%0,        Mojoli%F.%coreGivesNoEmail%0,        Natalini%G.%coreGivesNoEmail%0,        Pesenti%A.%coreGivesNoEmail%0,        Pessina%C. M.%coreGivesNoEmail%0,        Ranieri%V. M.%coreGivesNoEmail%0,        Rech%R.%coreGivesNoEmail%0,        Rosano%A.%coreGivesNoEmail%0,        Scudeller%L.%coreGivesNoEmail%0,        Storti%E.%coreGivesNoEmail%0,        Thompson%B. T.%coreGivesNoEmail%0,        Tirani%M.%coreGivesNoEmail%0,        Villani%P. G.%coreGivesNoEmail%0,        Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,          Keum-Ju%Choi%NULL%1,          Sun Ha%Choi%NULL%1,          Shin Yup%Lee%NULL%1,          Kyung Chan%Kim%NULL%1,          Eun Jin%Kim%NULL%1,          Jaehee%Lee%NULL%2,          Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,          Siddique%Chaudhary%NULL%1,          Kevin%Bryan Lo%NULL%2,          Kevin%Bryan Lo%NULL%0,          Robert%DeJoy%NULL%1,          Fahad%Gul%NULL%1,          Ricardo%Torres%NULL%1,          Neal%Chaisson%NULL%2,          Neal%Chaisson%NULL%0,          Gabriel%Patarroyo-Aponte%NULL%2,          Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,          Bruno L.%Ferreyro%NULL%2,          Bruno L.%Ferreyro%NULL%0,          Federico%Angriman%NULL%1,          María%Hernández-Sanz%NULL%2,          Egoitz%Arruti%NULL%1,          Antoni%Torres%NULL%2,          Jesús%Villar%NULL%1,          Laurent%Brochard%NULL%1,          Carlos%Ferrando%NULL%2,          Ricard%Mellado-Artigas%NULL%1,          María%Hernández-Sanz%NULL%0,          Carlos%Ferrando%NULL%0,          Marina%Vendrell%NULL%1,          Gerard%Sánchez-Etayo%NULL%1,          Amalia%Alcón%NULL%1,          Isabel%Belda%NULL%1,          Mercé%Agustí%NULL%1,          Albert%Carramiñana%NULL%1,          Isabel%Gracia%NULL%1,          Miriam%Panzeri%NULL%1,          Irene%León%NULL%1,          Jaume%Balust%NULL%1,          Ricard%Navarro%NULL%2,          María José%Arguís%NULL%1,          María José%Carretero%NULL%1,          Cristina%Ibáñez%NULL%1,          Juan%Perdomo%NULL%1,          Antonio%López%NULL%1,          Manuel%López-Baamonde%NULL%1,          Tomás%Cuñat%NULL%1,          Marta%Ubré%NULL%1,          Antonio%Ojeda%NULL%1,          Andrea%Calvo%NULL%1,          Eva%Rivas%NULL%1,          Paola%Hurtado%NULL%1,          Roger%Pujol%NULL%1,          Nuria%Martín%NULL%1,          Javier%Tercero%NULL%1,          Pepe%Sanahuja%NULL%1,          Marta%Magaldi%NULL%1,          Miquel%Coca%NULL%1,          Elena%del Rio%NULL%1,          Julia%Martínez-Ocon%NULL%1,          Paula%Masgoret%NULL%1,          Monserrat%Tio%NULL%1,          Angel%Caballero%NULL%1,          Raquel%Risco%NULL%1,          Raquel%Bergé%NULL%1,          Lidia%Gómez%NULL%1,          Nicolás%de Riva%NULL%1,          Ana%Ruiz%NULL%1,          Beatriz%Tena%NULL%1,          Sebastián%Jaramillo%NULL%1,          José María%Balibrea%NULL%1,          Francisco Borja de Borja%de Lacy%NULL%1,          Ana%Otero%NULL%1,          Ainitze%Ibarzabal%NULL%1,          Raquel%Bravo%NULL%1,          Anna%Carreras%NULL%1,          Daniel%Martín-Barreda%NULL%1,          Alfonso Jesús%Alias%NULL%1,          Mariano%Balaguer%NULL%1,          Jorge%Aliaga%NULL%1,          Alex%Almuedo%NULL%1,          Joan Ramón%Alonso%NULL%1,          Rut%Andrea%NULL%1,          Gerard Sergi%Angelès%NULL%1,           Marilyn%Arias%NULL%1,          Fátima%Aziz%NULL%1,          Joan Ramon%Badía%NULL%1,          Enric%Barbeta%NULL%1,          Toni%Torres%NULL%1,          Guillem%Batiste%NULL%1,          Pau%Benet%NULL%1,          Xavi%Borrat%NULL%1,          María%Borrell%NULL%1,          Ernest%Bragulat%NULL%1,          Inmaculada%Carmona%NULL%1,          Manuel%Castellà%NULL%1,          Pedro%Castro%NULL%1,          Joan%Ceravalls%NULL%1,          Oscar%Comino%NULL%1,          Claudia%Cucciniello%NULL%1,          Clàudia%De Deray%NULL%1,          Oriol%De Diego%NULL%1,          Paula%De la Matta%NULL%1,          Marta%Farrero%NULL%1,          Javier%Fernández%NULL%1,          Sara%Fernández%NULL%1,          Anna%Fernández%NULL%1,          Miquel%Ferrer%NULL%1,          Ana%Fervienza%NULL%1,          María%Tallo Forga%NULL%1,          Daniel%Forné%NULL%1,          Clàudia%Galán%NULL%1,          Andrea%Gómez%NULL%1,          Eduard%Guasch%NULL%1,          María%Hernández-Tejero%NULL%1,          Adriana%Jacas%NULL%1,          Beltrán%Jiménez%NULL%1,          Pere%Leyes%NULL%1,          Teresa%López%NULL%1,          José Antonio%Martínez%NULL%1,          Graciela%Martínez-Pallí%NULL%1,          Jordi%Mercadal%NULL%1,          Guido%Muñoz%NULL%1,          José%Muñoz%NULL%1,          Ricard%Navarro%NULL%0,          Josep María%Nicolás%NULL%1,          José Tomás%Ortiz%NULL%1,          Anna%Peiró%NULL%1,          Manuel%Pérez%NULL%1,          Esteban%Poch%NULL%1,          Margarida%Pujol%NULL%1,          Eduard%Quintana%NULL%1,          Bartomeu%Ramis%NULL%1,          Enric%Reverter%NULL%1,          Irene%Rovira%NULL%1,          Pablo%Ruiz%NULL%1,          Elena%Sandoval%NULL%1,          Stefan%Schneider%NULL%1,          Oriol%Sibila%NULL%1,          Carla%Solé%NULL%1,          Alex%Soriano%NULL%1,          Dolors%Soy%NULL%1,          M.%Suárez%NULL%1,          Adrián%Téllez%NULL%1,          Néstor David%Toapanta%NULL%1,          Antoni%Torres%NULL%0,          Xavier%Urra%NULL%1,          César%Aldecoa%NULL%1,          Alicia%Bordell%NULL%1,          Silvia%Martín%NULL%1,          Judith%Andrés%NULL%1,          Alberto Martínez%Ruiz%NULL%1,          Gonzalo Tamayo%Medel%NULL%1,          Iñaki Bilbao Bilbao%Villasante%NULL%1,          Fernando Iturri%Clavero%NULL%1,          Covadonga Peralta%Álvarez%NULL%1,          Julia T.%Herrera Díez%NULL%1,          Andrea García%Trancho%NULL%1,          Iñaki Sainz %Mandiola%NULL%1,          Carmen Ruano%Suarez%NULL%1,          Angela Ruiz%Bocos%NULL%1,          Eneritz Urrutia%Izagirre%NULL%1,          Pablo Ortiz%de Urbina Fernández%NULL%1,          Naiara Apodaka%López%NULL%1,          Leire Prieto%Molano%NULL%1,          Eunate Ganuza%Martínez%NULL%1,          Iratxe Vallinas%Hidalgo%NULL%1,          Karmele%de Orte Sancho%NULL%1,          Celia González%Paniagua%NULL%1,          Gemma Ortiz%Labrador%NULL%1,          Mireia Pérez%Larrañaga%NULL%1,          Marta López%Miguelez%NULL%1,          Estíbaliz Bárcena%Andrés%NULL%1,          Erik Urutxurtu%Laureano%NULL%1,          Maria Jesús Maroño%Boedo%NULL%1,          Blanca Escontrela%Rodríguez%NULL%1,          Aitziber Ereñozaga%Camiruaga%NULL%1,          Deiene Lasuen%Aguirre%NULL%1,          Ainhoa Zabal%Maeztu%NULL%1,          Ane Guereca%Gala%NULL%1,          Iker Castelo%Korro%NULL%1,          Andrés Álvarez%Campo%NULL%1,          Alejandro Carcelen%Viana%NULL%1,          Alejandro Alberdi%Enríquez%NULL%1,          Xabier Ormazábal%Rementeria%NULL%1,          Alberto Sánchez%Campos%NULL%1,          Rosa Gutiérrez%Rico%NULL%1,          Pablo Barbier%Damborenea%NULL%1,          Marta Guerenabarrena%Momeñe%NULL%1,          Borja Cuesta%Ruiz%NULL%1,          Alejandro López%Rico%NULL%1,          Ana Rojo%Polo%NULL%1,          Covadonga García%Grijelmo%NULL%1,          Mikel Celorrio%Reta%NULL%1,          Eneko Martín%Arroyo%NULL%1,          Leire Artaza%Aparicio%NULL%1,          Iñaki Ituarte%Aspiazu%NULL%1,          Ane Igeregi%Basabe%NULL%1,          Itxaso Merino%Julian%NULL%1,          Isabel Diaz%Rico%NULL%1,          Maria Paz%Martínez%NULL%1,          Ramón%Adalia Bartolomé%NULL%1,          Luigi%Zattera%NULL%1,          Irina Adalid%Hernandez%NULL%1,          Leire Larrañaga%Altuna%NULL%1,          Aina Serrallonga%Castells%NULL%1,          Adriana Vílchez%Garcia%NULL%1,          María%Núñez%NULL%1,          Lorena%Román%NULL%1,          Isabel Ramos%Delgado%NULL%1,          Adela Benítez-Cano%Martínez%NULL%1,          Mireia Chanzá%Albert%NULL%1,          Juan Carlos Álvarez%García%NULL%1,          Luis Aguilera%Cuchillo%NULL%1,          Sandra Beltrán%de Heredia%NULL%1,          Jesús Carazo%Cordobés%NULL%1,          Carlos Alberto García%Bernedo%NULL%1,          Fernando Escolano%Villén%NULL%1,          Francisco Javier Redondo%Calvo%NULL%1,          Rubén Villazala%González%NULL%1,          Victor Baladron%González%NULL%1,          Patricia%Faba%NULL%1,          Omar%Montenegro%NULL%1,          Natalia Bejarano%Ramírez%NULL%1,          Sergio Marcos%Contreras%NULL%1,          Alejandro Garcia%Rodríguez%NULL%1,          Saleta Rey%Vázquez%NULL%1,          Cristina Garcia%Pérez%NULL%1,          Eva Higuera%Miguelez%NULL%1,          Irene Pérez%Blanco%NULL%1,          David García%Rivera%NULL%1,          Ane Martín%de la Fuente%NULL%1,          Marta%Pardo%NULL%1,          Vanessa%Rodriguez%NULL%1,          Unai%Bengoetxea%NULL%1,          Fernando%Ramasco%NULL%1,          Sheila Olga Santidrián%Bernal%NULL%1,          Alvar Santa Cruz%Hernando%NULL%1,          Antonio Planas%Roca%NULL%1,          Carlos Figueroa%Yusta%NULL%1,          Esther García%Villabona%NULL%1,          Carmen Vallejo%Lantero%NULL%1,          Eva Patiño%Rodriguez%NULL%1,          Alvaro Esquivel%Toledo%NULL%1,          David Arribas%Méndez%NULL%1,          Mar Orts%Rodriguez%NULL%1,          Rosa Méndez%Hernández%NULL%1,          Jesús Nieves%Alonso%NULL%1,          Inés Imaz%Artazcoz%NULL%1,          Sonia Expósito%Carazo%NULL%1,          Carlos Román%Guerrero%NULL%1,          Elena Rojo%Rodríguez%NULL%1,          Ricardo Moreno%González%NULL%1,          Julia Hernando%Santos%NULL%1,          Jara Torrente%Pérez%NULL%1,          Esperanza Mata%Mena%NULL%1,          Manuel José Muñoz%Martínez%NULL%1,          Enrique Alday%Muñoz%NULL%1,          Patricia Martin%Serrano%NULL%1,          Laura Cotter%Muñoz%NULL%1,          Amadea%Mjertan%NULL%1,          Diego Gutierrez%Martínez%NULL%1,          Carmen Rodríguez%García%NULL%1,          Olaya Alonso%Viejo%NULL%1,          Juan Alvarez%Pereira%NULL%1,          Ana Carmona%Bonet%NULL%1,          Diana Parrado%López%NULL%1,          Eva%de Dios Tomas%NULL%1,          Rafael Martín%Celemin%NULL%1,          María Luisa Meilan%Paz%NULL%1,          Luis Quecedo%Gutiérrez%NULL%1,          Noemí Diaz%Velasco%NULL%1,          Gabriel Martin%Hernández%NULL%1,          Francisco Garcia%del Corral%NULL%1,          Gloria Hernandez%Arias%NULL%1,          David Rodriguez%Cuesta%NULL%1,          Ana Gómez%Rice%NULL%1,          Encarna Mateos%Sevillano%NULL%1,          Natalia Olmos%Molpeceres%NULL%1,          Beatriz%Domínguez%NULL%1,          Ana Vázquez%Lima%NULL%1,          Ángel%Candela%NULL%1,          Ismael A. Acevedo%Bambaren%NULL%1,          Maria Isabel Albala%Blanco%NULL%1,          Paloma Alonso%Montoiro%NULL%1,          Fernando Álvarez%Utrera%NULL%1,          Juan Avellanosa%Esteruelas%NULL%1,          Amal Azzam%López%NULL%1,          Alberto José%Balvis%NULL%1,          Balvis Tommaso%Bardi%NULL%1,          María Beltrán%Martín%NULL%1,          Jacobo Benatar%Haserfaty%NULL%1,          Alberto Berruezo%Camacho%NULL%1,          Laura Betolaza%Weimer%NULL%1,          María%del Mar Carbonell Soto%NULL%1,          Cristina Carrasco%Seral%NULL%1,          Cristina Cerro %Zaballos%NULL%1,          Elizabeth Claros%Llamas%NULL%1,          Pilar Coleta%Orduna%NULL%1,          Ingrid P. Cortes%Forero%NULL%1,          Pascual Agustín Crespo%Aliseda%NULL%1,          María Angélica%de Pablo Pajares%NULL%1,          Yolanda Díez%Remesal%NULL%1,          Trinidad Dorado%Díaz%NULL%1,          Noemí Echevarría%Blasco%NULL%1,          María Elena Elías%Martín%NULL%1,          Javier Felices%Triviño%NULL%1,          Natalia Fernández%López%NULL%1,          Cristina Fernández%Martín%NULL%1,          Natalia Ferreiro%Pozuelo%NULL%1,          Luis Gajate%Martín%NULL%1,          Clara Gallego%Santos%NULL%1,          Diego Gil%Mayo%NULL%1,          María Gómez%Rojo%NULL%1,          Claudia González%Cibrián%NULL%1,          Elena Herrera%López%NULL%1,          Borja Hinojal%Olmedillo%NULL%1,          Berta Iglesias%Gallego%NULL%1,          Sassan%Khonsari%NULL%1,          María Nuria Mane%Ruiz%NULL%1,          María Manzanero%Arroyo%NULL%1,          Ana María Mariscal%Ortega%NULL%1,          Sara Martín%Burcio%NULL%1,          María%del Carmen Martín González%NULL%1,          Ascensión Martín%Grande%NULL%1,          Jose Juan Martín%López%NULL%1,          Cecilia Martín%Rabes%NULL%1,          Marcos Martínez%Borja%NULL%1,          Nilda Martínez%Castro%NULL%1,          Adolfo Martínez%Pérez%NULL%1,          Snejana%Matcan%NULL%1,          Cristina Medrano%Viñas%NULL%1,          Lisset Miguel%Herrera%NULL%1,          Adrián Mira%Betancur%NULL%1,          María Montiel%Carbajo%NULL%1,          Javier Moya%Moradas%NULL%1,          Lorena Muñoz%Pérez%NULL%1,          Mónica Nuñez%Murias%NULL%1,          Eva Ordiales%González%NULL%1,          Óscar Ordoñez%Recio%NULL%1,          Miguel Ángel Palomero%Rodriguez%NULL%1,          Diego Parise%Roux%NULL%1,          Lucia Pereira%Torres%NULL%1,          David Pestaña%Lagunas%NULL%1,          Juana María Pinto%Corraliza%NULL%1,          Marian Prieto%Rodrigo%NULL%1,          Inmaculada Rodriguez%Diaz-Regaño%NULL%1,          David Rodriguez%Esteban%NULL%1,          Víctor Rojas%Pernia%NULL%1,          Álvaro Ruigómez%Saiz%NULL%1,          Bárbara Saavedra%Villarino%NULL%1,          Noemí Samaranch%Palero%NULL%1,          Gloria Santos%Pérez%NULL%1,          Jaume Serna%Pérez%NULL%1,          Ana Belén Serrano%Romero%NULL%1,          Jesús Tercero%López%NULL%1,          Carlos Tiscar%García%NULL%1,          Marta%de la Torre Concostrina%NULL%1,          Eva María Ureta%Mesa%NULL%1,          Eva Velasco%Olarte%NULL%1,          Judith Villahoz%Martínez%NULL%1,          Raúl Villalaba%Palacios%NULL%1,          Gema Villanueva%García%NULL%1,          Cristina Vogel%de Medeiros%NULL%1,          Soraya Gholamian%Ovejero%NULL%1,          Marta Vicente%Orgaz%NULL%1,          Patricia Lloreda%Herradon%NULL%1,          Cristina Crespo%Gómez%NULL%1,          Tatiana%Sarmiento-Trujillo%NULL%1,          Noemí García%Medina%NULL%1,          María Martínez%García%NULL%1,          Carles Espinós%Ramírez%NULL%1,          Nabil Mouhaffel%Rivero%NULL%1,          Jose Antonio Bernia%Gil%NULL%1,          Sonsoles%Martín%NULL%1,          María Victoria%Moral%NULL%1,          Josefina%Galán%NULL%1,          Pilar%Paniagua%NULL%1,          Sergio%Pérez%NULL%1,          Albert%Bainac%NULL%1,          Ana%Arias%NULL%1,          Elsa%Ramil%NULL%1,          Jorge%Escudero%NULL%1,          Pablo%Monedero%NULL%1,          Carmen%Cara%NULL%1,          Andrea%Lara%NULL%1,          Elena Mendez%Martínez%NULL%1,          Jorge%Mendoza%NULL%1,          Íñigo Rubio%Baines%NULL%1,          Carmen Sala%Trull%NULL%1,          Pablo Montero%López%NULL%1,          Alfredo%Gea%NULL%1,          Alejandro%Montero%NULL%1,          Rocío Armero%Ibañez%NULL%1,          Juan Vicente Llau%Pitarch%NULL%1,          Fernando Rauer%Alcóver%NULL%1,          Cristina Álvarez%Herreros%NULL%1,          Cyntia Sánchez%Martín%NULL%1,          Lucía López Ocáriz%Olmos%NULL%1,          Marta Navas%Moruno%NULL%1,          Fernando García%Montoto%NULL%1,          M. F. Mirón%Rodriguez%NULL%1,          Laura Fuentes%Coco%NULL%1,          Cristina Hernández%Gamito%NULL%1,          Antonio Barba%Orejudo%NULL%1,          Luis Gerardo Smith%Vielma%NULL%1,          Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,          Marta Donoso%Domínguez%NULL%1,          Silvia Esquivel%Ramírez%NULL%1,          José Antonio%Carbonell%NULL%1,          Berta Monleón%López%NULL%1,          Sara%Martínez-Castro%NULL%1,          Gerardo%Aguilar%NULL%1,          María Gestal Pablo%Casas%NULL%1,          Angel Outeiro%Rosato%NULL%1,          Andrea Naveiro%Pan%NULL%1,          María Alonso%Portela%NULL%1,          Adrián García%Romar%NULL%1,          Eva Mosquera%Rodríguez%NULL%1,          Diego Ruanova%Seijo%NULL%1,          Pablo Rama%Maceiras%NULL%1,          Francisco%Castro-Ceoane%NULL%1,          Esther Moreno%López%NULL%1,          Sergio%Gil%NULL%1,          Julia Guillén%Antón%NULL%1,          Patricia García-Consuegra%Tirado%NULL%1,          Aurora Callau%Calvo%NULL%1,          Laura Forés%Lisbona%NULL%1,          María Carbonell%Romero%NULL%1,          Belén Albericio%Gil%NULL%1,          Laura Pradal%Jarne%NULL%1,          María Soria%Lozano%NULL%1,          Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,          Navjot Ariyana%Kaur%NULL%1,          Daniel%Sacher%NULL%1,          Oisin%O’Corragain%NULL%1,          Daniel%Salerno%NULL%1,          Parag%Desai%NULL%1,          Sameep%Sehgal%NULL%1,          Matthew%Gordon%NULL%2,          Rohit%Gupta%NULL%2,          Nathaniel%Marchetti%NULL%1,          Huaqing%Zhao%NULL%2,          Nicole%Patlakh%NULL%2,          Gerard J.%Criner%NULL%1,          Temple%University%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,          Dominik%Jarczak%NULL%1,          Liina%Thasler%NULL%1,          Martin%Bachmann%NULL%1,          Frank%Schulte%NULL%1,          Berthold%Bein%NULL%1,          Christian Friedrich%Weber%NULL%1,          Ulrich%Schäfer%NULL%1,          Carsten%Veit%NULL%1,          Hans-Peter%Hauber%NULL%1,          Sebastian%Kopp%NULL%1,          Karsten%Sydow%NULL%1,          Andreas%de Weerth%NULL%0,          Marc%Bota%NULL%1,          Rüdiger%Schreiber%NULL%1,          Oliver%Detsch%NULL%1,          Jan-Peer%Rogmann%NULL%1,          Daniel%Frings%NULL%0,          Barbara%Sensen%NULL%1,          Christoph%Burdelski%NULL%0,          Olaf%Boenisch%NULL%1,          Axel%Nierhaus%NULL%0,          Geraldine%de Heer%NULL%0,          Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1110,7 +1182,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1139,7 +1211,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1168,7 +1240,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1197,7 +1269,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1226,7 +1298,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1255,7 +1327,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1284,7 +1356,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1313,7 +1385,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1342,7 +1414,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1371,7 +1443,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1400,7 +1472,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="217">
   <si>
     <t>Doi</t>
   </si>
@@ -757,6 +757,120 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,          Dominik%Jarczak%NULL%1,          Liina%Thasler%NULL%1,          Martin%Bachmann%NULL%1,          Frank%Schulte%NULL%1,          Berthold%Bein%NULL%1,          Christian Friedrich%Weber%NULL%1,          Ulrich%Schäfer%NULL%1,          Carsten%Veit%NULL%1,          Hans-Peter%Hauber%NULL%1,          Sebastian%Kopp%NULL%1,          Karsten%Sydow%NULL%1,          Andreas%de Weerth%NULL%0,          Marc%Bota%NULL%1,          Rüdiger%Schreiber%NULL%1,          Oliver%Detsch%NULL%1,          Jan-Peer%Rogmann%NULL%1,          Daniel%Frings%NULL%0,          Barbara%Sensen%NULL%1,          Christoph%Burdelski%NULL%0,          Olaf%Boenisch%NULL%1,          Axel%Nierhaus%NULL%0,          Geraldine%de Heer%NULL%0,          Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,           Paolo%Comassi%NULL%1,           Luca%Adriani%NULL%1,           Giulio%Bergamaschini%NULL%1,           Elena%Bertin%NULL%1,           Raffaella%Borromeo%NULL%1,           Serena%Corti%NULL%1,           Federica%De Petri%NULL%1,           Francesco%Dolci%NULL%1,           Attilio%Galmozzi%NULL%1,           Alberto%Gigliotti%NULL%1,           Livio%Gualdoni%NULL%1,           Claudia%Guerra%NULL%1,           Anna%Khosthiova%NULL%1,           Giovanni%Leati%NULL%1,           Giuseppe%Lupi%NULL%1,           Paolo%Moscato%NULL%1,           Vittorio%Perotti%NULL%1,           Miriam%Piantelli%NULL%1,           Alain%Ruini%NULL%1,           Silvia%Sportelli%NULL%1,           Micaela%Susca%NULL%1,           Carmine%Troiano%NULL%1,           Giampaolo%Benelli%NULL%1,           Elisabetta%Buscarini%NULL%1,           Ciro%Canetta%NULL%1,           Guido%Merli%NULL%1,           Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,           Emna%Ennouri%NULL%1,           Rayane%Nachi%NULL%1,           Khaoula%Meddeb%NULL%1,           Jihene%Mahmoud%NULL%1,           Nesrine%Thabet%NULL%1,           Salma%Jerbi%NULL%1,           Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,           Eleni%Xourgia%NULL%1,           Theodora K.%Ntaidou%NULL%1,           Dimitris%Zervakis%NULL%1,           Eleni E.%Magira%NULL%1,           Anastasia%Kotanidou%NULL%1,           Christina%Routsi%NULL%1,           Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,           Carina%Mostert%NULL%1,           Corinna%Hentschker%NULL%1,           Thomas%Voshaar%NULL%1,           Jürgen%Malzahn%NULL%1,           Gerhard%Schillinger%NULL%1,           Jürgen%Klauber%NULL%1,           Uwe%Janssens%NULL%1,           Gernot%Marx%NULL%1,           Steffen%Weber-Carstens%NULL%1,           Stefan%Kluge%NULL%0,           Michael%Pfeifer%NULL%1,           Linus%Grabenhenrich%NULL%1,           Tobias%Welte%NULL%1,           Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To describe acute respiratory distress syndrome (ARDS) severity, ventilation management, and the outcomes of ICU patients with laboratory-confirmed COVID-19 and to determine risk factors of 90-day mortality post-ICU admission.
+Methods
+COVID-ICU is a multi-center, prospective cohort study conducted in 138 hospitals in France, Belgium, and Switzerland.
+ Demographic, clinical, respiratory support, adjunctive interventions, ICU length-of-stay, and survival data were collected.
+Results
+From February 25 to May 4, 2020, 4643 patients (median [IQR] age 63 [54–71] years and SAPS II 37 [28–50]) were admitted in ICU, with day-90 post-ICU admission status available for 4244. On ICU admission, standard oxygen therapy, high-flow oxygen, and non-invasive ventilation were applied to 29%, 19%, and 6% patients, respectively.
+ 2635 (63%) patients were intubated during the first 24 h whereas overall 3376 (80%) received invasive mechanical ventilation (MV) at one point during their ICU stay.
+ Median (IQR) positive end-expiratory and plateau pressures were 12 (10–14) cmH2O, and 24 (21–27) cmH2O, respectively.
+ The mechanical power transmitted by the MV to the lung was 26.5 (18.6–34.9) J/min.
+ Paralyzing agents and prone position were applied to 88% and 70% of patients intubated at Day-1, respectively.
+ Pulmonary embolism and ventilator-associated pneumonia were diagnosed in 207 (9%) and 1209 (58%) of these patients.
+ On day 90, 1298/4244 (31%) patients had died.
+ Among patients who received invasive or non-invasive ventilation on the day of ICU admission, day-90 mortality increased with the severity of ARDS at ICU admission (30%, 34%, and 50% for mild, moderate, and severe ARDS, respectively) and decreased from 42 to 25% over the study period.
+ Early independent predictors of 90-day mortality were older age, immunosuppression, severe obesity, diabetes, higher renal and cardiovascular SOFA score components, lower PaO2/FiO2 ratio and a shorter time between first symptoms and ICU admission.
+Conclusion
+Among more than 4000 critically ill patients with COVID-19 admitted to our ICUs, 90-day mortality was 31% and decreased from 42 to 25% over the study period.
+ Mortality was higher in older, diabetic, obese and severe ARDS patients.
+Electronic supplementary material
+The online version of this article (10.1007/s00134-020-06294-x) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,           David%Hajage%NULL%2,           David%Hajage%NULL%0,           Alexandre%Demoule%NULL%1,           Tài%Pham%NULL%1,           Alain%Combes%NULL%1,           Martin%Dres%NULL%1,           Said%Lebbah%NULL%1,           Antoine%Kimmoun%NULL%1,           Alain%Mercat%NULL%1,           Gaëtan%Beduneau%NULL%1,           Jessica%Palmyre%NULL%1,           Margot%Prevost%NULL%1,           Pierre%Asfar%NULL%1,           François%Beloncle%NULL%1,           Julien%Demiselle%NULL%1,           Arthur%Pavot%NULL%1,           Xavier%Monnet%NULL%1,           Christian%Richard%NULL%1,           Julien%Mayaux%NULL%1,           Alexandra%Beurton%NULL%1,           Richard%Descamps%NULL%1,           Aurélie%Joret%NULL%1,           Damien%Du Cheyron%NULL%1,           Frédéric%Pene%NULL%1,           Jean-Daniel%Chiche%NULL%1,           Mathieu%Jozwiak%NULL%1,           Paul%Jaubert%NULL%1,           Guillaume%Voiriot%NULL%1,           Muriel%Fartoukh%NULL%1,           Marion%Teulier%NULL%1,           Clarisse%Blayau%NULL%1,           Erwen%L’Her%NULL%1,           Cécile%Aubron%NULL%1,           Laetitia%Bodenes%NULL%1,           Nicolas%Ferriere%NULL%1,           Johann%Auchabie%NULL%1,           Anthony%Le Meur%NULL%1,           Sylvain%Pignal%NULL%1,           Thierry%Mazzoni%NULL%1,           Jean-Pierre%Quenot%NULL%1,           Pascal%Andreu%NULL%1,           Jean-Baptiste%Roudau%NULL%1,           Marie%Labruyère%NULL%1,           Saad%Nseir%NULL%0,           Sébastien%Preau%NULL%1,           Julien%Poissy%NULL%0,           Daniel%Mathieu%NULL%0,           Sarah%Benhamida%NULL%1,           Rémi%Paulet%NULL%1,           Nicolas%Roucaud%NULL%1,           Martial%Thyrault%NULL%1,           Florence%Daviet%NULL%1,           Sami%Hraiech%NULL%1,           Gabriel%Parzy%NULL%1,           Aude%Sylvestre%NULL%1,           Sébastien%Jochmans%NULL%1,           Anne-Laure%Bouilland%NULL%1,           Mehran%Monchi%NULL%1,           Marc%Danguy des Déserts%NULL%1,           Quentin%Mathais%NULL%1,           Gwendoline%Rager%NULL%1,           Pierre%Pasquier%NULL%1,           Reignier%Jean%NULL%1,           Seguin%Amélie%NULL%1,           Garret%Charlotte%NULL%1,           Canet%Emmanuel%NULL%1,           Jean%Dellamonica%NULL%1,           Clément%Saccheri%NULL%1,           Romain%Lombardi%NULL%1,           Yanis%Kouchit%NULL%1,           Sophie%Jacquier%NULL%1,           Armelle%Mathonnet%NULL%1,           Mai-Ahn%Nay%NULL%1,           Isabelle%Runge%NULL%1,           Frédéric%Martino%NULL%1,           Laure%Flurin%NULL%1,           Amélie%Rolle%NULL%1,           Michel%Carles%NULL%1,           Rémi%Coudroy%NULL%1,           Arnaud W.%Thille%NULL%1,           Jean-Pierre%Frat%NULL%1,           Maeva%Rodriguez%NULL%1,           Pascal%Beuret%NULL%1,           Audrey%Tientcheu%NULL%1,           Arthur%Vincent%NULL%1,           Florian%Michelin%NULL%1,           Marie Anne%Melone%NULL%1,           Maxime%Gauzi%NULL%1,           Arnaud%Guilbert%NULL%1,           Geoffrey%Kouadri%NULL%1,           Valérie%Gissot%NULL%1,           Stéphan%Ehrmann%NULL%1,           Charlotte%Salmon-Gandonnière%NULL%1,           Djlali%Elaroussi%NULL%1,           Agathe%Delbove%NULL%1,           Yannick%Fedun%NULL%1,           Julien%Huntzinger%NULL%1,           Eddy%Lebas%NULL%1,           Grâce%Kisoka%NULL%1,           Céline%Grégoire%NULL%1,           Stella%Marchetta%NULL%1,           Bernard%Lambermont%NULL%1,           Laurent%Argaud%NULL%1,           Thomas%Baudry%NULL%1,           Pierre-Jean%Bertrand%NULL%1,           Auguste%Dargent%NULL%1,           Christophe%Guitton%NULL%1,           Nicolas%Chudeau%NULL%1,           Mickaël%Landais%NULL%1,           Cédric%Darreau%NULL%1,           Alexis%Ferre%NULL%1,           Antoine%Gros%NULL%1,           Guillaume%Lacave%NULL%1,           Fabrice%Bruneel%NULL%1,           Mathilde%Neuville%NULL%1,           Jérôme%Devaquet%NULL%1,           Guillaume%Tachon%NULL%1,           Richard%Gallot%NULL%1,           Riad%Chelha%NULL%1,           Arnaud%Galbois%NULL%1,           Anne%Jallot%NULL%1,           Ludivine Chalumeau%Lemoine%NULL%1,           Khaldoun%Kuteifan%NULL%1,           Valentin%Pointurier%NULL%1,           Louise-Marie%Jandeaux%NULL%1,           Joy%Mootien%NULL%1,           Charles%Damoisel%NULL%1,           Benjamin%Sztrymf%NULL%1,           Juliette%Chommeloux%NULL%1,           Charles Edouard%Luyt%NULL%1,           Frédérique%Schortgen%NULL%1,           Leon%Rusel%NULL%1,           Camille%Jung%NULL%1,           Florent%Gobert%NULL%1,           Damien%Vimpere%NULL%1,           Lionel%Lamhaut%NULL%1,           Bertrand%Sauneuf%NULL%1,           Liliane%Charrier%NULL%1,           Julien%Calus%NULL%1,           Isabelle%Desmeules%NULL%1,           Benoît%Painvin%NULL%1,           Jean-Marc%Tadie%NULL%1,           Vincent%Castelain%NULL%1,           Baptiste%Michard%NULL%1,           Jean-Etienne%Herbrecht%NULL%1,           Mathieu%Baldacini%NULL%1,           Nicolas%Weiss%NULL%1,           Sophie%Demeret%NULL%1,           Clémence%Marois%NULL%1,           Benjamin%Rohaut%NULL%1,           Pierre-Henri%Moury%NULL%1,           Anne-Charlotte%Savida%NULL%1,           Emmanuel%Couadau%NULL%1,           Mathieu%Série%NULL%1,           Nica%Alexandru%NULL%1,           Cédric%Bruel%NULL%1,           Candice%Fontaine%NULL%1,           Sonia%Garrigou%NULL%1,           Juliette Courtiade%Mahler%NULL%1,           Maxime%Leclerc%NULL%1,           Michel%Ramakers%NULL%1,           Pierre%Garçon%NULL%1,           Nicole%Massou%NULL%1,           Ly Phacs%Van Vong%NULL%1,           Juliane%Sen%NULL%1,           Nolwenn%Lucas%NULL%1,           Franck%Chemouni%NULL%1,           Annabelle%Stoclin%NULL%1,           Alexandre%Avenel%NULL%1,           Henri%Faure%NULL%1,           Angélie%Gentilhomme%NULL%1,           Sylvie%Ricome%NULL%1,           Paul%Abraham%NULL%1,           Céline%Monard%NULL%1,           Julien%Textoris%NULL%1,           Thomas%Rimmele%NULL%1,           Florent%Montini%NULL%1,           Gabriel%Lejour%NULL%1,           Thierry%Lazard%NULL%1,           Isabelle%Etienney%NULL%1,           Younes%Kerroumi%NULL%1,           Dupuis%Claire%NULL%1,           Bereiziat Marine%Coupez%NULL%1,           Thouy%François%NULL%1,           Clémet%Hoffmann%NULL%1,           Nicolas%Donat%NULL%1,           Violaine%Muller%NULL%1,           Thibault%Martinez%NULL%1,           Audrey%Jacquot%NULL%1,           Matthieu%Mattei%NULL%1,           Bruno%Levy%NULL%1,           Ramin%Ravan%NULL%1,           Loïc%Dopeux%NULL%1,           Jean-Mathias%Liteaudon%NULL%1,           Delphine%Roux%NULL%1,           Brice%Rey%NULL%1,           Radu%Anghel%NULL%1,           Deborah%Schenesse%NULL%1,           Vincent%Gevrey%NULL%1,           Jermy%Castanera%NULL%1,           Philippe%Petua%NULL%1,           Benjamin%Madeux%NULL%1,           Otto%Hartman%NULL%1,           Michael%Piagnerelli%NULL%1,           Anne%Joosten%NULL%1,           Cinderella%Noel%NULL%1,           Patrick%Biston%NULL%1,           Thibaut%Noel%NULL%1,           Gurvan L. E.%Bouar%NULL%1,           Messabi%Boukhanza%NULL%1,           Elsa%Demarest%NULL%1,           Marie-France%Bajolet%NULL%1,           Nathanaël%Charrier%NULL%1,           Audrey%Quenet%NULL%1,           Cécile%Zylberfajn%NULL%1,           Nicolas%Dufour%NULL%1,           Buno%Mégarbane%NULL%1,           Sqébastian%Voicu%NULL%1,           Nicolas%Deye%NULL%1,           Isabelle%Malissin%NULL%1,           François%Legay%NULL%1,           Matthieu%Debarre%NULL%1,           Nicolas%Barbarot%NULL%1,           Pierre%Fillatre%NULL%1,           Bertrand%Delord%NULL%1,           Thomas%Laterrade%NULL%1,           Tahar%Saghi%NULL%1,           Wilfried%Pujol%NULL%1,           Pierre Julien%Cungi%NULL%1,           Pierre%Esnault%NULL%1,           Mickael%Cardinale%NULL%1,           Vivien%Hong Tuan Ha%NULL%1,           Grégory%Fleury%NULL%1,           Marie-Ange%Brou%NULL%1,           Daniel%Zafimahazo%NULL%1,           David%Tran-Van%NULL%1,           Patrick%Avargues%NULL%1,           Lisa%Carenco%NULL%1,           Nicolas%Robin%NULL%1,           Alexandre%Ouali%NULL%1,           Lucie%Houdou%NULL%1,           Christophe%Le Terrier%NULL%1,           Noémie%Suh%NULL%1,           Steve%Primmaz%NULL%1,           Jérome%Pugin%NULL%1,           Emmanuel%Weiss%NULL%1,           Tobias%Gauss%NULL%1,           Jean-Denis%Moyer%NULL%1,           Catherine%Paugam-Burtz%NULL%1,           Béatrice%La Combe%NULL%1,           Rolland%Smonig%NULL%1,           Jade%Violleau%NULL%1,           Pauline%Cailliez%NULL%1,           Jonathan%Chelly%NULL%1,           Antoine%Marchalot%NULL%1,           Cécile%Saladin%NULL%1,           Christelle%Bigot%NULL%1,           Pierre-Marie%Fayolle%NULL%1,           Jules%Fatséas%NULL%1,           Amr%Ibrahim%NULL%1,           Dabor%Resiere%NULL%1,           Rabih%Hage%NULL%1,           Clémentine%Cholet%NULL%1,           Marie%Cantier%NULL%1,           Pierre%Trouiller%NULL%1,           Philippe%Montravers%NULL%1,           Brice%Lortat-Jacob%NULL%1,           Sebastien%Tanaka%NULL%1,           Alexy%Tran-Dinh%NULL%1,           Jacques%Duranteau%NULL%1,           Anatole%Harrois%NULL%1,           Guillaume%Dubreuil%NULL%1,           Marie%Werner%NULL%1,           Anne%Godier%NULL%1,           Sophie%Hamada%NULL%1,           Diane%Zlotnik%NULL%1,           Hélène%Nougue%NULL%1,           Armand%Mekontso-Dessap%NULL%1,           Guillaume%Carteaux%NULL%1,           Keyvan%Razazi%NULL%1,           Nicolas%De Prost%NULL%1,           Nicolas%Mongardon%NULL%1,           Olivier%Langeron%NULL%1,           Eric%Levesque%NULL%1,           Arié%Attias%NULL%1,           Charles%de Roquetaillade%NULL%1,           Benjamin G.%Chousterman%NULL%1,           Alexandre%Mebazaa%NULL%1,           Etienne%Gayat%NULL%1,           Marc%Garnier%NULL%1,           Emmanuel%Pardo%NULL%1,           Lea%Satre-Buisson%NULL%1,           Christophe%Gutton%NULL%1,           Elise%Yvin%NULL%1,           Clémence%Marcault%NULL%1,           Elie%Azoulay%NULL%1,           Michael%Darmon%NULL%1,           Nicolas%Bonnet%NULL%1,           Nathan%Ebstein%NULL%1,           Stéphane%Gaudry%NULL%1,           Yves%Cohen%NULL%1,            Hafid%Ait-Oufella%NULL%1,           Geoffroy%Hariri%NULL%1,           Tomas%Urbina%NULL%1,           Sandie%Mazerand%NULL%1,           Nicholas%Heming%NULL%1,           Francesca%Santi%NULL%1,           Pierre%Moine%NULL%1,           Djillali%Annane%NULL%1,           Adrien%Bouglé%NULL%1,           Edris%Omar%NULL%1,           Aymeric%Lancelot%NULL%1,           Emmanuelle%Begot%NULL%1,           Gaétan%Plantefeve%NULL%1,           Damien%Contou%NULL%1,           Hervé%Mentec%NULL%1,           Olivier%Pajot%NULL%1,           Stanislas%Faguer%NULL%1,           Olivier%Cointault%NULL%1,           Laurence%Lavayssiere%NULL%1,           Marie-Béatrice%Nogier%NULL%1,           Matthieu%Jamme%NULL%1,           Claire%Pichereau%NULL%1,           Jan%Hayon%NULL%1,           Hervé%Outin%NULL%1,           François%Dépret%NULL%1,           Maxime%Coutrot%NULL%1,           Maité%Chaussard%NULL%1,           Lucie%Guillemet%NULL%1,           Pierre%Goffin%NULL%1,           Romain%Thouny%NULL%1,           Julien%Guntz%NULL%1,           Laurent%Jadot%NULL%1,           Romain%Persichini%NULL%1,           Vanessa%Jean-Michel%NULL%1,           Hugues%Georges%NULL%1,           Thomas%Caulier%NULL%1,           Gaël%Pradel%NULL%1,           Marie-Hélène%Hausermann%NULL%1,           ThiMy Hue%Nguyen-Valat%NULL%1,           Michel%Boudinaud%NULL%1,           Emmanuel%Vivier%NULL%1,           Sylvène%Rosseli%NULL%1,           Gaël%Bourdin%NULL%1,           Christian%Pommier%NULL%1,           Marc%Vinclair%NULL%1,           Simon%Poignant%NULL%1,           Sandrine%Mons%NULL%1,           Wulfran%Bougouin%NULL%1,           Franklin%Bruna%NULL%1,           Quentin%Maestraggi%NULL%1,           Christian%Roth%NULL%1,           Laurent%Bitker%NULL%1,           François%Dhelft%NULL%1,           Justine%Bonnet-Chateau%NULL%1,           Mathilde%Filippelli%NULL%1,           Tristan%Morichau-Beauchant%NULL%1,           Stéphane%Thierry%NULL%1,           Charlotte%Le Roy%NULL%1,           Mélanie%Saint Jouan%NULL%1,           Bruno%Goncalves%NULL%1,           Aurélien%Mazeraud%NULL%1,           Matthieu%Daniel%NULL%1,           Tarek%Sharshar%NULL%1,           Cyril%Cadoz%NULL%1,           Rostane%Gaci%NULL%1,           Sébastien%Gette%NULL%1,           Guillaune%Louis%NULL%1,           Sophe-Caroline%Sacleux%NULL%1,           Marie-Amélie%Ordan%NULL%1,           Aurélie%Cravoisy%NULL%1,           Marie%Conrad%NULL%1,           Guilhem%Courte%NULL%1,           Sébastien%Gibot%NULL%1,           Younès%Benzidi%NULL%1,           Claudia%Casella%NULL%1,           Laurent%Serpin%NULL%1,           Jean-Lou%Setti%NULL%1,           Marie-Catherine%Besse%NULL%1,           Anna%Bourreau%NULL%1,           Jérôme%Pillot%NULL%1,           Caroline%Rivera%NULL%1,           Camille%Vinclair%NULL%1,           Marie-Aline%Robaux%NULL%1,           Chloé%Achino%NULL%1,           Marie-Charlotte%Delignette%NULL%1,           Tessa%Mazard%NULL%1,           Frédéric%Aubrun%NULL%1,           Bruno%Bouchet%NULL%1,           Aurélien%Frérou%NULL%1,           Laura%Muller%NULL%1,           Charlotte%Quentin%NULL%1,           Samuel%Degoul%NULL%1,           Xavier%Stihle%NULL%1,           Claude%Sumian%NULL%1,           Nicoletta%Bergero%NULL%1,           Bernard%Lanaspre%NULL%1,           Hervé%Quintard%NULL%1,           Eve Marie%Maiziere%NULL%1,           Pierre-Yves%Egreteau%NULL%1,           Guillaume%Leloup%NULL%1,           Florin%Berteau%NULL%1,           Marjolaine%Cottrel%NULL%1,           Marie%Bouteloup%NULL%1,           Matthieu%Jeannot%NULL%1,           Quentin%Blanc%NULL%1,           Julien%Saison%NULL%1,           Isabelle%Geneau%NULL%1,           Romaric%Grenot%NULL%1,           Abdel%Ouchike%NULL%1,           Pascal%Hazera%NULL%1,           Anne-Lyse%Masse%NULL%1,           Suela%Demiri%NULL%1,           Corinne%Vezinet%NULL%1,           Elodie%Baron%NULL%1,           Déborah%Benchetrit%NULL%1,           Antoine%Monsel%NULL%1,           Grégoire%Trebbia%NULL%1,           Emmanuelle%Schaack%NULL%1,           Raphaël%Lepecq%NULL%1,           Mathieu%Bobet%NULL%1,           Christophe%Vinsonneau%NULL%1,           Thibault%Dekeyser%NULL%1,           Quentin%Delforge%NULL%1,           Imen%Rahmani%NULL%1,           Bérengère%Vivet%NULL%1,           Jonathan%Paillot%NULL%1,           Lucie%Hierle%NULL%1,           Claire%Chaignat%NULL%1,           Sarah%Valette%NULL%1,           Benoït%Her%NULL%1,           Jennifier%Brunet%NULL%1,           Mathieu%Page%NULL%1,           Fabienne%Boiste%NULL%1,           Anthony%Collin%NULL%1,           Florent%Bavozet%NULL%2,           Aude%Garin%NULL%1,           Mohamed%Dlala%NULL%1,           Kais%Mhamdi%NULL%1,           Bassem%Beilouny%NULL%1,           Alexandra%Lavalard%NULL%1,           Severine%Perez%NULL%1,           Benoit%Veber%NULL%1,           Pierre-Gildas%Guitard%NULL%1,           Philippe%Gouin%NULL%1,           Anna%Lamacz%NULL%1,           Fabienne%Plouvier%NULL%1,           Bertrand P.%Delaborde%NULL%1,           Aïssa%Kherchache%NULL%1,           Amina%Chaalal%NULL%1,           Jean-Damien%Ricard%NULL%1,           Marc%Amouretti%NULL%1,           Santiago%Freita-Ramos%NULL%1,           Damien%Roux%NULL%1,           Jean-Michel%Constantin%NULL%1,           Mona%Assefi%NULL%1,           Marine%Lecore%NULL%1,           Agathe%Selves%NULL%1,           Florian%Prevost%NULL%1,           Christian%Lamer%NULL%1,           Ruiying%Shi%NULL%1,           Lyes%Knani%NULL%1,           Sébastien%Pili-Floury%NULL%1,           Lucie%Vettoretti%NULL%1,           Michael%Levy%NULL%1,           Lucile%Marsac%NULL%1,           Stéphane%Dauger%NULL%1,           Sophie%Guilmin-Crépon%NULL%1,           Jean-Baptiste%Putegnat%NULL%1,           Frédérique%Bayle%NULL%1,           Maya%Perrou%NULL%1,           Ghyslaine%Thao%NULL%1,           Guillaume%Géri%NULL%1,           Cyril%Charron%NULL%1,           Xavier%Repessé%NULL%1,           Antoine%Vieillard-Baron%NULL%1,           Mathieu%Guilbart%NULL%1,           Pierre-Alexandre%Roger%NULL%1,           Sébastien%Hinard%NULL%1,           Pierre-Yves%Macq%NULL%1,           Kevin%Chaulier%NULL%1,           Sylvie%Goutte%NULL%1,           Patrick%Chillet%NULL%1,           Anaïs%Pitta%NULL%1,           Barbara%Darjent%NULL%1,           Amandine%Bruneau%NULL%1,           Sigismond%Lasocki%NULL%1,           Maxime%Leger%NULL%1,           Soizic%Gergaud%NULL%1,           Pierre%Lemarie%NULL%1,           Nicolas%Terzi%NULL%1,           Carole%Schwebel%NULL%1,           Anaïs%Dartevel%NULL%1,           Louis-Marie%Galerneau%NULL%1,           Jean-Luc%Diehl%NULL%1,           Caroline%Hauw-Berlemont%NULL%0,           Nicolas%Péron%NULL%1,           Emmanuel%Guérot%NULL%1,           Abolfazl Mohebbi%Amoli%NULL%1,           Michel%Benhamou%NULL%1,           Jean-Pierre%Deyme%NULL%1,           Olivier%Andremont%NULL%1,           Diane%Lena%NULL%1,           Julien%Cady%NULL%1,           Arnaud%Causeret%NULL%1,           Arnaud%De La Chapelle%NULL%1,           Christophe%Cracco%NULL%1,           Stéphane%Rouleau%NULL%1,           David%Schnell%NULL%1,           Cécile%Lory%NULL%1,           Thibault%Chapelle%NULL%1,           Vincent%Bruckert%NULL%1,           Julie%Garcia%NULL%1,           Abdlazize%Sahraoui%NULL%1,           Nathalie%Abbosh%NULL%1,           Caroline%Bornstain%NULL%1,           Pierre%Pernet%NULL%1,           Florent%Poirson%NULL%1,           Ahmed%Pasem%NULL%1,           Philippe%Karoubi%NULL%1,           Virginie%Poupinel%NULL%1,           Caroline%Gauthier%NULL%1,           François%Bouniol%NULL%1,           Philippe%Feuchere%NULL%1,           Florent%Bavozet%NULL%0,           Anne%Heron%NULL%1,           Serge%Carreira%NULL%1,           Malo%Emery%NULL%1,           Anne%Le Floch%NULL%1,           Luana%Giovannangeli%NULL%1,           Nicolas%Herzog%NULL%1,           Christophe%Giacardi%NULL%1,           Thibaut%Baudic%NULL%1,           Chloé%Thill%NULL%1,           Florence%Tubach%NULL%1,           Olivier%Lesieur%NULL%1,           Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,           Max W.%Adelman%NULL%3,           Maxwell A.%Hockstein%NULL%1,           Chad J.%Robichaux%NULL%1,           Johnathan A.%Edwards%NULL%1,           Jane C.%Fazio%NULL%1,           James M.%Blum%NULL%4,           Craig S.%Jabaley%NULL%3,           Mark%Caridi-Scheible%NULL%3,           Greg S.%Martin%NULL%3,           David J.%Murphy%NULL%4,           Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,         Antonelli%M.%coreGivesNoEmail%0,         Bellani%G.%coreGivesNoEmail%0,         Bonanomi%E.%coreGivesNoEmail%0,         Cabrini%L.%coreGivesNoEmail%0,         Carlesso%E.%coreGivesNoEmail%0,         Castelli%G.%coreGivesNoEmail%0,         Cattaneo%S.%coreGivesNoEmail%0,         Cecconi%M.%coreGivesNoEmail%0,         Cereda%D.%coreGivesNoEmail%0,         Colombo%S.%coreGivesNoEmail%0,         Coluccello%A.%coreGivesNoEmail%0,         Crescini%G.%coreGivesNoEmail%0,         Forastieri%Molinari A.%coreGivesNoEmail%0,         Foti%G.%coreGivesNoEmail%0,         Fumagalli%R.%coreGivesNoEmail%0,         Grasselli%G.%coreGivesNoEmail%0,         Greco%M.%coreGivesNoEmail%0,         Iotti%G. A.%coreGivesNoEmail%0,         Langer%T.%coreGivesNoEmail%0,         Latronico%N.%coreGivesNoEmail%0,         Lorini%F. L.%coreGivesNoEmail%0,         Mojoli%F.%coreGivesNoEmail%0,         Natalini%G.%coreGivesNoEmail%0,         Pesenti%A.%coreGivesNoEmail%0,         Pessina%C. M.%coreGivesNoEmail%0,         Ranieri%V. M.%coreGivesNoEmail%0,         Rech%R.%coreGivesNoEmail%0,         Rosano%A.%coreGivesNoEmail%0,         Scudeller%L.%coreGivesNoEmail%0,         Storti%E.%coreGivesNoEmail%0,         Thompson%B. T.%coreGivesNoEmail%0,         Tirani%M.%coreGivesNoEmail%0,         Villani%P. G.%coreGivesNoEmail%0,         Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,           Keum-Ju%Choi%NULL%1,           Sun Ha%Choi%NULL%1,           Shin Yup%Lee%NULL%1,           Kyung Chan%Kim%NULL%1,           Eun Jin%Kim%NULL%1,           Jaehee%Lee%NULL%2,           Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,           Siddique%Chaudhary%NULL%1,           Kevin%Bryan Lo%NULL%2,           Kevin%Bryan Lo%NULL%0,           Robert%DeJoy%NULL%1,           Fahad%Gul%NULL%2,           Ricardo%Torres%NULL%1,           Neal%Chaisson%NULL%2,           Neal%Chaisson%NULL%0,           Gabriel%Patarroyo-Aponte%NULL%2,           Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+Whether the use of high-flow nasal oxygen in adult patients with COVID-19 associated acute respiratory failure improves clinically relevant outcomes remains unclear.
+ We thus sought to assess the effect of high-flow nasal oxygen on ventilator-free days, compared to early initiation of invasive mechanical ventilation, on adult patients with COVID-19.
+Methods
+We conducted a multicentre cohort study using a prospectively collected database of patients with COVID-19 associated acute respiratory failure admitted to 36 Spanish and Andorran intensive care units (ICUs).
+ Main exposure was the use of high-flow nasal oxygen (conservative group), while early invasive mechanical ventilation (within the first day of ICU admission; early intubation group) served as the comparator.
+ The primary outcome was ventilator-free days at 28 days.
+ ICU length of stay and all-cause in-hospital mortality served as secondary outcomes.
+ We used propensity score matching to adjust for measured confounding.
+Results
+Out of 468 eligible patients, a total of 122 matched patients were included in the present analysis (61 for each group).
+ When compared to early intubation, the use of high-flow nasal oxygen was associated with an increase in ventilator-free days (mean difference: 8.0 days; 95% confidence interval (CI): 4.4 to 11.7 days) and a reduction in ICU length of stay (mean difference: − 8.2 days; 95% CI − 12.7 to − 3.6 days).
+ No difference was observed in all-cause in-hospital mortality between groups (odds ratio: 0.64; 95% CI: 0.25 to 1.64).
+Conclusions
+The use of high-flow nasal oxygen upon ICU admission in adult patients with COVID-19 related acute hypoxemic respiratory failure may lead to an increase in ventilator-free days and a reduction in ICU length of stay, when compared to early initiation of invasive mechanical ventilation.
+ Future studies should confirm our findings.
+</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,           Bruno L.%Ferreyro%NULL%2,           Bruno L.%Ferreyro%NULL%0,           Federico%Angriman%NULL%1,           María%Hernández-Sanz%NULL%2,           Egoitz%Arruti%NULL%1,           Antoni%Torres%NULL%2,           Jesús%Villar%NULL%1,           Laurent%Brochard%NULL%1,           Carlos%Ferrando%NULL%2,           Ricard%Mellado-Artigas%NULL%1,           María%Hernández-Sanz%NULL%0,           Carlos%Ferrando%NULL%0,           Marina%Vendrell%NULL%1,           Gerard%Sánchez-Etayo%NULL%1,           Amalia%Alcón%NULL%1,           Isabel%Belda%NULL%1,           Mercé%Agustí%NULL%1,           Albert%Carramiñana%NULL%1,           Isabel%Gracia%NULL%1,           Miriam%Panzeri%NULL%1,           Irene%León%NULL%1,           Jaume%Balust%NULL%1,           Ricard%Navarro%NULL%2,           María José%Arguís%NULL%1,           María José%Carretero%NULL%1,           Cristina%Ibáñez%NULL%1,           Juan%Perdomo%NULL%1,           Antonio%López%NULL%1,           Manuel%López-Baamonde%NULL%1,           Tomás%Cuñat%NULL%1,           Marta%Ubré%NULL%1,           Antonio%Ojeda%NULL%1,           Andrea%Calvo%NULL%1,           Eva%Rivas%NULL%1,           Paola%Hurtado%NULL%1,           Roger%Pujol%NULL%1,           Nuria%Martín%NULL%1,           Javier%Tercero%NULL%1,           Pepe%Sanahuja%NULL%1,           Marta%Magaldi%NULL%1,           Miquel%Coca%NULL%1,           Elena%del Rio%NULL%1,           Julia%Martínez-Ocon%NULL%1,           Paula%Masgoret%NULL%1,           Monserrat%Tio%NULL%1,           Angel%Caballero%NULL%1,           Raquel%Risco%NULL%1,           Raquel%Bergé%NULL%1,           Lidia%Gómez%NULL%1,           Nicolás%de Riva%NULL%1,           Ana%Ruiz%NULL%1,           Beatriz%Tena%NULL%1,           Sebastián%Jaramillo%NULL%1,           José María%Balibrea%NULL%1,           Francisco Borja de Borja%de Lacy%NULL%1,           Ana%Otero%NULL%1,           Ainitze%Ibarzabal%NULL%1,           Raquel%Bravo%NULL%1,           Anna%Carreras%NULL%1,           Daniel%Martín-Barreda%NULL%1,           Alfonso Jesús%Alias%NULL%1,           Mariano%Balaguer%NULL%1,           Jorge%Aliaga%NULL%1,           Alex%Almuedo%NULL%1,           Joan Ramón%Alonso%NULL%1,           Rut%Andrea%NULL%1,           Gerard Sergi%Angelès%NULL%1,            Marilyn%Arias%NULL%1,           Fátima%Aziz%NULL%1,           Joan Ramon%Badía%NULL%1,           Enric%Barbeta%NULL%1,           Toni%Torres%NULL%1,           Guillem%Batiste%NULL%1,           Pau%Benet%NULL%1,           Xavi%Borrat%NULL%1,           María%Borrell%NULL%1,           Ernest%Bragulat%NULL%1,           Inmaculada%Carmona%NULL%1,           Manuel%Castellà%NULL%1,           Pedro%Castro%NULL%1,           Joan%Ceravalls%NULL%1,           Oscar%Comino%NULL%1,           Claudia%Cucciniello%NULL%1,           Clàudia%De Deray%NULL%1,           Oriol%De Diego%NULL%1,           Paula%De la Matta%NULL%1,           Marta%Farrero%NULL%1,           Javier%Fernández%NULL%1,           Sara%Fernández%NULL%1,           Anna%Fernández%NULL%1,           Miquel%Ferrer%NULL%1,           Ana%Fervienza%NULL%1,           María%Tallo Forga%NULL%1,           Daniel%Forné%NULL%1,           Clàudia%Galán%NULL%1,           Andrea%Gómez%NULL%1,           Eduard%Guasch%NULL%1,           María%Hernández-Tejero%NULL%1,           Adriana%Jacas%NULL%1,           Beltrán%Jiménez%NULL%1,           Pere%Leyes%NULL%1,           Teresa%López%NULL%1,           José Antonio%Martínez%NULL%1,           Graciela%Martínez-Pallí%NULL%1,           Jordi%Mercadal%NULL%1,           Guido%Muñoz%NULL%1,           José%Muñoz%NULL%1,           Ricard%Navarro%NULL%0,           Josep María%Nicolás%NULL%1,           José Tomás%Ortiz%NULL%1,           Anna%Peiró%NULL%1,           Manuel%Pérez%NULL%1,           Esteban%Poch%NULL%1,           Margarida%Pujol%NULL%1,           Eduard%Quintana%NULL%1,           Bartomeu%Ramis%NULL%1,           Enric%Reverter%NULL%1,           Irene%Rovira%NULL%1,           Pablo%Ruiz%NULL%1,           Elena%Sandoval%NULL%1,           Stefan%Schneider%NULL%1,           Oriol%Sibila%NULL%1,           Carla%Solé%NULL%1,           Alex%Soriano%NULL%2,           Dolors%Soy%NULL%1,           M.%Suárez%NULL%1,           Adrián%Téllez%NULL%1,           Néstor David%Toapanta%NULL%1,           Antoni%Torres%NULL%0,           Xavier%Urra%NULL%1,           César%Aldecoa%NULL%1,           Alicia%Bordell%NULL%1,           Silvia%Martín%NULL%1,           Judith%Andrés%NULL%1,           Alberto Martínez%Ruiz%NULL%1,           Gonzalo Tamayo%Medel%NULL%1,           Iñaki Bilbao Bilbao%Villasante%NULL%1,           Fernando Iturri%Clavero%NULL%1,           Covadonga Peralta%Álvarez%NULL%1,           Julia T.%Herrera Díez%NULL%1,           Andrea García%Trancho%NULL%1,           Iñaki Sainz %Mandiola%NULL%1,           Carmen Ruano%Suarez%NULL%1,           Angela Ruiz%Bocos%NULL%1,           Eneritz Urrutia%Izagirre%NULL%1,           Pablo Ortiz%de Urbina Fernández%NULL%1,           Naiara Apodaka%López%NULL%1,           Leire Prieto%Molano%NULL%1,           Eunate Ganuza%Martínez%NULL%1,           Iratxe Vallinas%Hidalgo%NULL%1,           Karmele%de Orte Sancho%NULL%1,           Celia González%Paniagua%NULL%1,           Gemma Ortiz%Labrador%NULL%1,           Mireia Pérez%Larrañaga%NULL%1,           Marta López%Miguelez%NULL%1,           Estíbaliz Bárcena%Andrés%NULL%1,           Erik Urutxurtu%Laureano%NULL%1,           Maria Jesús Maroño%Boedo%NULL%1,           Blanca Escontrela%Rodríguez%NULL%1,           Aitziber Ereñozaga%Camiruaga%NULL%1,           Deiene Lasuen%Aguirre%NULL%1,           Ainhoa Zabal%Maeztu%NULL%1,           Ane Guereca%Gala%NULL%1,           Iker Castelo%Korro%NULL%1,           Andrés Álvarez%Campo%NULL%1,           Alejandro Carcelen%Viana%NULL%1,           Alejandro Alberdi%Enríquez%NULL%1,           Xabier Ormazábal%Rementeria%NULL%1,           Alberto Sánchez%Campos%NULL%1,           Rosa Gutiérrez%Rico%NULL%1,           Pablo Barbier%Damborenea%NULL%1,           Marta Guerenabarrena%Momeñe%NULL%1,           Borja Cuesta%Ruiz%NULL%1,           Alejandro López%Rico%NULL%1,           Ana Rojo%Polo%NULL%1,           Covadonga García%Grijelmo%NULL%1,           Mikel Celorrio%Reta%NULL%1,           Eneko Martín%Arroyo%NULL%1,           Leire Artaza%Aparicio%NULL%1,           Iñaki Ituarte%Aspiazu%NULL%1,           Ane Igeregi%Basabe%NULL%1,           Itxaso Merino%Julian%NULL%1,           Isabel Diaz%Rico%NULL%1,           Maria Paz%Martínez%NULL%1,           Ramón%Adalia Bartolomé%NULL%1,           Luigi%Zattera%NULL%1,           Irina Adalid%Hernandez%NULL%1,           Leire Larrañaga%Altuna%NULL%1,           Aina Serrallonga%Castells%NULL%1,           Adriana Vílchez%Garcia%NULL%1,           María%Núñez%NULL%1,           Lorena%Román%NULL%1,           Isabel Ramos%Delgado%NULL%1,           Adela Benítez-Cano%Martínez%NULL%1,           Mireia Chanzá%Albert%NULL%1,           Juan Carlos Álvarez%García%NULL%1,           Luis Aguilera%Cuchillo%NULL%1,           Sandra Beltrán%de Heredia%NULL%1,           Jesús Carazo%Cordobés%NULL%1,           Carlos Alberto García%Bernedo%NULL%1,           Fernando Escolano%Villén%NULL%1,           Francisco Javier Redondo%Calvo%NULL%1,           Rubén Villazala%González%NULL%1,           Victor Baladron%González%NULL%1,           Patricia%Faba%NULL%1,           Omar%Montenegro%NULL%1,           Natalia Bejarano%Ramírez%NULL%1,           Sergio Marcos%Contreras%NULL%1,           Alejandro Garcia%Rodríguez%NULL%1,           Saleta Rey%Vázquez%NULL%1,           Cristina Garcia%Pérez%NULL%1,           Eva Higuera%Miguelez%NULL%1,           Irene Pérez%Blanco%NULL%1,           David García%Rivera%NULL%1,           Ane Martín%de la Fuente%NULL%1,           Marta%Pardo%NULL%1,           Vanessa%Rodriguez%NULL%1,           Unai%Bengoetxea%NULL%1,           Fernando%Ramasco%NULL%1,           Sheila Olga Santidrián%Bernal%NULL%1,           Alvar Santa Cruz%Hernando%NULL%1,           Antonio Planas%Roca%NULL%1,           Carlos Figueroa%Yusta%NULL%1,           Esther García%Villabona%NULL%1,           Carmen Vallejo%Lantero%NULL%1,           Eva Patiño%Rodriguez%NULL%1,           Alvaro Esquivel%Toledo%NULL%1,           David Arribas%Méndez%NULL%1,           Mar Orts%Rodriguez%NULL%1,           Rosa Méndez%Hernández%NULL%1,           Jesús Nieves%Alonso%NULL%1,           Inés Imaz%Artazcoz%NULL%1,           Sonia Expósito%Carazo%NULL%1,           Carlos Román%Guerrero%NULL%1,           Elena Rojo%Rodríguez%NULL%1,           Ricardo Moreno%González%NULL%1,           Julia Hernando%Santos%NULL%1,           Jara Torrente%Pérez%NULL%1,           Esperanza Mata%Mena%NULL%1,           Manuel José Muñoz%Martínez%NULL%1,           Enrique Alday%Muñoz%NULL%1,           Patricia Martin%Serrano%NULL%1,           Laura Cotter%Muñoz%NULL%1,           Amadea%Mjertan%NULL%1,           Diego Gutierrez%Martínez%NULL%1,           Carmen Rodríguez%García%NULL%1,           Olaya Alonso%Viejo%NULL%1,           Juan Alvarez%Pereira%NULL%1,           Ana Carmona%Bonet%NULL%1,           Diana Parrado%López%NULL%1,           Eva%de Dios Tomas%NULL%1,           Rafael Martín%Celemin%NULL%1,           María Luisa Meilan%Paz%NULL%1,           Luis Quecedo%Gutiérrez%NULL%1,           Noemí Diaz%Velasco%NULL%1,           Gabriel Martin%Hernández%NULL%1,           Francisco Garcia%del Corral%NULL%1,           Gloria Hernandez%Arias%NULL%1,           David Rodriguez%Cuesta%NULL%1,           Ana Gómez%Rice%NULL%1,           Encarna Mateos%Sevillano%NULL%1,           Natalia Olmos%Molpeceres%NULL%1,           Beatriz%Domínguez%NULL%1,           Ana Vázquez%Lima%NULL%1,           Ángel%Candela%NULL%1,           Ismael A. Acevedo%Bambaren%NULL%1,           Maria Isabel Albala%Blanco%NULL%1,           Paloma Alonso%Montoiro%NULL%1,           Fernando Álvarez%Utrera%NULL%1,           Juan Avellanosa%Esteruelas%NULL%1,           Amal Azzam%López%NULL%1,           Alberto José%Balvis%NULL%1,           Balvis Tommaso%Bardi%NULL%1,           María Beltrán%Martín%NULL%1,           Jacobo Benatar%Haserfaty%NULL%1,           Alberto Berruezo%Camacho%NULL%1,           Laura Betolaza%Weimer%NULL%1,           María%del Mar Carbonell Soto%NULL%1,           Cristina Carrasco%Seral%NULL%1,           Cristina Cerro %Zaballos%NULL%1,           Elizabeth Claros%Llamas%NULL%1,           Pilar Coleta%Orduna%NULL%1,           Ingrid P. Cortes%Forero%NULL%1,           Pascual Agustín Crespo%Aliseda%NULL%1,           María Angélica%de Pablo Pajares%NULL%1,           Yolanda Díez%Remesal%NULL%1,           Trinidad Dorado%Díaz%NULL%1,           Noemí Echevarría%Blasco%NULL%1,           María Elena Elías%Martín%NULL%1,           Javier Felices%Triviño%NULL%1,           Natalia Fernández%López%NULL%1,           Cristina Fernández%Martín%NULL%1,           Natalia Ferreiro%Pozuelo%NULL%1,           Luis Gajate%Martín%NULL%1,           Clara Gallego%Santos%NULL%1,           Diego Gil%Mayo%NULL%1,           María Gómez%Rojo%NULL%1,           Claudia González%Cibrián%NULL%1,           Elena Herrera%López%NULL%1,           Borja Hinojal%Olmedillo%NULL%1,           Berta Iglesias%Gallego%NULL%1,           Sassan%Khonsari%NULL%1,           María Nuria Mane%Ruiz%NULL%1,           María Manzanero%Arroyo%NULL%1,           Ana María Mariscal%Ortega%NULL%1,           Sara Martín%Burcio%NULL%1,           María%del Carmen Martín González%NULL%1,           Ascensión Martín%Grande%NULL%1,           Jose Juan Martín%López%NULL%1,           Cecilia Martín%Rabes%NULL%1,           Marcos Martínez%Borja%NULL%1,           Nilda Martínez%Castro%NULL%1,           Adolfo Martínez%Pérez%NULL%1,           Snejana%Matcan%NULL%1,           Cristina Medrano%Viñas%NULL%1,           Lisset Miguel%Herrera%NULL%1,           Adrián Mira%Betancur%NULL%1,           María Montiel%Carbajo%NULL%1,           Javier Moya%Moradas%NULL%1,           Lorena Muñoz%Pérez%NULL%1,           Mónica Nuñez%Murias%NULL%1,           Eva Ordiales%González%NULL%1,           Óscar Ordoñez%Recio%NULL%1,           Miguel Ángel Palomero%Rodriguez%NULL%1,           Diego Parise%Roux%NULL%1,           Lucia Pereira%Torres%NULL%1,           David Pestaña%Lagunas%NULL%1,           Juana María Pinto%Corraliza%NULL%1,           Marian Prieto%Rodrigo%NULL%1,           Inmaculada Rodriguez%Diaz-Regaño%NULL%1,           David Rodriguez%Esteban%NULL%1,           Víctor Rojas%Pernia%NULL%1,           Álvaro Ruigómez%Saiz%NULL%1,           Bárbara Saavedra%Villarino%NULL%1,           Noemí Samaranch%Palero%NULL%1,           Gloria Santos%Pérez%NULL%1,           Jaume Serna%Pérez%NULL%1,           Ana Belén Serrano%Romero%NULL%1,           Jesús Tercero%López%NULL%1,           Carlos Tiscar%García%NULL%1,           Marta%de la Torre Concostrina%NULL%1,           Eva María Ureta%Mesa%NULL%1,           Eva Velasco%Olarte%NULL%1,           Judith Villahoz%Martínez%NULL%1,           Raúl Villalaba%Palacios%NULL%1,           Gema Villanueva%García%NULL%1,           Cristina Vogel%de Medeiros%NULL%1,           Soraya Gholamian%Ovejero%NULL%1,           Marta Vicente%Orgaz%NULL%1,           Patricia Lloreda%Herradon%NULL%1,           Cristina Crespo%Gómez%NULL%1,           Tatiana%Sarmiento-Trujillo%NULL%1,           Noemí García%Medina%NULL%1,           María Martínez%García%NULL%1,           Carles Espinós%Ramírez%NULL%1,           Nabil Mouhaffel%Rivero%NULL%1,           Jose Antonio Bernia%Gil%NULL%1,           Sonsoles%Martín%NULL%1,           María Victoria%Moral%NULL%1,           Josefina%Galán%NULL%1,           Pilar%Paniagua%NULL%1,           Sergio%Pérez%NULL%1,           Albert%Bainac%NULL%1,           Ana%Arias%NULL%1,           Elsa%Ramil%NULL%1,           Jorge%Escudero%NULL%1,           Pablo%Monedero%NULL%1,           Carmen%Cara%NULL%1,           Andrea%Lara%NULL%1,           Elena Mendez%Martínez%NULL%1,           Jorge%Mendoza%NULL%1,           Íñigo Rubio%Baines%NULL%1,           Carmen Sala%Trull%NULL%1,           Pablo Montero%López%NULL%1,           Alfredo%Gea%NULL%1,           Alejandro%Montero%NULL%1,           Rocío Armero%Ibañez%NULL%1,           Juan Vicente Llau%Pitarch%NULL%1,           Fernando Rauer%Alcóver%NULL%1,           Cristina Álvarez%Herreros%NULL%1,           Cyntia Sánchez%Martín%NULL%1,           Lucía López Ocáriz%Olmos%NULL%1,           Marta Navas%Moruno%NULL%1,           Fernando García%Montoto%NULL%1,           M. F. Mirón%Rodriguez%NULL%1,           Laura Fuentes%Coco%NULL%1,           Cristina Hernández%Gamito%NULL%1,           Antonio Barba%Orejudo%NULL%1,           Luis Gerardo Smith%Vielma%NULL%1,           Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,           Marta Donoso%Domínguez%NULL%1,           Silvia Esquivel%Ramírez%NULL%1,           José Antonio%Carbonell%NULL%1,           Berta Monleón%López%NULL%1,           Sara%Martínez-Castro%NULL%1,           Gerardo%Aguilar%NULL%1,           María Gestal Pablo%Casas%NULL%1,           Angel Outeiro%Rosato%NULL%1,           Andrea Naveiro%Pan%NULL%1,           María Alonso%Portela%NULL%1,           Adrián García%Romar%NULL%1,           Eva Mosquera%Rodríguez%NULL%1,           Diego Ruanova%Seijo%NULL%1,           Pablo Rama%Maceiras%NULL%1,           Francisco%Castro-Ceoane%NULL%1,           Esther Moreno%López%NULL%1,           Sergio%Gil%NULL%1,           Julia Guillén%Antón%NULL%1,           Patricia García-Consuegra%Tirado%NULL%1,           Aurora Callau%Calvo%NULL%1,           Laura Forés%Lisbona%NULL%1,           María Carbonell%Romero%NULL%1,           Belén Albericio%Gil%NULL%1,           Laura Pradal%Jarne%NULL%1,           María Soria%Lozano%NULL%1,           Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,           Navjot Ariyana%Kaur%NULL%1,           Daniel%Sacher%NULL%1,           Oisin%O’Corragain%NULL%1,           Daniel%Salerno%NULL%1,           Parag%Desai%NULL%1,           Sameep%Sehgal%NULL%1,           Matthew%Gordon%NULL%2,           Rohit%Gupta%NULL%2,           Nathaniel%Marchetti%NULL%1,           Huaqing%Zhao%NULL%2,           Nicole%Patlakh%NULL%2,           Gerard J.%Criner%NULL%1,           Temple%University%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,           Dominik%Jarczak%NULL%1,           Liina%Thasler%NULL%1,           Martin%Bachmann%NULL%1,           Frank%Schulte%NULL%1,           Berthold%Bein%NULL%1,           Christian Friedrich%Weber%NULL%1,           Ulrich%Schäfer%NULL%1,           Carsten%Veit%NULL%1,           Hans-Peter%Hauber%NULL%1,           Sebastian%Kopp%NULL%1,           Karsten%Sydow%NULL%1,           Andreas%de Weerth%NULL%0,           Marc%Bota%NULL%1,           Rüdiger%Schreiber%NULL%1,           Oliver%Detsch%NULL%1,           Jan-Peer%Rogmann%NULL%1,           Daniel%Frings%NULL%0,           Barbara%Sensen%NULL%1,           Christoph%Burdelski%NULL%0,           Olaf%Boenisch%NULL%1,           Axel%Nierhaus%NULL%0,           Geraldine%de Heer%NULL%0,           Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,            Paolo%Comassi%NULL%1,            Luca%Adriani%NULL%1,            Giulio%Bergamaschini%NULL%1,            Elena%Bertin%NULL%1,            Raffaella%Borromeo%NULL%1,            Serena%Corti%NULL%1,            Federica%De Petri%NULL%1,            Francesco%Dolci%NULL%1,            Attilio%Galmozzi%NULL%1,            Alberto%Gigliotti%NULL%1,            Livio%Gualdoni%NULL%1,            Claudia%Guerra%NULL%1,            Anna%Khosthiova%NULL%1,            Giovanni%Leati%NULL%1,            Giuseppe%Lupi%NULL%1,            Paolo%Moscato%NULL%1,            Vittorio%Perotti%NULL%1,            Miriam%Piantelli%NULL%1,            Alain%Ruini%NULL%1,            Silvia%Sportelli%NULL%1,            Micaela%Susca%NULL%1,            Carmine%Troiano%NULL%1,            Giampaolo%Benelli%NULL%1,            Elisabetta%Buscarini%NULL%1,            Ciro%Canetta%NULL%1,            Guido%Merli%NULL%1,            Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,            Emna%Ennouri%NULL%1,            Rayane%Nachi%NULL%1,            Khaoula%Meddeb%NULL%1,            Jihene%Mahmoud%NULL%1,            Nesrine%Thabet%NULL%1,            Salma%Jerbi%NULL%1,            Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,            Eleni%Xourgia%NULL%1,            Theodora K.%Ntaidou%NULL%1,            Dimitris%Zervakis%NULL%1,            Eleni E.%Magira%NULL%1,            Anastasia%Kotanidou%NULL%1,            Christina%Routsi%NULL%1,            Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,            Carina%Mostert%NULL%1,            Corinna%Hentschker%NULL%1,            Thomas%Voshaar%NULL%1,            Jürgen%Malzahn%NULL%1,            Gerhard%Schillinger%NULL%1,            Jürgen%Klauber%NULL%1,            Uwe%Janssens%NULL%1,            Gernot%Marx%NULL%1,            Steffen%Weber-Carstens%NULL%1,            Stefan%Kluge%NULL%0,            Michael%Pfeifer%NULL%1,            Linus%Grabenhenrich%NULL%1,            Tobias%Welte%NULL%1,            Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,            David%Hajage%NULL%2,            David%Hajage%NULL%0,            Alexandre%Demoule%NULL%1,            Tài%Pham%NULL%1,            Alain%Combes%NULL%1,            Martin%Dres%NULL%1,            Said%Lebbah%NULL%1,            Antoine%Kimmoun%NULL%1,            Alain%Mercat%NULL%1,            Gaëtan%Beduneau%NULL%1,            Jessica%Palmyre%NULL%1,            Margot%Prevost%NULL%1,            Pierre%Asfar%NULL%1,            François%Beloncle%NULL%1,            Julien%Demiselle%NULL%1,            Arthur%Pavot%NULL%1,            Xavier%Monnet%NULL%1,            Christian%Richard%NULL%1,            Julien%Mayaux%NULL%1,            Alexandra%Beurton%NULL%1,            Richard%Descamps%NULL%1,            Aurélie%Joret%NULL%1,            Damien%Du Cheyron%NULL%1,            Frédéric%Pene%NULL%1,            Jean-Daniel%Chiche%NULL%1,            Mathieu%Jozwiak%NULL%1,            Paul%Jaubert%NULL%1,            Guillaume%Voiriot%NULL%1,            Muriel%Fartoukh%NULL%1,            Marion%Teulier%NULL%1,            Clarisse%Blayau%NULL%1,            Erwen%L’Her%NULL%1,            Cécile%Aubron%NULL%1,            Laetitia%Bodenes%NULL%1,            Nicolas%Ferriere%NULL%1,            Johann%Auchabie%NULL%1,            Anthony%Le Meur%NULL%1,            Sylvain%Pignal%NULL%1,            Thierry%Mazzoni%NULL%1,            Jean-Pierre%Quenot%NULL%1,            Pascal%Andreu%NULL%1,            Jean-Baptiste%Roudau%NULL%1,            Marie%Labruyère%NULL%1,            Saad%Nseir%NULL%0,            Sébastien%Preau%NULL%1,            Julien%Poissy%NULL%0,            Daniel%Mathieu%NULL%0,            Sarah%Benhamida%NULL%1,            Rémi%Paulet%NULL%1,            Nicolas%Roucaud%NULL%1,            Martial%Thyrault%NULL%1,            Florence%Daviet%NULL%1,            Sami%Hraiech%NULL%1,            Gabriel%Parzy%NULL%1,            Aude%Sylvestre%NULL%1,            Sébastien%Jochmans%NULL%1,            Anne-Laure%Bouilland%NULL%1,            Mehran%Monchi%NULL%1,            Marc%Danguy des Déserts%NULL%1,            Quentin%Mathais%NULL%1,            Gwendoline%Rager%NULL%1,            Pierre%Pasquier%NULL%1,            Reignier%Jean%NULL%1,            Seguin%Amélie%NULL%1,            Garret%Charlotte%NULL%1,            Canet%Emmanuel%NULL%1,            Jean%Dellamonica%NULL%1,            Clément%Saccheri%NULL%1,            Romain%Lombardi%NULL%1,            Yanis%Kouchit%NULL%1,            Sophie%Jacquier%NULL%1,            Armelle%Mathonnet%NULL%1,            Mai-Ahn%Nay%NULL%1,            Isabelle%Runge%NULL%1,            Frédéric%Martino%NULL%1,            Laure%Flurin%NULL%1,            Amélie%Rolle%NULL%1,            Michel%Carles%NULL%1,            Rémi%Coudroy%NULL%1,            Arnaud W.%Thille%NULL%1,            Jean-Pierre%Frat%NULL%1,            Maeva%Rodriguez%NULL%1,            Pascal%Beuret%NULL%1,            Audrey%Tientcheu%NULL%1,            Arthur%Vincent%NULL%1,            Florian%Michelin%NULL%1,            Marie Anne%Melone%NULL%1,            Maxime%Gauzi%NULL%1,            Arnaud%Guilbert%NULL%1,            Geoffrey%Kouadri%NULL%1,            Valérie%Gissot%NULL%1,            Stéphan%Ehrmann%NULL%1,            Charlotte%Salmon-Gandonnière%NULL%1,            Djlali%Elaroussi%NULL%1,            Agathe%Delbove%NULL%1,            Yannick%Fedun%NULL%1,            Julien%Huntzinger%NULL%1,            Eddy%Lebas%NULL%1,            Grâce%Kisoka%NULL%1,            Céline%Grégoire%NULL%1,            Stella%Marchetta%NULL%1,            Bernard%Lambermont%NULL%1,            Laurent%Argaud%NULL%1,            Thomas%Baudry%NULL%1,            Pierre-Jean%Bertrand%NULL%1,            Auguste%Dargent%NULL%1,            Christophe%Guitton%NULL%1,            Nicolas%Chudeau%NULL%1,            Mickaël%Landais%NULL%1,            Cédric%Darreau%NULL%1,            Alexis%Ferre%NULL%1,            Antoine%Gros%NULL%1,            Guillaume%Lacave%NULL%1,            Fabrice%Bruneel%NULL%1,            Mathilde%Neuville%NULL%1,            Jérôme%Devaquet%NULL%1,            Guillaume%Tachon%NULL%1,            Richard%Gallot%NULL%1,            Riad%Chelha%NULL%1,            Arnaud%Galbois%NULL%1,            Anne%Jallot%NULL%1,            Ludivine Chalumeau%Lemoine%NULL%1,            Khaldoun%Kuteifan%NULL%1,            Valentin%Pointurier%NULL%1,            Louise-Marie%Jandeaux%NULL%1,            Joy%Mootien%NULL%1,            Charles%Damoisel%NULL%1,            Benjamin%Sztrymf%NULL%1,            Juliette%Chommeloux%NULL%1,            Charles Edouard%Luyt%NULL%1,            Frédérique%Schortgen%NULL%1,            Leon%Rusel%NULL%1,            Camille%Jung%NULL%1,            Florent%Gobert%NULL%1,            Damien%Vimpere%NULL%1,            Lionel%Lamhaut%NULL%1,            Bertrand%Sauneuf%NULL%1,            Liliane%Charrier%NULL%1,            Julien%Calus%NULL%1,            Isabelle%Desmeules%NULL%1,            Benoît%Painvin%NULL%1,            Jean-Marc%Tadie%NULL%1,            Vincent%Castelain%NULL%1,            Baptiste%Michard%NULL%1,            Jean-Etienne%Herbrecht%NULL%1,            Mathieu%Baldacini%NULL%1,            Nicolas%Weiss%NULL%1,            Sophie%Demeret%NULL%1,            Clémence%Marois%NULL%1,            Benjamin%Rohaut%NULL%1,            Pierre-Henri%Moury%NULL%1,            Anne-Charlotte%Savida%NULL%1,            Emmanuel%Couadau%NULL%1,            Mathieu%Série%NULL%1,            Nica%Alexandru%NULL%1,            Cédric%Bruel%NULL%1,            Candice%Fontaine%NULL%1,            Sonia%Garrigou%NULL%1,            Juliette Courtiade%Mahler%NULL%1,            Maxime%Leclerc%NULL%1,            Michel%Ramakers%NULL%1,            Pierre%Garçon%NULL%1,            Nicole%Massou%NULL%1,            Ly Phacs%Van Vong%NULL%1,            Juliane%Sen%NULL%1,            Nolwenn%Lucas%NULL%1,            Franck%Chemouni%NULL%1,            Annabelle%Stoclin%NULL%1,            Alexandre%Avenel%NULL%1,            Henri%Faure%NULL%1,            Angélie%Gentilhomme%NULL%1,            Sylvie%Ricome%NULL%1,            Paul%Abraham%NULL%1,            Céline%Monard%NULL%1,            Julien%Textoris%NULL%1,            Thomas%Rimmele%NULL%1,            Florent%Montini%NULL%1,            Gabriel%Lejour%NULL%1,            Thierry%Lazard%NULL%1,            Isabelle%Etienney%NULL%1,            Younes%Kerroumi%NULL%1,            Dupuis%Claire%NULL%1,            Bereiziat Marine%Coupez%NULL%1,            Thouy%François%NULL%1,            Clémet%Hoffmann%NULL%1,            Nicolas%Donat%NULL%1,            Violaine%Muller%NULL%1,            Thibault%Martinez%NULL%1,            Audrey%Jacquot%NULL%1,            Matthieu%Mattei%NULL%1,            Bruno%Levy%NULL%1,            Ramin%Ravan%NULL%1,            Loïc%Dopeux%NULL%1,            Jean-Mathias%Liteaudon%NULL%1,            Delphine%Roux%NULL%1,            Brice%Rey%NULL%1,            Radu%Anghel%NULL%1,            Deborah%Schenesse%NULL%1,            Vincent%Gevrey%NULL%1,            Jermy%Castanera%NULL%1,            Philippe%Petua%NULL%1,            Benjamin%Madeux%NULL%1,            Otto%Hartman%NULL%1,            Michael%Piagnerelli%NULL%1,            Anne%Joosten%NULL%1,            Cinderella%Noel%NULL%1,            Patrick%Biston%NULL%1,            Thibaut%Noel%NULL%1,            Gurvan L. E.%Bouar%NULL%1,            Messabi%Boukhanza%NULL%1,            Elsa%Demarest%NULL%1,            Marie-France%Bajolet%NULL%1,            Nathanaël%Charrier%NULL%1,            Audrey%Quenet%NULL%1,            Cécile%Zylberfajn%NULL%1,            Nicolas%Dufour%NULL%1,            Buno%Mégarbane%NULL%1,            Sqébastian%Voicu%NULL%1,            Nicolas%Deye%NULL%1,            Isabelle%Malissin%NULL%1,            François%Legay%NULL%1,            Matthieu%Debarre%NULL%1,            Nicolas%Barbarot%NULL%1,            Pierre%Fillatre%NULL%1,            Bertrand%Delord%NULL%1,            Thomas%Laterrade%NULL%1,            Tahar%Saghi%NULL%1,            Wilfried%Pujol%NULL%1,            Pierre Julien%Cungi%NULL%1,            Pierre%Esnault%NULL%1,            Mickael%Cardinale%NULL%1,            Vivien%Hong Tuan Ha%NULL%1,            Grégory%Fleury%NULL%1,            Marie-Ange%Brou%NULL%1,            Daniel%Zafimahazo%NULL%1,            David%Tran-Van%NULL%1,            Patrick%Avargues%NULL%1,            Lisa%Carenco%NULL%1,            Nicolas%Robin%NULL%1,            Alexandre%Ouali%NULL%1,            Lucie%Houdou%NULL%1,            Christophe%Le Terrier%NULL%1,            Noémie%Suh%NULL%1,            Steve%Primmaz%NULL%1,            Jérome%Pugin%NULL%1,            Emmanuel%Weiss%NULL%1,            Tobias%Gauss%NULL%1,            Jean-Denis%Moyer%NULL%1,            Catherine%Paugam-Burtz%NULL%1,            Béatrice%La Combe%NULL%1,            Rolland%Smonig%NULL%1,            Jade%Violleau%NULL%1,            Pauline%Cailliez%NULL%1,            Jonathan%Chelly%NULL%1,            Antoine%Marchalot%NULL%1,            Cécile%Saladin%NULL%1,            Christelle%Bigot%NULL%1,            Pierre-Marie%Fayolle%NULL%1,            Jules%Fatséas%NULL%1,            Amr%Ibrahim%NULL%1,            Dabor%Resiere%NULL%1,            Rabih%Hage%NULL%1,            Clémentine%Cholet%NULL%1,            Marie%Cantier%NULL%1,            Pierre%Trouiller%NULL%1,            Philippe%Montravers%NULL%1,            Brice%Lortat-Jacob%NULL%1,            Sebastien%Tanaka%NULL%1,            Alexy%Tran-Dinh%NULL%1,            Jacques%Duranteau%NULL%1,            Anatole%Harrois%NULL%1,            Guillaume%Dubreuil%NULL%1,            Marie%Werner%NULL%1,            Anne%Godier%NULL%1,            Sophie%Hamada%NULL%1,            Diane%Zlotnik%NULL%1,            Hélène%Nougue%NULL%1,            Armand%Mekontso-Dessap%NULL%1,            Guillaume%Carteaux%NULL%1,            Keyvan%Razazi%NULL%1,            Nicolas%De Prost%NULL%1,            Nicolas%Mongardon%NULL%1,            Olivier%Langeron%NULL%1,            Eric%Levesque%NULL%1,            Arié%Attias%NULL%1,            Charles%de Roquetaillade%NULL%1,            Benjamin G.%Chousterman%NULL%1,            Alexandre%Mebazaa%NULL%1,            Etienne%Gayat%NULL%1,            Marc%Garnier%NULL%1,            Emmanuel%Pardo%NULL%1,            Lea%Satre-Buisson%NULL%1,            Christophe%Gutton%NULL%1,            Elise%Yvin%NULL%1,            Clémence%Marcault%NULL%1,            Elie%Azoulay%NULL%1,            Michael%Darmon%NULL%1,            Nicolas%Bonnet%NULL%1,            Nathan%Ebstein%NULL%1,            Stéphane%Gaudry%NULL%1,            Yves%Cohen%NULL%1,             Hafid%Ait-Oufella%NULL%1,            Geoffroy%Hariri%NULL%1,            Tomas%Urbina%NULL%1,            Sandie%Mazerand%NULL%1,            Nicholas%Heming%NULL%1,            Francesca%Santi%NULL%1,            Pierre%Moine%NULL%1,            Djillali%Annane%NULL%1,            Adrien%Bouglé%NULL%1,            Edris%Omar%NULL%1,            Aymeric%Lancelot%NULL%1,            Emmanuelle%Begot%NULL%1,            Gaétan%Plantefeve%NULL%1,            Damien%Contou%NULL%1,            Hervé%Mentec%NULL%1,            Olivier%Pajot%NULL%1,            Stanislas%Faguer%NULL%1,            Olivier%Cointault%NULL%1,            Laurence%Lavayssiere%NULL%1,            Marie-Béatrice%Nogier%NULL%1,            Matthieu%Jamme%NULL%1,            Claire%Pichereau%NULL%1,            Jan%Hayon%NULL%1,            Hervé%Outin%NULL%1,            François%Dépret%NULL%1,            Maxime%Coutrot%NULL%1,            Maité%Chaussard%NULL%1,            Lucie%Guillemet%NULL%1,            Pierre%Goffin%NULL%1,            Romain%Thouny%NULL%1,            Julien%Guntz%NULL%1,            Laurent%Jadot%NULL%1,            Romain%Persichini%NULL%1,            Vanessa%Jean-Michel%NULL%1,            Hugues%Georges%NULL%1,            Thomas%Caulier%NULL%1,            Gaël%Pradel%NULL%1,            Marie-Hélène%Hausermann%NULL%1,            ThiMy Hue%Nguyen-Valat%NULL%1,            Michel%Boudinaud%NULL%1,            Emmanuel%Vivier%NULL%1,            Sylvène%Rosseli%NULL%1,            Gaël%Bourdin%NULL%1,            Christian%Pommier%NULL%1,            Marc%Vinclair%NULL%1,            Simon%Poignant%NULL%1,            Sandrine%Mons%NULL%1,            Wulfran%Bougouin%NULL%1,            Franklin%Bruna%NULL%1,            Quentin%Maestraggi%NULL%1,            Christian%Roth%NULL%1,            Laurent%Bitker%NULL%1,            François%Dhelft%NULL%1,            Justine%Bonnet-Chateau%NULL%1,            Mathilde%Filippelli%NULL%1,            Tristan%Morichau-Beauchant%NULL%1,            Stéphane%Thierry%NULL%1,            Charlotte%Le Roy%NULL%1,            Mélanie%Saint Jouan%NULL%1,            Bruno%Goncalves%NULL%1,            Aurélien%Mazeraud%NULL%1,            Matthieu%Daniel%NULL%1,            Tarek%Sharshar%NULL%1,            Cyril%Cadoz%NULL%1,            Rostane%Gaci%NULL%1,            Sébastien%Gette%NULL%1,            Guillaune%Louis%NULL%1,            Sophe-Caroline%Sacleux%NULL%1,            Marie-Amélie%Ordan%NULL%1,            Aurélie%Cravoisy%NULL%1,            Marie%Conrad%NULL%1,            Guilhem%Courte%NULL%1,            Sébastien%Gibot%NULL%1,            Younès%Benzidi%NULL%1,            Claudia%Casella%NULL%1,            Laurent%Serpin%NULL%1,            Jean-Lou%Setti%NULL%1,            Marie-Catherine%Besse%NULL%1,            Anna%Bourreau%NULL%1,            Jérôme%Pillot%NULL%1,            Caroline%Rivera%NULL%1,            Camille%Vinclair%NULL%1,            Marie-Aline%Robaux%NULL%1,            Chloé%Achino%NULL%1,            Marie-Charlotte%Delignette%NULL%1,            Tessa%Mazard%NULL%1,            Frédéric%Aubrun%NULL%1,            Bruno%Bouchet%NULL%1,            Aurélien%Frérou%NULL%1,            Laura%Muller%NULL%1,            Charlotte%Quentin%NULL%1,            Samuel%Degoul%NULL%1,            Xavier%Stihle%NULL%1,            Claude%Sumian%NULL%1,            Nicoletta%Bergero%NULL%1,            Bernard%Lanaspre%NULL%1,            Hervé%Quintard%NULL%1,            Eve Marie%Maiziere%NULL%1,            Pierre-Yves%Egreteau%NULL%1,            Guillaume%Leloup%NULL%1,            Florin%Berteau%NULL%1,            Marjolaine%Cottrel%NULL%1,            Marie%Bouteloup%NULL%1,            Matthieu%Jeannot%NULL%1,            Quentin%Blanc%NULL%1,            Julien%Saison%NULL%1,            Isabelle%Geneau%NULL%1,            Romaric%Grenot%NULL%1,            Abdel%Ouchike%NULL%1,            Pascal%Hazera%NULL%1,            Anne-Lyse%Masse%NULL%1,            Suela%Demiri%NULL%1,            Corinne%Vezinet%NULL%1,            Elodie%Baron%NULL%1,            Déborah%Benchetrit%NULL%1,            Antoine%Monsel%NULL%1,            Grégoire%Trebbia%NULL%1,            Emmanuelle%Schaack%NULL%1,            Raphaël%Lepecq%NULL%1,            Mathieu%Bobet%NULL%1,            Christophe%Vinsonneau%NULL%1,            Thibault%Dekeyser%NULL%1,            Quentin%Delforge%NULL%1,            Imen%Rahmani%NULL%1,            Bérengère%Vivet%NULL%1,            Jonathan%Paillot%NULL%1,            Lucie%Hierle%NULL%1,            Claire%Chaignat%NULL%1,            Sarah%Valette%NULL%1,            Benoït%Her%NULL%1,            Jennifier%Brunet%NULL%1,            Mathieu%Page%NULL%1,            Fabienne%Boiste%NULL%1,            Anthony%Collin%NULL%1,            Florent%Bavozet%NULL%2,            Aude%Garin%NULL%1,            Mohamed%Dlala%NULL%1,            Kais%Mhamdi%NULL%1,            Bassem%Beilouny%NULL%1,            Alexandra%Lavalard%NULL%1,            Severine%Perez%NULL%1,            Benoit%Veber%NULL%1,            Pierre-Gildas%Guitard%NULL%1,            Philippe%Gouin%NULL%1,            Anna%Lamacz%NULL%1,            Fabienne%Plouvier%NULL%1,            Bertrand P.%Delaborde%NULL%1,            Aïssa%Kherchache%NULL%1,            Amina%Chaalal%NULL%1,            Jean-Damien%Ricard%NULL%1,            Marc%Amouretti%NULL%1,            Santiago%Freita-Ramos%NULL%1,            Damien%Roux%NULL%1,            Jean-Michel%Constantin%NULL%1,            Mona%Assefi%NULL%1,            Marine%Lecore%NULL%1,            Agathe%Selves%NULL%1,            Florian%Prevost%NULL%1,            Christian%Lamer%NULL%1,            Ruiying%Shi%NULL%1,            Lyes%Knani%NULL%1,            Sébastien%Pili-Floury%NULL%1,            Lucie%Vettoretti%NULL%1,            Michael%Levy%NULL%1,            Lucile%Marsac%NULL%1,            Stéphane%Dauger%NULL%1,            Sophie%Guilmin-Crépon%NULL%1,            Jean-Baptiste%Putegnat%NULL%1,            Frédérique%Bayle%NULL%1,            Maya%Perrou%NULL%1,            Ghyslaine%Thao%NULL%1,            Guillaume%Géri%NULL%1,            Cyril%Charron%NULL%1,            Xavier%Repessé%NULL%1,            Antoine%Vieillard-Baron%NULL%1,            Mathieu%Guilbart%NULL%1,            Pierre-Alexandre%Roger%NULL%1,            Sébastien%Hinard%NULL%1,            Pierre-Yves%Macq%NULL%1,            Kevin%Chaulier%NULL%1,            Sylvie%Goutte%NULL%1,            Patrick%Chillet%NULL%1,            Anaïs%Pitta%NULL%1,            Barbara%Darjent%NULL%1,            Amandine%Bruneau%NULL%1,            Sigismond%Lasocki%NULL%1,            Maxime%Leger%NULL%1,            Soizic%Gergaud%NULL%1,            Pierre%Lemarie%NULL%1,            Nicolas%Terzi%NULL%1,            Carole%Schwebel%NULL%1,            Anaïs%Dartevel%NULL%1,            Louis-Marie%Galerneau%NULL%1,            Jean-Luc%Diehl%NULL%1,            Caroline%Hauw-Berlemont%NULL%0,            Nicolas%Péron%NULL%1,            Emmanuel%Guérot%NULL%1,            Abolfazl Mohebbi%Amoli%NULL%1,            Michel%Benhamou%NULL%1,            Jean-Pierre%Deyme%NULL%1,            Olivier%Andremont%NULL%1,            Diane%Lena%NULL%1,            Julien%Cady%NULL%1,            Arnaud%Causeret%NULL%1,            Arnaud%De La Chapelle%NULL%1,            Christophe%Cracco%NULL%1,            Stéphane%Rouleau%NULL%1,            David%Schnell%NULL%1,            Cécile%Lory%NULL%1,            Thibault%Chapelle%NULL%1,            Vincent%Bruckert%NULL%1,            Julie%Garcia%NULL%1,            Abdlazize%Sahraoui%NULL%1,            Nathalie%Abbosh%NULL%1,            Caroline%Bornstain%NULL%1,            Pierre%Pernet%NULL%1,            Florent%Poirson%NULL%1,            Ahmed%Pasem%NULL%1,            Philippe%Karoubi%NULL%1,            Virginie%Poupinel%NULL%1,            Caroline%Gauthier%NULL%1,            François%Bouniol%NULL%1,            Philippe%Feuchere%NULL%1,            Florent%Bavozet%NULL%0,            Anne%Heron%NULL%1,            Serge%Carreira%NULL%1,            Malo%Emery%NULL%1,            Anne%Le Floch%NULL%1,            Luana%Giovannangeli%NULL%1,            Nicolas%Herzog%NULL%1,            Christophe%Giacardi%NULL%1,            Thibaut%Baudic%NULL%1,            Chloé%Thill%NULL%1,            Florence%Tubach%NULL%1,            Olivier%Lesieur%NULL%1,            Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,            Max W.%Adelman%NULL%2,            Maxwell A.%Hockstein%NULL%1,            Chad J.%Robichaux%NULL%1,            Johnathan A.%Edwards%NULL%1,            Jane C.%Fazio%NULL%1,            James M.%Blum%NULL%3,            Craig S.%Jabaley%NULL%2,            Mark%Caridi-Scheible%NULL%2,            Greg S.%Martin%NULL%2,            David J.%Murphy%NULL%3,            Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,          Antonelli%M.%coreGivesNoEmail%0,          Bellani%G.%coreGivesNoEmail%0,          Bonanomi%E.%coreGivesNoEmail%0,          Cabrini%L.%coreGivesNoEmail%0,          Carlesso%E.%coreGivesNoEmail%0,          Castelli%G.%coreGivesNoEmail%0,          Cattaneo%S.%coreGivesNoEmail%0,          Cecconi%M.%coreGivesNoEmail%0,          Cereda%D.%coreGivesNoEmail%0,          Colombo%S.%coreGivesNoEmail%0,          Coluccello%A.%coreGivesNoEmail%0,          Crescini%G.%coreGivesNoEmail%0,          Forastieri%Molinari A.%coreGivesNoEmail%0,          Foti%G.%coreGivesNoEmail%0,          Fumagalli%R.%coreGivesNoEmail%0,          Grasselli%G.%coreGivesNoEmail%0,          Greco%M.%coreGivesNoEmail%0,          Iotti%G. A.%coreGivesNoEmail%0,          Langer%T.%coreGivesNoEmail%0,          Latronico%N.%coreGivesNoEmail%0,          Lorini%F. L.%coreGivesNoEmail%0,          Mojoli%F.%coreGivesNoEmail%0,          Natalini%G.%coreGivesNoEmail%0,          Pesenti%A.%coreGivesNoEmail%0,          Pessina%C. M.%coreGivesNoEmail%0,          Ranieri%V. M.%coreGivesNoEmail%0,          Rech%R.%coreGivesNoEmail%0,          Rosano%A.%coreGivesNoEmail%0,          Scudeller%L.%coreGivesNoEmail%0,          Storti%E.%coreGivesNoEmail%0,          Thompson%B. T.%coreGivesNoEmail%0,          Tirani%M.%coreGivesNoEmail%0,          Villani%P. G.%coreGivesNoEmail%0,          Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,            Keum-Ju%Choi%NULL%1,            Sun Ha%Choi%NULL%1,            Shin Yup%Lee%NULL%1,            Kyung Chan%Kim%NULL%1,            Eun Jin%Kim%NULL%1,            Jaehee%Lee%NULL%2,            Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,            Siddique%Chaudhary%NULL%1,            Kevin%Bryan Lo%NULL%2,            Kevin%Bryan Lo%NULL%0,            Robert%DeJoy%NULL%1,            Fahad%Gul%NULL%1,            Ricardo%Torres%NULL%1,            Neal%Chaisson%NULL%2,            Neal%Chaisson%NULL%0,            Gabriel%Patarroyo-Aponte%NULL%2,            Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,            Bruno L.%Ferreyro%NULL%2,            Bruno L.%Ferreyro%NULL%0,            Federico%Angriman%NULL%1,            María%Hernández-Sanz%NULL%2,            Egoitz%Arruti%NULL%1,            Antoni%Torres%NULL%2,            Jesús%Villar%NULL%1,            Laurent%Brochard%NULL%1,            Carlos%Ferrando%NULL%2,            Ricard%Mellado-Artigas%NULL%1,            María%Hernández-Sanz%NULL%0,            Carlos%Ferrando%NULL%0,            Marina%Vendrell%NULL%1,            Gerard%Sánchez-Etayo%NULL%1,            Amalia%Alcón%NULL%1,            Isabel%Belda%NULL%1,            Mercé%Agustí%NULL%1,            Albert%Carramiñana%NULL%1,            Isabel%Gracia%NULL%1,            Miriam%Panzeri%NULL%1,            Irene%León%NULL%1,            Jaume%Balust%NULL%1,            Ricard%Navarro%NULL%2,            María José%Arguís%NULL%1,            María José%Carretero%NULL%1,            Cristina%Ibáñez%NULL%1,            Juan%Perdomo%NULL%1,            Antonio%López%NULL%1,            Manuel%López-Baamonde%NULL%1,            Tomás%Cuñat%NULL%1,            Marta%Ubré%NULL%1,            Antonio%Ojeda%NULL%1,            Andrea%Calvo%NULL%1,            Eva%Rivas%NULL%1,            Paola%Hurtado%NULL%1,            Roger%Pujol%NULL%1,            Nuria%Martín%NULL%1,            Javier%Tercero%NULL%1,            Pepe%Sanahuja%NULL%1,            Marta%Magaldi%NULL%1,            Miquel%Coca%NULL%1,            Elena%del Rio%NULL%1,            Julia%Martínez-Ocon%NULL%1,            Paula%Masgoret%NULL%1,            Monserrat%Tio%NULL%1,            Angel%Caballero%NULL%1,            Raquel%Risco%NULL%1,            Raquel%Bergé%NULL%1,            Lidia%Gómez%NULL%1,            Nicolás%de Riva%NULL%1,            Ana%Ruiz%NULL%1,            Beatriz%Tena%NULL%1,            Sebastián%Jaramillo%NULL%1,            José María%Balibrea%NULL%1,            Francisco Borja de Borja%de Lacy%NULL%1,            Ana%Otero%NULL%1,            Ainitze%Ibarzabal%NULL%1,            Raquel%Bravo%NULL%1,            Anna%Carreras%NULL%1,            Daniel%Martín-Barreda%NULL%1,            Alfonso Jesús%Alias%NULL%1,            Mariano%Balaguer%NULL%1,            Jorge%Aliaga%NULL%1,            Alex%Almuedo%NULL%1,            Joan Ramón%Alonso%NULL%1,            Rut%Andrea%NULL%1,            Gerard Sergi%Angelès%NULL%1,             Marilyn%Arias%NULL%1,            Fátima%Aziz%NULL%1,            Joan Ramon%Badía%NULL%1,            Enric%Barbeta%NULL%1,            Toni%Torres%NULL%1,            Guillem%Batiste%NULL%1,            Pau%Benet%NULL%1,            Xavi%Borrat%NULL%1,            María%Borrell%NULL%1,            Ernest%Bragulat%NULL%1,            Inmaculada%Carmona%NULL%1,            Manuel%Castellà%NULL%1,            Pedro%Castro%NULL%1,            Joan%Ceravalls%NULL%1,            Oscar%Comino%NULL%1,            Claudia%Cucciniello%NULL%1,            Clàudia%De Deray%NULL%1,            Oriol%De Diego%NULL%1,            Paula%De la Matta%NULL%1,            Marta%Farrero%NULL%1,            Javier%Fernández%NULL%1,            Sara%Fernández%NULL%1,            Anna%Fernández%NULL%1,            Miquel%Ferrer%NULL%1,            Ana%Fervienza%NULL%1,            María%Tallo Forga%NULL%1,            Daniel%Forné%NULL%1,            Clàudia%Galán%NULL%1,            Andrea%Gómez%NULL%1,            Eduard%Guasch%NULL%1,            María%Hernández-Tejero%NULL%1,            Adriana%Jacas%NULL%1,            Beltrán%Jiménez%NULL%1,            Pere%Leyes%NULL%1,            Teresa%López%NULL%1,            José Antonio%Martínez%NULL%1,            Graciela%Martínez-Pallí%NULL%1,            Jordi%Mercadal%NULL%1,            Guido%Muñoz%NULL%1,            José%Muñoz%NULL%1,            Ricard%Navarro%NULL%0,            Josep María%Nicolás%NULL%1,            José Tomás%Ortiz%NULL%1,            Anna%Peiró%NULL%1,            Manuel%Pérez%NULL%1,            Esteban%Poch%NULL%1,            Margarida%Pujol%NULL%1,            Eduard%Quintana%NULL%1,            Bartomeu%Ramis%NULL%1,            Enric%Reverter%NULL%1,            Irene%Rovira%NULL%1,            Pablo%Ruiz%NULL%1,            Elena%Sandoval%NULL%1,            Stefan%Schneider%NULL%1,            Oriol%Sibila%NULL%1,            Carla%Solé%NULL%1,            Alex%Soriano%NULL%1,            Dolors%Soy%NULL%1,            M.%Suárez%NULL%1,            Adrián%Téllez%NULL%1,            Néstor David%Toapanta%NULL%1,            Antoni%Torres%NULL%0,            Xavier%Urra%NULL%1,            César%Aldecoa%NULL%1,            Alicia%Bordell%NULL%1,            Silvia%Martín%NULL%1,            Judith%Andrés%NULL%1,            Alberto Martínez%Ruiz%NULL%1,            Gonzalo Tamayo%Medel%NULL%1,            Iñaki Bilbao Bilbao%Villasante%NULL%1,            Fernando Iturri%Clavero%NULL%1,            Covadonga Peralta%Álvarez%NULL%1,            Julia T.%Herrera Díez%NULL%1,            Andrea García%Trancho%NULL%1,            Iñaki Sainz %Mandiola%NULL%1,            Carmen Ruano%Suarez%NULL%1,            Angela Ruiz%Bocos%NULL%1,            Eneritz Urrutia%Izagirre%NULL%1,            Pablo Ortiz%de Urbina Fernández%NULL%1,            Naiara Apodaka%López%NULL%1,            Leire Prieto%Molano%NULL%1,            Eunate Ganuza%Martínez%NULL%1,            Iratxe Vallinas%Hidalgo%NULL%1,            Karmele%de Orte Sancho%NULL%1,            Celia González%Paniagua%NULL%1,            Gemma Ortiz%Labrador%NULL%1,            Mireia Pérez%Larrañaga%NULL%1,            Marta López%Miguelez%NULL%1,            Estíbaliz Bárcena%Andrés%NULL%1,            Erik Urutxurtu%Laureano%NULL%1,            Maria Jesús Maroño%Boedo%NULL%1,            Blanca Escontrela%Rodríguez%NULL%1,            Aitziber Ereñozaga%Camiruaga%NULL%1,            Deiene Lasuen%Aguirre%NULL%1,            Ainhoa Zabal%Maeztu%NULL%1,            Ane Guereca%Gala%NULL%1,            Iker Castelo%Korro%NULL%1,            Andrés Álvarez%Campo%NULL%1,            Alejandro Carcelen%Viana%NULL%1,            Alejandro Alberdi%Enríquez%NULL%1,            Xabier Ormazábal%Rementeria%NULL%1,            Alberto Sánchez%Campos%NULL%1,            Rosa Gutiérrez%Rico%NULL%1,            Pablo Barbier%Damborenea%NULL%1,            Marta Guerenabarrena%Momeñe%NULL%1,            Borja Cuesta%Ruiz%NULL%1,            Alejandro López%Rico%NULL%1,            Ana Rojo%Polo%NULL%1,            Covadonga García%Grijelmo%NULL%1,            Mikel Celorrio%Reta%NULL%1,            Eneko Martín%Arroyo%NULL%1,            Leire Artaza%Aparicio%NULL%1,            Iñaki Ituarte%Aspiazu%NULL%1,            Ane Igeregi%Basabe%NULL%1,            Itxaso Merino%Julian%NULL%1,            Isabel Diaz%Rico%NULL%1,            Maria Paz%Martínez%NULL%1,            Ramón%Adalia Bartolomé%NULL%1,            Luigi%Zattera%NULL%1,            Irina Adalid%Hernandez%NULL%1,            Leire Larrañaga%Altuna%NULL%1,            Aina Serrallonga%Castells%NULL%1,            Adriana Vílchez%Garcia%NULL%1,            María%Núñez%NULL%1,            Lorena%Román%NULL%1,            Isabel Ramos%Delgado%NULL%1,            Adela Benítez-Cano%Martínez%NULL%1,            Mireia Chanzá%Albert%NULL%1,            Juan Carlos Álvarez%García%NULL%1,            Luis Aguilera%Cuchillo%NULL%1,            Sandra Beltrán%de Heredia%NULL%1,            Jesús Carazo%Cordobés%NULL%1,            Carlos Alberto García%Bernedo%NULL%1,            Fernando Escolano%Villén%NULL%1,            Francisco Javier Redondo%Calvo%NULL%1,            Rubén Villazala%González%NULL%1,            Victor Baladron%González%NULL%1,            Patricia%Faba%NULL%1,            Omar%Montenegro%NULL%1,            Natalia Bejarano%Ramírez%NULL%1,            Sergio Marcos%Contreras%NULL%1,            Alejandro Garcia%Rodríguez%NULL%1,            Saleta Rey%Vázquez%NULL%1,            Cristina Garcia%Pérez%NULL%1,            Eva Higuera%Miguelez%NULL%1,            Irene Pérez%Blanco%NULL%1,            David García%Rivera%NULL%1,            Ane Martín%de la Fuente%NULL%1,            Marta%Pardo%NULL%1,            Vanessa%Rodriguez%NULL%1,            Unai%Bengoetxea%NULL%1,            Fernando%Ramasco%NULL%1,            Sheila Olga Santidrián%Bernal%NULL%1,            Alvar Santa Cruz%Hernando%NULL%1,            Antonio Planas%Roca%NULL%1,            Carlos Figueroa%Yusta%NULL%1,            Esther García%Villabona%NULL%1,            Carmen Vallejo%Lantero%NULL%1,            Eva Patiño%Rodriguez%NULL%1,            Alvaro Esquivel%Toledo%NULL%1,            David Arribas%Méndez%NULL%1,            Mar Orts%Rodriguez%NULL%1,            Rosa Méndez%Hernández%NULL%1,            Jesús Nieves%Alonso%NULL%1,            Inés Imaz%Artazcoz%NULL%1,            Sonia Expósito%Carazo%NULL%1,            Carlos Román%Guerrero%NULL%1,            Elena Rojo%Rodríguez%NULL%1,            Ricardo Moreno%González%NULL%1,            Julia Hernando%Santos%NULL%1,            Jara Torrente%Pérez%NULL%1,            Esperanza Mata%Mena%NULL%1,            Manuel José Muñoz%Martínez%NULL%1,            Enrique Alday%Muñoz%NULL%1,            Patricia Martin%Serrano%NULL%1,            Laura Cotter%Muñoz%NULL%1,            Amadea%Mjertan%NULL%1,            Diego Gutierrez%Martínez%NULL%1,            Carmen Rodríguez%García%NULL%1,            Olaya Alonso%Viejo%NULL%1,            Juan Alvarez%Pereira%NULL%1,            Ana Carmona%Bonet%NULL%1,            Diana Parrado%López%NULL%1,            Eva%de Dios Tomas%NULL%1,            Rafael Martín%Celemin%NULL%1,            María Luisa Meilan%Paz%NULL%1,            Luis Quecedo%Gutiérrez%NULL%1,            Noemí Diaz%Velasco%NULL%1,            Gabriel Martin%Hernández%NULL%1,            Francisco Garcia%del Corral%NULL%1,            Gloria Hernandez%Arias%NULL%1,            David Rodriguez%Cuesta%NULL%1,            Ana Gómez%Rice%NULL%1,            Encarna Mateos%Sevillano%NULL%1,            Natalia Olmos%Molpeceres%NULL%1,            Beatriz%Domínguez%NULL%1,            Ana Vázquez%Lima%NULL%1,            Ángel%Candela%NULL%1,            Ismael A. Acevedo%Bambaren%NULL%1,            Maria Isabel Albala%Blanco%NULL%1,            Paloma Alonso%Montoiro%NULL%1,            Fernando Álvarez%Utrera%NULL%1,            Juan Avellanosa%Esteruelas%NULL%1,            Amal Azzam%López%NULL%1,            Alberto José%Balvis%NULL%1,            Balvis Tommaso%Bardi%NULL%1,            María Beltrán%Martín%NULL%1,            Jacobo Benatar%Haserfaty%NULL%1,            Alberto Berruezo%Camacho%NULL%1,            Laura Betolaza%Weimer%NULL%1,            María%del Mar Carbonell Soto%NULL%1,            Cristina Carrasco%Seral%NULL%1,            Cristina Cerro %Zaballos%NULL%1,            Elizabeth Claros%Llamas%NULL%1,            Pilar Coleta%Orduna%NULL%1,            Ingrid P. Cortes%Forero%NULL%1,            Pascual Agustín Crespo%Aliseda%NULL%1,            María Angélica%de Pablo Pajares%NULL%1,            Yolanda Díez%Remesal%NULL%1,            Trinidad Dorado%Díaz%NULL%1,            Noemí Echevarría%Blasco%NULL%1,            María Elena Elías%Martín%NULL%1,            Javier Felices%Triviño%NULL%1,            Natalia Fernández%López%NULL%1,            Cristina Fernández%Martín%NULL%1,            Natalia Ferreiro%Pozuelo%NULL%1,            Luis Gajate%Martín%NULL%1,            Clara Gallego%Santos%NULL%1,            Diego Gil%Mayo%NULL%1,            María Gómez%Rojo%NULL%1,            Claudia González%Cibrián%NULL%1,            Elena Herrera%López%NULL%1,            Borja Hinojal%Olmedillo%NULL%1,            Berta Iglesias%Gallego%NULL%1,            Sassan%Khonsari%NULL%1,            María Nuria Mane%Ruiz%NULL%1,            María Manzanero%Arroyo%NULL%1,            Ana María Mariscal%Ortega%NULL%1,            Sara Martín%Burcio%NULL%1,            María%del Carmen Martín González%NULL%1,            Ascensión Martín%Grande%NULL%1,            Jose Juan Martín%López%NULL%1,            Cecilia Martín%Rabes%NULL%1,            Marcos Martínez%Borja%NULL%1,            Nilda Martínez%Castro%NULL%1,            Adolfo Martínez%Pérez%NULL%1,            Snejana%Matcan%NULL%1,            Cristina Medrano%Viñas%NULL%1,            Lisset Miguel%Herrera%NULL%1,            Adrián Mira%Betancur%NULL%1,            María Montiel%Carbajo%NULL%1,            Javier Moya%Moradas%NULL%1,            Lorena Muñoz%Pérez%NULL%1,            Mónica Nuñez%Murias%NULL%1,            Eva Ordiales%González%NULL%1,            Óscar Ordoñez%Recio%NULL%1,            Miguel Ángel Palomero%Rodriguez%NULL%1,            Diego Parise%Roux%NULL%1,            Lucia Pereira%Torres%NULL%1,            David Pestaña%Lagunas%NULL%1,            Juana María Pinto%Corraliza%NULL%1,            Marian Prieto%Rodrigo%NULL%1,            Inmaculada Rodriguez%Diaz-Regaño%NULL%1,            David Rodriguez%Esteban%NULL%1,            Víctor Rojas%Pernia%NULL%1,            Álvaro Ruigómez%Saiz%NULL%1,            Bárbara Saavedra%Villarino%NULL%1,            Noemí Samaranch%Palero%NULL%1,            Gloria Santos%Pérez%NULL%1,            Jaume Serna%Pérez%NULL%1,            Ana Belén Serrano%Romero%NULL%1,            Jesús Tercero%López%NULL%1,            Carlos Tiscar%García%NULL%1,            Marta%de la Torre Concostrina%NULL%1,            Eva María Ureta%Mesa%NULL%1,            Eva Velasco%Olarte%NULL%1,            Judith Villahoz%Martínez%NULL%1,            Raúl Villalaba%Palacios%NULL%1,            Gema Villanueva%García%NULL%1,            Cristina Vogel%de Medeiros%NULL%1,            Soraya Gholamian%Ovejero%NULL%1,            Marta Vicente%Orgaz%NULL%1,            Patricia Lloreda%Herradon%NULL%1,            Cristina Crespo%Gómez%NULL%1,            Tatiana%Sarmiento-Trujillo%NULL%1,            Noemí García%Medina%NULL%1,            María Martínez%García%NULL%1,            Carles Espinós%Ramírez%NULL%1,            Nabil Mouhaffel%Rivero%NULL%1,            Jose Antonio Bernia%Gil%NULL%1,            Sonsoles%Martín%NULL%1,            María Victoria%Moral%NULL%1,            Josefina%Galán%NULL%1,            Pilar%Paniagua%NULL%1,            Sergio%Pérez%NULL%1,            Albert%Bainac%NULL%1,            Ana%Arias%NULL%1,            Elsa%Ramil%NULL%1,            Jorge%Escudero%NULL%1,            Pablo%Monedero%NULL%1,            Carmen%Cara%NULL%1,            Andrea%Lara%NULL%1,            Elena Mendez%Martínez%NULL%1,            Jorge%Mendoza%NULL%1,            Íñigo Rubio%Baines%NULL%1,            Carmen Sala%Trull%NULL%1,            Pablo Montero%López%NULL%1,            Alfredo%Gea%NULL%1,            Alejandro%Montero%NULL%1,            Rocío Armero%Ibañez%NULL%1,            Juan Vicente Llau%Pitarch%NULL%1,            Fernando Rauer%Alcóver%NULL%1,            Cristina Álvarez%Herreros%NULL%1,            Cyntia Sánchez%Martín%NULL%1,            Lucía López Ocáriz%Olmos%NULL%1,            Marta Navas%Moruno%NULL%1,            Fernando García%Montoto%NULL%1,            M. F. Mirón%Rodriguez%NULL%1,            Laura Fuentes%Coco%NULL%1,            Cristina Hernández%Gamito%NULL%1,            Antonio Barba%Orejudo%NULL%1,            Luis Gerardo Smith%Vielma%NULL%1,            Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,            Marta Donoso%Domínguez%NULL%1,            Silvia Esquivel%Ramírez%NULL%1,            José Antonio%Carbonell%NULL%1,            Berta Monleón%López%NULL%1,            Sara%Martínez-Castro%NULL%1,            Gerardo%Aguilar%NULL%1,            María Gestal Pablo%Casas%NULL%1,            Angel Outeiro%Rosato%NULL%1,            Andrea Naveiro%Pan%NULL%1,            María Alonso%Portela%NULL%1,            Adrián García%Romar%NULL%1,            Eva Mosquera%Rodríguez%NULL%1,            Diego Ruanova%Seijo%NULL%1,            Pablo Rama%Maceiras%NULL%1,            Francisco%Castro-Ceoane%NULL%1,            Esther Moreno%López%NULL%1,            Sergio%Gil%NULL%1,            Julia Guillén%Antón%NULL%1,            Patricia García-Consuegra%Tirado%NULL%1,            Aurora Callau%Calvo%NULL%1,            Laura Forés%Lisbona%NULL%1,            María Carbonell%Romero%NULL%1,            Belén Albericio%Gil%NULL%1,            Laura Pradal%Jarne%NULL%1,            María Soria%Lozano%NULL%1,            Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,            Navjot Ariyana%Kaur%NULL%1,            Daniel%Sacher%NULL%1,            Oisin%O’Corragain%NULL%1,            Daniel%Salerno%NULL%1,            Parag%Desai%NULL%1,            Sameep%Sehgal%NULL%1,            Matthew%Gordon%NULL%2,            Rohit%Gupta%NULL%2,            Nathaniel%Marchetti%NULL%1,            Huaqing%Zhao%NULL%2,            Nicole%Patlakh%NULL%2,            Gerard J.%Criner%NULL%1,            Temple%University%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,            Dominik%Jarczak%NULL%1,            Liina%Thasler%NULL%1,            Martin%Bachmann%NULL%1,            Frank%Schulte%NULL%1,            Berthold%Bein%NULL%1,            Christian Friedrich%Weber%NULL%1,            Ulrich%Schäfer%NULL%1,            Carsten%Veit%NULL%1,            Hans-Peter%Hauber%NULL%1,            Sebastian%Kopp%NULL%1,            Karsten%Sydow%NULL%1,            Andreas%de Weerth%NULL%0,            Marc%Bota%NULL%1,            Rüdiger%Schreiber%NULL%1,            Oliver%Detsch%NULL%1,            Jan-Peer%Rogmann%NULL%1,            Daniel%Frings%NULL%0,            Barbara%Sensen%NULL%1,            Christoph%Burdelski%NULL%0,            Olaf%Boenisch%NULL%1,            Axel%Nierhaus%NULL%0,            Geraldine%de Heer%NULL%0,            Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1267,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1182,7 +1296,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1211,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1240,7 +1354,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1266,10 +1380,10 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1298,7 +1412,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1327,7 +1441,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1356,7 +1470,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1385,7 +1499,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1411,10 +1525,10 @@
         <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1443,7 +1557,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1472,7 +1586,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="229">
   <si>
     <t>Doi</t>
   </si>
@@ -871,6 +871,42 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,            Dominik%Jarczak%NULL%1,            Liina%Thasler%NULL%1,            Martin%Bachmann%NULL%1,            Frank%Schulte%NULL%1,            Berthold%Bein%NULL%1,            Christian Friedrich%Weber%NULL%1,            Ulrich%Schäfer%NULL%1,            Carsten%Veit%NULL%1,            Hans-Peter%Hauber%NULL%1,            Sebastian%Kopp%NULL%1,            Karsten%Sydow%NULL%1,            Andreas%de Weerth%NULL%0,            Marc%Bota%NULL%1,            Rüdiger%Schreiber%NULL%1,            Oliver%Detsch%NULL%1,            Jan-Peer%Rogmann%NULL%1,            Daniel%Frings%NULL%0,            Barbara%Sensen%NULL%1,            Christoph%Burdelski%NULL%0,            Olaf%Boenisch%NULL%1,            Axel%Nierhaus%NULL%0,            Geraldine%de Heer%NULL%0,            Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,             Paolo%Comassi%NULL%1,             Luca%Adriani%NULL%1,             Giulio%Bergamaschini%NULL%1,             Elena%Bertin%NULL%1,             Raffaella%Borromeo%NULL%1,             Serena%Corti%NULL%1,             Federica%De Petri%NULL%1,             Francesco%Dolci%NULL%1,             Attilio%Galmozzi%NULL%1,             Alberto%Gigliotti%NULL%1,             Livio%Gualdoni%NULL%1,             Claudia%Guerra%NULL%1,             Anna%Khosthiova%NULL%1,             Giovanni%Leati%NULL%1,             Giuseppe%Lupi%NULL%1,             Paolo%Moscato%NULL%1,             Vittorio%Perotti%NULL%1,             Miriam%Piantelli%NULL%1,             Alain%Ruini%NULL%1,             Silvia%Sportelli%NULL%1,             Micaela%Susca%NULL%1,             Carmine%Troiano%NULL%1,             Giampaolo%Benelli%NULL%1,             Elisabetta%Buscarini%NULL%1,             Ciro%Canetta%NULL%1,             Guido%Merli%NULL%1,             Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,             Emna%Ennouri%NULL%1,             Rayane%Nachi%NULL%1,             Khaoula%Meddeb%NULL%1,             Jihene%Mahmoud%NULL%1,             Nesrine%Thabet%NULL%1,             Salma%Jerbi%NULL%1,             Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,             Eleni%Xourgia%NULL%1,             Theodora K.%Ntaidou%NULL%1,             Dimitris%Zervakis%NULL%1,             Eleni E.%Magira%NULL%1,             Anastasia%Kotanidou%NULL%1,             Christina%Routsi%NULL%1,             Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,             Carina%Mostert%NULL%1,             Corinna%Hentschker%NULL%1,             Thomas%Voshaar%NULL%1,             Jürgen%Malzahn%NULL%1,             Gerhard%Schillinger%NULL%1,             Jürgen%Klauber%NULL%1,             Uwe%Janssens%NULL%1,             Gernot%Marx%NULL%1,             Steffen%Weber-Carstens%NULL%1,             Stefan%Kluge%NULL%0,             Michael%Pfeifer%NULL%1,             Linus%Grabenhenrich%NULL%1,             Tobias%Welte%NULL%1,             Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,             David%Hajage%NULL%2,             David%Hajage%NULL%0,             Alexandre%Demoule%NULL%1,             Tài%Pham%NULL%1,             Alain%Combes%NULL%1,             Martin%Dres%NULL%1,             Said%Lebbah%NULL%1,             Antoine%Kimmoun%NULL%1,             Alain%Mercat%NULL%1,             Gaëtan%Beduneau%NULL%1,             Jessica%Palmyre%NULL%1,             Margot%Prevost%NULL%1,             Pierre%Asfar%NULL%1,             François%Beloncle%NULL%1,             Julien%Demiselle%NULL%1,             Arthur%Pavot%NULL%1,             Xavier%Monnet%NULL%1,             Christian%Richard%NULL%1,             Julien%Mayaux%NULL%1,             Alexandra%Beurton%NULL%1,             Richard%Descamps%NULL%1,             Aurélie%Joret%NULL%1,             Damien%Du Cheyron%NULL%1,             Frédéric%Pene%NULL%1,             Jean-Daniel%Chiche%NULL%1,             Mathieu%Jozwiak%NULL%1,             Paul%Jaubert%NULL%1,             Guillaume%Voiriot%NULL%1,             Muriel%Fartoukh%NULL%1,             Marion%Teulier%NULL%1,             Clarisse%Blayau%NULL%1,             Erwen%L’Her%NULL%1,             Cécile%Aubron%NULL%1,             Laetitia%Bodenes%NULL%1,             Nicolas%Ferriere%NULL%1,             Johann%Auchabie%NULL%1,             Anthony%Le Meur%NULL%1,             Sylvain%Pignal%NULL%1,             Thierry%Mazzoni%NULL%1,             Jean-Pierre%Quenot%NULL%1,             Pascal%Andreu%NULL%1,             Jean-Baptiste%Roudau%NULL%1,             Marie%Labruyère%NULL%1,             Saad%Nseir%NULL%0,             Sébastien%Preau%NULL%1,             Julien%Poissy%NULL%0,             Daniel%Mathieu%NULL%0,             Sarah%Benhamida%NULL%1,             Rémi%Paulet%NULL%1,             Nicolas%Roucaud%NULL%1,             Martial%Thyrault%NULL%1,             Florence%Daviet%NULL%1,             Sami%Hraiech%NULL%1,             Gabriel%Parzy%NULL%1,             Aude%Sylvestre%NULL%1,             Sébastien%Jochmans%NULL%1,             Anne-Laure%Bouilland%NULL%1,             Mehran%Monchi%NULL%1,             Marc%Danguy des Déserts%NULL%1,             Quentin%Mathais%NULL%1,             Gwendoline%Rager%NULL%1,             Pierre%Pasquier%NULL%1,             Reignier%Jean%NULL%1,             Seguin%Amélie%NULL%1,             Garret%Charlotte%NULL%1,             Canet%Emmanuel%NULL%1,             Jean%Dellamonica%NULL%1,             Clément%Saccheri%NULL%1,             Romain%Lombardi%NULL%1,             Yanis%Kouchit%NULL%1,             Sophie%Jacquier%NULL%1,             Armelle%Mathonnet%NULL%1,             Mai-Ahn%Nay%NULL%1,             Isabelle%Runge%NULL%1,             Frédéric%Martino%NULL%1,             Laure%Flurin%NULL%1,             Amélie%Rolle%NULL%1,             Michel%Carles%NULL%1,             Rémi%Coudroy%NULL%1,             Arnaud W.%Thille%NULL%1,             Jean-Pierre%Frat%NULL%1,             Maeva%Rodriguez%NULL%1,             Pascal%Beuret%NULL%1,             Audrey%Tientcheu%NULL%1,             Arthur%Vincent%NULL%1,             Florian%Michelin%NULL%1,             Marie Anne%Melone%NULL%1,             Maxime%Gauzi%NULL%1,             Arnaud%Guilbert%NULL%1,             Geoffrey%Kouadri%NULL%1,             Valérie%Gissot%NULL%1,             Stéphan%Ehrmann%NULL%1,             Charlotte%Salmon-Gandonnière%NULL%1,             Djlali%Elaroussi%NULL%1,             Agathe%Delbove%NULL%1,             Yannick%Fedun%NULL%1,             Julien%Huntzinger%NULL%1,             Eddy%Lebas%NULL%1,             Grâce%Kisoka%NULL%1,             Céline%Grégoire%NULL%1,             Stella%Marchetta%NULL%1,             Bernard%Lambermont%NULL%1,             Laurent%Argaud%NULL%1,             Thomas%Baudry%NULL%1,             Pierre-Jean%Bertrand%NULL%1,             Auguste%Dargent%NULL%1,             Christophe%Guitton%NULL%1,             Nicolas%Chudeau%NULL%1,             Mickaël%Landais%NULL%1,             Cédric%Darreau%NULL%1,             Alexis%Ferre%NULL%1,             Antoine%Gros%NULL%1,             Guillaume%Lacave%NULL%1,             Fabrice%Bruneel%NULL%1,             Mathilde%Neuville%NULL%1,             Jérôme%Devaquet%NULL%1,             Guillaume%Tachon%NULL%1,             Richard%Gallot%NULL%1,             Riad%Chelha%NULL%1,             Arnaud%Galbois%NULL%1,             Anne%Jallot%NULL%1,             Ludivine Chalumeau%Lemoine%NULL%1,             Khaldoun%Kuteifan%NULL%1,             Valentin%Pointurier%NULL%1,             Louise-Marie%Jandeaux%NULL%1,             Joy%Mootien%NULL%1,             Charles%Damoisel%NULL%1,             Benjamin%Sztrymf%NULL%1,             Juliette%Chommeloux%NULL%1,             Charles Edouard%Luyt%NULL%1,             Frédérique%Schortgen%NULL%1,             Leon%Rusel%NULL%1,             Camille%Jung%NULL%1,             Florent%Gobert%NULL%1,             Damien%Vimpere%NULL%1,             Lionel%Lamhaut%NULL%1,             Bertrand%Sauneuf%NULL%1,             Liliane%Charrier%NULL%1,             Julien%Calus%NULL%1,             Isabelle%Desmeules%NULL%1,             Benoît%Painvin%NULL%1,             Jean-Marc%Tadie%NULL%1,             Vincent%Castelain%NULL%1,             Baptiste%Michard%NULL%1,             Jean-Etienne%Herbrecht%NULL%1,             Mathieu%Baldacini%NULL%1,             Nicolas%Weiss%NULL%1,             Sophie%Demeret%NULL%1,             Clémence%Marois%NULL%1,             Benjamin%Rohaut%NULL%1,             Pierre-Henri%Moury%NULL%1,             Anne-Charlotte%Savida%NULL%1,             Emmanuel%Couadau%NULL%1,             Mathieu%Série%NULL%1,             Nica%Alexandru%NULL%1,             Cédric%Bruel%NULL%1,             Candice%Fontaine%NULL%1,             Sonia%Garrigou%NULL%1,             Juliette Courtiade%Mahler%NULL%1,             Maxime%Leclerc%NULL%1,             Michel%Ramakers%NULL%1,             Pierre%Garçon%NULL%1,             Nicole%Massou%NULL%1,             Ly Phacs%Van Vong%NULL%1,             Juliane%Sen%NULL%1,             Nolwenn%Lucas%NULL%1,             Franck%Chemouni%NULL%1,             Annabelle%Stoclin%NULL%1,             Alexandre%Avenel%NULL%1,             Henri%Faure%NULL%1,             Angélie%Gentilhomme%NULL%1,             Sylvie%Ricome%NULL%1,             Paul%Abraham%NULL%1,             Céline%Monard%NULL%1,             Julien%Textoris%NULL%1,             Thomas%Rimmele%NULL%1,             Florent%Montini%NULL%1,             Gabriel%Lejour%NULL%1,             Thierry%Lazard%NULL%1,             Isabelle%Etienney%NULL%1,             Younes%Kerroumi%NULL%1,             Dupuis%Claire%NULL%1,             Bereiziat Marine%Coupez%NULL%1,             Thouy%François%NULL%1,             Clémet%Hoffmann%NULL%1,             Nicolas%Donat%NULL%1,             Violaine%Muller%NULL%1,             Thibault%Martinez%NULL%1,             Audrey%Jacquot%NULL%1,             Matthieu%Mattei%NULL%1,             Bruno%Levy%NULL%1,             Ramin%Ravan%NULL%1,             Loïc%Dopeux%NULL%1,             Jean-Mathias%Liteaudon%NULL%1,             Delphine%Roux%NULL%1,             Brice%Rey%NULL%1,             Radu%Anghel%NULL%1,             Deborah%Schenesse%NULL%1,             Vincent%Gevrey%NULL%1,             Jermy%Castanera%NULL%1,             Philippe%Petua%NULL%1,             Benjamin%Madeux%NULL%1,             Otto%Hartman%NULL%1,             Michael%Piagnerelli%NULL%1,             Anne%Joosten%NULL%1,             Cinderella%Noel%NULL%1,             Patrick%Biston%NULL%1,             Thibaut%Noel%NULL%1,             Gurvan L. E.%Bouar%NULL%1,             Messabi%Boukhanza%NULL%1,             Elsa%Demarest%NULL%1,             Marie-France%Bajolet%NULL%1,             Nathanaël%Charrier%NULL%1,             Audrey%Quenet%NULL%1,             Cécile%Zylberfajn%NULL%1,             Nicolas%Dufour%NULL%1,             Buno%Mégarbane%NULL%1,             Sqébastian%Voicu%NULL%1,             Nicolas%Deye%NULL%1,             Isabelle%Malissin%NULL%1,             François%Legay%NULL%1,             Matthieu%Debarre%NULL%1,             Nicolas%Barbarot%NULL%1,             Pierre%Fillatre%NULL%1,             Bertrand%Delord%NULL%1,             Thomas%Laterrade%NULL%1,             Tahar%Saghi%NULL%1,             Wilfried%Pujol%NULL%1,             Pierre Julien%Cungi%NULL%1,             Pierre%Esnault%NULL%1,             Mickael%Cardinale%NULL%1,             Vivien%Hong Tuan Ha%NULL%1,             Grégory%Fleury%NULL%1,             Marie-Ange%Brou%NULL%1,             Daniel%Zafimahazo%NULL%1,             David%Tran-Van%NULL%1,             Patrick%Avargues%NULL%1,             Lisa%Carenco%NULL%1,             Nicolas%Robin%NULL%1,             Alexandre%Ouali%NULL%1,             Lucie%Houdou%NULL%1,             Christophe%Le Terrier%NULL%1,             Noémie%Suh%NULL%1,             Steve%Primmaz%NULL%1,             Jérome%Pugin%NULL%1,             Emmanuel%Weiss%NULL%1,             Tobias%Gauss%NULL%1,             Jean-Denis%Moyer%NULL%1,             Catherine%Paugam-Burtz%NULL%1,             Béatrice%La Combe%NULL%1,             Rolland%Smonig%NULL%1,             Jade%Violleau%NULL%1,             Pauline%Cailliez%NULL%1,             Jonathan%Chelly%NULL%1,             Antoine%Marchalot%NULL%1,             Cécile%Saladin%NULL%1,             Christelle%Bigot%NULL%1,             Pierre-Marie%Fayolle%NULL%1,             Jules%Fatséas%NULL%1,             Amr%Ibrahim%NULL%1,             Dabor%Resiere%NULL%1,             Rabih%Hage%NULL%1,             Clémentine%Cholet%NULL%1,             Marie%Cantier%NULL%1,             Pierre%Trouiller%NULL%1,             Philippe%Montravers%NULL%1,             Brice%Lortat-Jacob%NULL%1,             Sebastien%Tanaka%NULL%1,             Alexy%Tran-Dinh%NULL%1,             Jacques%Duranteau%NULL%1,             Anatole%Harrois%NULL%1,             Guillaume%Dubreuil%NULL%1,             Marie%Werner%NULL%1,             Anne%Godier%NULL%1,             Sophie%Hamada%NULL%1,             Diane%Zlotnik%NULL%1,             Hélène%Nougue%NULL%1,             Armand%Mekontso-Dessap%NULL%1,             Guillaume%Carteaux%NULL%1,             Keyvan%Razazi%NULL%1,             Nicolas%De Prost%NULL%1,             Nicolas%Mongardon%NULL%1,             Olivier%Langeron%NULL%1,             Eric%Levesque%NULL%1,             Arié%Attias%NULL%1,             Charles%de Roquetaillade%NULL%1,             Benjamin G.%Chousterman%NULL%1,             Alexandre%Mebazaa%NULL%1,             Etienne%Gayat%NULL%1,             Marc%Garnier%NULL%1,             Emmanuel%Pardo%NULL%1,             Lea%Satre-Buisson%NULL%1,             Christophe%Gutton%NULL%1,             Elise%Yvin%NULL%1,             Clémence%Marcault%NULL%1,             Elie%Azoulay%NULL%1,             Michael%Darmon%NULL%1,             Nicolas%Bonnet%NULL%1,             Nathan%Ebstein%NULL%1,             Stéphane%Gaudry%NULL%1,             Yves%Cohen%NULL%1,              Hafid%Ait-Oufella%NULL%1,             Geoffroy%Hariri%NULL%1,             Tomas%Urbina%NULL%1,             Sandie%Mazerand%NULL%1,             Nicholas%Heming%NULL%1,             Francesca%Santi%NULL%1,             Pierre%Moine%NULL%1,             Djillali%Annane%NULL%1,             Adrien%Bouglé%NULL%1,             Edris%Omar%NULL%1,             Aymeric%Lancelot%NULL%1,             Emmanuelle%Begot%NULL%1,             Gaétan%Plantefeve%NULL%1,             Damien%Contou%NULL%1,             Hervé%Mentec%NULL%1,             Olivier%Pajot%NULL%1,             Stanislas%Faguer%NULL%1,             Olivier%Cointault%NULL%1,             Laurence%Lavayssiere%NULL%1,             Marie-Béatrice%Nogier%NULL%1,             Matthieu%Jamme%NULL%1,             Claire%Pichereau%NULL%1,             Jan%Hayon%NULL%1,             Hervé%Outin%NULL%1,             François%Dépret%NULL%1,             Maxime%Coutrot%NULL%1,             Maité%Chaussard%NULL%1,             Lucie%Guillemet%NULL%1,             Pierre%Goffin%NULL%1,             Romain%Thouny%NULL%1,             Julien%Guntz%NULL%1,             Laurent%Jadot%NULL%1,             Romain%Persichini%NULL%1,             Vanessa%Jean-Michel%NULL%1,             Hugues%Georges%NULL%1,             Thomas%Caulier%NULL%1,             Gaël%Pradel%NULL%1,             Marie-Hélène%Hausermann%NULL%1,             ThiMy Hue%Nguyen-Valat%NULL%1,             Michel%Boudinaud%NULL%1,             Emmanuel%Vivier%NULL%1,             Sylvène%Rosseli%NULL%1,             Gaël%Bourdin%NULL%1,             Christian%Pommier%NULL%1,             Marc%Vinclair%NULL%1,             Simon%Poignant%NULL%1,             Sandrine%Mons%NULL%1,             Wulfran%Bougouin%NULL%1,             Franklin%Bruna%NULL%1,             Quentin%Maestraggi%NULL%1,             Christian%Roth%NULL%1,             Laurent%Bitker%NULL%1,             François%Dhelft%NULL%1,             Justine%Bonnet-Chateau%NULL%1,             Mathilde%Filippelli%NULL%1,             Tristan%Morichau-Beauchant%NULL%1,             Stéphane%Thierry%NULL%1,             Charlotte%Le Roy%NULL%1,             Mélanie%Saint Jouan%NULL%1,             Bruno%Goncalves%NULL%1,             Aurélien%Mazeraud%NULL%1,             Matthieu%Daniel%NULL%1,             Tarek%Sharshar%NULL%1,             Cyril%Cadoz%NULL%1,             Rostane%Gaci%NULL%1,             Sébastien%Gette%NULL%1,             Guillaune%Louis%NULL%1,             Sophe-Caroline%Sacleux%NULL%1,             Marie-Amélie%Ordan%NULL%1,             Aurélie%Cravoisy%NULL%1,             Marie%Conrad%NULL%1,             Guilhem%Courte%NULL%1,             Sébastien%Gibot%NULL%1,             Younès%Benzidi%NULL%1,             Claudia%Casella%NULL%1,             Laurent%Serpin%NULL%1,             Jean-Lou%Setti%NULL%1,             Marie-Catherine%Besse%NULL%1,             Anna%Bourreau%NULL%1,             Jérôme%Pillot%NULL%1,             Caroline%Rivera%NULL%1,             Camille%Vinclair%NULL%1,             Marie-Aline%Robaux%NULL%1,             Chloé%Achino%NULL%1,             Marie-Charlotte%Delignette%NULL%1,             Tessa%Mazard%NULL%1,             Frédéric%Aubrun%NULL%1,             Bruno%Bouchet%NULL%1,             Aurélien%Frérou%NULL%1,             Laura%Muller%NULL%1,             Charlotte%Quentin%NULL%1,             Samuel%Degoul%NULL%1,             Xavier%Stihle%NULL%1,             Claude%Sumian%NULL%1,             Nicoletta%Bergero%NULL%1,             Bernard%Lanaspre%NULL%1,             Hervé%Quintard%NULL%1,             Eve Marie%Maiziere%NULL%1,             Pierre-Yves%Egreteau%NULL%1,             Guillaume%Leloup%NULL%1,             Florin%Berteau%NULL%1,             Marjolaine%Cottrel%NULL%1,             Marie%Bouteloup%NULL%1,             Matthieu%Jeannot%NULL%1,             Quentin%Blanc%NULL%1,             Julien%Saison%NULL%1,             Isabelle%Geneau%NULL%1,             Romaric%Grenot%NULL%1,             Abdel%Ouchike%NULL%1,             Pascal%Hazera%NULL%1,             Anne-Lyse%Masse%NULL%1,             Suela%Demiri%NULL%1,             Corinne%Vezinet%NULL%1,             Elodie%Baron%NULL%1,             Déborah%Benchetrit%NULL%1,             Antoine%Monsel%NULL%1,             Grégoire%Trebbia%NULL%1,             Emmanuelle%Schaack%NULL%1,             Raphaël%Lepecq%NULL%1,             Mathieu%Bobet%NULL%1,             Christophe%Vinsonneau%NULL%1,             Thibault%Dekeyser%NULL%1,             Quentin%Delforge%NULL%1,             Imen%Rahmani%NULL%1,             Bérengère%Vivet%NULL%1,             Jonathan%Paillot%NULL%1,             Lucie%Hierle%NULL%1,             Claire%Chaignat%NULL%1,             Sarah%Valette%NULL%1,             Benoït%Her%NULL%1,             Jennifier%Brunet%NULL%1,             Mathieu%Page%NULL%1,             Fabienne%Boiste%NULL%1,             Anthony%Collin%NULL%1,             Florent%Bavozet%NULL%2,             Aude%Garin%NULL%1,             Mohamed%Dlala%NULL%1,             Kais%Mhamdi%NULL%1,             Bassem%Beilouny%NULL%1,             Alexandra%Lavalard%NULL%1,             Severine%Perez%NULL%1,             Benoit%Veber%NULL%1,             Pierre-Gildas%Guitard%NULL%1,             Philippe%Gouin%NULL%1,             Anna%Lamacz%NULL%1,             Fabienne%Plouvier%NULL%1,             Bertrand P.%Delaborde%NULL%1,             Aïssa%Kherchache%NULL%1,             Amina%Chaalal%NULL%1,             Jean-Damien%Ricard%NULL%1,             Marc%Amouretti%NULL%1,             Santiago%Freita-Ramos%NULL%1,             Damien%Roux%NULL%1,             Jean-Michel%Constantin%NULL%1,             Mona%Assefi%NULL%1,             Marine%Lecore%NULL%1,             Agathe%Selves%NULL%1,             Florian%Prevost%NULL%1,             Christian%Lamer%NULL%1,             Ruiying%Shi%NULL%1,             Lyes%Knani%NULL%1,             Sébastien%Pili-Floury%NULL%1,             Lucie%Vettoretti%NULL%1,             Michael%Levy%NULL%1,             Lucile%Marsac%NULL%1,             Stéphane%Dauger%NULL%1,             Sophie%Guilmin-Crépon%NULL%1,             Jean-Baptiste%Putegnat%NULL%1,             Frédérique%Bayle%NULL%1,             Maya%Perrou%NULL%1,             Ghyslaine%Thao%NULL%1,             Guillaume%Géri%NULL%1,             Cyril%Charron%NULL%1,             Xavier%Repessé%NULL%1,             Antoine%Vieillard-Baron%NULL%1,             Mathieu%Guilbart%NULL%1,             Pierre-Alexandre%Roger%NULL%1,             Sébastien%Hinard%NULL%1,             Pierre-Yves%Macq%NULL%1,             Kevin%Chaulier%NULL%1,             Sylvie%Goutte%NULL%1,             Patrick%Chillet%NULL%1,             Anaïs%Pitta%NULL%1,             Barbara%Darjent%NULL%1,             Amandine%Bruneau%NULL%1,             Sigismond%Lasocki%NULL%1,             Maxime%Leger%NULL%1,             Soizic%Gergaud%NULL%1,             Pierre%Lemarie%NULL%1,             Nicolas%Terzi%NULL%1,             Carole%Schwebel%NULL%1,             Anaïs%Dartevel%NULL%1,             Louis-Marie%Galerneau%NULL%1,             Jean-Luc%Diehl%NULL%1,             Caroline%Hauw-Berlemont%NULL%0,             Nicolas%Péron%NULL%1,             Emmanuel%Guérot%NULL%1,             Abolfazl Mohebbi%Amoli%NULL%1,             Michel%Benhamou%NULL%1,             Jean-Pierre%Deyme%NULL%1,             Olivier%Andremont%NULL%1,             Diane%Lena%NULL%1,             Julien%Cady%NULL%1,             Arnaud%Causeret%NULL%1,             Arnaud%De La Chapelle%NULL%1,             Christophe%Cracco%NULL%1,             Stéphane%Rouleau%NULL%1,             David%Schnell%NULL%1,             Cécile%Lory%NULL%1,             Thibault%Chapelle%NULL%1,             Vincent%Bruckert%NULL%1,             Julie%Garcia%NULL%1,             Abdlazize%Sahraoui%NULL%1,             Nathalie%Abbosh%NULL%1,             Caroline%Bornstain%NULL%1,             Pierre%Pernet%NULL%1,             Florent%Poirson%NULL%1,             Ahmed%Pasem%NULL%1,             Philippe%Karoubi%NULL%1,             Virginie%Poupinel%NULL%1,             Caroline%Gauthier%NULL%1,             François%Bouniol%NULL%1,             Philippe%Feuchere%NULL%1,             Florent%Bavozet%NULL%0,             Anne%Heron%NULL%1,             Serge%Carreira%NULL%1,             Malo%Emery%NULL%1,             Anne%Le Floch%NULL%1,             Luana%Giovannangeli%NULL%1,             Nicolas%Herzog%NULL%1,             Christophe%Giacardi%NULL%1,             Thibaut%Baudic%NULL%1,             Chloé%Thill%NULL%1,             Florence%Tubach%NULL%1,             Olivier%Lesieur%NULL%1,             Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,             Max W.%Adelman%NULL%2,             Maxwell A.%Hockstein%NULL%1,             Chad J.%Robichaux%NULL%1,             Johnathan A.%Edwards%NULL%1,             Jane C.%Fazio%NULL%1,             James M.%Blum%NULL%3,             Craig S.%Jabaley%NULL%2,             Mark%Caridi-Scheible%NULL%2,             Greg S.%Martin%NULL%2,             David J.%Murphy%NULL%3,             Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,           Antonelli%M.%coreGivesNoEmail%0,           Bellani%G.%coreGivesNoEmail%0,           Bonanomi%E.%coreGivesNoEmail%0,           Cabrini%L.%coreGivesNoEmail%0,           Carlesso%E.%coreGivesNoEmail%0,           Castelli%G.%coreGivesNoEmail%0,           Cattaneo%S.%coreGivesNoEmail%0,           Cecconi%M.%coreGivesNoEmail%0,           Cereda%D.%coreGivesNoEmail%0,           Colombo%S.%coreGivesNoEmail%0,           Coluccello%A.%coreGivesNoEmail%0,           Crescini%G.%coreGivesNoEmail%0,           Forastieri%Molinari A.%coreGivesNoEmail%0,           Foti%G.%coreGivesNoEmail%0,           Fumagalli%R.%coreGivesNoEmail%0,           Grasselli%G.%coreGivesNoEmail%0,           Greco%M.%coreGivesNoEmail%0,           Iotti%G. A.%coreGivesNoEmail%0,           Langer%T.%coreGivesNoEmail%0,           Latronico%N.%coreGivesNoEmail%0,           Lorini%F. L.%coreGivesNoEmail%0,           Mojoli%F.%coreGivesNoEmail%0,           Natalini%G.%coreGivesNoEmail%0,           Pesenti%A.%coreGivesNoEmail%0,           Pessina%C. M.%coreGivesNoEmail%0,           Ranieri%V. M.%coreGivesNoEmail%0,           Rech%R.%coreGivesNoEmail%0,           Rosano%A.%coreGivesNoEmail%0,           Scudeller%L.%coreGivesNoEmail%0,           Storti%E.%coreGivesNoEmail%0,           Thompson%B. T.%coreGivesNoEmail%0,           Tirani%M.%coreGivesNoEmail%0,           Villani%P. G.%coreGivesNoEmail%0,           Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,             Keum-Ju%Choi%NULL%1,             Sun Ha%Choi%NULL%1,             Shin Yup%Lee%NULL%1,             Kyung Chan%Kim%NULL%1,             Eun Jin%Kim%NULL%1,             Jaehee%Lee%NULL%2,             Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,             Siddique%Chaudhary%NULL%1,             Kevin%Bryan Lo%NULL%2,             Kevin%Bryan Lo%NULL%0,             Robert%DeJoy%NULL%1,             Fahad%Gul%NULL%1,             Ricardo%Torres%NULL%1,             Neal%Chaisson%NULL%2,             Neal%Chaisson%NULL%0,             Gabriel%Patarroyo-Aponte%NULL%2,             Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,             Bruno L.%Ferreyro%NULL%2,             Bruno L.%Ferreyro%NULL%0,             Federico%Angriman%NULL%1,             María%Hernández-Sanz%NULL%2,             Egoitz%Arruti%NULL%1,             Antoni%Torres%NULL%2,             Jesús%Villar%NULL%1,             Laurent%Brochard%NULL%1,             Carlos%Ferrando%NULL%2,             Ricard%Mellado-Artigas%NULL%1,             María%Hernández-Sanz%NULL%0,             Carlos%Ferrando%NULL%0,             Marina%Vendrell%NULL%1,             Gerard%Sánchez-Etayo%NULL%1,             Amalia%Alcón%NULL%1,             Isabel%Belda%NULL%1,             Mercé%Agustí%NULL%1,             Albert%Carramiñana%NULL%1,             Isabel%Gracia%NULL%1,             Miriam%Panzeri%NULL%1,             Irene%León%NULL%1,             Jaume%Balust%NULL%1,             Ricard%Navarro%NULL%2,             María José%Arguís%NULL%1,             María José%Carretero%NULL%1,             Cristina%Ibáñez%NULL%1,             Juan%Perdomo%NULL%1,             Antonio%López%NULL%1,             Manuel%López-Baamonde%NULL%1,             Tomás%Cuñat%NULL%1,             Marta%Ubré%NULL%1,             Antonio%Ojeda%NULL%1,             Andrea%Calvo%NULL%1,             Eva%Rivas%NULL%1,             Paola%Hurtado%NULL%1,             Roger%Pujol%NULL%1,             Nuria%Martín%NULL%1,             Javier%Tercero%NULL%1,             Pepe%Sanahuja%NULL%1,             Marta%Magaldi%NULL%1,             Miquel%Coca%NULL%1,             Elena%del Rio%NULL%1,             Julia%Martínez-Ocon%NULL%1,             Paula%Masgoret%NULL%1,             Monserrat%Tio%NULL%1,             Angel%Caballero%NULL%1,             Raquel%Risco%NULL%1,             Raquel%Bergé%NULL%1,             Lidia%Gómez%NULL%1,             Nicolás%de Riva%NULL%1,             Ana%Ruiz%NULL%1,             Beatriz%Tena%NULL%1,             Sebastián%Jaramillo%NULL%1,             José María%Balibrea%NULL%1,             Francisco Borja de Borja%de Lacy%NULL%1,             Ana%Otero%NULL%1,             Ainitze%Ibarzabal%NULL%1,             Raquel%Bravo%NULL%1,             Anna%Carreras%NULL%1,             Daniel%Martín-Barreda%NULL%1,             Alfonso Jesús%Alias%NULL%1,             Mariano%Balaguer%NULL%1,             Jorge%Aliaga%NULL%1,             Alex%Almuedo%NULL%1,             Joan Ramón%Alonso%NULL%1,             Rut%Andrea%NULL%1,             Gerard Sergi%Angelès%NULL%1,              Marilyn%Arias%NULL%1,             Fátima%Aziz%NULL%1,             Joan Ramon%Badía%NULL%1,             Enric%Barbeta%NULL%1,             Toni%Torres%NULL%1,             Guillem%Batiste%NULL%1,             Pau%Benet%NULL%1,             Xavi%Borrat%NULL%1,             María%Borrell%NULL%1,             Ernest%Bragulat%NULL%1,             Inmaculada%Carmona%NULL%1,             Manuel%Castellà%NULL%1,             Pedro%Castro%NULL%1,             Joan%Ceravalls%NULL%1,             Oscar%Comino%NULL%1,             Claudia%Cucciniello%NULL%1,             Clàudia%De Deray%NULL%1,             Oriol%De Diego%NULL%1,             Paula%De la Matta%NULL%1,             Marta%Farrero%NULL%1,             Javier%Fernández%NULL%1,             Sara%Fernández%NULL%1,             Anna%Fernández%NULL%1,             Miquel%Ferrer%NULL%1,             Ana%Fervienza%NULL%1,             María%Tallo Forga%NULL%1,             Daniel%Forné%NULL%1,             Clàudia%Galán%NULL%1,             Andrea%Gómez%NULL%1,             Eduard%Guasch%NULL%1,             María%Hernández-Tejero%NULL%1,             Adriana%Jacas%NULL%1,             Beltrán%Jiménez%NULL%1,             Pere%Leyes%NULL%1,             Teresa%López%NULL%1,             José Antonio%Martínez%NULL%1,             Graciela%Martínez-Pallí%NULL%1,             Jordi%Mercadal%NULL%1,             Guido%Muñoz%NULL%1,             José%Muñoz%NULL%1,             Ricard%Navarro%NULL%0,             Josep María%Nicolás%NULL%1,             José Tomás%Ortiz%NULL%1,             Anna%Peiró%NULL%1,             Manuel%Pérez%NULL%1,             Esteban%Poch%NULL%1,             Margarida%Pujol%NULL%1,             Eduard%Quintana%NULL%1,             Bartomeu%Ramis%NULL%1,             Enric%Reverter%NULL%1,             Irene%Rovira%NULL%1,             Pablo%Ruiz%NULL%1,             Elena%Sandoval%NULL%1,             Stefan%Schneider%NULL%1,             Oriol%Sibila%NULL%1,             Carla%Solé%NULL%1,             Alex%Soriano%NULL%1,             Dolors%Soy%NULL%1,             M.%Suárez%NULL%1,             Adrián%Téllez%NULL%1,             Néstor David%Toapanta%NULL%1,             Antoni%Torres%NULL%0,             Xavier%Urra%NULL%1,             César%Aldecoa%NULL%1,             Alicia%Bordell%NULL%1,             Silvia%Martín%NULL%1,             Judith%Andrés%NULL%1,             Alberto Martínez%Ruiz%NULL%1,             Gonzalo Tamayo%Medel%NULL%1,             Iñaki Bilbao Bilbao%Villasante%NULL%1,             Fernando Iturri%Clavero%NULL%1,             Covadonga Peralta%Álvarez%NULL%1,             Julia T.%Herrera Díez%NULL%1,             Andrea García%Trancho%NULL%1,             Iñaki Sainz %Mandiola%NULL%1,             Carmen Ruano%Suarez%NULL%1,             Angela Ruiz%Bocos%NULL%1,             Eneritz Urrutia%Izagirre%NULL%1,             Pablo Ortiz%de Urbina Fernández%NULL%1,             Naiara Apodaka%López%NULL%1,             Leire Prieto%Molano%NULL%1,             Eunate Ganuza%Martínez%NULL%1,             Iratxe Vallinas%Hidalgo%NULL%1,             Karmele%de Orte Sancho%NULL%1,             Celia González%Paniagua%NULL%1,             Gemma Ortiz%Labrador%NULL%1,             Mireia Pérez%Larrañaga%NULL%1,             Marta López%Miguelez%NULL%1,             Estíbaliz Bárcena%Andrés%NULL%1,             Erik Urutxurtu%Laureano%NULL%1,             Maria Jesús Maroño%Boedo%NULL%1,             Blanca Escontrela%Rodríguez%NULL%1,             Aitziber Ereñozaga%Camiruaga%NULL%1,             Deiene Lasuen%Aguirre%NULL%1,             Ainhoa Zabal%Maeztu%NULL%1,             Ane Guereca%Gala%NULL%1,             Iker Castelo%Korro%NULL%1,             Andrés Álvarez%Campo%NULL%1,             Alejandro Carcelen%Viana%NULL%1,             Alejandro Alberdi%Enríquez%NULL%1,             Xabier Ormazábal%Rementeria%NULL%1,             Alberto Sánchez%Campos%NULL%1,             Rosa Gutiérrez%Rico%NULL%1,             Pablo Barbier%Damborenea%NULL%1,             Marta Guerenabarrena%Momeñe%NULL%1,             Borja Cuesta%Ruiz%NULL%1,             Alejandro López%Rico%NULL%1,             Ana Rojo%Polo%NULL%1,             Covadonga García%Grijelmo%NULL%1,             Mikel Celorrio%Reta%NULL%1,             Eneko Martín%Arroyo%NULL%1,             Leire Artaza%Aparicio%NULL%1,             Iñaki Ituarte%Aspiazu%NULL%1,             Ane Igeregi%Basabe%NULL%1,             Itxaso Merino%Julian%NULL%1,             Isabel Diaz%Rico%NULL%1,             Maria Paz%Martínez%NULL%1,             Ramón%Adalia Bartolomé%NULL%1,             Luigi%Zattera%NULL%1,             Irina Adalid%Hernandez%NULL%1,             Leire Larrañaga%Altuna%NULL%1,             Aina Serrallonga%Castells%NULL%1,             Adriana Vílchez%Garcia%NULL%1,             María%Núñez%NULL%1,             Lorena%Román%NULL%1,             Isabel Ramos%Delgado%NULL%1,             Adela Benítez-Cano%Martínez%NULL%1,             Mireia Chanzá%Albert%NULL%1,             Juan Carlos Álvarez%García%NULL%1,             Luis Aguilera%Cuchillo%NULL%1,             Sandra Beltrán%de Heredia%NULL%1,             Jesús Carazo%Cordobés%NULL%1,             Carlos Alberto García%Bernedo%NULL%1,             Fernando Escolano%Villén%NULL%1,             Francisco Javier Redondo%Calvo%NULL%1,             Rubén Villazala%González%NULL%1,             Victor Baladron%González%NULL%1,             Patricia%Faba%NULL%1,             Omar%Montenegro%NULL%1,             Natalia Bejarano%Ramírez%NULL%1,             Sergio Marcos%Contreras%NULL%1,             Alejandro Garcia%Rodríguez%NULL%1,             Saleta Rey%Vázquez%NULL%1,             Cristina Garcia%Pérez%NULL%1,             Eva Higuera%Miguelez%NULL%1,             Irene Pérez%Blanco%NULL%1,             David García%Rivera%NULL%1,             Ane Martín%de la Fuente%NULL%1,             Marta%Pardo%NULL%1,             Vanessa%Rodriguez%NULL%1,             Unai%Bengoetxea%NULL%1,             Fernando%Ramasco%NULL%1,             Sheila Olga Santidrián%Bernal%NULL%1,             Alvar Santa Cruz%Hernando%NULL%1,             Antonio Planas%Roca%NULL%1,             Carlos Figueroa%Yusta%NULL%1,             Esther García%Villabona%NULL%1,             Carmen Vallejo%Lantero%NULL%1,             Eva Patiño%Rodriguez%NULL%1,             Alvaro Esquivel%Toledo%NULL%1,             David Arribas%Méndez%NULL%1,             Mar Orts%Rodriguez%NULL%1,             Rosa Méndez%Hernández%NULL%1,             Jesús Nieves%Alonso%NULL%1,             Inés Imaz%Artazcoz%NULL%1,             Sonia Expósito%Carazo%NULL%1,             Carlos Román%Guerrero%NULL%1,             Elena Rojo%Rodríguez%NULL%1,             Ricardo Moreno%González%NULL%1,             Julia Hernando%Santos%NULL%1,             Jara Torrente%Pérez%NULL%1,             Esperanza Mata%Mena%NULL%1,             Manuel José Muñoz%Martínez%NULL%1,             Enrique Alday%Muñoz%NULL%1,             Patricia Martin%Serrano%NULL%1,             Laura Cotter%Muñoz%NULL%1,             Amadea%Mjertan%NULL%1,             Diego Gutierrez%Martínez%NULL%1,             Carmen Rodríguez%García%NULL%1,             Olaya Alonso%Viejo%NULL%1,             Juan Alvarez%Pereira%NULL%1,             Ana Carmona%Bonet%NULL%1,             Diana Parrado%López%NULL%1,             Eva%de Dios Tomas%NULL%1,             Rafael Martín%Celemin%NULL%1,             María Luisa Meilan%Paz%NULL%1,             Luis Quecedo%Gutiérrez%NULL%1,             Noemí Diaz%Velasco%NULL%1,             Gabriel Martin%Hernández%NULL%1,             Francisco Garcia%del Corral%NULL%1,             Gloria Hernandez%Arias%NULL%1,             David Rodriguez%Cuesta%NULL%1,             Ana Gómez%Rice%NULL%1,             Encarna Mateos%Sevillano%NULL%1,             Natalia Olmos%Molpeceres%NULL%1,             Beatriz%Domínguez%NULL%1,             Ana Vázquez%Lima%NULL%1,             Ángel%Candela%NULL%1,             Ismael A. Acevedo%Bambaren%NULL%1,             Maria Isabel Albala%Blanco%NULL%1,             Paloma Alonso%Montoiro%NULL%1,             Fernando Álvarez%Utrera%NULL%1,             Juan Avellanosa%Esteruelas%NULL%1,             Amal Azzam%López%NULL%1,             Alberto José%Balvis%NULL%1,             Balvis Tommaso%Bardi%NULL%1,             María Beltrán%Martín%NULL%1,             Jacobo Benatar%Haserfaty%NULL%1,             Alberto Berruezo%Camacho%NULL%1,             Laura Betolaza%Weimer%NULL%1,             María%del Mar Carbonell Soto%NULL%1,             Cristina Carrasco%Seral%NULL%1,             Cristina Cerro %Zaballos%NULL%1,             Elizabeth Claros%Llamas%NULL%1,             Pilar Coleta%Orduna%NULL%1,             Ingrid P. Cortes%Forero%NULL%1,             Pascual Agustín Crespo%Aliseda%NULL%1,             María Angélica%de Pablo Pajares%NULL%1,             Yolanda Díez%Remesal%NULL%1,             Trinidad Dorado%Díaz%NULL%1,             Noemí Echevarría%Blasco%NULL%1,             María Elena Elías%Martín%NULL%1,             Javier Felices%Triviño%NULL%1,             Natalia Fernández%López%NULL%1,             Cristina Fernández%Martín%NULL%1,             Natalia Ferreiro%Pozuelo%NULL%1,             Luis Gajate%Martín%NULL%1,             Clara Gallego%Santos%NULL%1,             Diego Gil%Mayo%NULL%1,             María Gómez%Rojo%NULL%1,             Claudia González%Cibrián%NULL%1,             Elena Herrera%López%NULL%1,             Borja Hinojal%Olmedillo%NULL%1,             Berta Iglesias%Gallego%NULL%1,             Sassan%Khonsari%NULL%1,             María Nuria Mane%Ruiz%NULL%1,             María Manzanero%Arroyo%NULL%1,             Ana María Mariscal%Ortega%NULL%1,             Sara Martín%Burcio%NULL%1,             María%del Carmen Martín González%NULL%1,             Ascensión Martín%Grande%NULL%1,             Jose Juan Martín%López%NULL%1,             Cecilia Martín%Rabes%NULL%1,             Marcos Martínez%Borja%NULL%1,             Nilda Martínez%Castro%NULL%1,             Adolfo Martínez%Pérez%NULL%1,             Snejana%Matcan%NULL%1,             Cristina Medrano%Viñas%NULL%1,             Lisset Miguel%Herrera%NULL%1,             Adrián Mira%Betancur%NULL%1,             María Montiel%Carbajo%NULL%1,             Javier Moya%Moradas%NULL%1,             Lorena Muñoz%Pérez%NULL%1,             Mónica Nuñez%Murias%NULL%1,             Eva Ordiales%González%NULL%1,             Óscar Ordoñez%Recio%NULL%1,             Miguel Ángel Palomero%Rodriguez%NULL%1,             Diego Parise%Roux%NULL%1,             Lucia Pereira%Torres%NULL%1,             David Pestaña%Lagunas%NULL%1,             Juana María Pinto%Corraliza%NULL%1,             Marian Prieto%Rodrigo%NULL%1,             Inmaculada Rodriguez%Diaz-Regaño%NULL%1,             David Rodriguez%Esteban%NULL%1,             Víctor Rojas%Pernia%NULL%1,             Álvaro Ruigómez%Saiz%NULL%1,             Bárbara Saavedra%Villarino%NULL%1,             Noemí Samaranch%Palero%NULL%1,             Gloria Santos%Pérez%NULL%1,             Jaume Serna%Pérez%NULL%1,             Ana Belén Serrano%Romero%NULL%1,             Jesús Tercero%López%NULL%1,             Carlos Tiscar%García%NULL%1,             Marta%de la Torre Concostrina%NULL%1,             Eva María Ureta%Mesa%NULL%1,             Eva Velasco%Olarte%NULL%1,             Judith Villahoz%Martínez%NULL%1,             Raúl Villalaba%Palacios%NULL%1,             Gema Villanueva%García%NULL%1,             Cristina Vogel%de Medeiros%NULL%1,             Soraya Gholamian%Ovejero%NULL%1,             Marta Vicente%Orgaz%NULL%1,             Patricia Lloreda%Herradon%NULL%1,             Cristina Crespo%Gómez%NULL%1,             Tatiana%Sarmiento-Trujillo%NULL%1,             Noemí García%Medina%NULL%1,             María Martínez%García%NULL%1,             Carles Espinós%Ramírez%NULL%1,             Nabil Mouhaffel%Rivero%NULL%1,             Jose Antonio Bernia%Gil%NULL%1,             Sonsoles%Martín%NULL%1,             María Victoria%Moral%NULL%1,             Josefina%Galán%NULL%1,             Pilar%Paniagua%NULL%1,             Sergio%Pérez%NULL%1,             Albert%Bainac%NULL%1,             Ana%Arias%NULL%1,             Elsa%Ramil%NULL%1,             Jorge%Escudero%NULL%1,             Pablo%Monedero%NULL%1,             Carmen%Cara%NULL%1,             Andrea%Lara%NULL%1,             Elena Mendez%Martínez%NULL%1,             Jorge%Mendoza%NULL%1,             Íñigo Rubio%Baines%NULL%1,             Carmen Sala%Trull%NULL%1,             Pablo Montero%López%NULL%1,             Alfredo%Gea%NULL%1,             Alejandro%Montero%NULL%1,             Rocío Armero%Ibañez%NULL%1,             Juan Vicente Llau%Pitarch%NULL%1,             Fernando Rauer%Alcóver%NULL%1,             Cristina Álvarez%Herreros%NULL%1,             Cyntia Sánchez%Martín%NULL%1,             Lucía López Ocáriz%Olmos%NULL%1,             Marta Navas%Moruno%NULL%1,             Fernando García%Montoto%NULL%1,             M. F. Mirón%Rodriguez%NULL%1,             Laura Fuentes%Coco%NULL%1,             Cristina Hernández%Gamito%NULL%1,             Antonio Barba%Orejudo%NULL%1,             Luis Gerardo Smith%Vielma%NULL%1,             Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,             Marta Donoso%Domínguez%NULL%1,             Silvia Esquivel%Ramírez%NULL%1,             José Antonio%Carbonell%NULL%1,             Berta Monleón%López%NULL%1,             Sara%Martínez-Castro%NULL%1,             Gerardo%Aguilar%NULL%1,             María Gestal Pablo%Casas%NULL%1,             Angel Outeiro%Rosato%NULL%1,             Andrea Naveiro%Pan%NULL%1,             María Alonso%Portela%NULL%1,             Adrián García%Romar%NULL%1,             Eva Mosquera%Rodríguez%NULL%1,             Diego Ruanova%Seijo%NULL%1,             Pablo Rama%Maceiras%NULL%1,             Francisco%Castro-Ceoane%NULL%1,             Esther Moreno%López%NULL%1,             Sergio%Gil%NULL%1,             Julia Guillén%Antón%NULL%1,             Patricia García-Consuegra%Tirado%NULL%1,             Aurora Callau%Calvo%NULL%1,             Laura Forés%Lisbona%NULL%1,             María Carbonell%Romero%NULL%1,             Belén Albericio%Gil%NULL%1,             Laura Pradal%Jarne%NULL%1,             María Soria%Lozano%NULL%1,             Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,             Navjot Ariyana%Kaur%NULL%1,             Daniel%Sacher%NULL%1,             Oisin%O’Corragain%NULL%1,             Daniel%Salerno%NULL%1,             Parag%Desai%NULL%1,             Sameep%Sehgal%NULL%1,             Matthew%Gordon%NULL%2,             Rohit%Gupta%NULL%2,             Nathaniel%Marchetti%NULL%1,             Huaqing%Zhao%NULL%2,             Nicole%Patlakh%NULL%2,             Gerard J.%Criner%NULL%1,             Temple%University%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,             Dominik%Jarczak%NULL%1,             Liina%Thasler%NULL%1,             Martin%Bachmann%NULL%1,             Frank%Schulte%NULL%1,             Berthold%Bein%NULL%1,             Christian Friedrich%Weber%NULL%1,             Ulrich%Schäfer%NULL%1,             Carsten%Veit%NULL%1,             Hans-Peter%Hauber%NULL%1,             Sebastian%Kopp%NULL%1,             Karsten%Sydow%NULL%1,             Andreas%de Weerth%NULL%0,             Marc%Bota%NULL%1,             Rüdiger%Schreiber%NULL%1,             Oliver%Detsch%NULL%1,             Jan-Peer%Rogmann%NULL%1,             Daniel%Frings%NULL%0,             Barbara%Sensen%NULL%1,             Christoph%Burdelski%NULL%0,             Olaf%Boenisch%NULL%1,             Axel%Nierhaus%NULL%0,             Geraldine%de Heer%NULL%0,             Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1303,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1296,7 +1332,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1325,7 +1361,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1354,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1383,7 +1419,7 @@
         <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1412,7 +1448,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1441,7 +1477,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1470,7 +1506,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1499,7 +1535,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1528,7 +1564,7 @@
         <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1557,7 +1593,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1586,7 +1622,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="241">
   <si>
     <t>Doi</t>
   </si>
@@ -907,6 +907,42 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,             Dominik%Jarczak%NULL%1,             Liina%Thasler%NULL%1,             Martin%Bachmann%NULL%1,             Frank%Schulte%NULL%1,             Berthold%Bein%NULL%1,             Christian Friedrich%Weber%NULL%1,             Ulrich%Schäfer%NULL%1,             Carsten%Veit%NULL%1,             Hans-Peter%Hauber%NULL%1,             Sebastian%Kopp%NULL%1,             Karsten%Sydow%NULL%1,             Andreas%de Weerth%NULL%0,             Marc%Bota%NULL%1,             Rüdiger%Schreiber%NULL%1,             Oliver%Detsch%NULL%1,             Jan-Peer%Rogmann%NULL%1,             Daniel%Frings%NULL%0,             Barbara%Sensen%NULL%1,             Christoph%Burdelski%NULL%0,             Olaf%Boenisch%NULL%1,             Axel%Nierhaus%NULL%0,             Geraldine%de Heer%NULL%0,             Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,              Paolo%Comassi%NULL%1,              Luca%Adriani%NULL%1,              Giulio%Bergamaschini%NULL%1,              Elena%Bertin%NULL%1,              Raffaella%Borromeo%NULL%1,              Serena%Corti%NULL%1,              Federica%De Petri%NULL%1,              Francesco%Dolci%NULL%1,              Attilio%Galmozzi%NULL%1,              Alberto%Gigliotti%NULL%1,              Livio%Gualdoni%NULL%1,              Claudia%Guerra%NULL%1,              Anna%Khosthiova%NULL%1,              Giovanni%Leati%NULL%1,              Giuseppe%Lupi%NULL%1,              Paolo%Moscato%NULL%1,              Vittorio%Perotti%NULL%1,              Miriam%Piantelli%NULL%1,              Alain%Ruini%NULL%1,              Silvia%Sportelli%NULL%1,              Micaela%Susca%NULL%1,              Carmine%Troiano%NULL%1,              Giampaolo%Benelli%NULL%1,              Elisabetta%Buscarini%NULL%1,              Ciro%Canetta%NULL%1,              Guido%Merli%NULL%1,              Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,              Emna%Ennouri%NULL%1,              Rayane%Nachi%NULL%1,              Khaoula%Meddeb%NULL%1,              Jihene%Mahmoud%NULL%1,              Nesrine%Thabet%NULL%1,              Salma%Jerbi%NULL%1,              Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,              Eleni%Xourgia%NULL%1,              Theodora K.%Ntaidou%NULL%1,              Dimitris%Zervakis%NULL%1,              Eleni E.%Magira%NULL%1,              Anastasia%Kotanidou%NULL%1,              Christina%Routsi%NULL%1,              Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,              Carina%Mostert%NULL%1,              Corinna%Hentschker%NULL%1,              Thomas%Voshaar%NULL%1,              Jürgen%Malzahn%NULL%1,              Gerhard%Schillinger%NULL%1,              Jürgen%Klauber%NULL%1,              Uwe%Janssens%NULL%1,              Gernot%Marx%NULL%1,              Steffen%Weber-Carstens%NULL%1,              Stefan%Kluge%NULL%0,              Michael%Pfeifer%NULL%1,              Linus%Grabenhenrich%NULL%1,              Tobias%Welte%NULL%1,              Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,              David%Hajage%NULL%2,              David%Hajage%NULL%0,              Alexandre%Demoule%NULL%1,              Tài%Pham%NULL%1,              Alain%Combes%NULL%1,              Martin%Dres%NULL%1,              Said%Lebbah%NULL%1,              Antoine%Kimmoun%NULL%1,              Alain%Mercat%NULL%1,              Gaëtan%Beduneau%NULL%1,              Jessica%Palmyre%NULL%1,              Margot%Prevost%NULL%1,              Pierre%Asfar%NULL%1,              François%Beloncle%NULL%1,              Julien%Demiselle%NULL%1,              Arthur%Pavot%NULL%1,              Xavier%Monnet%NULL%1,              Christian%Richard%NULL%1,              Julien%Mayaux%NULL%1,              Alexandra%Beurton%NULL%1,              Richard%Descamps%NULL%1,              Aurélie%Joret%NULL%1,              Damien%Du Cheyron%NULL%1,              Frédéric%Pene%NULL%1,              Jean-Daniel%Chiche%NULL%1,              Mathieu%Jozwiak%NULL%1,              Paul%Jaubert%NULL%1,              Guillaume%Voiriot%NULL%1,              Muriel%Fartoukh%NULL%1,              Marion%Teulier%NULL%1,              Clarisse%Blayau%NULL%1,              Erwen%L’Her%NULL%1,              Cécile%Aubron%NULL%1,              Laetitia%Bodenes%NULL%1,              Nicolas%Ferriere%NULL%1,              Johann%Auchabie%NULL%1,              Anthony%Le Meur%NULL%1,              Sylvain%Pignal%NULL%1,              Thierry%Mazzoni%NULL%1,              Jean-Pierre%Quenot%NULL%1,              Pascal%Andreu%NULL%1,              Jean-Baptiste%Roudau%NULL%1,              Marie%Labruyère%NULL%1,              Saad%Nseir%NULL%0,              Sébastien%Preau%NULL%1,              Julien%Poissy%NULL%0,              Daniel%Mathieu%NULL%0,              Sarah%Benhamida%NULL%1,              Rémi%Paulet%NULL%1,              Nicolas%Roucaud%NULL%1,              Martial%Thyrault%NULL%1,              Florence%Daviet%NULL%1,              Sami%Hraiech%NULL%1,              Gabriel%Parzy%NULL%1,              Aude%Sylvestre%NULL%1,              Sébastien%Jochmans%NULL%1,              Anne-Laure%Bouilland%NULL%1,              Mehran%Monchi%NULL%1,              Marc%Danguy des Déserts%NULL%1,              Quentin%Mathais%NULL%1,              Gwendoline%Rager%NULL%1,              Pierre%Pasquier%NULL%1,              Reignier%Jean%NULL%1,              Seguin%Amélie%NULL%1,              Garret%Charlotte%NULL%1,              Canet%Emmanuel%NULL%1,              Jean%Dellamonica%NULL%1,              Clément%Saccheri%NULL%1,              Romain%Lombardi%NULL%1,              Yanis%Kouchit%NULL%1,              Sophie%Jacquier%NULL%1,              Armelle%Mathonnet%NULL%1,              Mai-Ahn%Nay%NULL%1,              Isabelle%Runge%NULL%1,              Frédéric%Martino%NULL%1,              Laure%Flurin%NULL%1,              Amélie%Rolle%NULL%1,              Michel%Carles%NULL%1,              Rémi%Coudroy%NULL%1,              Arnaud W.%Thille%NULL%1,              Jean-Pierre%Frat%NULL%1,              Maeva%Rodriguez%NULL%1,              Pascal%Beuret%NULL%1,              Audrey%Tientcheu%NULL%1,              Arthur%Vincent%NULL%1,              Florian%Michelin%NULL%1,              Marie Anne%Melone%NULL%1,              Maxime%Gauzi%NULL%1,              Arnaud%Guilbert%NULL%1,              Geoffrey%Kouadri%NULL%1,              Valérie%Gissot%NULL%1,              Stéphan%Ehrmann%NULL%1,              Charlotte%Salmon-Gandonnière%NULL%1,              Djlali%Elaroussi%NULL%1,              Agathe%Delbove%NULL%1,              Yannick%Fedun%NULL%1,              Julien%Huntzinger%NULL%1,              Eddy%Lebas%NULL%1,              Grâce%Kisoka%NULL%1,              Céline%Grégoire%NULL%1,              Stella%Marchetta%NULL%1,              Bernard%Lambermont%NULL%1,              Laurent%Argaud%NULL%1,              Thomas%Baudry%NULL%1,              Pierre-Jean%Bertrand%NULL%1,              Auguste%Dargent%NULL%1,              Christophe%Guitton%NULL%1,              Nicolas%Chudeau%NULL%1,              Mickaël%Landais%NULL%1,              Cédric%Darreau%NULL%1,              Alexis%Ferre%NULL%1,              Antoine%Gros%NULL%1,              Guillaume%Lacave%NULL%1,              Fabrice%Bruneel%NULL%1,              Mathilde%Neuville%NULL%1,              Jérôme%Devaquet%NULL%1,              Guillaume%Tachon%NULL%1,              Richard%Gallot%NULL%1,              Riad%Chelha%NULL%1,              Arnaud%Galbois%NULL%1,              Anne%Jallot%NULL%1,              Ludivine Chalumeau%Lemoine%NULL%1,              Khaldoun%Kuteifan%NULL%1,              Valentin%Pointurier%NULL%1,              Louise-Marie%Jandeaux%NULL%1,              Joy%Mootien%NULL%1,              Charles%Damoisel%NULL%1,              Benjamin%Sztrymf%NULL%1,              Juliette%Chommeloux%NULL%1,              Charles Edouard%Luyt%NULL%1,              Frédérique%Schortgen%NULL%1,              Leon%Rusel%NULL%1,              Camille%Jung%NULL%1,              Florent%Gobert%NULL%1,              Damien%Vimpere%NULL%1,              Lionel%Lamhaut%NULL%1,              Bertrand%Sauneuf%NULL%1,              Liliane%Charrier%NULL%1,              Julien%Calus%NULL%1,              Isabelle%Desmeules%NULL%1,              Benoît%Painvin%NULL%1,              Jean-Marc%Tadie%NULL%1,              Vincent%Castelain%NULL%1,              Baptiste%Michard%NULL%1,              Jean-Etienne%Herbrecht%NULL%1,              Mathieu%Baldacini%NULL%1,              Nicolas%Weiss%NULL%1,              Sophie%Demeret%NULL%1,              Clémence%Marois%NULL%1,              Benjamin%Rohaut%NULL%1,              Pierre-Henri%Moury%NULL%1,              Anne-Charlotte%Savida%NULL%1,              Emmanuel%Couadau%NULL%1,              Mathieu%Série%NULL%1,              Nica%Alexandru%NULL%1,              Cédric%Bruel%NULL%1,              Candice%Fontaine%NULL%1,              Sonia%Garrigou%NULL%1,              Juliette Courtiade%Mahler%NULL%1,              Maxime%Leclerc%NULL%1,              Michel%Ramakers%NULL%1,              Pierre%Garçon%NULL%1,              Nicole%Massou%NULL%1,              Ly Phacs%Van Vong%NULL%1,              Juliane%Sen%NULL%1,              Nolwenn%Lucas%NULL%1,              Franck%Chemouni%NULL%1,              Annabelle%Stoclin%NULL%1,              Alexandre%Avenel%NULL%1,              Henri%Faure%NULL%1,              Angélie%Gentilhomme%NULL%1,              Sylvie%Ricome%NULL%1,              Paul%Abraham%NULL%1,              Céline%Monard%NULL%1,              Julien%Textoris%NULL%1,              Thomas%Rimmele%NULL%1,              Florent%Montini%NULL%1,              Gabriel%Lejour%NULL%1,              Thierry%Lazard%NULL%1,              Isabelle%Etienney%NULL%1,              Younes%Kerroumi%NULL%1,              Dupuis%Claire%NULL%1,              Bereiziat Marine%Coupez%NULL%1,              Thouy%François%NULL%1,              Clémet%Hoffmann%NULL%1,              Nicolas%Donat%NULL%1,              Violaine%Muller%NULL%1,              Thibault%Martinez%NULL%1,              Audrey%Jacquot%NULL%1,              Matthieu%Mattei%NULL%1,              Bruno%Levy%NULL%1,              Ramin%Ravan%NULL%1,              Loïc%Dopeux%NULL%1,              Jean-Mathias%Liteaudon%NULL%1,              Delphine%Roux%NULL%1,              Brice%Rey%NULL%1,              Radu%Anghel%NULL%1,              Deborah%Schenesse%NULL%1,              Vincent%Gevrey%NULL%1,              Jermy%Castanera%NULL%1,              Philippe%Petua%NULL%1,              Benjamin%Madeux%NULL%1,              Otto%Hartman%NULL%1,              Michael%Piagnerelli%NULL%1,              Anne%Joosten%NULL%1,              Cinderella%Noel%NULL%1,              Patrick%Biston%NULL%1,              Thibaut%Noel%NULL%1,              Gurvan L. E.%Bouar%NULL%1,              Messabi%Boukhanza%NULL%1,              Elsa%Demarest%NULL%1,              Marie-France%Bajolet%NULL%1,              Nathanaël%Charrier%NULL%1,              Audrey%Quenet%NULL%1,              Cécile%Zylberfajn%NULL%1,              Nicolas%Dufour%NULL%1,              Buno%Mégarbane%NULL%1,              Sqébastian%Voicu%NULL%1,              Nicolas%Deye%NULL%1,              Isabelle%Malissin%NULL%1,              François%Legay%NULL%1,              Matthieu%Debarre%NULL%1,              Nicolas%Barbarot%NULL%1,              Pierre%Fillatre%NULL%1,              Bertrand%Delord%NULL%1,              Thomas%Laterrade%NULL%1,              Tahar%Saghi%NULL%1,              Wilfried%Pujol%NULL%1,              Pierre Julien%Cungi%NULL%1,              Pierre%Esnault%NULL%1,              Mickael%Cardinale%NULL%1,              Vivien%Hong Tuan Ha%NULL%1,              Grégory%Fleury%NULL%1,              Marie-Ange%Brou%NULL%1,              Daniel%Zafimahazo%NULL%1,              David%Tran-Van%NULL%1,              Patrick%Avargues%NULL%1,              Lisa%Carenco%NULL%1,              Nicolas%Robin%NULL%1,              Alexandre%Ouali%NULL%1,              Lucie%Houdou%NULL%1,              Christophe%Le Terrier%NULL%1,              Noémie%Suh%NULL%1,              Steve%Primmaz%NULL%1,              Jérome%Pugin%NULL%1,              Emmanuel%Weiss%NULL%1,              Tobias%Gauss%NULL%1,              Jean-Denis%Moyer%NULL%1,              Catherine%Paugam-Burtz%NULL%1,              Béatrice%La Combe%NULL%1,              Rolland%Smonig%NULL%1,              Jade%Violleau%NULL%1,              Pauline%Cailliez%NULL%1,              Jonathan%Chelly%NULL%1,              Antoine%Marchalot%NULL%1,              Cécile%Saladin%NULL%1,              Christelle%Bigot%NULL%1,              Pierre-Marie%Fayolle%NULL%1,              Jules%Fatséas%NULL%1,              Amr%Ibrahim%NULL%1,              Dabor%Resiere%NULL%1,              Rabih%Hage%NULL%1,              Clémentine%Cholet%NULL%1,              Marie%Cantier%NULL%1,              Pierre%Trouiller%NULL%1,              Philippe%Montravers%NULL%1,              Brice%Lortat-Jacob%NULL%1,              Sebastien%Tanaka%NULL%1,              Alexy%Tran-Dinh%NULL%1,              Jacques%Duranteau%NULL%1,              Anatole%Harrois%NULL%1,              Guillaume%Dubreuil%NULL%1,              Marie%Werner%NULL%1,              Anne%Godier%NULL%1,              Sophie%Hamada%NULL%1,              Diane%Zlotnik%NULL%1,              Hélène%Nougue%NULL%1,              Armand%Mekontso-Dessap%NULL%1,              Guillaume%Carteaux%NULL%1,              Keyvan%Razazi%NULL%1,              Nicolas%De Prost%NULL%1,              Nicolas%Mongardon%NULL%1,              Olivier%Langeron%NULL%1,              Eric%Levesque%NULL%1,              Arié%Attias%NULL%1,              Charles%de Roquetaillade%NULL%1,              Benjamin G.%Chousterman%NULL%1,              Alexandre%Mebazaa%NULL%1,              Etienne%Gayat%NULL%1,              Marc%Garnier%NULL%1,              Emmanuel%Pardo%NULL%1,              Lea%Satre-Buisson%NULL%1,              Christophe%Gutton%NULL%1,              Elise%Yvin%NULL%1,              Clémence%Marcault%NULL%1,              Elie%Azoulay%NULL%1,              Michael%Darmon%NULL%1,              Nicolas%Bonnet%NULL%1,              Nathan%Ebstein%NULL%1,              Stéphane%Gaudry%NULL%1,              Yves%Cohen%NULL%1,               Hafid%Ait-Oufella%NULL%1,              Geoffroy%Hariri%NULL%1,              Tomas%Urbina%NULL%1,              Sandie%Mazerand%NULL%1,              Nicholas%Heming%NULL%1,              Francesca%Santi%NULL%1,              Pierre%Moine%NULL%1,              Djillali%Annane%NULL%1,              Adrien%Bouglé%NULL%1,              Edris%Omar%NULL%1,              Aymeric%Lancelot%NULL%1,              Emmanuelle%Begot%NULL%1,              Gaétan%Plantefeve%NULL%1,              Damien%Contou%NULL%1,              Hervé%Mentec%NULL%1,              Olivier%Pajot%NULL%1,              Stanislas%Faguer%NULL%1,              Olivier%Cointault%NULL%1,              Laurence%Lavayssiere%NULL%1,              Marie-Béatrice%Nogier%NULL%1,              Matthieu%Jamme%NULL%1,              Claire%Pichereau%NULL%1,              Jan%Hayon%NULL%1,              Hervé%Outin%NULL%1,              François%Dépret%NULL%1,              Maxime%Coutrot%NULL%1,              Maité%Chaussard%NULL%1,              Lucie%Guillemet%NULL%1,              Pierre%Goffin%NULL%1,              Romain%Thouny%NULL%1,              Julien%Guntz%NULL%1,              Laurent%Jadot%NULL%1,              Romain%Persichini%NULL%1,              Vanessa%Jean-Michel%NULL%1,              Hugues%Georges%NULL%1,              Thomas%Caulier%NULL%1,              Gaël%Pradel%NULL%1,              Marie-Hélène%Hausermann%NULL%1,              ThiMy Hue%Nguyen-Valat%NULL%1,              Michel%Boudinaud%NULL%1,              Emmanuel%Vivier%NULL%1,              Sylvène%Rosseli%NULL%1,              Gaël%Bourdin%NULL%1,              Christian%Pommier%NULL%1,              Marc%Vinclair%NULL%1,              Simon%Poignant%NULL%1,              Sandrine%Mons%NULL%1,              Wulfran%Bougouin%NULL%1,              Franklin%Bruna%NULL%1,              Quentin%Maestraggi%NULL%1,              Christian%Roth%NULL%1,              Laurent%Bitker%NULL%1,              François%Dhelft%NULL%1,              Justine%Bonnet-Chateau%NULL%1,              Mathilde%Filippelli%NULL%1,              Tristan%Morichau-Beauchant%NULL%1,              Stéphane%Thierry%NULL%1,              Charlotte%Le Roy%NULL%1,              Mélanie%Saint Jouan%NULL%1,              Bruno%Goncalves%NULL%1,              Aurélien%Mazeraud%NULL%1,              Matthieu%Daniel%NULL%1,              Tarek%Sharshar%NULL%1,              Cyril%Cadoz%NULL%1,              Rostane%Gaci%NULL%1,              Sébastien%Gette%NULL%1,              Guillaune%Louis%NULL%1,              Sophe-Caroline%Sacleux%NULL%1,              Marie-Amélie%Ordan%NULL%1,              Aurélie%Cravoisy%NULL%1,              Marie%Conrad%NULL%1,              Guilhem%Courte%NULL%1,              Sébastien%Gibot%NULL%1,              Younès%Benzidi%NULL%1,              Claudia%Casella%NULL%1,              Laurent%Serpin%NULL%1,              Jean-Lou%Setti%NULL%1,              Marie-Catherine%Besse%NULL%1,              Anna%Bourreau%NULL%1,              Jérôme%Pillot%NULL%1,              Caroline%Rivera%NULL%1,              Camille%Vinclair%NULL%1,              Marie-Aline%Robaux%NULL%1,              Chloé%Achino%NULL%1,              Marie-Charlotte%Delignette%NULL%1,              Tessa%Mazard%NULL%1,              Frédéric%Aubrun%NULL%1,              Bruno%Bouchet%NULL%1,              Aurélien%Frérou%NULL%1,              Laura%Muller%NULL%1,              Charlotte%Quentin%NULL%1,              Samuel%Degoul%NULL%1,              Xavier%Stihle%NULL%1,              Claude%Sumian%NULL%1,              Nicoletta%Bergero%NULL%1,              Bernard%Lanaspre%NULL%1,              Hervé%Quintard%NULL%1,              Eve Marie%Maiziere%NULL%1,              Pierre-Yves%Egreteau%NULL%1,              Guillaume%Leloup%NULL%1,              Florin%Berteau%NULL%1,              Marjolaine%Cottrel%NULL%1,              Marie%Bouteloup%NULL%1,              Matthieu%Jeannot%NULL%1,              Quentin%Blanc%NULL%1,              Julien%Saison%NULL%1,              Isabelle%Geneau%NULL%1,              Romaric%Grenot%NULL%1,              Abdel%Ouchike%NULL%1,              Pascal%Hazera%NULL%1,              Anne-Lyse%Masse%NULL%1,              Suela%Demiri%NULL%1,              Corinne%Vezinet%NULL%1,              Elodie%Baron%NULL%1,              Déborah%Benchetrit%NULL%1,              Antoine%Monsel%NULL%1,              Grégoire%Trebbia%NULL%1,              Emmanuelle%Schaack%NULL%1,              Raphaël%Lepecq%NULL%1,              Mathieu%Bobet%NULL%1,              Christophe%Vinsonneau%NULL%1,              Thibault%Dekeyser%NULL%1,              Quentin%Delforge%NULL%1,              Imen%Rahmani%NULL%1,              Bérengère%Vivet%NULL%1,              Jonathan%Paillot%NULL%1,              Lucie%Hierle%NULL%1,              Claire%Chaignat%NULL%1,              Sarah%Valette%NULL%1,              Benoït%Her%NULL%1,              Jennifier%Brunet%NULL%1,              Mathieu%Page%NULL%1,              Fabienne%Boiste%NULL%1,              Anthony%Collin%NULL%1,              Florent%Bavozet%NULL%2,              Aude%Garin%NULL%1,              Mohamed%Dlala%NULL%1,              Kais%Mhamdi%NULL%1,              Bassem%Beilouny%NULL%1,              Alexandra%Lavalard%NULL%1,              Severine%Perez%NULL%1,              Benoit%Veber%NULL%1,              Pierre-Gildas%Guitard%NULL%1,              Philippe%Gouin%NULL%1,              Anna%Lamacz%NULL%1,              Fabienne%Plouvier%NULL%1,              Bertrand P.%Delaborde%NULL%1,              Aïssa%Kherchache%NULL%1,              Amina%Chaalal%NULL%1,              Jean-Damien%Ricard%NULL%1,              Marc%Amouretti%NULL%1,              Santiago%Freita-Ramos%NULL%1,              Damien%Roux%NULL%1,              Jean-Michel%Constantin%NULL%1,              Mona%Assefi%NULL%1,              Marine%Lecore%NULL%1,              Agathe%Selves%NULL%1,              Florian%Prevost%NULL%1,              Christian%Lamer%NULL%1,              Ruiying%Shi%NULL%1,              Lyes%Knani%NULL%1,              Sébastien%Pili-Floury%NULL%1,              Lucie%Vettoretti%NULL%1,              Michael%Levy%NULL%1,              Lucile%Marsac%NULL%1,              Stéphane%Dauger%NULL%1,              Sophie%Guilmin-Crépon%NULL%1,              Jean-Baptiste%Putegnat%NULL%1,              Frédérique%Bayle%NULL%1,              Maya%Perrou%NULL%1,              Ghyslaine%Thao%NULL%1,              Guillaume%Géri%NULL%1,              Cyril%Charron%NULL%1,              Xavier%Repessé%NULL%1,              Antoine%Vieillard-Baron%NULL%1,              Mathieu%Guilbart%NULL%1,              Pierre-Alexandre%Roger%NULL%1,              Sébastien%Hinard%NULL%1,              Pierre-Yves%Macq%NULL%1,              Kevin%Chaulier%NULL%1,              Sylvie%Goutte%NULL%1,              Patrick%Chillet%NULL%1,              Anaïs%Pitta%NULL%1,              Barbara%Darjent%NULL%1,              Amandine%Bruneau%NULL%1,              Sigismond%Lasocki%NULL%1,              Maxime%Leger%NULL%1,              Soizic%Gergaud%NULL%1,              Pierre%Lemarie%NULL%1,              Nicolas%Terzi%NULL%1,              Carole%Schwebel%NULL%1,              Anaïs%Dartevel%NULL%1,              Louis-Marie%Galerneau%NULL%1,              Jean-Luc%Diehl%NULL%1,              Caroline%Hauw-Berlemont%NULL%0,              Nicolas%Péron%NULL%1,              Emmanuel%Guérot%NULL%1,              Abolfazl Mohebbi%Amoli%NULL%1,              Michel%Benhamou%NULL%1,              Jean-Pierre%Deyme%NULL%1,              Olivier%Andremont%NULL%1,              Diane%Lena%NULL%1,              Julien%Cady%NULL%1,              Arnaud%Causeret%NULL%1,              Arnaud%De La Chapelle%NULL%1,              Christophe%Cracco%NULL%1,              Stéphane%Rouleau%NULL%1,              David%Schnell%NULL%1,              Cécile%Lory%NULL%1,              Thibault%Chapelle%NULL%1,              Vincent%Bruckert%NULL%1,              Julie%Garcia%NULL%1,              Abdlazize%Sahraoui%NULL%1,              Nathalie%Abbosh%NULL%1,              Caroline%Bornstain%NULL%1,              Pierre%Pernet%NULL%1,              Florent%Poirson%NULL%1,              Ahmed%Pasem%NULL%1,              Philippe%Karoubi%NULL%1,              Virginie%Poupinel%NULL%1,              Caroline%Gauthier%NULL%1,              François%Bouniol%NULL%1,              Philippe%Feuchere%NULL%1,              Florent%Bavozet%NULL%0,              Anne%Heron%NULL%1,              Serge%Carreira%NULL%1,              Malo%Emery%NULL%1,              Anne%Le Floch%NULL%1,              Luana%Giovannangeli%NULL%1,              Nicolas%Herzog%NULL%1,              Christophe%Giacardi%NULL%1,              Thibaut%Baudic%NULL%1,              Chloé%Thill%NULL%1,              Florence%Tubach%NULL%1,              Olivier%Lesieur%NULL%1,              Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,              Max W.%Adelman%NULL%2,              Maxwell A.%Hockstein%NULL%1,              Chad J.%Robichaux%NULL%1,              Johnathan A.%Edwards%NULL%1,              Jane C.%Fazio%NULL%1,              James M.%Blum%NULL%3,              Craig S.%Jabaley%NULL%2,              Mark%Caridi-Scheible%NULL%2,              Greg S.%Martin%NULL%2,              David J.%Murphy%NULL%3,              Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,            Antonelli%M.%coreGivesNoEmail%0,            Bellani%G.%coreGivesNoEmail%0,            Bonanomi%E.%coreGivesNoEmail%0,            Cabrini%L.%coreGivesNoEmail%0,            Carlesso%E.%coreGivesNoEmail%0,            Castelli%G.%coreGivesNoEmail%0,            Cattaneo%S.%coreGivesNoEmail%0,            Cecconi%M.%coreGivesNoEmail%0,            Cereda%D.%coreGivesNoEmail%0,            Colombo%S.%coreGivesNoEmail%0,            Coluccello%A.%coreGivesNoEmail%0,            Crescini%G.%coreGivesNoEmail%0,            Forastieri%Molinari A.%coreGivesNoEmail%0,            Foti%G.%coreGivesNoEmail%0,            Fumagalli%R.%coreGivesNoEmail%0,            Grasselli%G.%coreGivesNoEmail%0,            Greco%M.%coreGivesNoEmail%0,            Iotti%G. A.%coreGivesNoEmail%0,            Langer%T.%coreGivesNoEmail%0,            Latronico%N.%coreGivesNoEmail%0,            Lorini%F. L.%coreGivesNoEmail%0,            Mojoli%F.%coreGivesNoEmail%0,            Natalini%G.%coreGivesNoEmail%0,            Pesenti%A.%coreGivesNoEmail%0,            Pessina%C. M.%coreGivesNoEmail%0,            Ranieri%V. M.%coreGivesNoEmail%0,            Rech%R.%coreGivesNoEmail%0,            Rosano%A.%coreGivesNoEmail%0,            Scudeller%L.%coreGivesNoEmail%0,            Storti%E.%coreGivesNoEmail%0,            Thompson%B. T.%coreGivesNoEmail%0,            Tirani%M.%coreGivesNoEmail%0,            Villani%P. G.%coreGivesNoEmail%0,            Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,              Keum-Ju%Choi%NULL%1,              Sun Ha%Choi%NULL%1,              Shin Yup%Lee%NULL%1,              Kyung Chan%Kim%NULL%1,              Eun Jin%Kim%NULL%1,              Jaehee%Lee%NULL%2,              Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,              Siddique%Chaudhary%NULL%1,              Kevin%Bryan Lo%NULL%2,              Kevin%Bryan Lo%NULL%0,              Robert%DeJoy%NULL%1,              Fahad%Gul%NULL%1,              Ricardo%Torres%NULL%1,              Neal%Chaisson%NULL%2,              Neal%Chaisson%NULL%0,              Gabriel%Patarroyo-Aponte%NULL%2,              Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,              Bruno L.%Ferreyro%NULL%2,              Bruno L.%Ferreyro%NULL%0,              Federico%Angriman%NULL%1,              María%Hernández-Sanz%NULL%2,              Egoitz%Arruti%NULL%1,              Antoni%Torres%NULL%2,              Jesús%Villar%NULL%1,              Laurent%Brochard%NULL%1,              Carlos%Ferrando%NULL%2,              Ricard%Mellado-Artigas%NULL%1,              María%Hernández-Sanz%NULL%0,              Carlos%Ferrando%NULL%0,              Marina%Vendrell%NULL%1,              Gerard%Sánchez-Etayo%NULL%1,              Amalia%Alcón%NULL%1,              Isabel%Belda%NULL%1,              Mercé%Agustí%NULL%1,              Albert%Carramiñana%NULL%1,              Isabel%Gracia%NULL%1,              Miriam%Panzeri%NULL%1,              Irene%León%NULL%1,              Jaume%Balust%NULL%1,              Ricard%Navarro%NULL%2,              María José%Arguís%NULL%1,              María José%Carretero%NULL%1,              Cristina%Ibáñez%NULL%1,              Juan%Perdomo%NULL%1,              Antonio%López%NULL%1,              Manuel%López-Baamonde%NULL%1,              Tomás%Cuñat%NULL%1,              Marta%Ubré%NULL%1,              Antonio%Ojeda%NULL%1,              Andrea%Calvo%NULL%1,              Eva%Rivas%NULL%1,              Paola%Hurtado%NULL%1,              Roger%Pujol%NULL%1,              Nuria%Martín%NULL%1,              Javier%Tercero%NULL%1,              Pepe%Sanahuja%NULL%1,              Marta%Magaldi%NULL%1,              Miquel%Coca%NULL%1,              Elena%del Rio%NULL%1,              Julia%Martínez-Ocon%NULL%1,              Paula%Masgoret%NULL%1,              Monserrat%Tio%NULL%1,              Angel%Caballero%NULL%1,              Raquel%Risco%NULL%1,              Raquel%Bergé%NULL%1,              Lidia%Gómez%NULL%1,              Nicolás%de Riva%NULL%1,              Ana%Ruiz%NULL%1,              Beatriz%Tena%NULL%1,              Sebastián%Jaramillo%NULL%1,              José María%Balibrea%NULL%1,              Francisco Borja de Borja%de Lacy%NULL%1,              Ana%Otero%NULL%1,              Ainitze%Ibarzabal%NULL%1,              Raquel%Bravo%NULL%1,              Anna%Carreras%NULL%1,              Daniel%Martín-Barreda%NULL%1,              Alfonso Jesús%Alias%NULL%1,              Mariano%Balaguer%NULL%1,              Jorge%Aliaga%NULL%1,              Alex%Almuedo%NULL%1,              Joan Ramón%Alonso%NULL%1,              Rut%Andrea%NULL%1,              Gerard Sergi%Angelès%NULL%1,               Marilyn%Arias%NULL%1,              Fátima%Aziz%NULL%1,              Joan Ramon%Badía%NULL%1,              Enric%Barbeta%NULL%1,              Toni%Torres%NULL%1,              Guillem%Batiste%NULL%1,              Pau%Benet%NULL%1,              Xavi%Borrat%NULL%1,              María%Borrell%NULL%1,              Ernest%Bragulat%NULL%1,              Inmaculada%Carmona%NULL%1,              Manuel%Castellà%NULL%1,              Pedro%Castro%NULL%1,              Joan%Ceravalls%NULL%1,              Oscar%Comino%NULL%1,              Claudia%Cucciniello%NULL%1,              Clàudia%De Deray%NULL%1,              Oriol%De Diego%NULL%1,              Paula%De la Matta%NULL%1,              Marta%Farrero%NULL%1,              Javier%Fernández%NULL%1,              Sara%Fernández%NULL%1,              Anna%Fernández%NULL%1,              Miquel%Ferrer%NULL%1,              Ana%Fervienza%NULL%1,              María%Tallo Forga%NULL%1,              Daniel%Forné%NULL%1,              Clàudia%Galán%NULL%1,              Andrea%Gómez%NULL%1,              Eduard%Guasch%NULL%1,              María%Hernández-Tejero%NULL%1,              Adriana%Jacas%NULL%1,              Beltrán%Jiménez%NULL%1,              Pere%Leyes%NULL%1,              Teresa%López%NULL%1,              José Antonio%Martínez%NULL%1,              Graciela%Martínez-Pallí%NULL%1,              Jordi%Mercadal%NULL%1,              Guido%Muñoz%NULL%1,              José%Muñoz%NULL%1,              Ricard%Navarro%NULL%0,              Josep María%Nicolás%NULL%1,              José Tomás%Ortiz%NULL%1,              Anna%Peiró%NULL%1,              Manuel%Pérez%NULL%1,              Esteban%Poch%NULL%1,              Margarida%Pujol%NULL%1,              Eduard%Quintana%NULL%1,              Bartomeu%Ramis%NULL%1,              Enric%Reverter%NULL%1,              Irene%Rovira%NULL%1,              Pablo%Ruiz%NULL%1,              Elena%Sandoval%NULL%1,              Stefan%Schneider%NULL%1,              Oriol%Sibila%NULL%1,              Carla%Solé%NULL%1,              Alex%Soriano%NULL%1,              Dolors%Soy%NULL%1,              M.%Suárez%NULL%1,              Adrián%Téllez%NULL%1,              Néstor David%Toapanta%NULL%1,              Antoni%Torres%NULL%0,              Xavier%Urra%NULL%1,              César%Aldecoa%NULL%1,              Alicia%Bordell%NULL%1,              Silvia%Martín%NULL%1,              Judith%Andrés%NULL%1,              Alberto Martínez%Ruiz%NULL%1,              Gonzalo Tamayo%Medel%NULL%1,              Iñaki Bilbao Bilbao%Villasante%NULL%1,              Fernando Iturri%Clavero%NULL%1,              Covadonga Peralta%Álvarez%NULL%1,              Julia T.%Herrera Díez%NULL%1,              Andrea García%Trancho%NULL%1,              Iñaki Sainz %Mandiola%NULL%1,              Carmen Ruano%Suarez%NULL%1,              Angela Ruiz%Bocos%NULL%1,              Eneritz Urrutia%Izagirre%NULL%1,              Pablo Ortiz%de Urbina Fernández%NULL%1,              Naiara Apodaka%López%NULL%1,              Leire Prieto%Molano%NULL%1,              Eunate Ganuza%Martínez%NULL%1,              Iratxe Vallinas%Hidalgo%NULL%1,              Karmele%de Orte Sancho%NULL%1,              Celia González%Paniagua%NULL%1,              Gemma Ortiz%Labrador%NULL%1,              Mireia Pérez%Larrañaga%NULL%1,              Marta López%Miguelez%NULL%1,              Estíbaliz Bárcena%Andrés%NULL%1,              Erik Urutxurtu%Laureano%NULL%1,              Maria Jesús Maroño%Boedo%NULL%1,              Blanca Escontrela%Rodríguez%NULL%1,              Aitziber Ereñozaga%Camiruaga%NULL%1,              Deiene Lasuen%Aguirre%NULL%1,              Ainhoa Zabal%Maeztu%NULL%1,              Ane Guereca%Gala%NULL%1,              Iker Castelo%Korro%NULL%1,              Andrés Álvarez%Campo%NULL%1,              Alejandro Carcelen%Viana%NULL%1,              Alejandro Alberdi%Enríquez%NULL%1,              Xabier Ormazábal%Rementeria%NULL%1,              Alberto Sánchez%Campos%NULL%1,              Rosa Gutiérrez%Rico%NULL%1,              Pablo Barbier%Damborenea%NULL%1,              Marta Guerenabarrena%Momeñe%NULL%1,              Borja Cuesta%Ruiz%NULL%1,              Alejandro López%Rico%NULL%1,              Ana Rojo%Polo%NULL%1,              Covadonga García%Grijelmo%NULL%1,              Mikel Celorrio%Reta%NULL%1,              Eneko Martín%Arroyo%NULL%1,              Leire Artaza%Aparicio%NULL%1,              Iñaki Ituarte%Aspiazu%NULL%1,              Ane Igeregi%Basabe%NULL%1,              Itxaso Merino%Julian%NULL%1,              Isabel Diaz%Rico%NULL%1,              Maria Paz%Martínez%NULL%1,              Ramón%Adalia Bartolomé%NULL%1,              Luigi%Zattera%NULL%1,              Irina Adalid%Hernandez%NULL%1,              Leire Larrañaga%Altuna%NULL%1,              Aina Serrallonga%Castells%NULL%1,              Adriana Vílchez%Garcia%NULL%1,              María%Núñez%NULL%1,              Lorena%Román%NULL%1,              Isabel Ramos%Delgado%NULL%1,              Adela Benítez-Cano%Martínez%NULL%1,              Mireia Chanzá%Albert%NULL%1,              Juan Carlos Álvarez%García%NULL%1,              Luis Aguilera%Cuchillo%NULL%1,              Sandra Beltrán%de Heredia%NULL%1,              Jesús Carazo%Cordobés%NULL%1,              Carlos Alberto García%Bernedo%NULL%1,              Fernando Escolano%Villén%NULL%1,              Francisco Javier Redondo%Calvo%NULL%1,              Rubén Villazala%González%NULL%1,              Victor Baladron%González%NULL%1,              Patricia%Faba%NULL%1,              Omar%Montenegro%NULL%1,              Natalia Bejarano%Ramírez%NULL%1,              Sergio Marcos%Contreras%NULL%1,              Alejandro Garcia%Rodríguez%NULL%1,              Saleta Rey%Vázquez%NULL%1,              Cristina Garcia%Pérez%NULL%1,              Eva Higuera%Miguelez%NULL%1,              Irene Pérez%Blanco%NULL%1,              David García%Rivera%NULL%1,              Ane Martín%de la Fuente%NULL%1,              Marta%Pardo%NULL%1,              Vanessa%Rodriguez%NULL%1,              Unai%Bengoetxea%NULL%1,              Fernando%Ramasco%NULL%1,              Sheila Olga Santidrián%Bernal%NULL%1,              Alvar Santa Cruz%Hernando%NULL%1,              Antonio Planas%Roca%NULL%1,              Carlos Figueroa%Yusta%NULL%1,              Esther García%Villabona%NULL%1,              Carmen Vallejo%Lantero%NULL%1,              Eva Patiño%Rodriguez%NULL%1,              Alvaro Esquivel%Toledo%NULL%1,              David Arribas%Méndez%NULL%1,              Mar Orts%Rodriguez%NULL%1,              Rosa Méndez%Hernández%NULL%1,              Jesús Nieves%Alonso%NULL%1,              Inés Imaz%Artazcoz%NULL%1,              Sonia Expósito%Carazo%NULL%1,              Carlos Román%Guerrero%NULL%1,              Elena Rojo%Rodríguez%NULL%1,              Ricardo Moreno%González%NULL%1,              Julia Hernando%Santos%NULL%1,              Jara Torrente%Pérez%NULL%1,              Esperanza Mata%Mena%NULL%1,              Manuel José Muñoz%Martínez%NULL%1,              Enrique Alday%Muñoz%NULL%1,              Patricia Martin%Serrano%NULL%1,              Laura Cotter%Muñoz%NULL%1,              Amadea%Mjertan%NULL%1,              Diego Gutierrez%Martínez%NULL%1,              Carmen Rodríguez%García%NULL%1,              Olaya Alonso%Viejo%NULL%1,              Juan Alvarez%Pereira%NULL%1,              Ana Carmona%Bonet%NULL%1,              Diana Parrado%López%NULL%1,              Eva%de Dios Tomas%NULL%1,              Rafael Martín%Celemin%NULL%1,              María Luisa Meilan%Paz%NULL%1,              Luis Quecedo%Gutiérrez%NULL%1,              Noemí Diaz%Velasco%NULL%1,              Gabriel Martin%Hernández%NULL%1,              Francisco Garcia%del Corral%NULL%1,              Gloria Hernandez%Arias%NULL%1,              David Rodriguez%Cuesta%NULL%1,              Ana Gómez%Rice%NULL%1,              Encarna Mateos%Sevillano%NULL%1,              Natalia Olmos%Molpeceres%NULL%1,              Beatriz%Domínguez%NULL%1,              Ana Vázquez%Lima%NULL%1,              Ángel%Candela%NULL%1,              Ismael A. Acevedo%Bambaren%NULL%1,              Maria Isabel Albala%Blanco%NULL%1,              Paloma Alonso%Montoiro%NULL%1,              Fernando Álvarez%Utrera%NULL%1,              Juan Avellanosa%Esteruelas%NULL%1,              Amal Azzam%López%NULL%1,              Alberto José%Balvis%NULL%1,              Balvis Tommaso%Bardi%NULL%1,              María Beltrán%Martín%NULL%1,              Jacobo Benatar%Haserfaty%NULL%1,              Alberto Berruezo%Camacho%NULL%1,              Laura Betolaza%Weimer%NULL%1,              María%del Mar Carbonell Soto%NULL%1,              Cristina Carrasco%Seral%NULL%1,              Cristina Cerro %Zaballos%NULL%1,              Elizabeth Claros%Llamas%NULL%1,              Pilar Coleta%Orduna%NULL%1,              Ingrid P. Cortes%Forero%NULL%1,              Pascual Agustín Crespo%Aliseda%NULL%1,              María Angélica%de Pablo Pajares%NULL%1,              Yolanda Díez%Remesal%NULL%1,              Trinidad Dorado%Díaz%NULL%1,              Noemí Echevarría%Blasco%NULL%1,              María Elena Elías%Martín%NULL%1,              Javier Felices%Triviño%NULL%1,              Natalia Fernández%López%NULL%1,              Cristina Fernández%Martín%NULL%1,              Natalia Ferreiro%Pozuelo%NULL%1,              Luis Gajate%Martín%NULL%1,              Clara Gallego%Santos%NULL%1,              Diego Gil%Mayo%NULL%1,              María Gómez%Rojo%NULL%1,              Claudia González%Cibrián%NULL%1,              Elena Herrera%López%NULL%1,              Borja Hinojal%Olmedillo%NULL%1,              Berta Iglesias%Gallego%NULL%1,              Sassan%Khonsari%NULL%1,              María Nuria Mane%Ruiz%NULL%1,              María Manzanero%Arroyo%NULL%1,              Ana María Mariscal%Ortega%NULL%1,              Sara Martín%Burcio%NULL%1,              María%del Carmen Martín González%NULL%1,              Ascensión Martín%Grande%NULL%1,              Jose Juan Martín%López%NULL%1,              Cecilia Martín%Rabes%NULL%1,              Marcos Martínez%Borja%NULL%1,              Nilda Martínez%Castro%NULL%1,              Adolfo Martínez%Pérez%NULL%1,              Snejana%Matcan%NULL%1,              Cristina Medrano%Viñas%NULL%1,              Lisset Miguel%Herrera%NULL%1,              Adrián Mira%Betancur%NULL%1,              María Montiel%Carbajo%NULL%1,              Javier Moya%Moradas%NULL%1,              Lorena Muñoz%Pérez%NULL%1,              Mónica Nuñez%Murias%NULL%1,              Eva Ordiales%González%NULL%1,              Óscar Ordoñez%Recio%NULL%1,              Miguel Ángel Palomero%Rodriguez%NULL%1,              Diego Parise%Roux%NULL%1,              Lucia Pereira%Torres%NULL%1,              David Pestaña%Lagunas%NULL%1,              Juana María Pinto%Corraliza%NULL%1,              Marian Prieto%Rodrigo%NULL%1,              Inmaculada Rodriguez%Diaz-Regaño%NULL%1,              David Rodriguez%Esteban%NULL%1,              Víctor Rojas%Pernia%NULL%1,              Álvaro Ruigómez%Saiz%NULL%1,              Bárbara Saavedra%Villarino%NULL%1,              Noemí Samaranch%Palero%NULL%1,              Gloria Santos%Pérez%NULL%1,              Jaume Serna%Pérez%NULL%1,              Ana Belén Serrano%Romero%NULL%1,              Jesús Tercero%López%NULL%1,              Carlos Tiscar%García%NULL%1,              Marta%de la Torre Concostrina%NULL%1,              Eva María Ureta%Mesa%NULL%1,              Eva Velasco%Olarte%NULL%1,              Judith Villahoz%Martínez%NULL%1,              Raúl Villalaba%Palacios%NULL%1,              Gema Villanueva%García%NULL%1,              Cristina Vogel%de Medeiros%NULL%1,              Soraya Gholamian%Ovejero%NULL%1,              Marta Vicente%Orgaz%NULL%1,              Patricia Lloreda%Herradon%NULL%1,              Cristina Crespo%Gómez%NULL%1,              Tatiana%Sarmiento-Trujillo%NULL%1,              Noemí García%Medina%NULL%1,              María Martínez%García%NULL%1,              Carles Espinós%Ramírez%NULL%1,              Nabil Mouhaffel%Rivero%NULL%1,              Jose Antonio Bernia%Gil%NULL%1,              Sonsoles%Martín%NULL%1,              María Victoria%Moral%NULL%1,              Josefina%Galán%NULL%1,              Pilar%Paniagua%NULL%1,              Sergio%Pérez%NULL%1,              Albert%Bainac%NULL%1,              Ana%Arias%NULL%1,              Elsa%Ramil%NULL%1,              Jorge%Escudero%NULL%1,              Pablo%Monedero%NULL%1,              Carmen%Cara%NULL%1,              Andrea%Lara%NULL%1,              Elena Mendez%Martínez%NULL%1,              Jorge%Mendoza%NULL%1,              Íñigo Rubio%Baines%NULL%1,              Carmen Sala%Trull%NULL%1,              Pablo Montero%López%NULL%1,              Alfredo%Gea%NULL%1,              Alejandro%Montero%NULL%1,              Rocío Armero%Ibañez%NULL%1,              Juan Vicente Llau%Pitarch%NULL%1,              Fernando Rauer%Alcóver%NULL%1,              Cristina Álvarez%Herreros%NULL%1,              Cyntia Sánchez%Martín%NULL%1,              Lucía López Ocáriz%Olmos%NULL%1,              Marta Navas%Moruno%NULL%1,              Fernando García%Montoto%NULL%1,              M. F. Mirón%Rodriguez%NULL%1,              Laura Fuentes%Coco%NULL%1,              Cristina Hernández%Gamito%NULL%1,              Antonio Barba%Orejudo%NULL%1,              Luis Gerardo Smith%Vielma%NULL%1,              Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,              Marta Donoso%Domínguez%NULL%1,              Silvia Esquivel%Ramírez%NULL%1,              José Antonio%Carbonell%NULL%1,              Berta Monleón%López%NULL%1,              Sara%Martínez-Castro%NULL%1,              Gerardo%Aguilar%NULL%1,              María Gestal Pablo%Casas%NULL%1,              Angel Outeiro%Rosato%NULL%1,              Andrea Naveiro%Pan%NULL%1,              María Alonso%Portela%NULL%1,              Adrián García%Romar%NULL%1,              Eva Mosquera%Rodríguez%NULL%1,              Diego Ruanova%Seijo%NULL%1,              Pablo Rama%Maceiras%NULL%1,              Francisco%Castro-Ceoane%NULL%1,              Esther Moreno%López%NULL%1,              Sergio%Gil%NULL%1,              Julia Guillén%Antón%NULL%1,              Patricia García-Consuegra%Tirado%NULL%1,              Aurora Callau%Calvo%NULL%1,              Laura Forés%Lisbona%NULL%1,              María Carbonell%Romero%NULL%1,              Belén Albericio%Gil%NULL%1,              Laura Pradal%Jarne%NULL%1,              María Soria%Lozano%NULL%1,              Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,              Navjot Ariyana%Kaur%NULL%1,              Daniel%Sacher%NULL%1,              Oisin%O’Corragain%NULL%1,              Daniel%Salerno%NULL%1,              Parag%Desai%NULL%1,              Sameep%Sehgal%NULL%1,              Matthew%Gordon%NULL%2,              Rohit%Gupta%NULL%2,              Nathaniel%Marchetti%NULL%1,              Huaqing%Zhao%NULL%2,              Nicole%Patlakh%NULL%2,              Gerard J.%Criner%NULL%1,              Temple%University%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,              Dominik%Jarczak%NULL%1,              Liina%Thasler%NULL%1,              Martin%Bachmann%NULL%1,              Frank%Schulte%NULL%1,              Berthold%Bein%NULL%1,              Christian Friedrich%Weber%NULL%1,              Ulrich%Schäfer%NULL%1,              Carsten%Veit%NULL%1,              Hans-Peter%Hauber%NULL%1,              Sebastian%Kopp%NULL%1,              Karsten%Sydow%NULL%1,              Andreas%de Weerth%NULL%0,              Marc%Bota%NULL%1,              Rüdiger%Schreiber%NULL%1,              Oliver%Detsch%NULL%1,              Jan-Peer%Rogmann%NULL%1,              Daniel%Frings%NULL%0,              Barbara%Sensen%NULL%1,              Christoph%Burdelski%NULL%0,              Olaf%Boenisch%NULL%1,              Axel%Nierhaus%NULL%0,              Geraldine%de Heer%NULL%0,              Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1332,7 +1368,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1361,7 +1397,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1390,7 +1426,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1419,7 +1455,7 @@
         <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1448,7 +1484,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1477,7 +1513,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1506,7 +1542,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1535,7 +1571,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1564,7 +1600,7 @@
         <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1593,7 +1629,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1622,7 +1658,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="265">
   <si>
     <t>Doi</t>
   </si>
@@ -943,6 +943,78 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,              Dominik%Jarczak%NULL%1,              Liina%Thasler%NULL%1,              Martin%Bachmann%NULL%1,              Frank%Schulte%NULL%1,              Berthold%Bein%NULL%1,              Christian Friedrich%Weber%NULL%1,              Ulrich%Schäfer%NULL%1,              Carsten%Veit%NULL%1,              Hans-Peter%Hauber%NULL%1,              Sebastian%Kopp%NULL%1,              Karsten%Sydow%NULL%1,              Andreas%de Weerth%NULL%0,              Marc%Bota%NULL%1,              Rüdiger%Schreiber%NULL%1,              Oliver%Detsch%NULL%1,              Jan-Peer%Rogmann%NULL%1,              Daniel%Frings%NULL%0,              Barbara%Sensen%NULL%1,              Christoph%Burdelski%NULL%0,              Olaf%Boenisch%NULL%1,              Axel%Nierhaus%NULL%0,              Geraldine%de Heer%NULL%0,              Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,               Paolo%Comassi%NULL%1,               Luca%Adriani%NULL%1,               Giulio%Bergamaschini%NULL%1,               Elena%Bertin%NULL%1,               Raffaella%Borromeo%NULL%1,               Serena%Corti%NULL%1,               Federica%De Petri%NULL%1,               Francesco%Dolci%NULL%1,               Attilio%Galmozzi%NULL%1,               Alberto%Gigliotti%NULL%1,               Livio%Gualdoni%NULL%1,               Claudia%Guerra%NULL%1,               Anna%Khosthiova%NULL%1,               Giovanni%Leati%NULL%1,               Giuseppe%Lupi%NULL%1,               Paolo%Moscato%NULL%1,               Vittorio%Perotti%NULL%1,               Miriam%Piantelli%NULL%1,               Alain%Ruini%NULL%1,               Silvia%Sportelli%NULL%1,               Micaela%Susca%NULL%1,               Carmine%Troiano%NULL%1,               Giampaolo%Benelli%NULL%1,               Elisabetta%Buscarini%NULL%1,               Ciro%Canetta%NULL%1,               Guido%Merli%NULL%1,               Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,               Emna%Ennouri%NULL%1,               Rayane%Nachi%NULL%1,               Khaoula%Meddeb%NULL%1,               Jihene%Mahmoud%NULL%1,               Nesrine%Thabet%NULL%1,               Salma%Jerbi%NULL%1,               Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,               Eleni%Xourgia%NULL%1,               Theodora K.%Ntaidou%NULL%1,               Dimitris%Zervakis%NULL%1,               Eleni E.%Magira%NULL%1,               Anastasia%Kotanidou%NULL%1,               Christina%Routsi%NULL%1,               Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,               Carina%Mostert%NULL%1,               Corinna%Hentschker%NULL%1,               Thomas%Voshaar%NULL%1,               Jürgen%Malzahn%NULL%1,               Gerhard%Schillinger%NULL%1,               Jürgen%Klauber%NULL%1,               Uwe%Janssens%NULL%1,               Gernot%Marx%NULL%1,               Steffen%Weber-Carstens%NULL%1,               Stefan%Kluge%NULL%0,               Michael%Pfeifer%NULL%1,               Linus%Grabenhenrich%NULL%1,               Tobias%Welte%NULL%1,               Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,               David%Hajage%NULL%2,               David%Hajage%NULL%0,               Alexandre%Demoule%NULL%1,               Tài%Pham%NULL%1,               Alain%Combes%NULL%1,               Martin%Dres%NULL%1,               Said%Lebbah%NULL%1,               Antoine%Kimmoun%NULL%1,               Alain%Mercat%NULL%1,               Gaëtan%Beduneau%NULL%1,               Jessica%Palmyre%NULL%1,               Margot%Prevost%NULL%1,               Pierre%Asfar%NULL%1,               François%Beloncle%NULL%1,               Julien%Demiselle%NULL%1,               Arthur%Pavot%NULL%1,               Xavier%Monnet%NULL%1,               Christian%Richard%NULL%1,               Julien%Mayaux%NULL%1,               Alexandra%Beurton%NULL%1,               Richard%Descamps%NULL%1,               Aurélie%Joret%NULL%1,               Damien%Du Cheyron%NULL%1,               Frédéric%Pene%NULL%1,               Jean-Daniel%Chiche%NULL%1,               Mathieu%Jozwiak%NULL%1,               Paul%Jaubert%NULL%1,               Guillaume%Voiriot%NULL%1,               Muriel%Fartoukh%NULL%1,               Marion%Teulier%NULL%1,               Clarisse%Blayau%NULL%1,               Erwen%L’Her%NULL%1,               Cécile%Aubron%NULL%1,               Laetitia%Bodenes%NULL%1,               Nicolas%Ferriere%NULL%1,               Johann%Auchabie%NULL%1,               Anthony%Le Meur%NULL%1,               Sylvain%Pignal%NULL%1,               Thierry%Mazzoni%NULL%1,               Jean-Pierre%Quenot%NULL%1,               Pascal%Andreu%NULL%1,               Jean-Baptiste%Roudau%NULL%1,               Marie%Labruyère%NULL%1,               Saad%Nseir%NULL%0,               Sébastien%Preau%NULL%1,               Julien%Poissy%NULL%0,               Daniel%Mathieu%NULL%0,               Sarah%Benhamida%NULL%1,               Rémi%Paulet%NULL%1,               Nicolas%Roucaud%NULL%1,               Martial%Thyrault%NULL%1,               Florence%Daviet%NULL%1,               Sami%Hraiech%NULL%1,               Gabriel%Parzy%NULL%1,               Aude%Sylvestre%NULL%1,               Sébastien%Jochmans%NULL%1,               Anne-Laure%Bouilland%NULL%1,               Mehran%Monchi%NULL%1,               Marc%Danguy des Déserts%NULL%1,               Quentin%Mathais%NULL%1,               Gwendoline%Rager%NULL%1,               Pierre%Pasquier%NULL%1,               Reignier%Jean%NULL%1,               Seguin%Amélie%NULL%1,               Garret%Charlotte%NULL%1,               Canet%Emmanuel%NULL%1,               Jean%Dellamonica%NULL%1,               Clément%Saccheri%NULL%1,               Romain%Lombardi%NULL%1,               Yanis%Kouchit%NULL%1,               Sophie%Jacquier%NULL%1,               Armelle%Mathonnet%NULL%1,               Mai-Ahn%Nay%NULL%1,               Isabelle%Runge%NULL%1,               Frédéric%Martino%NULL%1,               Laure%Flurin%NULL%1,               Amélie%Rolle%NULL%1,               Michel%Carles%NULL%1,               Rémi%Coudroy%NULL%1,               Arnaud W.%Thille%NULL%1,               Jean-Pierre%Frat%NULL%1,               Maeva%Rodriguez%NULL%1,               Pascal%Beuret%NULL%1,               Audrey%Tientcheu%NULL%1,               Arthur%Vincent%NULL%1,               Florian%Michelin%NULL%1,               Marie Anne%Melone%NULL%1,               Maxime%Gauzi%NULL%1,               Arnaud%Guilbert%NULL%1,               Geoffrey%Kouadri%NULL%1,               Valérie%Gissot%NULL%1,               Stéphan%Ehrmann%NULL%1,               Charlotte%Salmon-Gandonnière%NULL%1,               Djlali%Elaroussi%NULL%1,               Agathe%Delbove%NULL%1,               Yannick%Fedun%NULL%1,               Julien%Huntzinger%NULL%1,               Eddy%Lebas%NULL%1,               Grâce%Kisoka%NULL%1,               Céline%Grégoire%NULL%1,               Stella%Marchetta%NULL%1,               Bernard%Lambermont%NULL%1,               Laurent%Argaud%NULL%1,               Thomas%Baudry%NULL%1,               Pierre-Jean%Bertrand%NULL%1,               Auguste%Dargent%NULL%1,               Christophe%Guitton%NULL%1,               Nicolas%Chudeau%NULL%1,               Mickaël%Landais%NULL%1,               Cédric%Darreau%NULL%1,               Alexis%Ferre%NULL%1,               Antoine%Gros%NULL%1,               Guillaume%Lacave%NULL%1,               Fabrice%Bruneel%NULL%1,               Mathilde%Neuville%NULL%1,               Jérôme%Devaquet%NULL%1,               Guillaume%Tachon%NULL%1,               Richard%Gallot%NULL%1,               Riad%Chelha%NULL%1,               Arnaud%Galbois%NULL%1,               Anne%Jallot%NULL%1,               Ludivine Chalumeau%Lemoine%NULL%1,               Khaldoun%Kuteifan%NULL%1,               Valentin%Pointurier%NULL%1,               Louise-Marie%Jandeaux%NULL%1,               Joy%Mootien%NULL%1,               Charles%Damoisel%NULL%1,               Benjamin%Sztrymf%NULL%1,               Juliette%Chommeloux%NULL%1,               Charles Edouard%Luyt%NULL%1,               Frédérique%Schortgen%NULL%1,               Leon%Rusel%NULL%1,               Camille%Jung%NULL%1,               Florent%Gobert%NULL%1,               Damien%Vimpere%NULL%1,               Lionel%Lamhaut%NULL%1,               Bertrand%Sauneuf%NULL%1,               Liliane%Charrier%NULL%1,               Julien%Calus%NULL%1,               Isabelle%Desmeules%NULL%1,               Benoît%Painvin%NULL%1,               Jean-Marc%Tadie%NULL%1,               Vincent%Castelain%NULL%1,               Baptiste%Michard%NULL%1,               Jean-Etienne%Herbrecht%NULL%1,               Mathieu%Baldacini%NULL%1,               Nicolas%Weiss%NULL%1,               Sophie%Demeret%NULL%1,               Clémence%Marois%NULL%1,               Benjamin%Rohaut%NULL%1,               Pierre-Henri%Moury%NULL%1,               Anne-Charlotte%Savida%NULL%1,               Emmanuel%Couadau%NULL%1,               Mathieu%Série%NULL%1,               Nica%Alexandru%NULL%1,               Cédric%Bruel%NULL%1,               Candice%Fontaine%NULL%1,               Sonia%Garrigou%NULL%1,               Juliette Courtiade%Mahler%NULL%1,               Maxime%Leclerc%NULL%1,               Michel%Ramakers%NULL%1,               Pierre%Garçon%NULL%1,               Nicole%Massou%NULL%1,               Ly Phacs%Van Vong%NULL%1,               Juliane%Sen%NULL%1,               Nolwenn%Lucas%NULL%1,               Franck%Chemouni%NULL%1,               Annabelle%Stoclin%NULL%1,               Alexandre%Avenel%NULL%1,               Henri%Faure%NULL%1,               Angélie%Gentilhomme%NULL%1,               Sylvie%Ricome%NULL%1,               Paul%Abraham%NULL%1,               Céline%Monard%NULL%1,               Julien%Textoris%NULL%1,               Thomas%Rimmele%NULL%1,               Florent%Montini%NULL%1,               Gabriel%Lejour%NULL%1,               Thierry%Lazard%NULL%1,               Isabelle%Etienney%NULL%1,               Younes%Kerroumi%NULL%1,               Dupuis%Claire%NULL%1,               Bereiziat Marine%Coupez%NULL%1,               Thouy%François%NULL%1,               Clémet%Hoffmann%NULL%1,               Nicolas%Donat%NULL%1,               Violaine%Muller%NULL%1,               Thibault%Martinez%NULL%1,               Audrey%Jacquot%NULL%1,               Matthieu%Mattei%NULL%1,               Bruno%Levy%NULL%1,               Ramin%Ravan%NULL%1,               Loïc%Dopeux%NULL%1,               Jean-Mathias%Liteaudon%NULL%1,               Delphine%Roux%NULL%1,               Brice%Rey%NULL%1,               Radu%Anghel%NULL%1,               Deborah%Schenesse%NULL%1,               Vincent%Gevrey%NULL%1,               Jermy%Castanera%NULL%1,               Philippe%Petua%NULL%1,               Benjamin%Madeux%NULL%1,               Otto%Hartman%NULL%1,               Michael%Piagnerelli%NULL%1,               Anne%Joosten%NULL%1,               Cinderella%Noel%NULL%1,               Patrick%Biston%NULL%1,               Thibaut%Noel%NULL%1,               Gurvan L. E.%Bouar%NULL%1,               Messabi%Boukhanza%NULL%1,               Elsa%Demarest%NULL%1,               Marie-France%Bajolet%NULL%1,               Nathanaël%Charrier%NULL%1,               Audrey%Quenet%NULL%1,               Cécile%Zylberfajn%NULL%1,               Nicolas%Dufour%NULL%1,               Buno%Mégarbane%NULL%1,               Sqébastian%Voicu%NULL%1,               Nicolas%Deye%NULL%1,               Isabelle%Malissin%NULL%1,               François%Legay%NULL%1,               Matthieu%Debarre%NULL%1,               Nicolas%Barbarot%NULL%1,               Pierre%Fillatre%NULL%1,               Bertrand%Delord%NULL%1,               Thomas%Laterrade%NULL%1,               Tahar%Saghi%NULL%1,               Wilfried%Pujol%NULL%1,               Pierre Julien%Cungi%NULL%1,               Pierre%Esnault%NULL%1,               Mickael%Cardinale%NULL%1,               Vivien%Hong Tuan Ha%NULL%1,               Grégory%Fleury%NULL%1,               Marie-Ange%Brou%NULL%1,               Daniel%Zafimahazo%NULL%1,               David%Tran-Van%NULL%1,               Patrick%Avargues%NULL%1,               Lisa%Carenco%NULL%1,               Nicolas%Robin%NULL%1,               Alexandre%Ouali%NULL%1,               Lucie%Houdou%NULL%1,               Christophe%Le Terrier%NULL%1,               Noémie%Suh%NULL%1,               Steve%Primmaz%NULL%1,               Jérome%Pugin%NULL%1,               Emmanuel%Weiss%NULL%1,               Tobias%Gauss%NULL%1,               Jean-Denis%Moyer%NULL%1,               Catherine%Paugam-Burtz%NULL%1,               Béatrice%La Combe%NULL%1,               Rolland%Smonig%NULL%1,               Jade%Violleau%NULL%1,               Pauline%Cailliez%NULL%1,               Jonathan%Chelly%NULL%1,               Antoine%Marchalot%NULL%1,               Cécile%Saladin%NULL%1,               Christelle%Bigot%NULL%1,               Pierre-Marie%Fayolle%NULL%1,               Jules%Fatséas%NULL%1,               Amr%Ibrahim%NULL%1,               Dabor%Resiere%NULL%1,               Rabih%Hage%NULL%1,               Clémentine%Cholet%NULL%1,               Marie%Cantier%NULL%1,               Pierre%Trouiller%NULL%1,               Philippe%Montravers%NULL%1,               Brice%Lortat-Jacob%NULL%1,               Sebastien%Tanaka%NULL%1,               Alexy%Tran-Dinh%NULL%1,               Jacques%Duranteau%NULL%1,               Anatole%Harrois%NULL%1,               Guillaume%Dubreuil%NULL%1,               Marie%Werner%NULL%1,               Anne%Godier%NULL%1,               Sophie%Hamada%NULL%1,               Diane%Zlotnik%NULL%1,               Hélène%Nougue%NULL%1,               Armand%Mekontso-Dessap%NULL%1,               Guillaume%Carteaux%NULL%1,               Keyvan%Razazi%NULL%1,               Nicolas%De Prost%NULL%1,               Nicolas%Mongardon%NULL%1,               Olivier%Langeron%NULL%1,               Eric%Levesque%NULL%1,               Arié%Attias%NULL%1,               Charles%de Roquetaillade%NULL%1,               Benjamin G.%Chousterman%NULL%1,               Alexandre%Mebazaa%NULL%1,               Etienne%Gayat%NULL%1,               Marc%Garnier%NULL%1,               Emmanuel%Pardo%NULL%1,               Lea%Satre-Buisson%NULL%1,               Christophe%Gutton%NULL%1,               Elise%Yvin%NULL%1,               Clémence%Marcault%NULL%1,               Elie%Azoulay%NULL%1,               Michael%Darmon%NULL%1,               Nicolas%Bonnet%NULL%1,               Nathan%Ebstein%NULL%1,               Stéphane%Gaudry%NULL%1,               Yves%Cohen%NULL%1,                Hafid%Ait-Oufella%NULL%1,               Geoffroy%Hariri%NULL%1,               Tomas%Urbina%NULL%1,               Sandie%Mazerand%NULL%1,               Nicholas%Heming%NULL%1,               Francesca%Santi%NULL%1,               Pierre%Moine%NULL%1,               Djillali%Annane%NULL%1,               Adrien%Bouglé%NULL%1,               Edris%Omar%NULL%1,               Aymeric%Lancelot%NULL%1,               Emmanuelle%Begot%NULL%1,               Gaétan%Plantefeve%NULL%1,               Damien%Contou%NULL%1,               Hervé%Mentec%NULL%1,               Olivier%Pajot%NULL%1,               Stanislas%Faguer%NULL%1,               Olivier%Cointault%NULL%1,               Laurence%Lavayssiere%NULL%1,               Marie-Béatrice%Nogier%NULL%1,               Matthieu%Jamme%NULL%1,               Claire%Pichereau%NULL%1,               Jan%Hayon%NULL%1,               Hervé%Outin%NULL%1,               François%Dépret%NULL%1,               Maxime%Coutrot%NULL%1,               Maité%Chaussard%NULL%1,               Lucie%Guillemet%NULL%1,               Pierre%Goffin%NULL%1,               Romain%Thouny%NULL%1,               Julien%Guntz%NULL%1,               Laurent%Jadot%NULL%1,               Romain%Persichini%NULL%1,               Vanessa%Jean-Michel%NULL%1,               Hugues%Georges%NULL%1,               Thomas%Caulier%NULL%1,               Gaël%Pradel%NULL%1,               Marie-Hélène%Hausermann%NULL%1,               ThiMy Hue%Nguyen-Valat%NULL%1,               Michel%Boudinaud%NULL%1,               Emmanuel%Vivier%NULL%1,               Sylvène%Rosseli%NULL%1,               Gaël%Bourdin%NULL%1,               Christian%Pommier%NULL%1,               Marc%Vinclair%NULL%1,               Simon%Poignant%NULL%1,               Sandrine%Mons%NULL%1,               Wulfran%Bougouin%NULL%1,               Franklin%Bruna%NULL%1,               Quentin%Maestraggi%NULL%1,               Christian%Roth%NULL%1,               Laurent%Bitker%NULL%1,               François%Dhelft%NULL%1,               Justine%Bonnet-Chateau%NULL%1,               Mathilde%Filippelli%NULL%1,               Tristan%Morichau-Beauchant%NULL%1,               Stéphane%Thierry%NULL%1,               Charlotte%Le Roy%NULL%1,               Mélanie%Saint Jouan%NULL%1,               Bruno%Goncalves%NULL%1,               Aurélien%Mazeraud%NULL%1,               Matthieu%Daniel%NULL%1,               Tarek%Sharshar%NULL%1,               Cyril%Cadoz%NULL%1,               Rostane%Gaci%NULL%1,               Sébastien%Gette%NULL%1,               Guillaune%Louis%NULL%1,               Sophe-Caroline%Sacleux%NULL%1,               Marie-Amélie%Ordan%NULL%1,               Aurélie%Cravoisy%NULL%1,               Marie%Conrad%NULL%1,               Guilhem%Courte%NULL%1,               Sébastien%Gibot%NULL%1,               Younès%Benzidi%NULL%1,               Claudia%Casella%NULL%1,               Laurent%Serpin%NULL%1,               Jean-Lou%Setti%NULL%1,               Marie-Catherine%Besse%NULL%1,               Anna%Bourreau%NULL%1,               Jérôme%Pillot%NULL%1,               Caroline%Rivera%NULL%1,               Camille%Vinclair%NULL%1,               Marie-Aline%Robaux%NULL%1,               Chloé%Achino%NULL%1,               Marie-Charlotte%Delignette%NULL%1,               Tessa%Mazard%NULL%1,               Frédéric%Aubrun%NULL%1,               Bruno%Bouchet%NULL%1,               Aurélien%Frérou%NULL%1,               Laura%Muller%NULL%1,               Charlotte%Quentin%NULL%1,               Samuel%Degoul%NULL%1,               Xavier%Stihle%NULL%1,               Claude%Sumian%NULL%1,               Nicoletta%Bergero%NULL%1,               Bernard%Lanaspre%NULL%1,               Hervé%Quintard%NULL%1,               Eve Marie%Maiziere%NULL%1,               Pierre-Yves%Egreteau%NULL%1,               Guillaume%Leloup%NULL%1,               Florin%Berteau%NULL%1,               Marjolaine%Cottrel%NULL%1,               Marie%Bouteloup%NULL%1,               Matthieu%Jeannot%NULL%1,               Quentin%Blanc%NULL%1,               Julien%Saison%NULL%1,               Isabelle%Geneau%NULL%1,               Romaric%Grenot%NULL%1,               Abdel%Ouchike%NULL%1,               Pascal%Hazera%NULL%1,               Anne-Lyse%Masse%NULL%1,               Suela%Demiri%NULL%1,               Corinne%Vezinet%NULL%1,               Elodie%Baron%NULL%1,               Déborah%Benchetrit%NULL%1,               Antoine%Monsel%NULL%1,               Grégoire%Trebbia%NULL%1,               Emmanuelle%Schaack%NULL%1,               Raphaël%Lepecq%NULL%1,               Mathieu%Bobet%NULL%1,               Christophe%Vinsonneau%NULL%1,               Thibault%Dekeyser%NULL%1,               Quentin%Delforge%NULL%1,               Imen%Rahmani%NULL%1,               Bérengère%Vivet%NULL%1,               Jonathan%Paillot%NULL%1,               Lucie%Hierle%NULL%1,               Claire%Chaignat%NULL%1,               Sarah%Valette%NULL%1,               Benoït%Her%NULL%1,               Jennifier%Brunet%NULL%1,               Mathieu%Page%NULL%1,               Fabienne%Boiste%NULL%1,               Anthony%Collin%NULL%1,               Florent%Bavozet%NULL%2,               Aude%Garin%NULL%1,               Mohamed%Dlala%NULL%1,               Kais%Mhamdi%NULL%1,               Bassem%Beilouny%NULL%1,               Alexandra%Lavalard%NULL%1,               Severine%Perez%NULL%1,               Benoit%Veber%NULL%1,               Pierre-Gildas%Guitard%NULL%1,               Philippe%Gouin%NULL%1,               Anna%Lamacz%NULL%1,               Fabienne%Plouvier%NULL%1,               Bertrand P.%Delaborde%NULL%1,               Aïssa%Kherchache%NULL%1,               Amina%Chaalal%NULL%1,               Jean-Damien%Ricard%NULL%1,               Marc%Amouretti%NULL%1,               Santiago%Freita-Ramos%NULL%1,               Damien%Roux%NULL%1,               Jean-Michel%Constantin%NULL%1,               Mona%Assefi%NULL%1,               Marine%Lecore%NULL%1,               Agathe%Selves%NULL%1,               Florian%Prevost%NULL%1,               Christian%Lamer%NULL%1,               Ruiying%Shi%NULL%1,               Lyes%Knani%NULL%1,               Sébastien%Pili-Floury%NULL%1,               Lucie%Vettoretti%NULL%1,               Michael%Levy%NULL%1,               Lucile%Marsac%NULL%1,               Stéphane%Dauger%NULL%1,               Sophie%Guilmin-Crépon%NULL%1,               Jean-Baptiste%Putegnat%NULL%1,               Frédérique%Bayle%NULL%1,               Maya%Perrou%NULL%1,               Ghyslaine%Thao%NULL%1,               Guillaume%Géri%NULL%1,               Cyril%Charron%NULL%1,               Xavier%Repessé%NULL%1,               Antoine%Vieillard-Baron%NULL%1,               Mathieu%Guilbart%NULL%1,               Pierre-Alexandre%Roger%NULL%1,               Sébastien%Hinard%NULL%1,               Pierre-Yves%Macq%NULL%1,               Kevin%Chaulier%NULL%1,               Sylvie%Goutte%NULL%1,               Patrick%Chillet%NULL%1,               Anaïs%Pitta%NULL%1,               Barbara%Darjent%NULL%1,               Amandine%Bruneau%NULL%1,               Sigismond%Lasocki%NULL%1,               Maxime%Leger%NULL%1,               Soizic%Gergaud%NULL%1,               Pierre%Lemarie%NULL%1,               Nicolas%Terzi%NULL%1,               Carole%Schwebel%NULL%1,               Anaïs%Dartevel%NULL%1,               Louis-Marie%Galerneau%NULL%1,               Jean-Luc%Diehl%NULL%1,               Caroline%Hauw-Berlemont%NULL%0,               Nicolas%Péron%NULL%1,               Emmanuel%Guérot%NULL%1,               Abolfazl Mohebbi%Amoli%NULL%1,               Michel%Benhamou%NULL%1,               Jean-Pierre%Deyme%NULL%1,               Olivier%Andremont%NULL%1,               Diane%Lena%NULL%1,               Julien%Cady%NULL%1,               Arnaud%Causeret%NULL%1,               Arnaud%De La Chapelle%NULL%1,               Christophe%Cracco%NULL%1,               Stéphane%Rouleau%NULL%1,               David%Schnell%NULL%1,               Cécile%Lory%NULL%1,               Thibault%Chapelle%NULL%1,               Vincent%Bruckert%NULL%1,               Julie%Garcia%NULL%1,               Abdlazize%Sahraoui%NULL%1,               Nathalie%Abbosh%NULL%1,               Caroline%Bornstain%NULL%1,               Pierre%Pernet%NULL%1,               Florent%Poirson%NULL%1,               Ahmed%Pasem%NULL%1,               Philippe%Karoubi%NULL%1,               Virginie%Poupinel%NULL%1,               Caroline%Gauthier%NULL%1,               François%Bouniol%NULL%1,               Philippe%Feuchere%NULL%1,               Florent%Bavozet%NULL%0,               Anne%Heron%NULL%1,               Serge%Carreira%NULL%1,               Malo%Emery%NULL%1,               Anne%Le Floch%NULL%1,               Luana%Giovannangeli%NULL%1,               Nicolas%Herzog%NULL%1,               Christophe%Giacardi%NULL%1,               Thibaut%Baudic%NULL%1,               Chloé%Thill%NULL%1,               Florence%Tubach%NULL%1,               Olivier%Lesieur%NULL%1,               Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,               Max W.%Adelman%NULL%2,               Maxwell A.%Hockstein%NULL%1,               Chad J.%Robichaux%NULL%1,               Johnathan A.%Edwards%NULL%1,               Jane C.%Fazio%NULL%1,               James M.%Blum%NULL%3,               Craig S.%Jabaley%NULL%2,               Mark%Caridi-Scheible%NULL%2,               Greg S.%Martin%NULL%2,               David J.%Murphy%NULL%3,               Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,             Antonelli%M.%coreGivesNoEmail%0,             Bellani%G.%coreGivesNoEmail%0,             Bonanomi%E.%coreGivesNoEmail%0,             Cabrini%L.%coreGivesNoEmail%0,             Carlesso%E.%coreGivesNoEmail%0,             Castelli%G.%coreGivesNoEmail%0,             Cattaneo%S.%coreGivesNoEmail%0,             Cecconi%M.%coreGivesNoEmail%0,             Cereda%D.%coreGivesNoEmail%0,             Colombo%S.%coreGivesNoEmail%0,             Coluccello%A.%coreGivesNoEmail%0,             Crescini%G.%coreGivesNoEmail%0,             Forastieri%Molinari A.%coreGivesNoEmail%0,             Foti%G.%coreGivesNoEmail%0,             Fumagalli%R.%coreGivesNoEmail%0,             Grasselli%G.%coreGivesNoEmail%0,             Greco%M.%coreGivesNoEmail%0,             Iotti%G. A.%coreGivesNoEmail%0,             Langer%T.%coreGivesNoEmail%0,             Latronico%N.%coreGivesNoEmail%0,             Lorini%F. L.%coreGivesNoEmail%0,             Mojoli%F.%coreGivesNoEmail%0,             Natalini%G.%coreGivesNoEmail%0,             Pesenti%A.%coreGivesNoEmail%0,             Pessina%C. M.%coreGivesNoEmail%0,             Ranieri%V. M.%coreGivesNoEmail%0,             Rech%R.%coreGivesNoEmail%0,             Rosano%A.%coreGivesNoEmail%0,             Scudeller%L.%coreGivesNoEmail%0,             Storti%E.%coreGivesNoEmail%0,             Thompson%B. T.%coreGivesNoEmail%0,             Tirani%M.%coreGivesNoEmail%0,             Villani%P. G.%coreGivesNoEmail%0,             Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,               Keum-Ju%Choi%NULL%1,               Sun Ha%Choi%NULL%1,               Shin Yup%Lee%NULL%1,               Kyung Chan%Kim%NULL%1,               Eun Jin%Kim%NULL%1,               Jaehee%Lee%NULL%2,               Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,               Siddique%Chaudhary%NULL%1,               Kevin%Bryan Lo%NULL%2,               Kevin%Bryan Lo%NULL%0,               Robert%DeJoy%NULL%1,               Fahad%Gul%NULL%1,               Ricardo%Torres%NULL%1,               Neal%Chaisson%NULL%2,               Neal%Chaisson%NULL%0,               Gabriel%Patarroyo-Aponte%NULL%2,               Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,               Bruno L.%Ferreyro%NULL%2,               Bruno L.%Ferreyro%NULL%0,               Federico%Angriman%NULL%1,               María%Hernández-Sanz%NULL%2,               Egoitz%Arruti%NULL%1,               Antoni%Torres%NULL%2,               Jesús%Villar%NULL%1,               Laurent%Brochard%NULL%1,               Carlos%Ferrando%NULL%2,               Ricard%Mellado-Artigas%NULL%1,               María%Hernández-Sanz%NULL%0,               Carlos%Ferrando%NULL%0,               Marina%Vendrell%NULL%1,               Gerard%Sánchez-Etayo%NULL%1,               Amalia%Alcón%NULL%1,               Isabel%Belda%NULL%1,               Mercé%Agustí%NULL%1,               Albert%Carramiñana%NULL%1,               Isabel%Gracia%NULL%1,               Miriam%Panzeri%NULL%1,               Irene%León%NULL%1,               Jaume%Balust%NULL%1,               Ricard%Navarro%NULL%2,               María José%Arguís%NULL%1,               María José%Carretero%NULL%1,               Cristina%Ibáñez%NULL%1,               Juan%Perdomo%NULL%1,               Antonio%López%NULL%1,               Manuel%López-Baamonde%NULL%1,               Tomás%Cuñat%NULL%1,               Marta%Ubré%NULL%1,               Antonio%Ojeda%NULL%1,               Andrea%Calvo%NULL%1,               Eva%Rivas%NULL%1,               Paola%Hurtado%NULL%1,               Roger%Pujol%NULL%1,               Nuria%Martín%NULL%1,               Javier%Tercero%NULL%1,               Pepe%Sanahuja%NULL%1,               Marta%Magaldi%NULL%1,               Miquel%Coca%NULL%1,               Elena%del Rio%NULL%1,               Julia%Martínez-Ocon%NULL%1,               Paula%Masgoret%NULL%1,               Monserrat%Tio%NULL%1,               Angel%Caballero%NULL%1,               Raquel%Risco%NULL%1,               Raquel%Bergé%NULL%1,               Lidia%Gómez%NULL%1,               Nicolás%de Riva%NULL%1,               Ana%Ruiz%NULL%1,               Beatriz%Tena%NULL%1,               Sebastián%Jaramillo%NULL%1,               José María%Balibrea%NULL%1,               Francisco Borja de Borja%de Lacy%NULL%1,               Ana%Otero%NULL%1,               Ainitze%Ibarzabal%NULL%1,               Raquel%Bravo%NULL%1,               Anna%Carreras%NULL%1,               Daniel%Martín-Barreda%NULL%1,               Alfonso Jesús%Alias%NULL%1,               Mariano%Balaguer%NULL%1,               Jorge%Aliaga%NULL%1,               Alex%Almuedo%NULL%1,               Joan Ramón%Alonso%NULL%1,               Rut%Andrea%NULL%1,               Gerard Sergi%Angelès%NULL%1,                Marilyn%Arias%NULL%1,               Fátima%Aziz%NULL%1,               Joan Ramon%Badía%NULL%1,               Enric%Barbeta%NULL%1,               Toni%Torres%NULL%1,               Guillem%Batiste%NULL%1,               Pau%Benet%NULL%1,               Xavi%Borrat%NULL%1,               María%Borrell%NULL%1,               Ernest%Bragulat%NULL%1,               Inmaculada%Carmona%NULL%1,               Manuel%Castellà%NULL%1,               Pedro%Castro%NULL%1,               Joan%Ceravalls%NULL%1,               Oscar%Comino%NULL%1,               Claudia%Cucciniello%NULL%1,               Clàudia%De Deray%NULL%1,               Oriol%De Diego%NULL%1,               Paula%De la Matta%NULL%1,               Marta%Farrero%NULL%1,               Javier%Fernández%NULL%1,               Sara%Fernández%NULL%1,               Anna%Fernández%NULL%1,               Miquel%Ferrer%NULL%1,               Ana%Fervienza%NULL%1,               María%Tallo Forga%NULL%1,               Daniel%Forné%NULL%1,               Clàudia%Galán%NULL%1,               Andrea%Gómez%NULL%1,               Eduard%Guasch%NULL%1,               María%Hernández-Tejero%NULL%1,               Adriana%Jacas%NULL%1,               Beltrán%Jiménez%NULL%1,               Pere%Leyes%NULL%1,               Teresa%López%NULL%1,               José Antonio%Martínez%NULL%1,               Graciela%Martínez-Pallí%NULL%1,               Jordi%Mercadal%NULL%1,               Guido%Muñoz%NULL%1,               José%Muñoz%NULL%1,               Ricard%Navarro%NULL%0,               Josep María%Nicolás%NULL%1,               José Tomás%Ortiz%NULL%1,               Anna%Peiró%NULL%1,               Manuel%Pérez%NULL%1,               Esteban%Poch%NULL%1,               Margarida%Pujol%NULL%1,               Eduard%Quintana%NULL%1,               Bartomeu%Ramis%NULL%1,               Enric%Reverter%NULL%1,               Irene%Rovira%NULL%1,               Pablo%Ruiz%NULL%1,               Elena%Sandoval%NULL%1,               Stefan%Schneider%NULL%1,               Oriol%Sibila%NULL%1,               Carla%Solé%NULL%1,               Alex%Soriano%NULL%1,               Dolors%Soy%NULL%1,               M.%Suárez%NULL%1,               Adrián%Téllez%NULL%1,               Néstor David%Toapanta%NULL%1,               Antoni%Torres%NULL%0,               Xavier%Urra%NULL%1,               César%Aldecoa%NULL%1,               Alicia%Bordell%NULL%1,               Silvia%Martín%NULL%1,               Judith%Andrés%NULL%1,               Alberto Martínez%Ruiz%NULL%1,               Gonzalo Tamayo%Medel%NULL%1,               Iñaki Bilbao Bilbao%Villasante%NULL%1,               Fernando Iturri%Clavero%NULL%1,               Covadonga Peralta%Álvarez%NULL%1,               Julia T.%Herrera Díez%NULL%1,               Andrea García%Trancho%NULL%1,               Iñaki Sainz %Mandiola%NULL%1,               Carmen Ruano%Suarez%NULL%1,               Angela Ruiz%Bocos%NULL%1,               Eneritz Urrutia%Izagirre%NULL%1,               Pablo Ortiz%de Urbina Fernández%NULL%1,               Naiara Apodaka%López%NULL%1,               Leire Prieto%Molano%NULL%1,               Eunate Ganuza%Martínez%NULL%1,               Iratxe Vallinas%Hidalgo%NULL%1,               Karmele%de Orte Sancho%NULL%1,               Celia González%Paniagua%NULL%1,               Gemma Ortiz%Labrador%NULL%1,               Mireia Pérez%Larrañaga%NULL%1,               Marta López%Miguelez%NULL%1,               Estíbaliz Bárcena%Andrés%NULL%1,               Erik Urutxurtu%Laureano%NULL%1,               Maria Jesús Maroño%Boedo%NULL%1,               Blanca Escontrela%Rodríguez%NULL%1,               Aitziber Ereñozaga%Camiruaga%NULL%1,               Deiene Lasuen%Aguirre%NULL%1,               Ainhoa Zabal%Maeztu%NULL%1,               Ane Guereca%Gala%NULL%1,               Iker Castelo%Korro%NULL%1,               Andrés Álvarez%Campo%NULL%1,               Alejandro Carcelen%Viana%NULL%1,               Alejandro Alberdi%Enríquez%NULL%1,               Xabier Ormazábal%Rementeria%NULL%1,               Alberto Sánchez%Campos%NULL%1,               Rosa Gutiérrez%Rico%NULL%1,               Pablo Barbier%Damborenea%NULL%1,               Marta Guerenabarrena%Momeñe%NULL%1,               Borja Cuesta%Ruiz%NULL%1,               Alejandro López%Rico%NULL%1,               Ana Rojo%Polo%NULL%1,               Covadonga García%Grijelmo%NULL%1,               Mikel Celorrio%Reta%NULL%1,               Eneko Martín%Arroyo%NULL%1,               Leire Artaza%Aparicio%NULL%1,               Iñaki Ituarte%Aspiazu%NULL%1,               Ane Igeregi%Basabe%NULL%1,               Itxaso Merino%Julian%NULL%1,               Isabel Diaz%Rico%NULL%1,               Maria Paz%Martínez%NULL%1,               Ramón%Adalia Bartolomé%NULL%1,               Luigi%Zattera%NULL%1,               Irina Adalid%Hernandez%NULL%1,               Leire Larrañaga%Altuna%NULL%1,               Aina Serrallonga%Castells%NULL%1,               Adriana Vílchez%Garcia%NULL%1,               María%Núñez%NULL%1,               Lorena%Román%NULL%1,               Isabel Ramos%Delgado%NULL%1,               Adela Benítez-Cano%Martínez%NULL%1,               Mireia Chanzá%Albert%NULL%1,               Juan Carlos Álvarez%García%NULL%1,               Luis Aguilera%Cuchillo%NULL%1,               Sandra Beltrán%de Heredia%NULL%1,               Jesús Carazo%Cordobés%NULL%1,               Carlos Alberto García%Bernedo%NULL%1,               Fernando Escolano%Villén%NULL%1,               Francisco Javier Redondo%Calvo%NULL%1,               Rubén Villazala%González%NULL%1,               Victor Baladron%González%NULL%1,               Patricia%Faba%NULL%1,               Omar%Montenegro%NULL%1,               Natalia Bejarano%Ramírez%NULL%1,               Sergio Marcos%Contreras%NULL%1,               Alejandro Garcia%Rodríguez%NULL%1,               Saleta Rey%Vázquez%NULL%1,               Cristina Garcia%Pérez%NULL%1,               Eva Higuera%Miguelez%NULL%1,               Irene Pérez%Blanco%NULL%1,               David García%Rivera%NULL%1,               Ane Martín%de la Fuente%NULL%1,               Marta%Pardo%NULL%1,               Vanessa%Rodriguez%NULL%1,               Unai%Bengoetxea%NULL%1,               Fernando%Ramasco%NULL%1,               Sheila Olga Santidrián%Bernal%NULL%1,               Alvar Santa Cruz%Hernando%NULL%1,               Antonio Planas%Roca%NULL%1,               Carlos Figueroa%Yusta%NULL%1,               Esther García%Villabona%NULL%1,               Carmen Vallejo%Lantero%NULL%1,               Eva Patiño%Rodriguez%NULL%1,               Alvaro Esquivel%Toledo%NULL%1,               David Arribas%Méndez%NULL%1,               Mar Orts%Rodriguez%NULL%1,               Rosa Méndez%Hernández%NULL%1,               Jesús Nieves%Alonso%NULL%1,               Inés Imaz%Artazcoz%NULL%1,               Sonia Expósito%Carazo%NULL%1,               Carlos Román%Guerrero%NULL%1,               Elena Rojo%Rodríguez%NULL%1,               Ricardo Moreno%González%NULL%1,               Julia Hernando%Santos%NULL%1,               Jara Torrente%Pérez%NULL%1,               Esperanza Mata%Mena%NULL%1,               Manuel José Muñoz%Martínez%NULL%1,               Enrique Alday%Muñoz%NULL%1,               Patricia Martin%Serrano%NULL%1,               Laura Cotter%Muñoz%NULL%1,               Amadea%Mjertan%NULL%1,               Diego Gutierrez%Martínez%NULL%1,               Carmen Rodríguez%García%NULL%1,               Olaya Alonso%Viejo%NULL%1,               Juan Alvarez%Pereira%NULL%1,               Ana Carmona%Bonet%NULL%1,               Diana Parrado%López%NULL%1,               Eva%de Dios Tomas%NULL%1,               Rafael Martín%Celemin%NULL%1,               María Luisa Meilan%Paz%NULL%1,               Luis Quecedo%Gutiérrez%NULL%1,               Noemí Diaz%Velasco%NULL%1,               Gabriel Martin%Hernández%NULL%1,               Francisco Garcia%del Corral%NULL%1,               Gloria Hernandez%Arias%NULL%1,               David Rodriguez%Cuesta%NULL%1,               Ana Gómez%Rice%NULL%1,               Encarna Mateos%Sevillano%NULL%1,               Natalia Olmos%Molpeceres%NULL%1,               Beatriz%Domínguez%NULL%1,               Ana Vázquez%Lima%NULL%1,               Ángel%Candela%NULL%1,               Ismael A. Acevedo%Bambaren%NULL%1,               Maria Isabel Albala%Blanco%NULL%1,               Paloma Alonso%Montoiro%NULL%1,               Fernando Álvarez%Utrera%NULL%1,               Juan Avellanosa%Esteruelas%NULL%1,               Amal Azzam%López%NULL%1,               Alberto José%Balvis%NULL%1,               Balvis Tommaso%Bardi%NULL%1,               María Beltrán%Martín%NULL%1,               Jacobo Benatar%Haserfaty%NULL%1,               Alberto Berruezo%Camacho%NULL%1,               Laura Betolaza%Weimer%NULL%1,               María%del Mar Carbonell Soto%NULL%1,               Cristina Carrasco%Seral%NULL%1,               Cristina Cerro %Zaballos%NULL%1,               Elizabeth Claros%Llamas%NULL%1,               Pilar Coleta%Orduna%NULL%1,               Ingrid P. Cortes%Forero%NULL%1,               Pascual Agustín Crespo%Aliseda%NULL%1,               María Angélica%de Pablo Pajares%NULL%1,               Yolanda Díez%Remesal%NULL%1,               Trinidad Dorado%Díaz%NULL%1,               Noemí Echevarría%Blasco%NULL%1,               María Elena Elías%Martín%NULL%1,               Javier Felices%Triviño%NULL%1,               Natalia Fernández%López%NULL%1,               Cristina Fernández%Martín%NULL%1,               Natalia Ferreiro%Pozuelo%NULL%1,               Luis Gajate%Martín%NULL%1,               Clara Gallego%Santos%NULL%1,               Diego Gil%Mayo%NULL%1,               María Gómez%Rojo%NULL%1,               Claudia González%Cibrián%NULL%1,               Elena Herrera%López%NULL%1,               Borja Hinojal%Olmedillo%NULL%1,               Berta Iglesias%Gallego%NULL%1,               Sassan%Khonsari%NULL%1,               María Nuria Mane%Ruiz%NULL%1,               María Manzanero%Arroyo%NULL%1,               Ana María Mariscal%Ortega%NULL%1,               Sara Martín%Burcio%NULL%1,               María%del Carmen Martín González%NULL%1,               Ascensión Martín%Grande%NULL%1,               Jose Juan Martín%López%NULL%1,               Cecilia Martín%Rabes%NULL%1,               Marcos Martínez%Borja%NULL%1,               Nilda Martínez%Castro%NULL%1,               Adolfo Martínez%Pérez%NULL%1,               Snejana%Matcan%NULL%1,               Cristina Medrano%Viñas%NULL%1,               Lisset Miguel%Herrera%NULL%1,               Adrián Mira%Betancur%NULL%1,               María Montiel%Carbajo%NULL%1,               Javier Moya%Moradas%NULL%1,               Lorena Muñoz%Pérez%NULL%1,               Mónica Nuñez%Murias%NULL%1,               Eva Ordiales%González%NULL%1,               Óscar Ordoñez%Recio%NULL%1,               Miguel Ángel Palomero%Rodriguez%NULL%1,               Diego Parise%Roux%NULL%1,               Lucia Pereira%Torres%NULL%1,               David Pestaña%Lagunas%NULL%1,               Juana María Pinto%Corraliza%NULL%1,               Marian Prieto%Rodrigo%NULL%1,               Inmaculada Rodriguez%Diaz-Regaño%NULL%1,               David Rodriguez%Esteban%NULL%1,               Víctor Rojas%Pernia%NULL%1,               Álvaro Ruigómez%Saiz%NULL%1,               Bárbara Saavedra%Villarino%NULL%1,               Noemí Samaranch%Palero%NULL%1,               Gloria Santos%Pérez%NULL%1,               Jaume Serna%Pérez%NULL%1,               Ana Belén Serrano%Romero%NULL%1,               Jesús Tercero%López%NULL%1,               Carlos Tiscar%García%NULL%1,               Marta%de la Torre Concostrina%NULL%1,               Eva María Ureta%Mesa%NULL%1,               Eva Velasco%Olarte%NULL%1,               Judith Villahoz%Martínez%NULL%1,               Raúl Villalaba%Palacios%NULL%1,               Gema Villanueva%García%NULL%1,               Cristina Vogel%de Medeiros%NULL%1,               Soraya Gholamian%Ovejero%NULL%1,               Marta Vicente%Orgaz%NULL%1,               Patricia Lloreda%Herradon%NULL%1,               Cristina Crespo%Gómez%NULL%1,               Tatiana%Sarmiento-Trujillo%NULL%1,               Noemí García%Medina%NULL%1,               María Martínez%García%NULL%1,               Carles Espinós%Ramírez%NULL%1,               Nabil Mouhaffel%Rivero%NULL%1,               Jose Antonio Bernia%Gil%NULL%1,               Sonsoles%Martín%NULL%1,               María Victoria%Moral%NULL%1,               Josefina%Galán%NULL%1,               Pilar%Paniagua%NULL%1,               Sergio%Pérez%NULL%1,               Albert%Bainac%NULL%1,               Ana%Arias%NULL%1,               Elsa%Ramil%NULL%1,               Jorge%Escudero%NULL%1,               Pablo%Monedero%NULL%1,               Carmen%Cara%NULL%1,               Andrea%Lara%NULL%1,               Elena Mendez%Martínez%NULL%1,               Jorge%Mendoza%NULL%1,               Íñigo Rubio%Baines%NULL%1,               Carmen Sala%Trull%NULL%1,               Pablo Montero%López%NULL%1,               Alfredo%Gea%NULL%1,               Alejandro%Montero%NULL%1,               Rocío Armero%Ibañez%NULL%1,               Juan Vicente Llau%Pitarch%NULL%1,               Fernando Rauer%Alcóver%NULL%1,               Cristina Álvarez%Herreros%NULL%1,               Cyntia Sánchez%Martín%NULL%1,               Lucía López Ocáriz%Olmos%NULL%1,               Marta Navas%Moruno%NULL%1,               Fernando García%Montoto%NULL%1,               M. F. Mirón%Rodriguez%NULL%1,               Laura Fuentes%Coco%NULL%1,               Cristina Hernández%Gamito%NULL%1,               Antonio Barba%Orejudo%NULL%1,               Luis Gerardo Smith%Vielma%NULL%1,               Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,               Marta Donoso%Domínguez%NULL%1,               Silvia Esquivel%Ramírez%NULL%1,               José Antonio%Carbonell%NULL%1,               Berta Monleón%López%NULL%1,               Sara%Martínez-Castro%NULL%1,               Gerardo%Aguilar%NULL%1,               María Gestal Pablo%Casas%NULL%1,               Angel Outeiro%Rosato%NULL%1,               Andrea Naveiro%Pan%NULL%1,               María Alonso%Portela%NULL%1,               Adrián García%Romar%NULL%1,               Eva Mosquera%Rodríguez%NULL%1,               Diego Ruanova%Seijo%NULL%1,               Pablo Rama%Maceiras%NULL%1,               Francisco%Castro-Ceoane%NULL%1,               Esther Moreno%López%NULL%1,               Sergio%Gil%NULL%1,               Julia Guillén%Antón%NULL%1,               Patricia García-Consuegra%Tirado%NULL%1,               Aurora Callau%Calvo%NULL%1,               Laura Forés%Lisbona%NULL%1,               María Carbonell%Romero%NULL%1,               Belén Albericio%Gil%NULL%1,               Laura Pradal%Jarne%NULL%1,               María Soria%Lozano%NULL%1,               Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,               Navjot Ariyana%Kaur%NULL%1,               Daniel%Sacher%NULL%1,               Oisin%O’Corragain%NULL%1,               Daniel%Salerno%NULL%1,               Parag%Desai%NULL%1,               Sameep%Sehgal%NULL%1,               Matthew%Gordon%NULL%2,               Rohit%Gupta%NULL%2,               Nathaniel%Marchetti%NULL%1,               Huaqing%Zhao%NULL%2,               Nicole%Patlakh%NULL%2,               Gerard J.%Criner%NULL%1,               Temple%University%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,               Dominik%Jarczak%NULL%1,               Liina%Thasler%NULL%1,               Martin%Bachmann%NULL%1,               Frank%Schulte%NULL%1,               Berthold%Bein%NULL%1,               Christian Friedrich%Weber%NULL%1,               Ulrich%Schäfer%NULL%1,               Carsten%Veit%NULL%1,               Hans-Peter%Hauber%NULL%1,               Sebastian%Kopp%NULL%1,               Karsten%Sydow%NULL%1,               Andreas%de Weerth%NULL%0,               Marc%Bota%NULL%1,               Rüdiger%Schreiber%NULL%1,               Oliver%Detsch%NULL%1,               Jan-Peer%Rogmann%NULL%1,               Daniel%Frings%NULL%0,               Barbara%Sensen%NULL%1,               Christoph%Burdelski%NULL%0,               Olaf%Boenisch%NULL%1,               Axel%Nierhaus%NULL%0,               Geraldine%de Heer%NULL%0,               Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                Paolo%Comassi%NULL%1,                Luca%Adriani%NULL%1,                Giulio%Bergamaschini%NULL%1,                Elena%Bertin%NULL%1,                Raffaella%Borromeo%NULL%1,                Serena%Corti%NULL%1,                Federica%De Petri%NULL%1,                Francesco%Dolci%NULL%1,                Attilio%Galmozzi%NULL%1,                Alberto%Gigliotti%NULL%1,                Livio%Gualdoni%NULL%1,                Claudia%Guerra%NULL%1,                Anna%Khosthiova%NULL%1,                Giovanni%Leati%NULL%1,                Giuseppe%Lupi%NULL%1,                Paolo%Moscato%NULL%1,                Vittorio%Perotti%NULL%1,                Miriam%Piantelli%NULL%1,                Alain%Ruini%NULL%1,                Silvia%Sportelli%NULL%1,                Micaela%Susca%NULL%1,                Carmine%Troiano%NULL%1,                Giampaolo%Benelli%NULL%1,                Elisabetta%Buscarini%NULL%1,                Ciro%Canetta%NULL%1,                Guido%Merli%NULL%1,                Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                Emna%Ennouri%NULL%1,                Rayane%Nachi%NULL%1,                Khaoula%Meddeb%NULL%1,                Jihene%Mahmoud%NULL%1,                Nesrine%Thabet%NULL%1,                Salma%Jerbi%NULL%1,                Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                Eleni%Xourgia%NULL%1,                Theodora K.%Ntaidou%NULL%1,                Dimitris%Zervakis%NULL%1,                Eleni E.%Magira%NULL%1,                Anastasia%Kotanidou%NULL%1,                Christina%Routsi%NULL%1,                Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                Carina%Mostert%NULL%1,                Corinna%Hentschker%NULL%1,                Thomas%Voshaar%NULL%1,                Jürgen%Malzahn%NULL%1,                Gerhard%Schillinger%NULL%1,                Jürgen%Klauber%NULL%1,                Uwe%Janssens%NULL%1,                Gernot%Marx%NULL%1,                Steffen%Weber-Carstens%NULL%1,                Stefan%Kluge%NULL%0,                Michael%Pfeifer%NULL%1,                Linus%Grabenhenrich%NULL%1,                Tobias%Welte%NULL%1,                Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                David%Hajage%NULL%2,                David%Hajage%NULL%0,                Alexandre%Demoule%NULL%1,                Tài%Pham%NULL%1,                Alain%Combes%NULL%1,                Martin%Dres%NULL%1,                Said%Lebbah%NULL%1,                Antoine%Kimmoun%NULL%1,                Alain%Mercat%NULL%1,                Gaëtan%Beduneau%NULL%1,                Jessica%Palmyre%NULL%1,                Margot%Prevost%NULL%1,                Pierre%Asfar%NULL%1,                François%Beloncle%NULL%1,                Julien%Demiselle%NULL%1,                Arthur%Pavot%NULL%1,                Xavier%Monnet%NULL%1,                Christian%Richard%NULL%1,                Julien%Mayaux%NULL%1,                Alexandra%Beurton%NULL%1,                Richard%Descamps%NULL%1,                Aurélie%Joret%NULL%1,                Damien%Du Cheyron%NULL%1,                Frédéric%Pene%NULL%1,                Jean-Daniel%Chiche%NULL%1,                Mathieu%Jozwiak%NULL%1,                Paul%Jaubert%NULL%1,                Guillaume%Voiriot%NULL%1,                Muriel%Fartoukh%NULL%1,                Marion%Teulier%NULL%1,                Clarisse%Blayau%NULL%1,                Erwen%L’Her%NULL%1,                Cécile%Aubron%NULL%1,                Laetitia%Bodenes%NULL%1,                Nicolas%Ferriere%NULL%1,                Johann%Auchabie%NULL%1,                Anthony%Le Meur%NULL%1,                Sylvain%Pignal%NULL%1,                Thierry%Mazzoni%NULL%1,                Jean-Pierre%Quenot%NULL%1,                Pascal%Andreu%NULL%1,                Jean-Baptiste%Roudau%NULL%1,                Marie%Labruyère%NULL%1,                Saad%Nseir%NULL%0,                Sébastien%Preau%NULL%1,                Julien%Poissy%NULL%0,                Daniel%Mathieu%NULL%0,                Sarah%Benhamida%NULL%1,                Rémi%Paulet%NULL%1,                Nicolas%Roucaud%NULL%1,                Martial%Thyrault%NULL%1,                Florence%Daviet%NULL%1,                Sami%Hraiech%NULL%1,                Gabriel%Parzy%NULL%1,                Aude%Sylvestre%NULL%1,                Sébastien%Jochmans%NULL%1,                Anne-Laure%Bouilland%NULL%1,                Mehran%Monchi%NULL%1,                Marc%Danguy des Déserts%NULL%1,                Quentin%Mathais%NULL%1,                Gwendoline%Rager%NULL%1,                Pierre%Pasquier%NULL%1,                Reignier%Jean%NULL%1,                Seguin%Amélie%NULL%1,                Garret%Charlotte%NULL%1,                Canet%Emmanuel%NULL%1,                Jean%Dellamonica%NULL%1,                Clément%Saccheri%NULL%1,                Romain%Lombardi%NULL%1,                Yanis%Kouchit%NULL%1,                Sophie%Jacquier%NULL%1,                Armelle%Mathonnet%NULL%1,                Mai-Ahn%Nay%NULL%1,                Isabelle%Runge%NULL%1,                Frédéric%Martino%NULL%1,                Laure%Flurin%NULL%1,                Amélie%Rolle%NULL%1,                Michel%Carles%NULL%1,                Rémi%Coudroy%NULL%1,                Arnaud W.%Thille%NULL%1,                Jean-Pierre%Frat%NULL%1,                Maeva%Rodriguez%NULL%1,                Pascal%Beuret%NULL%1,                Audrey%Tientcheu%NULL%1,                Arthur%Vincent%NULL%1,                Florian%Michelin%NULL%1,                Marie Anne%Melone%NULL%1,                Maxime%Gauzi%NULL%1,                Arnaud%Guilbert%NULL%1,                Geoffrey%Kouadri%NULL%1,                Valérie%Gissot%NULL%1,                Stéphan%Ehrmann%NULL%1,                Charlotte%Salmon-Gandonnière%NULL%1,                Djlali%Elaroussi%NULL%1,                Agathe%Delbove%NULL%1,                Yannick%Fedun%NULL%1,                Julien%Huntzinger%NULL%1,                Eddy%Lebas%NULL%1,                Grâce%Kisoka%NULL%1,                Céline%Grégoire%NULL%1,                Stella%Marchetta%NULL%1,                Bernard%Lambermont%NULL%1,                Laurent%Argaud%NULL%1,                Thomas%Baudry%NULL%1,                Pierre-Jean%Bertrand%NULL%1,                Auguste%Dargent%NULL%1,                Christophe%Guitton%NULL%1,                Nicolas%Chudeau%NULL%1,                Mickaël%Landais%NULL%1,                Cédric%Darreau%NULL%1,                Alexis%Ferre%NULL%1,                Antoine%Gros%NULL%1,                Guillaume%Lacave%NULL%1,                Fabrice%Bruneel%NULL%1,                Mathilde%Neuville%NULL%1,                Jérôme%Devaquet%NULL%1,                Guillaume%Tachon%NULL%1,                Richard%Gallot%NULL%1,                Riad%Chelha%NULL%1,                Arnaud%Galbois%NULL%1,                Anne%Jallot%NULL%1,                Ludivine Chalumeau%Lemoine%NULL%1,                Khaldoun%Kuteifan%NULL%1,                Valentin%Pointurier%NULL%1,                Louise-Marie%Jandeaux%NULL%1,                Joy%Mootien%NULL%1,                Charles%Damoisel%NULL%1,                Benjamin%Sztrymf%NULL%1,                Juliette%Chommeloux%NULL%1,                Charles Edouard%Luyt%NULL%1,                Frédérique%Schortgen%NULL%1,                Leon%Rusel%NULL%1,                Camille%Jung%NULL%1,                Florent%Gobert%NULL%1,                Damien%Vimpere%NULL%1,                Lionel%Lamhaut%NULL%1,                Bertrand%Sauneuf%NULL%1,                Liliane%Charrier%NULL%1,                Julien%Calus%NULL%1,                Isabelle%Desmeules%NULL%1,                Benoît%Painvin%NULL%1,                Jean-Marc%Tadie%NULL%1,                Vincent%Castelain%NULL%1,                Baptiste%Michard%NULL%1,                Jean-Etienne%Herbrecht%NULL%1,                Mathieu%Baldacini%NULL%1,                Nicolas%Weiss%NULL%1,                Sophie%Demeret%NULL%1,                Clémence%Marois%NULL%1,                Benjamin%Rohaut%NULL%1,                Pierre-Henri%Moury%NULL%1,                Anne-Charlotte%Savida%NULL%1,                Emmanuel%Couadau%NULL%1,                Mathieu%Série%NULL%1,                Nica%Alexandru%NULL%1,                Cédric%Bruel%NULL%1,                Candice%Fontaine%NULL%1,                Sonia%Garrigou%NULL%1,                Juliette Courtiade%Mahler%NULL%1,                Maxime%Leclerc%NULL%1,                Michel%Ramakers%NULL%1,                Pierre%Garçon%NULL%1,                Nicole%Massou%NULL%1,                Ly Phacs%Van Vong%NULL%1,                Juliane%Sen%NULL%1,                Nolwenn%Lucas%NULL%1,                Franck%Chemouni%NULL%1,                Annabelle%Stoclin%NULL%1,                Alexandre%Avenel%NULL%1,                Henri%Faure%NULL%1,                Angélie%Gentilhomme%NULL%1,                Sylvie%Ricome%NULL%1,                Paul%Abraham%NULL%1,                Céline%Monard%NULL%1,                Julien%Textoris%NULL%1,                Thomas%Rimmele%NULL%1,                Florent%Montini%NULL%1,                Gabriel%Lejour%NULL%1,                Thierry%Lazard%NULL%1,                Isabelle%Etienney%NULL%1,                Younes%Kerroumi%NULL%1,                Dupuis%Claire%NULL%1,                Bereiziat Marine%Coupez%NULL%1,                Thouy%François%NULL%1,                Clémet%Hoffmann%NULL%1,                Nicolas%Donat%NULL%1,                Violaine%Muller%NULL%1,                Thibault%Martinez%NULL%1,                Audrey%Jacquot%NULL%1,                Matthieu%Mattei%NULL%1,                Bruno%Levy%NULL%1,                Ramin%Ravan%NULL%1,                Loïc%Dopeux%NULL%1,                Jean-Mathias%Liteaudon%NULL%1,                Delphine%Roux%NULL%1,                Brice%Rey%NULL%1,                Radu%Anghel%NULL%1,                Deborah%Schenesse%NULL%1,                Vincent%Gevrey%NULL%1,                Jermy%Castanera%NULL%1,                Philippe%Petua%NULL%1,                Benjamin%Madeux%NULL%1,                Otto%Hartman%NULL%1,                Michael%Piagnerelli%NULL%1,                Anne%Joosten%NULL%1,                Cinderella%Noel%NULL%1,                Patrick%Biston%NULL%1,                Thibaut%Noel%NULL%1,                Gurvan L. E.%Bouar%NULL%1,                Messabi%Boukhanza%NULL%1,                Elsa%Demarest%NULL%1,                Marie-France%Bajolet%NULL%1,                Nathanaël%Charrier%NULL%1,                Audrey%Quenet%NULL%1,                Cécile%Zylberfajn%NULL%1,                Nicolas%Dufour%NULL%1,                Buno%Mégarbane%NULL%1,                Sqébastian%Voicu%NULL%1,                Nicolas%Deye%NULL%1,                Isabelle%Malissin%NULL%1,                François%Legay%NULL%1,                Matthieu%Debarre%NULL%1,                Nicolas%Barbarot%NULL%1,                Pierre%Fillatre%NULL%1,                Bertrand%Delord%NULL%1,                Thomas%Laterrade%NULL%1,                Tahar%Saghi%NULL%1,                Wilfried%Pujol%NULL%1,                Pierre Julien%Cungi%NULL%1,                Pierre%Esnault%NULL%1,                Mickael%Cardinale%NULL%1,                Vivien%Hong Tuan Ha%NULL%1,                Grégory%Fleury%NULL%1,                Marie-Ange%Brou%NULL%1,                Daniel%Zafimahazo%NULL%1,                David%Tran-Van%NULL%1,                Patrick%Avargues%NULL%1,                Lisa%Carenco%NULL%1,                Nicolas%Robin%NULL%1,                Alexandre%Ouali%NULL%1,                Lucie%Houdou%NULL%1,                Christophe%Le Terrier%NULL%1,                Noémie%Suh%NULL%1,                Steve%Primmaz%NULL%1,                Jérome%Pugin%NULL%1,                Emmanuel%Weiss%NULL%1,                Tobias%Gauss%NULL%1,                Jean-Denis%Moyer%NULL%1,                Catherine%Paugam-Burtz%NULL%1,                Béatrice%La Combe%NULL%1,                Rolland%Smonig%NULL%1,                Jade%Violleau%NULL%1,                Pauline%Cailliez%NULL%1,                Jonathan%Chelly%NULL%1,                Antoine%Marchalot%NULL%1,                Cécile%Saladin%NULL%1,                Christelle%Bigot%NULL%1,                Pierre-Marie%Fayolle%NULL%1,                Jules%Fatséas%NULL%1,                Amr%Ibrahim%NULL%1,                Dabor%Resiere%NULL%1,                Rabih%Hage%NULL%1,                Clémentine%Cholet%NULL%1,                Marie%Cantier%NULL%1,                Pierre%Trouiller%NULL%1,                Philippe%Montravers%NULL%1,                Brice%Lortat-Jacob%NULL%1,                Sebastien%Tanaka%NULL%1,                Alexy%Tran-Dinh%NULL%1,                Jacques%Duranteau%NULL%1,                Anatole%Harrois%NULL%1,                Guillaume%Dubreuil%NULL%1,                Marie%Werner%NULL%1,                Anne%Godier%NULL%1,                Sophie%Hamada%NULL%1,                Diane%Zlotnik%NULL%1,                Hélène%Nougue%NULL%1,                Armand%Mekontso-Dessap%NULL%1,                Guillaume%Carteaux%NULL%1,                Keyvan%Razazi%NULL%1,                Nicolas%De Prost%NULL%1,                Nicolas%Mongardon%NULL%1,                Olivier%Langeron%NULL%1,                Eric%Levesque%NULL%1,                Arié%Attias%NULL%1,                Charles%de Roquetaillade%NULL%1,                Benjamin G.%Chousterman%NULL%1,                Alexandre%Mebazaa%NULL%1,                Etienne%Gayat%NULL%1,                Marc%Garnier%NULL%1,                Emmanuel%Pardo%NULL%1,                Lea%Satre-Buisson%NULL%1,                Christophe%Gutton%NULL%1,                Elise%Yvin%NULL%1,                Clémence%Marcault%NULL%1,                Elie%Azoulay%NULL%1,                Michael%Darmon%NULL%1,                Nicolas%Bonnet%NULL%1,                Nathan%Ebstein%NULL%1,                Stéphane%Gaudry%NULL%1,                Yves%Cohen%NULL%1,                 Hafid%Ait-Oufella%NULL%1,                Geoffroy%Hariri%NULL%1,                Tomas%Urbina%NULL%1,                Sandie%Mazerand%NULL%1,                Nicholas%Heming%NULL%1,                Francesca%Santi%NULL%1,                Pierre%Moine%NULL%1,                Djillali%Annane%NULL%1,                Adrien%Bouglé%NULL%1,                Edris%Omar%NULL%1,                Aymeric%Lancelot%NULL%1,                Emmanuelle%Begot%NULL%1,                Gaétan%Plantefeve%NULL%1,                Damien%Contou%NULL%1,                Hervé%Mentec%NULL%1,                Olivier%Pajot%NULL%1,                Stanislas%Faguer%NULL%1,                Olivier%Cointault%NULL%1,                Laurence%Lavayssiere%NULL%1,                Marie-Béatrice%Nogier%NULL%1,                Matthieu%Jamme%NULL%1,                Claire%Pichereau%NULL%1,                Jan%Hayon%NULL%1,                Hervé%Outin%NULL%1,                François%Dépret%NULL%1,                Maxime%Coutrot%NULL%1,                Maité%Chaussard%NULL%1,                Lucie%Guillemet%NULL%1,                Pierre%Goffin%NULL%1,                Romain%Thouny%NULL%1,                Julien%Guntz%NULL%1,                Laurent%Jadot%NULL%1,                Romain%Persichini%NULL%1,                Vanessa%Jean-Michel%NULL%1,                Hugues%Georges%NULL%1,                Thomas%Caulier%NULL%1,                Gaël%Pradel%NULL%1,                Marie-Hélène%Hausermann%NULL%1,                ThiMy Hue%Nguyen-Valat%NULL%1,                Michel%Boudinaud%NULL%1,                Emmanuel%Vivier%NULL%1,                Sylvène%Rosseli%NULL%1,                Gaël%Bourdin%NULL%1,                Christian%Pommier%NULL%1,                Marc%Vinclair%NULL%1,                Simon%Poignant%NULL%1,                Sandrine%Mons%NULL%1,                Wulfran%Bougouin%NULL%1,                Franklin%Bruna%NULL%1,                Quentin%Maestraggi%NULL%1,                Christian%Roth%NULL%1,                Laurent%Bitker%NULL%1,                François%Dhelft%NULL%1,                Justine%Bonnet-Chateau%NULL%1,                Mathilde%Filippelli%NULL%1,                Tristan%Morichau-Beauchant%NULL%1,                Stéphane%Thierry%NULL%1,                Charlotte%Le Roy%NULL%1,                Mélanie%Saint Jouan%NULL%1,                Bruno%Goncalves%NULL%1,                Aurélien%Mazeraud%NULL%1,                Matthieu%Daniel%NULL%1,                Tarek%Sharshar%NULL%1,                Cyril%Cadoz%NULL%1,                Rostane%Gaci%NULL%1,                Sébastien%Gette%NULL%1,                Guillaune%Louis%NULL%1,                Sophe-Caroline%Sacleux%NULL%1,                Marie-Amélie%Ordan%NULL%1,                Aurélie%Cravoisy%NULL%1,                Marie%Conrad%NULL%1,                Guilhem%Courte%NULL%1,                Sébastien%Gibot%NULL%1,                Younès%Benzidi%NULL%1,                Claudia%Casella%NULL%1,                Laurent%Serpin%NULL%1,                Jean-Lou%Setti%NULL%1,                Marie-Catherine%Besse%NULL%1,                Anna%Bourreau%NULL%1,                Jérôme%Pillot%NULL%1,                Caroline%Rivera%NULL%1,                Camille%Vinclair%NULL%1,                Marie-Aline%Robaux%NULL%1,                Chloé%Achino%NULL%1,                Marie-Charlotte%Delignette%NULL%1,                Tessa%Mazard%NULL%1,                Frédéric%Aubrun%NULL%1,                Bruno%Bouchet%NULL%1,                Aurélien%Frérou%NULL%1,                Laura%Muller%NULL%1,                Charlotte%Quentin%NULL%1,                Samuel%Degoul%NULL%1,                Xavier%Stihle%NULL%1,                Claude%Sumian%NULL%1,                Nicoletta%Bergero%NULL%1,                Bernard%Lanaspre%NULL%1,                Hervé%Quintard%NULL%1,                Eve Marie%Maiziere%NULL%1,                Pierre-Yves%Egreteau%NULL%1,                Guillaume%Leloup%NULL%1,                Florin%Berteau%NULL%1,                Marjolaine%Cottrel%NULL%1,                Marie%Bouteloup%NULL%1,                Matthieu%Jeannot%NULL%1,                Quentin%Blanc%NULL%1,                Julien%Saison%NULL%1,                Isabelle%Geneau%NULL%1,                Romaric%Grenot%NULL%1,                Abdel%Ouchike%NULL%1,                Pascal%Hazera%NULL%1,                Anne-Lyse%Masse%NULL%1,                Suela%Demiri%NULL%1,                Corinne%Vezinet%NULL%1,                Elodie%Baron%NULL%1,                Déborah%Benchetrit%NULL%1,                Antoine%Monsel%NULL%1,                Grégoire%Trebbia%NULL%1,                Emmanuelle%Schaack%NULL%1,                Raphaël%Lepecq%NULL%1,                Mathieu%Bobet%NULL%1,                Christophe%Vinsonneau%NULL%1,                Thibault%Dekeyser%NULL%1,                Quentin%Delforge%NULL%1,                Imen%Rahmani%NULL%1,                Bérengère%Vivet%NULL%1,                Jonathan%Paillot%NULL%1,                Lucie%Hierle%NULL%1,                Claire%Chaignat%NULL%1,                Sarah%Valette%NULL%1,                Benoït%Her%NULL%1,                Jennifier%Brunet%NULL%1,                Mathieu%Page%NULL%1,                Fabienne%Boiste%NULL%1,                Anthony%Collin%NULL%1,                Florent%Bavozet%NULL%2,                Aude%Garin%NULL%1,                Mohamed%Dlala%NULL%1,                Kais%Mhamdi%NULL%1,                Bassem%Beilouny%NULL%1,                Alexandra%Lavalard%NULL%1,                Severine%Perez%NULL%1,                Benoit%Veber%NULL%1,                Pierre-Gildas%Guitard%NULL%1,                Philippe%Gouin%NULL%1,                Anna%Lamacz%NULL%1,                Fabienne%Plouvier%NULL%1,                Bertrand P.%Delaborde%NULL%1,                Aïssa%Kherchache%NULL%1,                Amina%Chaalal%NULL%1,                Jean-Damien%Ricard%NULL%1,                Marc%Amouretti%NULL%1,                Santiago%Freita-Ramos%NULL%1,                Damien%Roux%NULL%1,                Jean-Michel%Constantin%NULL%1,                Mona%Assefi%NULL%1,                Marine%Lecore%NULL%1,                Agathe%Selves%NULL%1,                Florian%Prevost%NULL%1,                Christian%Lamer%NULL%1,                Ruiying%Shi%NULL%1,                Lyes%Knani%NULL%1,                Sébastien%Pili-Floury%NULL%1,                Lucie%Vettoretti%NULL%1,                Michael%Levy%NULL%1,                Lucile%Marsac%NULL%1,                Stéphane%Dauger%NULL%1,                Sophie%Guilmin-Crépon%NULL%1,                Jean-Baptiste%Putegnat%NULL%1,                Frédérique%Bayle%NULL%1,                Maya%Perrou%NULL%1,                Ghyslaine%Thao%NULL%1,                Guillaume%Géri%NULL%1,                Cyril%Charron%NULL%1,                Xavier%Repessé%NULL%1,                Antoine%Vieillard-Baron%NULL%1,                Mathieu%Guilbart%NULL%1,                Pierre-Alexandre%Roger%NULL%1,                Sébastien%Hinard%NULL%1,                Pierre-Yves%Macq%NULL%1,                Kevin%Chaulier%NULL%1,                Sylvie%Goutte%NULL%1,                Patrick%Chillet%NULL%1,                Anaïs%Pitta%NULL%1,                Barbara%Darjent%NULL%1,                Amandine%Bruneau%NULL%1,                Sigismond%Lasocki%NULL%1,                Maxime%Leger%NULL%1,                Soizic%Gergaud%NULL%1,                Pierre%Lemarie%NULL%1,                Nicolas%Terzi%NULL%1,                Carole%Schwebel%NULL%1,                Anaïs%Dartevel%NULL%1,                Louis-Marie%Galerneau%NULL%1,                Jean-Luc%Diehl%NULL%1,                Caroline%Hauw-Berlemont%NULL%0,                Nicolas%Péron%NULL%1,                Emmanuel%Guérot%NULL%1,                Abolfazl Mohebbi%Amoli%NULL%1,                Michel%Benhamou%NULL%1,                Jean-Pierre%Deyme%NULL%1,                Olivier%Andremont%NULL%1,                Diane%Lena%NULL%1,                Julien%Cady%NULL%1,                Arnaud%Causeret%NULL%1,                Arnaud%De La Chapelle%NULL%1,                Christophe%Cracco%NULL%1,                Stéphane%Rouleau%NULL%1,                David%Schnell%NULL%1,                Cécile%Lory%NULL%1,                Thibault%Chapelle%NULL%1,                Vincent%Bruckert%NULL%1,                Julie%Garcia%NULL%1,                Abdlazize%Sahraoui%NULL%1,                Nathalie%Abbosh%NULL%1,                Caroline%Bornstain%NULL%1,                Pierre%Pernet%NULL%1,                Florent%Poirson%NULL%1,                Ahmed%Pasem%NULL%1,                Philippe%Karoubi%NULL%1,                Virginie%Poupinel%NULL%1,                Caroline%Gauthier%NULL%1,                François%Bouniol%NULL%1,                Philippe%Feuchere%NULL%1,                Florent%Bavozet%NULL%0,                Anne%Heron%NULL%1,                Serge%Carreira%NULL%1,                Malo%Emery%NULL%1,                Anne%Le Floch%NULL%1,                Luana%Giovannangeli%NULL%1,                Nicolas%Herzog%NULL%1,                Christophe%Giacardi%NULL%1,                Thibaut%Baudic%NULL%1,                Chloé%Thill%NULL%1,                Florence%Tubach%NULL%1,                Olivier%Lesieur%NULL%1,                Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                Max W.%Adelman%NULL%2,                Maxwell A.%Hockstein%NULL%1,                Chad J.%Robichaux%NULL%1,                Johnathan A.%Edwards%NULL%1,                Jane C.%Fazio%NULL%1,                James M.%Blum%NULL%3,                Craig S.%Jabaley%NULL%2,                Mark%Caridi-Scheible%NULL%2,                Greg S.%Martin%NULL%2,                David J.%Murphy%NULL%3,                Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,              Antonelli%M.%coreGivesNoEmail%0,              Bellani%G.%coreGivesNoEmail%0,              Bonanomi%E.%coreGivesNoEmail%0,              Cabrini%L.%coreGivesNoEmail%0,              Carlesso%E.%coreGivesNoEmail%0,              Castelli%G.%coreGivesNoEmail%0,              Cattaneo%S.%coreGivesNoEmail%0,              Cecconi%M.%coreGivesNoEmail%0,              Cereda%D.%coreGivesNoEmail%0,              Colombo%S.%coreGivesNoEmail%0,              Coluccello%A.%coreGivesNoEmail%0,              Crescini%G.%coreGivesNoEmail%0,              Forastieri%Molinari A.%coreGivesNoEmail%0,              Foti%G.%coreGivesNoEmail%0,              Fumagalli%R.%coreGivesNoEmail%0,              Grasselli%G.%coreGivesNoEmail%0,              Greco%M.%coreGivesNoEmail%0,              Iotti%G. A.%coreGivesNoEmail%0,              Langer%T.%coreGivesNoEmail%0,              Latronico%N.%coreGivesNoEmail%0,              Lorini%F. L.%coreGivesNoEmail%0,              Mojoli%F.%coreGivesNoEmail%0,              Natalini%G.%coreGivesNoEmail%0,              Pesenti%A.%coreGivesNoEmail%0,              Pessina%C. M.%coreGivesNoEmail%0,              Ranieri%V. M.%coreGivesNoEmail%0,              Rech%R.%coreGivesNoEmail%0,              Rosano%A.%coreGivesNoEmail%0,              Scudeller%L.%coreGivesNoEmail%0,              Storti%E.%coreGivesNoEmail%0,              Thompson%B. T.%coreGivesNoEmail%0,              Tirani%M.%coreGivesNoEmail%0,              Villani%P. G.%coreGivesNoEmail%0,              Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                Keum-Ju%Choi%NULL%1,                Sun Ha%Choi%NULL%1,                Shin Yup%Lee%NULL%1,                Kyung Chan%Kim%NULL%1,                Eun Jin%Kim%NULL%1,                Jaehee%Lee%NULL%2,                Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                Siddique%Chaudhary%NULL%1,                Kevin%Bryan Lo%NULL%2,                Kevin%Bryan Lo%NULL%0,                Robert%DeJoy%NULL%1,                Fahad%Gul%NULL%1,                Ricardo%Torres%NULL%1,                Neal%Chaisson%NULL%2,                Neal%Chaisson%NULL%0,                Gabriel%Patarroyo-Aponte%NULL%2,                Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                Bruno L.%Ferreyro%NULL%2,                Bruno L.%Ferreyro%NULL%0,                Federico%Angriman%NULL%1,                María%Hernández-Sanz%NULL%2,                Egoitz%Arruti%NULL%1,                Antoni%Torres%NULL%2,                Jesús%Villar%NULL%1,                Laurent%Brochard%NULL%1,                Carlos%Ferrando%NULL%2,                Ricard%Mellado-Artigas%NULL%1,                María%Hernández-Sanz%NULL%0,                Carlos%Ferrando%NULL%0,                Marina%Vendrell%NULL%1,                Gerard%Sánchez-Etayo%NULL%1,                Amalia%Alcón%NULL%1,                Isabel%Belda%NULL%1,                Mercé%Agustí%NULL%1,                Albert%Carramiñana%NULL%1,                Isabel%Gracia%NULL%1,                Miriam%Panzeri%NULL%1,                Irene%León%NULL%1,                Jaume%Balust%NULL%1,                Ricard%Navarro%NULL%2,                María José%Arguís%NULL%1,                María José%Carretero%NULL%1,                Cristina%Ibáñez%NULL%1,                Juan%Perdomo%NULL%1,                Antonio%López%NULL%1,                Manuel%López-Baamonde%NULL%1,                Tomás%Cuñat%NULL%1,                Marta%Ubré%NULL%1,                Antonio%Ojeda%NULL%1,                Andrea%Calvo%NULL%1,                Eva%Rivas%NULL%1,                Paola%Hurtado%NULL%1,                Roger%Pujol%NULL%1,                Nuria%Martín%NULL%1,                Javier%Tercero%NULL%1,                Pepe%Sanahuja%NULL%1,                Marta%Magaldi%NULL%1,                Miquel%Coca%NULL%1,                Elena%del Rio%NULL%1,                Julia%Martínez-Ocon%NULL%1,                Paula%Masgoret%NULL%1,                Monserrat%Tio%NULL%1,                Angel%Caballero%NULL%1,                Raquel%Risco%NULL%1,                Raquel%Bergé%NULL%1,                Lidia%Gómez%NULL%1,                Nicolás%de Riva%NULL%1,                Ana%Ruiz%NULL%1,                Beatriz%Tena%NULL%1,                Sebastián%Jaramillo%NULL%1,                José María%Balibrea%NULL%1,                Francisco Borja de Borja%de Lacy%NULL%1,                Ana%Otero%NULL%1,                Ainitze%Ibarzabal%NULL%1,                Raquel%Bravo%NULL%1,                Anna%Carreras%NULL%1,                Daniel%Martín-Barreda%NULL%1,                Alfonso Jesús%Alias%NULL%1,                Mariano%Balaguer%NULL%1,                Jorge%Aliaga%NULL%1,                Alex%Almuedo%NULL%1,                Joan Ramón%Alonso%NULL%1,                Rut%Andrea%NULL%1,                Gerard Sergi%Angelès%NULL%1,                 Marilyn%Arias%NULL%1,                Fátima%Aziz%NULL%1,                Joan Ramon%Badía%NULL%1,                Enric%Barbeta%NULL%1,                Toni%Torres%NULL%1,                Guillem%Batiste%NULL%1,                Pau%Benet%NULL%1,                Xavi%Borrat%NULL%1,                María%Borrell%NULL%1,                Ernest%Bragulat%NULL%1,                Inmaculada%Carmona%NULL%1,                Manuel%Castellà%NULL%1,                Pedro%Castro%NULL%1,                Joan%Ceravalls%NULL%1,                Oscar%Comino%NULL%1,                Claudia%Cucciniello%NULL%1,                Clàudia%De Deray%NULL%1,                Oriol%De Diego%NULL%1,                Paula%De la Matta%NULL%1,                Marta%Farrero%NULL%1,                Javier%Fernández%NULL%1,                Sara%Fernández%NULL%1,                Anna%Fernández%NULL%1,                Miquel%Ferrer%NULL%1,                Ana%Fervienza%NULL%1,                María%Tallo Forga%NULL%1,                Daniel%Forné%NULL%1,                Clàudia%Galán%NULL%1,                Andrea%Gómez%NULL%1,                Eduard%Guasch%NULL%1,                María%Hernández-Tejero%NULL%1,                Adriana%Jacas%NULL%1,                Beltrán%Jiménez%NULL%1,                Pere%Leyes%NULL%1,                Teresa%López%NULL%1,                José Antonio%Martínez%NULL%1,                Graciela%Martínez-Pallí%NULL%1,                Jordi%Mercadal%NULL%1,                Guido%Muñoz%NULL%1,                José%Muñoz%NULL%1,                Ricard%Navarro%NULL%0,                Josep María%Nicolás%NULL%1,                José Tomás%Ortiz%NULL%1,                Anna%Peiró%NULL%1,                Manuel%Pérez%NULL%1,                Esteban%Poch%NULL%1,                Margarida%Pujol%NULL%1,                Eduard%Quintana%NULL%1,                Bartomeu%Ramis%NULL%1,                Enric%Reverter%NULL%1,                Irene%Rovira%NULL%1,                Pablo%Ruiz%NULL%1,                Elena%Sandoval%NULL%1,                Stefan%Schneider%NULL%1,                Oriol%Sibila%NULL%1,                Carla%Solé%NULL%1,                Alex%Soriano%NULL%1,                Dolors%Soy%NULL%1,                M.%Suárez%NULL%1,                Adrián%Téllez%NULL%1,                Néstor David%Toapanta%NULL%1,                Antoni%Torres%NULL%0,                Xavier%Urra%NULL%1,                César%Aldecoa%NULL%1,                Alicia%Bordell%NULL%1,                Silvia%Martín%NULL%1,                Judith%Andrés%NULL%1,                Alberto Martínez%Ruiz%NULL%1,                Gonzalo Tamayo%Medel%NULL%1,                Iñaki Bilbao Bilbao%Villasante%NULL%1,                Fernando Iturri%Clavero%NULL%1,                Covadonga Peralta%Álvarez%NULL%1,                Julia T.%Herrera Díez%NULL%1,                Andrea García%Trancho%NULL%1,                Iñaki Sainz %Mandiola%NULL%1,                Carmen Ruano%Suarez%NULL%1,                Angela Ruiz%Bocos%NULL%1,                Eneritz Urrutia%Izagirre%NULL%1,                Pablo Ortiz%de Urbina Fernández%NULL%1,                Naiara Apodaka%López%NULL%1,                Leire Prieto%Molano%NULL%1,                Eunate Ganuza%Martínez%NULL%1,                Iratxe Vallinas%Hidalgo%NULL%1,                Karmele%de Orte Sancho%NULL%1,                Celia González%Paniagua%NULL%1,                Gemma Ortiz%Labrador%NULL%1,                Mireia Pérez%Larrañaga%NULL%1,                Marta López%Miguelez%NULL%1,                Estíbaliz Bárcena%Andrés%NULL%1,                Erik Urutxurtu%Laureano%NULL%1,                Maria Jesús Maroño%Boedo%NULL%1,                Blanca Escontrela%Rodríguez%NULL%1,                Aitziber Ereñozaga%Camiruaga%NULL%1,                Deiene Lasuen%Aguirre%NULL%1,                Ainhoa Zabal%Maeztu%NULL%1,                Ane Guereca%Gala%NULL%1,                Iker Castelo%Korro%NULL%1,                Andrés Álvarez%Campo%NULL%1,                Alejandro Carcelen%Viana%NULL%1,                Alejandro Alberdi%Enríquez%NULL%1,                Xabier Ormazábal%Rementeria%NULL%1,                Alberto Sánchez%Campos%NULL%1,                Rosa Gutiérrez%Rico%NULL%1,                Pablo Barbier%Damborenea%NULL%1,                Marta Guerenabarrena%Momeñe%NULL%1,                Borja Cuesta%Ruiz%NULL%1,                Alejandro López%Rico%NULL%1,                Ana Rojo%Polo%NULL%1,                Covadonga García%Grijelmo%NULL%1,                Mikel Celorrio%Reta%NULL%1,                Eneko Martín%Arroyo%NULL%1,                Leire Artaza%Aparicio%NULL%1,                Iñaki Ituarte%Aspiazu%NULL%1,                Ane Igeregi%Basabe%NULL%1,                Itxaso Merino%Julian%NULL%1,                Isabel Diaz%Rico%NULL%1,                Maria Paz%Martínez%NULL%1,                Ramón%Adalia Bartolomé%NULL%1,                Luigi%Zattera%NULL%1,                Irina Adalid%Hernandez%NULL%1,                Leire Larrañaga%Altuna%NULL%1,                Aina Serrallonga%Castells%NULL%1,                Adriana Vílchez%Garcia%NULL%1,                María%Núñez%NULL%1,                Lorena%Román%NULL%1,                Isabel Ramos%Delgado%NULL%1,                Adela Benítez-Cano%Martínez%NULL%1,                Mireia Chanzá%Albert%NULL%1,                Juan Carlos Álvarez%García%NULL%1,                Luis Aguilera%Cuchillo%NULL%1,                Sandra Beltrán%de Heredia%NULL%1,                Jesús Carazo%Cordobés%NULL%1,                Carlos Alberto García%Bernedo%NULL%1,                Fernando Escolano%Villén%NULL%1,                Francisco Javier Redondo%Calvo%NULL%1,                Rubén Villazala%González%NULL%1,                Victor Baladron%González%NULL%1,                Patricia%Faba%NULL%1,                Omar%Montenegro%NULL%1,                Natalia Bejarano%Ramírez%NULL%1,                Sergio Marcos%Contreras%NULL%1,                Alejandro Garcia%Rodríguez%NULL%1,                Saleta Rey%Vázquez%NULL%1,                Cristina Garcia%Pérez%NULL%1,                Eva Higuera%Miguelez%NULL%1,                Irene Pérez%Blanco%NULL%1,                David García%Rivera%NULL%1,                Ane Martín%de la Fuente%NULL%1,                Marta%Pardo%NULL%1,                Vanessa%Rodriguez%NULL%1,                Unai%Bengoetxea%NULL%1,                Fernando%Ramasco%NULL%1,                Sheila Olga Santidrián%Bernal%NULL%1,                Alvar Santa Cruz%Hernando%NULL%1,                Antonio Planas%Roca%NULL%1,                Carlos Figueroa%Yusta%NULL%1,                Esther García%Villabona%NULL%1,                Carmen Vallejo%Lantero%NULL%1,                Eva Patiño%Rodriguez%NULL%1,                Alvaro Esquivel%Toledo%NULL%1,                David Arribas%Méndez%NULL%1,                Mar Orts%Rodriguez%NULL%1,                Rosa Méndez%Hernández%NULL%1,                Jesús Nieves%Alonso%NULL%1,                Inés Imaz%Artazcoz%NULL%1,                Sonia Expósito%Carazo%NULL%1,                Carlos Román%Guerrero%NULL%1,                Elena Rojo%Rodríguez%NULL%1,                Ricardo Moreno%González%NULL%1,                Julia Hernando%Santos%NULL%1,                Jara Torrente%Pérez%NULL%1,                Esperanza Mata%Mena%NULL%1,                Manuel José Muñoz%Martínez%NULL%1,                Enrique Alday%Muñoz%NULL%1,                Patricia Martin%Serrano%NULL%1,                Laura Cotter%Muñoz%NULL%1,                Amadea%Mjertan%NULL%1,                Diego Gutierrez%Martínez%NULL%1,                Carmen Rodríguez%García%NULL%1,                Olaya Alonso%Viejo%NULL%1,                Juan Alvarez%Pereira%NULL%1,                Ana Carmona%Bonet%NULL%1,                Diana Parrado%López%NULL%1,                Eva%de Dios Tomas%NULL%1,                Rafael Martín%Celemin%NULL%1,                María Luisa Meilan%Paz%NULL%1,                Luis Quecedo%Gutiérrez%NULL%1,                Noemí Diaz%Velasco%NULL%1,                Gabriel Martin%Hernández%NULL%1,                Francisco Garcia%del Corral%NULL%1,                Gloria Hernandez%Arias%NULL%1,                David Rodriguez%Cuesta%NULL%1,                Ana Gómez%Rice%NULL%1,                Encarna Mateos%Sevillano%NULL%1,                Natalia Olmos%Molpeceres%NULL%1,                Beatriz%Domínguez%NULL%1,                Ana Vázquez%Lima%NULL%1,                Ángel%Candela%NULL%1,                Ismael A. Acevedo%Bambaren%NULL%1,                Maria Isabel Albala%Blanco%NULL%1,                Paloma Alonso%Montoiro%NULL%1,                Fernando Álvarez%Utrera%NULL%1,                Juan Avellanosa%Esteruelas%NULL%1,                Amal Azzam%López%NULL%1,                Alberto José%Balvis%NULL%1,                Balvis Tommaso%Bardi%NULL%1,                María Beltrán%Martín%NULL%1,                Jacobo Benatar%Haserfaty%NULL%1,                Alberto Berruezo%Camacho%NULL%1,                Laura Betolaza%Weimer%NULL%1,                María%del Mar Carbonell Soto%NULL%1,                Cristina Carrasco%Seral%NULL%1,                Cristina Cerro %Zaballos%NULL%1,                Elizabeth Claros%Llamas%NULL%1,                Pilar Coleta%Orduna%NULL%1,                Ingrid P. Cortes%Forero%NULL%1,                Pascual Agustín Crespo%Aliseda%NULL%1,                María Angélica%de Pablo Pajares%NULL%1,                Yolanda Díez%Remesal%NULL%1,                Trinidad Dorado%Díaz%NULL%1,                Noemí Echevarría%Blasco%NULL%1,                María Elena Elías%Martín%NULL%1,                Javier Felices%Triviño%NULL%1,                Natalia Fernández%López%NULL%1,                Cristina Fernández%Martín%NULL%1,                Natalia Ferreiro%Pozuelo%NULL%1,                Luis Gajate%Martín%NULL%1,                Clara Gallego%Santos%NULL%1,                Diego Gil%Mayo%NULL%1,                María Gómez%Rojo%NULL%1,                Claudia González%Cibrián%NULL%1,                Elena Herrera%López%NULL%1,                Borja Hinojal%Olmedillo%NULL%1,                Berta Iglesias%Gallego%NULL%1,                Sassan%Khonsari%NULL%1,                María Nuria Mane%Ruiz%NULL%1,                María Manzanero%Arroyo%NULL%1,                Ana María Mariscal%Ortega%NULL%1,                Sara Martín%Burcio%NULL%1,                María%del Carmen Martín González%NULL%1,                Ascensión Martín%Grande%NULL%1,                Jose Juan Martín%López%NULL%1,                Cecilia Martín%Rabes%NULL%1,                Marcos Martínez%Borja%NULL%1,                Nilda Martínez%Castro%NULL%1,                Adolfo Martínez%Pérez%NULL%1,                Snejana%Matcan%NULL%1,                Cristina Medrano%Viñas%NULL%1,                Lisset Miguel%Herrera%NULL%1,                Adrián Mira%Betancur%NULL%1,                María Montiel%Carbajo%NULL%1,                Javier Moya%Moradas%NULL%1,                Lorena Muñoz%Pérez%NULL%1,                Mónica Nuñez%Murias%NULL%1,                Eva Ordiales%González%NULL%1,                Óscar Ordoñez%Recio%NULL%1,                Miguel Ángel Palomero%Rodriguez%NULL%1,                Diego Parise%Roux%NULL%1,                Lucia Pereira%Torres%NULL%1,                David Pestaña%Lagunas%NULL%1,                Juana María Pinto%Corraliza%NULL%1,                Marian Prieto%Rodrigo%NULL%1,                Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                David Rodriguez%Esteban%NULL%1,                Víctor Rojas%Pernia%NULL%1,                Álvaro Ruigómez%Saiz%NULL%1,                Bárbara Saavedra%Villarino%NULL%1,                Noemí Samaranch%Palero%NULL%1,                Gloria Santos%Pérez%NULL%1,                Jaume Serna%Pérez%NULL%1,                Ana Belén Serrano%Romero%NULL%1,                Jesús Tercero%López%NULL%1,                Carlos Tiscar%García%NULL%1,                Marta%de la Torre Concostrina%NULL%1,                Eva María Ureta%Mesa%NULL%1,                Eva Velasco%Olarte%NULL%1,                Judith Villahoz%Martínez%NULL%1,                Raúl Villalaba%Palacios%NULL%1,                Gema Villanueva%García%NULL%1,                Cristina Vogel%de Medeiros%NULL%1,                Soraya Gholamian%Ovejero%NULL%1,                Marta Vicente%Orgaz%NULL%1,                Patricia Lloreda%Herradon%NULL%1,                Cristina Crespo%Gómez%NULL%1,                Tatiana%Sarmiento-Trujillo%NULL%1,                Noemí García%Medina%NULL%1,                María Martínez%García%NULL%1,                Carles Espinós%Ramírez%NULL%1,                Nabil Mouhaffel%Rivero%NULL%1,                Jose Antonio Bernia%Gil%NULL%1,                Sonsoles%Martín%NULL%1,                María Victoria%Moral%NULL%1,                Josefina%Galán%NULL%1,                Pilar%Paniagua%NULL%1,                Sergio%Pérez%NULL%1,                Albert%Bainac%NULL%1,                Ana%Arias%NULL%1,                Elsa%Ramil%NULL%1,                Jorge%Escudero%NULL%1,                Pablo%Monedero%NULL%1,                Carmen%Cara%NULL%1,                Andrea%Lara%NULL%1,                Elena Mendez%Martínez%NULL%1,                Jorge%Mendoza%NULL%1,                Íñigo Rubio%Baines%NULL%1,                Carmen Sala%Trull%NULL%1,                Pablo Montero%López%NULL%1,                Alfredo%Gea%NULL%1,                Alejandro%Montero%NULL%1,                Rocío Armero%Ibañez%NULL%1,                Juan Vicente Llau%Pitarch%NULL%1,                Fernando Rauer%Alcóver%NULL%1,                Cristina Álvarez%Herreros%NULL%1,                Cyntia Sánchez%Martín%NULL%1,                Lucía López Ocáriz%Olmos%NULL%1,                Marta Navas%Moruno%NULL%1,                Fernando García%Montoto%NULL%1,                M. F. Mirón%Rodriguez%NULL%1,                Laura Fuentes%Coco%NULL%1,                Cristina Hernández%Gamito%NULL%1,                Antonio Barba%Orejudo%NULL%1,                Luis Gerardo Smith%Vielma%NULL%1,                Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                Marta Donoso%Domínguez%NULL%1,                Silvia Esquivel%Ramírez%NULL%1,                José Antonio%Carbonell%NULL%1,                Berta Monleón%López%NULL%1,                Sara%Martínez-Castro%NULL%1,                Gerardo%Aguilar%NULL%1,                María Gestal Pablo%Casas%NULL%1,                Angel Outeiro%Rosato%NULL%1,                Andrea Naveiro%Pan%NULL%1,                María Alonso%Portela%NULL%1,                Adrián García%Romar%NULL%1,                Eva Mosquera%Rodríguez%NULL%1,                Diego Ruanova%Seijo%NULL%1,                Pablo Rama%Maceiras%NULL%1,                Francisco%Castro-Ceoane%NULL%1,                Esther Moreno%López%NULL%1,                Sergio%Gil%NULL%1,                Julia Guillén%Antón%NULL%1,                Patricia García-Consuegra%Tirado%NULL%1,                Aurora Callau%Calvo%NULL%1,                Laura Forés%Lisbona%NULL%1,                María Carbonell%Romero%NULL%1,                Belén Albericio%Gil%NULL%1,                Laura Pradal%Jarne%NULL%1,                María Soria%Lozano%NULL%1,                Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                Navjot Ariyana%Kaur%NULL%1,                Daniel%Sacher%NULL%1,                Oisin%O’Corragain%NULL%1,                Daniel%Salerno%NULL%1,                Parag%Desai%NULL%1,                Sameep%Sehgal%NULL%1,                Matthew%Gordon%NULL%2,                Rohit%Gupta%NULL%2,                Nathaniel%Marchetti%NULL%1,                Huaqing%Zhao%NULL%2,                Nicole%Patlakh%NULL%2,                Gerard J.%Criner%NULL%1,                Temple%University%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                Dominik%Jarczak%NULL%1,                Liina%Thasler%NULL%1,                Martin%Bachmann%NULL%1,                Frank%Schulte%NULL%1,                Berthold%Bein%NULL%1,                Christian Friedrich%Weber%NULL%1,                Ulrich%Schäfer%NULL%1,                Carsten%Veit%NULL%1,                Hans-Peter%Hauber%NULL%1,                Sebastian%Kopp%NULL%1,                Karsten%Sydow%NULL%1,                Andreas%de Weerth%NULL%0,                Marc%Bota%NULL%1,                Rüdiger%Schreiber%NULL%1,                Oliver%Detsch%NULL%1,                Jan-Peer%Rogmann%NULL%1,                Daniel%Frings%NULL%0,                Barbara%Sensen%NULL%1,                Christoph%Burdelski%NULL%0,                Olaf%Boenisch%NULL%1,                Axel%Nierhaus%NULL%0,                Geraldine%de Heer%NULL%0,                Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1411,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1368,7 +1440,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1397,7 +1469,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1426,7 +1498,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1455,7 +1527,7 @@
         <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1484,7 +1556,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1513,7 +1585,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1542,7 +1614,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1571,7 +1643,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1600,7 +1672,7 @@
         <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1629,7 +1701,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1658,7 +1730,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="277">
   <si>
     <t>Doi</t>
   </si>
@@ -1015,6 +1015,42 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,                Dominik%Jarczak%NULL%1,                Liina%Thasler%NULL%1,                Martin%Bachmann%NULL%1,                Frank%Schulte%NULL%1,                Berthold%Bein%NULL%1,                Christian Friedrich%Weber%NULL%1,                Ulrich%Schäfer%NULL%1,                Carsten%Veit%NULL%1,                Hans-Peter%Hauber%NULL%1,                Sebastian%Kopp%NULL%1,                Karsten%Sydow%NULL%1,                Andreas%de Weerth%NULL%0,                Marc%Bota%NULL%1,                Rüdiger%Schreiber%NULL%1,                Oliver%Detsch%NULL%1,                Jan-Peer%Rogmann%NULL%1,                Daniel%Frings%NULL%0,                Barbara%Sensen%NULL%1,                Christoph%Burdelski%NULL%0,                Olaf%Boenisch%NULL%1,                Axel%Nierhaus%NULL%0,                Geraldine%de Heer%NULL%0,                Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                 Paolo%Comassi%NULL%1,                 Luca%Adriani%NULL%1,                 Giulio%Bergamaschini%NULL%1,                 Elena%Bertin%NULL%1,                 Raffaella%Borromeo%NULL%1,                 Serena%Corti%NULL%1,                 Federica%De Petri%NULL%1,                 Francesco%Dolci%NULL%1,                 Attilio%Galmozzi%NULL%1,                 Alberto%Gigliotti%NULL%1,                 Livio%Gualdoni%NULL%1,                 Claudia%Guerra%NULL%1,                 Anna%Khosthiova%NULL%1,                 Giovanni%Leati%NULL%1,                 Giuseppe%Lupi%NULL%1,                 Paolo%Moscato%NULL%1,                 Vittorio%Perotti%NULL%1,                 Miriam%Piantelli%NULL%1,                 Alain%Ruini%NULL%1,                 Silvia%Sportelli%NULL%1,                 Micaela%Susca%NULL%1,                 Carmine%Troiano%NULL%1,                 Giampaolo%Benelli%NULL%1,                 Elisabetta%Buscarini%NULL%1,                 Ciro%Canetta%NULL%1,                 Guido%Merli%NULL%1,                 Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                 Emna%Ennouri%NULL%1,                 Rayane%Nachi%NULL%1,                 Khaoula%Meddeb%NULL%1,                 Jihene%Mahmoud%NULL%1,                 Nesrine%Thabet%NULL%1,                 Salma%Jerbi%NULL%1,                 Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                 Eleni%Xourgia%NULL%1,                 Theodora K.%Ntaidou%NULL%1,                 Dimitris%Zervakis%NULL%1,                 Eleni E.%Magira%NULL%1,                 Anastasia%Kotanidou%NULL%1,                 Christina%Routsi%NULL%1,                 Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                 Carina%Mostert%NULL%1,                 Corinna%Hentschker%NULL%1,                 Thomas%Voshaar%NULL%1,                 Jürgen%Malzahn%NULL%1,                 Gerhard%Schillinger%NULL%1,                 Jürgen%Klauber%NULL%1,                 Uwe%Janssens%NULL%1,                 Gernot%Marx%NULL%1,                 Steffen%Weber-Carstens%NULL%1,                 Stefan%Kluge%NULL%0,                 Michael%Pfeifer%NULL%1,                 Linus%Grabenhenrich%NULL%1,                 Tobias%Welte%NULL%1,                 Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                 David%Hajage%NULL%2,                 David%Hajage%NULL%0,                 Alexandre%Demoule%NULL%1,                 Tài%Pham%NULL%1,                 Alain%Combes%NULL%1,                 Martin%Dres%NULL%1,                 Said%Lebbah%NULL%1,                 Antoine%Kimmoun%NULL%1,                 Alain%Mercat%NULL%1,                 Gaëtan%Beduneau%NULL%1,                 Jessica%Palmyre%NULL%1,                 Margot%Prevost%NULL%1,                 Pierre%Asfar%NULL%1,                 François%Beloncle%NULL%1,                 Julien%Demiselle%NULL%1,                 Arthur%Pavot%NULL%1,                 Xavier%Monnet%NULL%1,                 Christian%Richard%NULL%1,                 Julien%Mayaux%NULL%1,                 Alexandra%Beurton%NULL%1,                 Richard%Descamps%NULL%1,                 Aurélie%Joret%NULL%1,                 Damien%Du Cheyron%NULL%1,                 Frédéric%Pene%NULL%1,                 Jean-Daniel%Chiche%NULL%1,                 Mathieu%Jozwiak%NULL%1,                 Paul%Jaubert%NULL%1,                 Guillaume%Voiriot%NULL%1,                 Muriel%Fartoukh%NULL%1,                 Marion%Teulier%NULL%1,                 Clarisse%Blayau%NULL%1,                 Erwen%L’Her%NULL%1,                 Cécile%Aubron%NULL%1,                 Laetitia%Bodenes%NULL%1,                 Nicolas%Ferriere%NULL%1,                 Johann%Auchabie%NULL%1,                 Anthony%Le Meur%NULL%1,                 Sylvain%Pignal%NULL%1,                 Thierry%Mazzoni%NULL%1,                 Jean-Pierre%Quenot%NULL%1,                 Pascal%Andreu%NULL%1,                 Jean-Baptiste%Roudau%NULL%1,                 Marie%Labruyère%NULL%1,                 Saad%Nseir%NULL%0,                 Sébastien%Preau%NULL%1,                 Julien%Poissy%NULL%0,                 Daniel%Mathieu%NULL%0,                 Sarah%Benhamida%NULL%1,                 Rémi%Paulet%NULL%1,                 Nicolas%Roucaud%NULL%1,                 Martial%Thyrault%NULL%1,                 Florence%Daviet%NULL%1,                 Sami%Hraiech%NULL%1,                 Gabriel%Parzy%NULL%1,                 Aude%Sylvestre%NULL%1,                 Sébastien%Jochmans%NULL%1,                 Anne-Laure%Bouilland%NULL%1,                 Mehran%Monchi%NULL%1,                 Marc%Danguy des Déserts%NULL%1,                 Quentin%Mathais%NULL%1,                 Gwendoline%Rager%NULL%1,                 Pierre%Pasquier%NULL%1,                 Reignier%Jean%NULL%1,                 Seguin%Amélie%NULL%1,                 Garret%Charlotte%NULL%1,                 Canet%Emmanuel%NULL%1,                 Jean%Dellamonica%NULL%1,                 Clément%Saccheri%NULL%1,                 Romain%Lombardi%NULL%1,                 Yanis%Kouchit%NULL%1,                 Sophie%Jacquier%NULL%1,                 Armelle%Mathonnet%NULL%1,                 Mai-Ahn%Nay%NULL%1,                 Isabelle%Runge%NULL%1,                 Frédéric%Martino%NULL%1,                 Laure%Flurin%NULL%1,                 Amélie%Rolle%NULL%1,                 Michel%Carles%NULL%1,                 Rémi%Coudroy%NULL%1,                 Arnaud W.%Thille%NULL%1,                 Jean-Pierre%Frat%NULL%1,                 Maeva%Rodriguez%NULL%1,                 Pascal%Beuret%NULL%1,                 Audrey%Tientcheu%NULL%1,                 Arthur%Vincent%NULL%1,                 Florian%Michelin%NULL%1,                 Marie Anne%Melone%NULL%1,                 Maxime%Gauzi%NULL%1,                 Arnaud%Guilbert%NULL%1,                 Geoffrey%Kouadri%NULL%1,                 Valérie%Gissot%NULL%1,                 Stéphan%Ehrmann%NULL%1,                 Charlotte%Salmon-Gandonnière%NULL%1,                 Djlali%Elaroussi%NULL%1,                 Agathe%Delbove%NULL%1,                 Yannick%Fedun%NULL%1,                 Julien%Huntzinger%NULL%1,                 Eddy%Lebas%NULL%1,                 Grâce%Kisoka%NULL%1,                 Céline%Grégoire%NULL%1,                 Stella%Marchetta%NULL%1,                 Bernard%Lambermont%NULL%1,                 Laurent%Argaud%NULL%1,                 Thomas%Baudry%NULL%1,                 Pierre-Jean%Bertrand%NULL%1,                 Auguste%Dargent%NULL%1,                 Christophe%Guitton%NULL%1,                 Nicolas%Chudeau%NULL%1,                 Mickaël%Landais%NULL%1,                 Cédric%Darreau%NULL%1,                 Alexis%Ferre%NULL%1,                 Antoine%Gros%NULL%1,                 Guillaume%Lacave%NULL%1,                 Fabrice%Bruneel%NULL%1,                 Mathilde%Neuville%NULL%1,                 Jérôme%Devaquet%NULL%1,                 Guillaume%Tachon%NULL%1,                 Richard%Gallot%NULL%1,                 Riad%Chelha%NULL%1,                 Arnaud%Galbois%NULL%1,                 Anne%Jallot%NULL%1,                 Ludivine Chalumeau%Lemoine%NULL%1,                 Khaldoun%Kuteifan%NULL%1,                 Valentin%Pointurier%NULL%1,                 Louise-Marie%Jandeaux%NULL%1,                 Joy%Mootien%NULL%1,                 Charles%Damoisel%NULL%1,                 Benjamin%Sztrymf%NULL%1,                 Juliette%Chommeloux%NULL%1,                 Charles Edouard%Luyt%NULL%1,                 Frédérique%Schortgen%NULL%1,                 Leon%Rusel%NULL%1,                 Camille%Jung%NULL%1,                 Florent%Gobert%NULL%1,                 Damien%Vimpere%NULL%1,                 Lionel%Lamhaut%NULL%1,                 Bertrand%Sauneuf%NULL%1,                 Liliane%Charrier%NULL%1,                 Julien%Calus%NULL%1,                 Isabelle%Desmeules%NULL%1,                 Benoît%Painvin%NULL%1,                 Jean-Marc%Tadie%NULL%1,                 Vincent%Castelain%NULL%1,                 Baptiste%Michard%NULL%1,                 Jean-Etienne%Herbrecht%NULL%1,                 Mathieu%Baldacini%NULL%1,                 Nicolas%Weiss%NULL%1,                 Sophie%Demeret%NULL%1,                 Clémence%Marois%NULL%1,                 Benjamin%Rohaut%NULL%1,                 Pierre-Henri%Moury%NULL%1,                 Anne-Charlotte%Savida%NULL%1,                 Emmanuel%Couadau%NULL%1,                 Mathieu%Série%NULL%1,                 Nica%Alexandru%NULL%1,                 Cédric%Bruel%NULL%1,                 Candice%Fontaine%NULL%1,                 Sonia%Garrigou%NULL%1,                 Juliette Courtiade%Mahler%NULL%1,                 Maxime%Leclerc%NULL%1,                 Michel%Ramakers%NULL%1,                 Pierre%Garçon%NULL%1,                 Nicole%Massou%NULL%1,                 Ly Phacs%Van Vong%NULL%1,                 Juliane%Sen%NULL%1,                 Nolwenn%Lucas%NULL%1,                 Franck%Chemouni%NULL%1,                 Annabelle%Stoclin%NULL%1,                 Alexandre%Avenel%NULL%1,                 Henri%Faure%NULL%1,                 Angélie%Gentilhomme%NULL%1,                 Sylvie%Ricome%NULL%1,                 Paul%Abraham%NULL%1,                 Céline%Monard%NULL%1,                 Julien%Textoris%NULL%1,                 Thomas%Rimmele%NULL%1,                 Florent%Montini%NULL%1,                 Gabriel%Lejour%NULL%1,                 Thierry%Lazard%NULL%1,                 Isabelle%Etienney%NULL%1,                 Younes%Kerroumi%NULL%1,                 Dupuis%Claire%NULL%1,                 Bereiziat Marine%Coupez%NULL%1,                 Thouy%François%NULL%1,                 Clémet%Hoffmann%NULL%1,                 Nicolas%Donat%NULL%1,                 Violaine%Muller%NULL%1,                 Thibault%Martinez%NULL%1,                 Audrey%Jacquot%NULL%1,                 Matthieu%Mattei%NULL%1,                 Bruno%Levy%NULL%1,                 Ramin%Ravan%NULL%1,                 Loïc%Dopeux%NULL%1,                 Jean-Mathias%Liteaudon%NULL%1,                 Delphine%Roux%NULL%1,                 Brice%Rey%NULL%1,                 Radu%Anghel%NULL%1,                 Deborah%Schenesse%NULL%1,                 Vincent%Gevrey%NULL%1,                 Jermy%Castanera%NULL%1,                 Philippe%Petua%NULL%1,                 Benjamin%Madeux%NULL%1,                 Otto%Hartman%NULL%1,                 Michael%Piagnerelli%NULL%1,                 Anne%Joosten%NULL%1,                 Cinderella%Noel%NULL%1,                 Patrick%Biston%NULL%1,                 Thibaut%Noel%NULL%1,                 Gurvan L. E.%Bouar%NULL%1,                 Messabi%Boukhanza%NULL%1,                 Elsa%Demarest%NULL%1,                 Marie-France%Bajolet%NULL%1,                 Nathanaël%Charrier%NULL%1,                 Audrey%Quenet%NULL%1,                 Cécile%Zylberfajn%NULL%1,                 Nicolas%Dufour%NULL%1,                 Buno%Mégarbane%NULL%1,                 Sqébastian%Voicu%NULL%1,                 Nicolas%Deye%NULL%1,                 Isabelle%Malissin%NULL%1,                 François%Legay%NULL%1,                 Matthieu%Debarre%NULL%1,                 Nicolas%Barbarot%NULL%1,                 Pierre%Fillatre%NULL%1,                 Bertrand%Delord%NULL%1,                 Thomas%Laterrade%NULL%1,                 Tahar%Saghi%NULL%1,                 Wilfried%Pujol%NULL%1,                 Pierre Julien%Cungi%NULL%1,                 Pierre%Esnault%NULL%1,                 Mickael%Cardinale%NULL%1,                 Vivien%Hong Tuan Ha%NULL%1,                 Grégory%Fleury%NULL%1,                 Marie-Ange%Brou%NULL%1,                 Daniel%Zafimahazo%NULL%1,                 David%Tran-Van%NULL%1,                 Patrick%Avargues%NULL%1,                 Lisa%Carenco%NULL%1,                 Nicolas%Robin%NULL%1,                 Alexandre%Ouali%NULL%1,                 Lucie%Houdou%NULL%1,                 Christophe%Le Terrier%NULL%1,                 Noémie%Suh%NULL%1,                 Steve%Primmaz%NULL%1,                 Jérome%Pugin%NULL%1,                 Emmanuel%Weiss%NULL%1,                 Tobias%Gauss%NULL%1,                 Jean-Denis%Moyer%NULL%1,                 Catherine%Paugam-Burtz%NULL%1,                 Béatrice%La Combe%NULL%1,                 Rolland%Smonig%NULL%1,                 Jade%Violleau%NULL%1,                 Pauline%Cailliez%NULL%1,                 Jonathan%Chelly%NULL%1,                 Antoine%Marchalot%NULL%1,                 Cécile%Saladin%NULL%1,                 Christelle%Bigot%NULL%1,                 Pierre-Marie%Fayolle%NULL%1,                 Jules%Fatséas%NULL%1,                 Amr%Ibrahim%NULL%1,                 Dabor%Resiere%NULL%1,                 Rabih%Hage%NULL%1,                 Clémentine%Cholet%NULL%1,                 Marie%Cantier%NULL%1,                 Pierre%Trouiller%NULL%1,                 Philippe%Montravers%NULL%1,                 Brice%Lortat-Jacob%NULL%1,                 Sebastien%Tanaka%NULL%1,                 Alexy%Tran-Dinh%NULL%1,                 Jacques%Duranteau%NULL%1,                 Anatole%Harrois%NULL%1,                 Guillaume%Dubreuil%NULL%1,                 Marie%Werner%NULL%1,                 Anne%Godier%NULL%1,                 Sophie%Hamada%NULL%1,                 Diane%Zlotnik%NULL%1,                 Hélène%Nougue%NULL%1,                 Armand%Mekontso-Dessap%NULL%1,                 Guillaume%Carteaux%NULL%1,                 Keyvan%Razazi%NULL%1,                 Nicolas%De Prost%NULL%1,                 Nicolas%Mongardon%NULL%1,                 Olivier%Langeron%NULL%1,                 Eric%Levesque%NULL%1,                 Arié%Attias%NULL%1,                 Charles%de Roquetaillade%NULL%1,                 Benjamin G.%Chousterman%NULL%1,                 Alexandre%Mebazaa%NULL%1,                 Etienne%Gayat%NULL%1,                 Marc%Garnier%NULL%1,                 Emmanuel%Pardo%NULL%1,                 Lea%Satre-Buisson%NULL%1,                 Christophe%Gutton%NULL%1,                 Elise%Yvin%NULL%1,                 Clémence%Marcault%NULL%1,                 Elie%Azoulay%NULL%1,                 Michael%Darmon%NULL%1,                 Nicolas%Bonnet%NULL%1,                 Nathan%Ebstein%NULL%1,                 Stéphane%Gaudry%NULL%1,                 Yves%Cohen%NULL%1,                  Hafid%Ait-Oufella%NULL%1,                 Geoffroy%Hariri%NULL%1,                 Tomas%Urbina%NULL%1,                 Sandie%Mazerand%NULL%1,                 Nicholas%Heming%NULL%1,                 Francesca%Santi%NULL%1,                 Pierre%Moine%NULL%1,                 Djillali%Annane%NULL%1,                 Adrien%Bouglé%NULL%1,                 Edris%Omar%NULL%1,                 Aymeric%Lancelot%NULL%1,                 Emmanuelle%Begot%NULL%1,                 Gaétan%Plantefeve%NULL%1,                 Damien%Contou%NULL%1,                 Hervé%Mentec%NULL%1,                 Olivier%Pajot%NULL%1,                 Stanislas%Faguer%NULL%1,                 Olivier%Cointault%NULL%1,                 Laurence%Lavayssiere%NULL%1,                 Marie-Béatrice%Nogier%NULL%1,                 Matthieu%Jamme%NULL%1,                 Claire%Pichereau%NULL%1,                 Jan%Hayon%NULL%1,                 Hervé%Outin%NULL%1,                 François%Dépret%NULL%1,                 Maxime%Coutrot%NULL%1,                 Maité%Chaussard%NULL%1,                 Lucie%Guillemet%NULL%1,                 Pierre%Goffin%NULL%1,                 Romain%Thouny%NULL%1,                 Julien%Guntz%NULL%1,                 Laurent%Jadot%NULL%1,                 Romain%Persichini%NULL%1,                 Vanessa%Jean-Michel%NULL%1,                 Hugues%Georges%NULL%1,                 Thomas%Caulier%NULL%1,                 Gaël%Pradel%NULL%1,                 Marie-Hélène%Hausermann%NULL%1,                 ThiMy Hue%Nguyen-Valat%NULL%1,                 Michel%Boudinaud%NULL%1,                 Emmanuel%Vivier%NULL%1,                 Sylvène%Rosseli%NULL%1,                 Gaël%Bourdin%NULL%1,                 Christian%Pommier%NULL%1,                 Marc%Vinclair%NULL%1,                 Simon%Poignant%NULL%1,                 Sandrine%Mons%NULL%1,                 Wulfran%Bougouin%NULL%1,                 Franklin%Bruna%NULL%1,                 Quentin%Maestraggi%NULL%1,                 Christian%Roth%NULL%1,                 Laurent%Bitker%NULL%1,                 François%Dhelft%NULL%1,                 Justine%Bonnet-Chateau%NULL%1,                 Mathilde%Filippelli%NULL%1,                 Tristan%Morichau-Beauchant%NULL%1,                 Stéphane%Thierry%NULL%1,                 Charlotte%Le Roy%NULL%1,                 Mélanie%Saint Jouan%NULL%1,                 Bruno%Goncalves%NULL%1,                 Aurélien%Mazeraud%NULL%1,                 Matthieu%Daniel%NULL%1,                 Tarek%Sharshar%NULL%1,                 Cyril%Cadoz%NULL%1,                 Rostane%Gaci%NULL%1,                 Sébastien%Gette%NULL%1,                 Guillaune%Louis%NULL%1,                 Sophe-Caroline%Sacleux%NULL%1,                 Marie-Amélie%Ordan%NULL%1,                 Aurélie%Cravoisy%NULL%1,                 Marie%Conrad%NULL%1,                 Guilhem%Courte%NULL%1,                 Sébastien%Gibot%NULL%1,                 Younès%Benzidi%NULL%1,                 Claudia%Casella%NULL%1,                 Laurent%Serpin%NULL%1,                 Jean-Lou%Setti%NULL%1,                 Marie-Catherine%Besse%NULL%1,                 Anna%Bourreau%NULL%1,                 Jérôme%Pillot%NULL%1,                 Caroline%Rivera%NULL%1,                 Camille%Vinclair%NULL%1,                 Marie-Aline%Robaux%NULL%1,                 Chloé%Achino%NULL%1,                 Marie-Charlotte%Delignette%NULL%1,                 Tessa%Mazard%NULL%1,                 Frédéric%Aubrun%NULL%1,                 Bruno%Bouchet%NULL%1,                 Aurélien%Frérou%NULL%1,                 Laura%Muller%NULL%1,                 Charlotte%Quentin%NULL%1,                 Samuel%Degoul%NULL%1,                 Xavier%Stihle%NULL%1,                 Claude%Sumian%NULL%1,                 Nicoletta%Bergero%NULL%1,                 Bernard%Lanaspre%NULL%1,                 Hervé%Quintard%NULL%1,                 Eve Marie%Maiziere%NULL%1,                 Pierre-Yves%Egreteau%NULL%1,                 Guillaume%Leloup%NULL%1,                 Florin%Berteau%NULL%1,                 Marjolaine%Cottrel%NULL%1,                 Marie%Bouteloup%NULL%1,                 Matthieu%Jeannot%NULL%1,                 Quentin%Blanc%NULL%1,                 Julien%Saison%NULL%1,                 Isabelle%Geneau%NULL%1,                 Romaric%Grenot%NULL%1,                 Abdel%Ouchike%NULL%1,                 Pascal%Hazera%NULL%1,                 Anne-Lyse%Masse%NULL%1,                 Suela%Demiri%NULL%1,                 Corinne%Vezinet%NULL%1,                 Elodie%Baron%NULL%1,                 Déborah%Benchetrit%NULL%1,                 Antoine%Monsel%NULL%1,                 Grégoire%Trebbia%NULL%1,                 Emmanuelle%Schaack%NULL%1,                 Raphaël%Lepecq%NULL%1,                 Mathieu%Bobet%NULL%1,                 Christophe%Vinsonneau%NULL%1,                 Thibault%Dekeyser%NULL%1,                 Quentin%Delforge%NULL%1,                 Imen%Rahmani%NULL%1,                 Bérengère%Vivet%NULL%1,                 Jonathan%Paillot%NULL%1,                 Lucie%Hierle%NULL%1,                 Claire%Chaignat%NULL%1,                 Sarah%Valette%NULL%1,                 Benoït%Her%NULL%1,                 Jennifier%Brunet%NULL%1,                 Mathieu%Page%NULL%1,                 Fabienne%Boiste%NULL%1,                 Anthony%Collin%NULL%1,                 Florent%Bavozet%NULL%2,                 Aude%Garin%NULL%1,                 Mohamed%Dlala%NULL%1,                 Kais%Mhamdi%NULL%1,                 Bassem%Beilouny%NULL%1,                 Alexandra%Lavalard%NULL%1,                 Severine%Perez%NULL%1,                 Benoit%Veber%NULL%1,                 Pierre-Gildas%Guitard%NULL%1,                 Philippe%Gouin%NULL%1,                 Anna%Lamacz%NULL%1,                 Fabienne%Plouvier%NULL%1,                 Bertrand P.%Delaborde%NULL%1,                 Aïssa%Kherchache%NULL%1,                 Amina%Chaalal%NULL%1,                 Jean-Damien%Ricard%NULL%1,                 Marc%Amouretti%NULL%1,                 Santiago%Freita-Ramos%NULL%1,                 Damien%Roux%NULL%1,                 Jean-Michel%Constantin%NULL%1,                 Mona%Assefi%NULL%1,                 Marine%Lecore%NULL%1,                 Agathe%Selves%NULL%1,                 Florian%Prevost%NULL%1,                 Christian%Lamer%NULL%1,                 Ruiying%Shi%NULL%1,                 Lyes%Knani%NULL%1,                 Sébastien%Pili-Floury%NULL%1,                 Lucie%Vettoretti%NULL%1,                 Michael%Levy%NULL%1,                 Lucile%Marsac%NULL%1,                 Stéphane%Dauger%NULL%1,                 Sophie%Guilmin-Crépon%NULL%1,                 Jean-Baptiste%Putegnat%NULL%1,                 Frédérique%Bayle%NULL%1,                 Maya%Perrou%NULL%1,                 Ghyslaine%Thao%NULL%1,                 Guillaume%Géri%NULL%1,                 Cyril%Charron%NULL%1,                 Xavier%Repessé%NULL%1,                 Antoine%Vieillard-Baron%NULL%1,                 Mathieu%Guilbart%NULL%1,                 Pierre-Alexandre%Roger%NULL%1,                 Sébastien%Hinard%NULL%1,                 Pierre-Yves%Macq%NULL%1,                 Kevin%Chaulier%NULL%1,                 Sylvie%Goutte%NULL%1,                 Patrick%Chillet%NULL%1,                 Anaïs%Pitta%NULL%1,                 Barbara%Darjent%NULL%1,                 Amandine%Bruneau%NULL%1,                 Sigismond%Lasocki%NULL%1,                 Maxime%Leger%NULL%1,                 Soizic%Gergaud%NULL%1,                 Pierre%Lemarie%NULL%1,                 Nicolas%Terzi%NULL%1,                 Carole%Schwebel%NULL%1,                 Anaïs%Dartevel%NULL%1,                 Louis-Marie%Galerneau%NULL%1,                 Jean-Luc%Diehl%NULL%1,                 Caroline%Hauw-Berlemont%NULL%0,                 Nicolas%Péron%NULL%1,                 Emmanuel%Guérot%NULL%1,                 Abolfazl Mohebbi%Amoli%NULL%1,                 Michel%Benhamou%NULL%1,                 Jean-Pierre%Deyme%NULL%1,                 Olivier%Andremont%NULL%1,                 Diane%Lena%NULL%1,                 Julien%Cady%NULL%1,                 Arnaud%Causeret%NULL%1,                 Arnaud%De La Chapelle%NULL%1,                 Christophe%Cracco%NULL%1,                 Stéphane%Rouleau%NULL%1,                 David%Schnell%NULL%1,                 Cécile%Lory%NULL%1,                 Thibault%Chapelle%NULL%1,                 Vincent%Bruckert%NULL%1,                 Julie%Garcia%NULL%1,                 Abdlazize%Sahraoui%NULL%1,                 Nathalie%Abbosh%NULL%1,                 Caroline%Bornstain%NULL%1,                 Pierre%Pernet%NULL%1,                 Florent%Poirson%NULL%1,                 Ahmed%Pasem%NULL%1,                 Philippe%Karoubi%NULL%1,                 Virginie%Poupinel%NULL%1,                 Caroline%Gauthier%NULL%1,                 François%Bouniol%NULL%1,                 Philippe%Feuchere%NULL%1,                 Florent%Bavozet%NULL%0,                 Anne%Heron%NULL%1,                 Serge%Carreira%NULL%1,                 Malo%Emery%NULL%1,                 Anne%Le Floch%NULL%1,                 Luana%Giovannangeli%NULL%1,                 Nicolas%Herzog%NULL%1,                 Christophe%Giacardi%NULL%1,                 Thibaut%Baudic%NULL%1,                 Chloé%Thill%NULL%1,                 Florence%Tubach%NULL%1,                 Olivier%Lesieur%NULL%1,                 Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                 Max W.%Adelman%NULL%2,                 Maxwell A.%Hockstein%NULL%1,                 Chad J.%Robichaux%NULL%1,                 Johnathan A.%Edwards%NULL%1,                 Jane C.%Fazio%NULL%1,                 James M.%Blum%NULL%3,                 Craig S.%Jabaley%NULL%2,                 Mark%Caridi-Scheible%NULL%2,                 Greg S.%Martin%NULL%2,                 David J.%Murphy%NULL%3,                 Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,               Antonelli%M.%coreGivesNoEmail%0,               Bellani%G.%coreGivesNoEmail%0,               Bonanomi%E.%coreGivesNoEmail%0,               Cabrini%L.%coreGivesNoEmail%0,               Carlesso%E.%coreGivesNoEmail%0,               Castelli%G.%coreGivesNoEmail%0,               Cattaneo%S.%coreGivesNoEmail%0,               Cecconi%M.%coreGivesNoEmail%0,               Cereda%D.%coreGivesNoEmail%0,               Colombo%S.%coreGivesNoEmail%0,               Coluccello%A.%coreGivesNoEmail%0,               Crescini%G.%coreGivesNoEmail%0,               Forastieri%Molinari A.%coreGivesNoEmail%0,               Foti%G.%coreGivesNoEmail%0,               Fumagalli%R.%coreGivesNoEmail%0,               Grasselli%G.%coreGivesNoEmail%0,               Greco%M.%coreGivesNoEmail%0,               Iotti%G. A.%coreGivesNoEmail%0,               Langer%T.%coreGivesNoEmail%0,               Latronico%N.%coreGivesNoEmail%0,               Lorini%F. L.%coreGivesNoEmail%0,               Mojoli%F.%coreGivesNoEmail%0,               Natalini%G.%coreGivesNoEmail%0,               Pesenti%A.%coreGivesNoEmail%0,               Pessina%C. M.%coreGivesNoEmail%0,               Ranieri%V. M.%coreGivesNoEmail%0,               Rech%R.%coreGivesNoEmail%0,               Rosano%A.%coreGivesNoEmail%0,               Scudeller%L.%coreGivesNoEmail%0,               Storti%E.%coreGivesNoEmail%0,               Thompson%B. T.%coreGivesNoEmail%0,               Tirani%M.%coreGivesNoEmail%0,               Villani%P. G.%coreGivesNoEmail%0,               Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                 Keum-Ju%Choi%NULL%1,                 Sun Ha%Choi%NULL%1,                 Shin Yup%Lee%NULL%1,                 Kyung Chan%Kim%NULL%1,                 Eun Jin%Kim%NULL%1,                 Jaehee%Lee%NULL%2,                 Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                 Siddique%Chaudhary%NULL%1,                 Kevin%Bryan Lo%NULL%2,                 Kevin%Bryan Lo%NULL%0,                 Robert%DeJoy%NULL%1,                 Fahad%Gul%NULL%1,                 Ricardo%Torres%NULL%1,                 Neal%Chaisson%NULL%2,                 Neal%Chaisson%NULL%0,                 Gabriel%Patarroyo-Aponte%NULL%2,                 Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                 Bruno L.%Ferreyro%NULL%2,                 Bruno L.%Ferreyro%NULL%0,                 Federico%Angriman%NULL%1,                 María%Hernández-Sanz%NULL%2,                 Egoitz%Arruti%NULL%1,                 Antoni%Torres%NULL%2,                 Jesús%Villar%NULL%1,                 Laurent%Brochard%NULL%1,                 Carlos%Ferrando%NULL%2,                 Ricard%Mellado-Artigas%NULL%1,                 María%Hernández-Sanz%NULL%0,                 Carlos%Ferrando%NULL%0,                 Marina%Vendrell%NULL%1,                 Gerard%Sánchez-Etayo%NULL%1,                 Amalia%Alcón%NULL%1,                 Isabel%Belda%NULL%1,                 Mercé%Agustí%NULL%1,                 Albert%Carramiñana%NULL%1,                 Isabel%Gracia%NULL%1,                 Miriam%Panzeri%NULL%1,                 Irene%León%NULL%1,                 Jaume%Balust%NULL%1,                 Ricard%Navarro%NULL%2,                 María José%Arguís%NULL%1,                 María José%Carretero%NULL%1,                 Cristina%Ibáñez%NULL%1,                 Juan%Perdomo%NULL%1,                 Antonio%López%NULL%1,                 Manuel%López-Baamonde%NULL%1,                 Tomás%Cuñat%NULL%1,                 Marta%Ubré%NULL%1,                 Antonio%Ojeda%NULL%1,                 Andrea%Calvo%NULL%1,                 Eva%Rivas%NULL%1,                 Paola%Hurtado%NULL%1,                 Roger%Pujol%NULL%1,                 Nuria%Martín%NULL%1,                 Javier%Tercero%NULL%1,                 Pepe%Sanahuja%NULL%1,                 Marta%Magaldi%NULL%1,                 Miquel%Coca%NULL%1,                 Elena%del Rio%NULL%1,                 Julia%Martínez-Ocon%NULL%1,                 Paula%Masgoret%NULL%1,                 Monserrat%Tio%NULL%1,                 Angel%Caballero%NULL%1,                 Raquel%Risco%NULL%1,                 Raquel%Bergé%NULL%1,                 Lidia%Gómez%NULL%1,                 Nicolás%de Riva%NULL%1,                 Ana%Ruiz%NULL%1,                 Beatriz%Tena%NULL%1,                 Sebastián%Jaramillo%NULL%1,                 José María%Balibrea%NULL%1,                 Francisco Borja de Borja%de Lacy%NULL%1,                 Ana%Otero%NULL%1,                 Ainitze%Ibarzabal%NULL%1,                 Raquel%Bravo%NULL%1,                 Anna%Carreras%NULL%1,                 Daniel%Martín-Barreda%NULL%1,                 Alfonso Jesús%Alias%NULL%1,                 Mariano%Balaguer%NULL%1,                 Jorge%Aliaga%NULL%1,                 Alex%Almuedo%NULL%1,                 Joan Ramón%Alonso%NULL%1,                 Rut%Andrea%NULL%1,                 Gerard Sergi%Angelès%NULL%1,                  Marilyn%Arias%NULL%1,                 Fátima%Aziz%NULL%1,                 Joan Ramon%Badía%NULL%1,                 Enric%Barbeta%NULL%1,                 Toni%Torres%NULL%1,                 Guillem%Batiste%NULL%1,                 Pau%Benet%NULL%1,                 Xavi%Borrat%NULL%1,                 María%Borrell%NULL%1,                 Ernest%Bragulat%NULL%1,                 Inmaculada%Carmona%NULL%1,                 Manuel%Castellà%NULL%1,                 Pedro%Castro%NULL%1,                 Joan%Ceravalls%NULL%1,                 Oscar%Comino%NULL%1,                 Claudia%Cucciniello%NULL%1,                 Clàudia%De Deray%NULL%1,                 Oriol%De Diego%NULL%1,                 Paula%De la Matta%NULL%1,                 Marta%Farrero%NULL%1,                 Javier%Fernández%NULL%1,                 Sara%Fernández%NULL%1,                 Anna%Fernández%NULL%1,                 Miquel%Ferrer%NULL%1,                 Ana%Fervienza%NULL%1,                 María%Tallo Forga%NULL%1,                 Daniel%Forné%NULL%1,                 Clàudia%Galán%NULL%1,                 Andrea%Gómez%NULL%1,                 Eduard%Guasch%NULL%1,                 María%Hernández-Tejero%NULL%1,                 Adriana%Jacas%NULL%1,                 Beltrán%Jiménez%NULL%1,                 Pere%Leyes%NULL%1,                 Teresa%López%NULL%1,                 José Antonio%Martínez%NULL%1,                 Graciela%Martínez-Pallí%NULL%1,                 Jordi%Mercadal%NULL%1,                 Guido%Muñoz%NULL%1,                 José%Muñoz%NULL%1,                 Ricard%Navarro%NULL%0,                 Josep María%Nicolás%NULL%1,                 José Tomás%Ortiz%NULL%1,                 Anna%Peiró%NULL%1,                 Manuel%Pérez%NULL%1,                 Esteban%Poch%NULL%1,                 Margarida%Pujol%NULL%1,                 Eduard%Quintana%NULL%1,                 Bartomeu%Ramis%NULL%1,                 Enric%Reverter%NULL%1,                 Irene%Rovira%NULL%1,                 Pablo%Ruiz%NULL%1,                 Elena%Sandoval%NULL%1,                 Stefan%Schneider%NULL%1,                 Oriol%Sibila%NULL%1,                 Carla%Solé%NULL%1,                 Alex%Soriano%NULL%1,                 Dolors%Soy%NULL%1,                 M.%Suárez%NULL%1,                 Adrián%Téllez%NULL%1,                 Néstor David%Toapanta%NULL%1,                 Antoni%Torres%NULL%0,                 Xavier%Urra%NULL%1,                 César%Aldecoa%NULL%1,                 Alicia%Bordell%NULL%1,                 Silvia%Martín%NULL%1,                 Judith%Andrés%NULL%1,                 Alberto Martínez%Ruiz%NULL%1,                 Gonzalo Tamayo%Medel%NULL%1,                 Iñaki Bilbao Bilbao%Villasante%NULL%1,                 Fernando Iturri%Clavero%NULL%1,                 Covadonga Peralta%Álvarez%NULL%1,                 Julia T.%Herrera Díez%NULL%1,                 Andrea García%Trancho%NULL%1,                 Iñaki Sainz %Mandiola%NULL%1,                 Carmen Ruano%Suarez%NULL%1,                 Angela Ruiz%Bocos%NULL%1,                 Eneritz Urrutia%Izagirre%NULL%1,                 Pablo Ortiz%de Urbina Fernández%NULL%1,                 Naiara Apodaka%López%NULL%1,                 Leire Prieto%Molano%NULL%1,                 Eunate Ganuza%Martínez%NULL%1,                 Iratxe Vallinas%Hidalgo%NULL%1,                 Karmele%de Orte Sancho%NULL%1,                 Celia González%Paniagua%NULL%1,                 Gemma Ortiz%Labrador%NULL%1,                 Mireia Pérez%Larrañaga%NULL%1,                 Marta López%Miguelez%NULL%1,                 Estíbaliz Bárcena%Andrés%NULL%1,                 Erik Urutxurtu%Laureano%NULL%1,                 Maria Jesús Maroño%Boedo%NULL%1,                 Blanca Escontrela%Rodríguez%NULL%1,                 Aitziber Ereñozaga%Camiruaga%NULL%1,                 Deiene Lasuen%Aguirre%NULL%1,                 Ainhoa Zabal%Maeztu%NULL%1,                 Ane Guereca%Gala%NULL%1,                 Iker Castelo%Korro%NULL%1,                 Andrés Álvarez%Campo%NULL%1,                 Alejandro Carcelen%Viana%NULL%1,                 Alejandro Alberdi%Enríquez%NULL%1,                 Xabier Ormazábal%Rementeria%NULL%1,                 Alberto Sánchez%Campos%NULL%1,                 Rosa Gutiérrez%Rico%NULL%1,                 Pablo Barbier%Damborenea%NULL%1,                 Marta Guerenabarrena%Momeñe%NULL%1,                 Borja Cuesta%Ruiz%NULL%1,                 Alejandro López%Rico%NULL%1,                 Ana Rojo%Polo%NULL%1,                 Covadonga García%Grijelmo%NULL%1,                 Mikel Celorrio%Reta%NULL%1,                 Eneko Martín%Arroyo%NULL%1,                 Leire Artaza%Aparicio%NULL%1,                 Iñaki Ituarte%Aspiazu%NULL%1,                 Ane Igeregi%Basabe%NULL%1,                 Itxaso Merino%Julian%NULL%1,                 Isabel Diaz%Rico%NULL%1,                 Maria Paz%Martínez%NULL%1,                 Ramón%Adalia Bartolomé%NULL%1,                 Luigi%Zattera%NULL%1,                 Irina Adalid%Hernandez%NULL%1,                 Leire Larrañaga%Altuna%NULL%1,                 Aina Serrallonga%Castells%NULL%1,                 Adriana Vílchez%Garcia%NULL%1,                 María%Núñez%NULL%1,                 Lorena%Román%NULL%1,                 Isabel Ramos%Delgado%NULL%1,                 Adela Benítez-Cano%Martínez%NULL%1,                 Mireia Chanzá%Albert%NULL%1,                 Juan Carlos Álvarez%García%NULL%1,                 Luis Aguilera%Cuchillo%NULL%1,                 Sandra Beltrán%de Heredia%NULL%1,                 Jesús Carazo%Cordobés%NULL%1,                 Carlos Alberto García%Bernedo%NULL%1,                 Fernando Escolano%Villén%NULL%1,                 Francisco Javier Redondo%Calvo%NULL%1,                 Rubén Villazala%González%NULL%1,                 Victor Baladron%González%NULL%1,                 Patricia%Faba%NULL%1,                 Omar%Montenegro%NULL%1,                 Natalia Bejarano%Ramírez%NULL%1,                 Sergio Marcos%Contreras%NULL%1,                 Alejandro Garcia%Rodríguez%NULL%1,                 Saleta Rey%Vázquez%NULL%1,                 Cristina Garcia%Pérez%NULL%1,                 Eva Higuera%Miguelez%NULL%1,                 Irene Pérez%Blanco%NULL%1,                 David García%Rivera%NULL%1,                 Ane Martín%de la Fuente%NULL%1,                 Marta%Pardo%NULL%1,                 Vanessa%Rodriguez%NULL%1,                 Unai%Bengoetxea%NULL%1,                 Fernando%Ramasco%NULL%1,                 Sheila Olga Santidrián%Bernal%NULL%1,                 Alvar Santa Cruz%Hernando%NULL%1,                 Antonio Planas%Roca%NULL%1,                 Carlos Figueroa%Yusta%NULL%1,                 Esther García%Villabona%NULL%1,                 Carmen Vallejo%Lantero%NULL%1,                 Eva Patiño%Rodriguez%NULL%1,                 Alvaro Esquivel%Toledo%NULL%1,                 David Arribas%Méndez%NULL%1,                 Mar Orts%Rodriguez%NULL%1,                 Rosa Méndez%Hernández%NULL%1,                 Jesús Nieves%Alonso%NULL%1,                 Inés Imaz%Artazcoz%NULL%1,                 Sonia Expósito%Carazo%NULL%1,                 Carlos Román%Guerrero%NULL%1,                 Elena Rojo%Rodríguez%NULL%1,                 Ricardo Moreno%González%NULL%1,                 Julia Hernando%Santos%NULL%1,                 Jara Torrente%Pérez%NULL%1,                 Esperanza Mata%Mena%NULL%1,                 Manuel José Muñoz%Martínez%NULL%1,                 Enrique Alday%Muñoz%NULL%1,                 Patricia Martin%Serrano%NULL%1,                 Laura Cotter%Muñoz%NULL%1,                 Amadea%Mjertan%NULL%1,                 Diego Gutierrez%Martínez%NULL%1,                 Carmen Rodríguez%García%NULL%1,                 Olaya Alonso%Viejo%NULL%1,                 Juan Alvarez%Pereira%NULL%1,                 Ana Carmona%Bonet%NULL%1,                 Diana Parrado%López%NULL%1,                 Eva%de Dios Tomas%NULL%1,                 Rafael Martín%Celemin%NULL%1,                 María Luisa Meilan%Paz%NULL%1,                 Luis Quecedo%Gutiérrez%NULL%1,                 Noemí Diaz%Velasco%NULL%1,                 Gabriel Martin%Hernández%NULL%1,                 Francisco Garcia%del Corral%NULL%1,                 Gloria Hernandez%Arias%NULL%1,                 David Rodriguez%Cuesta%NULL%1,                 Ana Gómez%Rice%NULL%1,                 Encarna Mateos%Sevillano%NULL%1,                 Natalia Olmos%Molpeceres%NULL%1,                 Beatriz%Domínguez%NULL%1,                 Ana Vázquez%Lima%NULL%1,                 Ángel%Candela%NULL%1,                 Ismael A. Acevedo%Bambaren%NULL%1,                 Maria Isabel Albala%Blanco%NULL%1,                 Paloma Alonso%Montoiro%NULL%1,                 Fernando Álvarez%Utrera%NULL%1,                 Juan Avellanosa%Esteruelas%NULL%1,                 Amal Azzam%López%NULL%1,                 Alberto José%Balvis%NULL%1,                 Balvis Tommaso%Bardi%NULL%1,                 María Beltrán%Martín%NULL%1,                 Jacobo Benatar%Haserfaty%NULL%1,                 Alberto Berruezo%Camacho%NULL%1,                 Laura Betolaza%Weimer%NULL%1,                 María%del Mar Carbonell Soto%NULL%1,                 Cristina Carrasco%Seral%NULL%1,                 Cristina Cerro %Zaballos%NULL%1,                 Elizabeth Claros%Llamas%NULL%1,                 Pilar Coleta%Orduna%NULL%1,                 Ingrid P. Cortes%Forero%NULL%1,                 Pascual Agustín Crespo%Aliseda%NULL%1,                 María Angélica%de Pablo Pajares%NULL%1,                 Yolanda Díez%Remesal%NULL%1,                 Trinidad Dorado%Díaz%NULL%1,                 Noemí Echevarría%Blasco%NULL%1,                 María Elena Elías%Martín%NULL%1,                 Javier Felices%Triviño%NULL%1,                 Natalia Fernández%López%NULL%1,                 Cristina Fernández%Martín%NULL%1,                 Natalia Ferreiro%Pozuelo%NULL%1,                 Luis Gajate%Martín%NULL%1,                 Clara Gallego%Santos%NULL%1,                 Diego Gil%Mayo%NULL%1,                 María Gómez%Rojo%NULL%1,                 Claudia González%Cibrián%NULL%1,                 Elena Herrera%López%NULL%1,                 Borja Hinojal%Olmedillo%NULL%1,                 Berta Iglesias%Gallego%NULL%1,                 Sassan%Khonsari%NULL%1,                 María Nuria Mane%Ruiz%NULL%1,                 María Manzanero%Arroyo%NULL%1,                 Ana María Mariscal%Ortega%NULL%1,                 Sara Martín%Burcio%NULL%1,                 María%del Carmen Martín González%NULL%1,                 Ascensión Martín%Grande%NULL%1,                 Jose Juan Martín%López%NULL%1,                 Cecilia Martín%Rabes%NULL%1,                 Marcos Martínez%Borja%NULL%1,                 Nilda Martínez%Castro%NULL%1,                 Adolfo Martínez%Pérez%NULL%1,                 Snejana%Matcan%NULL%1,                 Cristina Medrano%Viñas%NULL%1,                 Lisset Miguel%Herrera%NULL%1,                 Adrián Mira%Betancur%NULL%1,                 María Montiel%Carbajo%NULL%1,                 Javier Moya%Moradas%NULL%1,                 Lorena Muñoz%Pérez%NULL%1,                 Mónica Nuñez%Murias%NULL%1,                 Eva Ordiales%González%NULL%1,                 Óscar Ordoñez%Recio%NULL%1,                 Miguel Ángel Palomero%Rodriguez%NULL%1,                 Diego Parise%Roux%NULL%1,                 Lucia Pereira%Torres%NULL%1,                 David Pestaña%Lagunas%NULL%1,                 Juana María Pinto%Corraliza%NULL%1,                 Marian Prieto%Rodrigo%NULL%1,                 Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                 David Rodriguez%Esteban%NULL%1,                 Víctor Rojas%Pernia%NULL%1,                 Álvaro Ruigómez%Saiz%NULL%1,                 Bárbara Saavedra%Villarino%NULL%1,                 Noemí Samaranch%Palero%NULL%1,                 Gloria Santos%Pérez%NULL%1,                 Jaume Serna%Pérez%NULL%1,                 Ana Belén Serrano%Romero%NULL%1,                 Jesús Tercero%López%NULL%1,                 Carlos Tiscar%García%NULL%1,                 Marta%de la Torre Concostrina%NULL%1,                 Eva María Ureta%Mesa%NULL%1,                 Eva Velasco%Olarte%NULL%1,                 Judith Villahoz%Martínez%NULL%1,                 Raúl Villalaba%Palacios%NULL%1,                 Gema Villanueva%García%NULL%1,                 Cristina Vogel%de Medeiros%NULL%1,                 Soraya Gholamian%Ovejero%NULL%1,                 Marta Vicente%Orgaz%NULL%1,                 Patricia Lloreda%Herradon%NULL%1,                 Cristina Crespo%Gómez%NULL%1,                 Tatiana%Sarmiento-Trujillo%NULL%1,                 Noemí García%Medina%NULL%1,                 María Martínez%García%NULL%1,                 Carles Espinós%Ramírez%NULL%1,                 Nabil Mouhaffel%Rivero%NULL%1,                 Jose Antonio Bernia%Gil%NULL%1,                 Sonsoles%Martín%NULL%1,                 María Victoria%Moral%NULL%1,                 Josefina%Galán%NULL%1,                 Pilar%Paniagua%NULL%1,                 Sergio%Pérez%NULL%1,                 Albert%Bainac%NULL%1,                 Ana%Arias%NULL%1,                 Elsa%Ramil%NULL%1,                 Jorge%Escudero%NULL%1,                 Pablo%Monedero%NULL%1,                 Carmen%Cara%NULL%1,                 Andrea%Lara%NULL%1,                 Elena Mendez%Martínez%NULL%1,                 Jorge%Mendoza%NULL%1,                 Íñigo Rubio%Baines%NULL%1,                 Carmen Sala%Trull%NULL%1,                 Pablo Montero%López%NULL%1,                 Alfredo%Gea%NULL%1,                 Alejandro%Montero%NULL%1,                 Rocío Armero%Ibañez%NULL%1,                 Juan Vicente Llau%Pitarch%NULL%1,                 Fernando Rauer%Alcóver%NULL%1,                 Cristina Álvarez%Herreros%NULL%1,                 Cyntia Sánchez%Martín%NULL%1,                 Lucía López Ocáriz%Olmos%NULL%1,                 Marta Navas%Moruno%NULL%1,                 Fernando García%Montoto%NULL%1,                 M. F. Mirón%Rodriguez%NULL%1,                 Laura Fuentes%Coco%NULL%1,                 Cristina Hernández%Gamito%NULL%1,                 Antonio Barba%Orejudo%NULL%1,                 Luis Gerardo Smith%Vielma%NULL%1,                 Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                 Marta Donoso%Domínguez%NULL%1,                 Silvia Esquivel%Ramírez%NULL%1,                 José Antonio%Carbonell%NULL%1,                 Berta Monleón%López%NULL%1,                 Sara%Martínez-Castro%NULL%1,                 Gerardo%Aguilar%NULL%1,                 María Gestal Pablo%Casas%NULL%1,                 Angel Outeiro%Rosato%NULL%1,                 Andrea Naveiro%Pan%NULL%1,                 María Alonso%Portela%NULL%1,                 Adrián García%Romar%NULL%1,                 Eva Mosquera%Rodríguez%NULL%1,                 Diego Ruanova%Seijo%NULL%1,                 Pablo Rama%Maceiras%NULL%1,                 Francisco%Castro-Ceoane%NULL%1,                 Esther Moreno%López%NULL%1,                 Sergio%Gil%NULL%1,                 Julia Guillén%Antón%NULL%1,                 Patricia García-Consuegra%Tirado%NULL%1,                 Aurora Callau%Calvo%NULL%1,                 Laura Forés%Lisbona%NULL%1,                 María Carbonell%Romero%NULL%1,                 Belén Albericio%Gil%NULL%1,                 Laura Pradal%Jarne%NULL%1,                 María Soria%Lozano%NULL%1,                 Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                 Navjot Ariyana%Kaur%NULL%1,                 Daniel%Sacher%NULL%1,                 Oisin%O’Corragain%NULL%1,                 Daniel%Salerno%NULL%1,                 Parag%Desai%NULL%1,                 Sameep%Sehgal%NULL%1,                 Matthew%Gordon%NULL%2,                 Rohit%Gupta%NULL%2,                 Nathaniel%Marchetti%NULL%1,                 Huaqing%Zhao%NULL%2,                 Nicole%Patlakh%NULL%2,                 Gerard J.%Criner%NULL%1,                 Temple%University%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                 Dominik%Jarczak%NULL%1,                 Liina%Thasler%NULL%1,                 Martin%Bachmann%NULL%1,                 Frank%Schulte%NULL%1,                 Berthold%Bein%NULL%1,                 Christian Friedrich%Weber%NULL%1,                 Ulrich%Schäfer%NULL%1,                 Carsten%Veit%NULL%1,                 Hans-Peter%Hauber%NULL%1,                 Sebastian%Kopp%NULL%1,                 Karsten%Sydow%NULL%1,                 Andreas%de Weerth%NULL%0,                 Marc%Bota%NULL%1,                 Rüdiger%Schreiber%NULL%1,                 Oliver%Detsch%NULL%1,                 Jan-Peer%Rogmann%NULL%1,                 Daniel%Frings%NULL%0,                 Barbara%Sensen%NULL%1,                 Christoph%Burdelski%NULL%0,                 Olaf%Boenisch%NULL%1,                 Axel%Nierhaus%NULL%0,                 Geraldine%de Heer%NULL%0,                 Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1447,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1440,7 +1476,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1469,7 +1505,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1498,7 +1534,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1527,7 +1563,7 @@
         <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1556,7 +1592,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1585,7 +1621,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1614,7 +1650,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1643,7 +1679,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1672,7 +1708,7 @@
         <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1701,7 +1737,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1730,7 +1766,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="293">
   <si>
     <t>Doi</t>
   </si>
@@ -1051,6 +1051,54 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,                 Dominik%Jarczak%NULL%1,                 Liina%Thasler%NULL%1,                 Martin%Bachmann%NULL%1,                 Frank%Schulte%NULL%1,                 Berthold%Bein%NULL%1,                 Christian Friedrich%Weber%NULL%1,                 Ulrich%Schäfer%NULL%1,                 Carsten%Veit%NULL%1,                 Hans-Peter%Hauber%NULL%1,                 Sebastian%Kopp%NULL%1,                 Karsten%Sydow%NULL%1,                 Andreas%de Weerth%NULL%0,                 Marc%Bota%NULL%1,                 Rüdiger%Schreiber%NULL%1,                 Oliver%Detsch%NULL%1,                 Jan-Peer%Rogmann%NULL%1,                 Daniel%Frings%NULL%0,                 Barbara%Sensen%NULL%1,                 Christoph%Burdelski%NULL%0,                 Olaf%Boenisch%NULL%1,                 Axel%Nierhaus%NULL%0,                 Geraldine%de Heer%NULL%0,                 Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                  Paolo%Comassi%NULL%1,                  Luca%Adriani%NULL%1,                  Giulio%Bergamaschini%NULL%1,                  Elena%Bertin%NULL%1,                  Raffaella%Borromeo%NULL%1,                  Serena%Corti%NULL%1,                  Federica%De Petri%NULL%1,                  Francesco%Dolci%NULL%1,                  Attilio%Galmozzi%NULL%1,                  Alberto%Gigliotti%NULL%1,                  Livio%Gualdoni%NULL%1,                  Claudia%Guerra%NULL%1,                  Anna%Khosthiova%NULL%1,                  Giovanni%Leati%NULL%1,                  Giuseppe%Lupi%NULL%1,                  Paolo%Moscato%NULL%1,                  Vittorio%Perotti%NULL%1,                  Miriam%Piantelli%NULL%1,                  Alain%Ruini%NULL%1,                  Silvia%Sportelli%NULL%1,                  Micaela%Susca%NULL%1,                  Carmine%Troiano%NULL%1,                  Giampaolo%Benelli%NULL%1,                  Elisabetta%Buscarini%NULL%1,                  Ciro%Canetta%NULL%1,                  Guido%Merli%NULL%1,                  Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                  Emna%Ennouri%NULL%1,                  Rayane%Nachi%NULL%1,                  Khaoula%Meddeb%NULL%1,                  Jihene%Mahmoud%NULL%1,                  Nesrine%Thabet%NULL%1,                  Salma%Jerbi%NULL%1,                  Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                  Eleni%Xourgia%NULL%1,                  Theodora K.%Ntaidou%NULL%1,                  Dimitris%Zervakis%NULL%1,                  Eleni E.%Magira%NULL%1,                  Anastasia%Kotanidou%NULL%1,                  Christina%Routsi%NULL%1,                  Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                  Carina%Mostert%NULL%1,                  Corinna%Hentschker%NULL%1,                  Thomas%Voshaar%NULL%1,                  Jürgen%Malzahn%NULL%1,                  Gerhard%Schillinger%NULL%1,                  Jürgen%Klauber%NULL%1,                  Uwe%Janssens%NULL%1,                  Gernot%Marx%NULL%1,                  Steffen%Weber-Carstens%NULL%1,                  Stefan%Kluge%NULL%0,                  Michael%Pfeifer%NULL%1,                  Linus%Grabenhenrich%NULL%1,                  Tobias%Welte%NULL%1,                  Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                  David%Hajage%NULL%2,                  David%Hajage%NULL%0,                  Alexandre%Demoule%NULL%1,                  Tài%Pham%NULL%1,                  Alain%Combes%NULL%1,                  Martin%Dres%NULL%1,                  Said%Lebbah%NULL%1,                  Antoine%Kimmoun%NULL%1,                  Alain%Mercat%NULL%1,                  Gaëtan%Beduneau%NULL%1,                  Jessica%Palmyre%NULL%1,                  Margot%Prevost%NULL%1,                  Pierre%Asfar%NULL%1,                  François%Beloncle%NULL%1,                  Julien%Demiselle%NULL%1,                  Arthur%Pavot%NULL%1,                  Xavier%Monnet%NULL%1,                  Christian%Richard%NULL%1,                  Julien%Mayaux%NULL%1,                  Alexandra%Beurton%NULL%1,                  Richard%Descamps%NULL%1,                  Aurélie%Joret%NULL%1,                  Damien%Du Cheyron%NULL%1,                  Frédéric%Pene%NULL%1,                  Jean-Daniel%Chiche%NULL%1,                  Mathieu%Jozwiak%NULL%1,                  Paul%Jaubert%NULL%1,                  Guillaume%Voiriot%NULL%1,                  Muriel%Fartoukh%NULL%1,                  Marion%Teulier%NULL%1,                  Clarisse%Blayau%NULL%1,                  Erwen%L’Her%NULL%1,                  Cécile%Aubron%NULL%1,                  Laetitia%Bodenes%NULL%1,                  Nicolas%Ferriere%NULL%1,                  Johann%Auchabie%NULL%1,                  Anthony%Le Meur%NULL%1,                  Sylvain%Pignal%NULL%1,                  Thierry%Mazzoni%NULL%1,                  Jean-Pierre%Quenot%NULL%1,                  Pascal%Andreu%NULL%1,                  Jean-Baptiste%Roudau%NULL%1,                  Marie%Labruyère%NULL%1,                  Saad%Nseir%NULL%0,                  Sébastien%Preau%NULL%1,                  Julien%Poissy%NULL%0,                  Daniel%Mathieu%NULL%0,                  Sarah%Benhamida%NULL%1,                  Rémi%Paulet%NULL%1,                  Nicolas%Roucaud%NULL%1,                  Martial%Thyrault%NULL%1,                  Florence%Daviet%NULL%1,                  Sami%Hraiech%NULL%1,                  Gabriel%Parzy%NULL%1,                  Aude%Sylvestre%NULL%1,                  Sébastien%Jochmans%NULL%1,                  Anne-Laure%Bouilland%NULL%1,                  Mehran%Monchi%NULL%1,                  Marc%Danguy des Déserts%NULL%1,                  Quentin%Mathais%NULL%1,                  Gwendoline%Rager%NULL%1,                  Pierre%Pasquier%NULL%1,                  Reignier%Jean%NULL%1,                  Seguin%Amélie%NULL%1,                  Garret%Charlotte%NULL%1,                  Canet%Emmanuel%NULL%1,                  Jean%Dellamonica%NULL%1,                  Clément%Saccheri%NULL%1,                  Romain%Lombardi%NULL%1,                  Yanis%Kouchit%NULL%1,                  Sophie%Jacquier%NULL%1,                  Armelle%Mathonnet%NULL%1,                  Mai-Ahn%Nay%NULL%1,                  Isabelle%Runge%NULL%1,                  Frédéric%Martino%NULL%1,                  Laure%Flurin%NULL%1,                  Amélie%Rolle%NULL%1,                  Michel%Carles%NULL%1,                  Rémi%Coudroy%NULL%1,                  Arnaud W.%Thille%NULL%1,                  Jean-Pierre%Frat%NULL%1,                  Maeva%Rodriguez%NULL%1,                  Pascal%Beuret%NULL%1,                  Audrey%Tientcheu%NULL%1,                  Arthur%Vincent%NULL%1,                  Florian%Michelin%NULL%1,                  Marie Anne%Melone%NULL%1,                  Maxime%Gauzi%NULL%1,                  Arnaud%Guilbert%NULL%1,                  Geoffrey%Kouadri%NULL%1,                  Valérie%Gissot%NULL%1,                  Stéphan%Ehrmann%NULL%1,                  Charlotte%Salmon-Gandonnière%NULL%1,                  Djlali%Elaroussi%NULL%1,                  Agathe%Delbove%NULL%1,                  Yannick%Fedun%NULL%1,                  Julien%Huntzinger%NULL%1,                  Eddy%Lebas%NULL%1,                  Grâce%Kisoka%NULL%1,                  Céline%Grégoire%NULL%1,                  Stella%Marchetta%NULL%1,                  Bernard%Lambermont%NULL%1,                  Laurent%Argaud%NULL%1,                  Thomas%Baudry%NULL%1,                  Pierre-Jean%Bertrand%NULL%1,                  Auguste%Dargent%NULL%1,                  Christophe%Guitton%NULL%1,                  Nicolas%Chudeau%NULL%1,                  Mickaël%Landais%NULL%1,                  Cédric%Darreau%NULL%1,                  Alexis%Ferre%NULL%1,                  Antoine%Gros%NULL%1,                  Guillaume%Lacave%NULL%1,                  Fabrice%Bruneel%NULL%1,                  Mathilde%Neuville%NULL%1,                  Jérôme%Devaquet%NULL%1,                  Guillaume%Tachon%NULL%1,                  Richard%Gallot%NULL%1,                  Riad%Chelha%NULL%1,                  Arnaud%Galbois%NULL%1,                  Anne%Jallot%NULL%1,                  Ludivine Chalumeau%Lemoine%NULL%1,                  Khaldoun%Kuteifan%NULL%1,                  Valentin%Pointurier%NULL%1,                  Louise-Marie%Jandeaux%NULL%1,                  Joy%Mootien%NULL%1,                  Charles%Damoisel%NULL%1,                  Benjamin%Sztrymf%NULL%1,                  Juliette%Chommeloux%NULL%1,                  Charles Edouard%Luyt%NULL%1,                  Frédérique%Schortgen%NULL%1,                  Leon%Rusel%NULL%1,                  Camille%Jung%NULL%1,                  Florent%Gobert%NULL%1,                  Damien%Vimpere%NULL%1,                  Lionel%Lamhaut%NULL%1,                  Bertrand%Sauneuf%NULL%1,                  Liliane%Charrier%NULL%1,                  Julien%Calus%NULL%1,                  Isabelle%Desmeules%NULL%1,                  Benoît%Painvin%NULL%1,                  Jean-Marc%Tadie%NULL%1,                  Vincent%Castelain%NULL%1,                  Baptiste%Michard%NULL%1,                  Jean-Etienne%Herbrecht%NULL%1,                  Mathieu%Baldacini%NULL%1,                  Nicolas%Weiss%NULL%1,                  Sophie%Demeret%NULL%1,                  Clémence%Marois%NULL%1,                  Benjamin%Rohaut%NULL%1,                  Pierre-Henri%Moury%NULL%1,                  Anne-Charlotte%Savida%NULL%1,                  Emmanuel%Couadau%NULL%1,                  Mathieu%Série%NULL%1,                  Nica%Alexandru%NULL%1,                  Cédric%Bruel%NULL%1,                  Candice%Fontaine%NULL%1,                  Sonia%Garrigou%NULL%1,                  Juliette Courtiade%Mahler%NULL%1,                  Maxime%Leclerc%NULL%1,                  Michel%Ramakers%NULL%1,                  Pierre%Garçon%NULL%1,                  Nicole%Massou%NULL%1,                  Ly Phacs%Van Vong%NULL%1,                  Juliane%Sen%NULL%1,                  Nolwenn%Lucas%NULL%1,                  Franck%Chemouni%NULL%1,                  Annabelle%Stoclin%NULL%1,                  Alexandre%Avenel%NULL%1,                  Henri%Faure%NULL%1,                  Angélie%Gentilhomme%NULL%1,                  Sylvie%Ricome%NULL%1,                  Paul%Abraham%NULL%1,                  Céline%Monard%NULL%1,                  Julien%Textoris%NULL%1,                  Thomas%Rimmele%NULL%1,                  Florent%Montini%NULL%1,                  Gabriel%Lejour%NULL%1,                  Thierry%Lazard%NULL%1,                  Isabelle%Etienney%NULL%1,                  Younes%Kerroumi%NULL%1,                  Dupuis%Claire%NULL%1,                  Bereiziat Marine%Coupez%NULL%1,                  Thouy%François%NULL%1,                  Clémet%Hoffmann%NULL%1,                  Nicolas%Donat%NULL%1,                  Violaine%Muller%NULL%1,                  Thibault%Martinez%NULL%1,                  Audrey%Jacquot%NULL%1,                  Matthieu%Mattei%NULL%1,                  Bruno%Levy%NULL%1,                  Ramin%Ravan%NULL%1,                  Loïc%Dopeux%NULL%1,                  Jean-Mathias%Liteaudon%NULL%1,                  Delphine%Roux%NULL%1,                  Brice%Rey%NULL%1,                  Radu%Anghel%NULL%1,                  Deborah%Schenesse%NULL%1,                  Vincent%Gevrey%NULL%1,                  Jermy%Castanera%NULL%1,                  Philippe%Petua%NULL%1,                  Benjamin%Madeux%NULL%1,                  Otto%Hartman%NULL%1,                  Michael%Piagnerelli%NULL%1,                  Anne%Joosten%NULL%1,                  Cinderella%Noel%NULL%1,                  Patrick%Biston%NULL%1,                  Thibaut%Noel%NULL%1,                  Gurvan L. E.%Bouar%NULL%1,                  Messabi%Boukhanza%NULL%1,                  Elsa%Demarest%NULL%1,                  Marie-France%Bajolet%NULL%1,                  Nathanaël%Charrier%NULL%1,                  Audrey%Quenet%NULL%1,                  Cécile%Zylberfajn%NULL%1,                  Nicolas%Dufour%NULL%1,                  Buno%Mégarbane%NULL%1,                  Sqébastian%Voicu%NULL%1,                  Nicolas%Deye%NULL%1,                  Isabelle%Malissin%NULL%1,                  François%Legay%NULL%1,                  Matthieu%Debarre%NULL%1,                  Nicolas%Barbarot%NULL%1,                  Pierre%Fillatre%NULL%1,                  Bertrand%Delord%NULL%1,                  Thomas%Laterrade%NULL%1,                  Tahar%Saghi%NULL%1,                  Wilfried%Pujol%NULL%1,                  Pierre Julien%Cungi%NULL%1,                  Pierre%Esnault%NULL%1,                  Mickael%Cardinale%NULL%1,                  Vivien%Hong Tuan Ha%NULL%1,                  Grégory%Fleury%NULL%1,                  Marie-Ange%Brou%NULL%1,                  Daniel%Zafimahazo%NULL%1,                  David%Tran-Van%NULL%1,                  Patrick%Avargues%NULL%1,                  Lisa%Carenco%NULL%1,                  Nicolas%Robin%NULL%1,                  Alexandre%Ouali%NULL%1,                  Lucie%Houdou%NULL%1,                  Christophe%Le Terrier%NULL%1,                  Noémie%Suh%NULL%1,                  Steve%Primmaz%NULL%1,                  Jérome%Pugin%NULL%1,                  Emmanuel%Weiss%NULL%1,                  Tobias%Gauss%NULL%1,                  Jean-Denis%Moyer%NULL%1,                  Catherine%Paugam-Burtz%NULL%1,                  Béatrice%La Combe%NULL%1,                  Rolland%Smonig%NULL%1,                  Jade%Violleau%NULL%1,                  Pauline%Cailliez%NULL%1,                  Jonathan%Chelly%NULL%1,                  Antoine%Marchalot%NULL%1,                  Cécile%Saladin%NULL%1,                  Christelle%Bigot%NULL%1,                  Pierre-Marie%Fayolle%NULL%1,                  Jules%Fatséas%NULL%1,                  Amr%Ibrahim%NULL%1,                  Dabor%Resiere%NULL%1,                  Rabih%Hage%NULL%1,                  Clémentine%Cholet%NULL%1,                  Marie%Cantier%NULL%1,                  Pierre%Trouiller%NULL%1,                  Philippe%Montravers%NULL%1,                  Brice%Lortat-Jacob%NULL%1,                  Sebastien%Tanaka%NULL%1,                  Alexy%Tran-Dinh%NULL%1,                  Jacques%Duranteau%NULL%1,                  Anatole%Harrois%NULL%1,                  Guillaume%Dubreuil%NULL%1,                  Marie%Werner%NULL%1,                  Anne%Godier%NULL%1,                  Sophie%Hamada%NULL%1,                  Diane%Zlotnik%NULL%1,                  Hélène%Nougue%NULL%1,                  Armand%Mekontso-Dessap%NULL%1,                  Guillaume%Carteaux%NULL%1,                  Keyvan%Razazi%NULL%1,                  Nicolas%De Prost%NULL%1,                  Nicolas%Mongardon%NULL%1,                  Olivier%Langeron%NULL%1,                  Eric%Levesque%NULL%1,                  Arié%Attias%NULL%1,                  Charles%de Roquetaillade%NULL%1,                  Benjamin G.%Chousterman%NULL%1,                  Alexandre%Mebazaa%NULL%1,                  Etienne%Gayat%NULL%1,                  Marc%Garnier%NULL%1,                  Emmanuel%Pardo%NULL%1,                  Lea%Satre-Buisson%NULL%1,                  Christophe%Gutton%NULL%1,                  Elise%Yvin%NULL%1,                  Clémence%Marcault%NULL%1,                  Elie%Azoulay%NULL%1,                  Michael%Darmon%NULL%1,                  Nicolas%Bonnet%NULL%1,                  Nathan%Ebstein%NULL%1,                  Stéphane%Gaudry%NULL%1,                  Yves%Cohen%NULL%1,                   Hafid%Ait-Oufella%NULL%1,                  Geoffroy%Hariri%NULL%1,                  Tomas%Urbina%NULL%1,                  Sandie%Mazerand%NULL%1,                  Nicholas%Heming%NULL%1,                  Francesca%Santi%NULL%1,                  Pierre%Moine%NULL%1,                  Djillali%Annane%NULL%1,                  Adrien%Bouglé%NULL%1,                  Edris%Omar%NULL%1,                  Aymeric%Lancelot%NULL%1,                  Emmanuelle%Begot%NULL%1,                  Gaétan%Plantefeve%NULL%1,                  Damien%Contou%NULL%1,                  Hervé%Mentec%NULL%1,                  Olivier%Pajot%NULL%1,                  Stanislas%Faguer%NULL%1,                  Olivier%Cointault%NULL%1,                  Laurence%Lavayssiere%NULL%1,                  Marie-Béatrice%Nogier%NULL%1,                  Matthieu%Jamme%NULL%1,                  Claire%Pichereau%NULL%1,                  Jan%Hayon%NULL%1,                  Hervé%Outin%NULL%1,                  François%Dépret%NULL%1,                  Maxime%Coutrot%NULL%1,                  Maité%Chaussard%NULL%1,                  Lucie%Guillemet%NULL%1,                  Pierre%Goffin%NULL%1,                  Romain%Thouny%NULL%1,                  Julien%Guntz%NULL%1,                  Laurent%Jadot%NULL%1,                  Romain%Persichini%NULL%1,                  Vanessa%Jean-Michel%NULL%1,                  Hugues%Georges%NULL%1,                  Thomas%Caulier%NULL%1,                  Gaël%Pradel%NULL%1,                  Marie-Hélène%Hausermann%NULL%1,                  ThiMy Hue%Nguyen-Valat%NULL%1,                  Michel%Boudinaud%NULL%1,                  Emmanuel%Vivier%NULL%1,                  Sylvène%Rosseli%NULL%1,                  Gaël%Bourdin%NULL%1,                  Christian%Pommier%NULL%1,                  Marc%Vinclair%NULL%1,                  Simon%Poignant%NULL%1,                  Sandrine%Mons%NULL%1,                  Wulfran%Bougouin%NULL%1,                  Franklin%Bruna%NULL%1,                  Quentin%Maestraggi%NULL%1,                  Christian%Roth%NULL%1,                  Laurent%Bitker%NULL%1,                  François%Dhelft%NULL%1,                  Justine%Bonnet-Chateau%NULL%1,                  Mathilde%Filippelli%NULL%1,                  Tristan%Morichau-Beauchant%NULL%1,                  Stéphane%Thierry%NULL%1,                  Charlotte%Le Roy%NULL%1,                  Mélanie%Saint Jouan%NULL%1,                  Bruno%Goncalves%NULL%1,                  Aurélien%Mazeraud%NULL%1,                  Matthieu%Daniel%NULL%1,                  Tarek%Sharshar%NULL%1,                  Cyril%Cadoz%NULL%1,                  Rostane%Gaci%NULL%1,                  Sébastien%Gette%NULL%1,                  Guillaune%Louis%NULL%1,                  Sophe-Caroline%Sacleux%NULL%1,                  Marie-Amélie%Ordan%NULL%1,                  Aurélie%Cravoisy%NULL%1,                  Marie%Conrad%NULL%1,                  Guilhem%Courte%NULL%1,                  Sébastien%Gibot%NULL%1,                  Younès%Benzidi%NULL%1,                  Claudia%Casella%NULL%1,                  Laurent%Serpin%NULL%1,                  Jean-Lou%Setti%NULL%1,                  Marie-Catherine%Besse%NULL%1,                  Anna%Bourreau%NULL%1,                  Jérôme%Pillot%NULL%1,                  Caroline%Rivera%NULL%1,                  Camille%Vinclair%NULL%1,                  Marie-Aline%Robaux%NULL%1,                  Chloé%Achino%NULL%1,                  Marie-Charlotte%Delignette%NULL%1,                  Tessa%Mazard%NULL%1,                  Frédéric%Aubrun%NULL%1,                  Bruno%Bouchet%NULL%1,                  Aurélien%Frérou%NULL%1,                  Laura%Muller%NULL%1,                  Charlotte%Quentin%NULL%1,                  Samuel%Degoul%NULL%1,                  Xavier%Stihle%NULL%1,                  Claude%Sumian%NULL%1,                  Nicoletta%Bergero%NULL%1,                  Bernard%Lanaspre%NULL%1,                  Hervé%Quintard%NULL%1,                  Eve Marie%Maiziere%NULL%1,                  Pierre-Yves%Egreteau%NULL%1,                  Guillaume%Leloup%NULL%1,                  Florin%Berteau%NULL%1,                  Marjolaine%Cottrel%NULL%1,                  Marie%Bouteloup%NULL%1,                  Matthieu%Jeannot%NULL%1,                  Quentin%Blanc%NULL%1,                  Julien%Saison%NULL%1,                  Isabelle%Geneau%NULL%1,                  Romaric%Grenot%NULL%1,                  Abdel%Ouchike%NULL%1,                  Pascal%Hazera%NULL%1,                  Anne-Lyse%Masse%NULL%1,                  Suela%Demiri%NULL%1,                  Corinne%Vezinet%NULL%1,                  Elodie%Baron%NULL%1,                  Déborah%Benchetrit%NULL%1,                  Antoine%Monsel%NULL%1,                  Grégoire%Trebbia%NULL%1,                  Emmanuelle%Schaack%NULL%1,                  Raphaël%Lepecq%NULL%1,                  Mathieu%Bobet%NULL%1,                  Christophe%Vinsonneau%NULL%1,                  Thibault%Dekeyser%NULL%1,                  Quentin%Delforge%NULL%1,                  Imen%Rahmani%NULL%1,                  Bérengère%Vivet%NULL%1,                  Jonathan%Paillot%NULL%1,                  Lucie%Hierle%NULL%1,                  Claire%Chaignat%NULL%1,                  Sarah%Valette%NULL%1,                  Benoït%Her%NULL%1,                  Jennifier%Brunet%NULL%1,                  Mathieu%Page%NULL%1,                  Fabienne%Boiste%NULL%1,                  Anthony%Collin%NULL%1,                  Florent%Bavozet%NULL%2,                  Aude%Garin%NULL%1,                  Mohamed%Dlala%NULL%1,                  Kais%Mhamdi%NULL%1,                  Bassem%Beilouny%NULL%1,                  Alexandra%Lavalard%NULL%1,                  Severine%Perez%NULL%1,                  Benoit%Veber%NULL%1,                  Pierre-Gildas%Guitard%NULL%1,                  Philippe%Gouin%NULL%1,                  Anna%Lamacz%NULL%1,                  Fabienne%Plouvier%NULL%1,                  Bertrand P.%Delaborde%NULL%1,                  Aïssa%Kherchache%NULL%1,                  Amina%Chaalal%NULL%1,                  Jean-Damien%Ricard%NULL%1,                  Marc%Amouretti%NULL%1,                  Santiago%Freita-Ramos%NULL%1,                  Damien%Roux%NULL%1,                  Jean-Michel%Constantin%NULL%1,                  Mona%Assefi%NULL%1,                  Marine%Lecore%NULL%1,                  Agathe%Selves%NULL%1,                  Florian%Prevost%NULL%1,                  Christian%Lamer%NULL%1,                  Ruiying%Shi%NULL%1,                  Lyes%Knani%NULL%1,                  Sébastien%Pili-Floury%NULL%1,                  Lucie%Vettoretti%NULL%1,                  Michael%Levy%NULL%1,                  Lucile%Marsac%NULL%1,                  Stéphane%Dauger%NULL%1,                  Sophie%Guilmin-Crépon%NULL%1,                  Jean-Baptiste%Putegnat%NULL%1,                  Frédérique%Bayle%NULL%1,                  Maya%Perrou%NULL%1,                  Ghyslaine%Thao%NULL%1,                  Guillaume%Géri%NULL%1,                  Cyril%Charron%NULL%1,                  Xavier%Repessé%NULL%1,                  Antoine%Vieillard-Baron%NULL%1,                  Mathieu%Guilbart%NULL%1,                  Pierre-Alexandre%Roger%NULL%1,                  Sébastien%Hinard%NULL%1,                  Pierre-Yves%Macq%NULL%1,                  Kevin%Chaulier%NULL%1,                  Sylvie%Goutte%NULL%1,                  Patrick%Chillet%NULL%1,                  Anaïs%Pitta%NULL%1,                  Barbara%Darjent%NULL%1,                  Amandine%Bruneau%NULL%1,                  Sigismond%Lasocki%NULL%1,                  Maxime%Leger%NULL%1,                  Soizic%Gergaud%NULL%1,                  Pierre%Lemarie%NULL%1,                  Nicolas%Terzi%NULL%1,                  Carole%Schwebel%NULL%1,                  Anaïs%Dartevel%NULL%1,                  Louis-Marie%Galerneau%NULL%1,                  Jean-Luc%Diehl%NULL%1,                  Caroline%Hauw-Berlemont%NULL%0,                  Nicolas%Péron%NULL%1,                  Emmanuel%Guérot%NULL%1,                  Abolfazl Mohebbi%Amoli%NULL%1,                  Michel%Benhamou%NULL%1,                  Jean-Pierre%Deyme%NULL%1,                  Olivier%Andremont%NULL%1,                  Diane%Lena%NULL%1,                  Julien%Cady%NULL%1,                  Arnaud%Causeret%NULL%1,                  Arnaud%De La Chapelle%NULL%1,                  Christophe%Cracco%NULL%1,                  Stéphane%Rouleau%NULL%1,                  David%Schnell%NULL%1,                  Cécile%Lory%NULL%1,                  Thibault%Chapelle%NULL%1,                  Vincent%Bruckert%NULL%1,                  Julie%Garcia%NULL%1,                  Abdlazize%Sahraoui%NULL%1,                  Nathalie%Abbosh%NULL%1,                  Caroline%Bornstain%NULL%1,                  Pierre%Pernet%NULL%1,                  Florent%Poirson%NULL%1,                  Ahmed%Pasem%NULL%1,                  Philippe%Karoubi%NULL%1,                  Virginie%Poupinel%NULL%1,                  Caroline%Gauthier%NULL%1,                  François%Bouniol%NULL%1,                  Philippe%Feuchere%NULL%1,                  Florent%Bavozet%NULL%0,                  Anne%Heron%NULL%1,                  Serge%Carreira%NULL%1,                  Malo%Emery%NULL%1,                  Anne%Le Floch%NULL%1,                  Luana%Giovannangeli%NULL%1,                  Nicolas%Herzog%NULL%1,                  Christophe%Giacardi%NULL%1,                  Thibaut%Baudic%NULL%1,                  Chloé%Thill%NULL%1,                  Florence%Tubach%NULL%1,                  Olivier%Lesieur%NULL%1,                  Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%2,                  Max W.%Adelman%NULL%2,                  Maxwell A.%Hockstein%NULL%1,                  Chad J.%Robichaux%NULL%1,                  Johnathan A.%Edwards%NULL%1,                  Jane C.%Fazio%NULL%1,                  James M.%Blum%NULL%3,                  Craig S.%Jabaley%NULL%2,                  Mark%Caridi-Scheible%NULL%2,                  Greg S.%Martin%NULL%2,                  David J.%Murphy%NULL%3,                  Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                Antonelli%M.%coreGivesNoEmail%0,                Bellani%G.%coreGivesNoEmail%0,                Bonanomi%E.%coreGivesNoEmail%0,                Cabrini%L.%coreGivesNoEmail%0,                Carlesso%E.%coreGivesNoEmail%0,                Castelli%G.%coreGivesNoEmail%0,                Cattaneo%S.%coreGivesNoEmail%0,                Cecconi%M.%coreGivesNoEmail%0,                Cereda%D.%coreGivesNoEmail%0,                Colombo%S.%coreGivesNoEmail%0,                Coluccello%A.%coreGivesNoEmail%0,                Crescini%G.%coreGivesNoEmail%0,                Forastieri%Molinari A.%coreGivesNoEmail%0,                Foti%G.%coreGivesNoEmail%0,                Fumagalli%R.%coreGivesNoEmail%0,                Grasselli%G.%coreGivesNoEmail%0,                Greco%M.%coreGivesNoEmail%0,                Iotti%G. A.%coreGivesNoEmail%0,                Langer%T.%coreGivesNoEmail%0,                Latronico%N.%coreGivesNoEmail%0,                Lorini%F. L.%coreGivesNoEmail%0,                Mojoli%F.%coreGivesNoEmail%0,                Natalini%G.%coreGivesNoEmail%0,                Pesenti%A.%coreGivesNoEmail%0,                Pessina%C. M.%coreGivesNoEmail%0,                Ranieri%V. M.%coreGivesNoEmail%0,                Rech%R.%coreGivesNoEmail%0,                Rosano%A.%coreGivesNoEmail%0,                Scudeller%L.%coreGivesNoEmail%0,                Storti%E.%coreGivesNoEmail%0,                Thompson%B. T.%coreGivesNoEmail%0,                Tirani%M.%coreGivesNoEmail%0,                Villani%P. G.%coreGivesNoEmail%0,                Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                  Keum-Ju%Choi%NULL%1,                  Sun Ha%Choi%NULL%1,                  Shin Yup%Lee%NULL%1,                  Kyung Chan%Kim%NULL%1,                  Eun Jin%Kim%NULL%1,                  Jaehee%Lee%NULL%2,                  Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                  Siddique%Chaudhary%NULL%1,                  Kevin%Bryan Lo%NULL%2,                  Kevin%Bryan Lo%NULL%0,                  Robert%DeJoy%NULL%1,                  Fahad%Gul%NULL%1,                  Ricardo%Torres%NULL%1,                  Neal%Chaisson%NULL%2,                  Neal%Chaisson%NULL%0,                  Gabriel%Patarroyo-Aponte%NULL%2,                  Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                  Bruno L.%Ferreyro%NULL%2,                  Bruno L.%Ferreyro%NULL%0,                  Federico%Angriman%NULL%1,                  María%Hernández-Sanz%NULL%2,                  Egoitz%Arruti%NULL%1,                  Antoni%Torres%NULL%2,                  Jesús%Villar%NULL%1,                  Laurent%Brochard%NULL%1,                  Carlos%Ferrando%NULL%2,                  Ricard%Mellado-Artigas%NULL%1,                  María%Hernández-Sanz%NULL%0,                  Carlos%Ferrando%NULL%0,                  Marina%Vendrell%NULL%1,                  Gerard%Sánchez-Etayo%NULL%1,                  Amalia%Alcón%NULL%1,                  Isabel%Belda%NULL%1,                  Mercé%Agustí%NULL%1,                  Albert%Carramiñana%NULL%1,                  Isabel%Gracia%NULL%1,                  Miriam%Panzeri%NULL%1,                  Irene%León%NULL%1,                  Jaume%Balust%NULL%1,                  Ricard%Navarro%NULL%2,                  María José%Arguís%NULL%1,                  María José%Carretero%NULL%1,                  Cristina%Ibáñez%NULL%1,                  Juan%Perdomo%NULL%1,                  Antonio%López%NULL%1,                  Manuel%López-Baamonde%NULL%1,                  Tomás%Cuñat%NULL%1,                  Marta%Ubré%NULL%1,                  Antonio%Ojeda%NULL%1,                  Andrea%Calvo%NULL%1,                  Eva%Rivas%NULL%1,                  Paola%Hurtado%NULL%1,                  Roger%Pujol%NULL%1,                  Nuria%Martín%NULL%1,                  Javier%Tercero%NULL%1,                  Pepe%Sanahuja%NULL%1,                  Marta%Magaldi%NULL%1,                  Miquel%Coca%NULL%1,                  Elena%del Rio%NULL%1,                  Julia%Martínez-Ocon%NULL%1,                  Paula%Masgoret%NULL%1,                  Monserrat%Tio%NULL%1,                  Angel%Caballero%NULL%1,                  Raquel%Risco%NULL%1,                  Raquel%Bergé%NULL%1,                  Lidia%Gómez%NULL%1,                  Nicolás%de Riva%NULL%1,                  Ana%Ruiz%NULL%1,                  Beatriz%Tena%NULL%1,                  Sebastián%Jaramillo%NULL%1,                  José María%Balibrea%NULL%1,                  Francisco Borja de Borja%de Lacy%NULL%1,                  Ana%Otero%NULL%1,                  Ainitze%Ibarzabal%NULL%1,                  Raquel%Bravo%NULL%1,                  Anna%Carreras%NULL%1,                  Daniel%Martín-Barreda%NULL%1,                  Alfonso Jesús%Alias%NULL%1,                  Mariano%Balaguer%NULL%1,                  Jorge%Aliaga%NULL%1,                  Alex%Almuedo%NULL%1,                  Joan Ramón%Alonso%NULL%1,                  Rut%Andrea%NULL%1,                  Gerard Sergi%Angelès%NULL%1,                   Marilyn%Arias%NULL%1,                  Fátima%Aziz%NULL%1,                  Joan Ramon%Badía%NULL%1,                  Enric%Barbeta%NULL%1,                  Toni%Torres%NULL%1,                  Guillem%Batiste%NULL%1,                  Pau%Benet%NULL%1,                  Xavi%Borrat%NULL%1,                  María%Borrell%NULL%1,                  Ernest%Bragulat%NULL%1,                  Inmaculada%Carmona%NULL%1,                  Manuel%Castellà%NULL%1,                  Pedro%Castro%NULL%1,                  Joan%Ceravalls%NULL%1,                  Oscar%Comino%NULL%1,                  Claudia%Cucciniello%NULL%1,                  Clàudia%De Deray%NULL%1,                  Oriol%De Diego%NULL%1,                  Paula%De la Matta%NULL%1,                  Marta%Farrero%NULL%1,                  Javier%Fernández%NULL%1,                  Sara%Fernández%NULL%1,                  Anna%Fernández%NULL%1,                  Miquel%Ferrer%NULL%1,                  Ana%Fervienza%NULL%1,                  María%Tallo Forga%NULL%1,                  Daniel%Forné%NULL%1,                  Clàudia%Galán%NULL%1,                  Andrea%Gómez%NULL%1,                  Eduard%Guasch%NULL%1,                  María%Hernández-Tejero%NULL%1,                  Adriana%Jacas%NULL%1,                  Beltrán%Jiménez%NULL%1,                  Pere%Leyes%NULL%1,                  Teresa%López%NULL%1,                  José Antonio%Martínez%NULL%1,                  Graciela%Martínez-Pallí%NULL%1,                  Jordi%Mercadal%NULL%1,                  Guido%Muñoz%NULL%1,                  José%Muñoz%NULL%1,                  Ricard%Navarro%NULL%0,                  Josep María%Nicolás%NULL%1,                  José Tomás%Ortiz%NULL%1,                  Anna%Peiró%NULL%1,                  Manuel%Pérez%NULL%1,                  Esteban%Poch%NULL%1,                  Margarida%Pujol%NULL%1,                  Eduard%Quintana%NULL%1,                  Bartomeu%Ramis%NULL%1,                  Enric%Reverter%NULL%1,                  Irene%Rovira%NULL%1,                  Pablo%Ruiz%NULL%1,                  Elena%Sandoval%NULL%1,                  Stefan%Schneider%NULL%1,                  Oriol%Sibila%NULL%1,                  Carla%Solé%NULL%1,                  Alex%Soriano%NULL%1,                  Dolors%Soy%NULL%1,                  M.%Suárez%NULL%1,                  Adrián%Téllez%NULL%1,                  Néstor David%Toapanta%NULL%1,                  Antoni%Torres%NULL%0,                  Xavier%Urra%NULL%1,                  César%Aldecoa%NULL%1,                  Alicia%Bordell%NULL%1,                  Silvia%Martín%NULL%1,                  Judith%Andrés%NULL%1,                  Alberto Martínez%Ruiz%NULL%1,                  Gonzalo Tamayo%Medel%NULL%1,                  Iñaki Bilbao Bilbao%Villasante%NULL%1,                  Fernando Iturri%Clavero%NULL%1,                  Covadonga Peralta%Álvarez%NULL%1,                  Julia T.%Herrera Díez%NULL%1,                  Andrea García%Trancho%NULL%1,                  Iñaki Sainz %Mandiola%NULL%1,                  Carmen Ruano%Suarez%NULL%1,                  Angela Ruiz%Bocos%NULL%1,                  Eneritz Urrutia%Izagirre%NULL%1,                  Pablo Ortiz%de Urbina Fernández%NULL%1,                  Naiara Apodaka%López%NULL%1,                  Leire Prieto%Molano%NULL%1,                  Eunate Ganuza%Martínez%NULL%1,                  Iratxe Vallinas%Hidalgo%NULL%1,                  Karmele%de Orte Sancho%NULL%1,                  Celia González%Paniagua%NULL%1,                  Gemma Ortiz%Labrador%NULL%1,                  Mireia Pérez%Larrañaga%NULL%1,                  Marta López%Miguelez%NULL%1,                  Estíbaliz Bárcena%Andrés%NULL%1,                  Erik Urutxurtu%Laureano%NULL%1,                  Maria Jesús Maroño%Boedo%NULL%1,                  Blanca Escontrela%Rodríguez%NULL%1,                  Aitziber Ereñozaga%Camiruaga%NULL%1,                  Deiene Lasuen%Aguirre%NULL%1,                  Ainhoa Zabal%Maeztu%NULL%1,                  Ane Guereca%Gala%NULL%1,                  Iker Castelo%Korro%NULL%1,                  Andrés Álvarez%Campo%NULL%1,                  Alejandro Carcelen%Viana%NULL%1,                  Alejandro Alberdi%Enríquez%NULL%1,                  Xabier Ormazábal%Rementeria%NULL%1,                  Alberto Sánchez%Campos%NULL%1,                  Rosa Gutiérrez%Rico%NULL%1,                  Pablo Barbier%Damborenea%NULL%1,                  Marta Guerenabarrena%Momeñe%NULL%1,                  Borja Cuesta%Ruiz%NULL%1,                  Alejandro López%Rico%NULL%1,                  Ana Rojo%Polo%NULL%1,                  Covadonga García%Grijelmo%NULL%1,                  Mikel Celorrio%Reta%NULL%1,                  Eneko Martín%Arroyo%NULL%1,                  Leire Artaza%Aparicio%NULL%1,                  Iñaki Ituarte%Aspiazu%NULL%1,                  Ane Igeregi%Basabe%NULL%1,                  Itxaso Merino%Julian%NULL%1,                  Isabel Diaz%Rico%NULL%1,                  Maria Paz%Martínez%NULL%1,                  Ramón%Adalia Bartolomé%NULL%1,                  Luigi%Zattera%NULL%1,                  Irina Adalid%Hernandez%NULL%1,                  Leire Larrañaga%Altuna%NULL%1,                  Aina Serrallonga%Castells%NULL%1,                  Adriana Vílchez%Garcia%NULL%1,                  María%Núñez%NULL%1,                  Lorena%Román%NULL%1,                  Isabel Ramos%Delgado%NULL%1,                  Adela Benítez-Cano%Martínez%NULL%1,                  Mireia Chanzá%Albert%NULL%1,                  Juan Carlos Álvarez%García%NULL%1,                  Luis Aguilera%Cuchillo%NULL%1,                  Sandra Beltrán%de Heredia%NULL%1,                  Jesús Carazo%Cordobés%NULL%1,                  Carlos Alberto García%Bernedo%NULL%1,                  Fernando Escolano%Villén%NULL%1,                  Francisco Javier Redondo%Calvo%NULL%1,                  Rubén Villazala%González%NULL%1,                  Victor Baladron%González%NULL%1,                  Patricia%Faba%NULL%1,                  Omar%Montenegro%NULL%1,                  Natalia Bejarano%Ramírez%NULL%1,                  Sergio Marcos%Contreras%NULL%1,                  Alejandro Garcia%Rodríguez%NULL%1,                  Saleta Rey%Vázquez%NULL%1,                  Cristina Garcia%Pérez%NULL%1,                  Eva Higuera%Miguelez%NULL%1,                  Irene Pérez%Blanco%NULL%1,                  David García%Rivera%NULL%1,                  Ane Martín%de la Fuente%NULL%1,                  Marta%Pardo%NULL%1,                  Vanessa%Rodriguez%NULL%1,                  Unai%Bengoetxea%NULL%1,                  Fernando%Ramasco%NULL%1,                  Sheila Olga Santidrián%Bernal%NULL%1,                  Alvar Santa Cruz%Hernando%NULL%1,                  Antonio Planas%Roca%NULL%1,                  Carlos Figueroa%Yusta%NULL%1,                  Esther García%Villabona%NULL%1,                  Carmen Vallejo%Lantero%NULL%1,                  Eva Patiño%Rodriguez%NULL%1,                  Alvaro Esquivel%Toledo%NULL%1,                  David Arribas%Méndez%NULL%1,                  Mar Orts%Rodriguez%NULL%1,                  Rosa Méndez%Hernández%NULL%1,                  Jesús Nieves%Alonso%NULL%1,                  Inés Imaz%Artazcoz%NULL%1,                  Sonia Expósito%Carazo%NULL%1,                  Carlos Román%Guerrero%NULL%1,                  Elena Rojo%Rodríguez%NULL%1,                  Ricardo Moreno%González%NULL%1,                  Julia Hernando%Santos%NULL%1,                  Jara Torrente%Pérez%NULL%1,                  Esperanza Mata%Mena%NULL%1,                  Manuel José Muñoz%Martínez%NULL%1,                  Enrique Alday%Muñoz%NULL%1,                  Patricia Martin%Serrano%NULL%1,                  Laura Cotter%Muñoz%NULL%1,                  Amadea%Mjertan%NULL%1,                  Diego Gutierrez%Martínez%NULL%1,                  Carmen Rodríguez%García%NULL%1,                  Olaya Alonso%Viejo%NULL%1,                  Juan Alvarez%Pereira%NULL%1,                  Ana Carmona%Bonet%NULL%1,                  Diana Parrado%López%NULL%1,                  Eva%de Dios Tomas%NULL%1,                  Rafael Martín%Celemin%NULL%1,                  María Luisa Meilan%Paz%NULL%1,                  Luis Quecedo%Gutiérrez%NULL%1,                  Noemí Diaz%Velasco%NULL%1,                  Gabriel Martin%Hernández%NULL%1,                  Francisco Garcia%del Corral%NULL%1,                  Gloria Hernandez%Arias%NULL%1,                  David Rodriguez%Cuesta%NULL%1,                  Ana Gómez%Rice%NULL%1,                  Encarna Mateos%Sevillano%NULL%1,                  Natalia Olmos%Molpeceres%NULL%1,                  Beatriz%Domínguez%NULL%1,                  Ana Vázquez%Lima%NULL%1,                  Ángel%Candela%NULL%1,                  Ismael A. Acevedo%Bambaren%NULL%1,                  Maria Isabel Albala%Blanco%NULL%1,                  Paloma Alonso%Montoiro%NULL%1,                  Fernando Álvarez%Utrera%NULL%1,                  Juan Avellanosa%Esteruelas%NULL%1,                  Amal Azzam%López%NULL%1,                  Alberto José%Balvis%NULL%1,                  Balvis Tommaso%Bardi%NULL%1,                  María Beltrán%Martín%NULL%1,                  Jacobo Benatar%Haserfaty%NULL%1,                  Alberto Berruezo%Camacho%NULL%1,                  Laura Betolaza%Weimer%NULL%1,                  María%del Mar Carbonell Soto%NULL%1,                  Cristina Carrasco%Seral%NULL%1,                  Cristina Cerro %Zaballos%NULL%1,                  Elizabeth Claros%Llamas%NULL%1,                  Pilar Coleta%Orduna%NULL%1,                  Ingrid P. Cortes%Forero%NULL%1,                  Pascual Agustín Crespo%Aliseda%NULL%1,                  María Angélica%de Pablo Pajares%NULL%1,                  Yolanda Díez%Remesal%NULL%1,                  Trinidad Dorado%Díaz%NULL%1,                  Noemí Echevarría%Blasco%NULL%1,                  María Elena Elías%Martín%NULL%1,                  Javier Felices%Triviño%NULL%1,                  Natalia Fernández%López%NULL%1,                  Cristina Fernández%Martín%NULL%1,                  Natalia Ferreiro%Pozuelo%NULL%1,                  Luis Gajate%Martín%NULL%1,                  Clara Gallego%Santos%NULL%1,                  Diego Gil%Mayo%NULL%1,                  María Gómez%Rojo%NULL%1,                  Claudia González%Cibrián%NULL%1,                  Elena Herrera%López%NULL%1,                  Borja Hinojal%Olmedillo%NULL%1,                  Berta Iglesias%Gallego%NULL%1,                  Sassan%Khonsari%NULL%1,                  María Nuria Mane%Ruiz%NULL%1,                  María Manzanero%Arroyo%NULL%1,                  Ana María Mariscal%Ortega%NULL%1,                  Sara Martín%Burcio%NULL%1,                  María%del Carmen Martín González%NULL%1,                  Ascensión Martín%Grande%NULL%1,                  Jose Juan Martín%López%NULL%1,                  Cecilia Martín%Rabes%NULL%1,                  Marcos Martínez%Borja%NULL%1,                  Nilda Martínez%Castro%NULL%1,                  Adolfo Martínez%Pérez%NULL%1,                  Snejana%Matcan%NULL%1,                  Cristina Medrano%Viñas%NULL%1,                  Lisset Miguel%Herrera%NULL%1,                  Adrián Mira%Betancur%NULL%1,                  María Montiel%Carbajo%NULL%1,                  Javier Moya%Moradas%NULL%1,                  Lorena Muñoz%Pérez%NULL%1,                  Mónica Nuñez%Murias%NULL%1,                  Eva Ordiales%González%NULL%1,                  Óscar Ordoñez%Recio%NULL%1,                  Miguel Ángel Palomero%Rodriguez%NULL%1,                  Diego Parise%Roux%NULL%1,                  Lucia Pereira%Torres%NULL%1,                  David Pestaña%Lagunas%NULL%1,                  Juana María Pinto%Corraliza%NULL%1,                  Marian Prieto%Rodrigo%NULL%1,                  Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                  David Rodriguez%Esteban%NULL%1,                  Víctor Rojas%Pernia%NULL%1,                  Álvaro Ruigómez%Saiz%NULL%1,                  Bárbara Saavedra%Villarino%NULL%1,                  Noemí Samaranch%Palero%NULL%1,                  Gloria Santos%Pérez%NULL%1,                  Jaume Serna%Pérez%NULL%1,                  Ana Belén Serrano%Romero%NULL%1,                  Jesús Tercero%López%NULL%1,                  Carlos Tiscar%García%NULL%1,                  Marta%de la Torre Concostrina%NULL%1,                  Eva María Ureta%Mesa%NULL%1,                  Eva Velasco%Olarte%NULL%1,                  Judith Villahoz%Martínez%NULL%1,                  Raúl Villalaba%Palacios%NULL%1,                  Gema Villanueva%García%NULL%1,                  Cristina Vogel%de Medeiros%NULL%1,                  Soraya Gholamian%Ovejero%NULL%1,                  Marta Vicente%Orgaz%NULL%1,                  Patricia Lloreda%Herradon%NULL%1,                  Cristina Crespo%Gómez%NULL%1,                  Tatiana%Sarmiento-Trujillo%NULL%1,                  Noemí García%Medina%NULL%1,                  María Martínez%García%NULL%1,                  Carles Espinós%Ramírez%NULL%1,                  Nabil Mouhaffel%Rivero%NULL%1,                  Jose Antonio Bernia%Gil%NULL%1,                  Sonsoles%Martín%NULL%1,                  María Victoria%Moral%NULL%1,                  Josefina%Galán%NULL%1,                  Pilar%Paniagua%NULL%1,                  Sergio%Pérez%NULL%1,                  Albert%Bainac%NULL%1,                  Ana%Arias%NULL%1,                  Elsa%Ramil%NULL%1,                  Jorge%Escudero%NULL%1,                  Pablo%Monedero%NULL%1,                  Carmen%Cara%NULL%1,                  Andrea%Lara%NULL%1,                  Elena Mendez%Martínez%NULL%1,                  Jorge%Mendoza%NULL%1,                  Íñigo Rubio%Baines%NULL%1,                  Carmen Sala%Trull%NULL%1,                  Pablo Montero%López%NULL%1,                  Alfredo%Gea%NULL%1,                  Alejandro%Montero%NULL%1,                  Rocío Armero%Ibañez%NULL%1,                  Juan Vicente Llau%Pitarch%NULL%1,                  Fernando Rauer%Alcóver%NULL%1,                  Cristina Álvarez%Herreros%NULL%1,                  Cyntia Sánchez%Martín%NULL%1,                  Lucía López Ocáriz%Olmos%NULL%1,                  Marta Navas%Moruno%NULL%1,                  Fernando García%Montoto%NULL%1,                  M. F. Mirón%Rodriguez%NULL%1,                  Laura Fuentes%Coco%NULL%1,                  Cristina Hernández%Gamito%NULL%1,                  Antonio Barba%Orejudo%NULL%1,                  Luis Gerardo Smith%Vielma%NULL%1,                  Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                  Marta Donoso%Domínguez%NULL%1,                  Silvia Esquivel%Ramírez%NULL%1,                  José Antonio%Carbonell%NULL%1,                  Berta Monleón%López%NULL%1,                  Sara%Martínez-Castro%NULL%1,                  Gerardo%Aguilar%NULL%1,                  María Gestal Pablo%Casas%NULL%1,                  Angel Outeiro%Rosato%NULL%1,                  Andrea Naveiro%Pan%NULL%1,                  María Alonso%Portela%NULL%1,                  Adrián García%Romar%NULL%1,                  Eva Mosquera%Rodríguez%NULL%1,                  Diego Ruanova%Seijo%NULL%1,                  Pablo Rama%Maceiras%NULL%1,                  Francisco%Castro-Ceoane%NULL%1,                  Esther Moreno%López%NULL%1,                  Sergio%Gil%NULL%1,                  Julia Guillén%Antón%NULL%1,                  Patricia García-Consuegra%Tirado%NULL%1,                  Aurora Callau%Calvo%NULL%1,                  Laura Forés%Lisbona%NULL%1,                  María Carbonell%Romero%NULL%1,                  Belén Albericio%Gil%NULL%1,                  Laura Pradal%Jarne%NULL%1,                  María Soria%Lozano%NULL%1,                  Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                  Navjot Ariyana%Kaur%NULL%1,                  Daniel%Sacher%NULL%1,                  Oisin%O’Corragain%NULL%1,                  Daniel%Salerno%NULL%1,                  Parag%Desai%NULL%1,                  Sameep%Sehgal%NULL%1,                  Matthew%Gordon%NULL%2,                  Rohit%Gupta%NULL%2,                  Nathaniel%Marchetti%NULL%1,                  Huaqing%Zhao%NULL%2,                  Nicole%Patlakh%NULL%2,                  Gerard J.%Criner%NULL%1,                  Temple%University%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                  Dominik%Jarczak%NULL%1,                  Liina%Thasler%NULL%1,                  Martin%Bachmann%NULL%1,                  Frank%Schulte%NULL%1,                  Berthold%Bein%NULL%1,                  Christian Friedrich%Weber%NULL%1,                  Ulrich%Schäfer%NULL%1,                  Carsten%Veit%NULL%1,                  Hans-Peter%Hauber%NULL%1,                  Sebastian%Kopp%NULL%1,                  Karsten%Sydow%NULL%1,                  Andreas%de Weerth%NULL%0,                  Marc%Bota%NULL%1,                  Rüdiger%Schreiber%NULL%1,                  Oliver%Detsch%NULL%1,                  Jan-Peer%Rogmann%NULL%1,                  Daniel%Frings%NULL%0,                  Barbara%Sensen%NULL%1,                  Christoph%Burdelski%NULL%0,                  Olaf%Boenisch%NULL%1,                  Axel%Nierhaus%NULL%0,                  Geraldine%de Heer%NULL%0,                  Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1495,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1459,7 +1507,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
@@ -1476,7 +1524,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1505,7 +1553,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1517,7 +1565,7 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
@@ -1534,7 +1582,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1546,7 +1594,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
@@ -1563,7 +1611,7 @@
         <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1575,7 +1623,7 @@
         <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
@@ -1592,7 +1640,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1604,7 +1652,7 @@
         <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8">
@@ -1621,7 +1669,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1633,7 +1681,7 @@
         <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9">
@@ -1650,7 +1698,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1662,7 +1710,7 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -1679,7 +1727,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1691,7 +1739,7 @@
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11">
@@ -1708,7 +1756,7 @@
         <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1720,7 +1768,7 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -1737,7 +1785,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1749,7 +1797,7 @@
         <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13">
@@ -1766,7 +1814,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -1778,7 +1826,7 @@
         <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="305">
   <si>
     <t>Doi</t>
   </si>
@@ -1099,6 +1099,42 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,                  Dominik%Jarczak%NULL%1,                  Liina%Thasler%NULL%1,                  Martin%Bachmann%NULL%1,                  Frank%Schulte%NULL%1,                  Berthold%Bein%NULL%1,                  Christian Friedrich%Weber%NULL%1,                  Ulrich%Schäfer%NULL%1,                  Carsten%Veit%NULL%1,                  Hans-Peter%Hauber%NULL%1,                  Sebastian%Kopp%NULL%1,                  Karsten%Sydow%NULL%1,                  Andreas%de Weerth%NULL%0,                  Marc%Bota%NULL%1,                  Rüdiger%Schreiber%NULL%1,                  Oliver%Detsch%NULL%1,                  Jan-Peer%Rogmann%NULL%1,                  Daniel%Frings%NULL%0,                  Barbara%Sensen%NULL%1,                  Christoph%Burdelski%NULL%0,                  Olaf%Boenisch%NULL%1,                  Axel%Nierhaus%NULL%0,                  Geraldine%de Heer%NULL%0,                  Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                   Paolo%Comassi%NULL%1,                   Luca%Adriani%NULL%1,                   Giulio%Bergamaschini%NULL%1,                   Elena%Bertin%NULL%1,                   Raffaella%Borromeo%NULL%1,                   Serena%Corti%NULL%1,                   Federica%De Petri%NULL%1,                   Francesco%Dolci%NULL%1,                   Attilio%Galmozzi%NULL%1,                   Alberto%Gigliotti%NULL%1,                   Livio%Gualdoni%NULL%1,                   Claudia%Guerra%NULL%1,                   Anna%Khosthiova%NULL%1,                   Giovanni%Leati%NULL%1,                   Giuseppe%Lupi%NULL%1,                   Paolo%Moscato%NULL%1,                   Vittorio%Perotti%NULL%1,                   Miriam%Piantelli%NULL%1,                   Alain%Ruini%NULL%1,                   Silvia%Sportelli%NULL%1,                   Micaela%Susca%NULL%1,                   Carmine%Troiano%NULL%1,                   Giampaolo%Benelli%NULL%1,                   Elisabetta%Buscarini%NULL%1,                   Ciro%Canetta%NULL%1,                   Guido%Merli%NULL%1,                   Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                   Emna%Ennouri%NULL%1,                   Rayane%Nachi%NULL%1,                   Khaoula%Meddeb%NULL%1,                   Jihene%Mahmoud%NULL%1,                   Nesrine%Thabet%NULL%1,                   Salma%Jerbi%NULL%1,                   Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                   Eleni%Xourgia%NULL%1,                   Theodora K.%Ntaidou%NULL%1,                   Dimitris%Zervakis%NULL%1,                   Eleni E.%Magira%NULL%1,                   Anastasia%Kotanidou%NULL%1,                   Christina%Routsi%NULL%1,                   Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                   Carina%Mostert%NULL%1,                   Corinna%Hentschker%NULL%1,                   Thomas%Voshaar%NULL%1,                   Jürgen%Malzahn%NULL%1,                   Gerhard%Schillinger%NULL%1,                   Jürgen%Klauber%NULL%1,                   Uwe%Janssens%NULL%1,                   Gernot%Marx%NULL%1,                   Steffen%Weber-Carstens%NULL%1,                   Stefan%Kluge%NULL%0,                   Michael%Pfeifer%NULL%1,                   Linus%Grabenhenrich%NULL%1,                   Tobias%Welte%NULL%1,                   Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                   David%Hajage%NULL%2,                   David%Hajage%NULL%0,                   Alexandre%Demoule%NULL%1,                   Tài%Pham%NULL%1,                   Alain%Combes%NULL%1,                   Martin%Dres%NULL%1,                   Said%Lebbah%NULL%1,                   Antoine%Kimmoun%NULL%1,                   Alain%Mercat%NULL%1,                   Gaëtan%Beduneau%NULL%1,                   Jessica%Palmyre%NULL%1,                   Margot%Prevost%NULL%1,                   Pierre%Asfar%NULL%1,                   François%Beloncle%NULL%1,                   Julien%Demiselle%NULL%1,                   Arthur%Pavot%NULL%1,                   Xavier%Monnet%NULL%1,                   Christian%Richard%NULL%1,                   Julien%Mayaux%NULL%1,                   Alexandra%Beurton%NULL%1,                   Richard%Descamps%NULL%1,                   Aurélie%Joret%NULL%1,                   Damien%Du Cheyron%NULL%1,                   Frédéric%Pene%NULL%1,                   Jean-Daniel%Chiche%NULL%1,                   Mathieu%Jozwiak%NULL%1,                   Paul%Jaubert%NULL%1,                   Guillaume%Voiriot%NULL%1,                   Muriel%Fartoukh%NULL%1,                   Marion%Teulier%NULL%1,                   Clarisse%Blayau%NULL%1,                   Erwen%L’Her%NULL%1,                   Cécile%Aubron%NULL%1,                   Laetitia%Bodenes%NULL%1,                   Nicolas%Ferriere%NULL%1,                   Johann%Auchabie%NULL%1,                   Anthony%Le Meur%NULL%1,                   Sylvain%Pignal%NULL%1,                   Thierry%Mazzoni%NULL%1,                   Jean-Pierre%Quenot%NULL%1,                   Pascal%Andreu%NULL%1,                   Jean-Baptiste%Roudau%NULL%1,                   Marie%Labruyère%NULL%1,                   Saad%Nseir%NULL%0,                   Sébastien%Preau%NULL%1,                   Julien%Poissy%NULL%0,                   Daniel%Mathieu%NULL%0,                   Sarah%Benhamida%NULL%1,                   Rémi%Paulet%NULL%1,                   Nicolas%Roucaud%NULL%1,                   Martial%Thyrault%NULL%1,                   Florence%Daviet%NULL%1,                   Sami%Hraiech%NULL%1,                   Gabriel%Parzy%NULL%1,                   Aude%Sylvestre%NULL%1,                   Sébastien%Jochmans%NULL%1,                   Anne-Laure%Bouilland%NULL%1,                   Mehran%Monchi%NULL%1,                   Marc%Danguy des Déserts%NULL%1,                   Quentin%Mathais%NULL%1,                   Gwendoline%Rager%NULL%1,                   Pierre%Pasquier%NULL%1,                   Reignier%Jean%NULL%1,                   Seguin%Amélie%NULL%1,                   Garret%Charlotte%NULL%1,                   Canet%Emmanuel%NULL%1,                   Jean%Dellamonica%NULL%1,                   Clément%Saccheri%NULL%1,                   Romain%Lombardi%NULL%1,                   Yanis%Kouchit%NULL%1,                   Sophie%Jacquier%NULL%1,                   Armelle%Mathonnet%NULL%1,                   Mai-Ahn%Nay%NULL%1,                   Isabelle%Runge%NULL%1,                   Frédéric%Martino%NULL%1,                   Laure%Flurin%NULL%1,                   Amélie%Rolle%NULL%1,                   Michel%Carles%NULL%1,                   Rémi%Coudroy%NULL%1,                   Arnaud W.%Thille%NULL%1,                   Jean-Pierre%Frat%NULL%1,                   Maeva%Rodriguez%NULL%1,                   Pascal%Beuret%NULL%1,                   Audrey%Tientcheu%NULL%1,                   Arthur%Vincent%NULL%1,                   Florian%Michelin%NULL%1,                   Marie Anne%Melone%NULL%1,                   Maxime%Gauzi%NULL%1,                   Arnaud%Guilbert%NULL%1,                   Geoffrey%Kouadri%NULL%1,                   Valérie%Gissot%NULL%1,                   Stéphan%Ehrmann%NULL%1,                   Charlotte%Salmon-Gandonnière%NULL%1,                   Djlali%Elaroussi%NULL%1,                   Agathe%Delbove%NULL%1,                   Yannick%Fedun%NULL%1,                   Julien%Huntzinger%NULL%1,                   Eddy%Lebas%NULL%1,                   Grâce%Kisoka%NULL%1,                   Céline%Grégoire%NULL%1,                   Stella%Marchetta%NULL%1,                   Bernard%Lambermont%NULL%1,                   Laurent%Argaud%NULL%1,                   Thomas%Baudry%NULL%1,                   Pierre-Jean%Bertrand%NULL%1,                   Auguste%Dargent%NULL%1,                   Christophe%Guitton%NULL%1,                   Nicolas%Chudeau%NULL%1,                   Mickaël%Landais%NULL%1,                   Cédric%Darreau%NULL%1,                   Alexis%Ferre%NULL%1,                   Antoine%Gros%NULL%1,                   Guillaume%Lacave%NULL%1,                   Fabrice%Bruneel%NULL%1,                   Mathilde%Neuville%NULL%1,                   Jérôme%Devaquet%NULL%1,                   Guillaume%Tachon%NULL%1,                   Richard%Gallot%NULL%1,                   Riad%Chelha%NULL%1,                   Arnaud%Galbois%NULL%1,                   Anne%Jallot%NULL%1,                   Ludivine Chalumeau%Lemoine%NULL%1,                   Khaldoun%Kuteifan%NULL%1,                   Valentin%Pointurier%NULL%1,                   Louise-Marie%Jandeaux%NULL%1,                   Joy%Mootien%NULL%1,                   Charles%Damoisel%NULL%1,                   Benjamin%Sztrymf%NULL%1,                   Juliette%Chommeloux%NULL%1,                   Charles Edouard%Luyt%NULL%1,                   Frédérique%Schortgen%NULL%1,                   Leon%Rusel%NULL%1,                   Camille%Jung%NULL%1,                   Florent%Gobert%NULL%1,                   Damien%Vimpere%NULL%1,                   Lionel%Lamhaut%NULL%1,                   Bertrand%Sauneuf%NULL%1,                   Liliane%Charrier%NULL%1,                   Julien%Calus%NULL%1,                   Isabelle%Desmeules%NULL%1,                   Benoît%Painvin%NULL%1,                   Jean-Marc%Tadie%NULL%1,                   Vincent%Castelain%NULL%1,                   Baptiste%Michard%NULL%1,                   Jean-Etienne%Herbrecht%NULL%1,                   Mathieu%Baldacini%NULL%1,                   Nicolas%Weiss%NULL%1,                   Sophie%Demeret%NULL%1,                   Clémence%Marois%NULL%1,                   Benjamin%Rohaut%NULL%1,                   Pierre-Henri%Moury%NULL%1,                   Anne-Charlotte%Savida%NULL%1,                   Emmanuel%Couadau%NULL%1,                   Mathieu%Série%NULL%1,                   Nica%Alexandru%NULL%1,                   Cédric%Bruel%NULL%1,                   Candice%Fontaine%NULL%1,                   Sonia%Garrigou%NULL%1,                   Juliette Courtiade%Mahler%NULL%1,                   Maxime%Leclerc%NULL%1,                   Michel%Ramakers%NULL%1,                   Pierre%Garçon%NULL%1,                   Nicole%Massou%NULL%1,                   Ly Phacs%Van Vong%NULL%1,                   Juliane%Sen%NULL%1,                   Nolwenn%Lucas%NULL%1,                   Franck%Chemouni%NULL%1,                   Annabelle%Stoclin%NULL%1,                   Alexandre%Avenel%NULL%1,                   Henri%Faure%NULL%1,                   Angélie%Gentilhomme%NULL%1,                   Sylvie%Ricome%NULL%1,                   Paul%Abraham%NULL%1,                   Céline%Monard%NULL%1,                   Julien%Textoris%NULL%1,                   Thomas%Rimmele%NULL%1,                   Florent%Montini%NULL%1,                   Gabriel%Lejour%NULL%1,                   Thierry%Lazard%NULL%1,                   Isabelle%Etienney%NULL%1,                   Younes%Kerroumi%NULL%1,                   Dupuis%Claire%NULL%1,                   Bereiziat Marine%Coupez%NULL%1,                   Thouy%François%NULL%1,                   Clémet%Hoffmann%NULL%1,                   Nicolas%Donat%NULL%1,                   Violaine%Muller%NULL%1,                   Thibault%Martinez%NULL%1,                   Audrey%Jacquot%NULL%1,                   Matthieu%Mattei%NULL%1,                   Bruno%Levy%NULL%1,                   Ramin%Ravan%NULL%1,                   Loïc%Dopeux%NULL%1,                   Jean-Mathias%Liteaudon%NULL%1,                   Delphine%Roux%NULL%1,                   Brice%Rey%NULL%1,                   Radu%Anghel%NULL%1,                   Deborah%Schenesse%NULL%1,                   Vincent%Gevrey%NULL%1,                   Jermy%Castanera%NULL%1,                   Philippe%Petua%NULL%1,                   Benjamin%Madeux%NULL%1,                   Otto%Hartman%NULL%1,                   Michael%Piagnerelli%NULL%1,                   Anne%Joosten%NULL%1,                   Cinderella%Noel%NULL%1,                   Patrick%Biston%NULL%1,                   Thibaut%Noel%NULL%1,                   Gurvan L. E.%Bouar%NULL%1,                   Messabi%Boukhanza%NULL%1,                   Elsa%Demarest%NULL%1,                   Marie-France%Bajolet%NULL%1,                   Nathanaël%Charrier%NULL%1,                   Audrey%Quenet%NULL%1,                   Cécile%Zylberfajn%NULL%1,                   Nicolas%Dufour%NULL%1,                   Buno%Mégarbane%NULL%1,                   Sqébastian%Voicu%NULL%1,                   Nicolas%Deye%NULL%1,                   Isabelle%Malissin%NULL%1,                   François%Legay%NULL%1,                   Matthieu%Debarre%NULL%1,                   Nicolas%Barbarot%NULL%1,                   Pierre%Fillatre%NULL%1,                   Bertrand%Delord%NULL%1,                   Thomas%Laterrade%NULL%1,                   Tahar%Saghi%NULL%1,                   Wilfried%Pujol%NULL%1,                   Pierre Julien%Cungi%NULL%1,                   Pierre%Esnault%NULL%1,                   Mickael%Cardinale%NULL%1,                   Vivien%Hong Tuan Ha%NULL%1,                   Grégory%Fleury%NULL%1,                   Marie-Ange%Brou%NULL%1,                   Daniel%Zafimahazo%NULL%1,                   David%Tran-Van%NULL%1,                   Patrick%Avargues%NULL%1,                   Lisa%Carenco%NULL%1,                   Nicolas%Robin%NULL%1,                   Alexandre%Ouali%NULL%1,                   Lucie%Houdou%NULL%1,                   Christophe%Le Terrier%NULL%1,                   Noémie%Suh%NULL%1,                   Steve%Primmaz%NULL%1,                   Jérome%Pugin%NULL%1,                   Emmanuel%Weiss%NULL%1,                   Tobias%Gauss%NULL%1,                   Jean-Denis%Moyer%NULL%1,                   Catherine%Paugam-Burtz%NULL%1,                   Béatrice%La Combe%NULL%1,                   Rolland%Smonig%NULL%1,                   Jade%Violleau%NULL%1,                   Pauline%Cailliez%NULL%1,                   Jonathan%Chelly%NULL%1,                   Antoine%Marchalot%NULL%1,                   Cécile%Saladin%NULL%1,                   Christelle%Bigot%NULL%1,                   Pierre-Marie%Fayolle%NULL%1,                   Jules%Fatséas%NULL%1,                   Amr%Ibrahim%NULL%1,                   Dabor%Resiere%NULL%1,                   Rabih%Hage%NULL%1,                   Clémentine%Cholet%NULL%1,                   Marie%Cantier%NULL%1,                   Pierre%Trouiller%NULL%1,                   Philippe%Montravers%NULL%1,                   Brice%Lortat-Jacob%NULL%1,                   Sebastien%Tanaka%NULL%1,                   Alexy%Tran-Dinh%NULL%1,                   Jacques%Duranteau%NULL%1,                   Anatole%Harrois%NULL%1,                   Guillaume%Dubreuil%NULL%1,                   Marie%Werner%NULL%1,                   Anne%Godier%NULL%1,                   Sophie%Hamada%NULL%1,                   Diane%Zlotnik%NULL%1,                   Hélène%Nougue%NULL%1,                   Armand%Mekontso-Dessap%NULL%1,                   Guillaume%Carteaux%NULL%1,                   Keyvan%Razazi%NULL%1,                   Nicolas%De Prost%NULL%1,                   Nicolas%Mongardon%NULL%1,                   Olivier%Langeron%NULL%1,                   Eric%Levesque%NULL%1,                   Arié%Attias%NULL%1,                   Charles%de Roquetaillade%NULL%1,                   Benjamin G.%Chousterman%NULL%1,                   Alexandre%Mebazaa%NULL%1,                   Etienne%Gayat%NULL%1,                   Marc%Garnier%NULL%1,                   Emmanuel%Pardo%NULL%1,                   Lea%Satre-Buisson%NULL%1,                   Christophe%Gutton%NULL%1,                   Elise%Yvin%NULL%1,                   Clémence%Marcault%NULL%1,                   Elie%Azoulay%NULL%1,                   Michael%Darmon%NULL%1,                   Nicolas%Bonnet%NULL%1,                   Nathan%Ebstein%NULL%1,                   Stéphane%Gaudry%NULL%1,                   Yves%Cohen%NULL%1,                    Hafid%Ait-Oufella%NULL%1,                   Geoffroy%Hariri%NULL%1,                   Tomas%Urbina%NULL%1,                   Sandie%Mazerand%NULL%1,                   Nicholas%Heming%NULL%1,                   Francesca%Santi%NULL%1,                   Pierre%Moine%NULL%1,                   Djillali%Annane%NULL%1,                   Adrien%Bouglé%NULL%1,                   Edris%Omar%NULL%1,                   Aymeric%Lancelot%NULL%1,                   Emmanuelle%Begot%NULL%1,                   Gaétan%Plantefeve%NULL%1,                   Damien%Contou%NULL%1,                   Hervé%Mentec%NULL%1,                   Olivier%Pajot%NULL%1,                   Stanislas%Faguer%NULL%1,                   Olivier%Cointault%NULL%1,                   Laurence%Lavayssiere%NULL%1,                   Marie-Béatrice%Nogier%NULL%1,                   Matthieu%Jamme%NULL%1,                   Claire%Pichereau%NULL%1,                   Jan%Hayon%NULL%1,                   Hervé%Outin%NULL%1,                   François%Dépret%NULL%1,                   Maxime%Coutrot%NULL%1,                   Maité%Chaussard%NULL%1,                   Lucie%Guillemet%NULL%1,                   Pierre%Goffin%NULL%1,                   Romain%Thouny%NULL%1,                   Julien%Guntz%NULL%1,                   Laurent%Jadot%NULL%1,                   Romain%Persichini%NULL%1,                   Vanessa%Jean-Michel%NULL%1,                   Hugues%Georges%NULL%1,                   Thomas%Caulier%NULL%1,                   Gaël%Pradel%NULL%1,                   Marie-Hélène%Hausermann%NULL%1,                   ThiMy Hue%Nguyen-Valat%NULL%1,                   Michel%Boudinaud%NULL%1,                   Emmanuel%Vivier%NULL%1,                   Sylvène%Rosseli%NULL%1,                   Gaël%Bourdin%NULL%1,                   Christian%Pommier%NULL%1,                   Marc%Vinclair%NULL%1,                   Simon%Poignant%NULL%1,                   Sandrine%Mons%NULL%1,                   Wulfran%Bougouin%NULL%1,                   Franklin%Bruna%NULL%1,                   Quentin%Maestraggi%NULL%1,                   Christian%Roth%NULL%1,                   Laurent%Bitker%NULL%1,                   François%Dhelft%NULL%1,                   Justine%Bonnet-Chateau%NULL%1,                   Mathilde%Filippelli%NULL%1,                   Tristan%Morichau-Beauchant%NULL%1,                   Stéphane%Thierry%NULL%1,                   Charlotte%Le Roy%NULL%1,                   Mélanie%Saint Jouan%NULL%1,                   Bruno%Goncalves%NULL%1,                   Aurélien%Mazeraud%NULL%1,                   Matthieu%Daniel%NULL%1,                   Tarek%Sharshar%NULL%1,                   Cyril%Cadoz%NULL%1,                   Rostane%Gaci%NULL%1,                   Sébastien%Gette%NULL%1,                   Guillaune%Louis%NULL%1,                   Sophe-Caroline%Sacleux%NULL%1,                   Marie-Amélie%Ordan%NULL%1,                   Aurélie%Cravoisy%NULL%1,                   Marie%Conrad%NULL%1,                   Guilhem%Courte%NULL%1,                   Sébastien%Gibot%NULL%1,                   Younès%Benzidi%NULL%1,                   Claudia%Casella%NULL%1,                   Laurent%Serpin%NULL%1,                   Jean-Lou%Setti%NULL%1,                   Marie-Catherine%Besse%NULL%1,                   Anna%Bourreau%NULL%1,                   Jérôme%Pillot%NULL%1,                   Caroline%Rivera%NULL%1,                   Camille%Vinclair%NULL%1,                   Marie-Aline%Robaux%NULL%1,                   Chloé%Achino%NULL%1,                   Marie-Charlotte%Delignette%NULL%1,                   Tessa%Mazard%NULL%1,                   Frédéric%Aubrun%NULL%1,                   Bruno%Bouchet%NULL%1,                   Aurélien%Frérou%NULL%1,                   Laura%Muller%NULL%1,                   Charlotte%Quentin%NULL%1,                   Samuel%Degoul%NULL%1,                   Xavier%Stihle%NULL%1,                   Claude%Sumian%NULL%1,                   Nicoletta%Bergero%NULL%1,                   Bernard%Lanaspre%NULL%1,                   Hervé%Quintard%NULL%1,                   Eve Marie%Maiziere%NULL%1,                   Pierre-Yves%Egreteau%NULL%1,                   Guillaume%Leloup%NULL%1,                   Florin%Berteau%NULL%1,                   Marjolaine%Cottrel%NULL%1,                   Marie%Bouteloup%NULL%1,                   Matthieu%Jeannot%NULL%1,                   Quentin%Blanc%NULL%1,                   Julien%Saison%NULL%1,                   Isabelle%Geneau%NULL%1,                   Romaric%Grenot%NULL%1,                   Abdel%Ouchike%NULL%1,                   Pascal%Hazera%NULL%1,                   Anne-Lyse%Masse%NULL%1,                   Suela%Demiri%NULL%1,                   Corinne%Vezinet%NULL%1,                   Elodie%Baron%NULL%1,                   Déborah%Benchetrit%NULL%1,                   Antoine%Monsel%NULL%1,                   Grégoire%Trebbia%NULL%1,                   Emmanuelle%Schaack%NULL%1,                   Raphaël%Lepecq%NULL%1,                   Mathieu%Bobet%NULL%1,                   Christophe%Vinsonneau%NULL%1,                   Thibault%Dekeyser%NULL%1,                   Quentin%Delforge%NULL%1,                   Imen%Rahmani%NULL%1,                   Bérengère%Vivet%NULL%1,                   Jonathan%Paillot%NULL%1,                   Lucie%Hierle%NULL%1,                   Claire%Chaignat%NULL%1,                   Sarah%Valette%NULL%1,                   Benoït%Her%NULL%1,                   Jennifier%Brunet%NULL%1,                   Mathieu%Page%NULL%1,                   Fabienne%Boiste%NULL%1,                   Anthony%Collin%NULL%1,                   Florent%Bavozet%NULL%2,                   Aude%Garin%NULL%1,                   Mohamed%Dlala%NULL%1,                   Kais%Mhamdi%NULL%1,                   Bassem%Beilouny%NULL%1,                   Alexandra%Lavalard%NULL%1,                   Severine%Perez%NULL%1,                   Benoit%Veber%NULL%1,                   Pierre-Gildas%Guitard%NULL%1,                   Philippe%Gouin%NULL%1,                   Anna%Lamacz%NULL%1,                   Fabienne%Plouvier%NULL%1,                   Bertrand P.%Delaborde%NULL%1,                   Aïssa%Kherchache%NULL%1,                   Amina%Chaalal%NULL%1,                   Jean-Damien%Ricard%NULL%1,                   Marc%Amouretti%NULL%1,                   Santiago%Freita-Ramos%NULL%1,                   Damien%Roux%NULL%1,                   Jean-Michel%Constantin%NULL%1,                   Mona%Assefi%NULL%1,                   Marine%Lecore%NULL%1,                   Agathe%Selves%NULL%1,                   Florian%Prevost%NULL%1,                   Christian%Lamer%NULL%1,                   Ruiying%Shi%NULL%1,                   Lyes%Knani%NULL%1,                   Sébastien%Pili-Floury%NULL%1,                   Lucie%Vettoretti%NULL%1,                   Michael%Levy%NULL%1,                   Lucile%Marsac%NULL%1,                   Stéphane%Dauger%NULL%1,                   Sophie%Guilmin-Crépon%NULL%1,                   Jean-Baptiste%Putegnat%NULL%1,                   Frédérique%Bayle%NULL%1,                   Maya%Perrou%NULL%1,                   Ghyslaine%Thao%NULL%1,                   Guillaume%Géri%NULL%1,                   Cyril%Charron%NULL%1,                   Xavier%Repessé%NULL%1,                   Antoine%Vieillard-Baron%NULL%1,                   Mathieu%Guilbart%NULL%1,                   Pierre-Alexandre%Roger%NULL%1,                   Sébastien%Hinard%NULL%1,                   Pierre-Yves%Macq%NULL%1,                   Kevin%Chaulier%NULL%1,                   Sylvie%Goutte%NULL%1,                   Patrick%Chillet%NULL%1,                   Anaïs%Pitta%NULL%1,                   Barbara%Darjent%NULL%1,                   Amandine%Bruneau%NULL%1,                   Sigismond%Lasocki%NULL%1,                   Maxime%Leger%NULL%1,                   Soizic%Gergaud%NULL%1,                   Pierre%Lemarie%NULL%1,                   Nicolas%Terzi%NULL%1,                   Carole%Schwebel%NULL%1,                   Anaïs%Dartevel%NULL%1,                   Louis-Marie%Galerneau%NULL%1,                   Jean-Luc%Diehl%NULL%1,                   Caroline%Hauw-Berlemont%NULL%0,                   Nicolas%Péron%NULL%1,                   Emmanuel%Guérot%NULL%1,                   Abolfazl Mohebbi%Amoli%NULL%1,                   Michel%Benhamou%NULL%1,                   Jean-Pierre%Deyme%NULL%1,                   Olivier%Andremont%NULL%1,                   Diane%Lena%NULL%1,                   Julien%Cady%NULL%1,                   Arnaud%Causeret%NULL%1,                   Arnaud%De La Chapelle%NULL%1,                   Christophe%Cracco%NULL%1,                   Stéphane%Rouleau%NULL%1,                   David%Schnell%NULL%1,                   Cécile%Lory%NULL%1,                   Thibault%Chapelle%NULL%1,                   Vincent%Bruckert%NULL%1,                   Julie%Garcia%NULL%1,                   Abdlazize%Sahraoui%NULL%1,                   Nathalie%Abbosh%NULL%1,                   Caroline%Bornstain%NULL%1,                   Pierre%Pernet%NULL%1,                   Florent%Poirson%NULL%1,                   Ahmed%Pasem%NULL%1,                   Philippe%Karoubi%NULL%1,                   Virginie%Poupinel%NULL%1,                   Caroline%Gauthier%NULL%1,                   François%Bouniol%NULL%1,                   Philippe%Feuchere%NULL%1,                   Florent%Bavozet%NULL%0,                   Anne%Heron%NULL%1,                   Serge%Carreira%NULL%1,                   Malo%Emery%NULL%1,                   Anne%Le Floch%NULL%1,                   Luana%Giovannangeli%NULL%1,                   Nicolas%Herzog%NULL%1,                   Christophe%Giacardi%NULL%1,                   Thibaut%Baudic%NULL%1,                   Chloé%Thill%NULL%1,                   Florence%Tubach%NULL%1,                   Olivier%Lesieur%NULL%1,                   Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                   Max W.%Adelman%NULL%2,                   Maxwell A.%Hockstein%NULL%1,                   Chad J.%Robichaux%NULL%1,                   Johnathan A.%Edwards%NULL%1,                   Jane C.%Fazio%NULL%1,                   James M.%Blum%NULL%3,                   Craig S.%Jabaley%NULL%2,                   Mark%Caridi-Scheible%NULL%2,                   Greg S.%Martin%NULL%2,                   David J.%Murphy%NULL%3,                   Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                 Antonelli%M.%coreGivesNoEmail%0,                 Bellani%G.%coreGivesNoEmail%0,                 Bonanomi%E.%coreGivesNoEmail%0,                 Cabrini%L.%coreGivesNoEmail%0,                 Carlesso%E.%coreGivesNoEmail%0,                 Castelli%G.%coreGivesNoEmail%0,                 Cattaneo%S.%coreGivesNoEmail%0,                 Cecconi%M.%coreGivesNoEmail%0,                 Cereda%D.%coreGivesNoEmail%0,                 Colombo%S.%coreGivesNoEmail%0,                 Coluccello%A.%coreGivesNoEmail%0,                 Crescini%G.%coreGivesNoEmail%0,                 Forastieri%Molinari A.%coreGivesNoEmail%0,                 Foti%G.%coreGivesNoEmail%0,                 Fumagalli%R.%coreGivesNoEmail%0,                 Grasselli%G.%coreGivesNoEmail%0,                 Greco%M.%coreGivesNoEmail%0,                 Iotti%G. A.%coreGivesNoEmail%0,                 Langer%T.%coreGivesNoEmail%0,                 Latronico%N.%coreGivesNoEmail%0,                 Lorini%F. L.%coreGivesNoEmail%0,                 Mojoli%F.%coreGivesNoEmail%0,                 Natalini%G.%coreGivesNoEmail%0,                 Pesenti%A.%coreGivesNoEmail%0,                 Pessina%C. M.%coreGivesNoEmail%0,                 Ranieri%V. M.%coreGivesNoEmail%0,                 Rech%R.%coreGivesNoEmail%0,                 Rosano%A.%coreGivesNoEmail%0,                 Scudeller%L.%coreGivesNoEmail%0,                 Storti%E.%coreGivesNoEmail%0,                 Thompson%B. T.%coreGivesNoEmail%0,                 Tirani%M.%coreGivesNoEmail%0,                 Villani%P. G.%coreGivesNoEmail%0,                 Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                   Keum-Ju%Choi%NULL%1,                   Sun Ha%Choi%NULL%1,                   Shin Yup%Lee%NULL%1,                   Kyung Chan%Kim%NULL%1,                   Eun Jin%Kim%NULL%1,                   Jaehee%Lee%NULL%2,                   Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                   Siddique%Chaudhary%NULL%1,                   Kevin%Bryan Lo%NULL%2,                   Kevin%Bryan Lo%NULL%0,                   Robert%DeJoy%NULL%1,                   Fahad%Gul%NULL%1,                   Ricardo%Torres%NULL%1,                   Neal%Chaisson%NULL%2,                   Neal%Chaisson%NULL%0,                   Gabriel%Patarroyo-Aponte%NULL%2,                   Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                   Bruno L.%Ferreyro%NULL%2,                   Bruno L.%Ferreyro%NULL%0,                   Federico%Angriman%NULL%1,                   María%Hernández-Sanz%NULL%2,                   Egoitz%Arruti%NULL%1,                   Antoni%Torres%NULL%2,                   Jesús%Villar%NULL%1,                   Laurent%Brochard%NULL%1,                   Carlos%Ferrando%NULL%2,                   Ricard%Mellado-Artigas%NULL%1,                   María%Hernández-Sanz%NULL%0,                   Carlos%Ferrando%NULL%0,                   Marina%Vendrell%NULL%1,                   Gerard%Sánchez-Etayo%NULL%1,                   Amalia%Alcón%NULL%1,                   Isabel%Belda%NULL%1,                   Mercé%Agustí%NULL%1,                   Albert%Carramiñana%NULL%1,                   Isabel%Gracia%NULL%1,                   Miriam%Panzeri%NULL%1,                   Irene%León%NULL%1,                   Jaume%Balust%NULL%1,                   Ricard%Navarro%NULL%2,                   María José%Arguís%NULL%1,                   María José%Carretero%NULL%1,                   Cristina%Ibáñez%NULL%1,                   Juan%Perdomo%NULL%1,                   Antonio%López%NULL%1,                   Manuel%López-Baamonde%NULL%1,                   Tomás%Cuñat%NULL%1,                   Marta%Ubré%NULL%1,                   Antonio%Ojeda%NULL%1,                   Andrea%Calvo%NULL%1,                   Eva%Rivas%NULL%1,                   Paola%Hurtado%NULL%1,                   Roger%Pujol%NULL%1,                   Nuria%Martín%NULL%1,                   Javier%Tercero%NULL%1,                   Pepe%Sanahuja%NULL%1,                   Marta%Magaldi%NULL%1,                   Miquel%Coca%NULL%1,                   Elena%del Rio%NULL%1,                   Julia%Martínez-Ocon%NULL%1,                   Paula%Masgoret%NULL%1,                   Monserrat%Tio%NULL%1,                   Angel%Caballero%NULL%1,                   Raquel%Risco%NULL%1,                   Raquel%Bergé%NULL%1,                   Lidia%Gómez%NULL%1,                   Nicolás%de Riva%NULL%1,                   Ana%Ruiz%NULL%1,                   Beatriz%Tena%NULL%1,                   Sebastián%Jaramillo%NULL%1,                   José María%Balibrea%NULL%1,                   Francisco Borja de Borja%de Lacy%NULL%1,                   Ana%Otero%NULL%1,                   Ainitze%Ibarzabal%NULL%1,                   Raquel%Bravo%NULL%1,                   Anna%Carreras%NULL%1,                   Daniel%Martín-Barreda%NULL%1,                   Alfonso Jesús%Alias%NULL%1,                   Mariano%Balaguer%NULL%1,                   Jorge%Aliaga%NULL%1,                   Alex%Almuedo%NULL%1,                   Joan Ramón%Alonso%NULL%1,                   Rut%Andrea%NULL%1,                   Gerard Sergi%Angelès%NULL%1,                    Marilyn%Arias%NULL%1,                   Fátima%Aziz%NULL%1,                   Joan Ramon%Badía%NULL%1,                   Enric%Barbeta%NULL%1,                   Toni%Torres%NULL%1,                   Guillem%Batiste%NULL%1,                   Pau%Benet%NULL%1,                   Xavi%Borrat%NULL%1,                   María%Borrell%NULL%1,                   Ernest%Bragulat%NULL%1,                   Inmaculada%Carmona%NULL%1,                   Manuel%Castellà%NULL%1,                   Pedro%Castro%NULL%1,                   Joan%Ceravalls%NULL%1,                   Oscar%Comino%NULL%1,                   Claudia%Cucciniello%NULL%1,                   Clàudia%De Deray%NULL%1,                   Oriol%De Diego%NULL%1,                   Paula%De la Matta%NULL%1,                   Marta%Farrero%NULL%1,                   Javier%Fernández%NULL%1,                   Sara%Fernández%NULL%1,                   Anna%Fernández%NULL%1,                   Miquel%Ferrer%NULL%1,                   Ana%Fervienza%NULL%1,                   María%Tallo Forga%NULL%1,                   Daniel%Forné%NULL%1,                   Clàudia%Galán%NULL%1,                   Andrea%Gómez%NULL%1,                   Eduard%Guasch%NULL%1,                   María%Hernández-Tejero%NULL%1,                   Adriana%Jacas%NULL%1,                   Beltrán%Jiménez%NULL%1,                   Pere%Leyes%NULL%1,                   Teresa%López%NULL%1,                   José Antonio%Martínez%NULL%1,                   Graciela%Martínez-Pallí%NULL%1,                   Jordi%Mercadal%NULL%1,                   Guido%Muñoz%NULL%1,                   José%Muñoz%NULL%1,                   Ricard%Navarro%NULL%0,                   Josep María%Nicolás%NULL%1,                   José Tomás%Ortiz%NULL%1,                   Anna%Peiró%NULL%1,                   Manuel%Pérez%NULL%1,                   Esteban%Poch%NULL%1,                   Margarida%Pujol%NULL%1,                   Eduard%Quintana%NULL%1,                   Bartomeu%Ramis%NULL%1,                   Enric%Reverter%NULL%1,                   Irene%Rovira%NULL%1,                   Pablo%Ruiz%NULL%1,                   Elena%Sandoval%NULL%1,                   Stefan%Schneider%NULL%1,                   Oriol%Sibila%NULL%1,                   Carla%Solé%NULL%1,                   Alex%Soriano%NULL%1,                   Dolors%Soy%NULL%1,                   M.%Suárez%NULL%1,                   Adrián%Téllez%NULL%1,                   Néstor David%Toapanta%NULL%1,                   Antoni%Torres%NULL%0,                   Xavier%Urra%NULL%1,                   César%Aldecoa%NULL%1,                   Alicia%Bordell%NULL%1,                   Silvia%Martín%NULL%1,                   Judith%Andrés%NULL%1,                   Alberto Martínez%Ruiz%NULL%1,                   Gonzalo Tamayo%Medel%NULL%1,                   Iñaki Bilbao Bilbao%Villasante%NULL%1,                   Fernando Iturri%Clavero%NULL%1,                   Covadonga Peralta%Álvarez%NULL%1,                   Julia T.%Herrera Díez%NULL%1,                   Andrea García%Trancho%NULL%1,                   Iñaki Sainz %Mandiola%NULL%1,                   Carmen Ruano%Suarez%NULL%1,                   Angela Ruiz%Bocos%NULL%1,                   Eneritz Urrutia%Izagirre%NULL%1,                   Pablo Ortiz%de Urbina Fernández%NULL%1,                   Naiara Apodaka%López%NULL%1,                   Leire Prieto%Molano%NULL%1,                   Eunate Ganuza%Martínez%NULL%1,                   Iratxe Vallinas%Hidalgo%NULL%1,                   Karmele%de Orte Sancho%NULL%1,                   Celia González%Paniagua%NULL%1,                   Gemma Ortiz%Labrador%NULL%1,                   Mireia Pérez%Larrañaga%NULL%1,                   Marta López%Miguelez%NULL%1,                   Estíbaliz Bárcena%Andrés%NULL%1,                   Erik Urutxurtu%Laureano%NULL%1,                   Maria Jesús Maroño%Boedo%NULL%1,                   Blanca Escontrela%Rodríguez%NULL%1,                   Aitziber Ereñozaga%Camiruaga%NULL%1,                   Deiene Lasuen%Aguirre%NULL%1,                   Ainhoa Zabal%Maeztu%NULL%1,                   Ane Guereca%Gala%NULL%1,                   Iker Castelo%Korro%NULL%1,                   Andrés Álvarez%Campo%NULL%1,                   Alejandro Carcelen%Viana%NULL%1,                   Alejandro Alberdi%Enríquez%NULL%1,                   Xabier Ormazábal%Rementeria%NULL%1,                   Alberto Sánchez%Campos%NULL%1,                   Rosa Gutiérrez%Rico%NULL%1,                   Pablo Barbier%Damborenea%NULL%1,                   Marta Guerenabarrena%Momeñe%NULL%1,                   Borja Cuesta%Ruiz%NULL%1,                   Alejandro López%Rico%NULL%1,                   Ana Rojo%Polo%NULL%1,                   Covadonga García%Grijelmo%NULL%1,                   Mikel Celorrio%Reta%NULL%1,                   Eneko Martín%Arroyo%NULL%1,                   Leire Artaza%Aparicio%NULL%1,                   Iñaki Ituarte%Aspiazu%NULL%1,                   Ane Igeregi%Basabe%NULL%1,                   Itxaso Merino%Julian%NULL%1,                   Isabel Diaz%Rico%NULL%1,                   Maria Paz%Martínez%NULL%1,                   Ramón%Adalia Bartolomé%NULL%1,                   Luigi%Zattera%NULL%1,                   Irina Adalid%Hernandez%NULL%1,                   Leire Larrañaga%Altuna%NULL%1,                   Aina Serrallonga%Castells%NULL%1,                   Adriana Vílchez%Garcia%NULL%1,                   María%Núñez%NULL%1,                   Lorena%Román%NULL%1,                   Isabel Ramos%Delgado%NULL%1,                   Adela Benítez-Cano%Martínez%NULL%1,                   Mireia Chanzá%Albert%NULL%1,                   Juan Carlos Álvarez%García%NULL%1,                   Luis Aguilera%Cuchillo%NULL%1,                   Sandra Beltrán%de Heredia%NULL%1,                   Jesús Carazo%Cordobés%NULL%1,                   Carlos Alberto García%Bernedo%NULL%1,                   Fernando Escolano%Villén%NULL%1,                   Francisco Javier Redondo%Calvo%NULL%1,                   Rubén Villazala%González%NULL%1,                   Victor Baladron%González%NULL%1,                   Patricia%Faba%NULL%1,                   Omar%Montenegro%NULL%1,                   Natalia Bejarano%Ramírez%NULL%1,                   Sergio Marcos%Contreras%NULL%1,                   Alejandro Garcia%Rodríguez%NULL%1,                   Saleta Rey%Vázquez%NULL%1,                   Cristina Garcia%Pérez%NULL%1,                   Eva Higuera%Miguelez%NULL%1,                   Irene Pérez%Blanco%NULL%1,                   David García%Rivera%NULL%1,                   Ane Martín%de la Fuente%NULL%1,                   Marta%Pardo%NULL%1,                   Vanessa%Rodriguez%NULL%1,                   Unai%Bengoetxea%NULL%1,                   Fernando%Ramasco%NULL%1,                   Sheila Olga Santidrián%Bernal%NULL%1,                   Alvar Santa Cruz%Hernando%NULL%1,                   Antonio Planas%Roca%NULL%1,                   Carlos Figueroa%Yusta%NULL%1,                   Esther García%Villabona%NULL%1,                   Carmen Vallejo%Lantero%NULL%1,                   Eva Patiño%Rodriguez%NULL%1,                   Alvaro Esquivel%Toledo%NULL%1,                   David Arribas%Méndez%NULL%1,                   Mar Orts%Rodriguez%NULL%1,                   Rosa Méndez%Hernández%NULL%1,                   Jesús Nieves%Alonso%NULL%1,                   Inés Imaz%Artazcoz%NULL%1,                   Sonia Expósito%Carazo%NULL%1,                   Carlos Román%Guerrero%NULL%1,                   Elena Rojo%Rodríguez%NULL%1,                   Ricardo Moreno%González%NULL%1,                   Julia Hernando%Santos%NULL%1,                   Jara Torrente%Pérez%NULL%1,                   Esperanza Mata%Mena%NULL%1,                   Manuel José Muñoz%Martínez%NULL%1,                   Enrique Alday%Muñoz%NULL%1,                   Patricia Martin%Serrano%NULL%1,                   Laura Cotter%Muñoz%NULL%1,                   Amadea%Mjertan%NULL%1,                   Diego Gutierrez%Martínez%NULL%1,                   Carmen Rodríguez%García%NULL%1,                   Olaya Alonso%Viejo%NULL%1,                   Juan Alvarez%Pereira%NULL%1,                   Ana Carmona%Bonet%NULL%1,                   Diana Parrado%López%NULL%1,                   Eva%de Dios Tomas%NULL%1,                   Rafael Martín%Celemin%NULL%1,                   María Luisa Meilan%Paz%NULL%1,                   Luis Quecedo%Gutiérrez%NULL%1,                   Noemí Diaz%Velasco%NULL%1,                   Gabriel Martin%Hernández%NULL%1,                   Francisco Garcia%del Corral%NULL%1,                   Gloria Hernandez%Arias%NULL%1,                   David Rodriguez%Cuesta%NULL%1,                   Ana Gómez%Rice%NULL%1,                   Encarna Mateos%Sevillano%NULL%1,                   Natalia Olmos%Molpeceres%NULL%1,                   Beatriz%Domínguez%NULL%1,                   Ana Vázquez%Lima%NULL%1,                   Ángel%Candela%NULL%1,                   Ismael A. Acevedo%Bambaren%NULL%1,                   Maria Isabel Albala%Blanco%NULL%1,                   Paloma Alonso%Montoiro%NULL%1,                   Fernando Álvarez%Utrera%NULL%1,                   Juan Avellanosa%Esteruelas%NULL%1,                   Amal Azzam%López%NULL%1,                   Alberto José%Balvis%NULL%1,                   Balvis Tommaso%Bardi%NULL%1,                   María Beltrán%Martín%NULL%1,                   Jacobo Benatar%Haserfaty%NULL%1,                   Alberto Berruezo%Camacho%NULL%1,                   Laura Betolaza%Weimer%NULL%1,                   María%del Mar Carbonell Soto%NULL%1,                   Cristina Carrasco%Seral%NULL%1,                   Cristina Cerro %Zaballos%NULL%1,                   Elizabeth Claros%Llamas%NULL%1,                   Pilar Coleta%Orduna%NULL%1,                   Ingrid P. Cortes%Forero%NULL%1,                   Pascual Agustín Crespo%Aliseda%NULL%1,                   María Angélica%de Pablo Pajares%NULL%1,                   Yolanda Díez%Remesal%NULL%1,                   Trinidad Dorado%Díaz%NULL%1,                   Noemí Echevarría%Blasco%NULL%1,                   María Elena Elías%Martín%NULL%1,                   Javier Felices%Triviño%NULL%1,                   Natalia Fernández%López%NULL%1,                   Cristina Fernández%Martín%NULL%1,                   Natalia Ferreiro%Pozuelo%NULL%1,                   Luis Gajate%Martín%NULL%1,                   Clara Gallego%Santos%NULL%1,                   Diego Gil%Mayo%NULL%1,                   María Gómez%Rojo%NULL%1,                   Claudia González%Cibrián%NULL%1,                   Elena Herrera%López%NULL%1,                   Borja Hinojal%Olmedillo%NULL%1,                   Berta Iglesias%Gallego%NULL%1,                   Sassan%Khonsari%NULL%1,                   María Nuria Mane%Ruiz%NULL%1,                   María Manzanero%Arroyo%NULL%1,                   Ana María Mariscal%Ortega%NULL%1,                   Sara Martín%Burcio%NULL%1,                   María%del Carmen Martín González%NULL%1,                   Ascensión Martín%Grande%NULL%1,                   Jose Juan Martín%López%NULL%1,                   Cecilia Martín%Rabes%NULL%1,                   Marcos Martínez%Borja%NULL%1,                   Nilda Martínez%Castro%NULL%1,                   Adolfo Martínez%Pérez%NULL%1,                   Snejana%Matcan%NULL%1,                   Cristina Medrano%Viñas%NULL%1,                   Lisset Miguel%Herrera%NULL%1,                   Adrián Mira%Betancur%NULL%1,                   María Montiel%Carbajo%NULL%1,                   Javier Moya%Moradas%NULL%1,                   Lorena Muñoz%Pérez%NULL%1,                   Mónica Nuñez%Murias%NULL%1,                   Eva Ordiales%González%NULL%1,                   Óscar Ordoñez%Recio%NULL%1,                   Miguel Ángel Palomero%Rodriguez%NULL%1,                   Diego Parise%Roux%NULL%1,                   Lucia Pereira%Torres%NULL%1,                   David Pestaña%Lagunas%NULL%1,                   Juana María Pinto%Corraliza%NULL%1,                   Marian Prieto%Rodrigo%NULL%1,                   Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                   David Rodriguez%Esteban%NULL%1,                   Víctor Rojas%Pernia%NULL%1,                   Álvaro Ruigómez%Saiz%NULL%1,                   Bárbara Saavedra%Villarino%NULL%1,                   Noemí Samaranch%Palero%NULL%1,                   Gloria Santos%Pérez%NULL%1,                   Jaume Serna%Pérez%NULL%1,                   Ana Belén Serrano%Romero%NULL%1,                   Jesús Tercero%López%NULL%1,                   Carlos Tiscar%García%NULL%1,                   Marta%de la Torre Concostrina%NULL%1,                   Eva María Ureta%Mesa%NULL%1,                   Eva Velasco%Olarte%NULL%1,                   Judith Villahoz%Martínez%NULL%1,                   Raúl Villalaba%Palacios%NULL%1,                   Gema Villanueva%García%NULL%1,                   Cristina Vogel%de Medeiros%NULL%1,                   Soraya Gholamian%Ovejero%NULL%1,                   Marta Vicente%Orgaz%NULL%1,                   Patricia Lloreda%Herradon%NULL%1,                   Cristina Crespo%Gómez%NULL%1,                   Tatiana%Sarmiento-Trujillo%NULL%1,                   Noemí García%Medina%NULL%1,                   María Martínez%García%NULL%1,                   Carles Espinós%Ramírez%NULL%1,                   Nabil Mouhaffel%Rivero%NULL%1,                   Jose Antonio Bernia%Gil%NULL%1,                   Sonsoles%Martín%NULL%1,                   María Victoria%Moral%NULL%1,                   Josefina%Galán%NULL%1,                   Pilar%Paniagua%NULL%1,                   Sergio%Pérez%NULL%1,                   Albert%Bainac%NULL%1,                   Ana%Arias%NULL%1,                   Elsa%Ramil%NULL%1,                   Jorge%Escudero%NULL%1,                   Pablo%Monedero%NULL%1,                   Carmen%Cara%NULL%1,                   Andrea%Lara%NULL%1,                   Elena Mendez%Martínez%NULL%1,                   Jorge%Mendoza%NULL%1,                   Íñigo Rubio%Baines%NULL%1,                   Carmen Sala%Trull%NULL%1,                   Pablo Montero%López%NULL%1,                   Alfredo%Gea%NULL%1,                   Alejandro%Montero%NULL%1,                   Rocío Armero%Ibañez%NULL%1,                   Juan Vicente Llau%Pitarch%NULL%1,                   Fernando Rauer%Alcóver%NULL%1,                   Cristina Álvarez%Herreros%NULL%1,                   Cyntia Sánchez%Martín%NULL%1,                   Lucía López Ocáriz%Olmos%NULL%1,                   Marta Navas%Moruno%NULL%1,                   Fernando García%Montoto%NULL%1,                   M. F. Mirón%Rodriguez%NULL%1,                   Laura Fuentes%Coco%NULL%1,                   Cristina Hernández%Gamito%NULL%1,                   Antonio Barba%Orejudo%NULL%1,                   Luis Gerardo Smith%Vielma%NULL%1,                   Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                   Marta Donoso%Domínguez%NULL%1,                   Silvia Esquivel%Ramírez%NULL%1,                   José Antonio%Carbonell%NULL%1,                   Berta Monleón%López%NULL%1,                   Sara%Martínez-Castro%NULL%1,                   Gerardo%Aguilar%NULL%1,                   María Gestal Pablo%Casas%NULL%1,                   Angel Outeiro%Rosato%NULL%1,                   Andrea Naveiro%Pan%NULL%1,                   María Alonso%Portela%NULL%1,                   Adrián García%Romar%NULL%1,                   Eva Mosquera%Rodríguez%NULL%1,                   Diego Ruanova%Seijo%NULL%1,                   Pablo Rama%Maceiras%NULL%1,                   Francisco%Castro-Ceoane%NULL%1,                   Esther Moreno%López%NULL%1,                   Sergio%Gil%NULL%1,                   Julia Guillén%Antón%NULL%1,                   Patricia García-Consuegra%Tirado%NULL%1,                   Aurora Callau%Calvo%NULL%1,                   Laura Forés%Lisbona%NULL%1,                   María Carbonell%Romero%NULL%1,                   Belén Albericio%Gil%NULL%1,                   Laura Pradal%Jarne%NULL%1,                   María Soria%Lozano%NULL%1,                   Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                   Navjot Ariyana%Kaur%NULL%1,                   Daniel%Sacher%NULL%1,                   Oisin%O’Corragain%NULL%1,                   Daniel%Salerno%NULL%1,                   Parag%Desai%NULL%1,                   Sameep%Sehgal%NULL%1,                   Matthew%Gordon%NULL%2,                   Rohit%Gupta%NULL%2,                   Nathaniel%Marchetti%NULL%1,                   Huaqing%Zhao%NULL%2,                   Nicole%Patlakh%NULL%2,                   Gerard J.%Criner%NULL%1,                   Temple%University%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                   Dominik%Jarczak%NULL%1,                   Liina%Thasler%NULL%1,                   Martin%Bachmann%NULL%1,                   Frank%Schulte%NULL%1,                   Berthold%Bein%NULL%1,                   Christian Friedrich%Weber%NULL%1,                   Ulrich%Schäfer%NULL%1,                   Carsten%Veit%NULL%1,                   Hans-Peter%Hauber%NULL%1,                   Sebastian%Kopp%NULL%1,                   Karsten%Sydow%NULL%1,                   Andreas%de Weerth%NULL%0,                   Marc%Bota%NULL%1,                   Rüdiger%Schreiber%NULL%1,                   Oliver%Detsch%NULL%1,                   Jan-Peer%Rogmann%NULL%1,                   Daniel%Frings%NULL%0,                   Barbara%Sensen%NULL%1,                   Christoph%Burdelski%NULL%0,                   Olaf%Boenisch%NULL%1,                   Axel%Nierhaus%NULL%0,                   Geraldine%de Heer%NULL%0,                   Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1531,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1524,7 +1560,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1553,7 +1589,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1582,7 +1618,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1611,7 +1647,7 @@
         <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1640,7 +1676,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1669,7 +1705,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1698,7 +1734,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1727,7 +1763,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1756,7 +1792,7 @@
         <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1785,7 +1821,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1814,7 +1850,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="366">
   <si>
     <t>Doi</t>
   </si>
@@ -1135,6 +1135,189 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,                   Dominik%Jarczak%NULL%1,                   Liina%Thasler%NULL%1,                   Martin%Bachmann%NULL%1,                   Frank%Schulte%NULL%1,                   Berthold%Bein%NULL%1,                   Christian Friedrich%Weber%NULL%1,                   Ulrich%Schäfer%NULL%1,                   Carsten%Veit%NULL%1,                   Hans-Peter%Hauber%NULL%1,                   Sebastian%Kopp%NULL%1,                   Karsten%Sydow%NULL%1,                   Andreas%de Weerth%NULL%0,                   Marc%Bota%NULL%1,                   Rüdiger%Schreiber%NULL%1,                   Oliver%Detsch%NULL%1,                   Jan-Peer%Rogmann%NULL%1,                   Daniel%Frings%NULL%0,                   Barbara%Sensen%NULL%1,                   Christoph%Burdelski%NULL%0,                   Olaf%Boenisch%NULL%1,                   Axel%Nierhaus%NULL%0,                   Geraldine%de Heer%NULL%0,                   Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                    Paolo%Comassi%NULL%1,                    Luca%Adriani%NULL%1,                    Giulio%Bergamaschini%NULL%1,                    Elena%Bertin%NULL%1,                    Raffaella%Borromeo%NULL%1,                    Serena%Corti%NULL%1,                    Federica%De Petri%NULL%1,                    Francesco%Dolci%NULL%1,                    Attilio%Galmozzi%NULL%1,                    Alberto%Gigliotti%NULL%1,                    Livio%Gualdoni%NULL%1,                    Claudia%Guerra%NULL%1,                    Anna%Khosthiova%NULL%1,                    Giovanni%Leati%NULL%1,                    Giuseppe%Lupi%NULL%1,                    Paolo%Moscato%NULL%1,                    Vittorio%Perotti%NULL%1,                    Miriam%Piantelli%NULL%1,                    Alain%Ruini%NULL%1,                    Silvia%Sportelli%NULL%1,                    Micaela%Susca%NULL%1,                    Carmine%Troiano%NULL%1,                    Giampaolo%Benelli%NULL%1,                    Elisabetta%Buscarini%NULL%1,                    Ciro%Canetta%NULL%1,                    Guido%Merli%NULL%1,                    Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                    Emna%Ennouri%NULL%1,                    Rayane%Nachi%NULL%1,                    Khaoula%Meddeb%NULL%1,                    Jihene%Mahmoud%NULL%1,                    Nesrine%Thabet%NULL%1,                    Salma%Jerbi%NULL%1,                    Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                    Eleni%Xourgia%NULL%1,                    Theodora K.%Ntaidou%NULL%1,                    Dimitris%Zervakis%NULL%1,                    Eleni E.%Magira%NULL%1,                    Anastasia%Kotanidou%NULL%1,                    Christina%Routsi%NULL%1,                    Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                    Carina%Mostert%NULL%1,                    Corinna%Hentschker%NULL%1,                    Thomas%Voshaar%NULL%1,                    Jürgen%Malzahn%NULL%1,                    Gerhard%Schillinger%NULL%1,                    Jürgen%Klauber%NULL%1,                    Uwe%Janssens%NULL%1,                    Gernot%Marx%NULL%1,                    Steffen%Weber-Carstens%NULL%1,                    Stefan%Kluge%NULL%0,                    Michael%Pfeifer%NULL%1,                    Linus%Grabenhenrich%NULL%1,                    Tobias%Welte%NULL%1,                    Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                    David%Hajage%NULL%2,                    David%Hajage%NULL%0,                    Alexandre%Demoule%NULL%1,                    Tài%Pham%NULL%1,                    Alain%Combes%NULL%1,                    Martin%Dres%NULL%1,                    Said%Lebbah%NULL%1,                    Antoine%Kimmoun%NULL%1,                    Alain%Mercat%NULL%1,                    Gaëtan%Beduneau%NULL%1,                    Jessica%Palmyre%NULL%1,                    Margot%Prevost%NULL%1,                    Pierre%Asfar%NULL%1,                    François%Beloncle%NULL%1,                    Julien%Demiselle%NULL%1,                    Arthur%Pavot%NULL%1,                    Xavier%Monnet%NULL%1,                    Christian%Richard%NULL%1,                    Julien%Mayaux%NULL%1,                    Alexandra%Beurton%NULL%1,                    Richard%Descamps%NULL%1,                    Aurélie%Joret%NULL%1,                    Damien%Du Cheyron%NULL%1,                    Frédéric%Pene%NULL%1,                    Jean-Daniel%Chiche%NULL%1,                    Mathieu%Jozwiak%NULL%1,                    Paul%Jaubert%NULL%1,                    Guillaume%Voiriot%NULL%1,                    Muriel%Fartoukh%NULL%1,                    Marion%Teulier%NULL%1,                    Clarisse%Blayau%NULL%1,                    Erwen%L’Her%NULL%1,                    Cécile%Aubron%NULL%1,                    Laetitia%Bodenes%NULL%1,                    Nicolas%Ferriere%NULL%1,                    Johann%Auchabie%NULL%1,                    Anthony%Le Meur%NULL%1,                    Sylvain%Pignal%NULL%1,                    Thierry%Mazzoni%NULL%1,                    Jean-Pierre%Quenot%NULL%1,                    Pascal%Andreu%NULL%1,                    Jean-Baptiste%Roudau%NULL%1,                    Marie%Labruyère%NULL%1,                    Saad%Nseir%NULL%0,                    Sébastien%Preau%NULL%1,                    Julien%Poissy%NULL%0,                    Daniel%Mathieu%NULL%0,                    Sarah%Benhamida%NULL%1,                    Rémi%Paulet%NULL%1,                    Nicolas%Roucaud%NULL%1,                    Martial%Thyrault%NULL%1,                    Florence%Daviet%NULL%1,                    Sami%Hraiech%NULL%1,                    Gabriel%Parzy%NULL%1,                    Aude%Sylvestre%NULL%1,                    Sébastien%Jochmans%NULL%1,                    Anne-Laure%Bouilland%NULL%1,                    Mehran%Monchi%NULL%1,                    Marc%Danguy des Déserts%NULL%1,                    Quentin%Mathais%NULL%1,                    Gwendoline%Rager%NULL%1,                    Pierre%Pasquier%NULL%1,                    Reignier%Jean%NULL%1,                    Seguin%Amélie%NULL%1,                    Garret%Charlotte%NULL%1,                    Canet%Emmanuel%NULL%1,                    Jean%Dellamonica%NULL%1,                    Clément%Saccheri%NULL%1,                    Romain%Lombardi%NULL%1,                    Yanis%Kouchit%NULL%1,                    Sophie%Jacquier%NULL%1,                    Armelle%Mathonnet%NULL%1,                    Mai-Ahn%Nay%NULL%1,                    Isabelle%Runge%NULL%1,                    Frédéric%Martino%NULL%1,                    Laure%Flurin%NULL%1,                    Amélie%Rolle%NULL%1,                    Michel%Carles%NULL%1,                    Rémi%Coudroy%NULL%1,                    Arnaud W.%Thille%NULL%1,                    Jean-Pierre%Frat%NULL%1,                    Maeva%Rodriguez%NULL%1,                    Pascal%Beuret%NULL%1,                    Audrey%Tientcheu%NULL%1,                    Arthur%Vincent%NULL%1,                    Florian%Michelin%NULL%1,                    Marie Anne%Melone%NULL%1,                    Maxime%Gauzi%NULL%1,                    Arnaud%Guilbert%NULL%1,                    Geoffrey%Kouadri%NULL%1,                    Valérie%Gissot%NULL%1,                    Stéphan%Ehrmann%NULL%1,                    Charlotte%Salmon-Gandonnière%NULL%1,                    Djlali%Elaroussi%NULL%1,                    Agathe%Delbove%NULL%1,                    Yannick%Fedun%NULL%1,                    Julien%Huntzinger%NULL%1,                    Eddy%Lebas%NULL%1,                    Grâce%Kisoka%NULL%1,                    Céline%Grégoire%NULL%1,                    Stella%Marchetta%NULL%1,                    Bernard%Lambermont%NULL%1,                    Laurent%Argaud%NULL%1,                    Thomas%Baudry%NULL%1,                    Pierre-Jean%Bertrand%NULL%1,                    Auguste%Dargent%NULL%1,                    Christophe%Guitton%NULL%1,                    Nicolas%Chudeau%NULL%1,                    Mickaël%Landais%NULL%1,                    Cédric%Darreau%NULL%1,                    Alexis%Ferre%NULL%1,                    Antoine%Gros%NULL%1,                    Guillaume%Lacave%NULL%1,                    Fabrice%Bruneel%NULL%1,                    Mathilde%Neuville%NULL%1,                    Jérôme%Devaquet%NULL%1,                    Guillaume%Tachon%NULL%1,                    Richard%Gallot%NULL%1,                    Riad%Chelha%NULL%1,                    Arnaud%Galbois%NULL%1,                    Anne%Jallot%NULL%1,                    Ludivine Chalumeau%Lemoine%NULL%1,                    Khaldoun%Kuteifan%NULL%1,                    Valentin%Pointurier%NULL%1,                    Louise-Marie%Jandeaux%NULL%1,                    Joy%Mootien%NULL%1,                    Charles%Damoisel%NULL%1,                    Benjamin%Sztrymf%NULL%1,                    Juliette%Chommeloux%NULL%1,                    Charles Edouard%Luyt%NULL%1,                    Frédérique%Schortgen%NULL%1,                    Leon%Rusel%NULL%1,                    Camille%Jung%NULL%1,                    Florent%Gobert%NULL%1,                    Damien%Vimpere%NULL%1,                    Lionel%Lamhaut%NULL%1,                    Bertrand%Sauneuf%NULL%1,                    Liliane%Charrier%NULL%1,                    Julien%Calus%NULL%1,                    Isabelle%Desmeules%NULL%1,                    Benoît%Painvin%NULL%1,                    Jean-Marc%Tadie%NULL%1,                    Vincent%Castelain%NULL%1,                    Baptiste%Michard%NULL%1,                    Jean-Etienne%Herbrecht%NULL%1,                    Mathieu%Baldacini%NULL%1,                    Nicolas%Weiss%NULL%1,                    Sophie%Demeret%NULL%1,                    Clémence%Marois%NULL%1,                    Benjamin%Rohaut%NULL%1,                    Pierre-Henri%Moury%NULL%1,                    Anne-Charlotte%Savida%NULL%1,                    Emmanuel%Couadau%NULL%1,                    Mathieu%Série%NULL%1,                    Nica%Alexandru%NULL%1,                    Cédric%Bruel%NULL%1,                    Candice%Fontaine%NULL%1,                    Sonia%Garrigou%NULL%1,                    Juliette Courtiade%Mahler%NULL%1,                    Maxime%Leclerc%NULL%1,                    Michel%Ramakers%NULL%1,                    Pierre%Garçon%NULL%1,                    Nicole%Massou%NULL%1,                    Ly Phacs%Van Vong%NULL%1,                    Juliane%Sen%NULL%1,                    Nolwenn%Lucas%NULL%1,                    Franck%Chemouni%NULL%1,                    Annabelle%Stoclin%NULL%1,                    Alexandre%Avenel%NULL%1,                    Henri%Faure%NULL%1,                    Angélie%Gentilhomme%NULL%1,                    Sylvie%Ricome%NULL%1,                    Paul%Abraham%NULL%1,                    Céline%Monard%NULL%1,                    Julien%Textoris%NULL%1,                    Thomas%Rimmele%NULL%1,                    Florent%Montini%NULL%1,                    Gabriel%Lejour%NULL%1,                    Thierry%Lazard%NULL%1,                    Isabelle%Etienney%NULL%1,                    Younes%Kerroumi%NULL%1,                    Dupuis%Claire%NULL%1,                    Bereiziat Marine%Coupez%NULL%1,                    Thouy%François%NULL%1,                    Clémet%Hoffmann%NULL%1,                    Nicolas%Donat%NULL%1,                    Violaine%Muller%NULL%1,                    Thibault%Martinez%NULL%1,                    Audrey%Jacquot%NULL%1,                    Matthieu%Mattei%NULL%1,                    Bruno%Levy%NULL%1,                    Ramin%Ravan%NULL%1,                    Loïc%Dopeux%NULL%1,                    Jean-Mathias%Liteaudon%NULL%1,                    Delphine%Roux%NULL%1,                    Brice%Rey%NULL%1,                    Radu%Anghel%NULL%1,                    Deborah%Schenesse%NULL%1,                    Vincent%Gevrey%NULL%1,                    Jermy%Castanera%NULL%1,                    Philippe%Petua%NULL%1,                    Benjamin%Madeux%NULL%1,                    Otto%Hartman%NULL%1,                    Michael%Piagnerelli%NULL%1,                    Anne%Joosten%NULL%1,                    Cinderella%Noel%NULL%1,                    Patrick%Biston%NULL%1,                    Thibaut%Noel%NULL%1,                    Gurvan L. E.%Bouar%NULL%1,                    Messabi%Boukhanza%NULL%1,                    Elsa%Demarest%NULL%1,                    Marie-France%Bajolet%NULL%1,                    Nathanaël%Charrier%NULL%1,                    Audrey%Quenet%NULL%1,                    Cécile%Zylberfajn%NULL%1,                    Nicolas%Dufour%NULL%1,                    Buno%Mégarbane%NULL%1,                    Sqébastian%Voicu%NULL%1,                    Nicolas%Deye%NULL%1,                    Isabelle%Malissin%NULL%1,                    François%Legay%NULL%1,                    Matthieu%Debarre%NULL%1,                    Nicolas%Barbarot%NULL%1,                    Pierre%Fillatre%NULL%1,                    Bertrand%Delord%NULL%1,                    Thomas%Laterrade%NULL%1,                    Tahar%Saghi%NULL%1,                    Wilfried%Pujol%NULL%1,                    Pierre Julien%Cungi%NULL%1,                    Pierre%Esnault%NULL%1,                    Mickael%Cardinale%NULL%1,                    Vivien%Hong Tuan Ha%NULL%1,                    Grégory%Fleury%NULL%1,                    Marie-Ange%Brou%NULL%1,                    Daniel%Zafimahazo%NULL%1,                    David%Tran-Van%NULL%1,                    Patrick%Avargues%NULL%1,                    Lisa%Carenco%NULL%1,                    Nicolas%Robin%NULL%1,                    Alexandre%Ouali%NULL%1,                    Lucie%Houdou%NULL%1,                    Christophe%Le Terrier%NULL%1,                    Noémie%Suh%NULL%1,                    Steve%Primmaz%NULL%1,                    Jérome%Pugin%NULL%1,                    Emmanuel%Weiss%NULL%1,                    Tobias%Gauss%NULL%1,                    Jean-Denis%Moyer%NULL%1,                    Catherine%Paugam-Burtz%NULL%1,                    Béatrice%La Combe%NULL%1,                    Rolland%Smonig%NULL%1,                    Jade%Violleau%NULL%1,                    Pauline%Cailliez%NULL%1,                    Jonathan%Chelly%NULL%1,                    Antoine%Marchalot%NULL%1,                    Cécile%Saladin%NULL%1,                    Christelle%Bigot%NULL%1,                    Pierre-Marie%Fayolle%NULL%1,                    Jules%Fatséas%NULL%1,                    Amr%Ibrahim%NULL%1,                    Dabor%Resiere%NULL%1,                    Rabih%Hage%NULL%1,                    Clémentine%Cholet%NULL%1,                    Marie%Cantier%NULL%1,                    Pierre%Trouiller%NULL%1,                    Philippe%Montravers%NULL%1,                    Brice%Lortat-Jacob%NULL%1,                    Sebastien%Tanaka%NULL%1,                    Alexy%Tran-Dinh%NULL%1,                    Jacques%Duranteau%NULL%1,                    Anatole%Harrois%NULL%1,                    Guillaume%Dubreuil%NULL%1,                    Marie%Werner%NULL%1,                    Anne%Godier%NULL%1,                    Sophie%Hamada%NULL%1,                    Diane%Zlotnik%NULL%1,                    Hélène%Nougue%NULL%1,                    Armand%Mekontso-Dessap%NULL%1,                    Guillaume%Carteaux%NULL%1,                    Keyvan%Razazi%NULL%1,                    Nicolas%De Prost%NULL%1,                    Nicolas%Mongardon%NULL%1,                    Olivier%Langeron%NULL%1,                    Eric%Levesque%NULL%1,                    Arié%Attias%NULL%1,                    Charles%de Roquetaillade%NULL%1,                    Benjamin G.%Chousterman%NULL%1,                    Alexandre%Mebazaa%NULL%1,                    Etienne%Gayat%NULL%1,                    Marc%Garnier%NULL%1,                    Emmanuel%Pardo%NULL%1,                    Lea%Satre-Buisson%NULL%1,                    Christophe%Gutton%NULL%1,                    Elise%Yvin%NULL%1,                    Clémence%Marcault%NULL%1,                    Elie%Azoulay%NULL%1,                    Michael%Darmon%NULL%1,                    Nicolas%Bonnet%NULL%1,                    Nathan%Ebstein%NULL%1,                    Stéphane%Gaudry%NULL%1,                    Yves%Cohen%NULL%1,                     Hafid%Ait-Oufella%NULL%1,                    Geoffroy%Hariri%NULL%1,                    Tomas%Urbina%NULL%1,                    Sandie%Mazerand%NULL%1,                    Nicholas%Heming%NULL%1,                    Francesca%Santi%NULL%1,                    Pierre%Moine%NULL%1,                    Djillali%Annane%NULL%1,                    Adrien%Bouglé%NULL%1,                    Edris%Omar%NULL%1,                    Aymeric%Lancelot%NULL%1,                    Emmanuelle%Begot%NULL%1,                    Gaétan%Plantefeve%NULL%1,                    Damien%Contou%NULL%1,                    Hervé%Mentec%NULL%1,                    Olivier%Pajot%NULL%1,                    Stanislas%Faguer%NULL%1,                    Olivier%Cointault%NULL%1,                    Laurence%Lavayssiere%NULL%1,                    Marie-Béatrice%Nogier%NULL%1,                    Matthieu%Jamme%NULL%1,                    Claire%Pichereau%NULL%1,                    Jan%Hayon%NULL%1,                    Hervé%Outin%NULL%1,                    François%Dépret%NULL%1,                    Maxime%Coutrot%NULL%1,                    Maité%Chaussard%NULL%1,                    Lucie%Guillemet%NULL%1,                    Pierre%Goffin%NULL%1,                    Romain%Thouny%NULL%1,                    Julien%Guntz%NULL%1,                    Laurent%Jadot%NULL%1,                    Romain%Persichini%NULL%1,                    Vanessa%Jean-Michel%NULL%1,                    Hugues%Georges%NULL%1,                    Thomas%Caulier%NULL%1,                    Gaël%Pradel%NULL%1,                    Marie-Hélène%Hausermann%NULL%1,                    ThiMy Hue%Nguyen-Valat%NULL%1,                    Michel%Boudinaud%NULL%1,                    Emmanuel%Vivier%NULL%1,                    Sylvène%Rosseli%NULL%1,                    Gaël%Bourdin%NULL%1,                    Christian%Pommier%NULL%1,                    Marc%Vinclair%NULL%1,                    Simon%Poignant%NULL%1,                    Sandrine%Mons%NULL%1,                    Wulfran%Bougouin%NULL%1,                    Franklin%Bruna%NULL%1,                    Quentin%Maestraggi%NULL%1,                    Christian%Roth%NULL%1,                    Laurent%Bitker%NULL%1,                    François%Dhelft%NULL%1,                    Justine%Bonnet-Chateau%NULL%1,                    Mathilde%Filippelli%NULL%1,                    Tristan%Morichau-Beauchant%NULL%1,                    Stéphane%Thierry%NULL%1,                    Charlotte%Le Roy%NULL%1,                    Mélanie%Saint Jouan%NULL%1,                    Bruno%Goncalves%NULL%1,                    Aurélien%Mazeraud%NULL%1,                    Matthieu%Daniel%NULL%1,                    Tarek%Sharshar%NULL%1,                    Cyril%Cadoz%NULL%1,                    Rostane%Gaci%NULL%1,                    Sébastien%Gette%NULL%1,                    Guillaune%Louis%NULL%1,                    Sophe-Caroline%Sacleux%NULL%1,                    Marie-Amélie%Ordan%NULL%1,                    Aurélie%Cravoisy%NULL%1,                    Marie%Conrad%NULL%1,                    Guilhem%Courte%NULL%1,                    Sébastien%Gibot%NULL%1,                    Younès%Benzidi%NULL%1,                    Claudia%Casella%NULL%1,                    Laurent%Serpin%NULL%1,                    Jean-Lou%Setti%NULL%1,                    Marie-Catherine%Besse%NULL%1,                    Anna%Bourreau%NULL%1,                    Jérôme%Pillot%NULL%1,                    Caroline%Rivera%NULL%1,                    Camille%Vinclair%NULL%1,                    Marie-Aline%Robaux%NULL%1,                    Chloé%Achino%NULL%1,                    Marie-Charlotte%Delignette%NULL%1,                    Tessa%Mazard%NULL%1,                    Frédéric%Aubrun%NULL%1,                    Bruno%Bouchet%NULL%1,                    Aurélien%Frérou%NULL%1,                    Laura%Muller%NULL%1,                    Charlotte%Quentin%NULL%1,                    Samuel%Degoul%NULL%1,                    Xavier%Stihle%NULL%1,                    Claude%Sumian%NULL%1,                    Nicoletta%Bergero%NULL%1,                    Bernard%Lanaspre%NULL%1,                    Hervé%Quintard%NULL%1,                    Eve Marie%Maiziere%NULL%1,                    Pierre-Yves%Egreteau%NULL%1,                    Guillaume%Leloup%NULL%1,                    Florin%Berteau%NULL%1,                    Marjolaine%Cottrel%NULL%1,                    Marie%Bouteloup%NULL%1,                    Matthieu%Jeannot%NULL%1,                    Quentin%Blanc%NULL%1,                    Julien%Saison%NULL%1,                    Isabelle%Geneau%NULL%1,                    Romaric%Grenot%NULL%1,                    Abdel%Ouchike%NULL%1,                    Pascal%Hazera%NULL%1,                    Anne-Lyse%Masse%NULL%1,                    Suela%Demiri%NULL%1,                    Corinne%Vezinet%NULL%1,                    Elodie%Baron%NULL%1,                    Déborah%Benchetrit%NULL%1,                    Antoine%Monsel%NULL%1,                    Grégoire%Trebbia%NULL%1,                    Emmanuelle%Schaack%NULL%1,                    Raphaël%Lepecq%NULL%1,                    Mathieu%Bobet%NULL%1,                    Christophe%Vinsonneau%NULL%1,                    Thibault%Dekeyser%NULL%1,                    Quentin%Delforge%NULL%1,                    Imen%Rahmani%NULL%1,                    Bérengère%Vivet%NULL%1,                    Jonathan%Paillot%NULL%1,                    Lucie%Hierle%NULL%1,                    Claire%Chaignat%NULL%1,                    Sarah%Valette%NULL%1,                    Benoït%Her%NULL%1,                    Jennifier%Brunet%NULL%1,                    Mathieu%Page%NULL%1,                    Fabienne%Boiste%NULL%1,                    Anthony%Collin%NULL%1,                    Florent%Bavozet%NULL%2,                    Aude%Garin%NULL%1,                    Mohamed%Dlala%NULL%1,                    Kais%Mhamdi%NULL%1,                    Bassem%Beilouny%NULL%1,                    Alexandra%Lavalard%NULL%1,                    Severine%Perez%NULL%1,                    Benoit%Veber%NULL%1,                    Pierre-Gildas%Guitard%NULL%1,                    Philippe%Gouin%NULL%1,                    Anna%Lamacz%NULL%1,                    Fabienne%Plouvier%NULL%1,                    Bertrand P.%Delaborde%NULL%1,                    Aïssa%Kherchache%NULL%1,                    Amina%Chaalal%NULL%1,                    Jean-Damien%Ricard%NULL%1,                    Marc%Amouretti%NULL%1,                    Santiago%Freita-Ramos%NULL%1,                    Damien%Roux%NULL%1,                    Jean-Michel%Constantin%NULL%1,                    Mona%Assefi%NULL%1,                    Marine%Lecore%NULL%1,                    Agathe%Selves%NULL%1,                    Florian%Prevost%NULL%1,                    Christian%Lamer%NULL%1,                    Ruiying%Shi%NULL%1,                    Lyes%Knani%NULL%1,                    Sébastien%Pili-Floury%NULL%1,                    Lucie%Vettoretti%NULL%1,                    Michael%Levy%NULL%1,                    Lucile%Marsac%NULL%1,                    Stéphane%Dauger%NULL%1,                    Sophie%Guilmin-Crépon%NULL%1,                    Jean-Baptiste%Putegnat%NULL%1,                    Frédérique%Bayle%NULL%1,                    Maya%Perrou%NULL%1,                    Ghyslaine%Thao%NULL%1,                    Guillaume%Géri%NULL%1,                    Cyril%Charron%NULL%1,                    Xavier%Repessé%NULL%1,                    Antoine%Vieillard-Baron%NULL%1,                    Mathieu%Guilbart%NULL%1,                    Pierre-Alexandre%Roger%NULL%1,                    Sébastien%Hinard%NULL%1,                    Pierre-Yves%Macq%NULL%1,                    Kevin%Chaulier%NULL%1,                    Sylvie%Goutte%NULL%1,                    Patrick%Chillet%NULL%1,                    Anaïs%Pitta%NULL%1,                    Barbara%Darjent%NULL%1,                    Amandine%Bruneau%NULL%1,                    Sigismond%Lasocki%NULL%1,                    Maxime%Leger%NULL%1,                    Soizic%Gergaud%NULL%1,                    Pierre%Lemarie%NULL%1,                    Nicolas%Terzi%NULL%1,                    Carole%Schwebel%NULL%1,                    Anaïs%Dartevel%NULL%1,                    Louis-Marie%Galerneau%NULL%1,                    Jean-Luc%Diehl%NULL%1,                    Caroline%Hauw-Berlemont%NULL%0,                    Nicolas%Péron%NULL%1,                    Emmanuel%Guérot%NULL%1,                    Abolfazl Mohebbi%Amoli%NULL%1,                    Michel%Benhamou%NULL%1,                    Jean-Pierre%Deyme%NULL%1,                    Olivier%Andremont%NULL%1,                    Diane%Lena%NULL%1,                    Julien%Cady%NULL%1,                    Arnaud%Causeret%NULL%1,                    Arnaud%De La Chapelle%NULL%1,                    Christophe%Cracco%NULL%1,                    Stéphane%Rouleau%NULL%1,                    David%Schnell%NULL%1,                    Cécile%Lory%NULL%1,                    Thibault%Chapelle%NULL%1,                    Vincent%Bruckert%NULL%1,                    Julie%Garcia%NULL%1,                    Abdlazize%Sahraoui%NULL%1,                    Nathalie%Abbosh%NULL%1,                    Caroline%Bornstain%NULL%1,                    Pierre%Pernet%NULL%1,                    Florent%Poirson%NULL%1,                    Ahmed%Pasem%NULL%1,                    Philippe%Karoubi%NULL%1,                    Virginie%Poupinel%NULL%1,                    Caroline%Gauthier%NULL%1,                    François%Bouniol%NULL%1,                    Philippe%Feuchere%NULL%1,                    Florent%Bavozet%NULL%0,                    Anne%Heron%NULL%1,                    Serge%Carreira%NULL%1,                    Malo%Emery%NULL%1,                    Anne%Le Floch%NULL%1,                    Luana%Giovannangeli%NULL%1,                    Nicolas%Herzog%NULL%1,                    Christophe%Giacardi%NULL%1,                    Thibaut%Baudic%NULL%1,                    Chloé%Thill%NULL%1,                    Florence%Tubach%NULL%1,                    Olivier%Lesieur%NULL%1,                    Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%2,                    Max W.%Adelman%NULL%2,                    Maxwell A.%Hockstein%NULL%1,                    Chad J.%Robichaux%NULL%1,                    Johnathan A.%Edwards%NULL%1,                    Jane C.%Fazio%NULL%1,                    James M.%Blum%NULL%3,                    Craig S.%Jabaley%NULL%2,                    Mark%Caridi-Scheible%NULL%2,                    Greg S.%Martin%NULL%2,                    David J.%Murphy%NULL%3,                    Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                  Antonelli%M.%coreGivesNoEmail%0,                  Bellani%G.%coreGivesNoEmail%0,                  Bonanomi%E.%coreGivesNoEmail%0,                  Cabrini%L.%coreGivesNoEmail%0,                  Carlesso%E.%coreGivesNoEmail%0,                  Castelli%G.%coreGivesNoEmail%0,                  Cattaneo%S.%coreGivesNoEmail%0,                  Cecconi%M.%coreGivesNoEmail%0,                  Cereda%D.%coreGivesNoEmail%0,                  Colombo%S.%coreGivesNoEmail%0,                  Coluccello%A.%coreGivesNoEmail%0,                  Crescini%G.%coreGivesNoEmail%0,                  Forastieri%Molinari A.%coreGivesNoEmail%0,                  Foti%G.%coreGivesNoEmail%0,                  Fumagalli%R.%coreGivesNoEmail%0,                  Grasselli%G.%coreGivesNoEmail%0,                  Greco%M.%coreGivesNoEmail%0,                  Iotti%G. A.%coreGivesNoEmail%0,                  Langer%T.%coreGivesNoEmail%0,                  Latronico%N.%coreGivesNoEmail%0,                  Lorini%F. L.%coreGivesNoEmail%0,                  Mojoli%F.%coreGivesNoEmail%0,                  Natalini%G.%coreGivesNoEmail%0,                  Pesenti%A.%coreGivesNoEmail%0,                  Pessina%C. M.%coreGivesNoEmail%0,                  Ranieri%V. M.%coreGivesNoEmail%0,                  Rech%R.%coreGivesNoEmail%0,                  Rosano%A.%coreGivesNoEmail%0,                  Scudeller%L.%coreGivesNoEmail%0,                  Storti%E.%coreGivesNoEmail%0,                  Thompson%B. T.%coreGivesNoEmail%0,                  Tirani%M.%coreGivesNoEmail%0,                  Villani%P. G.%coreGivesNoEmail%0,                  Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                    Keum-Ju%Choi%NULL%1,                    Sun Ha%Choi%NULL%1,                    Shin Yup%Lee%NULL%1,                    Kyung Chan%Kim%NULL%1,                    Eun Jin%Kim%NULL%1,                    Jaehee%Lee%NULL%2,                    Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                    Siddique%Chaudhary%NULL%1,                    Kevin%Bryan Lo%NULL%2,                    Kevin%Bryan Lo%NULL%0,                    Robert%DeJoy%NULL%1,                    Fahad%Gul%NULL%1,                    Ricardo%Torres%NULL%1,                    Neal%Chaisson%NULL%2,                    Neal%Chaisson%NULL%0,                    Gabriel%Patarroyo-Aponte%NULL%2,                    Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                    Bruno L.%Ferreyro%NULL%2,                    Bruno L.%Ferreyro%NULL%0,                    Federico%Angriman%NULL%1,                    María%Hernández-Sanz%NULL%2,                    Egoitz%Arruti%NULL%1,                    Antoni%Torres%NULL%2,                    Jesús%Villar%NULL%1,                    Laurent%Brochard%NULL%1,                    Carlos%Ferrando%NULL%2,                    Ricard%Mellado-Artigas%NULL%1,                    María%Hernández-Sanz%NULL%0,                    Carlos%Ferrando%NULL%0,                    Marina%Vendrell%NULL%1,                    Gerard%Sánchez-Etayo%NULL%1,                    Amalia%Alcón%NULL%1,                    Isabel%Belda%NULL%1,                    Mercé%Agustí%NULL%1,                    Albert%Carramiñana%NULL%1,                    Isabel%Gracia%NULL%1,                    Miriam%Panzeri%NULL%1,                    Irene%León%NULL%1,                    Jaume%Balust%NULL%1,                    Ricard%Navarro%NULL%2,                    María José%Arguís%NULL%1,                    María José%Carretero%NULL%1,                    Cristina%Ibáñez%NULL%1,                    Juan%Perdomo%NULL%1,                    Antonio%López%NULL%1,                    Manuel%López-Baamonde%NULL%1,                    Tomás%Cuñat%NULL%1,                    Marta%Ubré%NULL%1,                    Antonio%Ojeda%NULL%1,                    Andrea%Calvo%NULL%1,                    Eva%Rivas%NULL%1,                    Paola%Hurtado%NULL%1,                    Roger%Pujol%NULL%1,                    Nuria%Martín%NULL%1,                    Javier%Tercero%NULL%1,                    Pepe%Sanahuja%NULL%1,                    Marta%Magaldi%NULL%1,                    Miquel%Coca%NULL%1,                    Elena%del Rio%NULL%1,                    Julia%Martínez-Ocon%NULL%1,                    Paula%Masgoret%NULL%1,                    Monserrat%Tio%NULL%1,                    Angel%Caballero%NULL%1,                    Raquel%Risco%NULL%1,                    Raquel%Bergé%NULL%1,                    Lidia%Gómez%NULL%1,                    Nicolás%de Riva%NULL%1,                    Ana%Ruiz%NULL%1,                    Beatriz%Tena%NULL%1,                    Sebastián%Jaramillo%NULL%1,                    José María%Balibrea%NULL%1,                    Francisco Borja de Borja%de Lacy%NULL%1,                    Ana%Otero%NULL%1,                    Ainitze%Ibarzabal%NULL%1,                    Raquel%Bravo%NULL%1,                    Anna%Carreras%NULL%1,                    Daniel%Martín-Barreda%NULL%1,                    Alfonso Jesús%Alias%NULL%1,                    Mariano%Balaguer%NULL%1,                    Jorge%Aliaga%NULL%1,                    Alex%Almuedo%NULL%1,                    Joan Ramón%Alonso%NULL%1,                    Rut%Andrea%NULL%1,                    Gerard Sergi%Angelès%NULL%1,                     Marilyn%Arias%NULL%1,                    Fátima%Aziz%NULL%1,                    Joan Ramon%Badía%NULL%1,                    Enric%Barbeta%NULL%1,                    Toni%Torres%NULL%1,                    Guillem%Batiste%NULL%1,                    Pau%Benet%NULL%1,                    Xavi%Borrat%NULL%1,                    María%Borrell%NULL%1,                    Ernest%Bragulat%NULL%1,                    Inmaculada%Carmona%NULL%1,                    Manuel%Castellà%NULL%1,                    Pedro%Castro%NULL%1,                    Joan%Ceravalls%NULL%1,                    Oscar%Comino%NULL%1,                    Claudia%Cucciniello%NULL%1,                    Clàudia%De Deray%NULL%1,                    Oriol%De Diego%NULL%1,                    Paula%De la Matta%NULL%1,                    Marta%Farrero%NULL%1,                    Javier%Fernández%NULL%1,                    Sara%Fernández%NULL%1,                    Anna%Fernández%NULL%1,                    Miquel%Ferrer%NULL%1,                    Ana%Fervienza%NULL%1,                    María%Tallo Forga%NULL%1,                    Daniel%Forné%NULL%1,                    Clàudia%Galán%NULL%1,                    Andrea%Gómez%NULL%1,                    Eduard%Guasch%NULL%1,                    María%Hernández-Tejero%NULL%1,                    Adriana%Jacas%NULL%1,                    Beltrán%Jiménez%NULL%1,                    Pere%Leyes%NULL%1,                    Teresa%López%NULL%1,                    José Antonio%Martínez%NULL%1,                    Graciela%Martínez-Pallí%NULL%1,                    Jordi%Mercadal%NULL%1,                    Guido%Muñoz%NULL%1,                    José%Muñoz%NULL%1,                    Ricard%Navarro%NULL%0,                    Josep María%Nicolás%NULL%1,                    José Tomás%Ortiz%NULL%1,                    Anna%Peiró%NULL%1,                    Manuel%Pérez%NULL%1,                    Esteban%Poch%NULL%1,                    Margarida%Pujol%NULL%1,                    Eduard%Quintana%NULL%1,                    Bartomeu%Ramis%NULL%1,                    Enric%Reverter%NULL%1,                    Irene%Rovira%NULL%1,                    Pablo%Ruiz%NULL%1,                    Elena%Sandoval%NULL%1,                    Stefan%Schneider%NULL%1,                    Oriol%Sibila%NULL%1,                    Carla%Solé%NULL%1,                    Alex%Soriano%NULL%1,                    Dolors%Soy%NULL%1,                    M.%Suárez%NULL%1,                    Adrián%Téllez%NULL%1,                    Néstor David%Toapanta%NULL%1,                    Antoni%Torres%NULL%0,                    Xavier%Urra%NULL%1,                    César%Aldecoa%NULL%1,                    Alicia%Bordell%NULL%1,                    Silvia%Martín%NULL%1,                    Judith%Andrés%NULL%1,                    Alberto Martínez%Ruiz%NULL%1,                    Gonzalo Tamayo%Medel%NULL%1,                    Iñaki Bilbao Bilbao%Villasante%NULL%1,                    Fernando Iturri%Clavero%NULL%1,                    Covadonga Peralta%Álvarez%NULL%1,                    Julia T.%Herrera Díez%NULL%1,                    Andrea García%Trancho%NULL%1,                    Iñaki Sainz %Mandiola%NULL%1,                    Carmen Ruano%Suarez%NULL%1,                    Angela Ruiz%Bocos%NULL%1,                    Eneritz Urrutia%Izagirre%NULL%1,                    Pablo Ortiz%de Urbina Fernández%NULL%1,                    Naiara Apodaka%López%NULL%1,                    Leire Prieto%Molano%NULL%1,                    Eunate Ganuza%Martínez%NULL%1,                    Iratxe Vallinas%Hidalgo%NULL%1,                    Karmele%de Orte Sancho%NULL%1,                    Celia González%Paniagua%NULL%1,                    Gemma Ortiz%Labrador%NULL%1,                    Mireia Pérez%Larrañaga%NULL%1,                    Marta López%Miguelez%NULL%1,                    Estíbaliz Bárcena%Andrés%NULL%1,                    Erik Urutxurtu%Laureano%NULL%1,                    Maria Jesús Maroño%Boedo%NULL%1,                    Blanca Escontrela%Rodríguez%NULL%1,                    Aitziber Ereñozaga%Camiruaga%NULL%1,                    Deiene Lasuen%Aguirre%NULL%1,                    Ainhoa Zabal%Maeztu%NULL%1,                    Ane Guereca%Gala%NULL%1,                    Iker Castelo%Korro%NULL%1,                    Andrés Álvarez%Campo%NULL%1,                    Alejandro Carcelen%Viana%NULL%1,                    Alejandro Alberdi%Enríquez%NULL%1,                    Xabier Ormazábal%Rementeria%NULL%1,                    Alberto Sánchez%Campos%NULL%1,                    Rosa Gutiérrez%Rico%NULL%1,                    Pablo Barbier%Damborenea%NULL%1,                    Marta Guerenabarrena%Momeñe%NULL%1,                    Borja Cuesta%Ruiz%NULL%1,                    Alejandro López%Rico%NULL%1,                    Ana Rojo%Polo%NULL%1,                    Covadonga García%Grijelmo%NULL%1,                    Mikel Celorrio%Reta%NULL%1,                    Eneko Martín%Arroyo%NULL%1,                    Leire Artaza%Aparicio%NULL%1,                    Iñaki Ituarte%Aspiazu%NULL%1,                    Ane Igeregi%Basabe%NULL%1,                    Itxaso Merino%Julian%NULL%1,                    Isabel Diaz%Rico%NULL%1,                    Maria Paz%Martínez%NULL%1,                    Ramón%Adalia Bartolomé%NULL%1,                    Luigi%Zattera%NULL%1,                    Irina Adalid%Hernandez%NULL%1,                    Leire Larrañaga%Altuna%NULL%1,                    Aina Serrallonga%Castells%NULL%1,                    Adriana Vílchez%Garcia%NULL%1,                    María%Núñez%NULL%1,                    Lorena%Román%NULL%1,                    Isabel Ramos%Delgado%NULL%1,                    Adela Benítez-Cano%Martínez%NULL%1,                    Mireia Chanzá%Albert%NULL%1,                    Juan Carlos Álvarez%García%NULL%1,                    Luis Aguilera%Cuchillo%NULL%1,                    Sandra Beltrán%de Heredia%NULL%1,                    Jesús Carazo%Cordobés%NULL%1,                    Carlos Alberto García%Bernedo%NULL%1,                    Fernando Escolano%Villén%NULL%1,                    Francisco Javier Redondo%Calvo%NULL%1,                    Rubén Villazala%González%NULL%1,                    Victor Baladron%González%NULL%1,                    Patricia%Faba%NULL%1,                    Omar%Montenegro%NULL%1,                    Natalia Bejarano%Ramírez%NULL%1,                    Sergio Marcos%Contreras%NULL%1,                    Alejandro Garcia%Rodríguez%NULL%1,                    Saleta Rey%Vázquez%NULL%1,                    Cristina Garcia%Pérez%NULL%1,                    Eva Higuera%Miguelez%NULL%1,                    Irene Pérez%Blanco%NULL%1,                    David García%Rivera%NULL%1,                    Ane Martín%de la Fuente%NULL%1,                    Marta%Pardo%NULL%1,                    Vanessa%Rodriguez%NULL%1,                    Unai%Bengoetxea%NULL%1,                    Fernando%Ramasco%NULL%1,                    Sheila Olga Santidrián%Bernal%NULL%1,                    Alvar Santa Cruz%Hernando%NULL%1,                    Antonio Planas%Roca%NULL%1,                    Carlos Figueroa%Yusta%NULL%1,                    Esther García%Villabona%NULL%1,                    Carmen Vallejo%Lantero%NULL%1,                    Eva Patiño%Rodriguez%NULL%1,                    Alvaro Esquivel%Toledo%NULL%1,                    David Arribas%Méndez%NULL%1,                    Mar Orts%Rodriguez%NULL%1,                    Rosa Méndez%Hernández%NULL%1,                    Jesús Nieves%Alonso%NULL%1,                    Inés Imaz%Artazcoz%NULL%1,                    Sonia Expósito%Carazo%NULL%1,                    Carlos Román%Guerrero%NULL%1,                    Elena Rojo%Rodríguez%NULL%1,                    Ricardo Moreno%González%NULL%1,                    Julia Hernando%Santos%NULL%1,                    Jara Torrente%Pérez%NULL%1,                    Esperanza Mata%Mena%NULL%1,                    Manuel José Muñoz%Martínez%NULL%1,                    Enrique Alday%Muñoz%NULL%1,                    Patricia Martin%Serrano%NULL%1,                    Laura Cotter%Muñoz%NULL%1,                    Amadea%Mjertan%NULL%1,                    Diego Gutierrez%Martínez%NULL%1,                    Carmen Rodríguez%García%NULL%1,                    Olaya Alonso%Viejo%NULL%1,                    Juan Alvarez%Pereira%NULL%1,                    Ana Carmona%Bonet%NULL%1,                    Diana Parrado%López%NULL%1,                    Eva%de Dios Tomas%NULL%1,                    Rafael Martín%Celemin%NULL%1,                    María Luisa Meilan%Paz%NULL%1,                    Luis Quecedo%Gutiérrez%NULL%1,                    Noemí Diaz%Velasco%NULL%1,                    Gabriel Martin%Hernández%NULL%1,                    Francisco Garcia%del Corral%NULL%1,                    Gloria Hernandez%Arias%NULL%1,                    David Rodriguez%Cuesta%NULL%1,                    Ana Gómez%Rice%NULL%1,                    Encarna Mateos%Sevillano%NULL%1,                    Natalia Olmos%Molpeceres%NULL%1,                    Beatriz%Domínguez%NULL%1,                    Ana Vázquez%Lima%NULL%1,                    Ángel%Candela%NULL%1,                    Ismael A. Acevedo%Bambaren%NULL%1,                    Maria Isabel Albala%Blanco%NULL%1,                    Paloma Alonso%Montoiro%NULL%1,                    Fernando Álvarez%Utrera%NULL%1,                    Juan Avellanosa%Esteruelas%NULL%1,                    Amal Azzam%López%NULL%1,                    Alberto José%Balvis%NULL%1,                    Balvis Tommaso%Bardi%NULL%1,                    María Beltrán%Martín%NULL%1,                    Jacobo Benatar%Haserfaty%NULL%1,                    Alberto Berruezo%Camacho%NULL%1,                    Laura Betolaza%Weimer%NULL%1,                    María%del Mar Carbonell Soto%NULL%1,                    Cristina Carrasco%Seral%NULL%1,                    Cristina Cerro %Zaballos%NULL%1,                    Elizabeth Claros%Llamas%NULL%1,                    Pilar Coleta%Orduna%NULL%1,                    Ingrid P. Cortes%Forero%NULL%1,                    Pascual Agustín Crespo%Aliseda%NULL%1,                    María Angélica%de Pablo Pajares%NULL%1,                    Yolanda Díez%Remesal%NULL%1,                    Trinidad Dorado%Díaz%NULL%1,                    Noemí Echevarría%Blasco%NULL%1,                    María Elena Elías%Martín%NULL%1,                    Javier Felices%Triviño%NULL%1,                    Natalia Fernández%López%NULL%1,                    Cristina Fernández%Martín%NULL%1,                    Natalia Ferreiro%Pozuelo%NULL%1,                    Luis Gajate%Martín%NULL%1,                    Clara Gallego%Santos%NULL%1,                    Diego Gil%Mayo%NULL%1,                    María Gómez%Rojo%NULL%1,                    Claudia González%Cibrián%NULL%1,                    Elena Herrera%López%NULL%1,                    Borja Hinojal%Olmedillo%NULL%1,                    Berta Iglesias%Gallego%NULL%1,                    Sassan%Khonsari%NULL%1,                    María Nuria Mane%Ruiz%NULL%1,                    María Manzanero%Arroyo%NULL%1,                    Ana María Mariscal%Ortega%NULL%1,                    Sara Martín%Burcio%NULL%1,                    María%del Carmen Martín González%NULL%1,                    Ascensión Martín%Grande%NULL%1,                    Jose Juan Martín%López%NULL%1,                    Cecilia Martín%Rabes%NULL%1,                    Marcos Martínez%Borja%NULL%1,                    Nilda Martínez%Castro%NULL%1,                    Adolfo Martínez%Pérez%NULL%1,                    Snejana%Matcan%NULL%1,                    Cristina Medrano%Viñas%NULL%1,                    Lisset Miguel%Herrera%NULL%1,                    Adrián Mira%Betancur%NULL%1,                    María Montiel%Carbajo%NULL%1,                    Javier Moya%Moradas%NULL%1,                    Lorena Muñoz%Pérez%NULL%1,                    Mónica Nuñez%Murias%NULL%1,                    Eva Ordiales%González%NULL%1,                    Óscar Ordoñez%Recio%NULL%1,                    Miguel Ángel Palomero%Rodriguez%NULL%1,                    Diego Parise%Roux%NULL%1,                    Lucia Pereira%Torres%NULL%1,                    David Pestaña%Lagunas%NULL%1,                    Juana María Pinto%Corraliza%NULL%1,                    Marian Prieto%Rodrigo%NULL%1,                    Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                    David Rodriguez%Esteban%NULL%1,                    Víctor Rojas%Pernia%NULL%1,                    Álvaro Ruigómez%Saiz%NULL%1,                    Bárbara Saavedra%Villarino%NULL%1,                    Noemí Samaranch%Palero%NULL%1,                    Gloria Santos%Pérez%NULL%1,                    Jaume Serna%Pérez%NULL%1,                    Ana Belén Serrano%Romero%NULL%1,                    Jesús Tercero%López%NULL%1,                    Carlos Tiscar%García%NULL%1,                    Marta%de la Torre Concostrina%NULL%1,                    Eva María Ureta%Mesa%NULL%1,                    Eva Velasco%Olarte%NULL%1,                    Judith Villahoz%Martínez%NULL%1,                    Raúl Villalaba%Palacios%NULL%1,                    Gema Villanueva%García%NULL%1,                    Cristina Vogel%de Medeiros%NULL%1,                    Soraya Gholamian%Ovejero%NULL%1,                    Marta Vicente%Orgaz%NULL%1,                    Patricia Lloreda%Herradon%NULL%1,                    Cristina Crespo%Gómez%NULL%1,                    Tatiana%Sarmiento-Trujillo%NULL%1,                    Noemí García%Medina%NULL%1,                    María Martínez%García%NULL%1,                    Carles Espinós%Ramírez%NULL%1,                    Nabil Mouhaffel%Rivero%NULL%1,                    Jose Antonio Bernia%Gil%NULL%1,                    Sonsoles%Martín%NULL%1,                    María Victoria%Moral%NULL%1,                    Josefina%Galán%NULL%1,                    Pilar%Paniagua%NULL%1,                    Sergio%Pérez%NULL%1,                    Albert%Bainac%NULL%1,                    Ana%Arias%NULL%1,                    Elsa%Ramil%NULL%1,                    Jorge%Escudero%NULL%1,                    Pablo%Monedero%NULL%1,                    Carmen%Cara%NULL%1,                    Andrea%Lara%NULL%1,                    Elena Mendez%Martínez%NULL%1,                    Jorge%Mendoza%NULL%1,                    Íñigo Rubio%Baines%NULL%1,                    Carmen Sala%Trull%NULL%1,                    Pablo Montero%López%NULL%1,                    Alfredo%Gea%NULL%1,                    Alejandro%Montero%NULL%1,                    Rocío Armero%Ibañez%NULL%1,                    Juan Vicente Llau%Pitarch%NULL%1,                    Fernando Rauer%Alcóver%NULL%1,                    Cristina Álvarez%Herreros%NULL%1,                    Cyntia Sánchez%Martín%NULL%1,                    Lucía López Ocáriz%Olmos%NULL%1,                    Marta Navas%Moruno%NULL%1,                    Fernando García%Montoto%NULL%1,                    M. F. Mirón%Rodriguez%NULL%1,                    Laura Fuentes%Coco%NULL%1,                    Cristina Hernández%Gamito%NULL%1,                    Antonio Barba%Orejudo%NULL%1,                    Luis Gerardo Smith%Vielma%NULL%1,                    Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                    Marta Donoso%Domínguez%NULL%1,                    Silvia Esquivel%Ramírez%NULL%1,                    José Antonio%Carbonell%NULL%1,                    Berta Monleón%López%NULL%1,                    Sara%Martínez-Castro%NULL%1,                    Gerardo%Aguilar%NULL%1,                    María Gestal Pablo%Casas%NULL%1,                    Angel Outeiro%Rosato%NULL%1,                    Andrea Naveiro%Pan%NULL%1,                    María Alonso%Portela%NULL%1,                    Adrián García%Romar%NULL%1,                    Eva Mosquera%Rodríguez%NULL%1,                    Diego Ruanova%Seijo%NULL%1,                    Pablo Rama%Maceiras%NULL%1,                    Francisco%Castro-Ceoane%NULL%1,                    Esther Moreno%López%NULL%1,                    Sergio%Gil%NULL%1,                    Julia Guillén%Antón%NULL%1,                    Patricia García-Consuegra%Tirado%NULL%1,                    Aurora Callau%Calvo%NULL%1,                    Laura Forés%Lisbona%NULL%1,                    María Carbonell%Romero%NULL%1,                    Belén Albericio%Gil%NULL%1,                    Laura Pradal%Jarne%NULL%1,                    María Soria%Lozano%NULL%1,                    Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                    Navjot Ariyana%Kaur%NULL%1,                    Daniel%Sacher%NULL%1,                    Oisin%O’Corragain%NULL%1,                    Daniel%Salerno%NULL%1,                    Parag%Desai%NULL%1,                    Sameep%Sehgal%NULL%1,                    Matthew%Gordon%NULL%2,                    Rohit%Gupta%NULL%2,                    Nathaniel%Marchetti%NULL%1,                    Huaqing%Zhao%NULL%2,                    Nicole%Patlakh%NULL%2,                    Gerard J.%Criner%NULL%1,                    Temple%University%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                    Dominik%Jarczak%NULL%1,                    Liina%Thasler%NULL%1,                    Martin%Bachmann%NULL%1,                    Frank%Schulte%NULL%1,                    Berthold%Bein%NULL%1,                    Christian Friedrich%Weber%NULL%1,                    Ulrich%Schäfer%NULL%1,                    Carsten%Veit%NULL%1,                    Hans-Peter%Hauber%NULL%1,                    Sebastian%Kopp%NULL%1,                    Karsten%Sydow%NULL%1,                    Andreas%de Weerth%NULL%0,                    Marc%Bota%NULL%1,                    Rüdiger%Schreiber%NULL%1,                    Oliver%Detsch%NULL%1,                    Jan-Peer%Rogmann%NULL%1,                    Daniel%Frings%NULL%0,                    Barbara%Sensen%NULL%1,                    Christoph%Burdelski%NULL%0,                    Olaf%Boenisch%NULL%1,                    Axel%Nierhaus%NULL%0,                    Geraldine%de Heer%NULL%0,                    Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                     Paolo%Comassi%NULL%1,                     Luca%Adriani%NULL%1,                     Giulio%Bergamaschini%NULL%1,                     Elena%Bertin%NULL%1,                     Raffaella%Borromeo%NULL%1,                     Serena%Corti%NULL%1,                     Federica%De Petri%NULL%1,                     Francesco%Dolci%NULL%1,                     Attilio%Galmozzi%NULL%1,                     Alberto%Gigliotti%NULL%1,                     Livio%Gualdoni%NULL%1,                     Claudia%Guerra%NULL%1,                     Anna%Khosthiova%NULL%1,                     Giovanni%Leati%NULL%1,                     Giuseppe%Lupi%NULL%1,                     Paolo%Moscato%NULL%1,                     Vittorio%Perotti%NULL%1,                     Miriam%Piantelli%NULL%1,                     Alain%Ruini%NULL%1,                     Silvia%Sportelli%NULL%1,                     Micaela%Susca%NULL%1,                     Carmine%Troiano%NULL%1,                     Giampaolo%Benelli%NULL%1,                     Elisabetta%Buscarini%NULL%1,                     Ciro%Canetta%NULL%1,                     Guido%Merli%NULL%1,                     Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                     Emna%Ennouri%NULL%1,                     Rayane%Nachi%NULL%1,                     Khaoula%Meddeb%NULL%1,                     Jihene%Mahmoud%NULL%1,                     Nesrine%Thabet%NULL%1,                     Salma%Jerbi%NULL%1,                     Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                     Eleni%Xourgia%NULL%1,                     Theodora K.%Ntaidou%NULL%1,                     Dimitris%Zervakis%NULL%1,                     Eleni E.%Magira%NULL%1,                     Anastasia%Kotanidou%NULL%1,                     Christina%Routsi%NULL%1,                     Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                     Carina%Mostert%NULL%1,                     Corinna%Hentschker%NULL%1,                     Thomas%Voshaar%NULL%1,                     Jürgen%Malzahn%NULL%1,                     Gerhard%Schillinger%NULL%1,                     Jürgen%Klauber%NULL%1,                     Uwe%Janssens%NULL%1,                     Gernot%Marx%NULL%1,                     Steffen%Weber-Carstens%NULL%1,                     Stefan%Kluge%NULL%0,                     Michael%Pfeifer%NULL%1,                     Linus%Grabenhenrich%NULL%1,                     Tobias%Welte%NULL%1,                     Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                     David%Hajage%NULL%2,                     David%Hajage%NULL%0,                     Alexandre%Demoule%NULL%1,                     Tài%Pham%NULL%1,                     Alain%Combes%NULL%1,                     Martin%Dres%NULL%1,                     Said%Lebbah%NULL%1,                     Antoine%Kimmoun%NULL%1,                     Alain%Mercat%NULL%1,                     Gaëtan%Beduneau%NULL%1,                     Jessica%Palmyre%NULL%1,                     Margot%Prevost%NULL%1,                     Pierre%Asfar%NULL%1,                     François%Beloncle%NULL%1,                     Julien%Demiselle%NULL%1,                     Arthur%Pavot%NULL%1,                     Xavier%Monnet%NULL%1,                     Christian%Richard%NULL%1,                     Julien%Mayaux%NULL%1,                     Alexandra%Beurton%NULL%1,                     Richard%Descamps%NULL%1,                     Aurélie%Joret%NULL%1,                     Damien%Du Cheyron%NULL%1,                     Frédéric%Pene%NULL%1,                     Jean-Daniel%Chiche%NULL%1,                     Mathieu%Jozwiak%NULL%1,                     Paul%Jaubert%NULL%1,                     Guillaume%Voiriot%NULL%1,                     Muriel%Fartoukh%NULL%1,                     Marion%Teulier%NULL%1,                     Clarisse%Blayau%NULL%1,                     Erwen%L’Her%NULL%1,                     Cécile%Aubron%NULL%1,                     Laetitia%Bodenes%NULL%1,                     Nicolas%Ferriere%NULL%1,                     Johann%Auchabie%NULL%1,                     Anthony%Le Meur%NULL%1,                     Sylvain%Pignal%NULL%1,                     Thierry%Mazzoni%NULL%1,                     Jean-Pierre%Quenot%NULL%1,                     Pascal%Andreu%NULL%1,                     Jean-Baptiste%Roudau%NULL%1,                     Marie%Labruyère%NULL%1,                     Saad%Nseir%NULL%0,                     Sébastien%Preau%NULL%1,                     Julien%Poissy%NULL%0,                     Daniel%Mathieu%NULL%0,                     Sarah%Benhamida%NULL%1,                     Rémi%Paulet%NULL%1,                     Nicolas%Roucaud%NULL%1,                     Martial%Thyrault%NULL%1,                     Florence%Daviet%NULL%1,                     Sami%Hraiech%NULL%1,                     Gabriel%Parzy%NULL%1,                     Aude%Sylvestre%NULL%1,                     Sébastien%Jochmans%NULL%1,                     Anne-Laure%Bouilland%NULL%1,                     Mehran%Monchi%NULL%1,                     Marc%Danguy des Déserts%NULL%1,                     Quentin%Mathais%NULL%1,                     Gwendoline%Rager%NULL%1,                     Pierre%Pasquier%NULL%1,                     Reignier%Jean%NULL%1,                     Seguin%Amélie%NULL%1,                     Garret%Charlotte%NULL%1,                     Canet%Emmanuel%NULL%1,                     Jean%Dellamonica%NULL%1,                     Clément%Saccheri%NULL%1,                     Romain%Lombardi%NULL%1,                     Yanis%Kouchit%NULL%1,                     Sophie%Jacquier%NULL%1,                     Armelle%Mathonnet%NULL%1,                     Mai-Ahn%Nay%NULL%1,                     Isabelle%Runge%NULL%1,                     Frédéric%Martino%NULL%1,                     Laure%Flurin%NULL%1,                     Amélie%Rolle%NULL%1,                     Michel%Carles%NULL%1,                     Rémi%Coudroy%NULL%1,                     Arnaud W.%Thille%NULL%1,                     Jean-Pierre%Frat%NULL%1,                     Maeva%Rodriguez%NULL%1,                     Pascal%Beuret%NULL%1,                     Audrey%Tientcheu%NULL%1,                     Arthur%Vincent%NULL%1,                     Florian%Michelin%NULL%1,                     Marie Anne%Melone%NULL%1,                     Maxime%Gauzi%NULL%1,                     Arnaud%Guilbert%NULL%1,                     Geoffrey%Kouadri%NULL%1,                     Valérie%Gissot%NULL%1,                     Stéphan%Ehrmann%NULL%1,                     Charlotte%Salmon-Gandonnière%NULL%1,                     Djlali%Elaroussi%NULL%1,                     Agathe%Delbove%NULL%1,                     Yannick%Fedun%NULL%1,                     Julien%Huntzinger%NULL%1,                     Eddy%Lebas%NULL%1,                     Grâce%Kisoka%NULL%1,                     Céline%Grégoire%NULL%1,                     Stella%Marchetta%NULL%1,                     Bernard%Lambermont%NULL%1,                     Laurent%Argaud%NULL%1,                     Thomas%Baudry%NULL%1,                     Pierre-Jean%Bertrand%NULL%1,                     Auguste%Dargent%NULL%1,                     Christophe%Guitton%NULL%1,                     Nicolas%Chudeau%NULL%1,                     Mickaël%Landais%NULL%1,                     Cédric%Darreau%NULL%1,                     Alexis%Ferre%NULL%1,                     Antoine%Gros%NULL%1,                     Guillaume%Lacave%NULL%1,                     Fabrice%Bruneel%NULL%1,                     Mathilde%Neuville%NULL%1,                     Jérôme%Devaquet%NULL%1,                     Guillaume%Tachon%NULL%1,                     Richard%Gallot%NULL%1,                     Riad%Chelha%NULL%1,                     Arnaud%Galbois%NULL%1,                     Anne%Jallot%NULL%1,                     Ludivine Chalumeau%Lemoine%NULL%1,                     Khaldoun%Kuteifan%NULL%1,                     Valentin%Pointurier%NULL%1,                     Louise-Marie%Jandeaux%NULL%1,                     Joy%Mootien%NULL%1,                     Charles%Damoisel%NULL%1,                     Benjamin%Sztrymf%NULL%1,                     Juliette%Chommeloux%NULL%1,                     Charles Edouard%Luyt%NULL%1,                     Frédérique%Schortgen%NULL%1,                     Leon%Rusel%NULL%1,                     Camille%Jung%NULL%1,                     Florent%Gobert%NULL%1,                     Damien%Vimpere%NULL%1,                     Lionel%Lamhaut%NULL%1,                     Bertrand%Sauneuf%NULL%1,                     Liliane%Charrier%NULL%1,                     Julien%Calus%NULL%1,                     Isabelle%Desmeules%NULL%1,                     Benoît%Painvin%NULL%1,                     Jean-Marc%Tadie%NULL%1,                     Vincent%Castelain%NULL%1,                     Baptiste%Michard%NULL%1,                     Jean-Etienne%Herbrecht%NULL%1,                     Mathieu%Baldacini%NULL%1,                     Nicolas%Weiss%NULL%1,                     Sophie%Demeret%NULL%1,                     Clémence%Marois%NULL%1,                     Benjamin%Rohaut%NULL%1,                     Pierre-Henri%Moury%NULL%1,                     Anne-Charlotte%Savida%NULL%1,                     Emmanuel%Couadau%NULL%1,                     Mathieu%Série%NULL%1,                     Nica%Alexandru%NULL%1,                     Cédric%Bruel%NULL%1,                     Candice%Fontaine%NULL%1,                     Sonia%Garrigou%NULL%1,                     Juliette Courtiade%Mahler%NULL%1,                     Maxime%Leclerc%NULL%1,                     Michel%Ramakers%NULL%1,                     Pierre%Garçon%NULL%1,                     Nicole%Massou%NULL%1,                     Ly Phacs%Van Vong%NULL%1,                     Juliane%Sen%NULL%1,                     Nolwenn%Lucas%NULL%1,                     Franck%Chemouni%NULL%1,                     Annabelle%Stoclin%NULL%1,                     Alexandre%Avenel%NULL%1,                     Henri%Faure%NULL%1,                     Angélie%Gentilhomme%NULL%1,                     Sylvie%Ricome%NULL%1,                     Paul%Abraham%NULL%1,                     Céline%Monard%NULL%1,                     Julien%Textoris%NULL%1,                     Thomas%Rimmele%NULL%1,                     Florent%Montini%NULL%1,                     Gabriel%Lejour%NULL%1,                     Thierry%Lazard%NULL%1,                     Isabelle%Etienney%NULL%1,                     Younes%Kerroumi%NULL%1,                     Dupuis%Claire%NULL%1,                     Bereiziat Marine%Coupez%NULL%1,                     Thouy%François%NULL%1,                     Clémet%Hoffmann%NULL%1,                     Nicolas%Donat%NULL%1,                     Violaine%Muller%NULL%1,                     Thibault%Martinez%NULL%1,                     Audrey%Jacquot%NULL%1,                     Matthieu%Mattei%NULL%1,                     Bruno%Levy%NULL%1,                     Ramin%Ravan%NULL%1,                     Loïc%Dopeux%NULL%1,                     Jean-Mathias%Liteaudon%NULL%1,                     Delphine%Roux%NULL%1,                     Brice%Rey%NULL%1,                     Radu%Anghel%NULL%1,                     Deborah%Schenesse%NULL%1,                     Vincent%Gevrey%NULL%1,                     Jermy%Castanera%NULL%1,                     Philippe%Petua%NULL%1,                     Benjamin%Madeux%NULL%1,                     Otto%Hartman%NULL%1,                     Michael%Piagnerelli%NULL%1,                     Anne%Joosten%NULL%1,                     Cinderella%Noel%NULL%1,                     Patrick%Biston%NULL%1,                     Thibaut%Noel%NULL%1,                     Gurvan L. E.%Bouar%NULL%1,                     Messabi%Boukhanza%NULL%1,                     Elsa%Demarest%NULL%1,                     Marie-France%Bajolet%NULL%1,                     Nathanaël%Charrier%NULL%1,                     Audrey%Quenet%NULL%1,                     Cécile%Zylberfajn%NULL%1,                     Nicolas%Dufour%NULL%1,                     Buno%Mégarbane%NULL%1,                     Sqébastian%Voicu%NULL%1,                     Nicolas%Deye%NULL%1,                     Isabelle%Malissin%NULL%1,                     François%Legay%NULL%1,                     Matthieu%Debarre%NULL%1,                     Nicolas%Barbarot%NULL%1,                     Pierre%Fillatre%NULL%1,                     Bertrand%Delord%NULL%1,                     Thomas%Laterrade%NULL%1,                     Tahar%Saghi%NULL%1,                     Wilfried%Pujol%NULL%1,                     Pierre Julien%Cungi%NULL%1,                     Pierre%Esnault%NULL%1,                     Mickael%Cardinale%NULL%1,                     Vivien%Hong Tuan Ha%NULL%1,                     Grégory%Fleury%NULL%1,                     Marie-Ange%Brou%NULL%1,                     Daniel%Zafimahazo%NULL%1,                     David%Tran-Van%NULL%1,                     Patrick%Avargues%NULL%1,                     Lisa%Carenco%NULL%1,                     Nicolas%Robin%NULL%1,                     Alexandre%Ouali%NULL%1,                     Lucie%Houdou%NULL%1,                     Christophe%Le Terrier%NULL%1,                     Noémie%Suh%NULL%1,                     Steve%Primmaz%NULL%1,                     Jérome%Pugin%NULL%1,                     Emmanuel%Weiss%NULL%1,                     Tobias%Gauss%NULL%1,                     Jean-Denis%Moyer%NULL%1,                     Catherine%Paugam-Burtz%NULL%1,                     Béatrice%La Combe%NULL%1,                     Rolland%Smonig%NULL%1,                     Jade%Violleau%NULL%1,                     Pauline%Cailliez%NULL%1,                     Jonathan%Chelly%NULL%1,                     Antoine%Marchalot%NULL%1,                     Cécile%Saladin%NULL%1,                     Christelle%Bigot%NULL%1,                     Pierre-Marie%Fayolle%NULL%1,                     Jules%Fatséas%NULL%1,                     Amr%Ibrahim%NULL%1,                     Dabor%Resiere%NULL%1,                     Rabih%Hage%NULL%1,                     Clémentine%Cholet%NULL%1,                     Marie%Cantier%NULL%1,                     Pierre%Trouiller%NULL%1,                     Philippe%Montravers%NULL%1,                     Brice%Lortat-Jacob%NULL%1,                     Sebastien%Tanaka%NULL%1,                     Alexy%Tran-Dinh%NULL%1,                     Jacques%Duranteau%NULL%1,                     Anatole%Harrois%NULL%1,                     Guillaume%Dubreuil%NULL%1,                     Marie%Werner%NULL%1,                     Anne%Godier%NULL%1,                     Sophie%Hamada%NULL%1,                     Diane%Zlotnik%NULL%1,                     Hélène%Nougue%NULL%1,                     Armand%Mekontso-Dessap%NULL%1,                     Guillaume%Carteaux%NULL%1,                     Keyvan%Razazi%NULL%1,                     Nicolas%De Prost%NULL%1,                     Nicolas%Mongardon%NULL%1,                     Olivier%Langeron%NULL%1,                     Eric%Levesque%NULL%1,                     Arié%Attias%NULL%1,                     Charles%de Roquetaillade%NULL%1,                     Benjamin G.%Chousterman%NULL%1,                     Alexandre%Mebazaa%NULL%1,                     Etienne%Gayat%NULL%1,                     Marc%Garnier%NULL%1,                     Emmanuel%Pardo%NULL%1,                     Lea%Satre-Buisson%NULL%1,                     Christophe%Gutton%NULL%1,                     Elise%Yvin%NULL%1,                     Clémence%Marcault%NULL%1,                     Elie%Azoulay%NULL%1,                     Michael%Darmon%NULL%1,                     Nicolas%Bonnet%NULL%1,                     Nathan%Ebstein%NULL%1,                     Stéphane%Gaudry%NULL%1,                     Yves%Cohen%NULL%1,                      Hafid%Ait-Oufella%NULL%1,                     Geoffroy%Hariri%NULL%1,                     Tomas%Urbina%NULL%1,                     Sandie%Mazerand%NULL%1,                     Nicholas%Heming%NULL%1,                     Francesca%Santi%NULL%1,                     Pierre%Moine%NULL%1,                     Djillali%Annane%NULL%1,                     Adrien%Bouglé%NULL%1,                     Edris%Omar%NULL%1,                     Aymeric%Lancelot%NULL%1,                     Emmanuelle%Begot%NULL%1,                     Gaétan%Plantefeve%NULL%1,                     Damien%Contou%NULL%1,                     Hervé%Mentec%NULL%1,                     Olivier%Pajot%NULL%1,                     Stanislas%Faguer%NULL%1,                     Olivier%Cointault%NULL%1,                     Laurence%Lavayssiere%NULL%1,                     Marie-Béatrice%Nogier%NULL%1,                     Matthieu%Jamme%NULL%1,                     Claire%Pichereau%NULL%1,                     Jan%Hayon%NULL%1,                     Hervé%Outin%NULL%1,                     François%Dépret%NULL%1,                     Maxime%Coutrot%NULL%1,                     Maité%Chaussard%NULL%1,                     Lucie%Guillemet%NULL%1,                     Pierre%Goffin%NULL%1,                     Romain%Thouny%NULL%1,                     Julien%Guntz%NULL%1,                     Laurent%Jadot%NULL%1,                     Romain%Persichini%NULL%1,                     Vanessa%Jean-Michel%NULL%1,                     Hugues%Georges%NULL%1,                     Thomas%Caulier%NULL%1,                     Gaël%Pradel%NULL%1,                     Marie-Hélène%Hausermann%NULL%1,                     ThiMy Hue%Nguyen-Valat%NULL%1,                     Michel%Boudinaud%NULL%1,                     Emmanuel%Vivier%NULL%1,                     Sylvène%Rosseli%NULL%1,                     Gaël%Bourdin%NULL%1,                     Christian%Pommier%NULL%1,                     Marc%Vinclair%NULL%1,                     Simon%Poignant%NULL%1,                     Sandrine%Mons%NULL%1,                     Wulfran%Bougouin%NULL%1,                     Franklin%Bruna%NULL%1,                     Quentin%Maestraggi%NULL%1,                     Christian%Roth%NULL%1,                     Laurent%Bitker%NULL%1,                     François%Dhelft%NULL%1,                     Justine%Bonnet-Chateau%NULL%1,                     Mathilde%Filippelli%NULL%1,                     Tristan%Morichau-Beauchant%NULL%1,                     Stéphane%Thierry%NULL%1,                     Charlotte%Le Roy%NULL%1,                     Mélanie%Saint Jouan%NULL%1,                     Bruno%Goncalves%NULL%1,                     Aurélien%Mazeraud%NULL%1,                     Matthieu%Daniel%NULL%1,                     Tarek%Sharshar%NULL%1,                     Cyril%Cadoz%NULL%1,                     Rostane%Gaci%NULL%1,                     Sébastien%Gette%NULL%1,                     Guillaune%Louis%NULL%1,                     Sophe-Caroline%Sacleux%NULL%1,                     Marie-Amélie%Ordan%NULL%1,                     Aurélie%Cravoisy%NULL%1,                     Marie%Conrad%NULL%1,                     Guilhem%Courte%NULL%1,                     Sébastien%Gibot%NULL%1,                     Younès%Benzidi%NULL%1,                     Claudia%Casella%NULL%1,                     Laurent%Serpin%NULL%1,                     Jean-Lou%Setti%NULL%1,                     Marie-Catherine%Besse%NULL%1,                     Anna%Bourreau%NULL%1,                     Jérôme%Pillot%NULL%1,                     Caroline%Rivera%NULL%1,                     Camille%Vinclair%NULL%1,                     Marie-Aline%Robaux%NULL%1,                     Chloé%Achino%NULL%1,                     Marie-Charlotte%Delignette%NULL%1,                     Tessa%Mazard%NULL%1,                     Frédéric%Aubrun%NULL%1,                     Bruno%Bouchet%NULL%1,                     Aurélien%Frérou%NULL%1,                     Laura%Muller%NULL%1,                     Charlotte%Quentin%NULL%1,                     Samuel%Degoul%NULL%1,                     Xavier%Stihle%NULL%1,                     Claude%Sumian%NULL%1,                     Nicoletta%Bergero%NULL%1,                     Bernard%Lanaspre%NULL%1,                     Hervé%Quintard%NULL%1,                     Eve Marie%Maiziere%NULL%1,                     Pierre-Yves%Egreteau%NULL%1,                     Guillaume%Leloup%NULL%1,                     Florin%Berteau%NULL%1,                     Marjolaine%Cottrel%NULL%1,                     Marie%Bouteloup%NULL%1,                     Matthieu%Jeannot%NULL%1,                     Quentin%Blanc%NULL%1,                     Julien%Saison%NULL%1,                     Isabelle%Geneau%NULL%1,                     Romaric%Grenot%NULL%1,                     Abdel%Ouchike%NULL%1,                     Pascal%Hazera%NULL%1,                     Anne-Lyse%Masse%NULL%1,                     Suela%Demiri%NULL%1,                     Corinne%Vezinet%NULL%1,                     Elodie%Baron%NULL%1,                     Déborah%Benchetrit%NULL%1,                     Antoine%Monsel%NULL%1,                     Grégoire%Trebbia%NULL%1,                     Emmanuelle%Schaack%NULL%1,                     Raphaël%Lepecq%NULL%1,                     Mathieu%Bobet%NULL%1,                     Christophe%Vinsonneau%NULL%1,                     Thibault%Dekeyser%NULL%1,                     Quentin%Delforge%NULL%1,                     Imen%Rahmani%NULL%1,                     Bérengère%Vivet%NULL%1,                     Jonathan%Paillot%NULL%1,                     Lucie%Hierle%NULL%1,                     Claire%Chaignat%NULL%1,                     Sarah%Valette%NULL%1,                     Benoït%Her%NULL%1,                     Jennifier%Brunet%NULL%1,                     Mathieu%Page%NULL%1,                     Fabienne%Boiste%NULL%1,                     Anthony%Collin%NULL%1,                     Florent%Bavozet%NULL%2,                     Aude%Garin%NULL%1,                     Mohamed%Dlala%NULL%1,                     Kais%Mhamdi%NULL%1,                     Bassem%Beilouny%NULL%1,                     Alexandra%Lavalard%NULL%1,                     Severine%Perez%NULL%1,                     Benoit%Veber%NULL%1,                     Pierre-Gildas%Guitard%NULL%1,                     Philippe%Gouin%NULL%1,                     Anna%Lamacz%NULL%1,                     Fabienne%Plouvier%NULL%1,                     Bertrand P.%Delaborde%NULL%1,                     Aïssa%Kherchache%NULL%1,                     Amina%Chaalal%NULL%1,                     Jean-Damien%Ricard%NULL%1,                     Marc%Amouretti%NULL%1,                     Santiago%Freita-Ramos%NULL%1,                     Damien%Roux%NULL%1,                     Jean-Michel%Constantin%NULL%1,                     Mona%Assefi%NULL%1,                     Marine%Lecore%NULL%1,                     Agathe%Selves%NULL%1,                     Florian%Prevost%NULL%1,                     Christian%Lamer%NULL%1,                     Ruiying%Shi%NULL%1,                     Lyes%Knani%NULL%1,                     Sébastien%Pili-Floury%NULL%1,                     Lucie%Vettoretti%NULL%1,                     Michael%Levy%NULL%1,                     Lucile%Marsac%NULL%1,                     Stéphane%Dauger%NULL%1,                     Sophie%Guilmin-Crépon%NULL%1,                     Jean-Baptiste%Putegnat%NULL%1,                     Frédérique%Bayle%NULL%1,                     Maya%Perrou%NULL%1,                     Ghyslaine%Thao%NULL%1,                     Guillaume%Géri%NULL%1,                     Cyril%Charron%NULL%1,                     Xavier%Repessé%NULL%1,                     Antoine%Vieillard-Baron%NULL%1,                     Mathieu%Guilbart%NULL%1,                     Pierre-Alexandre%Roger%NULL%1,                     Sébastien%Hinard%NULL%1,                     Pierre-Yves%Macq%NULL%1,                     Kevin%Chaulier%NULL%1,                     Sylvie%Goutte%NULL%1,                     Patrick%Chillet%NULL%1,                     Anaïs%Pitta%NULL%1,                     Barbara%Darjent%NULL%1,                     Amandine%Bruneau%NULL%1,                     Sigismond%Lasocki%NULL%1,                     Maxime%Leger%NULL%1,                     Soizic%Gergaud%NULL%1,                     Pierre%Lemarie%NULL%1,                     Nicolas%Terzi%NULL%1,                     Carole%Schwebel%NULL%1,                     Anaïs%Dartevel%NULL%1,                     Louis-Marie%Galerneau%NULL%1,                     Jean-Luc%Diehl%NULL%1,                     Caroline%Hauw-Berlemont%NULL%0,                     Nicolas%Péron%NULL%1,                     Emmanuel%Guérot%NULL%1,                     Abolfazl Mohebbi%Amoli%NULL%1,                     Michel%Benhamou%NULL%1,                     Jean-Pierre%Deyme%NULL%1,                     Olivier%Andremont%NULL%1,                     Diane%Lena%NULL%1,                     Julien%Cady%NULL%1,                     Arnaud%Causeret%NULL%1,                     Arnaud%De La Chapelle%NULL%1,                     Christophe%Cracco%NULL%1,                     Stéphane%Rouleau%NULL%1,                     David%Schnell%NULL%1,                     Cécile%Lory%NULL%1,                     Thibault%Chapelle%NULL%1,                     Vincent%Bruckert%NULL%1,                     Julie%Garcia%NULL%1,                     Abdlazize%Sahraoui%NULL%1,                     Nathalie%Abbosh%NULL%1,                     Caroline%Bornstain%NULL%1,                     Pierre%Pernet%NULL%1,                     Florent%Poirson%NULL%1,                     Ahmed%Pasem%NULL%1,                     Philippe%Karoubi%NULL%1,                     Virginie%Poupinel%NULL%1,                     Caroline%Gauthier%NULL%1,                     François%Bouniol%NULL%1,                     Philippe%Feuchere%NULL%1,                     Florent%Bavozet%NULL%0,                     Anne%Heron%NULL%1,                     Serge%Carreira%NULL%1,                     Malo%Emery%NULL%1,                     Anne%Le Floch%NULL%1,                     Luana%Giovannangeli%NULL%1,                     Nicolas%Herzog%NULL%1,                     Christophe%Giacardi%NULL%1,                     Thibaut%Baudic%NULL%1,                     Chloé%Thill%NULL%1,                     Florence%Tubach%NULL%1,                     Olivier%Lesieur%NULL%1,                     Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                     Max W.%Adelman%NULL%2,                     Maxwell A.%Hockstein%NULL%1,                     Chad J.%Robichaux%NULL%1,                     Johnathan A.%Edwards%NULL%1,                     Jane C.%Fazio%NULL%1,                     James M.%Blum%NULL%3,                     Craig S.%Jabaley%NULL%2,                     Mark%Caridi-Scheible%NULL%2,                     Greg S.%Martin%NULL%2,                     David J.%Murphy%NULL%3,                     Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                   Antonelli%M.%coreGivesNoEmail%0,                   Bellani%G.%coreGivesNoEmail%0,                   Bonanomi%E.%coreGivesNoEmail%0,                   Cabrini%L.%coreGivesNoEmail%0,                   Carlesso%E.%coreGivesNoEmail%0,                   Castelli%G.%coreGivesNoEmail%0,                   Cattaneo%S.%coreGivesNoEmail%0,                   Cecconi%M.%coreGivesNoEmail%0,                   Cereda%D.%coreGivesNoEmail%0,                   Colombo%S.%coreGivesNoEmail%0,                   Coluccello%A.%coreGivesNoEmail%0,                   Crescini%G.%coreGivesNoEmail%0,                   Forastieri%Molinari A.%coreGivesNoEmail%0,                   Foti%G.%coreGivesNoEmail%0,                   Fumagalli%R.%coreGivesNoEmail%0,                   Grasselli%G.%coreGivesNoEmail%0,                   Greco%M.%coreGivesNoEmail%0,                   Iotti%G. A.%coreGivesNoEmail%0,                   Langer%T.%coreGivesNoEmail%0,                   Latronico%N.%coreGivesNoEmail%0,                   Lorini%F. L.%coreGivesNoEmail%0,                   Mojoli%F.%coreGivesNoEmail%0,                   Natalini%G.%coreGivesNoEmail%0,                   Pesenti%A.%coreGivesNoEmail%0,                   Pessina%C. M.%coreGivesNoEmail%0,                   Ranieri%V. M.%coreGivesNoEmail%0,                   Rech%R.%coreGivesNoEmail%0,                   Rosano%A.%coreGivesNoEmail%0,                   Scudeller%L.%coreGivesNoEmail%0,                   Storti%E.%coreGivesNoEmail%0,                   Thompson%B. T.%coreGivesNoEmail%0,                   Tirani%M.%coreGivesNoEmail%0,                   Villani%P. G.%coreGivesNoEmail%0,                   Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                     Keum-Ju%Choi%NULL%1,                     Sun Ha%Choi%NULL%1,                     Shin Yup%Lee%NULL%1,                     Kyung Chan%Kim%NULL%1,                     Eun Jin%Kim%NULL%1,                     Jaehee%Lee%NULL%2,                     Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                     Siddique%Chaudhary%NULL%1,                     Kevin%Bryan Lo%NULL%2,                     Kevin%Bryan Lo%NULL%0,                     Robert%DeJoy%NULL%1,                     Fahad%Gul%NULL%1,                     Ricardo%Torres%NULL%1,                     Neal%Chaisson%NULL%2,                     Neal%Chaisson%NULL%0,                     Gabriel%Patarroyo-Aponte%NULL%2,                     Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                     Bruno L.%Ferreyro%NULL%2,                     Bruno L.%Ferreyro%NULL%0,                     Federico%Angriman%NULL%1,                     María%Hernández-Sanz%NULL%2,                     Egoitz%Arruti%NULL%1,                     Antoni%Torres%NULL%2,                     Jesús%Villar%NULL%1,                     Laurent%Brochard%NULL%1,                     Carlos%Ferrando%NULL%2,                     Ricard%Mellado-Artigas%NULL%1,                     María%Hernández-Sanz%NULL%0,                     Carlos%Ferrando%NULL%0,                     Marina%Vendrell%NULL%1,                     Gerard%Sánchez-Etayo%NULL%1,                     Amalia%Alcón%NULL%1,                     Isabel%Belda%NULL%1,                     Mercé%Agustí%NULL%1,                     Albert%Carramiñana%NULL%1,                     Isabel%Gracia%NULL%1,                     Miriam%Panzeri%NULL%1,                     Irene%León%NULL%1,                     Jaume%Balust%NULL%1,                     Ricard%Navarro%NULL%2,                     María José%Arguís%NULL%1,                     María José%Carretero%NULL%1,                     Cristina%Ibáñez%NULL%1,                     Juan%Perdomo%NULL%1,                     Antonio%López%NULL%1,                     Manuel%López-Baamonde%NULL%1,                     Tomás%Cuñat%NULL%1,                     Marta%Ubré%NULL%1,                     Antonio%Ojeda%NULL%1,                     Andrea%Calvo%NULL%1,                     Eva%Rivas%NULL%1,                     Paola%Hurtado%NULL%1,                     Roger%Pujol%NULL%1,                     Nuria%Martín%NULL%1,                     Javier%Tercero%NULL%1,                     Pepe%Sanahuja%NULL%1,                     Marta%Magaldi%NULL%1,                     Miquel%Coca%NULL%1,                     Elena%del Rio%NULL%1,                     Julia%Martínez-Ocon%NULL%1,                     Paula%Masgoret%NULL%1,                     Monserrat%Tio%NULL%1,                     Angel%Caballero%NULL%1,                     Raquel%Risco%NULL%1,                     Raquel%Bergé%NULL%1,                     Lidia%Gómez%NULL%1,                     Nicolás%de Riva%NULL%1,                     Ana%Ruiz%NULL%1,                     Beatriz%Tena%NULL%1,                     Sebastián%Jaramillo%NULL%1,                     José María%Balibrea%NULL%1,                     Francisco Borja de Borja%de Lacy%NULL%1,                     Ana%Otero%NULL%1,                     Ainitze%Ibarzabal%NULL%1,                     Raquel%Bravo%NULL%1,                     Anna%Carreras%NULL%1,                     Daniel%Martín-Barreda%NULL%1,                     Alfonso Jesús%Alias%NULL%1,                     Mariano%Balaguer%NULL%1,                     Jorge%Aliaga%NULL%1,                     Alex%Almuedo%NULL%1,                     Joan Ramón%Alonso%NULL%1,                     Rut%Andrea%NULL%1,                     Gerard Sergi%Angelès%NULL%1,                      Marilyn%Arias%NULL%1,                     Fátima%Aziz%NULL%1,                     Joan Ramon%Badía%NULL%1,                     Enric%Barbeta%NULL%1,                     Toni%Torres%NULL%1,                     Guillem%Batiste%NULL%1,                     Pau%Benet%NULL%1,                     Xavi%Borrat%NULL%1,                     María%Borrell%NULL%1,                     Ernest%Bragulat%NULL%1,                     Inmaculada%Carmona%NULL%1,                     Manuel%Castellà%NULL%1,                     Pedro%Castro%NULL%1,                     Joan%Ceravalls%NULL%1,                     Oscar%Comino%NULL%1,                     Claudia%Cucciniello%NULL%1,                     Clàudia%De Deray%NULL%1,                     Oriol%De Diego%NULL%1,                     Paula%De la Matta%NULL%1,                     Marta%Farrero%NULL%1,                     Javier%Fernández%NULL%1,                     Sara%Fernández%NULL%1,                     Anna%Fernández%NULL%1,                     Miquel%Ferrer%NULL%1,                     Ana%Fervienza%NULL%1,                     María%Tallo Forga%NULL%1,                     Daniel%Forné%NULL%1,                     Clàudia%Galán%NULL%1,                     Andrea%Gómez%NULL%1,                     Eduard%Guasch%NULL%1,                     María%Hernández-Tejero%NULL%1,                     Adriana%Jacas%NULL%1,                     Beltrán%Jiménez%NULL%1,                     Pere%Leyes%NULL%1,                     Teresa%López%NULL%1,                     José Antonio%Martínez%NULL%1,                     Graciela%Martínez-Pallí%NULL%1,                     Jordi%Mercadal%NULL%1,                     Guido%Muñoz%NULL%1,                     José%Muñoz%NULL%1,                     Ricard%Navarro%NULL%0,                     Josep María%Nicolás%NULL%1,                     José Tomás%Ortiz%NULL%1,                     Anna%Peiró%NULL%1,                     Manuel%Pérez%NULL%1,                     Esteban%Poch%NULL%1,                     Margarida%Pujol%NULL%1,                     Eduard%Quintana%NULL%1,                     Bartomeu%Ramis%NULL%1,                     Enric%Reverter%NULL%1,                     Irene%Rovira%NULL%1,                     Pablo%Ruiz%NULL%1,                     Elena%Sandoval%NULL%1,                     Stefan%Schneider%NULL%1,                     Oriol%Sibila%NULL%1,                     Carla%Solé%NULL%1,                     Alex%Soriano%NULL%1,                     Dolors%Soy%NULL%1,                     M.%Suárez%NULL%1,                     Adrián%Téllez%NULL%1,                     Néstor David%Toapanta%NULL%1,                     Antoni%Torres%NULL%0,                     Xavier%Urra%NULL%1,                     César%Aldecoa%NULL%1,                     Alicia%Bordell%NULL%1,                     Silvia%Martín%NULL%1,                     Judith%Andrés%NULL%1,                     Alberto Martínez%Ruiz%NULL%1,                     Gonzalo Tamayo%Medel%NULL%1,                     Iñaki Bilbao Bilbao%Villasante%NULL%1,                     Fernando Iturri%Clavero%NULL%1,                     Covadonga Peralta%Álvarez%NULL%1,                     Julia T.%Herrera Díez%NULL%1,                     Andrea García%Trancho%NULL%1,                     Iñaki Sainz %Mandiola%NULL%1,                     Carmen Ruano%Suarez%NULL%1,                     Angela Ruiz%Bocos%NULL%1,                     Eneritz Urrutia%Izagirre%NULL%1,                     Pablo Ortiz%de Urbina Fernández%NULL%1,                     Naiara Apodaka%López%NULL%1,                     Leire Prieto%Molano%NULL%1,                     Eunate Ganuza%Martínez%NULL%1,                     Iratxe Vallinas%Hidalgo%NULL%1,                     Karmele%de Orte Sancho%NULL%1,                     Celia González%Paniagua%NULL%1,                     Gemma Ortiz%Labrador%NULL%1,                     Mireia Pérez%Larrañaga%NULL%1,                     Marta López%Miguelez%NULL%1,                     Estíbaliz Bárcena%Andrés%NULL%1,                     Erik Urutxurtu%Laureano%NULL%1,                     Maria Jesús Maroño%Boedo%NULL%1,                     Blanca Escontrela%Rodríguez%NULL%1,                     Aitziber Ereñozaga%Camiruaga%NULL%1,                     Deiene Lasuen%Aguirre%NULL%1,                     Ainhoa Zabal%Maeztu%NULL%1,                     Ane Guereca%Gala%NULL%1,                     Iker Castelo%Korro%NULL%1,                     Andrés Álvarez%Campo%NULL%1,                     Alejandro Carcelen%Viana%NULL%1,                     Alejandro Alberdi%Enríquez%NULL%1,                     Xabier Ormazábal%Rementeria%NULL%1,                     Alberto Sánchez%Campos%NULL%1,                     Rosa Gutiérrez%Rico%NULL%1,                     Pablo Barbier%Damborenea%NULL%1,                     Marta Guerenabarrena%Momeñe%NULL%1,                     Borja Cuesta%Ruiz%NULL%1,                     Alejandro López%Rico%NULL%1,                     Ana Rojo%Polo%NULL%1,                     Covadonga García%Grijelmo%NULL%1,                     Mikel Celorrio%Reta%NULL%1,                     Eneko Martín%Arroyo%NULL%1,                     Leire Artaza%Aparicio%NULL%1,                     Iñaki Ituarte%Aspiazu%NULL%1,                     Ane Igeregi%Basabe%NULL%1,                     Itxaso Merino%Julian%NULL%1,                     Isabel Diaz%Rico%NULL%1,                     Maria Paz%Martínez%NULL%1,                     Ramón%Adalia Bartolomé%NULL%1,                     Luigi%Zattera%NULL%1,                     Irina Adalid%Hernandez%NULL%1,                     Leire Larrañaga%Altuna%NULL%1,                     Aina Serrallonga%Castells%NULL%1,                     Adriana Vílchez%Garcia%NULL%1,                     María%Núñez%NULL%1,                     Lorena%Román%NULL%1,                     Isabel Ramos%Delgado%NULL%1,                     Adela Benítez-Cano%Martínez%NULL%1,                     Mireia Chanzá%Albert%NULL%1,                     Juan Carlos Álvarez%García%NULL%1,                     Luis Aguilera%Cuchillo%NULL%1,                     Sandra Beltrán%de Heredia%NULL%1,                     Jesús Carazo%Cordobés%NULL%1,                     Carlos Alberto García%Bernedo%NULL%1,                     Fernando Escolano%Villén%NULL%1,                     Francisco Javier Redondo%Calvo%NULL%1,                     Rubén Villazala%González%NULL%1,                     Victor Baladron%González%NULL%1,                     Patricia%Faba%NULL%1,                     Omar%Montenegro%NULL%1,                     Natalia Bejarano%Ramírez%NULL%1,                     Sergio Marcos%Contreras%NULL%1,                     Alejandro Garcia%Rodríguez%NULL%1,                     Saleta Rey%Vázquez%NULL%1,                     Cristina Garcia%Pérez%NULL%1,                     Eva Higuera%Miguelez%NULL%1,                     Irene Pérez%Blanco%NULL%1,                     David García%Rivera%NULL%1,                     Ane Martín%de la Fuente%NULL%1,                     Marta%Pardo%NULL%1,                     Vanessa%Rodriguez%NULL%1,                     Unai%Bengoetxea%NULL%1,                     Fernando%Ramasco%NULL%1,                     Sheila Olga Santidrián%Bernal%NULL%1,                     Alvar Santa Cruz%Hernando%NULL%1,                     Antonio Planas%Roca%NULL%1,                     Carlos Figueroa%Yusta%NULL%1,                     Esther García%Villabona%NULL%1,                     Carmen Vallejo%Lantero%NULL%1,                     Eva Patiño%Rodriguez%NULL%1,                     Alvaro Esquivel%Toledo%NULL%1,                     David Arribas%Méndez%NULL%1,                     Mar Orts%Rodriguez%NULL%1,                     Rosa Méndez%Hernández%NULL%1,                     Jesús Nieves%Alonso%NULL%1,                     Inés Imaz%Artazcoz%NULL%1,                     Sonia Expósito%Carazo%NULL%1,                     Carlos Román%Guerrero%NULL%1,                     Elena Rojo%Rodríguez%NULL%1,                     Ricardo Moreno%González%NULL%1,                     Julia Hernando%Santos%NULL%1,                     Jara Torrente%Pérez%NULL%1,                     Esperanza Mata%Mena%NULL%1,                     Manuel José Muñoz%Martínez%NULL%1,                     Enrique Alday%Muñoz%NULL%1,                     Patricia Martin%Serrano%NULL%1,                     Laura Cotter%Muñoz%NULL%1,                     Amadea%Mjertan%NULL%1,                     Diego Gutierrez%Martínez%NULL%1,                     Carmen Rodríguez%García%NULL%1,                     Olaya Alonso%Viejo%NULL%1,                     Juan Alvarez%Pereira%NULL%1,                     Ana Carmona%Bonet%NULL%1,                     Diana Parrado%López%NULL%1,                     Eva%de Dios Tomas%NULL%1,                     Rafael Martín%Celemin%NULL%1,                     María Luisa Meilan%Paz%NULL%1,                     Luis Quecedo%Gutiérrez%NULL%1,                     Noemí Diaz%Velasco%NULL%1,                     Gabriel Martin%Hernández%NULL%1,                     Francisco Garcia%del Corral%NULL%1,                     Gloria Hernandez%Arias%NULL%1,                     David Rodriguez%Cuesta%NULL%1,                     Ana Gómez%Rice%NULL%1,                     Encarna Mateos%Sevillano%NULL%1,                     Natalia Olmos%Molpeceres%NULL%1,                     Beatriz%Domínguez%NULL%1,                     Ana Vázquez%Lima%NULL%1,                     Ángel%Candela%NULL%1,                     Ismael A. Acevedo%Bambaren%NULL%1,                     Maria Isabel Albala%Blanco%NULL%1,                     Paloma Alonso%Montoiro%NULL%1,                     Fernando Álvarez%Utrera%NULL%1,                     Juan Avellanosa%Esteruelas%NULL%1,                     Amal Azzam%López%NULL%1,                     Alberto José%Balvis%NULL%1,                     Balvis Tommaso%Bardi%NULL%1,                     María Beltrán%Martín%NULL%1,                     Jacobo Benatar%Haserfaty%NULL%1,                     Alberto Berruezo%Camacho%NULL%1,                     Laura Betolaza%Weimer%NULL%1,                     María%del Mar Carbonell Soto%NULL%1,                     Cristina Carrasco%Seral%NULL%1,                     Cristina Cerro %Zaballos%NULL%1,                     Elizabeth Claros%Llamas%NULL%1,                     Pilar Coleta%Orduna%NULL%1,                     Ingrid P. Cortes%Forero%NULL%1,                     Pascual Agustín Crespo%Aliseda%NULL%1,                     María Angélica%de Pablo Pajares%NULL%1,                     Yolanda Díez%Remesal%NULL%1,                     Trinidad Dorado%Díaz%NULL%1,                     Noemí Echevarría%Blasco%NULL%1,                     María Elena Elías%Martín%NULL%1,                     Javier Felices%Triviño%NULL%1,                     Natalia Fernández%López%NULL%1,                     Cristina Fernández%Martín%NULL%1,                     Natalia Ferreiro%Pozuelo%NULL%1,                     Luis Gajate%Martín%NULL%1,                     Clara Gallego%Santos%NULL%1,                     Diego Gil%Mayo%NULL%1,                     María Gómez%Rojo%NULL%1,                     Claudia González%Cibrián%NULL%1,                     Elena Herrera%López%NULL%1,                     Borja Hinojal%Olmedillo%NULL%1,                     Berta Iglesias%Gallego%NULL%1,                     Sassan%Khonsari%NULL%1,                     María Nuria Mane%Ruiz%NULL%1,                     María Manzanero%Arroyo%NULL%1,                     Ana María Mariscal%Ortega%NULL%1,                     Sara Martín%Burcio%NULL%1,                     María%del Carmen Martín González%NULL%1,                     Ascensión Martín%Grande%NULL%1,                     Jose Juan Martín%López%NULL%1,                     Cecilia Martín%Rabes%NULL%1,                     Marcos Martínez%Borja%NULL%1,                     Nilda Martínez%Castro%NULL%1,                     Adolfo Martínez%Pérez%NULL%1,                     Snejana%Matcan%NULL%1,                     Cristina Medrano%Viñas%NULL%1,                     Lisset Miguel%Herrera%NULL%1,                     Adrián Mira%Betancur%NULL%1,                     María Montiel%Carbajo%NULL%1,                     Javier Moya%Moradas%NULL%1,                     Lorena Muñoz%Pérez%NULL%1,                     Mónica Nuñez%Murias%NULL%1,                     Eva Ordiales%González%NULL%1,                     Óscar Ordoñez%Recio%NULL%1,                     Miguel Ángel Palomero%Rodriguez%NULL%1,                     Diego Parise%Roux%NULL%1,                     Lucia Pereira%Torres%NULL%1,                     David Pestaña%Lagunas%NULL%1,                     Juana María Pinto%Corraliza%NULL%1,                     Marian Prieto%Rodrigo%NULL%1,                     Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                     David Rodriguez%Esteban%NULL%1,                     Víctor Rojas%Pernia%NULL%1,                     Álvaro Ruigómez%Saiz%NULL%1,                     Bárbara Saavedra%Villarino%NULL%1,                     Noemí Samaranch%Palero%NULL%1,                     Gloria Santos%Pérez%NULL%1,                     Jaume Serna%Pérez%NULL%1,                     Ana Belén Serrano%Romero%NULL%1,                     Jesús Tercero%López%NULL%1,                     Carlos Tiscar%García%NULL%1,                     Marta%de la Torre Concostrina%NULL%1,                     Eva María Ureta%Mesa%NULL%1,                     Eva Velasco%Olarte%NULL%1,                     Judith Villahoz%Martínez%NULL%1,                     Raúl Villalaba%Palacios%NULL%1,                     Gema Villanueva%García%NULL%1,                     Cristina Vogel%de Medeiros%NULL%1,                     Soraya Gholamian%Ovejero%NULL%1,                     Marta Vicente%Orgaz%NULL%1,                     Patricia Lloreda%Herradon%NULL%1,                     Cristina Crespo%Gómez%NULL%1,                     Tatiana%Sarmiento-Trujillo%NULL%1,                     Noemí García%Medina%NULL%1,                     María Martínez%García%NULL%1,                     Carles Espinós%Ramírez%NULL%1,                     Nabil Mouhaffel%Rivero%NULL%1,                     Jose Antonio Bernia%Gil%NULL%1,                     Sonsoles%Martín%NULL%1,                     María Victoria%Moral%NULL%1,                     Josefina%Galán%NULL%1,                     Pilar%Paniagua%NULL%1,                     Sergio%Pérez%NULL%1,                     Albert%Bainac%NULL%1,                     Ana%Arias%NULL%1,                     Elsa%Ramil%NULL%1,                     Jorge%Escudero%NULL%1,                     Pablo%Monedero%NULL%1,                     Carmen%Cara%NULL%1,                     Andrea%Lara%NULL%1,                     Elena Mendez%Martínez%NULL%1,                     Jorge%Mendoza%NULL%1,                     Íñigo Rubio%Baines%NULL%1,                     Carmen Sala%Trull%NULL%1,                     Pablo Montero%López%NULL%1,                     Alfredo%Gea%NULL%1,                     Alejandro%Montero%NULL%1,                     Rocío Armero%Ibañez%NULL%1,                     Juan Vicente Llau%Pitarch%NULL%1,                     Fernando Rauer%Alcóver%NULL%1,                     Cristina Álvarez%Herreros%NULL%1,                     Cyntia Sánchez%Martín%NULL%1,                     Lucía López Ocáriz%Olmos%NULL%1,                     Marta Navas%Moruno%NULL%1,                     Fernando García%Montoto%NULL%1,                     M. F. Mirón%Rodriguez%NULL%1,                     Laura Fuentes%Coco%NULL%1,                     Cristina Hernández%Gamito%NULL%1,                     Antonio Barba%Orejudo%NULL%1,                     Luis Gerardo Smith%Vielma%NULL%1,                     Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                     Marta Donoso%Domínguez%NULL%1,                     Silvia Esquivel%Ramírez%NULL%1,                     José Antonio%Carbonell%NULL%1,                     Berta Monleón%López%NULL%1,                     Sara%Martínez-Castro%NULL%1,                     Gerardo%Aguilar%NULL%1,                     María Gestal Pablo%Casas%NULL%1,                     Angel Outeiro%Rosato%NULL%1,                     Andrea Naveiro%Pan%NULL%1,                     María Alonso%Portela%NULL%1,                     Adrián García%Romar%NULL%1,                     Eva Mosquera%Rodríguez%NULL%1,                     Diego Ruanova%Seijo%NULL%1,                     Pablo Rama%Maceiras%NULL%1,                     Francisco%Castro-Ceoane%NULL%1,                     Esther Moreno%López%NULL%1,                     Sergio%Gil%NULL%1,                     Julia Guillén%Antón%NULL%1,                     Patricia García-Consuegra%Tirado%NULL%1,                     Aurora Callau%Calvo%NULL%1,                     Laura Forés%Lisbona%NULL%1,                     María Carbonell%Romero%NULL%1,                     Belén Albericio%Gil%NULL%1,                     Laura Pradal%Jarne%NULL%1,                     María Soria%Lozano%NULL%1,                     Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                     Navjot Ariyana%Kaur%NULL%1,                     Daniel%Sacher%NULL%1,                     Oisin%O’Corragain%NULL%1,                     Daniel%Salerno%NULL%1,                     Parag%Desai%NULL%1,                     Sameep%Sehgal%NULL%1,                     Matthew%Gordon%NULL%2,                     Rohit%Gupta%NULL%2,                     Nathaniel%Marchetti%NULL%1,                     Huaqing%Zhao%NULL%2,                     Nicole%Patlakh%NULL%2,                     Gerard J.%Criner%NULL%1,                     Temple%University%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                     Dominik%Jarczak%NULL%1,                     Liina%Thasler%NULL%1,                     Martin%Bachmann%NULL%1,                     Frank%Schulte%NULL%1,                     Berthold%Bein%NULL%1,                     Christian Friedrich%Weber%NULL%1,                     Ulrich%Schäfer%NULL%1,                     Carsten%Veit%NULL%1,                     Hans-Peter%Hauber%NULL%1,                     Sebastian%Kopp%NULL%1,                     Karsten%Sydow%NULL%1,                     Andreas%de Weerth%NULL%0,                     Marc%Bota%NULL%1,                     Rüdiger%Schreiber%NULL%1,                     Oliver%Detsch%NULL%1,                     Jan-Peer%Rogmann%NULL%1,                     Daniel%Frings%NULL%0,                     Barbara%Sensen%NULL%1,                     Christoph%Burdelski%NULL%0,                     Olaf%Boenisch%NULL%1,                     Axel%Nierhaus%NULL%0,                     Geraldine%de Heer%NULL%0,                     Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                      Paolo%Comassi%NULL%1,                      Luca%Adriani%NULL%1,                      Giulio%Bergamaschini%NULL%1,                      Elena%Bertin%NULL%1,                      Raffaella%Borromeo%NULL%1,                      Serena%Corti%NULL%1,                      Federica%De Petri%NULL%1,                      Francesco%Dolci%NULL%1,                      Attilio%Galmozzi%NULL%1,                      Alberto%Gigliotti%NULL%1,                      Livio%Gualdoni%NULL%1,                      Claudia%Guerra%NULL%1,                      Anna%Khosthiova%NULL%1,                      Giovanni%Leati%NULL%1,                      Giuseppe%Lupi%NULL%1,                      Paolo%Moscato%NULL%1,                      Vittorio%Perotti%NULL%1,                      Miriam%Piantelli%NULL%1,                      Alain%Ruini%NULL%1,                      Silvia%Sportelli%NULL%1,                      Micaela%Susca%NULL%1,                      Carmine%Troiano%NULL%1,                      Giampaolo%Benelli%NULL%1,                      Elisabetta%Buscarini%NULL%1,                      Ciro%Canetta%NULL%1,                      Guido%Merli%NULL%1,                      Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                      Emna%Ennouri%NULL%1,                      Rayane%Nachi%NULL%1,                      Khaoula%Meddeb%NULL%1,                      Jihene%Mahmoud%NULL%1,                      Nesrine%Thabet%NULL%1,                      Salma%Jerbi%NULL%1,                      Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                      Eleni%Xourgia%NULL%1,                      Theodora K.%Ntaidou%NULL%1,                      Dimitris%Zervakis%NULL%1,                      Eleni E.%Magira%NULL%1,                      Anastasia%Kotanidou%NULL%1,                      Christina%Routsi%NULL%1,                      Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                      Carina%Mostert%NULL%1,                      Corinna%Hentschker%NULL%1,                      Thomas%Voshaar%NULL%1,                      Jürgen%Malzahn%NULL%1,                      Gerhard%Schillinger%NULL%1,                      Jürgen%Klauber%NULL%1,                      Uwe%Janssens%NULL%1,                      Gernot%Marx%NULL%1,                      Steffen%Weber-Carstens%NULL%1,                      Stefan%Kluge%NULL%0,                      Michael%Pfeifer%NULL%1,                      Linus%Grabenhenrich%NULL%1,                      Tobias%Welte%NULL%1,                      Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                      David%Hajage%NULL%2,                      David%Hajage%NULL%0,                      Alexandre%Demoule%NULL%1,                      Tài%Pham%NULL%1,                      Alain%Combes%NULL%1,                      Martin%Dres%NULL%1,                      Said%Lebbah%NULL%1,                      Antoine%Kimmoun%NULL%1,                      Alain%Mercat%NULL%1,                      Gaëtan%Beduneau%NULL%1,                      Jessica%Palmyre%NULL%1,                      Margot%Prevost%NULL%1,                      Pierre%Asfar%NULL%1,                      François%Beloncle%NULL%1,                      Julien%Demiselle%NULL%1,                      Arthur%Pavot%NULL%1,                      Xavier%Monnet%NULL%1,                      Christian%Richard%NULL%1,                      Julien%Mayaux%NULL%1,                      Alexandra%Beurton%NULL%1,                      Richard%Descamps%NULL%1,                      Aurélie%Joret%NULL%1,                      Damien%Du Cheyron%NULL%1,                      Frédéric%Pene%NULL%1,                      Jean-Daniel%Chiche%NULL%1,                      Mathieu%Jozwiak%NULL%1,                      Paul%Jaubert%NULL%1,                      Guillaume%Voiriot%NULL%1,                      Muriel%Fartoukh%NULL%1,                      Marion%Teulier%NULL%1,                      Clarisse%Blayau%NULL%1,                      Erwen%L’Her%NULL%1,                      Cécile%Aubron%NULL%1,                      Laetitia%Bodenes%NULL%1,                      Nicolas%Ferriere%NULL%1,                      Johann%Auchabie%NULL%1,                      Anthony%Le Meur%NULL%1,                      Sylvain%Pignal%NULL%1,                      Thierry%Mazzoni%NULL%1,                      Jean-Pierre%Quenot%NULL%1,                      Pascal%Andreu%NULL%1,                      Jean-Baptiste%Roudau%NULL%1,                      Marie%Labruyère%NULL%1,                      Saad%Nseir%NULL%0,                      Sébastien%Preau%NULL%1,                      Julien%Poissy%NULL%0,                      Daniel%Mathieu%NULL%0,                      Sarah%Benhamida%NULL%1,                      Rémi%Paulet%NULL%1,                      Nicolas%Roucaud%NULL%1,                      Martial%Thyrault%NULL%1,                      Florence%Daviet%NULL%1,                      Sami%Hraiech%NULL%1,                      Gabriel%Parzy%NULL%1,                      Aude%Sylvestre%NULL%1,                      Sébastien%Jochmans%NULL%1,                      Anne-Laure%Bouilland%NULL%1,                      Mehran%Monchi%NULL%1,                      Marc%Danguy des Déserts%NULL%1,                      Quentin%Mathais%NULL%1,                      Gwendoline%Rager%NULL%1,                      Pierre%Pasquier%NULL%1,                      Reignier%Jean%NULL%1,                      Seguin%Amélie%NULL%1,                      Garret%Charlotte%NULL%1,                      Canet%Emmanuel%NULL%1,                      Jean%Dellamonica%NULL%1,                      Clément%Saccheri%NULL%1,                      Romain%Lombardi%NULL%1,                      Yanis%Kouchit%NULL%1,                      Sophie%Jacquier%NULL%1,                      Armelle%Mathonnet%NULL%1,                      Mai-Ahn%Nay%NULL%1,                      Isabelle%Runge%NULL%1,                      Frédéric%Martino%NULL%1,                      Laure%Flurin%NULL%1,                      Amélie%Rolle%NULL%1,                      Michel%Carles%NULL%1,                      Rémi%Coudroy%NULL%1,                      Arnaud W.%Thille%NULL%1,                      Jean-Pierre%Frat%NULL%1,                      Maeva%Rodriguez%NULL%1,                      Pascal%Beuret%NULL%1,                      Audrey%Tientcheu%NULL%1,                      Arthur%Vincent%NULL%1,                      Florian%Michelin%NULL%1,                      Marie Anne%Melone%NULL%1,                      Maxime%Gauzi%NULL%1,                      Arnaud%Guilbert%NULL%1,                      Geoffrey%Kouadri%NULL%1,                      Valérie%Gissot%NULL%1,                      Stéphan%Ehrmann%NULL%1,                      Charlotte%Salmon-Gandonnière%NULL%1,                      Djlali%Elaroussi%NULL%1,                      Agathe%Delbove%NULL%1,                      Yannick%Fedun%NULL%1,                      Julien%Huntzinger%NULL%1,                      Eddy%Lebas%NULL%1,                      Grâce%Kisoka%NULL%1,                      Céline%Grégoire%NULL%1,                      Stella%Marchetta%NULL%1,                      Bernard%Lambermont%NULL%1,                      Laurent%Argaud%NULL%1,                      Thomas%Baudry%NULL%1,                      Pierre-Jean%Bertrand%NULL%1,                      Auguste%Dargent%NULL%1,                      Christophe%Guitton%NULL%1,                      Nicolas%Chudeau%NULL%1,                      Mickaël%Landais%NULL%1,                      Cédric%Darreau%NULL%1,                      Alexis%Ferre%NULL%1,                      Antoine%Gros%NULL%1,                      Guillaume%Lacave%NULL%1,                      Fabrice%Bruneel%NULL%1,                      Mathilde%Neuville%NULL%1,                      Jérôme%Devaquet%NULL%1,                      Guillaume%Tachon%NULL%1,                      Richard%Gallot%NULL%1,                      Riad%Chelha%NULL%1,                      Arnaud%Galbois%NULL%1,                      Anne%Jallot%NULL%1,                      Ludivine Chalumeau%Lemoine%NULL%1,                      Khaldoun%Kuteifan%NULL%1,                      Valentin%Pointurier%NULL%1,                      Louise-Marie%Jandeaux%NULL%1,                      Joy%Mootien%NULL%1,                      Charles%Damoisel%NULL%1,                      Benjamin%Sztrymf%NULL%1,                      Juliette%Chommeloux%NULL%1,                      Charles Edouard%Luyt%NULL%1,                      Frédérique%Schortgen%NULL%1,                      Leon%Rusel%NULL%1,                      Camille%Jung%NULL%1,                      Florent%Gobert%NULL%1,                      Damien%Vimpere%NULL%1,                      Lionel%Lamhaut%NULL%1,                      Bertrand%Sauneuf%NULL%1,                      Liliane%Charrier%NULL%1,                      Julien%Calus%NULL%1,                      Isabelle%Desmeules%NULL%1,                      Benoît%Painvin%NULL%1,                      Jean-Marc%Tadie%NULL%1,                      Vincent%Castelain%NULL%1,                      Baptiste%Michard%NULL%1,                      Jean-Etienne%Herbrecht%NULL%1,                      Mathieu%Baldacini%NULL%1,                      Nicolas%Weiss%NULL%1,                      Sophie%Demeret%NULL%1,                      Clémence%Marois%NULL%1,                      Benjamin%Rohaut%NULL%1,                      Pierre-Henri%Moury%NULL%1,                      Anne-Charlotte%Savida%NULL%1,                      Emmanuel%Couadau%NULL%1,                      Mathieu%Série%NULL%1,                      Nica%Alexandru%NULL%1,                      Cédric%Bruel%NULL%1,                      Candice%Fontaine%NULL%1,                      Sonia%Garrigou%NULL%1,                      Juliette Courtiade%Mahler%NULL%1,                      Maxime%Leclerc%NULL%1,                      Michel%Ramakers%NULL%1,                      Pierre%Garçon%NULL%1,                      Nicole%Massou%NULL%1,                      Ly Phacs%Van Vong%NULL%1,                      Juliane%Sen%NULL%1,                      Nolwenn%Lucas%NULL%1,                      Franck%Chemouni%NULL%1,                      Annabelle%Stoclin%NULL%1,                      Alexandre%Avenel%NULL%1,                      Henri%Faure%NULL%1,                      Angélie%Gentilhomme%NULL%1,                      Sylvie%Ricome%NULL%1,                      Paul%Abraham%NULL%1,                      Céline%Monard%NULL%1,                      Julien%Textoris%NULL%1,                      Thomas%Rimmele%NULL%1,                      Florent%Montini%NULL%1,                      Gabriel%Lejour%NULL%1,                      Thierry%Lazard%NULL%1,                      Isabelle%Etienney%NULL%1,                      Younes%Kerroumi%NULL%1,                      Dupuis%Claire%NULL%1,                      Bereiziat Marine%Coupez%NULL%1,                      Thouy%François%NULL%1,                      Clémet%Hoffmann%NULL%1,                      Nicolas%Donat%NULL%1,                      Violaine%Muller%NULL%1,                      Thibault%Martinez%NULL%1,                      Audrey%Jacquot%NULL%1,                      Matthieu%Mattei%NULL%1,                      Bruno%Levy%NULL%1,                      Ramin%Ravan%NULL%1,                      Loïc%Dopeux%NULL%1,                      Jean-Mathias%Liteaudon%NULL%1,                      Delphine%Roux%NULL%1,                      Brice%Rey%NULL%1,                      Radu%Anghel%NULL%1,                      Deborah%Schenesse%NULL%1,                      Vincent%Gevrey%NULL%1,                      Jermy%Castanera%NULL%1,                      Philippe%Petua%NULL%1,                      Benjamin%Madeux%NULL%1,                      Otto%Hartman%NULL%1,                      Michael%Piagnerelli%NULL%1,                      Anne%Joosten%NULL%1,                      Cinderella%Noel%NULL%1,                      Patrick%Biston%NULL%1,                      Thibaut%Noel%NULL%1,                      Gurvan L. E.%Bouar%NULL%1,                      Messabi%Boukhanza%NULL%1,                      Elsa%Demarest%NULL%1,                      Marie-France%Bajolet%NULL%1,                      Nathanaël%Charrier%NULL%1,                      Audrey%Quenet%NULL%1,                      Cécile%Zylberfajn%NULL%1,                      Nicolas%Dufour%NULL%1,                      Buno%Mégarbane%NULL%1,                      Sqébastian%Voicu%NULL%1,                      Nicolas%Deye%NULL%1,                      Isabelle%Malissin%NULL%1,                      François%Legay%NULL%1,                      Matthieu%Debarre%NULL%1,                      Nicolas%Barbarot%NULL%1,                      Pierre%Fillatre%NULL%1,                      Bertrand%Delord%NULL%1,                      Thomas%Laterrade%NULL%1,                      Tahar%Saghi%NULL%1,                      Wilfried%Pujol%NULL%1,                      Pierre Julien%Cungi%NULL%1,                      Pierre%Esnault%NULL%1,                      Mickael%Cardinale%NULL%1,                      Vivien%Hong Tuan Ha%NULL%1,                      Grégory%Fleury%NULL%1,                      Marie-Ange%Brou%NULL%1,                      Daniel%Zafimahazo%NULL%1,                      David%Tran-Van%NULL%1,                      Patrick%Avargues%NULL%1,                      Lisa%Carenco%NULL%1,                      Nicolas%Robin%NULL%1,                      Alexandre%Ouali%NULL%1,                      Lucie%Houdou%NULL%1,                      Christophe%Le Terrier%NULL%1,                      Noémie%Suh%NULL%1,                      Steve%Primmaz%NULL%1,                      Jérome%Pugin%NULL%1,                      Emmanuel%Weiss%NULL%1,                      Tobias%Gauss%NULL%1,                      Jean-Denis%Moyer%NULL%1,                      Catherine%Paugam-Burtz%NULL%1,                      Béatrice%La Combe%NULL%1,                      Rolland%Smonig%NULL%1,                      Jade%Violleau%NULL%1,                      Pauline%Cailliez%NULL%1,                      Jonathan%Chelly%NULL%1,                      Antoine%Marchalot%NULL%1,                      Cécile%Saladin%NULL%1,                      Christelle%Bigot%NULL%1,                      Pierre-Marie%Fayolle%NULL%1,                      Jules%Fatséas%NULL%1,                      Amr%Ibrahim%NULL%1,                      Dabor%Resiere%NULL%1,                      Rabih%Hage%NULL%1,                      Clémentine%Cholet%NULL%1,                      Marie%Cantier%NULL%1,                      Pierre%Trouiller%NULL%1,                      Philippe%Montravers%NULL%1,                      Brice%Lortat-Jacob%NULL%1,                      Sebastien%Tanaka%NULL%1,                      Alexy%Tran-Dinh%NULL%1,                      Jacques%Duranteau%NULL%1,                      Anatole%Harrois%NULL%1,                      Guillaume%Dubreuil%NULL%1,                      Marie%Werner%NULL%1,                      Anne%Godier%NULL%1,                      Sophie%Hamada%NULL%1,                      Diane%Zlotnik%NULL%1,                      Hélène%Nougue%NULL%1,                      Armand%Mekontso-Dessap%NULL%1,                      Guillaume%Carteaux%NULL%1,                      Keyvan%Razazi%NULL%1,                      Nicolas%De Prost%NULL%1,                      Nicolas%Mongardon%NULL%1,                      Olivier%Langeron%NULL%1,                      Eric%Levesque%NULL%1,                      Arié%Attias%NULL%1,                      Charles%de Roquetaillade%NULL%1,                      Benjamin G.%Chousterman%NULL%1,                      Alexandre%Mebazaa%NULL%1,                      Etienne%Gayat%NULL%1,                      Marc%Garnier%NULL%1,                      Emmanuel%Pardo%NULL%1,                      Lea%Satre-Buisson%NULL%1,                      Christophe%Gutton%NULL%1,                      Elise%Yvin%NULL%1,                      Clémence%Marcault%NULL%1,                      Elie%Azoulay%NULL%1,                      Michael%Darmon%NULL%1,                      Nicolas%Bonnet%NULL%1,                      Nathan%Ebstein%NULL%1,                      Stéphane%Gaudry%NULL%1,                      Yves%Cohen%NULL%1,                       Hafid%Ait-Oufella%NULL%1,                      Geoffroy%Hariri%NULL%1,                      Tomas%Urbina%NULL%1,                      Sandie%Mazerand%NULL%1,                      Nicholas%Heming%NULL%1,                      Francesca%Santi%NULL%1,                      Pierre%Moine%NULL%1,                      Djillali%Annane%NULL%1,                      Adrien%Bouglé%NULL%1,                      Edris%Omar%NULL%1,                      Aymeric%Lancelot%NULL%1,                      Emmanuelle%Begot%NULL%1,                      Gaétan%Plantefeve%NULL%1,                      Damien%Contou%NULL%1,                      Hervé%Mentec%NULL%1,                      Olivier%Pajot%NULL%1,                      Stanislas%Faguer%NULL%1,                      Olivier%Cointault%NULL%1,                      Laurence%Lavayssiere%NULL%1,                      Marie-Béatrice%Nogier%NULL%1,                      Matthieu%Jamme%NULL%1,                      Claire%Pichereau%NULL%1,                      Jan%Hayon%NULL%1,                      Hervé%Outin%NULL%1,                      François%Dépret%NULL%1,                      Maxime%Coutrot%NULL%1,                      Maité%Chaussard%NULL%1,                      Lucie%Guillemet%NULL%1,                      Pierre%Goffin%NULL%1,                      Romain%Thouny%NULL%1,                      Julien%Guntz%NULL%1,                      Laurent%Jadot%NULL%1,                      Romain%Persichini%NULL%1,                      Vanessa%Jean-Michel%NULL%1,                      Hugues%Georges%NULL%1,                      Thomas%Caulier%NULL%1,                      Gaël%Pradel%NULL%1,                      Marie-Hélène%Hausermann%NULL%1,                      ThiMy Hue%Nguyen-Valat%NULL%1,                      Michel%Boudinaud%NULL%1,                      Emmanuel%Vivier%NULL%1,                      Sylvène%Rosseli%NULL%1,                      Gaël%Bourdin%NULL%1,                      Christian%Pommier%NULL%1,                      Marc%Vinclair%NULL%1,                      Simon%Poignant%NULL%1,                      Sandrine%Mons%NULL%1,                      Wulfran%Bougouin%NULL%1,                      Franklin%Bruna%NULL%1,                      Quentin%Maestraggi%NULL%1,                      Christian%Roth%NULL%1,                      Laurent%Bitker%NULL%1,                      François%Dhelft%NULL%1,                      Justine%Bonnet-Chateau%NULL%1,                      Mathilde%Filippelli%NULL%1,                      Tristan%Morichau-Beauchant%NULL%1,                      Stéphane%Thierry%NULL%1,                      Charlotte%Le Roy%NULL%1,                      Mélanie%Saint Jouan%NULL%1,                      Bruno%Goncalves%NULL%1,                      Aurélien%Mazeraud%NULL%1,                      Matthieu%Daniel%NULL%1,                      Tarek%Sharshar%NULL%1,                      Cyril%Cadoz%NULL%1,                      Rostane%Gaci%NULL%1,                      Sébastien%Gette%NULL%1,                      Guillaune%Louis%NULL%1,                      Sophe-Caroline%Sacleux%NULL%1,                      Marie-Amélie%Ordan%NULL%1,                      Aurélie%Cravoisy%NULL%1,                      Marie%Conrad%NULL%1,                      Guilhem%Courte%NULL%1,                      Sébastien%Gibot%NULL%1,                      Younès%Benzidi%NULL%1,                      Claudia%Casella%NULL%1,                      Laurent%Serpin%NULL%1,                      Jean-Lou%Setti%NULL%1,                      Marie-Catherine%Besse%NULL%1,                      Anna%Bourreau%NULL%1,                      Jérôme%Pillot%NULL%1,                      Caroline%Rivera%NULL%1,                      Camille%Vinclair%NULL%1,                      Marie-Aline%Robaux%NULL%1,                      Chloé%Achino%NULL%1,                      Marie-Charlotte%Delignette%NULL%1,                      Tessa%Mazard%NULL%1,                      Frédéric%Aubrun%NULL%1,                      Bruno%Bouchet%NULL%1,                      Aurélien%Frérou%NULL%1,                      Laura%Muller%NULL%1,                      Charlotte%Quentin%NULL%1,                      Samuel%Degoul%NULL%1,                      Xavier%Stihle%NULL%1,                      Claude%Sumian%NULL%1,                      Nicoletta%Bergero%NULL%1,                      Bernard%Lanaspre%NULL%1,                      Hervé%Quintard%NULL%1,                      Eve Marie%Maiziere%NULL%1,                      Pierre-Yves%Egreteau%NULL%1,                      Guillaume%Leloup%NULL%1,                      Florin%Berteau%NULL%1,                      Marjolaine%Cottrel%NULL%1,                      Marie%Bouteloup%NULL%1,                      Matthieu%Jeannot%NULL%1,                      Quentin%Blanc%NULL%1,                      Julien%Saison%NULL%1,                      Isabelle%Geneau%NULL%1,                      Romaric%Grenot%NULL%1,                      Abdel%Ouchike%NULL%1,                      Pascal%Hazera%NULL%1,                      Anne-Lyse%Masse%NULL%1,                      Suela%Demiri%NULL%1,                      Corinne%Vezinet%NULL%1,                      Elodie%Baron%NULL%1,                      Déborah%Benchetrit%NULL%1,                      Antoine%Monsel%NULL%1,                      Grégoire%Trebbia%NULL%1,                      Emmanuelle%Schaack%NULL%1,                      Raphaël%Lepecq%NULL%1,                      Mathieu%Bobet%NULL%1,                      Christophe%Vinsonneau%NULL%1,                      Thibault%Dekeyser%NULL%1,                      Quentin%Delforge%NULL%1,                      Imen%Rahmani%NULL%1,                      Bérengère%Vivet%NULL%1,                      Jonathan%Paillot%NULL%1,                      Lucie%Hierle%NULL%1,                      Claire%Chaignat%NULL%1,                      Sarah%Valette%NULL%1,                      Benoït%Her%NULL%1,                      Jennifier%Brunet%NULL%1,                      Mathieu%Page%NULL%1,                      Fabienne%Boiste%NULL%1,                      Anthony%Collin%NULL%1,                      Florent%Bavozet%NULL%2,                      Aude%Garin%NULL%1,                      Mohamed%Dlala%NULL%1,                      Kais%Mhamdi%NULL%1,                      Bassem%Beilouny%NULL%1,                      Alexandra%Lavalard%NULL%1,                      Severine%Perez%NULL%1,                      Benoit%Veber%NULL%1,                      Pierre-Gildas%Guitard%NULL%1,                      Philippe%Gouin%NULL%1,                      Anna%Lamacz%NULL%1,                      Fabienne%Plouvier%NULL%1,                      Bertrand P.%Delaborde%NULL%1,                      Aïssa%Kherchache%NULL%1,                      Amina%Chaalal%NULL%1,                      Jean-Damien%Ricard%NULL%1,                      Marc%Amouretti%NULL%1,                      Santiago%Freita-Ramos%NULL%1,                      Damien%Roux%NULL%1,                      Jean-Michel%Constantin%NULL%1,                      Mona%Assefi%NULL%1,                      Marine%Lecore%NULL%1,                      Agathe%Selves%NULL%1,                      Florian%Prevost%NULL%1,                      Christian%Lamer%NULL%1,                      Ruiying%Shi%NULL%1,                      Lyes%Knani%NULL%1,                      Sébastien%Pili-Floury%NULL%1,                      Lucie%Vettoretti%NULL%1,                      Michael%Levy%NULL%1,                      Lucile%Marsac%NULL%1,                      Stéphane%Dauger%NULL%1,                      Sophie%Guilmin-Crépon%NULL%1,                      Jean-Baptiste%Putegnat%NULL%1,                      Frédérique%Bayle%NULL%1,                      Maya%Perrou%NULL%1,                      Ghyslaine%Thao%NULL%1,                      Guillaume%Géri%NULL%1,                      Cyril%Charron%NULL%1,                      Xavier%Repessé%NULL%1,                      Antoine%Vieillard-Baron%NULL%1,                      Mathieu%Guilbart%NULL%1,                      Pierre-Alexandre%Roger%NULL%1,                      Sébastien%Hinard%NULL%1,                      Pierre-Yves%Macq%NULL%1,                      Kevin%Chaulier%NULL%1,                      Sylvie%Goutte%NULL%1,                      Patrick%Chillet%NULL%1,                      Anaïs%Pitta%NULL%1,                      Barbara%Darjent%NULL%1,                      Amandine%Bruneau%NULL%1,                      Sigismond%Lasocki%NULL%1,                      Maxime%Leger%NULL%1,                      Soizic%Gergaud%NULL%1,                      Pierre%Lemarie%NULL%1,                      Nicolas%Terzi%NULL%1,                      Carole%Schwebel%NULL%1,                      Anaïs%Dartevel%NULL%1,                      Louis-Marie%Galerneau%NULL%1,                      Jean-Luc%Diehl%NULL%1,                      Caroline%Hauw-Berlemont%NULL%0,                      Nicolas%Péron%NULL%1,                      Emmanuel%Guérot%NULL%1,                      Abolfazl Mohebbi%Amoli%NULL%1,                      Michel%Benhamou%NULL%1,                      Jean-Pierre%Deyme%NULL%1,                      Olivier%Andremont%NULL%1,                      Diane%Lena%NULL%1,                      Julien%Cady%NULL%1,                      Arnaud%Causeret%NULL%1,                      Arnaud%De La Chapelle%NULL%1,                      Christophe%Cracco%NULL%1,                      Stéphane%Rouleau%NULL%1,                      David%Schnell%NULL%1,                      Cécile%Lory%NULL%1,                      Thibault%Chapelle%NULL%1,                      Vincent%Bruckert%NULL%1,                      Julie%Garcia%NULL%1,                      Abdlazize%Sahraoui%NULL%1,                      Nathalie%Abbosh%NULL%1,                      Caroline%Bornstain%NULL%1,                      Pierre%Pernet%NULL%1,                      Florent%Poirson%NULL%1,                      Ahmed%Pasem%NULL%1,                      Philippe%Karoubi%NULL%1,                      Virginie%Poupinel%NULL%1,                      Caroline%Gauthier%NULL%1,                      François%Bouniol%NULL%1,                      Philippe%Feuchere%NULL%1,                      Florent%Bavozet%NULL%0,                      Anne%Heron%NULL%1,                      Serge%Carreira%NULL%1,                      Malo%Emery%NULL%1,                      Anne%Le Floch%NULL%1,                      Luana%Giovannangeli%NULL%1,                      Nicolas%Herzog%NULL%1,                      Christophe%Giacardi%NULL%1,                      Thibaut%Baudic%NULL%1,                      Chloé%Thill%NULL%1,                      Florence%Tubach%NULL%1,                      Olivier%Lesieur%NULL%1,                      Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                      Max W.%Adelman%NULL%2,                      Maxwell A.%Hockstein%NULL%1,                      Chad J.%Robichaux%NULL%1,                      Johnathan A.%Edwards%NULL%1,                      Jane C.%Fazio%NULL%1,                      James M.%Blum%NULL%3,                      Craig S.%Jabaley%NULL%2,                      Mark%Caridi-Scheible%NULL%2,                      Greg S.%Martin%NULL%2,                      David J.%Murphy%NULL%3,                      Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                    Antonelli%M.%coreGivesNoEmail%0,                    Bellani%G.%coreGivesNoEmail%0,                    Bonanomi%E.%coreGivesNoEmail%0,                    Cabrini%L.%coreGivesNoEmail%0,                    Carlesso%E.%coreGivesNoEmail%0,                    Castelli%G.%coreGivesNoEmail%0,                    Cattaneo%S.%coreGivesNoEmail%0,                    Cecconi%M.%coreGivesNoEmail%0,                    Cereda%D.%coreGivesNoEmail%0,                    Colombo%S.%coreGivesNoEmail%0,                    Coluccello%A.%coreGivesNoEmail%0,                    Crescini%G.%coreGivesNoEmail%0,                    Forastieri%Molinari A.%coreGivesNoEmail%0,                    Foti%G.%coreGivesNoEmail%0,                    Fumagalli%R.%coreGivesNoEmail%0,                    Grasselli%G.%coreGivesNoEmail%0,                    Greco%M.%coreGivesNoEmail%0,                    Iotti%G. A.%coreGivesNoEmail%0,                    Langer%T.%coreGivesNoEmail%0,                    Latronico%N.%coreGivesNoEmail%0,                    Lorini%F. L.%coreGivesNoEmail%0,                    Mojoli%F.%coreGivesNoEmail%0,                    Natalini%G.%coreGivesNoEmail%0,                    Pesenti%A.%coreGivesNoEmail%0,                    Pessina%C. M.%coreGivesNoEmail%0,                    Ranieri%V. M.%coreGivesNoEmail%0,                    Rech%R.%coreGivesNoEmail%0,                    Rosano%A.%coreGivesNoEmail%0,                    Scudeller%L.%coreGivesNoEmail%0,                    Storti%E.%coreGivesNoEmail%0,                    Thompson%B. T.%coreGivesNoEmail%0,                    Tirani%M.%coreGivesNoEmail%0,                    Villani%P. G.%coreGivesNoEmail%0,                    Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                      Keum-Ju%Choi%NULL%1,                      Sun Ha%Choi%NULL%1,                      Shin Yup%Lee%NULL%1,                      Kyung Chan%Kim%NULL%1,                      Eun Jin%Kim%NULL%1,                      Jaehee%Lee%NULL%2,                      Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                      Siddique%Chaudhary%NULL%1,                      Kevin%Bryan Lo%NULL%2,                      Kevin%Bryan Lo%NULL%0,                      Robert%DeJoy%NULL%1,                      Fahad%Gul%NULL%1,                      Ricardo%Torres%NULL%1,                      Neal%Chaisson%NULL%2,                      Neal%Chaisson%NULL%0,                      Gabriel%Patarroyo-Aponte%NULL%2,                      Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                      Bruno L.%Ferreyro%NULL%2,                      Bruno L.%Ferreyro%NULL%0,                      Federico%Angriman%NULL%1,                      María%Hernández-Sanz%NULL%2,                      Egoitz%Arruti%NULL%1,                      Antoni%Torres%NULL%2,                      Jesús%Villar%NULL%1,                      Laurent%Brochard%NULL%1,                      Carlos%Ferrando%NULL%2,                      Ricard%Mellado-Artigas%NULL%1,                      María%Hernández-Sanz%NULL%0,                      Carlos%Ferrando%NULL%0,                      Marina%Vendrell%NULL%1,                      Gerard%Sánchez-Etayo%NULL%1,                      Amalia%Alcón%NULL%1,                      Isabel%Belda%NULL%1,                      Mercé%Agustí%NULL%1,                      Albert%Carramiñana%NULL%1,                      Isabel%Gracia%NULL%1,                      Miriam%Panzeri%NULL%1,                      Irene%León%NULL%1,                      Jaume%Balust%NULL%1,                      Ricard%Navarro%NULL%2,                      María José%Arguís%NULL%1,                      María José%Carretero%NULL%1,                      Cristina%Ibáñez%NULL%1,                      Juan%Perdomo%NULL%1,                      Antonio%López%NULL%1,                      Manuel%López-Baamonde%NULL%1,                      Tomás%Cuñat%NULL%1,                      Marta%Ubré%NULL%1,                      Antonio%Ojeda%NULL%1,                      Andrea%Calvo%NULL%1,                      Eva%Rivas%NULL%1,                      Paola%Hurtado%NULL%1,                      Roger%Pujol%NULL%1,                      Nuria%Martín%NULL%1,                      Javier%Tercero%NULL%1,                      Pepe%Sanahuja%NULL%1,                      Marta%Magaldi%NULL%1,                      Miquel%Coca%NULL%1,                      Elena%del Rio%NULL%1,                      Julia%Martínez-Ocon%NULL%1,                      Paula%Masgoret%NULL%1,                      Monserrat%Tio%NULL%1,                      Angel%Caballero%NULL%1,                      Raquel%Risco%NULL%1,                      Raquel%Bergé%NULL%1,                      Lidia%Gómez%NULL%1,                      Nicolás%de Riva%NULL%1,                      Ana%Ruiz%NULL%1,                      Beatriz%Tena%NULL%1,                      Sebastián%Jaramillo%NULL%1,                      José María%Balibrea%NULL%1,                      Francisco Borja de Borja%de Lacy%NULL%1,                      Ana%Otero%NULL%1,                      Ainitze%Ibarzabal%NULL%1,                      Raquel%Bravo%NULL%1,                      Anna%Carreras%NULL%1,                      Daniel%Martín-Barreda%NULL%1,                      Alfonso Jesús%Alias%NULL%1,                      Mariano%Balaguer%NULL%1,                      Jorge%Aliaga%NULL%1,                      Alex%Almuedo%NULL%1,                      Joan Ramón%Alonso%NULL%1,                      Rut%Andrea%NULL%1,                      Gerard Sergi%Angelès%NULL%1,                       Marilyn%Arias%NULL%1,                      Fátima%Aziz%NULL%1,                      Joan Ramon%Badía%NULL%1,                      Enric%Barbeta%NULL%1,                      Toni%Torres%NULL%1,                      Guillem%Batiste%NULL%1,                      Pau%Benet%NULL%1,                      Xavi%Borrat%NULL%1,                      María%Borrell%NULL%1,                      Ernest%Bragulat%NULL%1,                      Inmaculada%Carmona%NULL%1,                      Manuel%Castellà%NULL%1,                      Pedro%Castro%NULL%1,                      Joan%Ceravalls%NULL%1,                      Oscar%Comino%NULL%1,                      Claudia%Cucciniello%NULL%1,                      Clàudia%De Deray%NULL%1,                      Oriol%De Diego%NULL%1,                      Paula%De la Matta%NULL%1,                      Marta%Farrero%NULL%1,                      Javier%Fernández%NULL%1,                      Sara%Fernández%NULL%1,                      Anna%Fernández%NULL%1,                      Miquel%Ferrer%NULL%1,                      Ana%Fervienza%NULL%1,                      María%Tallo Forga%NULL%1,                      Daniel%Forné%NULL%1,                      Clàudia%Galán%NULL%1,                      Andrea%Gómez%NULL%1,                      Eduard%Guasch%NULL%1,                      María%Hernández-Tejero%NULL%1,                      Adriana%Jacas%NULL%1,                      Beltrán%Jiménez%NULL%1,                      Pere%Leyes%NULL%1,                      Teresa%López%NULL%1,                      José Antonio%Martínez%NULL%1,                      Graciela%Martínez-Pallí%NULL%1,                      Jordi%Mercadal%NULL%1,                      Guido%Muñoz%NULL%1,                      José%Muñoz%NULL%1,                      Ricard%Navarro%NULL%0,                      Josep María%Nicolás%NULL%1,                      José Tomás%Ortiz%NULL%1,                      Anna%Peiró%NULL%1,                      Manuel%Pérez%NULL%1,                      Esteban%Poch%NULL%1,                      Margarida%Pujol%NULL%1,                      Eduard%Quintana%NULL%1,                      Bartomeu%Ramis%NULL%1,                      Enric%Reverter%NULL%1,                      Irene%Rovira%NULL%1,                      Pablo%Ruiz%NULL%1,                      Elena%Sandoval%NULL%1,                      Stefan%Schneider%NULL%1,                      Oriol%Sibila%NULL%1,                      Carla%Solé%NULL%1,                      Alex%Soriano%NULL%1,                      Dolors%Soy%NULL%1,                      M.%Suárez%NULL%1,                      Adrián%Téllez%NULL%1,                      Néstor David%Toapanta%NULL%1,                      Antoni%Torres%NULL%0,                      Xavier%Urra%NULL%1,                      César%Aldecoa%NULL%1,                      Alicia%Bordell%NULL%1,                      Silvia%Martín%NULL%1,                      Judith%Andrés%NULL%1,                      Alberto Martínez%Ruiz%NULL%1,                      Gonzalo Tamayo%Medel%NULL%1,                      Iñaki Bilbao Bilbao%Villasante%NULL%1,                      Fernando Iturri%Clavero%NULL%1,                      Covadonga Peralta%Álvarez%NULL%1,                      Julia T.%Herrera Díez%NULL%1,                      Andrea García%Trancho%NULL%1,                      Iñaki Sainz %Mandiola%NULL%1,                      Carmen Ruano%Suarez%NULL%1,                      Angela Ruiz%Bocos%NULL%1,                      Eneritz Urrutia%Izagirre%NULL%1,                      Pablo Ortiz%de Urbina Fernández%NULL%1,                      Naiara Apodaka%López%NULL%1,                      Leire Prieto%Molano%NULL%1,                      Eunate Ganuza%Martínez%NULL%1,                      Iratxe Vallinas%Hidalgo%NULL%1,                      Karmele%de Orte Sancho%NULL%1,                      Celia González%Paniagua%NULL%1,                      Gemma Ortiz%Labrador%NULL%1,                      Mireia Pérez%Larrañaga%NULL%1,                      Marta López%Miguelez%NULL%1,                      Estíbaliz Bárcena%Andrés%NULL%1,                      Erik Urutxurtu%Laureano%NULL%1,                      Maria Jesús Maroño%Boedo%NULL%1,                      Blanca Escontrela%Rodríguez%NULL%1,                      Aitziber Ereñozaga%Camiruaga%NULL%1,                      Deiene Lasuen%Aguirre%NULL%1,                      Ainhoa Zabal%Maeztu%NULL%1,                      Ane Guereca%Gala%NULL%1,                      Iker Castelo%Korro%NULL%1,                      Andrés Álvarez%Campo%NULL%1,                      Alejandro Carcelen%Viana%NULL%1,                      Alejandro Alberdi%Enríquez%NULL%1,                      Xabier Ormazábal%Rementeria%NULL%1,                      Alberto Sánchez%Campos%NULL%1,                      Rosa Gutiérrez%Rico%NULL%1,                      Pablo Barbier%Damborenea%NULL%1,                      Marta Guerenabarrena%Momeñe%NULL%1,                      Borja Cuesta%Ruiz%NULL%1,                      Alejandro López%Rico%NULL%1,                      Ana Rojo%Polo%NULL%1,                      Covadonga García%Grijelmo%NULL%1,                      Mikel Celorrio%Reta%NULL%1,                      Eneko Martín%Arroyo%NULL%1,                      Leire Artaza%Aparicio%NULL%1,                      Iñaki Ituarte%Aspiazu%NULL%1,                      Ane Igeregi%Basabe%NULL%1,                      Itxaso Merino%Julian%NULL%1,                      Isabel Diaz%Rico%NULL%1,                      Maria Paz%Martínez%NULL%1,                      Ramón%Adalia Bartolomé%NULL%1,                      Luigi%Zattera%NULL%1,                      Irina Adalid%Hernandez%NULL%1,                      Leire Larrañaga%Altuna%NULL%1,                      Aina Serrallonga%Castells%NULL%1,                      Adriana Vílchez%Garcia%NULL%1,                      María%Núñez%NULL%1,                      Lorena%Román%NULL%1,                      Isabel Ramos%Delgado%NULL%1,                      Adela Benítez-Cano%Martínez%NULL%1,                      Mireia Chanzá%Albert%NULL%1,                      Juan Carlos Álvarez%García%NULL%1,                      Luis Aguilera%Cuchillo%NULL%1,                      Sandra Beltrán%de Heredia%NULL%1,                      Jesús Carazo%Cordobés%NULL%1,                      Carlos Alberto García%Bernedo%NULL%1,                      Fernando Escolano%Villén%NULL%1,                      Francisco Javier Redondo%Calvo%NULL%1,                      Rubén Villazala%González%NULL%1,                      Victor Baladron%González%NULL%1,                      Patricia%Faba%NULL%1,                      Omar%Montenegro%NULL%1,                      Natalia Bejarano%Ramírez%NULL%1,                      Sergio Marcos%Contreras%NULL%1,                      Alejandro Garcia%Rodríguez%NULL%1,                      Saleta Rey%Vázquez%NULL%1,                      Cristina Garcia%Pérez%NULL%1,                      Eva Higuera%Miguelez%NULL%1,                      Irene Pérez%Blanco%NULL%1,                      David García%Rivera%NULL%1,                      Ane Martín%de la Fuente%NULL%1,                      Marta%Pardo%NULL%1,                      Vanessa%Rodriguez%NULL%1,                      Unai%Bengoetxea%NULL%1,                      Fernando%Ramasco%NULL%1,                      Sheila Olga Santidrián%Bernal%NULL%1,                      Alvar Santa Cruz%Hernando%NULL%1,                      Antonio Planas%Roca%NULL%1,                      Carlos Figueroa%Yusta%NULL%1,                      Esther García%Villabona%NULL%1,                      Carmen Vallejo%Lantero%NULL%1,                      Eva Patiño%Rodriguez%NULL%1,                      Alvaro Esquivel%Toledo%NULL%1,                      David Arribas%Méndez%NULL%1,                      Mar Orts%Rodriguez%NULL%1,                      Rosa Méndez%Hernández%NULL%1,                      Jesús Nieves%Alonso%NULL%1,                      Inés Imaz%Artazcoz%NULL%1,                      Sonia Expósito%Carazo%NULL%1,                      Carlos Román%Guerrero%NULL%1,                      Elena Rojo%Rodríguez%NULL%1,                      Ricardo Moreno%González%NULL%1,                      Julia Hernando%Santos%NULL%1,                      Jara Torrente%Pérez%NULL%1,                      Esperanza Mata%Mena%NULL%1,                      Manuel José Muñoz%Martínez%NULL%1,                      Enrique Alday%Muñoz%NULL%1,                      Patricia Martin%Serrano%NULL%1,                      Laura Cotter%Muñoz%NULL%1,                      Amadea%Mjertan%NULL%1,                      Diego Gutierrez%Martínez%NULL%1,                      Carmen Rodríguez%García%NULL%1,                      Olaya Alonso%Viejo%NULL%1,                      Juan Alvarez%Pereira%NULL%1,                      Ana Carmona%Bonet%NULL%1,                      Diana Parrado%López%NULL%1,                      Eva%de Dios Tomas%NULL%1,                      Rafael Martín%Celemin%NULL%1,                      María Luisa Meilan%Paz%NULL%1,                      Luis Quecedo%Gutiérrez%NULL%1,                      Noemí Diaz%Velasco%NULL%1,                      Gabriel Martin%Hernández%NULL%1,                      Francisco Garcia%del Corral%NULL%1,                      Gloria Hernandez%Arias%NULL%1,                      David Rodriguez%Cuesta%NULL%1,                      Ana Gómez%Rice%NULL%1,                      Encarna Mateos%Sevillano%NULL%1,                      Natalia Olmos%Molpeceres%NULL%1,                      Beatriz%Domínguez%NULL%1,                      Ana Vázquez%Lima%NULL%1,                      Ángel%Candela%NULL%1,                      Ismael A. Acevedo%Bambaren%NULL%1,                      Maria Isabel Albala%Blanco%NULL%1,                      Paloma Alonso%Montoiro%NULL%1,                      Fernando Álvarez%Utrera%NULL%1,                      Juan Avellanosa%Esteruelas%NULL%1,                      Amal Azzam%López%NULL%1,                      Alberto José%Balvis%NULL%1,                      Balvis Tommaso%Bardi%NULL%1,                      María Beltrán%Martín%NULL%1,                      Jacobo Benatar%Haserfaty%NULL%1,                      Alberto Berruezo%Camacho%NULL%1,                      Laura Betolaza%Weimer%NULL%1,                      María%del Mar Carbonell Soto%NULL%1,                      Cristina Carrasco%Seral%NULL%1,                      Cristina Cerro %Zaballos%NULL%1,                      Elizabeth Claros%Llamas%NULL%1,                      Pilar Coleta%Orduna%NULL%1,                      Ingrid P. Cortes%Forero%NULL%1,                      Pascual Agustín Crespo%Aliseda%NULL%1,                      María Angélica%de Pablo Pajares%NULL%1,                      Yolanda Díez%Remesal%NULL%1,                      Trinidad Dorado%Díaz%NULL%1,                      Noemí Echevarría%Blasco%NULL%1,                      María Elena Elías%Martín%NULL%1,                      Javier Felices%Triviño%NULL%1,                      Natalia Fernández%López%NULL%1,                      Cristina Fernández%Martín%NULL%1,                      Natalia Ferreiro%Pozuelo%NULL%1,                      Luis Gajate%Martín%NULL%1,                      Clara Gallego%Santos%NULL%1,                      Diego Gil%Mayo%NULL%1,                      María Gómez%Rojo%NULL%1,                      Claudia González%Cibrián%NULL%1,                      Elena Herrera%López%NULL%1,                      Borja Hinojal%Olmedillo%NULL%1,                      Berta Iglesias%Gallego%NULL%1,                      Sassan%Khonsari%NULL%1,                      María Nuria Mane%Ruiz%NULL%1,                      María Manzanero%Arroyo%NULL%1,                      Ana María Mariscal%Ortega%NULL%1,                      Sara Martín%Burcio%NULL%1,                      María%del Carmen Martín González%NULL%1,                      Ascensión Martín%Grande%NULL%1,                      Jose Juan Martín%López%NULL%1,                      Cecilia Martín%Rabes%NULL%1,                      Marcos Martínez%Borja%NULL%1,                      Nilda Martínez%Castro%NULL%1,                      Adolfo Martínez%Pérez%NULL%1,                      Snejana%Matcan%NULL%1,                      Cristina Medrano%Viñas%NULL%1,                      Lisset Miguel%Herrera%NULL%1,                      Adrián Mira%Betancur%NULL%1,                      María Montiel%Carbajo%NULL%1,                      Javier Moya%Moradas%NULL%1,                      Lorena Muñoz%Pérez%NULL%1,                      Mónica Nuñez%Murias%NULL%1,                      Eva Ordiales%González%NULL%1,                      Óscar Ordoñez%Recio%NULL%1,                      Miguel Ángel Palomero%Rodriguez%NULL%1,                      Diego Parise%Roux%NULL%1,                      Lucia Pereira%Torres%NULL%1,                      David Pestaña%Lagunas%NULL%1,                      Juana María Pinto%Corraliza%NULL%1,                      Marian Prieto%Rodrigo%NULL%1,                      Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                      David Rodriguez%Esteban%NULL%1,                      Víctor Rojas%Pernia%NULL%1,                      Álvaro Ruigómez%Saiz%NULL%1,                      Bárbara Saavedra%Villarino%NULL%1,                      Noemí Samaranch%Palero%NULL%1,                      Gloria Santos%Pérez%NULL%1,                      Jaume Serna%Pérez%NULL%1,                      Ana Belén Serrano%Romero%NULL%1,                      Jesús Tercero%López%NULL%1,                      Carlos Tiscar%García%NULL%1,                      Marta%de la Torre Concostrina%NULL%1,                      Eva María Ureta%Mesa%NULL%1,                      Eva Velasco%Olarte%NULL%1,                      Judith Villahoz%Martínez%NULL%1,                      Raúl Villalaba%Palacios%NULL%1,                      Gema Villanueva%García%NULL%1,                      Cristina Vogel%de Medeiros%NULL%1,                      Soraya Gholamian%Ovejero%NULL%1,                      Marta Vicente%Orgaz%NULL%1,                      Patricia Lloreda%Herradon%NULL%1,                      Cristina Crespo%Gómez%NULL%1,                      Tatiana%Sarmiento-Trujillo%NULL%1,                      Noemí García%Medina%NULL%1,                      María Martínez%García%NULL%1,                      Carles Espinós%Ramírez%NULL%1,                      Nabil Mouhaffel%Rivero%NULL%1,                      Jose Antonio Bernia%Gil%NULL%1,                      Sonsoles%Martín%NULL%1,                      María Victoria%Moral%NULL%1,                      Josefina%Galán%NULL%1,                      Pilar%Paniagua%NULL%1,                      Sergio%Pérez%NULL%1,                      Albert%Bainac%NULL%1,                      Ana%Arias%NULL%1,                      Elsa%Ramil%NULL%1,                      Jorge%Escudero%NULL%1,                      Pablo%Monedero%NULL%1,                      Carmen%Cara%NULL%1,                      Andrea%Lara%NULL%1,                      Elena Mendez%Martínez%NULL%1,                      Jorge%Mendoza%NULL%1,                      Íñigo Rubio%Baines%NULL%1,                      Carmen Sala%Trull%NULL%1,                      Pablo Montero%López%NULL%1,                      Alfredo%Gea%NULL%1,                      Alejandro%Montero%NULL%1,                      Rocío Armero%Ibañez%NULL%1,                      Juan Vicente Llau%Pitarch%NULL%1,                      Fernando Rauer%Alcóver%NULL%1,                      Cristina Álvarez%Herreros%NULL%1,                      Cyntia Sánchez%Martín%NULL%1,                      Lucía López Ocáriz%Olmos%NULL%1,                      Marta Navas%Moruno%NULL%1,                      Fernando García%Montoto%NULL%1,                      M. F. Mirón%Rodriguez%NULL%1,                      Laura Fuentes%Coco%NULL%1,                      Cristina Hernández%Gamito%NULL%1,                      Antonio Barba%Orejudo%NULL%1,                      Luis Gerardo Smith%Vielma%NULL%1,                      Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                      Marta Donoso%Domínguez%NULL%1,                      Silvia Esquivel%Ramírez%NULL%1,                      José Antonio%Carbonell%NULL%1,                      Berta Monleón%López%NULL%1,                      Sara%Martínez-Castro%NULL%1,                      Gerardo%Aguilar%NULL%1,                      María Gestal Pablo%Casas%NULL%1,                      Angel Outeiro%Rosato%NULL%1,                      Andrea Naveiro%Pan%NULL%1,                      María Alonso%Portela%NULL%1,                      Adrián García%Romar%NULL%1,                      Eva Mosquera%Rodríguez%NULL%1,                      Diego Ruanova%Seijo%NULL%1,                      Pablo Rama%Maceiras%NULL%1,                      Francisco%Castro-Ceoane%NULL%1,                      Esther Moreno%López%NULL%1,                      Sergio%Gil%NULL%1,                      Julia Guillén%Antón%NULL%1,                      Patricia García-Consuegra%Tirado%NULL%1,                      Aurora Callau%Calvo%NULL%1,                      Laura Forés%Lisbona%NULL%1,                      María Carbonell%Romero%NULL%1,                      Belén Albericio%Gil%NULL%1,                      Laura Pradal%Jarne%NULL%1,                      María Soria%Lozano%NULL%1,                      Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                      Navjot Ariyana%Kaur%NULL%1,                      Daniel%Sacher%NULL%1,                      Oisin%O’Corragain%NULL%1,                      Daniel%Salerno%NULL%1,                      Parag%Desai%NULL%1,                      Sameep%Sehgal%NULL%1,                      Matthew%Gordon%NULL%2,                      Rohit%Gupta%NULL%2,                      Nathaniel%Marchetti%NULL%1,                      Huaqing%Zhao%NULL%2,                      Nicole%Patlakh%NULL%2,                      Gerard J.%Criner%NULL%1,                      Temple%University%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                      Dominik%Jarczak%NULL%1,                      Liina%Thasler%NULL%1,                      Martin%Bachmann%NULL%1,                      Frank%Schulte%NULL%1,                      Berthold%Bein%NULL%1,                      Christian Friedrich%Weber%NULL%1,                      Ulrich%Schäfer%NULL%1,                      Carsten%Veit%NULL%1,                      Hans-Peter%Hauber%NULL%1,                      Sebastian%Kopp%NULL%1,                      Karsten%Sydow%NULL%1,                      Andreas%de Weerth%NULL%0,                      Marc%Bota%NULL%1,                      Rüdiger%Schreiber%NULL%1,                      Oliver%Detsch%NULL%1,                      Jan-Peer%Rogmann%NULL%1,                      Daniel%Frings%NULL%0,                      Barbara%Sensen%NULL%1,                      Christoph%Burdelski%NULL%0,                      Olaf%Boenisch%NULL%1,                      Axel%Nierhaus%NULL%0,                      Geraldine%de Heer%NULL%0,                      Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                       Paolo%Comassi%NULL%1,                       Luca%Adriani%NULL%1,                       Giulio%Bergamaschini%NULL%1,                       Elena%Bertin%NULL%1,                       Raffaella%Borromeo%NULL%1,                       Serena%Corti%NULL%1,                       Federica%De Petri%NULL%1,                       Francesco%Dolci%NULL%1,                       Attilio%Galmozzi%NULL%1,                       Alberto%Gigliotti%NULL%1,                       Livio%Gualdoni%NULL%1,                       Claudia%Guerra%NULL%1,                       Anna%Khosthiova%NULL%1,                       Giovanni%Leati%NULL%1,                       Giuseppe%Lupi%NULL%1,                       Paolo%Moscato%NULL%1,                       Vittorio%Perotti%NULL%1,                       Miriam%Piantelli%NULL%1,                       Alain%Ruini%NULL%1,                       Silvia%Sportelli%NULL%1,                       Micaela%Susca%NULL%1,                       Carmine%Troiano%NULL%1,                       Giampaolo%Benelli%NULL%1,                       Elisabetta%Buscarini%NULL%1,                       Ciro%Canetta%NULL%1,                       Guido%Merli%NULL%1,                       Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                       Emna%Ennouri%NULL%1,                       Rayane%Nachi%NULL%1,                       Khaoula%Meddeb%NULL%1,                       Jihene%Mahmoud%NULL%1,                       Nesrine%Thabet%NULL%1,                       Salma%Jerbi%NULL%1,                       Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                       Eleni%Xourgia%NULL%1,                       Theodora K.%Ntaidou%NULL%1,                       Dimitris%Zervakis%NULL%1,                       Eleni E.%Magira%NULL%1,                       Anastasia%Kotanidou%NULL%1,                       Christina%Routsi%NULL%1,                       Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                       Carina%Mostert%NULL%1,                       Corinna%Hentschker%NULL%1,                       Thomas%Voshaar%NULL%1,                       Jürgen%Malzahn%NULL%1,                       Gerhard%Schillinger%NULL%1,                       Jürgen%Klauber%NULL%1,                       Uwe%Janssens%NULL%1,                       Gernot%Marx%NULL%1,                       Steffen%Weber-Carstens%NULL%1,                       Stefan%Kluge%NULL%0,                       Michael%Pfeifer%NULL%1,                       Linus%Grabenhenrich%NULL%1,                       Tobias%Welte%NULL%1,                       Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                       David%Hajage%NULL%2,                       David%Hajage%NULL%0,                       Alexandre%Demoule%NULL%1,                       Tài%Pham%NULL%1,                       Alain%Combes%NULL%1,                       Martin%Dres%NULL%1,                       Said%Lebbah%NULL%1,                       Antoine%Kimmoun%NULL%1,                       Alain%Mercat%NULL%1,                       Gaëtan%Beduneau%NULL%1,                       Jessica%Palmyre%NULL%1,                       Margot%Prevost%NULL%1,                       Pierre%Asfar%NULL%1,                       François%Beloncle%NULL%1,                       Julien%Demiselle%NULL%1,                       Arthur%Pavot%NULL%1,                       Xavier%Monnet%NULL%1,                       Christian%Richard%NULL%1,                       Julien%Mayaux%NULL%1,                       Alexandra%Beurton%NULL%1,                       Richard%Descamps%NULL%1,                       Aurélie%Joret%NULL%1,                       Damien%Du Cheyron%NULL%1,                       Frédéric%Pene%NULL%1,                       Jean-Daniel%Chiche%NULL%1,                       Mathieu%Jozwiak%NULL%1,                       Paul%Jaubert%NULL%1,                       Guillaume%Voiriot%NULL%1,                       Muriel%Fartoukh%NULL%1,                       Marion%Teulier%NULL%1,                       Clarisse%Blayau%NULL%1,                       Erwen%L’Her%NULL%1,                       Cécile%Aubron%NULL%1,                       Laetitia%Bodenes%NULL%1,                       Nicolas%Ferriere%NULL%1,                       Johann%Auchabie%NULL%1,                       Anthony%Le Meur%NULL%1,                       Sylvain%Pignal%NULL%1,                       Thierry%Mazzoni%NULL%1,                       Jean-Pierre%Quenot%NULL%1,                       Pascal%Andreu%NULL%1,                       Jean-Baptiste%Roudau%NULL%1,                       Marie%Labruyère%NULL%1,                       Saad%Nseir%NULL%0,                       Sébastien%Preau%NULL%1,                       Julien%Poissy%NULL%0,                       Daniel%Mathieu%NULL%0,                       Sarah%Benhamida%NULL%1,                       Rémi%Paulet%NULL%1,                       Nicolas%Roucaud%NULL%1,                       Martial%Thyrault%NULL%1,                       Florence%Daviet%NULL%1,                       Sami%Hraiech%NULL%1,                       Gabriel%Parzy%NULL%1,                       Aude%Sylvestre%NULL%1,                       Sébastien%Jochmans%NULL%1,                       Anne-Laure%Bouilland%NULL%1,                       Mehran%Monchi%NULL%1,                       Marc%Danguy des Déserts%NULL%1,                       Quentin%Mathais%NULL%1,                       Gwendoline%Rager%NULL%1,                       Pierre%Pasquier%NULL%1,                       Reignier%Jean%NULL%1,                       Seguin%Amélie%NULL%1,                       Garret%Charlotte%NULL%1,                       Canet%Emmanuel%NULL%1,                       Jean%Dellamonica%NULL%1,                       Clément%Saccheri%NULL%1,                       Romain%Lombardi%NULL%1,                       Yanis%Kouchit%NULL%1,                       Sophie%Jacquier%NULL%1,                       Armelle%Mathonnet%NULL%1,                       Mai-Ahn%Nay%NULL%1,                       Isabelle%Runge%NULL%1,                       Frédéric%Martino%NULL%1,                       Laure%Flurin%NULL%1,                       Amélie%Rolle%NULL%1,                       Michel%Carles%NULL%1,                       Rémi%Coudroy%NULL%1,                       Arnaud W.%Thille%NULL%1,                       Jean-Pierre%Frat%NULL%1,                       Maeva%Rodriguez%NULL%1,                       Pascal%Beuret%NULL%1,                       Audrey%Tientcheu%NULL%1,                       Arthur%Vincent%NULL%1,                       Florian%Michelin%NULL%1,                       Marie Anne%Melone%NULL%1,                       Maxime%Gauzi%NULL%1,                       Arnaud%Guilbert%NULL%1,                       Geoffrey%Kouadri%NULL%1,                       Valérie%Gissot%NULL%1,                       Stéphan%Ehrmann%NULL%1,                       Charlotte%Salmon-Gandonnière%NULL%1,                       Djlali%Elaroussi%NULL%1,                       Agathe%Delbove%NULL%1,                       Yannick%Fedun%NULL%1,                       Julien%Huntzinger%NULL%1,                       Eddy%Lebas%NULL%1,                       Grâce%Kisoka%NULL%1,                       Céline%Grégoire%NULL%1,                       Stella%Marchetta%NULL%1,                       Bernard%Lambermont%NULL%1,                       Laurent%Argaud%NULL%1,                       Thomas%Baudry%NULL%1,                       Pierre-Jean%Bertrand%NULL%1,                       Auguste%Dargent%NULL%1,                       Christophe%Guitton%NULL%1,                       Nicolas%Chudeau%NULL%1,                       Mickaël%Landais%NULL%1,                       Cédric%Darreau%NULL%1,                       Alexis%Ferre%NULL%1,                       Antoine%Gros%NULL%1,                       Guillaume%Lacave%NULL%1,                       Fabrice%Bruneel%NULL%1,                       Mathilde%Neuville%NULL%1,                       Jérôme%Devaquet%NULL%1,                       Guillaume%Tachon%NULL%1,                       Richard%Gallot%NULL%1,                       Riad%Chelha%NULL%1,                       Arnaud%Galbois%NULL%1,                       Anne%Jallot%NULL%1,                       Ludivine Chalumeau%Lemoine%NULL%1,                       Khaldoun%Kuteifan%NULL%1,                       Valentin%Pointurier%NULL%1,                       Louise-Marie%Jandeaux%NULL%1,                       Joy%Mootien%NULL%1,                       Charles%Damoisel%NULL%1,                       Benjamin%Sztrymf%NULL%1,                       Juliette%Chommeloux%NULL%1,                       Charles Edouard%Luyt%NULL%1,                       Frédérique%Schortgen%NULL%1,                       Leon%Rusel%NULL%1,                       Camille%Jung%NULL%1,                       Florent%Gobert%NULL%1,                       Damien%Vimpere%NULL%1,                       Lionel%Lamhaut%NULL%1,                       Bertrand%Sauneuf%NULL%1,                       Liliane%Charrier%NULL%1,                       Julien%Calus%NULL%1,                       Isabelle%Desmeules%NULL%1,                       Benoît%Painvin%NULL%1,                       Jean-Marc%Tadie%NULL%1,                       Vincent%Castelain%NULL%1,                       Baptiste%Michard%NULL%1,                       Jean-Etienne%Herbrecht%NULL%1,                       Mathieu%Baldacini%NULL%1,                       Nicolas%Weiss%NULL%1,                       Sophie%Demeret%NULL%1,                       Clémence%Marois%NULL%1,                       Benjamin%Rohaut%NULL%1,                       Pierre-Henri%Moury%NULL%1,                       Anne-Charlotte%Savida%NULL%1,                       Emmanuel%Couadau%NULL%1,                       Mathieu%Série%NULL%1,                       Nica%Alexandru%NULL%1,                       Cédric%Bruel%NULL%1,                       Candice%Fontaine%NULL%1,                       Sonia%Garrigou%NULL%1,                       Juliette Courtiade%Mahler%NULL%1,                       Maxime%Leclerc%NULL%1,                       Michel%Ramakers%NULL%1,                       Pierre%Garçon%NULL%1,                       Nicole%Massou%NULL%1,                       Ly Phacs%Van Vong%NULL%1,                       Juliane%Sen%NULL%1,                       Nolwenn%Lucas%NULL%1,                       Franck%Chemouni%NULL%1,                       Annabelle%Stoclin%NULL%1,                       Alexandre%Avenel%NULL%1,                       Henri%Faure%NULL%1,                       Angélie%Gentilhomme%NULL%1,                       Sylvie%Ricome%NULL%1,                       Paul%Abraham%NULL%1,                       Céline%Monard%NULL%1,                       Julien%Textoris%NULL%1,                       Thomas%Rimmele%NULL%1,                       Florent%Montini%NULL%1,                       Gabriel%Lejour%NULL%1,                       Thierry%Lazard%NULL%1,                       Isabelle%Etienney%NULL%1,                       Younes%Kerroumi%NULL%1,                       Dupuis%Claire%NULL%1,                       Bereiziat Marine%Coupez%NULL%1,                       Thouy%François%NULL%1,                       Clémet%Hoffmann%NULL%1,                       Nicolas%Donat%NULL%1,                       Violaine%Muller%NULL%1,                       Thibault%Martinez%NULL%1,                       Audrey%Jacquot%NULL%1,                       Matthieu%Mattei%NULL%1,                       Bruno%Levy%NULL%1,                       Ramin%Ravan%NULL%1,                       Loïc%Dopeux%NULL%1,                       Jean-Mathias%Liteaudon%NULL%1,                       Delphine%Roux%NULL%1,                       Brice%Rey%NULL%1,                       Radu%Anghel%NULL%1,                       Deborah%Schenesse%NULL%1,                       Vincent%Gevrey%NULL%1,                       Jermy%Castanera%NULL%1,                       Philippe%Petua%NULL%1,                       Benjamin%Madeux%NULL%1,                       Otto%Hartman%NULL%1,                       Michael%Piagnerelli%NULL%1,                       Anne%Joosten%NULL%1,                       Cinderella%Noel%NULL%1,                       Patrick%Biston%NULL%1,                       Thibaut%Noel%NULL%1,                       Gurvan L. E.%Bouar%NULL%1,                       Messabi%Boukhanza%NULL%1,                       Elsa%Demarest%NULL%1,                       Marie-France%Bajolet%NULL%1,                       Nathanaël%Charrier%NULL%1,                       Audrey%Quenet%NULL%1,                       Cécile%Zylberfajn%NULL%1,                       Nicolas%Dufour%NULL%1,                       Buno%Mégarbane%NULL%1,                       Sqébastian%Voicu%NULL%1,                       Nicolas%Deye%NULL%1,                       Isabelle%Malissin%NULL%1,                       François%Legay%NULL%1,                       Matthieu%Debarre%NULL%1,                       Nicolas%Barbarot%NULL%1,                       Pierre%Fillatre%NULL%1,                       Bertrand%Delord%NULL%1,                       Thomas%Laterrade%NULL%1,                       Tahar%Saghi%NULL%1,                       Wilfried%Pujol%NULL%1,                       Pierre Julien%Cungi%NULL%1,                       Pierre%Esnault%NULL%1,                       Mickael%Cardinale%NULL%1,                       Vivien%Hong Tuan Ha%NULL%1,                       Grégory%Fleury%NULL%1,                       Marie-Ange%Brou%NULL%1,                       Daniel%Zafimahazo%NULL%1,                       David%Tran-Van%NULL%1,                       Patrick%Avargues%NULL%1,                       Lisa%Carenco%NULL%1,                       Nicolas%Robin%NULL%1,                       Alexandre%Ouali%NULL%1,                       Lucie%Houdou%NULL%1,                       Christophe%Le Terrier%NULL%1,                       Noémie%Suh%NULL%1,                       Steve%Primmaz%NULL%1,                       Jérome%Pugin%NULL%1,                       Emmanuel%Weiss%NULL%1,                       Tobias%Gauss%NULL%1,                       Jean-Denis%Moyer%NULL%1,                       Catherine%Paugam-Burtz%NULL%1,                       Béatrice%La Combe%NULL%1,                       Rolland%Smonig%NULL%1,                       Jade%Violleau%NULL%1,                       Pauline%Cailliez%NULL%1,                       Jonathan%Chelly%NULL%1,                       Antoine%Marchalot%NULL%1,                       Cécile%Saladin%NULL%1,                       Christelle%Bigot%NULL%1,                       Pierre-Marie%Fayolle%NULL%1,                       Jules%Fatséas%NULL%1,                       Amr%Ibrahim%NULL%1,                       Dabor%Resiere%NULL%1,                       Rabih%Hage%NULL%1,                       Clémentine%Cholet%NULL%1,                       Marie%Cantier%NULL%1,                       Pierre%Trouiller%NULL%1,                       Philippe%Montravers%NULL%1,                       Brice%Lortat-Jacob%NULL%1,                       Sebastien%Tanaka%NULL%1,                       Alexy%Tran-Dinh%NULL%1,                       Jacques%Duranteau%NULL%1,                       Anatole%Harrois%NULL%1,                       Guillaume%Dubreuil%NULL%1,                       Marie%Werner%NULL%1,                       Anne%Godier%NULL%1,                       Sophie%Hamada%NULL%1,                       Diane%Zlotnik%NULL%1,                       Hélène%Nougue%NULL%1,                       Armand%Mekontso-Dessap%NULL%1,                       Guillaume%Carteaux%NULL%1,                       Keyvan%Razazi%NULL%1,                       Nicolas%De Prost%NULL%1,                       Nicolas%Mongardon%NULL%1,                       Olivier%Langeron%NULL%1,                       Eric%Levesque%NULL%1,                       Arié%Attias%NULL%1,                       Charles%de Roquetaillade%NULL%1,                       Benjamin G.%Chousterman%NULL%1,                       Alexandre%Mebazaa%NULL%1,                       Etienne%Gayat%NULL%1,                       Marc%Garnier%NULL%1,                       Emmanuel%Pardo%NULL%1,                       Lea%Satre-Buisson%NULL%1,                       Christophe%Gutton%NULL%1,                       Elise%Yvin%NULL%1,                       Clémence%Marcault%NULL%1,                       Elie%Azoulay%NULL%1,                       Michael%Darmon%NULL%1,                       Nicolas%Bonnet%NULL%1,                       Nathan%Ebstein%NULL%1,                       Stéphane%Gaudry%NULL%1,                       Yves%Cohen%NULL%1,                        Hafid%Ait-Oufella%NULL%1,                       Geoffroy%Hariri%NULL%1,                       Tomas%Urbina%NULL%1,                       Sandie%Mazerand%NULL%1,                       Nicholas%Heming%NULL%1,                       Francesca%Santi%NULL%1,                       Pierre%Moine%NULL%1,                       Djillali%Annane%NULL%1,                       Adrien%Bouglé%NULL%1,                       Edris%Omar%NULL%1,                       Aymeric%Lancelot%NULL%1,                       Emmanuelle%Begot%NULL%1,                       Gaétan%Plantefeve%NULL%1,                       Damien%Contou%NULL%1,                       Hervé%Mentec%NULL%1,                       Olivier%Pajot%NULL%1,                       Stanislas%Faguer%NULL%1,                       Olivier%Cointault%NULL%1,                       Laurence%Lavayssiere%NULL%1,                       Marie-Béatrice%Nogier%NULL%1,                       Matthieu%Jamme%NULL%1,                       Claire%Pichereau%NULL%1,                       Jan%Hayon%NULL%1,                       Hervé%Outin%NULL%1,                       François%Dépret%NULL%1,                       Maxime%Coutrot%NULL%1,                       Maité%Chaussard%NULL%1,                       Lucie%Guillemet%NULL%1,                       Pierre%Goffin%NULL%1,                       Romain%Thouny%NULL%1,                       Julien%Guntz%NULL%1,                       Laurent%Jadot%NULL%1,                       Romain%Persichini%NULL%1,                       Vanessa%Jean-Michel%NULL%1,                       Hugues%Georges%NULL%1,                       Thomas%Caulier%NULL%1,                       Gaël%Pradel%NULL%1,                       Marie-Hélène%Hausermann%NULL%1,                       ThiMy Hue%Nguyen-Valat%NULL%1,                       Michel%Boudinaud%NULL%1,                       Emmanuel%Vivier%NULL%1,                       Sylvène%Rosseli%NULL%1,                       Gaël%Bourdin%NULL%1,                       Christian%Pommier%NULL%1,                       Marc%Vinclair%NULL%1,                       Simon%Poignant%NULL%1,                       Sandrine%Mons%NULL%1,                       Wulfran%Bougouin%NULL%1,                       Franklin%Bruna%NULL%1,                       Quentin%Maestraggi%NULL%1,                       Christian%Roth%NULL%1,                       Laurent%Bitker%NULL%1,                       François%Dhelft%NULL%1,                       Justine%Bonnet-Chateau%NULL%1,                       Mathilde%Filippelli%NULL%1,                       Tristan%Morichau-Beauchant%NULL%1,                       Stéphane%Thierry%NULL%1,                       Charlotte%Le Roy%NULL%1,                       Mélanie%Saint Jouan%NULL%1,                       Bruno%Goncalves%NULL%1,                       Aurélien%Mazeraud%NULL%1,                       Matthieu%Daniel%NULL%1,                       Tarek%Sharshar%NULL%1,                       Cyril%Cadoz%NULL%1,                       Rostane%Gaci%NULL%1,                       Sébastien%Gette%NULL%1,                       Guillaune%Louis%NULL%1,                       Sophe-Caroline%Sacleux%NULL%1,                       Marie-Amélie%Ordan%NULL%1,                       Aurélie%Cravoisy%NULL%1,                       Marie%Conrad%NULL%1,                       Guilhem%Courte%NULL%1,                       Sébastien%Gibot%NULL%1,                       Younès%Benzidi%NULL%1,                       Claudia%Casella%NULL%1,                       Laurent%Serpin%NULL%1,                       Jean-Lou%Setti%NULL%1,                       Marie-Catherine%Besse%NULL%1,                       Anna%Bourreau%NULL%1,                       Jérôme%Pillot%NULL%1,                       Caroline%Rivera%NULL%1,                       Camille%Vinclair%NULL%1,                       Marie-Aline%Robaux%NULL%1,                       Chloé%Achino%NULL%1,                       Marie-Charlotte%Delignette%NULL%1,                       Tessa%Mazard%NULL%1,                       Frédéric%Aubrun%NULL%1,                       Bruno%Bouchet%NULL%1,                       Aurélien%Frérou%NULL%1,                       Laura%Muller%NULL%1,                       Charlotte%Quentin%NULL%1,                       Samuel%Degoul%NULL%1,                       Xavier%Stihle%NULL%1,                       Claude%Sumian%NULL%1,                       Nicoletta%Bergero%NULL%1,                       Bernard%Lanaspre%NULL%1,                       Hervé%Quintard%NULL%1,                       Eve Marie%Maiziere%NULL%1,                       Pierre-Yves%Egreteau%NULL%1,                       Guillaume%Leloup%NULL%1,                       Florin%Berteau%NULL%1,                       Marjolaine%Cottrel%NULL%1,                       Marie%Bouteloup%NULL%1,                       Matthieu%Jeannot%NULL%1,                       Quentin%Blanc%NULL%1,                       Julien%Saison%NULL%1,                       Isabelle%Geneau%NULL%1,                       Romaric%Grenot%NULL%1,                       Abdel%Ouchike%NULL%1,                       Pascal%Hazera%NULL%1,                       Anne-Lyse%Masse%NULL%1,                       Suela%Demiri%NULL%1,                       Corinne%Vezinet%NULL%1,                       Elodie%Baron%NULL%1,                       Déborah%Benchetrit%NULL%1,                       Antoine%Monsel%NULL%1,                       Grégoire%Trebbia%NULL%1,                       Emmanuelle%Schaack%NULL%1,                       Raphaël%Lepecq%NULL%1,                       Mathieu%Bobet%NULL%1,                       Christophe%Vinsonneau%NULL%1,                       Thibault%Dekeyser%NULL%1,                       Quentin%Delforge%NULL%1,                       Imen%Rahmani%NULL%1,                       Bérengère%Vivet%NULL%1,                       Jonathan%Paillot%NULL%1,                       Lucie%Hierle%NULL%1,                       Claire%Chaignat%NULL%1,                       Sarah%Valette%NULL%1,                       Benoït%Her%NULL%1,                       Jennifier%Brunet%NULL%1,                       Mathieu%Page%NULL%1,                       Fabienne%Boiste%NULL%1,                       Anthony%Collin%NULL%1,                       Florent%Bavozet%NULL%2,                       Aude%Garin%NULL%1,                       Mohamed%Dlala%NULL%1,                       Kais%Mhamdi%NULL%1,                       Bassem%Beilouny%NULL%1,                       Alexandra%Lavalard%NULL%1,                       Severine%Perez%NULL%1,                       Benoit%Veber%NULL%1,                       Pierre-Gildas%Guitard%NULL%1,                       Philippe%Gouin%NULL%1,                       Anna%Lamacz%NULL%1,                       Fabienne%Plouvier%NULL%1,                       Bertrand P.%Delaborde%NULL%1,                       Aïssa%Kherchache%NULL%1,                       Amina%Chaalal%NULL%1,                       Jean-Damien%Ricard%NULL%1,                       Marc%Amouretti%NULL%1,                       Santiago%Freita-Ramos%NULL%1,                       Damien%Roux%NULL%1,                       Jean-Michel%Constantin%NULL%1,                       Mona%Assefi%NULL%1,                       Marine%Lecore%NULL%1,                       Agathe%Selves%NULL%1,                       Florian%Prevost%NULL%1,                       Christian%Lamer%NULL%1,                       Ruiying%Shi%NULL%1,                       Lyes%Knani%NULL%1,                       Sébastien%Pili-Floury%NULL%1,                       Lucie%Vettoretti%NULL%1,                       Michael%Levy%NULL%1,                       Lucile%Marsac%NULL%1,                       Stéphane%Dauger%NULL%1,                       Sophie%Guilmin-Crépon%NULL%1,                       Jean-Baptiste%Putegnat%NULL%1,                       Frédérique%Bayle%NULL%1,                       Maya%Perrou%NULL%1,                       Ghyslaine%Thao%NULL%1,                       Guillaume%Géri%NULL%1,                       Cyril%Charron%NULL%1,                       Xavier%Repessé%NULL%1,                       Antoine%Vieillard-Baron%NULL%1,                       Mathieu%Guilbart%NULL%1,                       Pierre-Alexandre%Roger%NULL%1,                       Sébastien%Hinard%NULL%1,                       Pierre-Yves%Macq%NULL%1,                       Kevin%Chaulier%NULL%1,                       Sylvie%Goutte%NULL%1,                       Patrick%Chillet%NULL%1,                       Anaïs%Pitta%NULL%1,                       Barbara%Darjent%NULL%1,                       Amandine%Bruneau%NULL%1,                       Sigismond%Lasocki%NULL%1,                       Maxime%Leger%NULL%1,                       Soizic%Gergaud%NULL%1,                       Pierre%Lemarie%NULL%1,                       Nicolas%Terzi%NULL%1,                       Carole%Schwebel%NULL%1,                       Anaïs%Dartevel%NULL%1,                       Louis-Marie%Galerneau%NULL%1,                       Jean-Luc%Diehl%NULL%1,                       Caroline%Hauw-Berlemont%NULL%0,                       Nicolas%Péron%NULL%1,                       Emmanuel%Guérot%NULL%1,                       Abolfazl Mohebbi%Amoli%NULL%1,                       Michel%Benhamou%NULL%1,                       Jean-Pierre%Deyme%NULL%1,                       Olivier%Andremont%NULL%1,                       Diane%Lena%NULL%1,                       Julien%Cady%NULL%1,                       Arnaud%Causeret%NULL%1,                       Arnaud%De La Chapelle%NULL%1,                       Christophe%Cracco%NULL%1,                       Stéphane%Rouleau%NULL%1,                       David%Schnell%NULL%1,                       Cécile%Lory%NULL%1,                       Thibault%Chapelle%NULL%1,                       Vincent%Bruckert%NULL%1,                       Julie%Garcia%NULL%1,                       Abdlazize%Sahraoui%NULL%1,                       Nathalie%Abbosh%NULL%1,                       Caroline%Bornstain%NULL%1,                       Pierre%Pernet%NULL%1,                       Florent%Poirson%NULL%1,                       Ahmed%Pasem%NULL%1,                       Philippe%Karoubi%NULL%1,                       Virginie%Poupinel%NULL%1,                       Caroline%Gauthier%NULL%1,                       François%Bouniol%NULL%1,                       Philippe%Feuchere%NULL%1,                       Florent%Bavozet%NULL%0,                       Anne%Heron%NULL%1,                       Serge%Carreira%NULL%1,                       Malo%Emery%NULL%1,                       Anne%Le Floch%NULL%1,                       Luana%Giovannangeli%NULL%1,                       Nicolas%Herzog%NULL%1,                       Christophe%Giacardi%NULL%1,                       Thibaut%Baudic%NULL%1,                       Chloé%Thill%NULL%1,                       Florence%Tubach%NULL%1,                       Olivier%Lesieur%NULL%1,                       Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                       Max W.%Adelman%NULL%2,                       Maxwell A.%Hockstein%NULL%1,                       Chad J.%Robichaux%NULL%1,                       Johnathan A.%Edwards%NULL%1,                       Jane C.%Fazio%NULL%1,                       James M.%Blum%NULL%3,                       Craig S.%Jabaley%NULL%2,                       Mark%Caridi-Scheible%NULL%2,                       Greg S.%Martin%NULL%2,                       David J.%Murphy%NULL%3,                       Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                     Antonelli%M.%coreGivesNoEmail%0,                     Bellani%G.%coreGivesNoEmail%0,                     Bonanomi%E.%coreGivesNoEmail%0,                     Cabrini%L.%coreGivesNoEmail%0,                     Carlesso%E.%coreGivesNoEmail%0,                     Castelli%G.%coreGivesNoEmail%0,                     Cattaneo%S.%coreGivesNoEmail%0,                     Cecconi%M.%coreGivesNoEmail%0,                     Cereda%D.%coreGivesNoEmail%0,                     Colombo%S.%coreGivesNoEmail%0,                     Coluccello%A.%coreGivesNoEmail%0,                     Crescini%G.%coreGivesNoEmail%0,                     Forastieri%Molinari A.%coreGivesNoEmail%0,                     Foti%G.%coreGivesNoEmail%0,                     Fumagalli%R.%coreGivesNoEmail%0,                     Grasselli%G.%coreGivesNoEmail%0,                     Greco%M.%coreGivesNoEmail%0,                     Iotti%G. A.%coreGivesNoEmail%0,                     Langer%T.%coreGivesNoEmail%0,                     Latronico%N.%coreGivesNoEmail%0,                     Lorini%F. L.%coreGivesNoEmail%0,                     Mojoli%F.%coreGivesNoEmail%0,                     Natalini%G.%coreGivesNoEmail%0,                     Pesenti%A.%coreGivesNoEmail%0,                     Pessina%C. M.%coreGivesNoEmail%0,                     Ranieri%V. M.%coreGivesNoEmail%0,                     Rech%R.%coreGivesNoEmail%0,                     Rosano%A.%coreGivesNoEmail%0,                     Scudeller%L.%coreGivesNoEmail%0,                     Storti%E.%coreGivesNoEmail%0,                     Thompson%B. T.%coreGivesNoEmail%0,                     Tirani%M.%coreGivesNoEmail%0,                     Villani%P. G.%coreGivesNoEmail%0,                     Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                       Keum-Ju%Choi%NULL%1,                       Sun Ha%Choi%NULL%1,                       Shin Yup%Lee%NULL%1,                       Kyung Chan%Kim%NULL%1,                       Eun Jin%Kim%NULL%1,                       Jaehee%Lee%NULL%2,                       Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                       Siddique%Chaudhary%NULL%1,                       Kevin%Bryan Lo%NULL%2,                       Kevin%Bryan Lo%NULL%0,                       Robert%DeJoy%NULL%1,                       Fahad%Gul%NULL%1,                       Ricardo%Torres%NULL%1,                       Neal%Chaisson%NULL%2,                       Neal%Chaisson%NULL%0,                       Gabriel%Patarroyo-Aponte%NULL%2,                       Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                       Bruno L.%Ferreyro%NULL%2,                       Bruno L.%Ferreyro%NULL%0,                       Federico%Angriman%NULL%1,                       María%Hernández-Sanz%NULL%2,                       Egoitz%Arruti%NULL%1,                       Antoni%Torres%NULL%2,                       Jesús%Villar%NULL%1,                       Laurent%Brochard%NULL%1,                       Carlos%Ferrando%NULL%2,                       Ricard%Mellado-Artigas%NULL%1,                       María%Hernández-Sanz%NULL%0,                       Carlos%Ferrando%NULL%0,                       Marina%Vendrell%NULL%1,                       Gerard%Sánchez-Etayo%NULL%1,                       Amalia%Alcón%NULL%1,                       Isabel%Belda%NULL%1,                       Mercé%Agustí%NULL%1,                       Albert%Carramiñana%NULL%1,                       Isabel%Gracia%NULL%1,                       Miriam%Panzeri%NULL%1,                       Irene%León%NULL%1,                       Jaume%Balust%NULL%1,                       Ricard%Navarro%NULL%2,                       María José%Arguís%NULL%1,                       María José%Carretero%NULL%1,                       Cristina%Ibáñez%NULL%1,                       Juan%Perdomo%NULL%1,                       Antonio%López%NULL%1,                       Manuel%López-Baamonde%NULL%1,                       Tomás%Cuñat%NULL%1,                       Marta%Ubré%NULL%1,                       Antonio%Ojeda%NULL%1,                       Andrea%Calvo%NULL%1,                       Eva%Rivas%NULL%1,                       Paola%Hurtado%NULL%1,                       Roger%Pujol%NULL%1,                       Nuria%Martín%NULL%1,                       Javier%Tercero%NULL%1,                       Pepe%Sanahuja%NULL%1,                       Marta%Magaldi%NULL%1,                       Miquel%Coca%NULL%1,                       Elena%del Rio%NULL%1,                       Julia%Martínez-Ocon%NULL%1,                       Paula%Masgoret%NULL%1,                       Monserrat%Tio%NULL%1,                       Angel%Caballero%NULL%1,                       Raquel%Risco%NULL%1,                       Raquel%Bergé%NULL%1,                       Lidia%Gómez%NULL%1,                       Nicolás%de Riva%NULL%1,                       Ana%Ruiz%NULL%1,                       Beatriz%Tena%NULL%1,                       Sebastián%Jaramillo%NULL%1,                       José María%Balibrea%NULL%1,                       Francisco Borja de Borja%de Lacy%NULL%1,                       Ana%Otero%NULL%1,                       Ainitze%Ibarzabal%NULL%1,                       Raquel%Bravo%NULL%1,                       Anna%Carreras%NULL%1,                       Daniel%Martín-Barreda%NULL%1,                       Alfonso Jesús%Alias%NULL%1,                       Mariano%Balaguer%NULL%1,                       Jorge%Aliaga%NULL%1,                       Alex%Almuedo%NULL%1,                       Joan Ramón%Alonso%NULL%1,                       Rut%Andrea%NULL%1,                       Gerard Sergi%Angelès%NULL%1,                        Marilyn%Arias%NULL%1,                       Fátima%Aziz%NULL%1,                       Joan Ramon%Badía%NULL%1,                       Enric%Barbeta%NULL%1,                       Toni%Torres%NULL%1,                       Guillem%Batiste%NULL%1,                       Pau%Benet%NULL%1,                       Xavi%Borrat%NULL%1,                       María%Borrell%NULL%1,                       Ernest%Bragulat%NULL%1,                       Inmaculada%Carmona%NULL%1,                       Manuel%Castellà%NULL%1,                       Pedro%Castro%NULL%1,                       Joan%Ceravalls%NULL%1,                       Oscar%Comino%NULL%1,                       Claudia%Cucciniello%NULL%1,                       Clàudia%De Deray%NULL%1,                       Oriol%De Diego%NULL%1,                       Paula%De la Matta%NULL%1,                       Marta%Farrero%NULL%1,                       Javier%Fernández%NULL%1,                       Sara%Fernández%NULL%1,                       Anna%Fernández%NULL%1,                       Miquel%Ferrer%NULL%1,                       Ana%Fervienza%NULL%1,                       María%Tallo Forga%NULL%1,                       Daniel%Forné%NULL%1,                       Clàudia%Galán%NULL%1,                       Andrea%Gómez%NULL%1,                       Eduard%Guasch%NULL%1,                       María%Hernández-Tejero%NULL%1,                       Adriana%Jacas%NULL%1,                       Beltrán%Jiménez%NULL%1,                       Pere%Leyes%NULL%1,                       Teresa%López%NULL%1,                       José Antonio%Martínez%NULL%1,                       Graciela%Martínez-Pallí%NULL%1,                       Jordi%Mercadal%NULL%1,                       Guido%Muñoz%NULL%1,                       José%Muñoz%NULL%1,                       Ricard%Navarro%NULL%0,                       Josep María%Nicolás%NULL%1,                       José Tomás%Ortiz%NULL%1,                       Anna%Peiró%NULL%1,                       Manuel%Pérez%NULL%1,                       Esteban%Poch%NULL%1,                       Margarida%Pujol%NULL%1,                       Eduard%Quintana%NULL%1,                       Bartomeu%Ramis%NULL%1,                       Enric%Reverter%NULL%1,                       Irene%Rovira%NULL%1,                       Pablo%Ruiz%NULL%1,                       Elena%Sandoval%NULL%1,                       Stefan%Schneider%NULL%1,                       Oriol%Sibila%NULL%1,                       Carla%Solé%NULL%1,                       Alex%Soriano%NULL%1,                       Dolors%Soy%NULL%1,                       M.%Suárez%NULL%1,                       Adrián%Téllez%NULL%1,                       Néstor David%Toapanta%NULL%1,                       Antoni%Torres%NULL%0,                       Xavier%Urra%NULL%1,                       César%Aldecoa%NULL%1,                       Alicia%Bordell%NULL%1,                       Silvia%Martín%NULL%1,                       Judith%Andrés%NULL%1,                       Alberto Martínez%Ruiz%NULL%1,                       Gonzalo Tamayo%Medel%NULL%1,                       Iñaki Bilbao Bilbao%Villasante%NULL%1,                       Fernando Iturri%Clavero%NULL%1,                       Covadonga Peralta%Álvarez%NULL%1,                       Julia T.%Herrera Díez%NULL%1,                       Andrea García%Trancho%NULL%1,                       Iñaki Sainz %Mandiola%NULL%1,                       Carmen Ruano%Suarez%NULL%1,                       Angela Ruiz%Bocos%NULL%1,                       Eneritz Urrutia%Izagirre%NULL%1,                       Pablo Ortiz%de Urbina Fernández%NULL%1,                       Naiara Apodaka%López%NULL%1,                       Leire Prieto%Molano%NULL%1,                       Eunate Ganuza%Martínez%NULL%1,                       Iratxe Vallinas%Hidalgo%NULL%1,                       Karmele%de Orte Sancho%NULL%1,                       Celia González%Paniagua%NULL%1,                       Gemma Ortiz%Labrador%NULL%1,                       Mireia Pérez%Larrañaga%NULL%1,                       Marta López%Miguelez%NULL%1,                       Estíbaliz Bárcena%Andrés%NULL%1,                       Erik Urutxurtu%Laureano%NULL%1,                       Maria Jesús Maroño%Boedo%NULL%1,                       Blanca Escontrela%Rodríguez%NULL%1,                       Aitziber Ereñozaga%Camiruaga%NULL%1,                       Deiene Lasuen%Aguirre%NULL%1,                       Ainhoa Zabal%Maeztu%NULL%1,                       Ane Guereca%Gala%NULL%1,                       Iker Castelo%Korro%NULL%1,                       Andrés Álvarez%Campo%NULL%1,                       Alejandro Carcelen%Viana%NULL%1,                       Alejandro Alberdi%Enríquez%NULL%1,                       Xabier Ormazábal%Rementeria%NULL%1,                       Alberto Sánchez%Campos%NULL%1,                       Rosa Gutiérrez%Rico%NULL%1,                       Pablo Barbier%Damborenea%NULL%1,                       Marta Guerenabarrena%Momeñe%NULL%1,                       Borja Cuesta%Ruiz%NULL%1,                       Alejandro López%Rico%NULL%1,                       Ana Rojo%Polo%NULL%1,                       Covadonga García%Grijelmo%NULL%1,                       Mikel Celorrio%Reta%NULL%1,                       Eneko Martín%Arroyo%NULL%1,                       Leire Artaza%Aparicio%NULL%1,                       Iñaki Ituarte%Aspiazu%NULL%1,                       Ane Igeregi%Basabe%NULL%1,                       Itxaso Merino%Julian%NULL%1,                       Isabel Diaz%Rico%NULL%1,                       Maria Paz%Martínez%NULL%1,                       Ramón%Adalia Bartolomé%NULL%1,                       Luigi%Zattera%NULL%1,                       Irina Adalid%Hernandez%NULL%1,                       Leire Larrañaga%Altuna%NULL%1,                       Aina Serrallonga%Castells%NULL%1,                       Adriana Vílchez%Garcia%NULL%1,                       María%Núñez%NULL%1,                       Lorena%Román%NULL%1,                       Isabel Ramos%Delgado%NULL%1,                       Adela Benítez-Cano%Martínez%NULL%1,                       Mireia Chanzá%Albert%NULL%1,                       Juan Carlos Álvarez%García%NULL%1,                       Luis Aguilera%Cuchillo%NULL%1,                       Sandra Beltrán%de Heredia%NULL%1,                       Jesús Carazo%Cordobés%NULL%1,                       Carlos Alberto García%Bernedo%NULL%1,                       Fernando Escolano%Villén%NULL%1,                       Francisco Javier Redondo%Calvo%NULL%1,                       Rubén Villazala%González%NULL%1,                       Victor Baladron%González%NULL%1,                       Patricia%Faba%NULL%1,                       Omar%Montenegro%NULL%1,                       Natalia Bejarano%Ramírez%NULL%1,                       Sergio Marcos%Contreras%NULL%1,                       Alejandro Garcia%Rodríguez%NULL%1,                       Saleta Rey%Vázquez%NULL%1,                       Cristina Garcia%Pérez%NULL%1,                       Eva Higuera%Miguelez%NULL%1,                       Irene Pérez%Blanco%NULL%1,                       David García%Rivera%NULL%1,                       Ane Martín%de la Fuente%NULL%1,                       Marta%Pardo%NULL%1,                       Vanessa%Rodriguez%NULL%1,                       Unai%Bengoetxea%NULL%1,                       Fernando%Ramasco%NULL%1,                       Sheila Olga Santidrián%Bernal%NULL%1,                       Alvar Santa Cruz%Hernando%NULL%1,                       Antonio Planas%Roca%NULL%1,                       Carlos Figueroa%Yusta%NULL%1,                       Esther García%Villabona%NULL%1,                       Carmen Vallejo%Lantero%NULL%1,                       Eva Patiño%Rodriguez%NULL%1,                       Alvaro Esquivel%Toledo%NULL%1,                       David Arribas%Méndez%NULL%1,                       Mar Orts%Rodriguez%NULL%1,                       Rosa Méndez%Hernández%NULL%1,                       Jesús Nieves%Alonso%NULL%1,                       Inés Imaz%Artazcoz%NULL%1,                       Sonia Expósito%Carazo%NULL%1,                       Carlos Román%Guerrero%NULL%1,                       Elena Rojo%Rodríguez%NULL%1,                       Ricardo Moreno%González%NULL%1,                       Julia Hernando%Santos%NULL%1,                       Jara Torrente%Pérez%NULL%1,                       Esperanza Mata%Mena%NULL%1,                       Manuel José Muñoz%Martínez%NULL%1,                       Enrique Alday%Muñoz%NULL%1,                       Patricia Martin%Serrano%NULL%1,                       Laura Cotter%Muñoz%NULL%1,                       Amadea%Mjertan%NULL%1,                       Diego Gutierrez%Martínez%NULL%1,                       Carmen Rodríguez%García%NULL%1,                       Olaya Alonso%Viejo%NULL%1,                       Juan Alvarez%Pereira%NULL%1,                       Ana Carmona%Bonet%NULL%1,                       Diana Parrado%López%NULL%1,                       Eva%de Dios Tomas%NULL%1,                       Rafael Martín%Celemin%NULL%1,                       María Luisa Meilan%Paz%NULL%1,                       Luis Quecedo%Gutiérrez%NULL%1,                       Noemí Diaz%Velasco%NULL%1,                       Gabriel Martin%Hernández%NULL%1,                       Francisco Garcia%del Corral%NULL%1,                       Gloria Hernandez%Arias%NULL%1,                       David Rodriguez%Cuesta%NULL%1,                       Ana Gómez%Rice%NULL%1,                       Encarna Mateos%Sevillano%NULL%1,                       Natalia Olmos%Molpeceres%NULL%1,                       Beatriz%Domínguez%NULL%1,                       Ana Vázquez%Lima%NULL%1,                       Ángel%Candela%NULL%1,                       Ismael A. Acevedo%Bambaren%NULL%1,                       Maria Isabel Albala%Blanco%NULL%1,                       Paloma Alonso%Montoiro%NULL%1,                       Fernando Álvarez%Utrera%NULL%1,                       Juan Avellanosa%Esteruelas%NULL%1,                       Amal Azzam%López%NULL%1,                       Alberto José%Balvis%NULL%1,                       Balvis Tommaso%Bardi%NULL%1,                       María Beltrán%Martín%NULL%1,                       Jacobo Benatar%Haserfaty%NULL%1,                       Alberto Berruezo%Camacho%NULL%1,                       Laura Betolaza%Weimer%NULL%1,                       María%del Mar Carbonell Soto%NULL%1,                       Cristina Carrasco%Seral%NULL%1,                       Cristina Cerro %Zaballos%NULL%1,                       Elizabeth Claros%Llamas%NULL%1,                       Pilar Coleta%Orduna%NULL%1,                       Ingrid P. Cortes%Forero%NULL%1,                       Pascual Agustín Crespo%Aliseda%NULL%1,                       María Angélica%de Pablo Pajares%NULL%1,                       Yolanda Díez%Remesal%NULL%1,                       Trinidad Dorado%Díaz%NULL%1,                       Noemí Echevarría%Blasco%NULL%1,                       María Elena Elías%Martín%NULL%1,                       Javier Felices%Triviño%NULL%1,                       Natalia Fernández%López%NULL%1,                       Cristina Fernández%Martín%NULL%1,                       Natalia Ferreiro%Pozuelo%NULL%1,                       Luis Gajate%Martín%NULL%1,                       Clara Gallego%Santos%NULL%1,                       Diego Gil%Mayo%NULL%1,                       María Gómez%Rojo%NULL%1,                       Claudia González%Cibrián%NULL%1,                       Elena Herrera%López%NULL%1,                       Borja Hinojal%Olmedillo%NULL%1,                       Berta Iglesias%Gallego%NULL%1,                       Sassan%Khonsari%NULL%1,                       María Nuria Mane%Ruiz%NULL%1,                       María Manzanero%Arroyo%NULL%1,                       Ana María Mariscal%Ortega%NULL%1,                       Sara Martín%Burcio%NULL%1,                       María%del Carmen Martín González%NULL%1,                       Ascensión Martín%Grande%NULL%1,                       Jose Juan Martín%López%NULL%1,                       Cecilia Martín%Rabes%NULL%1,                       Marcos Martínez%Borja%NULL%1,                       Nilda Martínez%Castro%NULL%1,                       Adolfo Martínez%Pérez%NULL%1,                       Snejana%Matcan%NULL%1,                       Cristina Medrano%Viñas%NULL%1,                       Lisset Miguel%Herrera%NULL%1,                       Adrián Mira%Betancur%NULL%1,                       María Montiel%Carbajo%NULL%1,                       Javier Moya%Moradas%NULL%1,                       Lorena Muñoz%Pérez%NULL%1,                       Mónica Nuñez%Murias%NULL%1,                       Eva Ordiales%González%NULL%1,                       Óscar Ordoñez%Recio%NULL%1,                       Miguel Ángel Palomero%Rodriguez%NULL%1,                       Diego Parise%Roux%NULL%1,                       Lucia Pereira%Torres%NULL%1,                       David Pestaña%Lagunas%NULL%1,                       Juana María Pinto%Corraliza%NULL%1,                       Marian Prieto%Rodrigo%NULL%1,                       Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                       David Rodriguez%Esteban%NULL%1,                       Víctor Rojas%Pernia%NULL%1,                       Álvaro Ruigómez%Saiz%NULL%1,                       Bárbara Saavedra%Villarino%NULL%1,                       Noemí Samaranch%Palero%NULL%1,                       Gloria Santos%Pérez%NULL%1,                       Jaume Serna%Pérez%NULL%1,                       Ana Belén Serrano%Romero%NULL%1,                       Jesús Tercero%López%NULL%1,                       Carlos Tiscar%García%NULL%1,                       Marta%de la Torre Concostrina%NULL%1,                       Eva María Ureta%Mesa%NULL%1,                       Eva Velasco%Olarte%NULL%1,                       Judith Villahoz%Martínez%NULL%1,                       Raúl Villalaba%Palacios%NULL%1,                       Gema Villanueva%García%NULL%1,                       Cristina Vogel%de Medeiros%NULL%1,                       Soraya Gholamian%Ovejero%NULL%1,                       Marta Vicente%Orgaz%NULL%1,                       Patricia Lloreda%Herradon%NULL%1,                       Cristina Crespo%Gómez%NULL%1,                       Tatiana%Sarmiento-Trujillo%NULL%1,                       Noemí García%Medina%NULL%1,                       María Martínez%García%NULL%1,                       Carles Espinós%Ramírez%NULL%1,                       Nabil Mouhaffel%Rivero%NULL%1,                       Jose Antonio Bernia%Gil%NULL%1,                       Sonsoles%Martín%NULL%1,                       María Victoria%Moral%NULL%1,                       Josefina%Galán%NULL%1,                       Pilar%Paniagua%NULL%1,                       Sergio%Pérez%NULL%1,                       Albert%Bainac%NULL%1,                       Ana%Arias%NULL%1,                       Elsa%Ramil%NULL%1,                       Jorge%Escudero%NULL%1,                       Pablo%Monedero%NULL%1,                       Carmen%Cara%NULL%1,                       Andrea%Lara%NULL%1,                       Elena Mendez%Martínez%NULL%1,                       Jorge%Mendoza%NULL%1,                       Íñigo Rubio%Baines%NULL%1,                       Carmen Sala%Trull%NULL%1,                       Pablo Montero%López%NULL%1,                       Alfredo%Gea%NULL%1,                       Alejandro%Montero%NULL%1,                       Rocío Armero%Ibañez%NULL%1,                       Juan Vicente Llau%Pitarch%NULL%1,                       Fernando Rauer%Alcóver%NULL%1,                       Cristina Álvarez%Herreros%NULL%1,                       Cyntia Sánchez%Martín%NULL%1,                       Lucía López Ocáriz%Olmos%NULL%1,                       Marta Navas%Moruno%NULL%1,                       Fernando García%Montoto%NULL%1,                       M. F. Mirón%Rodriguez%NULL%1,                       Laura Fuentes%Coco%NULL%1,                       Cristina Hernández%Gamito%NULL%1,                       Antonio Barba%Orejudo%NULL%1,                       Luis Gerardo Smith%Vielma%NULL%1,                       Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                       Marta Donoso%Domínguez%NULL%1,                       Silvia Esquivel%Ramírez%NULL%1,                       José Antonio%Carbonell%NULL%1,                       Berta Monleón%López%NULL%1,                       Sara%Martínez-Castro%NULL%1,                       Gerardo%Aguilar%NULL%1,                       María Gestal Pablo%Casas%NULL%1,                       Angel Outeiro%Rosato%NULL%1,                       Andrea Naveiro%Pan%NULL%1,                       María Alonso%Portela%NULL%1,                       Adrián García%Romar%NULL%1,                       Eva Mosquera%Rodríguez%NULL%1,                       Diego Ruanova%Seijo%NULL%1,                       Pablo Rama%Maceiras%NULL%1,                       Francisco%Castro-Ceoane%NULL%1,                       Esther Moreno%López%NULL%1,                       Sergio%Gil%NULL%1,                       Julia Guillén%Antón%NULL%1,                       Patricia García-Consuegra%Tirado%NULL%1,                       Aurora Callau%Calvo%NULL%1,                       Laura Forés%Lisbona%NULL%1,                       María Carbonell%Romero%NULL%1,                       Belén Albericio%Gil%NULL%1,                       Laura Pradal%Jarne%NULL%1,                       María Soria%Lozano%NULL%1,                       Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                       Navjot Ariyana%Kaur%NULL%1,                       Daniel%Sacher%NULL%1,                       Oisin%O’Corragain%NULL%1,                       Daniel%Salerno%NULL%1,                       Parag%Desai%NULL%1,                       Sameep%Sehgal%NULL%1,                       Matthew%Gordon%NULL%2,                       Rohit%Gupta%NULL%2,                       Nathaniel%Marchetti%NULL%1,                       Huaqing%Zhao%NULL%2,                       Nicole%Patlakh%NULL%2,                       Gerard J.%Criner%NULL%1,                       Temple%University%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                       Dominik%Jarczak%NULL%1,                       Liina%Thasler%NULL%1,                       Martin%Bachmann%NULL%1,                       Frank%Schulte%NULL%1,                       Berthold%Bein%NULL%1,                       Christian Friedrich%Weber%NULL%1,                       Ulrich%Schäfer%NULL%1,                       Carsten%Veit%NULL%1,                       Hans-Peter%Hauber%NULL%1,                       Sebastian%Kopp%NULL%1,                       Karsten%Sydow%NULL%1,                       Andreas%de Weerth%NULL%0,                       Marc%Bota%NULL%1,                       Rüdiger%Schreiber%NULL%1,                       Oliver%Detsch%NULL%1,                       Jan-Peer%Rogmann%NULL%1,                       Daniel%Frings%NULL%0,                       Barbara%Sensen%NULL%1,                       Christoph%Burdelski%NULL%0,                       Olaf%Boenisch%NULL%1,                       Axel%Nierhaus%NULL%0,                       Geraldine%de Heer%NULL%0,                       Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                        Paolo%Comassi%NULL%1,                        Luca%Adriani%NULL%1,                        Giulio%Bergamaschini%NULL%1,                        Elena%Bertin%NULL%1,                        Raffaella%Borromeo%NULL%1,                        Serena%Corti%NULL%1,                        Federica%De Petri%NULL%1,                        Francesco%Dolci%NULL%1,                        Attilio%Galmozzi%NULL%1,                        Alberto%Gigliotti%NULL%1,                        Livio%Gualdoni%NULL%1,                        Claudia%Guerra%NULL%1,                        Anna%Khosthiova%NULL%1,                        Giovanni%Leati%NULL%1,                        Giuseppe%Lupi%NULL%1,                        Paolo%Moscato%NULL%1,                        Vittorio%Perotti%NULL%1,                        Miriam%Piantelli%NULL%1,                        Alain%Ruini%NULL%1,                        Silvia%Sportelli%NULL%1,                        Micaela%Susca%NULL%1,                        Carmine%Troiano%NULL%1,                        Giampaolo%Benelli%NULL%1,                        Elisabetta%Buscarini%NULL%1,                        Ciro%Canetta%NULL%1,                        Guido%Merli%NULL%1,                        Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                        Emna%Ennouri%NULL%1,                        Rayane%Nachi%NULL%1,                        Khaoula%Meddeb%NULL%1,                        Jihene%Mahmoud%NULL%1,                        Nesrine%Thabet%NULL%1,                        Salma%Jerbi%NULL%1,                        Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                        Eleni%Xourgia%NULL%1,                        Theodora K.%Ntaidou%NULL%1,                        Dimitris%Zervakis%NULL%1,                        Eleni E.%Magira%NULL%1,                        Anastasia%Kotanidou%NULL%1,                        Christina%Routsi%NULL%1,                        Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                        Carina%Mostert%NULL%1,                        Corinna%Hentschker%NULL%1,                        Thomas%Voshaar%NULL%1,                        Jürgen%Malzahn%NULL%1,                        Gerhard%Schillinger%NULL%1,                        Jürgen%Klauber%NULL%1,                        Uwe%Janssens%NULL%1,                        Gernot%Marx%NULL%1,                        Steffen%Weber-Carstens%NULL%1,                        Stefan%Kluge%NULL%0,                        Michael%Pfeifer%NULL%1,                        Linus%Grabenhenrich%NULL%1,                        Tobias%Welte%NULL%1,                        Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                        David%Hajage%NULL%2,                        David%Hajage%NULL%0,                        Alexandre%Demoule%NULL%1,                        Tài%Pham%NULL%1,                        Alain%Combes%NULL%1,                        Martin%Dres%NULL%1,                        Said%Lebbah%NULL%1,                        Antoine%Kimmoun%NULL%1,                        Alain%Mercat%NULL%1,                        Gaëtan%Beduneau%NULL%1,                        Jessica%Palmyre%NULL%1,                        Margot%Prevost%NULL%1,                        Pierre%Asfar%NULL%1,                        François%Beloncle%NULL%1,                        Julien%Demiselle%NULL%1,                        Arthur%Pavot%NULL%1,                        Xavier%Monnet%NULL%1,                        Christian%Richard%NULL%1,                        Julien%Mayaux%NULL%1,                        Alexandra%Beurton%NULL%1,                        Richard%Descamps%NULL%1,                        Aurélie%Joret%NULL%1,                        Damien%Du Cheyron%NULL%1,                        Frédéric%Pene%NULL%1,                        Jean-Daniel%Chiche%NULL%1,                        Mathieu%Jozwiak%NULL%1,                        Paul%Jaubert%NULL%1,                        Guillaume%Voiriot%NULL%1,                        Muriel%Fartoukh%NULL%1,                        Marion%Teulier%NULL%1,                        Clarisse%Blayau%NULL%1,                        Erwen%L’Her%NULL%1,                        Cécile%Aubron%NULL%1,                        Laetitia%Bodenes%NULL%1,                        Nicolas%Ferriere%NULL%1,                        Johann%Auchabie%NULL%1,                        Anthony%Le Meur%NULL%1,                        Sylvain%Pignal%NULL%1,                        Thierry%Mazzoni%NULL%1,                        Jean-Pierre%Quenot%NULL%1,                        Pascal%Andreu%NULL%1,                        Jean-Baptiste%Roudau%NULL%1,                        Marie%Labruyère%NULL%1,                        Saad%Nseir%NULL%0,                        Sébastien%Preau%NULL%1,                        Julien%Poissy%NULL%0,                        Daniel%Mathieu%NULL%0,                        Sarah%Benhamida%NULL%1,                        Rémi%Paulet%NULL%1,                        Nicolas%Roucaud%NULL%1,                        Martial%Thyrault%NULL%1,                        Florence%Daviet%NULL%1,                        Sami%Hraiech%NULL%1,                        Gabriel%Parzy%NULL%1,                        Aude%Sylvestre%NULL%1,                        Sébastien%Jochmans%NULL%1,                        Anne-Laure%Bouilland%NULL%1,                        Mehran%Monchi%NULL%1,                        Marc%Danguy des Déserts%NULL%1,                        Quentin%Mathais%NULL%1,                        Gwendoline%Rager%NULL%1,                        Pierre%Pasquier%NULL%1,                        Reignier%Jean%NULL%1,                        Seguin%Amélie%NULL%1,                        Garret%Charlotte%NULL%1,                        Canet%Emmanuel%NULL%1,                        Jean%Dellamonica%NULL%1,                        Clément%Saccheri%NULL%1,                        Romain%Lombardi%NULL%1,                        Yanis%Kouchit%NULL%1,                        Sophie%Jacquier%NULL%1,                        Armelle%Mathonnet%NULL%1,                        Mai-Ahn%Nay%NULL%1,                        Isabelle%Runge%NULL%1,                        Frédéric%Martino%NULL%1,                        Laure%Flurin%NULL%1,                        Amélie%Rolle%NULL%1,                        Michel%Carles%NULL%1,                        Rémi%Coudroy%NULL%1,                        Arnaud W.%Thille%NULL%1,                        Jean-Pierre%Frat%NULL%1,                        Maeva%Rodriguez%NULL%1,                        Pascal%Beuret%NULL%1,                        Audrey%Tientcheu%NULL%1,                        Arthur%Vincent%NULL%1,                        Florian%Michelin%NULL%1,                        Marie Anne%Melone%NULL%1,                        Maxime%Gauzi%NULL%1,                        Arnaud%Guilbert%NULL%1,                        Geoffrey%Kouadri%NULL%1,                        Valérie%Gissot%NULL%1,                        Stéphan%Ehrmann%NULL%1,                        Charlotte%Salmon-Gandonnière%NULL%1,                        Djlali%Elaroussi%NULL%1,                        Agathe%Delbove%NULL%1,                        Yannick%Fedun%NULL%1,                        Julien%Huntzinger%NULL%1,                        Eddy%Lebas%NULL%1,                        Grâce%Kisoka%NULL%1,                        Céline%Grégoire%NULL%1,                        Stella%Marchetta%NULL%1,                        Bernard%Lambermont%NULL%1,                        Laurent%Argaud%NULL%1,                        Thomas%Baudry%NULL%1,                        Pierre-Jean%Bertrand%NULL%1,                        Auguste%Dargent%NULL%1,                        Christophe%Guitton%NULL%1,                        Nicolas%Chudeau%NULL%1,                        Mickaël%Landais%NULL%1,                        Cédric%Darreau%NULL%1,                        Alexis%Ferre%NULL%1,                        Antoine%Gros%NULL%1,                        Guillaume%Lacave%NULL%1,                        Fabrice%Bruneel%NULL%1,                        Mathilde%Neuville%NULL%1,                        Jérôme%Devaquet%NULL%1,                        Guillaume%Tachon%NULL%1,                        Richard%Gallot%NULL%1,                        Riad%Chelha%NULL%1,                        Arnaud%Galbois%NULL%1,                        Anne%Jallot%NULL%1,                        Ludivine Chalumeau%Lemoine%NULL%1,                        Khaldoun%Kuteifan%NULL%1,                        Valentin%Pointurier%NULL%1,                        Louise-Marie%Jandeaux%NULL%1,                        Joy%Mootien%NULL%1,                        Charles%Damoisel%NULL%1,                        Benjamin%Sztrymf%NULL%1,                        Juliette%Chommeloux%NULL%1,                        Charles Edouard%Luyt%NULL%1,                        Frédérique%Schortgen%NULL%1,                        Leon%Rusel%NULL%1,                        Camille%Jung%NULL%1,                        Florent%Gobert%NULL%1,                        Damien%Vimpere%NULL%1,                        Lionel%Lamhaut%NULL%1,                        Bertrand%Sauneuf%NULL%1,                        Liliane%Charrier%NULL%1,                        Julien%Calus%NULL%1,                        Isabelle%Desmeules%NULL%1,                        Benoît%Painvin%NULL%1,                        Jean-Marc%Tadie%NULL%1,                        Vincent%Castelain%NULL%1,                        Baptiste%Michard%NULL%1,                        Jean-Etienne%Herbrecht%NULL%1,                        Mathieu%Baldacini%NULL%1,                        Nicolas%Weiss%NULL%1,                        Sophie%Demeret%NULL%1,                        Clémence%Marois%NULL%1,                        Benjamin%Rohaut%NULL%1,                        Pierre-Henri%Moury%NULL%1,                        Anne-Charlotte%Savida%NULL%1,                        Emmanuel%Couadau%NULL%1,                        Mathieu%Série%NULL%1,                        Nica%Alexandru%NULL%1,                        Cédric%Bruel%NULL%1,                        Candice%Fontaine%NULL%1,                        Sonia%Garrigou%NULL%1,                        Juliette Courtiade%Mahler%NULL%1,                        Maxime%Leclerc%NULL%1,                        Michel%Ramakers%NULL%1,                        Pierre%Garçon%NULL%1,                        Nicole%Massou%NULL%1,                        Ly Phacs%Van Vong%NULL%1,                        Juliane%Sen%NULL%1,                        Nolwenn%Lucas%NULL%1,                        Franck%Chemouni%NULL%1,                        Annabelle%Stoclin%NULL%1,                        Alexandre%Avenel%NULL%1,                        Henri%Faure%NULL%1,                        Angélie%Gentilhomme%NULL%1,                        Sylvie%Ricome%NULL%1,                        Paul%Abraham%NULL%1,                        Céline%Monard%NULL%1,                        Julien%Textoris%NULL%1,                        Thomas%Rimmele%NULL%1,                        Florent%Montini%NULL%1,                        Gabriel%Lejour%NULL%1,                        Thierry%Lazard%NULL%1,                        Isabelle%Etienney%NULL%1,                        Younes%Kerroumi%NULL%1,                        Dupuis%Claire%NULL%1,                        Bereiziat Marine%Coupez%NULL%1,                        Thouy%François%NULL%1,                        Clémet%Hoffmann%NULL%1,                        Nicolas%Donat%NULL%1,                        Violaine%Muller%NULL%1,                        Thibault%Martinez%NULL%1,                        Audrey%Jacquot%NULL%1,                        Matthieu%Mattei%NULL%1,                        Bruno%Levy%NULL%1,                        Ramin%Ravan%NULL%1,                        Loïc%Dopeux%NULL%1,                        Jean-Mathias%Liteaudon%NULL%1,                        Delphine%Roux%NULL%1,                        Brice%Rey%NULL%1,                        Radu%Anghel%NULL%1,                        Deborah%Schenesse%NULL%1,                        Vincent%Gevrey%NULL%1,                        Jermy%Castanera%NULL%1,                        Philippe%Petua%NULL%1,                        Benjamin%Madeux%NULL%1,                        Otto%Hartman%NULL%1,                        Michael%Piagnerelli%NULL%1,                        Anne%Joosten%NULL%1,                        Cinderella%Noel%NULL%1,                        Patrick%Biston%NULL%1,                        Thibaut%Noel%NULL%1,                        Gurvan L. E.%Bouar%NULL%1,                        Messabi%Boukhanza%NULL%1,                        Elsa%Demarest%NULL%1,                        Marie-France%Bajolet%NULL%1,                        Nathanaël%Charrier%NULL%1,                        Audrey%Quenet%NULL%1,                        Cécile%Zylberfajn%NULL%1,                        Nicolas%Dufour%NULL%1,                        Buno%Mégarbane%NULL%1,                        Sqébastian%Voicu%NULL%1,                        Nicolas%Deye%NULL%1,                        Isabelle%Malissin%NULL%1,                        François%Legay%NULL%1,                        Matthieu%Debarre%NULL%1,                        Nicolas%Barbarot%NULL%1,                        Pierre%Fillatre%NULL%1,                        Bertrand%Delord%NULL%1,                        Thomas%Laterrade%NULL%1,                        Tahar%Saghi%NULL%1,                        Wilfried%Pujol%NULL%1,                        Pierre Julien%Cungi%NULL%1,                        Pierre%Esnault%NULL%1,                        Mickael%Cardinale%NULL%1,                        Vivien%Hong Tuan Ha%NULL%1,                        Grégory%Fleury%NULL%1,                        Marie-Ange%Brou%NULL%1,                        Daniel%Zafimahazo%NULL%1,                        David%Tran-Van%NULL%1,                        Patrick%Avargues%NULL%1,                        Lisa%Carenco%NULL%1,                        Nicolas%Robin%NULL%1,                        Alexandre%Ouali%NULL%1,                        Lucie%Houdou%NULL%1,                        Christophe%Le Terrier%NULL%1,                        Noémie%Suh%NULL%1,                        Steve%Primmaz%NULL%1,                        Jérome%Pugin%NULL%1,                        Emmanuel%Weiss%NULL%1,                        Tobias%Gauss%NULL%1,                        Jean-Denis%Moyer%NULL%1,                        Catherine%Paugam-Burtz%NULL%1,                        Béatrice%La Combe%NULL%1,                        Rolland%Smonig%NULL%1,                        Jade%Violleau%NULL%1,                        Pauline%Cailliez%NULL%1,                        Jonathan%Chelly%NULL%1,                        Antoine%Marchalot%NULL%1,                        Cécile%Saladin%NULL%1,                        Christelle%Bigot%NULL%1,                        Pierre-Marie%Fayolle%NULL%1,                        Jules%Fatséas%NULL%1,                        Amr%Ibrahim%NULL%1,                        Dabor%Resiere%NULL%1,                        Rabih%Hage%NULL%1,                        Clémentine%Cholet%NULL%1,                        Marie%Cantier%NULL%1,                        Pierre%Trouiller%NULL%1,                        Philippe%Montravers%NULL%1,                        Brice%Lortat-Jacob%NULL%1,                        Sebastien%Tanaka%NULL%1,                        Alexy%Tran-Dinh%NULL%1,                        Jacques%Duranteau%NULL%1,                        Anatole%Harrois%NULL%1,                        Guillaume%Dubreuil%NULL%1,                        Marie%Werner%NULL%1,                        Anne%Godier%NULL%1,                        Sophie%Hamada%NULL%1,                        Diane%Zlotnik%NULL%1,                        Hélène%Nougue%NULL%1,                        Armand%Mekontso-Dessap%NULL%1,                        Guillaume%Carteaux%NULL%1,                        Keyvan%Razazi%NULL%1,                        Nicolas%De Prost%NULL%1,                        Nicolas%Mongardon%NULL%1,                        Olivier%Langeron%NULL%1,                        Eric%Levesque%NULL%1,                        Arié%Attias%NULL%1,                        Charles%de Roquetaillade%NULL%1,                        Benjamin G.%Chousterman%NULL%1,                        Alexandre%Mebazaa%NULL%1,                        Etienne%Gayat%NULL%1,                        Marc%Garnier%NULL%1,                        Emmanuel%Pardo%NULL%1,                        Lea%Satre-Buisson%NULL%1,                        Christophe%Gutton%NULL%1,                        Elise%Yvin%NULL%1,                        Clémence%Marcault%NULL%1,                        Elie%Azoulay%NULL%1,                        Michael%Darmon%NULL%1,                        Nicolas%Bonnet%NULL%1,                        Nathan%Ebstein%NULL%1,                        Stéphane%Gaudry%NULL%1,                        Yves%Cohen%NULL%1,                         Hafid%Ait-Oufella%NULL%1,                        Geoffroy%Hariri%NULL%1,                        Tomas%Urbina%NULL%1,                        Sandie%Mazerand%NULL%1,                        Nicholas%Heming%NULL%1,                        Francesca%Santi%NULL%1,                        Pierre%Moine%NULL%1,                        Djillali%Annane%NULL%1,                        Adrien%Bouglé%NULL%1,                        Edris%Omar%NULL%1,                        Aymeric%Lancelot%NULL%1,                        Emmanuelle%Begot%NULL%1,                        Gaétan%Plantefeve%NULL%1,                        Damien%Contou%NULL%1,                        Hervé%Mentec%NULL%1,                        Olivier%Pajot%NULL%1,                        Stanislas%Faguer%NULL%1,                        Olivier%Cointault%NULL%1,                        Laurence%Lavayssiere%NULL%1,                        Marie-Béatrice%Nogier%NULL%1,                        Matthieu%Jamme%NULL%1,                        Claire%Pichereau%NULL%1,                        Jan%Hayon%NULL%1,                        Hervé%Outin%NULL%1,                        François%Dépret%NULL%1,                        Maxime%Coutrot%NULL%1,                        Maité%Chaussard%NULL%1,                        Lucie%Guillemet%NULL%1,                        Pierre%Goffin%NULL%1,                        Romain%Thouny%NULL%1,                        Julien%Guntz%NULL%1,                        Laurent%Jadot%NULL%1,                        Romain%Persichini%NULL%1,                        Vanessa%Jean-Michel%NULL%1,                        Hugues%Georges%NULL%1,                        Thomas%Caulier%NULL%1,                        Gaël%Pradel%NULL%1,                        Marie-Hélène%Hausermann%NULL%1,                        ThiMy Hue%Nguyen-Valat%NULL%1,                        Michel%Boudinaud%NULL%1,                        Emmanuel%Vivier%NULL%1,                        Sylvène%Rosseli%NULL%1,                        Gaël%Bourdin%NULL%1,                        Christian%Pommier%NULL%1,                        Marc%Vinclair%NULL%1,                        Simon%Poignant%NULL%1,                        Sandrine%Mons%NULL%1,                        Wulfran%Bougouin%NULL%1,                        Franklin%Bruna%NULL%1,                        Quentin%Maestraggi%NULL%1,                        Christian%Roth%NULL%1,                        Laurent%Bitker%NULL%1,                        François%Dhelft%NULL%1,                        Justine%Bonnet-Chateau%NULL%1,                        Mathilde%Filippelli%NULL%1,                        Tristan%Morichau-Beauchant%NULL%1,                        Stéphane%Thierry%NULL%1,                        Charlotte%Le Roy%NULL%1,                        Mélanie%Saint Jouan%NULL%1,                        Bruno%Goncalves%NULL%1,                        Aurélien%Mazeraud%NULL%1,                        Matthieu%Daniel%NULL%1,                        Tarek%Sharshar%NULL%1,                        Cyril%Cadoz%NULL%1,                        Rostane%Gaci%NULL%1,                        Sébastien%Gette%NULL%1,                        Guillaune%Louis%NULL%1,                        Sophe-Caroline%Sacleux%NULL%1,                        Marie-Amélie%Ordan%NULL%1,                        Aurélie%Cravoisy%NULL%1,                        Marie%Conrad%NULL%1,                        Guilhem%Courte%NULL%1,                        Sébastien%Gibot%NULL%1,                        Younès%Benzidi%NULL%1,                        Claudia%Casella%NULL%1,                        Laurent%Serpin%NULL%1,                        Jean-Lou%Setti%NULL%1,                        Marie-Catherine%Besse%NULL%1,                        Anna%Bourreau%NULL%1,                        Jérôme%Pillot%NULL%1,                        Caroline%Rivera%NULL%1,                        Camille%Vinclair%NULL%1,                        Marie-Aline%Robaux%NULL%1,                        Chloé%Achino%NULL%1,                        Marie-Charlotte%Delignette%NULL%1,                        Tessa%Mazard%NULL%1,                        Frédéric%Aubrun%NULL%1,                        Bruno%Bouchet%NULL%1,                        Aurélien%Frérou%NULL%1,                        Laura%Muller%NULL%1,                        Charlotte%Quentin%NULL%1,                        Samuel%Degoul%NULL%1,                        Xavier%Stihle%NULL%1,                        Claude%Sumian%NULL%1,                        Nicoletta%Bergero%NULL%1,                        Bernard%Lanaspre%NULL%1,                        Hervé%Quintard%NULL%1,                        Eve Marie%Maiziere%NULL%1,                        Pierre-Yves%Egreteau%NULL%1,                        Guillaume%Leloup%NULL%1,                        Florin%Berteau%NULL%1,                        Marjolaine%Cottrel%NULL%1,                        Marie%Bouteloup%NULL%1,                        Matthieu%Jeannot%NULL%1,                        Quentin%Blanc%NULL%1,                        Julien%Saison%NULL%1,                        Isabelle%Geneau%NULL%1,                        Romaric%Grenot%NULL%1,                        Abdel%Ouchike%NULL%1,                        Pascal%Hazera%NULL%1,                        Anne-Lyse%Masse%NULL%1,                        Suela%Demiri%NULL%1,                        Corinne%Vezinet%NULL%1,                        Elodie%Baron%NULL%1,                        Déborah%Benchetrit%NULL%1,                        Antoine%Monsel%NULL%1,                        Grégoire%Trebbia%NULL%1,                        Emmanuelle%Schaack%NULL%1,                        Raphaël%Lepecq%NULL%1,                        Mathieu%Bobet%NULL%1,                        Christophe%Vinsonneau%NULL%1,                        Thibault%Dekeyser%NULL%1,                        Quentin%Delforge%NULL%1,                        Imen%Rahmani%NULL%1,                        Bérengère%Vivet%NULL%1,                        Jonathan%Paillot%NULL%1,                        Lucie%Hierle%NULL%1,                        Claire%Chaignat%NULL%1,                        Sarah%Valette%NULL%1,                        Benoït%Her%NULL%1,                        Jennifier%Brunet%NULL%1,                        Mathieu%Page%NULL%1,                        Fabienne%Boiste%NULL%1,                        Anthony%Collin%NULL%1,                        Florent%Bavozet%NULL%2,                        Aude%Garin%NULL%1,                        Mohamed%Dlala%NULL%1,                        Kais%Mhamdi%NULL%1,                        Bassem%Beilouny%NULL%1,                        Alexandra%Lavalard%NULL%1,                        Severine%Perez%NULL%1,                        Benoit%Veber%NULL%1,                        Pierre-Gildas%Guitard%NULL%1,                        Philippe%Gouin%NULL%1,                        Anna%Lamacz%NULL%1,                        Fabienne%Plouvier%NULL%1,                        Bertrand P.%Delaborde%NULL%1,                        Aïssa%Kherchache%NULL%1,                        Amina%Chaalal%NULL%1,                        Jean-Damien%Ricard%NULL%1,                        Marc%Amouretti%NULL%1,                        Santiago%Freita-Ramos%NULL%1,                        Damien%Roux%NULL%1,                        Jean-Michel%Constantin%NULL%1,                        Mona%Assefi%NULL%1,                        Marine%Lecore%NULL%1,                        Agathe%Selves%NULL%1,                        Florian%Prevost%NULL%1,                        Christian%Lamer%NULL%1,                        Ruiying%Shi%NULL%1,                        Lyes%Knani%NULL%1,                        Sébastien%Pili-Floury%NULL%1,                        Lucie%Vettoretti%NULL%1,                        Michael%Levy%NULL%1,                        Lucile%Marsac%NULL%1,                        Stéphane%Dauger%NULL%1,                        Sophie%Guilmin-Crépon%NULL%1,                        Jean-Baptiste%Putegnat%NULL%1,                        Frédérique%Bayle%NULL%1,                        Maya%Perrou%NULL%1,                        Ghyslaine%Thao%NULL%1,                        Guillaume%Géri%NULL%1,                        Cyril%Charron%NULL%1,                        Xavier%Repessé%NULL%1,                        Antoine%Vieillard-Baron%NULL%1,                        Mathieu%Guilbart%NULL%1,                        Pierre-Alexandre%Roger%NULL%1,                        Sébastien%Hinard%NULL%1,                        Pierre-Yves%Macq%NULL%1,                        Kevin%Chaulier%NULL%1,                        Sylvie%Goutte%NULL%1,                        Patrick%Chillet%NULL%1,                        Anaïs%Pitta%NULL%1,                        Barbara%Darjent%NULL%1,                        Amandine%Bruneau%NULL%1,                        Sigismond%Lasocki%NULL%1,                        Maxime%Leger%NULL%1,                        Soizic%Gergaud%NULL%1,                        Pierre%Lemarie%NULL%1,                        Nicolas%Terzi%NULL%1,                        Carole%Schwebel%NULL%1,                        Anaïs%Dartevel%NULL%1,                        Louis-Marie%Galerneau%NULL%1,                        Jean-Luc%Diehl%NULL%1,                        Caroline%Hauw-Berlemont%NULL%0,                        Nicolas%Péron%NULL%1,                        Emmanuel%Guérot%NULL%1,                        Abolfazl Mohebbi%Amoli%NULL%1,                        Michel%Benhamou%NULL%1,                        Jean-Pierre%Deyme%NULL%1,                        Olivier%Andremont%NULL%1,                        Diane%Lena%NULL%1,                        Julien%Cady%NULL%1,                        Arnaud%Causeret%NULL%1,                        Arnaud%De La Chapelle%NULL%1,                        Christophe%Cracco%NULL%1,                        Stéphane%Rouleau%NULL%1,                        David%Schnell%NULL%1,                        Cécile%Lory%NULL%1,                        Thibault%Chapelle%NULL%1,                        Vincent%Bruckert%NULL%1,                        Julie%Garcia%NULL%1,                        Abdlazize%Sahraoui%NULL%1,                        Nathalie%Abbosh%NULL%1,                        Caroline%Bornstain%NULL%1,                        Pierre%Pernet%NULL%1,                        Florent%Poirson%NULL%1,                        Ahmed%Pasem%NULL%1,                        Philippe%Karoubi%NULL%1,                        Virginie%Poupinel%NULL%1,                        Caroline%Gauthier%NULL%1,                        François%Bouniol%NULL%1,                        Philippe%Feuchere%NULL%1,                        Florent%Bavozet%NULL%0,                        Anne%Heron%NULL%1,                        Serge%Carreira%NULL%1,                        Malo%Emery%NULL%1,                        Anne%Le Floch%NULL%1,                        Luana%Giovannangeli%NULL%1,                        Nicolas%Herzog%NULL%1,                        Christophe%Giacardi%NULL%1,                        Thibaut%Baudic%NULL%1,                        Chloé%Thill%NULL%1,                        Florence%Tubach%NULL%1,                        Olivier%Lesieur%NULL%1,                        Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                        Max W.%Adelman%NULL%2,                        Maxwell A.%Hockstein%NULL%1,                        Chad J.%Robichaux%NULL%1,                        Johnathan A.%Edwards%NULL%1,                        Jane C.%Fazio%NULL%1,                        James M.%Blum%NULL%3,                        Craig S.%Jabaley%NULL%2,                        Mark%Caridi-Scheible%NULL%2,                        Greg S.%Martin%NULL%2,                        David J.%Murphy%NULL%3,                        Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                      Antonelli%M.%coreGivesNoEmail%0,                      Bellani%G.%coreGivesNoEmail%0,                      Bonanomi%E.%coreGivesNoEmail%0,                      Cabrini%L.%coreGivesNoEmail%0,                      Carlesso%E.%coreGivesNoEmail%0,                      Castelli%G.%coreGivesNoEmail%0,                      Cattaneo%S.%coreGivesNoEmail%0,                      Cecconi%M.%coreGivesNoEmail%0,                      Cereda%D.%coreGivesNoEmail%0,                      Colombo%S.%coreGivesNoEmail%0,                      Coluccello%A.%coreGivesNoEmail%0,                      Crescini%G.%coreGivesNoEmail%0,                      Forastieri%Molinari A.%coreGivesNoEmail%0,                      Foti%G.%coreGivesNoEmail%0,                      Fumagalli%R.%coreGivesNoEmail%0,                      Grasselli%G.%coreGivesNoEmail%0,                      Greco%M.%coreGivesNoEmail%0,                      Iotti%G. A.%coreGivesNoEmail%0,                      Langer%T.%coreGivesNoEmail%0,                      Latronico%N.%coreGivesNoEmail%0,                      Lorini%F. L.%coreGivesNoEmail%0,                      Mojoli%F.%coreGivesNoEmail%0,                      Natalini%G.%coreGivesNoEmail%0,                      Pesenti%A.%coreGivesNoEmail%0,                      Pessina%C. M.%coreGivesNoEmail%0,                      Ranieri%V. M.%coreGivesNoEmail%0,                      Rech%R.%coreGivesNoEmail%0,                      Rosano%A.%coreGivesNoEmail%0,                      Scudeller%L.%coreGivesNoEmail%0,                      Storti%E.%coreGivesNoEmail%0,                      Thompson%B. T.%coreGivesNoEmail%0,                      Tirani%M.%coreGivesNoEmail%0,                      Villani%P. G.%coreGivesNoEmail%0,                      Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                        Keum-Ju%Choi%NULL%1,                        Sun Ha%Choi%NULL%1,                        Shin Yup%Lee%NULL%1,                        Kyung Chan%Kim%NULL%1,                        Eun Jin%Kim%NULL%1,                        Jaehee%Lee%NULL%2,                        Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                        Siddique%Chaudhary%NULL%1,                        Kevin%Bryan Lo%NULL%2,                        Kevin%Bryan Lo%NULL%0,                        Robert%DeJoy%NULL%1,                        Fahad%Gul%NULL%1,                        Ricardo%Torres%NULL%1,                        Neal%Chaisson%NULL%2,                        Neal%Chaisson%NULL%0,                        Gabriel%Patarroyo-Aponte%NULL%2,                        Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                        Bruno L.%Ferreyro%NULL%2,                        Bruno L.%Ferreyro%NULL%0,                        Federico%Angriman%NULL%1,                        María%Hernández-Sanz%NULL%2,                        Egoitz%Arruti%NULL%1,                        Antoni%Torres%NULL%2,                        Jesús%Villar%NULL%1,                        Laurent%Brochard%NULL%1,                        Carlos%Ferrando%NULL%2,                        Ricard%Mellado-Artigas%NULL%1,                        María%Hernández-Sanz%NULL%0,                        Carlos%Ferrando%NULL%0,                        Marina%Vendrell%NULL%1,                        Gerard%Sánchez-Etayo%NULL%1,                        Amalia%Alcón%NULL%1,                        Isabel%Belda%NULL%1,                        Mercé%Agustí%NULL%1,                        Albert%Carramiñana%NULL%1,                        Isabel%Gracia%NULL%1,                        Miriam%Panzeri%NULL%1,                        Irene%León%NULL%1,                        Jaume%Balust%NULL%1,                        Ricard%Navarro%NULL%2,                        María José%Arguís%NULL%1,                        María José%Carretero%NULL%1,                        Cristina%Ibáñez%NULL%1,                        Juan%Perdomo%NULL%1,                        Antonio%López%NULL%1,                        Manuel%López-Baamonde%NULL%1,                        Tomás%Cuñat%NULL%1,                        Marta%Ubré%NULL%1,                        Antonio%Ojeda%NULL%1,                        Andrea%Calvo%NULL%1,                        Eva%Rivas%NULL%1,                        Paola%Hurtado%NULL%1,                        Roger%Pujol%NULL%1,                        Nuria%Martín%NULL%1,                        Javier%Tercero%NULL%1,                        Pepe%Sanahuja%NULL%1,                        Marta%Magaldi%NULL%1,                        Miquel%Coca%NULL%1,                        Elena%del Rio%NULL%1,                        Julia%Martínez-Ocon%NULL%1,                        Paula%Masgoret%NULL%1,                        Monserrat%Tio%NULL%1,                        Angel%Caballero%NULL%1,                        Raquel%Risco%NULL%1,                        Raquel%Bergé%NULL%1,                        Lidia%Gómez%NULL%1,                        Nicolás%de Riva%NULL%1,                        Ana%Ruiz%NULL%1,                        Beatriz%Tena%NULL%1,                        Sebastián%Jaramillo%NULL%1,                        José María%Balibrea%NULL%1,                        Francisco Borja de Borja%de Lacy%NULL%1,                        Ana%Otero%NULL%1,                        Ainitze%Ibarzabal%NULL%1,                        Raquel%Bravo%NULL%1,                        Anna%Carreras%NULL%1,                        Daniel%Martín-Barreda%NULL%1,                        Alfonso Jesús%Alias%NULL%1,                        Mariano%Balaguer%NULL%1,                        Jorge%Aliaga%NULL%1,                        Alex%Almuedo%NULL%1,                        Joan Ramón%Alonso%NULL%1,                        Rut%Andrea%NULL%1,                        Gerard Sergi%Angelès%NULL%1,                         Marilyn%Arias%NULL%1,                        Fátima%Aziz%NULL%1,                        Joan Ramon%Badía%NULL%1,                        Enric%Barbeta%NULL%1,                        Toni%Torres%NULL%1,                        Guillem%Batiste%NULL%1,                        Pau%Benet%NULL%1,                        Xavi%Borrat%NULL%1,                        María%Borrell%NULL%1,                        Ernest%Bragulat%NULL%1,                        Inmaculada%Carmona%NULL%1,                        Manuel%Castellà%NULL%1,                        Pedro%Castro%NULL%1,                        Joan%Ceravalls%NULL%1,                        Oscar%Comino%NULL%1,                        Claudia%Cucciniello%NULL%1,                        Clàudia%De Deray%NULL%1,                        Oriol%De Diego%NULL%1,                        Paula%De la Matta%NULL%1,                        Marta%Farrero%NULL%1,                        Javier%Fernández%NULL%1,                        Sara%Fernández%NULL%1,                        Anna%Fernández%NULL%1,                        Miquel%Ferrer%NULL%1,                        Ana%Fervienza%NULL%1,                        María%Tallo Forga%NULL%1,                        Daniel%Forné%NULL%1,                        Clàudia%Galán%NULL%1,                        Andrea%Gómez%NULL%1,                        Eduard%Guasch%NULL%1,                        María%Hernández-Tejero%NULL%1,                        Adriana%Jacas%NULL%1,                        Beltrán%Jiménez%NULL%1,                        Pere%Leyes%NULL%1,                        Teresa%López%NULL%1,                        José Antonio%Martínez%NULL%1,                        Graciela%Martínez-Pallí%NULL%1,                        Jordi%Mercadal%NULL%1,                        Guido%Muñoz%NULL%1,                        José%Muñoz%NULL%1,                        Ricard%Navarro%NULL%0,                        Josep María%Nicolás%NULL%1,                        José Tomás%Ortiz%NULL%1,                        Anna%Peiró%NULL%1,                        Manuel%Pérez%NULL%1,                        Esteban%Poch%NULL%1,                        Margarida%Pujol%NULL%1,                        Eduard%Quintana%NULL%1,                        Bartomeu%Ramis%NULL%1,                        Enric%Reverter%NULL%1,                        Irene%Rovira%NULL%1,                        Pablo%Ruiz%NULL%1,                        Elena%Sandoval%NULL%1,                        Stefan%Schneider%NULL%1,                        Oriol%Sibila%NULL%1,                        Carla%Solé%NULL%1,                        Alex%Soriano%NULL%1,                        Dolors%Soy%NULL%1,                        M.%Suárez%NULL%1,                        Adrián%Téllez%NULL%1,                        Néstor David%Toapanta%NULL%1,                        Antoni%Torres%NULL%0,                        Xavier%Urra%NULL%1,                        César%Aldecoa%NULL%1,                        Alicia%Bordell%NULL%1,                        Silvia%Martín%NULL%1,                        Judith%Andrés%NULL%1,                        Alberto Martínez%Ruiz%NULL%1,                        Gonzalo Tamayo%Medel%NULL%1,                        Iñaki Bilbao Bilbao%Villasante%NULL%1,                        Fernando Iturri%Clavero%NULL%1,                        Covadonga Peralta%Álvarez%NULL%1,                        Julia T.%Herrera Díez%NULL%1,                        Andrea García%Trancho%NULL%1,                        Iñaki Sainz %Mandiola%NULL%1,                        Carmen Ruano%Suarez%NULL%1,                        Angela Ruiz%Bocos%NULL%1,                        Eneritz Urrutia%Izagirre%NULL%1,                        Pablo Ortiz%de Urbina Fernández%NULL%1,                        Naiara Apodaka%López%NULL%1,                        Leire Prieto%Molano%NULL%1,                        Eunate Ganuza%Martínez%NULL%1,                        Iratxe Vallinas%Hidalgo%NULL%1,                        Karmele%de Orte Sancho%NULL%1,                        Celia González%Paniagua%NULL%1,                        Gemma Ortiz%Labrador%NULL%1,                        Mireia Pérez%Larrañaga%NULL%1,                        Marta López%Miguelez%NULL%1,                        Estíbaliz Bárcena%Andrés%NULL%1,                        Erik Urutxurtu%Laureano%NULL%1,                        Maria Jesús Maroño%Boedo%NULL%1,                        Blanca Escontrela%Rodríguez%NULL%1,                        Aitziber Ereñozaga%Camiruaga%NULL%1,                        Deiene Lasuen%Aguirre%NULL%1,                        Ainhoa Zabal%Maeztu%NULL%1,                        Ane Guereca%Gala%NULL%1,                        Iker Castelo%Korro%NULL%1,                        Andrés Álvarez%Campo%NULL%1,                        Alejandro Carcelen%Viana%NULL%1,                        Alejandro Alberdi%Enríquez%NULL%1,                        Xabier Ormazábal%Rementeria%NULL%1,                        Alberto Sánchez%Campos%NULL%1,                        Rosa Gutiérrez%Rico%NULL%1,                        Pablo Barbier%Damborenea%NULL%1,                        Marta Guerenabarrena%Momeñe%NULL%1,                        Borja Cuesta%Ruiz%NULL%1,                        Alejandro López%Rico%NULL%1,                        Ana Rojo%Polo%NULL%1,                        Covadonga García%Grijelmo%NULL%1,                        Mikel Celorrio%Reta%NULL%1,                        Eneko Martín%Arroyo%NULL%1,                        Leire Artaza%Aparicio%NULL%1,                        Iñaki Ituarte%Aspiazu%NULL%1,                        Ane Igeregi%Basabe%NULL%1,                        Itxaso Merino%Julian%NULL%1,                        Isabel Diaz%Rico%NULL%1,                        Maria Paz%Martínez%NULL%1,                        Ramón%Adalia Bartolomé%NULL%1,                        Luigi%Zattera%NULL%1,                        Irina Adalid%Hernandez%NULL%1,                        Leire Larrañaga%Altuna%NULL%1,                        Aina Serrallonga%Castells%NULL%1,                        Adriana Vílchez%Garcia%NULL%1,                        María%Núñez%NULL%1,                        Lorena%Román%NULL%1,                        Isabel Ramos%Delgado%NULL%1,                        Adela Benítez-Cano%Martínez%NULL%1,                        Mireia Chanzá%Albert%NULL%1,                        Juan Carlos Álvarez%García%NULL%1,                        Luis Aguilera%Cuchillo%NULL%1,                        Sandra Beltrán%de Heredia%NULL%1,                        Jesús Carazo%Cordobés%NULL%1,                        Carlos Alberto García%Bernedo%NULL%1,                        Fernando Escolano%Villén%NULL%1,                        Francisco Javier Redondo%Calvo%NULL%1,                        Rubén Villazala%González%NULL%1,                        Victor Baladron%González%NULL%1,                        Patricia%Faba%NULL%1,                        Omar%Montenegro%NULL%1,                        Natalia Bejarano%Ramírez%NULL%1,                        Sergio Marcos%Contreras%NULL%1,                        Alejandro Garcia%Rodríguez%NULL%1,                        Saleta Rey%Vázquez%NULL%1,                        Cristina Garcia%Pérez%NULL%1,                        Eva Higuera%Miguelez%NULL%1,                        Irene Pérez%Blanco%NULL%1,                        David García%Rivera%NULL%1,                        Ane Martín%de la Fuente%NULL%1,                        Marta%Pardo%NULL%1,                        Vanessa%Rodriguez%NULL%1,                        Unai%Bengoetxea%NULL%1,                        Fernando%Ramasco%NULL%1,                        Sheila Olga Santidrián%Bernal%NULL%1,                        Alvar Santa Cruz%Hernando%NULL%1,                        Antonio Planas%Roca%NULL%1,                        Carlos Figueroa%Yusta%NULL%1,                        Esther García%Villabona%NULL%1,                        Carmen Vallejo%Lantero%NULL%1,                        Eva Patiño%Rodriguez%NULL%1,                        Alvaro Esquivel%Toledo%NULL%1,                        David Arribas%Méndez%NULL%1,                        Mar Orts%Rodriguez%NULL%1,                        Rosa Méndez%Hernández%NULL%1,                        Jesús Nieves%Alonso%NULL%1,                        Inés Imaz%Artazcoz%NULL%1,                        Sonia Expósito%Carazo%NULL%1,                        Carlos Román%Guerrero%NULL%1,                        Elena Rojo%Rodríguez%NULL%1,                        Ricardo Moreno%González%NULL%1,                        Julia Hernando%Santos%NULL%1,                        Jara Torrente%Pérez%NULL%1,                        Esperanza Mata%Mena%NULL%1,                        Manuel José Muñoz%Martínez%NULL%1,                        Enrique Alday%Muñoz%NULL%1,                        Patricia Martin%Serrano%NULL%1,                        Laura Cotter%Muñoz%NULL%1,                        Amadea%Mjertan%NULL%1,                        Diego Gutierrez%Martínez%NULL%1,                        Carmen Rodríguez%García%NULL%1,                        Olaya Alonso%Viejo%NULL%1,                        Juan Alvarez%Pereira%NULL%1,                        Ana Carmona%Bonet%NULL%1,                        Diana Parrado%López%NULL%1,                        Eva%de Dios Tomas%NULL%1,                        Rafael Martín%Celemin%NULL%1,                        María Luisa Meilan%Paz%NULL%1,                        Luis Quecedo%Gutiérrez%NULL%1,                        Noemí Diaz%Velasco%NULL%1,                        Gabriel Martin%Hernández%NULL%1,                        Francisco Garcia%del Corral%NULL%1,                        Gloria Hernandez%Arias%NULL%1,                        David Rodriguez%Cuesta%NULL%1,                        Ana Gómez%Rice%NULL%1,                        Encarna Mateos%Sevillano%NULL%1,                        Natalia Olmos%Molpeceres%NULL%1,                        Beatriz%Domínguez%NULL%1,                        Ana Vázquez%Lima%NULL%1,                        Ángel%Candela%NULL%1,                        Ismael A. Acevedo%Bambaren%NULL%1,                        Maria Isabel Albala%Blanco%NULL%1,                        Paloma Alonso%Montoiro%NULL%1,                        Fernando Álvarez%Utrera%NULL%1,                        Juan Avellanosa%Esteruelas%NULL%1,                        Amal Azzam%López%NULL%1,                        Alberto José%Balvis%NULL%1,                        Balvis Tommaso%Bardi%NULL%1,                        María Beltrán%Martín%NULL%1,                        Jacobo Benatar%Haserfaty%NULL%1,                        Alberto Berruezo%Camacho%NULL%1,                        Laura Betolaza%Weimer%NULL%1,                        María%del Mar Carbonell Soto%NULL%1,                        Cristina Carrasco%Seral%NULL%1,                        Cristina Cerro %Zaballos%NULL%1,                        Elizabeth Claros%Llamas%NULL%1,                        Pilar Coleta%Orduna%NULL%1,                        Ingrid P. Cortes%Forero%NULL%1,                        Pascual Agustín Crespo%Aliseda%NULL%1,                        María Angélica%de Pablo Pajares%NULL%1,                        Yolanda Díez%Remesal%NULL%1,                        Trinidad Dorado%Díaz%NULL%1,                        Noemí Echevarría%Blasco%NULL%1,                        María Elena Elías%Martín%NULL%1,                        Javier Felices%Triviño%NULL%1,                        Natalia Fernández%López%NULL%1,                        Cristina Fernández%Martín%NULL%1,                        Natalia Ferreiro%Pozuelo%NULL%1,                        Luis Gajate%Martín%NULL%1,                        Clara Gallego%Santos%NULL%1,                        Diego Gil%Mayo%NULL%1,                        María Gómez%Rojo%NULL%1,                        Claudia González%Cibrián%NULL%1,                        Elena Herrera%López%NULL%1,                        Borja Hinojal%Olmedillo%NULL%1,                        Berta Iglesias%Gallego%NULL%1,                        Sassan%Khonsari%NULL%1,                        María Nuria Mane%Ruiz%NULL%1,                        María Manzanero%Arroyo%NULL%1,                        Ana María Mariscal%Ortega%NULL%1,                        Sara Martín%Burcio%NULL%1,                        María%del Carmen Martín González%NULL%1,                        Ascensión Martín%Grande%NULL%1,                        Jose Juan Martín%López%NULL%1,                        Cecilia Martín%Rabes%NULL%1,                        Marcos Martínez%Borja%NULL%1,                        Nilda Martínez%Castro%NULL%1,                        Adolfo Martínez%Pérez%NULL%1,                        Snejana%Matcan%NULL%1,                        Cristina Medrano%Viñas%NULL%1,                        Lisset Miguel%Herrera%NULL%1,                        Adrián Mira%Betancur%NULL%1,                        María Montiel%Carbajo%NULL%1,                        Javier Moya%Moradas%NULL%1,                        Lorena Muñoz%Pérez%NULL%1,                        Mónica Nuñez%Murias%NULL%1,                        Eva Ordiales%González%NULL%1,                        Óscar Ordoñez%Recio%NULL%1,                        Miguel Ángel Palomero%Rodriguez%NULL%1,                        Diego Parise%Roux%NULL%1,                        Lucia Pereira%Torres%NULL%1,                        David Pestaña%Lagunas%NULL%1,                        Juana María Pinto%Corraliza%NULL%1,                        Marian Prieto%Rodrigo%NULL%1,                        Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                        David Rodriguez%Esteban%NULL%1,                        Víctor Rojas%Pernia%NULL%1,                        Álvaro Ruigómez%Saiz%NULL%1,                        Bárbara Saavedra%Villarino%NULL%1,                        Noemí Samaranch%Palero%NULL%1,                        Gloria Santos%Pérez%NULL%1,                        Jaume Serna%Pérez%NULL%1,                        Ana Belén Serrano%Romero%NULL%1,                        Jesús Tercero%López%NULL%1,                        Carlos Tiscar%García%NULL%1,                        Marta%de la Torre Concostrina%NULL%1,                        Eva María Ureta%Mesa%NULL%1,                        Eva Velasco%Olarte%NULL%1,                        Judith Villahoz%Martínez%NULL%1,                        Raúl Villalaba%Palacios%NULL%1,                        Gema Villanueva%García%NULL%1,                        Cristina Vogel%de Medeiros%NULL%1,                        Soraya Gholamian%Ovejero%NULL%1,                        Marta Vicente%Orgaz%NULL%1,                        Patricia Lloreda%Herradon%NULL%1,                        Cristina Crespo%Gómez%NULL%1,                        Tatiana%Sarmiento-Trujillo%NULL%1,                        Noemí García%Medina%NULL%1,                        María Martínez%García%NULL%1,                        Carles Espinós%Ramírez%NULL%1,                        Nabil Mouhaffel%Rivero%NULL%1,                        Jose Antonio Bernia%Gil%NULL%1,                        Sonsoles%Martín%NULL%1,                        María Victoria%Moral%NULL%1,                        Josefina%Galán%NULL%1,                        Pilar%Paniagua%NULL%1,                        Sergio%Pérez%NULL%1,                        Albert%Bainac%NULL%1,                        Ana%Arias%NULL%1,                        Elsa%Ramil%NULL%1,                        Jorge%Escudero%NULL%1,                        Pablo%Monedero%NULL%1,                        Carmen%Cara%NULL%1,                        Andrea%Lara%NULL%1,                        Elena Mendez%Martínez%NULL%1,                        Jorge%Mendoza%NULL%1,                        Íñigo Rubio%Baines%NULL%1,                        Carmen Sala%Trull%NULL%1,                        Pablo Montero%López%NULL%1,                        Alfredo%Gea%NULL%1,                        Alejandro%Montero%NULL%1,                        Rocío Armero%Ibañez%NULL%1,                        Juan Vicente Llau%Pitarch%NULL%1,                        Fernando Rauer%Alcóver%NULL%1,                        Cristina Álvarez%Herreros%NULL%1,                        Cyntia Sánchez%Martín%NULL%1,                        Lucía López Ocáriz%Olmos%NULL%1,                        Marta Navas%Moruno%NULL%1,                        Fernando García%Montoto%NULL%1,                        M. F. Mirón%Rodriguez%NULL%1,                        Laura Fuentes%Coco%NULL%1,                        Cristina Hernández%Gamito%NULL%1,                        Antonio Barba%Orejudo%NULL%1,                        Luis Gerardo Smith%Vielma%NULL%1,                        Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                        Marta Donoso%Domínguez%NULL%1,                        Silvia Esquivel%Ramírez%NULL%1,                        José Antonio%Carbonell%NULL%1,                        Berta Monleón%López%NULL%1,                        Sara%Martínez-Castro%NULL%1,                        Gerardo%Aguilar%NULL%1,                        María Gestal Pablo%Casas%NULL%1,                        Angel Outeiro%Rosato%NULL%1,                        Andrea Naveiro%Pan%NULL%1,                        María Alonso%Portela%NULL%1,                        Adrián García%Romar%NULL%1,                        Eva Mosquera%Rodríguez%NULL%1,                        Diego Ruanova%Seijo%NULL%1,                        Pablo Rama%Maceiras%NULL%1,                        Francisco%Castro-Ceoane%NULL%1,                        Esther Moreno%López%NULL%1,                        Sergio%Gil%NULL%1,                        Julia Guillén%Antón%NULL%1,                        Patricia García-Consuegra%Tirado%NULL%1,                        Aurora Callau%Calvo%NULL%1,                        Laura Forés%Lisbona%NULL%1,                        María Carbonell%Romero%NULL%1,                        Belén Albericio%Gil%NULL%1,                        Laura Pradal%Jarne%NULL%1,                        María Soria%Lozano%NULL%1,                        Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                        Navjot Ariyana%Kaur%NULL%1,                        Daniel%Sacher%NULL%1,                        Oisin%O’Corragain%NULL%1,                        Daniel%Salerno%NULL%1,                        Parag%Desai%NULL%1,                        Sameep%Sehgal%NULL%1,                        Matthew%Gordon%NULL%2,                        Rohit%Gupta%NULL%2,                        Nathaniel%Marchetti%NULL%1,                        Huaqing%Zhao%NULL%2,                        Nicole%Patlakh%NULL%2,                        Gerard J.%Criner%NULL%1,                        Temple%University%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                        Dominik%Jarczak%NULL%1,                        Liina%Thasler%NULL%1,                        Martin%Bachmann%NULL%1,                        Frank%Schulte%NULL%1,                        Berthold%Bein%NULL%1,                        Christian Friedrich%Weber%NULL%1,                        Ulrich%Schäfer%NULL%1,                        Carsten%Veit%NULL%1,                        Hans-Peter%Hauber%NULL%1,                        Sebastian%Kopp%NULL%1,                        Karsten%Sydow%NULL%1,                        Andreas%de Weerth%NULL%0,                        Marc%Bota%NULL%1,                        Rüdiger%Schreiber%NULL%1,                        Oliver%Detsch%NULL%1,                        Jan-Peer%Rogmann%NULL%1,                        Daniel%Frings%NULL%0,                        Barbara%Sensen%NULL%1,                        Christoph%Burdelski%NULL%0,                        Olaf%Boenisch%NULL%1,                        Axel%Nierhaus%NULL%0,                        Geraldine%de Heer%NULL%0,                        Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1516,6 +1699,9 @@
       <c r="I1" t="s">
         <v>77</v>
       </c>
+      <c r="J1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1531,7 +1717,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1544,6 +1730,9 @@
       </c>
       <c r="I2" t="s">
         <v>278</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1749,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1573,6 +1762,9 @@
       </c>
       <c r="I3" t="s">
         <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -1589,7 +1781,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1602,6 +1794,9 @@
       </c>
       <c r="I4" t="s">
         <v>281</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1618,7 +1813,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1631,6 +1826,9 @@
       </c>
       <c r="I5" t="s">
         <v>278</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1845,7 @@
         <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1660,6 +1858,9 @@
       </c>
       <c r="I6" t="s">
         <v>284</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1676,7 +1877,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1689,6 +1890,9 @@
       </c>
       <c r="I7" t="s">
         <v>281</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1705,7 +1909,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1718,6 +1922,9 @@
       </c>
       <c r="I8" t="s">
         <v>287</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1734,7 +1941,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1747,6 +1954,9 @@
       </c>
       <c r="I9" t="s">
         <v>281</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1763,7 +1973,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>301</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1776,6 +1986,9 @@
       </c>
       <c r="I10" t="s">
         <v>281</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1792,7 +2005,7 @@
         <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -1805,6 +2018,9 @@
       </c>
       <c r="I11" t="s">
         <v>284</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1821,7 +2037,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -1834,6 +2050,9 @@
       </c>
       <c r="I12" t="s">
         <v>278</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -1850,7 +2069,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -1863,6 +2082,9 @@
       </c>
       <c r="I13" t="s">
         <v>278</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/15.xlsx
+++ b/Covid_19_Dataset_and_References/References/15.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="390">
   <si>
     <t>Doi</t>
   </si>
@@ -1318,6 +1318,78 @@
   </si>
   <si>
     <t>[Kevin%Roedl%NULL%2,                        Dominik%Jarczak%NULL%1,                        Liina%Thasler%NULL%1,                        Martin%Bachmann%NULL%1,                        Frank%Schulte%NULL%1,                        Berthold%Bein%NULL%1,                        Christian Friedrich%Weber%NULL%1,                        Ulrich%Schäfer%NULL%1,                        Carsten%Veit%NULL%1,                        Hans-Peter%Hauber%NULL%1,                        Sebastian%Kopp%NULL%1,                        Karsten%Sydow%NULL%1,                        Andreas%de Weerth%NULL%0,                        Marc%Bota%NULL%1,                        Rüdiger%Schreiber%NULL%1,                        Oliver%Detsch%NULL%1,                        Jan-Peer%Rogmann%NULL%1,                        Daniel%Frings%NULL%0,                        Barbara%Sensen%NULL%1,                        Christoph%Burdelski%NULL%0,                        Olaf%Boenisch%NULL%1,                        Axel%Nierhaus%NULL%0,                        Geraldine%de Heer%NULL%0,                        Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                         Paolo%Comassi%NULL%1,                         Luca%Adriani%NULL%1,                         Giulio%Bergamaschini%NULL%1,                         Elena%Bertin%NULL%1,                         Raffaella%Borromeo%NULL%1,                         Serena%Corti%NULL%1,                         Federica%De Petri%NULL%1,                         Francesco%Dolci%NULL%1,                         Attilio%Galmozzi%NULL%1,                         Alberto%Gigliotti%NULL%1,                         Livio%Gualdoni%NULL%1,                         Claudia%Guerra%NULL%1,                         Anna%Khosthiova%NULL%1,                         Giovanni%Leati%NULL%1,                         Giuseppe%Lupi%NULL%1,                         Paolo%Moscato%NULL%1,                         Vittorio%Perotti%NULL%1,                         Miriam%Piantelli%NULL%1,                         Alain%Ruini%NULL%1,                         Silvia%Sportelli%NULL%1,                         Micaela%Susca%NULL%1,                         Carmine%Troiano%NULL%1,                         Giampaolo%Benelli%NULL%1,                         Elisabetta%Buscarini%NULL%1,                         Ciro%Canetta%NULL%1,                         Guido%Merli%NULL%1,                         Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                         Emna%Ennouri%NULL%1,                         Rayane%Nachi%NULL%1,                         Khaoula%Meddeb%NULL%1,                         Jihene%Mahmoud%NULL%1,                         Nesrine%Thabet%NULL%1,                         Salma%Jerbi%NULL%1,                         Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                         Eleni%Xourgia%NULL%1,                         Theodora K.%Ntaidou%NULL%1,                         Dimitris%Zervakis%NULL%1,                         Eleni E.%Magira%NULL%1,                         Anastasia%Kotanidou%NULL%1,                         Christina%Routsi%NULL%1,                         Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                         Carina%Mostert%NULL%1,                         Corinna%Hentschker%NULL%1,                         Thomas%Voshaar%NULL%1,                         Jürgen%Malzahn%NULL%1,                         Gerhard%Schillinger%NULL%1,                         Jürgen%Klauber%NULL%1,                         Uwe%Janssens%NULL%1,                         Gernot%Marx%NULL%1,                         Steffen%Weber-Carstens%NULL%1,                         Stefan%Kluge%NULL%0,                         Michael%Pfeifer%NULL%1,                         Linus%Grabenhenrich%NULL%1,                         Tobias%Welte%NULL%1,                         Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                         David%Hajage%NULL%2,                         David%Hajage%NULL%0,                         Alexandre%Demoule%NULL%1,                         Tài%Pham%NULL%1,                         Alain%Combes%NULL%1,                         Martin%Dres%NULL%1,                         Said%Lebbah%NULL%1,                         Antoine%Kimmoun%NULL%1,                         Alain%Mercat%NULL%1,                         Gaëtan%Beduneau%NULL%1,                         Jessica%Palmyre%NULL%1,                         Margot%Prevost%NULL%1,                         Pierre%Asfar%NULL%1,                         François%Beloncle%NULL%1,                         Julien%Demiselle%NULL%1,                         Arthur%Pavot%NULL%1,                         Xavier%Monnet%NULL%1,                         Christian%Richard%NULL%1,                         Julien%Mayaux%NULL%1,                         Alexandra%Beurton%NULL%1,                         Richard%Descamps%NULL%1,                         Aurélie%Joret%NULL%1,                         Damien%Du Cheyron%NULL%1,                         Frédéric%Pene%NULL%1,                         Jean-Daniel%Chiche%NULL%1,                         Mathieu%Jozwiak%NULL%1,                         Paul%Jaubert%NULL%1,                         Guillaume%Voiriot%NULL%1,                         Muriel%Fartoukh%NULL%1,                         Marion%Teulier%NULL%1,                         Clarisse%Blayau%NULL%1,                         Erwen%L’Her%NULL%1,                         Cécile%Aubron%NULL%1,                         Laetitia%Bodenes%NULL%1,                         Nicolas%Ferriere%NULL%1,                         Johann%Auchabie%NULL%1,                         Anthony%Le Meur%NULL%1,                         Sylvain%Pignal%NULL%1,                         Thierry%Mazzoni%NULL%1,                         Jean-Pierre%Quenot%NULL%1,                         Pascal%Andreu%NULL%1,                         Jean-Baptiste%Roudau%NULL%1,                         Marie%Labruyère%NULL%1,                         Saad%Nseir%NULL%0,                         Sébastien%Preau%NULL%1,                         Julien%Poissy%NULL%0,                         Daniel%Mathieu%NULL%0,                         Sarah%Benhamida%NULL%1,                         Rémi%Paulet%NULL%1,                         Nicolas%Roucaud%NULL%1,                         Martial%Thyrault%NULL%1,                         Florence%Daviet%NULL%1,                         Sami%Hraiech%NULL%1,                         Gabriel%Parzy%NULL%1,                         Aude%Sylvestre%NULL%1,                         Sébastien%Jochmans%NULL%1,                         Anne-Laure%Bouilland%NULL%1,                         Mehran%Monchi%NULL%1,                         Marc%Danguy des Déserts%NULL%1,                         Quentin%Mathais%NULL%1,                         Gwendoline%Rager%NULL%1,                         Pierre%Pasquier%NULL%1,                         Reignier%Jean%NULL%1,                         Seguin%Amélie%NULL%1,                         Garret%Charlotte%NULL%1,                         Canet%Emmanuel%NULL%1,                         Jean%Dellamonica%NULL%1,                         Clément%Saccheri%NULL%1,                         Romain%Lombardi%NULL%1,                         Yanis%Kouchit%NULL%1,                         Sophie%Jacquier%NULL%1,                         Armelle%Mathonnet%NULL%1,                         Mai-Ahn%Nay%NULL%1,                         Isabelle%Runge%NULL%1,                         Frédéric%Martino%NULL%1,                         Laure%Flurin%NULL%1,                         Amélie%Rolle%NULL%1,                         Michel%Carles%NULL%1,                         Rémi%Coudroy%NULL%1,                         Arnaud W.%Thille%NULL%1,                         Jean-Pierre%Frat%NULL%1,                         Maeva%Rodriguez%NULL%1,                         Pascal%Beuret%NULL%1,                         Audrey%Tientcheu%NULL%1,                         Arthur%Vincent%NULL%1,                         Florian%Michelin%NULL%1,                         Marie Anne%Melone%NULL%1,                         Maxime%Gauzi%NULL%1,                         Arnaud%Guilbert%NULL%1,                         Geoffrey%Kouadri%NULL%1,                         Valérie%Gissot%NULL%1,                         Stéphan%Ehrmann%NULL%1,                         Charlotte%Salmon-Gandonnière%NULL%1,                         Djlali%Elaroussi%NULL%1,                         Agathe%Delbove%NULL%1,                         Yannick%Fedun%NULL%1,                         Julien%Huntzinger%NULL%1,                         Eddy%Lebas%NULL%1,                         Grâce%Kisoka%NULL%1,                         Céline%Grégoire%NULL%1,                         Stella%Marchetta%NULL%1,                         Bernard%Lambermont%NULL%1,                         Laurent%Argaud%NULL%1,                         Thomas%Baudry%NULL%1,                         Pierre-Jean%Bertrand%NULL%1,                         Auguste%Dargent%NULL%1,                         Christophe%Guitton%NULL%1,                         Nicolas%Chudeau%NULL%1,                         Mickaël%Landais%NULL%1,                         Cédric%Darreau%NULL%1,                         Alexis%Ferre%NULL%1,                         Antoine%Gros%NULL%1,                         Guillaume%Lacave%NULL%1,                         Fabrice%Bruneel%NULL%1,                         Mathilde%Neuville%NULL%1,                         Jérôme%Devaquet%NULL%1,                         Guillaume%Tachon%NULL%1,                         Richard%Gallot%NULL%1,                         Riad%Chelha%NULL%1,                         Arnaud%Galbois%NULL%1,                         Anne%Jallot%NULL%1,                         Ludivine Chalumeau%Lemoine%NULL%1,                         Khaldoun%Kuteifan%NULL%1,                         Valentin%Pointurier%NULL%1,                         Louise-Marie%Jandeaux%NULL%1,                         Joy%Mootien%NULL%1,                         Charles%Damoisel%NULL%1,                         Benjamin%Sztrymf%NULL%1,                         Juliette%Chommeloux%NULL%1,                         Charles Edouard%Luyt%NULL%1,                         Frédérique%Schortgen%NULL%1,                         Leon%Rusel%NULL%1,                         Camille%Jung%NULL%1,                         Florent%Gobert%NULL%1,                         Damien%Vimpere%NULL%1,                         Lionel%Lamhaut%NULL%1,                         Bertrand%Sauneuf%NULL%1,                         Liliane%Charrier%NULL%1,                         Julien%Calus%NULL%1,                         Isabelle%Desmeules%NULL%1,                         Benoît%Painvin%NULL%1,                         Jean-Marc%Tadie%NULL%1,                         Vincent%Castelain%NULL%1,                         Baptiste%Michard%NULL%1,                         Jean-Etienne%Herbrecht%NULL%1,                         Mathieu%Baldacini%NULL%1,                         Nicolas%Weiss%NULL%1,                         Sophie%Demeret%NULL%1,                         Clémence%Marois%NULL%1,                         Benjamin%Rohaut%NULL%1,                         Pierre-Henri%Moury%NULL%1,                         Anne-Charlotte%Savida%NULL%1,                         Emmanuel%Couadau%NULL%1,                         Mathieu%Série%NULL%1,                         Nica%Alexandru%NULL%1,                         Cédric%Bruel%NULL%1,                         Candice%Fontaine%NULL%1,                         Sonia%Garrigou%NULL%1,                         Juliette Courtiade%Mahler%NULL%1,                         Maxime%Leclerc%NULL%1,                         Michel%Ramakers%NULL%1,                         Pierre%Garçon%NULL%1,                         Nicole%Massou%NULL%1,                         Ly Phacs%Van Vong%NULL%1,                         Juliane%Sen%NULL%1,                         Nolwenn%Lucas%NULL%1,                         Franck%Chemouni%NULL%1,                         Annabelle%Stoclin%NULL%1,                         Alexandre%Avenel%NULL%1,                         Henri%Faure%NULL%1,                         Angélie%Gentilhomme%NULL%1,                         Sylvie%Ricome%NULL%1,                         Paul%Abraham%NULL%1,                         Céline%Monard%NULL%1,                         Julien%Textoris%NULL%1,                         Thomas%Rimmele%NULL%1,                         Florent%Montini%NULL%1,                         Gabriel%Lejour%NULL%1,                         Thierry%Lazard%NULL%1,                         Isabelle%Etienney%NULL%1,                         Younes%Kerroumi%NULL%1,                         Dupuis%Claire%NULL%1,                         Bereiziat Marine%Coupez%NULL%1,                         Thouy%François%NULL%1,                         Clémet%Hoffmann%NULL%1,                         Nicolas%Donat%NULL%1,                         Violaine%Muller%NULL%1,                         Thibault%Martinez%NULL%1,                         Audrey%Jacquot%NULL%1,                         Matthieu%Mattei%NULL%1,                         Bruno%Levy%NULL%1,                         Ramin%Ravan%NULL%1,                         Loïc%Dopeux%NULL%1,                         Jean-Mathias%Liteaudon%NULL%1,                         Delphine%Roux%NULL%1,                         Brice%Rey%NULL%1,                         Radu%Anghel%NULL%1,                         Deborah%Schenesse%NULL%1,                         Vincent%Gevrey%NULL%1,                         Jermy%Castanera%NULL%1,                         Philippe%Petua%NULL%1,                         Benjamin%Madeux%NULL%1,                         Otto%Hartman%NULL%1,                         Michael%Piagnerelli%NULL%1,                         Anne%Joosten%NULL%1,                         Cinderella%Noel%NULL%1,                         Patrick%Biston%NULL%1,                         Thibaut%Noel%NULL%1,                         Gurvan L. E.%Bouar%NULL%1,                         Messabi%Boukhanza%NULL%1,                         Elsa%Demarest%NULL%1,                         Marie-France%Bajolet%NULL%1,                         Nathanaël%Charrier%NULL%1,                         Audrey%Quenet%NULL%1,                         Cécile%Zylberfajn%NULL%1,                         Nicolas%Dufour%NULL%1,                         Buno%Mégarbane%NULL%1,                         Sqébastian%Voicu%NULL%1,                         Nicolas%Deye%NULL%1,                         Isabelle%Malissin%NULL%1,                         François%Legay%NULL%1,                         Matthieu%Debarre%NULL%1,                         Nicolas%Barbarot%NULL%1,                         Pierre%Fillatre%NULL%1,                         Bertrand%Delord%NULL%1,                         Thomas%Laterrade%NULL%1,                         Tahar%Saghi%NULL%1,                         Wilfried%Pujol%NULL%1,                         Pierre Julien%Cungi%NULL%1,                         Pierre%Esnault%NULL%1,                         Mickael%Cardinale%NULL%1,                         Vivien%Hong Tuan Ha%NULL%1,                         Grégory%Fleury%NULL%1,                         Marie-Ange%Brou%NULL%1,                         Daniel%Zafimahazo%NULL%1,                         David%Tran-Van%NULL%1,                         Patrick%Avargues%NULL%1,                         Lisa%Carenco%NULL%1,                         Nicolas%Robin%NULL%1,                         Alexandre%Ouali%NULL%1,                         Lucie%Houdou%NULL%1,                         Christophe%Le Terrier%NULL%1,                         Noémie%Suh%NULL%1,                         Steve%Primmaz%NULL%1,                         Jérome%Pugin%NULL%1,                         Emmanuel%Weiss%NULL%1,                         Tobias%Gauss%NULL%1,                         Jean-Denis%Moyer%NULL%1,                         Catherine%Paugam-Burtz%NULL%1,                         Béatrice%La Combe%NULL%1,                         Rolland%Smonig%NULL%1,                         Jade%Violleau%NULL%1,                         Pauline%Cailliez%NULL%1,                         Jonathan%Chelly%NULL%1,                         Antoine%Marchalot%NULL%1,                         Cécile%Saladin%NULL%1,                         Christelle%Bigot%NULL%1,                         Pierre-Marie%Fayolle%NULL%1,                         Jules%Fatséas%NULL%1,                         Amr%Ibrahim%NULL%1,                         Dabor%Resiere%NULL%1,                         Rabih%Hage%NULL%1,                         Clémentine%Cholet%NULL%1,                         Marie%Cantier%NULL%1,                         Pierre%Trouiller%NULL%1,                         Philippe%Montravers%NULL%1,                         Brice%Lortat-Jacob%NULL%1,                         Sebastien%Tanaka%NULL%1,                         Alexy%Tran-Dinh%NULL%1,                         Jacques%Duranteau%NULL%1,                         Anatole%Harrois%NULL%1,                         Guillaume%Dubreuil%NULL%1,                         Marie%Werner%NULL%1,                         Anne%Godier%NULL%1,                         Sophie%Hamada%NULL%1,                         Diane%Zlotnik%NULL%1,                         Hélène%Nougue%NULL%1,                         Armand%Mekontso-Dessap%NULL%1,                         Guillaume%Carteaux%NULL%1,                         Keyvan%Razazi%NULL%1,                         Nicolas%De Prost%NULL%1,                         Nicolas%Mongardon%NULL%1,                         Olivier%Langeron%NULL%1,                         Eric%Levesque%NULL%1,                         Arié%Attias%NULL%1,                         Charles%de Roquetaillade%NULL%1,                         Benjamin G.%Chousterman%NULL%1,                         Alexandre%Mebazaa%NULL%1,                         Etienne%Gayat%NULL%1,                         Marc%Garnier%NULL%1,                         Emmanuel%Pardo%NULL%1,                         Lea%Satre-Buisson%NULL%1,                         Christophe%Gutton%NULL%1,                         Elise%Yvin%NULL%1,                         Clémence%Marcault%NULL%1,                         Elie%Azoulay%NULL%1,                         Michael%Darmon%NULL%1,                         Nicolas%Bonnet%NULL%1,                         Nathan%Ebstein%NULL%1,                         Stéphane%Gaudry%NULL%1,                         Yves%Cohen%NULL%1,                          Hafid%Ait-Oufella%NULL%1,                         Geoffroy%Hariri%NULL%1,                         Tomas%Urbina%NULL%1,                         Sandie%Mazerand%NULL%1,                         Nicholas%Heming%NULL%1,                         Francesca%Santi%NULL%1,                         Pierre%Moine%NULL%1,                         Djillali%Annane%NULL%1,                         Adrien%Bouglé%NULL%1,                         Edris%Omar%NULL%1,                         Aymeric%Lancelot%NULL%1,                         Emmanuelle%Begot%NULL%1,                         Gaétan%Plantefeve%NULL%1,                         Damien%Contou%NULL%1,                         Hervé%Mentec%NULL%1,                         Olivier%Pajot%NULL%1,                         Stanislas%Faguer%NULL%1,                         Olivier%Cointault%NULL%1,                         Laurence%Lavayssiere%NULL%1,                         Marie-Béatrice%Nogier%NULL%1,                         Matthieu%Jamme%NULL%1,                         Claire%Pichereau%NULL%1,                         Jan%Hayon%NULL%1,                         Hervé%Outin%NULL%1,                         François%Dépret%NULL%1,                         Maxime%Coutrot%NULL%1,                         Maité%Chaussard%NULL%1,                         Lucie%Guillemet%NULL%1,                         Pierre%Goffin%NULL%1,                         Romain%Thouny%NULL%1,                         Julien%Guntz%NULL%1,                         Laurent%Jadot%NULL%1,                         Romain%Persichini%NULL%1,                         Vanessa%Jean-Michel%NULL%1,                         Hugues%Georges%NULL%1,                         Thomas%Caulier%NULL%1,                         Gaël%Pradel%NULL%1,                         Marie-Hélène%Hausermann%NULL%1,                         ThiMy Hue%Nguyen-Valat%NULL%1,                         Michel%Boudinaud%NULL%1,                         Emmanuel%Vivier%NULL%1,                         Sylvène%Rosseli%NULL%1,                         Gaël%Bourdin%NULL%1,                         Christian%Pommier%NULL%1,                         Marc%Vinclair%NULL%1,                         Simon%Poignant%NULL%1,                         Sandrine%Mons%NULL%1,                         Wulfran%Bougouin%NULL%1,                         Franklin%Bruna%NULL%1,                         Quentin%Maestraggi%NULL%1,                         Christian%Roth%NULL%1,                         Laurent%Bitker%NULL%1,                         François%Dhelft%NULL%1,                         Justine%Bonnet-Chateau%NULL%1,                         Mathilde%Filippelli%NULL%1,                         Tristan%Morichau-Beauchant%NULL%1,                         Stéphane%Thierry%NULL%1,                         Charlotte%Le Roy%NULL%1,                         Mélanie%Saint Jouan%NULL%1,                         Bruno%Goncalves%NULL%1,                         Aurélien%Mazeraud%NULL%1,                         Matthieu%Daniel%NULL%1,                         Tarek%Sharshar%NULL%1,                         Cyril%Cadoz%NULL%1,                         Rostane%Gaci%NULL%1,                         Sébastien%Gette%NULL%1,                         Guillaune%Louis%NULL%1,                         Sophe-Caroline%Sacleux%NULL%1,                         Marie-Amélie%Ordan%NULL%1,                         Aurélie%Cravoisy%NULL%1,                         Marie%Conrad%NULL%1,                         Guilhem%Courte%NULL%1,                         Sébastien%Gibot%NULL%1,                         Younès%Benzidi%NULL%1,                         Claudia%Casella%NULL%1,                         Laurent%Serpin%NULL%1,                         Jean-Lou%Setti%NULL%1,                         Marie-Catherine%Besse%NULL%1,                         Anna%Bourreau%NULL%1,                         Jérôme%Pillot%NULL%1,                         Caroline%Rivera%NULL%1,                         Camille%Vinclair%NULL%1,                         Marie-Aline%Robaux%NULL%1,                         Chloé%Achino%NULL%1,                         Marie-Charlotte%Delignette%NULL%1,                         Tessa%Mazard%NULL%1,                         Frédéric%Aubrun%NULL%1,                         Bruno%Bouchet%NULL%1,                         Aurélien%Frérou%NULL%1,                         Laura%Muller%NULL%1,                         Charlotte%Quentin%NULL%1,                         Samuel%Degoul%NULL%1,                         Xavier%Stihle%NULL%1,                         Claude%Sumian%NULL%1,                         Nicoletta%Bergero%NULL%1,                         Bernard%Lanaspre%NULL%1,                         Hervé%Quintard%NULL%1,                         Eve Marie%Maiziere%NULL%1,                         Pierre-Yves%Egreteau%NULL%1,                         Guillaume%Leloup%NULL%1,                         Florin%Berteau%NULL%1,                         Marjolaine%Cottrel%NULL%1,                         Marie%Bouteloup%NULL%1,                         Matthieu%Jeannot%NULL%1,                         Quentin%Blanc%NULL%1,                         Julien%Saison%NULL%1,                         Isabelle%Geneau%NULL%1,                         Romaric%Grenot%NULL%1,                         Abdel%Ouchike%NULL%1,                         Pascal%Hazera%NULL%1,                         Anne-Lyse%Masse%NULL%1,                         Suela%Demiri%NULL%1,                         Corinne%Vezinet%NULL%1,                         Elodie%Baron%NULL%1,                         Déborah%Benchetrit%NULL%1,                         Antoine%Monsel%NULL%1,                         Grégoire%Trebbia%NULL%1,                         Emmanuelle%Schaack%NULL%1,                         Raphaël%Lepecq%NULL%1,                         Mathieu%Bobet%NULL%1,                         Christophe%Vinsonneau%NULL%1,                         Thibault%Dekeyser%NULL%1,                         Quentin%Delforge%NULL%1,                         Imen%Rahmani%NULL%1,                         Bérengère%Vivet%NULL%1,                         Jonathan%Paillot%NULL%1,                         Lucie%Hierle%NULL%1,                         Claire%Chaignat%NULL%1,                         Sarah%Valette%NULL%1,                         Benoït%Her%NULL%1,                         Jennifier%Brunet%NULL%1,                         Mathieu%Page%NULL%1,                         Fabienne%Boiste%NULL%1,                         Anthony%Collin%NULL%1,                         Florent%Bavozet%NULL%2,                         Aude%Garin%NULL%1,                         Mohamed%Dlala%NULL%1,                         Kais%Mhamdi%NULL%1,                         Bassem%Beilouny%NULL%1,                         Alexandra%Lavalard%NULL%1,                         Severine%Perez%NULL%1,                         Benoit%Veber%NULL%1,                         Pierre-Gildas%Guitard%NULL%1,                         Philippe%Gouin%NULL%1,                         Anna%Lamacz%NULL%1,                         Fabienne%Plouvier%NULL%1,                         Bertrand P.%Delaborde%NULL%1,                         Aïssa%Kherchache%NULL%1,                         Amina%Chaalal%NULL%1,                         Jean-Damien%Ricard%NULL%1,                         Marc%Amouretti%NULL%1,                         Santiago%Freita-Ramos%NULL%1,                         Damien%Roux%NULL%1,                         Jean-Michel%Constantin%NULL%1,                         Mona%Assefi%NULL%1,                         Marine%Lecore%NULL%1,                         Agathe%Selves%NULL%1,                         Florian%Prevost%NULL%1,                         Christian%Lamer%NULL%1,                         Ruiying%Shi%NULL%1,                         Lyes%Knani%NULL%1,                         Sébastien%Pili-Floury%NULL%1,                         Lucie%Vettoretti%NULL%1,                         Michael%Levy%NULL%1,                         Lucile%Marsac%NULL%1,                         Stéphane%Dauger%NULL%1,                         Sophie%Guilmin-Crépon%NULL%1,                         Jean-Baptiste%Putegnat%NULL%1,                         Frédérique%Bayle%NULL%1,                         Maya%Perrou%NULL%1,                         Ghyslaine%Thao%NULL%1,                         Guillaume%Géri%NULL%1,                         Cyril%Charron%NULL%1,                         Xavier%Repessé%NULL%1,                         Antoine%Vieillard-Baron%NULL%1,                         Mathieu%Guilbart%NULL%1,                         Pierre-Alexandre%Roger%NULL%1,                         Sébastien%Hinard%NULL%1,                         Pierre-Yves%Macq%NULL%1,                         Kevin%Chaulier%NULL%1,                         Sylvie%Goutte%NULL%1,                         Patrick%Chillet%NULL%1,                         Anaïs%Pitta%NULL%1,                         Barbara%Darjent%NULL%1,                         Amandine%Bruneau%NULL%1,                         Sigismond%Lasocki%NULL%1,                         Maxime%Leger%NULL%1,                         Soizic%Gergaud%NULL%1,                         Pierre%Lemarie%NULL%1,                         Nicolas%Terzi%NULL%1,                         Carole%Schwebel%NULL%1,                         Anaïs%Dartevel%NULL%1,                         Louis-Marie%Galerneau%NULL%1,                         Jean-Luc%Diehl%NULL%1,                         Caroline%Hauw-Berlemont%NULL%0,                         Nicolas%Péron%NULL%1,                         Emmanuel%Guérot%NULL%1,                         Abolfazl Mohebbi%Amoli%NULL%1,                         Michel%Benhamou%NULL%1,                         Jean-Pierre%Deyme%NULL%1,                         Olivier%Andremont%NULL%1,                         Diane%Lena%NULL%1,                         Julien%Cady%NULL%1,                         Arnaud%Causeret%NULL%1,                         Arnaud%De La Chapelle%NULL%1,                         Christophe%Cracco%NULL%1,                         Stéphane%Rouleau%NULL%1,                         David%Schnell%NULL%1,                         Cécile%Lory%NULL%1,                         Thibault%Chapelle%NULL%1,                         Vincent%Bruckert%NULL%1,                         Julie%Garcia%NULL%1,                         Abdlazize%Sahraoui%NULL%1,                         Nathalie%Abbosh%NULL%1,                         Caroline%Bornstain%NULL%1,                         Pierre%Pernet%NULL%1,                         Florent%Poirson%NULL%1,                         Ahmed%Pasem%NULL%1,                         Philippe%Karoubi%NULL%1,                         Virginie%Poupinel%NULL%1,                         Caroline%Gauthier%NULL%1,                         François%Bouniol%NULL%1,                         Philippe%Feuchere%NULL%1,                         Florent%Bavozet%NULL%0,                         Anne%Heron%NULL%1,                         Serge%Carreira%NULL%1,                         Malo%Emery%NULL%1,                         Anne%Le Floch%NULL%1,                         Luana%Giovannangeli%NULL%1,                         Nicolas%Herzog%NULL%1,                         Christophe%Giacardi%NULL%1,                         Thibaut%Baudic%NULL%1,                         Chloé%Thill%NULL%1,                         Florence%Tubach%NULL%1,                         Olivier%Lesieur%NULL%1,                         Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                         Max W.%Adelman%NULL%2,                         Maxwell A.%Hockstein%NULL%1,                         Chad J.%Robichaux%NULL%1,                         Johnathan A.%Edwards%NULL%1,                         Jane C.%Fazio%NULL%1,                         James M.%Blum%NULL%3,                         Craig S.%Jabaley%NULL%2,                         Mark%Caridi-Scheible%NULL%2,                         Greg S.%Martin%NULL%2,                         David J.%Murphy%NULL%3,                         Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                       Antonelli%M.%coreGivesNoEmail%0,                       Bellani%G.%coreGivesNoEmail%0,                       Bonanomi%E.%coreGivesNoEmail%0,                       Cabrini%L.%coreGivesNoEmail%0,                       Carlesso%E.%coreGivesNoEmail%0,                       Castelli%G.%coreGivesNoEmail%0,                       Cattaneo%S.%coreGivesNoEmail%0,                       Cecconi%M.%coreGivesNoEmail%0,                       Cereda%D.%coreGivesNoEmail%0,                       Colombo%S.%coreGivesNoEmail%0,                       Coluccello%A.%coreGivesNoEmail%0,                       Crescini%G.%coreGivesNoEmail%0,                       Forastieri%Molinari A.%coreGivesNoEmail%0,                       Foti%G.%coreGivesNoEmail%0,                       Fumagalli%R.%coreGivesNoEmail%0,                       Grasselli%G.%coreGivesNoEmail%0,                       Greco%M.%coreGivesNoEmail%0,                       Iotti%G. A.%coreGivesNoEmail%0,                       Langer%T.%coreGivesNoEmail%0,                       Latronico%N.%coreGivesNoEmail%0,                       Lorini%F. L.%coreGivesNoEmail%0,                       Mojoli%F.%coreGivesNoEmail%0,                       Natalini%G.%coreGivesNoEmail%0,                       Pesenti%A.%coreGivesNoEmail%0,                       Pessina%C. M.%coreGivesNoEmail%0,                       Ranieri%V. M.%coreGivesNoEmail%0,                       Rech%R.%coreGivesNoEmail%0,                       Rosano%A.%coreGivesNoEmail%0,                       Scudeller%L.%coreGivesNoEmail%0,                       Storti%E.%coreGivesNoEmail%0,                       Thompson%B. T.%coreGivesNoEmail%0,                       Tirani%M.%coreGivesNoEmail%0,                       Villani%P. G.%coreGivesNoEmail%0,                       Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                         Keum-Ju%Choi%NULL%1,                         Sun Ha%Choi%NULL%1,                         Shin Yup%Lee%NULL%1,                         Kyung Chan%Kim%NULL%1,                         Eun Jin%Kim%NULL%1,                         Jaehee%Lee%NULL%2,                         Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                         Siddique%Chaudhary%NULL%1,                         Kevin%Bryan Lo%NULL%2,                         Kevin%Bryan Lo%NULL%0,                         Robert%DeJoy%NULL%1,                         Fahad%Gul%NULL%1,                         Ricardo%Torres%NULL%1,                         Neal%Chaisson%NULL%2,                         Neal%Chaisson%NULL%0,                         Gabriel%Patarroyo-Aponte%NULL%2,                         Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                         Bruno L.%Ferreyro%NULL%2,                         Bruno L.%Ferreyro%NULL%0,                         Federico%Angriman%NULL%1,                         María%Hernández-Sanz%NULL%2,                         Egoitz%Arruti%NULL%1,                         Antoni%Torres%NULL%2,                         Jesús%Villar%NULL%1,                         Laurent%Brochard%NULL%1,                         Carlos%Ferrando%NULL%2,                         Ricard%Mellado-Artigas%NULL%1,                         María%Hernández-Sanz%NULL%0,                         Carlos%Ferrando%NULL%0,                         Marina%Vendrell%NULL%1,                         Gerard%Sánchez-Etayo%NULL%1,                         Amalia%Alcón%NULL%1,                         Isabel%Belda%NULL%1,                         Mercé%Agustí%NULL%1,                         Albert%Carramiñana%NULL%1,                         Isabel%Gracia%NULL%1,                         Miriam%Panzeri%NULL%1,                         Irene%León%NULL%1,                         Jaume%Balust%NULL%1,                         Ricard%Navarro%NULL%2,                         María José%Arguís%NULL%1,                         María José%Carretero%NULL%1,                         Cristina%Ibáñez%NULL%1,                         Juan%Perdomo%NULL%1,                         Antonio%López%NULL%1,                         Manuel%López-Baamonde%NULL%1,                         Tomás%Cuñat%NULL%1,                         Marta%Ubré%NULL%1,                         Antonio%Ojeda%NULL%1,                         Andrea%Calvo%NULL%1,                         Eva%Rivas%NULL%1,                         Paola%Hurtado%NULL%1,                         Roger%Pujol%NULL%1,                         Nuria%Martín%NULL%1,                         Javier%Tercero%NULL%1,                         Pepe%Sanahuja%NULL%1,                         Marta%Magaldi%NULL%1,                         Miquel%Coca%NULL%1,                         Elena%del Rio%NULL%1,                         Julia%Martínez-Ocon%NULL%1,                         Paula%Masgoret%NULL%1,                         Monserrat%Tio%NULL%1,                         Angel%Caballero%NULL%1,                         Raquel%Risco%NULL%1,                         Raquel%Bergé%NULL%1,                         Lidia%Gómez%NULL%1,                         Nicolás%de Riva%NULL%1,                         Ana%Ruiz%NULL%1,                         Beatriz%Tena%NULL%1,                         Sebastián%Jaramillo%NULL%1,                         José María%Balibrea%NULL%1,                         Francisco Borja de Borja%de Lacy%NULL%1,                         Ana%Otero%NULL%1,                         Ainitze%Ibarzabal%NULL%1,                         Raquel%Bravo%NULL%1,                         Anna%Carreras%NULL%1,                         Daniel%Martín-Barreda%NULL%1,                         Alfonso Jesús%Alias%NULL%1,                         Mariano%Balaguer%NULL%1,                         Jorge%Aliaga%NULL%1,                         Alex%Almuedo%NULL%1,                         Joan Ramón%Alonso%NULL%1,                         Rut%Andrea%NULL%1,                         Gerard Sergi%Angelès%NULL%1,                          Marilyn%Arias%NULL%1,                         Fátima%Aziz%NULL%1,                         Joan Ramon%Badía%NULL%1,                         Enric%Barbeta%NULL%1,                         Toni%Torres%NULL%1,                         Guillem%Batiste%NULL%1,                         Pau%Benet%NULL%1,                         Xavi%Borrat%NULL%1,                         María%Borrell%NULL%1,                         Ernest%Bragulat%NULL%1,                         Inmaculada%Carmona%NULL%1,                         Manuel%Castellà%NULL%1,                         Pedro%Castro%NULL%1,                         Joan%Ceravalls%NULL%1,                         Oscar%Comino%NULL%1,                         Claudia%Cucciniello%NULL%1,                         Clàudia%De Deray%NULL%1,                         Oriol%De Diego%NULL%1,                         Paula%De la Matta%NULL%1,                         Marta%Farrero%NULL%1,                         Javier%Fernández%NULL%1,                         Sara%Fernández%NULL%1,                         Anna%Fernández%NULL%1,                         Miquel%Ferrer%NULL%1,                         Ana%Fervienza%NULL%1,                         María%Tallo Forga%NULL%1,                         Daniel%Forné%NULL%1,                         Clàudia%Galán%NULL%1,                         Andrea%Gómez%NULL%1,                         Eduard%Guasch%NULL%1,                         María%Hernández-Tejero%NULL%1,                         Adriana%Jacas%NULL%1,                         Beltrán%Jiménez%NULL%1,                         Pere%Leyes%NULL%1,                         Teresa%López%NULL%1,                         José Antonio%Martínez%NULL%1,                         Graciela%Martínez-Pallí%NULL%1,                         Jordi%Mercadal%NULL%1,                         Guido%Muñoz%NULL%1,                         José%Muñoz%NULL%1,                         Ricard%Navarro%NULL%0,                         Josep María%Nicolás%NULL%1,                         José Tomás%Ortiz%NULL%1,                         Anna%Peiró%NULL%1,                         Manuel%Pérez%NULL%1,                         Esteban%Poch%NULL%1,                         Margarida%Pujol%NULL%1,                         Eduard%Quintana%NULL%1,                         Bartomeu%Ramis%NULL%1,                         Enric%Reverter%NULL%1,                         Irene%Rovira%NULL%1,                         Pablo%Ruiz%NULL%1,                         Elena%Sandoval%NULL%1,                         Stefan%Schneider%NULL%1,                         Oriol%Sibila%NULL%1,                         Carla%Solé%NULL%1,                         Alex%Soriano%NULL%1,                         Dolors%Soy%NULL%1,                         M.%Suárez%NULL%1,                         Adrián%Téllez%NULL%1,                         Néstor David%Toapanta%NULL%1,                         Antoni%Torres%NULL%0,                         Xavier%Urra%NULL%1,                         César%Aldecoa%NULL%1,                         Alicia%Bordell%NULL%1,                         Silvia%Martín%NULL%1,                         Judith%Andrés%NULL%1,                         Alberto Martínez%Ruiz%NULL%1,                         Gonzalo Tamayo%Medel%NULL%1,                         Iñaki Bilbao Bilbao%Villasante%NULL%1,                         Fernando Iturri%Clavero%NULL%1,                         Covadonga Peralta%Álvarez%NULL%1,                         Julia T.%Herrera Díez%NULL%1,                         Andrea García%Trancho%NULL%1,                         Iñaki Sainz %Mandiola%NULL%1,                         Carmen Ruano%Suarez%NULL%1,                         Angela Ruiz%Bocos%NULL%1,                         Eneritz Urrutia%Izagirre%NULL%1,                         Pablo Ortiz%de Urbina Fernández%NULL%1,                         Naiara Apodaka%López%NULL%1,                         Leire Prieto%Molano%NULL%1,                         Eunate Ganuza%Martínez%NULL%1,                         Iratxe Vallinas%Hidalgo%NULL%1,                         Karmele%de Orte Sancho%NULL%1,                         Celia González%Paniagua%NULL%1,                         Gemma Ortiz%Labrador%NULL%1,                         Mireia Pérez%Larrañaga%NULL%1,                         Marta López%Miguelez%NULL%1,                         Estíbaliz Bárcena%Andrés%NULL%1,                         Erik Urutxurtu%Laureano%NULL%1,                         Maria Jesús Maroño%Boedo%NULL%1,                         Blanca Escontrela%Rodríguez%NULL%1,                         Aitziber Ereñozaga%Camiruaga%NULL%1,                         Deiene Lasuen%Aguirre%NULL%1,                         Ainhoa Zabal%Maeztu%NULL%1,                         Ane Guereca%Gala%NULL%1,                         Iker Castelo%Korro%NULL%1,                         Andrés Álvarez%Campo%NULL%1,                         Alejandro Carcelen%Viana%NULL%1,                         Alejandro Alberdi%Enríquez%NULL%1,                         Xabier Ormazábal%Rementeria%NULL%1,                         Alberto Sánchez%Campos%NULL%1,                         Rosa Gutiérrez%Rico%NULL%1,                         Pablo Barbier%Damborenea%NULL%1,                         Marta Guerenabarrena%Momeñe%NULL%1,                         Borja Cuesta%Ruiz%NULL%1,                         Alejandro López%Rico%NULL%1,                         Ana Rojo%Polo%NULL%1,                         Covadonga García%Grijelmo%NULL%1,                         Mikel Celorrio%Reta%NULL%1,                         Eneko Martín%Arroyo%NULL%1,                         Leire Artaza%Aparicio%NULL%1,                         Iñaki Ituarte%Aspiazu%NULL%1,                         Ane Igeregi%Basabe%NULL%1,                         Itxaso Merino%Julian%NULL%1,                         Isabel Diaz%Rico%NULL%1,                         Maria Paz%Martínez%NULL%1,                         Ramón%Adalia Bartolomé%NULL%1,                         Luigi%Zattera%NULL%1,                         Irina Adalid%Hernandez%NULL%1,                         Leire Larrañaga%Altuna%NULL%1,                         Aina Serrallonga%Castells%NULL%1,                         Adriana Vílchez%Garcia%NULL%1,                         María%Núñez%NULL%1,                         Lorena%Román%NULL%1,                         Isabel Ramos%Delgado%NULL%1,                         Adela Benítez-Cano%Martínez%NULL%1,                         Mireia Chanzá%Albert%NULL%1,                         Juan Carlos Álvarez%García%NULL%1,                         Luis Aguilera%Cuchillo%NULL%1,                         Sandra Beltrán%de Heredia%NULL%1,                         Jesús Carazo%Cordobés%NULL%1,                         Carlos Alberto García%Bernedo%NULL%1,                         Fernando Escolano%Villén%NULL%1,                         Francisco Javier Redondo%Calvo%NULL%1,                         Rubén Villazala%González%NULL%1,                         Victor Baladron%González%NULL%1,                         Patricia%Faba%NULL%1,                         Omar%Montenegro%NULL%1,                         Natalia Bejarano%Ramírez%NULL%1,                         Sergio Marcos%Contreras%NULL%1,                         Alejandro Garcia%Rodríguez%NULL%1,                         Saleta Rey%Vázquez%NULL%1,                         Cristina Garcia%Pérez%NULL%1,                         Eva Higuera%Miguelez%NULL%1,                         Irene Pérez%Blanco%NULL%1,                         David García%Rivera%NULL%1,                         Ane Martín%de la Fuente%NULL%1,                         Marta%Pardo%NULL%1,                         Vanessa%Rodriguez%NULL%1,                         Unai%Bengoetxea%NULL%1,                         Fernando%Ramasco%NULL%1,                         Sheila Olga Santidrián%Bernal%NULL%1,                         Alvar Santa Cruz%Hernando%NULL%1,                         Antonio Planas%Roca%NULL%1,                         Carlos Figueroa%Yusta%NULL%1,                         Esther García%Villabona%NULL%1,                         Carmen Vallejo%Lantero%NULL%1,                         Eva Patiño%Rodriguez%NULL%1,                         Alvaro Esquivel%Toledo%NULL%1,                         David Arribas%Méndez%NULL%1,                         Mar Orts%Rodriguez%NULL%1,                         Rosa Méndez%Hernández%NULL%1,                         Jesús Nieves%Alonso%NULL%1,                         Inés Imaz%Artazcoz%NULL%1,                         Sonia Expósito%Carazo%NULL%1,                         Carlos Román%Guerrero%NULL%1,                         Elena Rojo%Rodríguez%NULL%1,                         Ricardo Moreno%González%NULL%1,                         Julia Hernando%Santos%NULL%1,                         Jara Torrente%Pérez%NULL%1,                         Esperanza Mata%Mena%NULL%1,                         Manuel José Muñoz%Martínez%NULL%1,                         Enrique Alday%Muñoz%NULL%1,                         Patricia Martin%Serrano%NULL%1,                         Laura Cotter%Muñoz%NULL%1,                         Amadea%Mjertan%NULL%1,                         Diego Gutierrez%Martínez%NULL%1,                         Carmen Rodríguez%García%NULL%1,                         Olaya Alonso%Viejo%NULL%1,                         Juan Alvarez%Pereira%NULL%1,                         Ana Carmona%Bonet%NULL%1,                         Diana Parrado%López%NULL%1,                         Eva%de Dios Tomas%NULL%1,                         Rafael Martín%Celemin%NULL%1,                         María Luisa Meilan%Paz%NULL%1,                         Luis Quecedo%Gutiérrez%NULL%1,                         Noemí Diaz%Velasco%NULL%1,                         Gabriel Martin%Hernández%NULL%1,                         Francisco Garcia%del Corral%NULL%1,                         Gloria Hernandez%Arias%NULL%1,                         David Rodriguez%Cuesta%NULL%1,                         Ana Gómez%Rice%NULL%1,                         Encarna Mateos%Sevillano%NULL%1,                         Natalia Olmos%Molpeceres%NULL%1,                         Beatriz%Domínguez%NULL%1,                         Ana Vázquez%Lima%NULL%1,                         Ángel%Candela%NULL%1,                         Ismael A. Acevedo%Bambaren%NULL%1,                         Maria Isabel Albala%Blanco%NULL%1,                         Paloma Alonso%Montoiro%NULL%1,                         Fernando Álvarez%Utrera%NULL%1,                         Juan Avellanosa%Esteruelas%NULL%1,                         Amal Azzam%López%NULL%1,                         Alberto José%Balvis%NULL%1,                         Balvis Tommaso%Bardi%NULL%1,                         María Beltrán%Martín%NULL%1,                         Jacobo Benatar%Haserfaty%NULL%1,                         Alberto Berruezo%Camacho%NULL%1,                         Laura Betolaza%Weimer%NULL%1,                         María%del Mar Carbonell Soto%NULL%1,                         Cristina Carrasco%Seral%NULL%1,                         Cristina Cerro %Zaballos%NULL%1,                         Elizabeth Claros%Llamas%NULL%1,                         Pilar Coleta%Orduna%NULL%1,                         Ingrid P. Cortes%Forero%NULL%1,                         Pascual Agustín Crespo%Aliseda%NULL%1,                         María Angélica%de Pablo Pajares%NULL%1,                         Yolanda Díez%Remesal%NULL%1,                         Trinidad Dorado%Díaz%NULL%1,                         Noemí Echevarría%Blasco%NULL%1,                         María Elena Elías%Martín%NULL%1,                         Javier Felices%Triviño%NULL%1,                         Natalia Fernández%López%NULL%1,                         Cristina Fernández%Martín%NULL%1,                         Natalia Ferreiro%Pozuelo%NULL%1,                         Luis Gajate%Martín%NULL%1,                         Clara Gallego%Santos%NULL%1,                         Diego Gil%Mayo%NULL%1,                         María Gómez%Rojo%NULL%1,                         Claudia González%Cibrián%NULL%1,                         Elena Herrera%López%NULL%1,                         Borja Hinojal%Olmedillo%NULL%1,                         Berta Iglesias%Gallego%NULL%1,                         Sassan%Khonsari%NULL%1,                         María Nuria Mane%Ruiz%NULL%1,                         María Manzanero%Arroyo%NULL%1,                         Ana María Mariscal%Ortega%NULL%1,                         Sara Martín%Burcio%NULL%1,                         María%del Carmen Martín González%NULL%1,                         Ascensión Martín%Grande%NULL%1,                         Jose Juan Martín%López%NULL%1,                         Cecilia Martín%Rabes%NULL%1,                         Marcos Martínez%Borja%NULL%1,                         Nilda Martínez%Castro%NULL%1,                         Adolfo Martínez%Pérez%NULL%1,                         Snejana%Matcan%NULL%1,                         Cristina Medrano%Viñas%NULL%1,                         Lisset Miguel%Herrera%NULL%1,                         Adrián Mira%Betancur%NULL%1,                         María Montiel%Carbajo%NULL%1,                         Javier Moya%Moradas%NULL%1,                         Lorena Muñoz%Pérez%NULL%1,                         Mónica Nuñez%Murias%NULL%1,                         Eva Ordiales%González%NULL%1,                         Óscar Ordoñez%Recio%NULL%1,                         Miguel Ángel Palomero%Rodriguez%NULL%1,                         Diego Parise%Roux%NULL%1,                         Lucia Pereira%Torres%NULL%1,                         David Pestaña%Lagunas%NULL%1,                         Juana María Pinto%Corraliza%NULL%1,                         Marian Prieto%Rodrigo%NULL%1,                         Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                         David Rodriguez%Esteban%NULL%1,                         Víctor Rojas%Pernia%NULL%1,                         Álvaro Ruigómez%Saiz%NULL%1,                         Bárbara Saavedra%Villarino%NULL%1,                         Noemí Samaranch%Palero%NULL%1,                         Gloria Santos%Pérez%NULL%1,                         Jaume Serna%Pérez%NULL%1,                         Ana Belén Serrano%Romero%NULL%1,                         Jesús Tercero%López%NULL%1,                         Carlos Tiscar%García%NULL%1,                         Marta%de la Torre Concostrina%NULL%1,                         Eva María Ureta%Mesa%NULL%1,                         Eva Velasco%Olarte%NULL%1,                         Judith Villahoz%Martínez%NULL%1,                         Raúl Villalaba%Palacios%NULL%1,                         Gema Villanueva%García%NULL%1,                         Cristina Vogel%de Medeiros%NULL%1,                         Soraya Gholamian%Ovejero%NULL%1,                         Marta Vicente%Orgaz%NULL%1,                         Patricia Lloreda%Herradon%NULL%1,                         Cristina Crespo%Gómez%NULL%1,                         Tatiana%Sarmiento-Trujillo%NULL%1,                         Noemí García%Medina%NULL%1,                         María Martínez%García%NULL%1,                         Carles Espinós%Ramírez%NULL%1,                         Nabil Mouhaffel%Rivero%NULL%1,                         Jose Antonio Bernia%Gil%NULL%1,                         Sonsoles%Martín%NULL%1,                         María Victoria%Moral%NULL%1,                         Josefina%Galán%NULL%1,                         Pilar%Paniagua%NULL%1,                         Sergio%Pérez%NULL%1,                         Albert%Bainac%NULL%1,                         Ana%Arias%NULL%1,                         Elsa%Ramil%NULL%1,                         Jorge%Escudero%NULL%1,                         Pablo%Monedero%NULL%1,                         Carmen%Cara%NULL%1,                         Andrea%Lara%NULL%1,                         Elena Mendez%Martínez%NULL%1,                         Jorge%Mendoza%NULL%1,                         Íñigo Rubio%Baines%NULL%1,                         Carmen Sala%Trull%NULL%1,                         Pablo Montero%López%NULL%1,                         Alfredo%Gea%NULL%1,                         Alejandro%Montero%NULL%1,                         Rocío Armero%Ibañez%NULL%1,                         Juan Vicente Llau%Pitarch%NULL%1,                         Fernando Rauer%Alcóver%NULL%1,                         Cristina Álvarez%Herreros%NULL%1,                         Cyntia Sánchez%Martín%NULL%1,                         Lucía López Ocáriz%Olmos%NULL%1,                         Marta Navas%Moruno%NULL%1,                         Fernando García%Montoto%NULL%1,                         M. F. Mirón%Rodriguez%NULL%1,                         Laura Fuentes%Coco%NULL%1,                         Cristina Hernández%Gamito%NULL%1,                         Antonio Barba%Orejudo%NULL%1,                         Luis Gerardo Smith%Vielma%NULL%1,                         Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                         Marta Donoso%Domínguez%NULL%1,                         Silvia Esquivel%Ramírez%NULL%1,                         José Antonio%Carbonell%NULL%1,                         Berta Monleón%López%NULL%1,                         Sara%Martínez-Castro%NULL%1,                         Gerardo%Aguilar%NULL%1,                         María Gestal Pablo%Casas%NULL%1,                         Angel Outeiro%Rosato%NULL%1,                         Andrea Naveiro%Pan%NULL%1,                         María Alonso%Portela%NULL%1,                         Adrián García%Romar%NULL%1,                         Eva Mosquera%Rodríguez%NULL%1,                         Diego Ruanova%Seijo%NULL%1,                         Pablo Rama%Maceiras%NULL%1,                         Francisco%Castro-Ceoane%NULL%1,                         Esther Moreno%López%NULL%1,                         Sergio%Gil%NULL%1,                         Julia Guillén%Antón%NULL%1,                         Patricia García-Consuegra%Tirado%NULL%1,                         Aurora Callau%Calvo%NULL%1,                         Laura Forés%Lisbona%NULL%1,                         María Carbonell%Romero%NULL%1,                         Belén Albericio%Gil%NULL%1,                         Laura Pradal%Jarne%NULL%1,                         María Soria%Lozano%NULL%1,                         Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                         Navjot Ariyana%Kaur%NULL%1,                         Daniel%Sacher%NULL%1,                         Oisin%O’Corragain%NULL%1,                         Daniel%Salerno%NULL%1,                         Parag%Desai%NULL%1,                         Sameep%Sehgal%NULL%1,                         Matthew%Gordon%NULL%2,                         Rohit%Gupta%NULL%2,                         Nathaniel%Marchetti%NULL%1,                         Huaqing%Zhao%NULL%2,                         Nicole%Patlakh%NULL%2,                         Gerard J.%Criner%NULL%1,                         Temple%University%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                         Dominik%Jarczak%NULL%1,                         Liina%Thasler%NULL%1,                         Martin%Bachmann%NULL%1,                         Frank%Schulte%NULL%1,                         Berthold%Bein%NULL%1,                         Christian Friedrich%Weber%NULL%1,                         Ulrich%Schäfer%NULL%1,                         Carsten%Veit%NULL%1,                         Hans-Peter%Hauber%NULL%1,                         Sebastian%Kopp%NULL%1,                         Karsten%Sydow%NULL%1,                         Andreas%de Weerth%NULL%0,                         Marc%Bota%NULL%1,                         Rüdiger%Schreiber%NULL%1,                         Oliver%Detsch%NULL%1,                         Jan-Peer%Rogmann%NULL%1,                         Daniel%Frings%NULL%0,                         Barbara%Sensen%NULL%1,                         Christoph%Burdelski%NULL%0,                         Olaf%Boenisch%NULL%1,                         Axel%Nierhaus%NULL%0,                         Geraldine%de Heer%NULL%0,                         Stefan%Kluge%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William%Zuccon%NULL%1,                          Paolo%Comassi%NULL%1,                          Luca%Adriani%NULL%1,                          Giulio%Bergamaschini%NULL%1,                          Elena%Bertin%NULL%1,                          Raffaella%Borromeo%NULL%1,                          Serena%Corti%NULL%1,                          Federica%De Petri%NULL%1,                          Francesco%Dolci%NULL%1,                          Attilio%Galmozzi%NULL%1,                          Alberto%Gigliotti%NULL%1,                          Livio%Gualdoni%NULL%1,                          Claudia%Guerra%NULL%1,                          Anna%Khosthiova%NULL%1,                          Giovanni%Leati%NULL%1,                          Giuseppe%Lupi%NULL%1,                          Paolo%Moscato%NULL%1,                          Vittorio%Perotti%NULL%1,                          Miriam%Piantelli%NULL%1,                          Alain%Ruini%NULL%1,                          Silvia%Sportelli%NULL%1,                          Micaela%Susca%NULL%1,                          Carmine%Troiano%NULL%1,                          Giampaolo%Benelli%NULL%1,                          Elisabetta%Buscarini%NULL%1,                          Ciro%Canetta%NULL%1,                          Guido%Merli%NULL%1,                          Alessandro%Scartabellati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Imen Ben%Saida%NULL%1,                          Emna%Ennouri%NULL%1,                          Rayane%Nachi%NULL%1,                          Khaoula%Meddeb%NULL%1,                          Jihene%Mahmoud%NULL%1,                          Nesrine%Thabet%NULL%1,                          Salma%Jerbi%NULL%1,                          Mohamed%Boussarsar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ilias I.%Siempos%NULL%1,                          Eleni%Xourgia%NULL%1,                          Theodora K.%Ntaidou%NULL%1,                          Dimitris%Zervakis%NULL%1,                          Eleni E.%Magira%NULL%1,                          Anastasia%Kotanidou%NULL%1,                          Christina%Routsi%NULL%1,                          Spyros G.%Zakynthinos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Karagiannidis%NULL%1,                          Carina%Mostert%NULL%1,                          Corinna%Hentschker%NULL%1,                          Thomas%Voshaar%NULL%1,                          Jürgen%Malzahn%NULL%1,                          Gerhard%Schillinger%NULL%1,                          Jürgen%Klauber%NULL%1,                          Uwe%Janssens%NULL%1,                          Gernot%Marx%NULL%1,                          Steffen%Weber-Carstens%NULL%1,                          Stefan%Kluge%NULL%0,                          Michael%Pfeifer%NULL%1,                          Linus%Grabenhenrich%NULL%1,                          Tobias%Welte%NULL%1,                          Reinhard%Busse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Schmidt%NULL%1,                          David%Hajage%NULL%2,                          David%Hajage%NULL%0,                          Alexandre%Demoule%NULL%1,                          Tài%Pham%NULL%1,                          Alain%Combes%NULL%1,                          Martin%Dres%NULL%1,                          Said%Lebbah%NULL%1,                          Antoine%Kimmoun%NULL%1,                          Alain%Mercat%NULL%1,                          Gaëtan%Beduneau%NULL%1,                          Jessica%Palmyre%NULL%1,                          Margot%Prevost%NULL%1,                          Pierre%Asfar%NULL%1,                          François%Beloncle%NULL%1,                          Julien%Demiselle%NULL%1,                          Arthur%Pavot%NULL%1,                          Xavier%Monnet%NULL%1,                          Christian%Richard%NULL%1,                          Julien%Mayaux%NULL%1,                          Alexandra%Beurton%NULL%1,                          Richard%Descamps%NULL%1,                          Aurélie%Joret%NULL%1,                          Damien%Du Cheyron%NULL%1,                          Frédéric%Pene%NULL%1,                          Jean-Daniel%Chiche%NULL%1,                          Mathieu%Jozwiak%NULL%1,                          Paul%Jaubert%NULL%1,                          Guillaume%Voiriot%NULL%1,                          Muriel%Fartoukh%NULL%1,                          Marion%Teulier%NULL%1,                          Clarisse%Blayau%NULL%1,                          Erwen%L’Her%NULL%1,                          Cécile%Aubron%NULL%1,                          Laetitia%Bodenes%NULL%1,                          Nicolas%Ferriere%NULL%1,                          Johann%Auchabie%NULL%1,                          Anthony%Le Meur%NULL%1,                          Sylvain%Pignal%NULL%1,                          Thierry%Mazzoni%NULL%1,                          Jean-Pierre%Quenot%NULL%1,                          Pascal%Andreu%NULL%1,                          Jean-Baptiste%Roudau%NULL%1,                          Marie%Labruyère%NULL%1,                          Saad%Nseir%NULL%0,                          Sébastien%Preau%NULL%1,                          Julien%Poissy%NULL%0,                          Daniel%Mathieu%NULL%0,                          Sarah%Benhamida%NULL%1,                          Rémi%Paulet%NULL%1,                          Nicolas%Roucaud%NULL%1,                          Martial%Thyrault%NULL%1,                          Florence%Daviet%NULL%1,                          Sami%Hraiech%NULL%1,                          Gabriel%Parzy%NULL%1,                          Aude%Sylvestre%NULL%1,                          Sébastien%Jochmans%NULL%1,                          Anne-Laure%Bouilland%NULL%1,                          Mehran%Monchi%NULL%1,                          Marc%Danguy des Déserts%NULL%1,                          Quentin%Mathais%NULL%1,                          Gwendoline%Rager%NULL%1,                          Pierre%Pasquier%NULL%1,                          Reignier%Jean%NULL%1,                          Seguin%Amélie%NULL%1,                          Garret%Charlotte%NULL%1,                          Canet%Emmanuel%NULL%1,                          Jean%Dellamonica%NULL%1,                          Clément%Saccheri%NULL%1,                          Romain%Lombardi%NULL%1,                          Yanis%Kouchit%NULL%1,                          Sophie%Jacquier%NULL%1,                          Armelle%Mathonnet%NULL%1,                          Mai-Ahn%Nay%NULL%1,                          Isabelle%Runge%NULL%1,                          Frédéric%Martino%NULL%1,                          Laure%Flurin%NULL%1,                          Amélie%Rolle%NULL%1,                          Michel%Carles%NULL%1,                          Rémi%Coudroy%NULL%1,                          Arnaud W.%Thille%NULL%1,                          Jean-Pierre%Frat%NULL%1,                          Maeva%Rodriguez%NULL%1,                          Pascal%Beuret%NULL%1,                          Audrey%Tientcheu%NULL%1,                          Arthur%Vincent%NULL%1,                          Florian%Michelin%NULL%1,                          Marie Anne%Melone%NULL%1,                          Maxime%Gauzi%NULL%1,                          Arnaud%Guilbert%NULL%1,                          Geoffrey%Kouadri%NULL%1,                          Valérie%Gissot%NULL%1,                          Stéphan%Ehrmann%NULL%1,                          Charlotte%Salmon-Gandonnière%NULL%1,                          Djlali%Elaroussi%NULL%1,                          Agathe%Delbove%NULL%1,                          Yannick%Fedun%NULL%1,                          Julien%Huntzinger%NULL%1,                          Eddy%Lebas%NULL%1,                          Grâce%Kisoka%NULL%1,                          Céline%Grégoire%NULL%1,                          Stella%Marchetta%NULL%1,                          Bernard%Lambermont%NULL%1,                          Laurent%Argaud%NULL%1,                          Thomas%Baudry%NULL%1,                          Pierre-Jean%Bertrand%NULL%1,                          Auguste%Dargent%NULL%1,                          Christophe%Guitton%NULL%1,                          Nicolas%Chudeau%NULL%1,                          Mickaël%Landais%NULL%1,                          Cédric%Darreau%NULL%1,                          Alexis%Ferre%NULL%1,                          Antoine%Gros%NULL%1,                          Guillaume%Lacave%NULL%1,                          Fabrice%Bruneel%NULL%1,                          Mathilde%Neuville%NULL%1,                          Jérôme%Devaquet%NULL%1,                          Guillaume%Tachon%NULL%1,                          Richard%Gallot%NULL%1,                          Riad%Chelha%NULL%1,                          Arnaud%Galbois%NULL%1,                          Anne%Jallot%NULL%1,                          Ludivine Chalumeau%Lemoine%NULL%1,                          Khaldoun%Kuteifan%NULL%1,                          Valentin%Pointurier%NULL%1,                          Louise-Marie%Jandeaux%NULL%1,                          Joy%Mootien%NULL%1,                          Charles%Damoisel%NULL%1,                          Benjamin%Sztrymf%NULL%1,                          Juliette%Chommeloux%NULL%1,                          Charles Edouard%Luyt%NULL%1,                          Frédérique%Schortgen%NULL%1,                          Leon%Rusel%NULL%1,                          Camille%Jung%NULL%1,                          Florent%Gobert%NULL%1,                          Damien%Vimpere%NULL%1,                          Lionel%Lamhaut%NULL%1,                          Bertrand%Sauneuf%NULL%1,                          Liliane%Charrier%NULL%1,                          Julien%Calus%NULL%1,                          Isabelle%Desmeules%NULL%1,                          Benoît%Painvin%NULL%1,                          Jean-Marc%Tadie%NULL%1,                          Vincent%Castelain%NULL%1,                          Baptiste%Michard%NULL%1,                          Jean-Etienne%Herbrecht%NULL%1,                          Mathieu%Baldacini%NULL%1,                          Nicolas%Weiss%NULL%1,                          Sophie%Demeret%NULL%1,                          Clémence%Marois%NULL%1,                          Benjamin%Rohaut%NULL%1,                          Pierre-Henri%Moury%NULL%1,                          Anne-Charlotte%Savida%NULL%1,                          Emmanuel%Couadau%NULL%1,                          Mathieu%Série%NULL%1,                          Nica%Alexandru%NULL%1,                          Cédric%Bruel%NULL%1,                          Candice%Fontaine%NULL%1,                          Sonia%Garrigou%NULL%1,                          Juliette Courtiade%Mahler%NULL%1,                          Maxime%Leclerc%NULL%1,                          Michel%Ramakers%NULL%1,                          Pierre%Garçon%NULL%1,                          Nicole%Massou%NULL%1,                          Ly Phacs%Van Vong%NULL%1,                          Juliane%Sen%NULL%1,                          Nolwenn%Lucas%NULL%1,                          Franck%Chemouni%NULL%1,                          Annabelle%Stoclin%NULL%1,                          Alexandre%Avenel%NULL%1,                          Henri%Faure%NULL%1,                          Angélie%Gentilhomme%NULL%1,                          Sylvie%Ricome%NULL%1,                          Paul%Abraham%NULL%1,                          Céline%Monard%NULL%1,                          Julien%Textoris%NULL%1,                          Thomas%Rimmele%NULL%1,                          Florent%Montini%NULL%1,                          Gabriel%Lejour%NULL%1,                          Thierry%Lazard%NULL%1,                          Isabelle%Etienney%NULL%1,                          Younes%Kerroumi%NULL%1,                          Dupuis%Claire%NULL%1,                          Bereiziat Marine%Coupez%NULL%1,                          Thouy%François%NULL%1,                          Clémet%Hoffmann%NULL%1,                          Nicolas%Donat%NULL%1,                          Violaine%Muller%NULL%1,                          Thibault%Martinez%NULL%1,                          Audrey%Jacquot%NULL%1,                          Matthieu%Mattei%NULL%1,                          Bruno%Levy%NULL%1,                          Ramin%Ravan%NULL%1,                          Loïc%Dopeux%NULL%1,                          Jean-Mathias%Liteaudon%NULL%1,                          Delphine%Roux%NULL%1,                          Brice%Rey%NULL%1,                          Radu%Anghel%NULL%1,                          Deborah%Schenesse%NULL%1,                          Vincent%Gevrey%NULL%1,                          Jermy%Castanera%NULL%1,                          Philippe%Petua%NULL%1,                          Benjamin%Madeux%NULL%1,                          Otto%Hartman%NULL%1,                          Michael%Piagnerelli%NULL%1,                          Anne%Joosten%NULL%1,                          Cinderella%Noel%NULL%1,                          Patrick%Biston%NULL%1,                          Thibaut%Noel%NULL%1,                          Gurvan L. E.%Bouar%NULL%1,                          Messabi%Boukhanza%NULL%1,                          Elsa%Demarest%NULL%1,                          Marie-France%Bajolet%NULL%1,                          Nathanaël%Charrier%NULL%1,                          Audrey%Quenet%NULL%1,                          Cécile%Zylberfajn%NULL%1,                          Nicolas%Dufour%NULL%1,                          Buno%Mégarbane%NULL%1,                          Sqébastian%Voicu%NULL%1,                          Nicolas%Deye%NULL%1,                          Isabelle%Malissin%NULL%1,                          François%Legay%NULL%1,                          Matthieu%Debarre%NULL%1,                          Nicolas%Barbarot%NULL%1,                          Pierre%Fillatre%NULL%1,                          Bertrand%Delord%NULL%1,                          Thomas%Laterrade%NULL%1,                          Tahar%Saghi%NULL%1,                          Wilfried%Pujol%NULL%1,                          Pierre Julien%Cungi%NULL%1,                          Pierre%Esnault%NULL%1,                          Mickael%Cardinale%NULL%1,                          Vivien%Hong Tuan Ha%NULL%1,                          Grégory%Fleury%NULL%1,                          Marie-Ange%Brou%NULL%1,                          Daniel%Zafimahazo%NULL%1,                          David%Tran-Van%NULL%1,                          Patrick%Avargues%NULL%1,                          Lisa%Carenco%NULL%1,                          Nicolas%Robin%NULL%1,                          Alexandre%Ouali%NULL%1,                          Lucie%Houdou%NULL%1,                          Christophe%Le Terrier%NULL%1,                          Noémie%Suh%NULL%1,                          Steve%Primmaz%NULL%1,                          Jérome%Pugin%NULL%1,                          Emmanuel%Weiss%NULL%1,                          Tobias%Gauss%NULL%1,                          Jean-Denis%Moyer%NULL%1,                          Catherine%Paugam-Burtz%NULL%1,                          Béatrice%La Combe%NULL%1,                          Rolland%Smonig%NULL%1,                          Jade%Violleau%NULL%1,                          Pauline%Cailliez%NULL%1,                          Jonathan%Chelly%NULL%1,                          Antoine%Marchalot%NULL%1,                          Cécile%Saladin%NULL%1,                          Christelle%Bigot%NULL%1,                          Pierre-Marie%Fayolle%NULL%1,                          Jules%Fatséas%NULL%1,                          Amr%Ibrahim%NULL%1,                          Dabor%Resiere%NULL%1,                          Rabih%Hage%NULL%1,                          Clémentine%Cholet%NULL%1,                          Marie%Cantier%NULL%1,                          Pierre%Trouiller%NULL%1,                          Philippe%Montravers%NULL%1,                          Brice%Lortat-Jacob%NULL%1,                          Sebastien%Tanaka%NULL%1,                          Alexy%Tran-Dinh%NULL%1,                          Jacques%Duranteau%NULL%1,                          Anatole%Harrois%NULL%1,                          Guillaume%Dubreuil%NULL%1,                          Marie%Werner%NULL%1,                          Anne%Godier%NULL%1,                          Sophie%Hamada%NULL%1,                          Diane%Zlotnik%NULL%1,                          Hélène%Nougue%NULL%1,                          Armand%Mekontso-Dessap%NULL%1,                          Guillaume%Carteaux%NULL%1,                          Keyvan%Razazi%NULL%1,                          Nicolas%De Prost%NULL%1,                          Nicolas%Mongardon%NULL%1,                          Olivier%Langeron%NULL%1,                          Eric%Levesque%NULL%1,                          Arié%Attias%NULL%1,                          Charles%de Roquetaillade%NULL%1,                          Benjamin G.%Chousterman%NULL%1,                          Alexandre%Mebazaa%NULL%1,                          Etienne%Gayat%NULL%1,                          Marc%Garnier%NULL%1,                          Emmanuel%Pardo%NULL%1,                          Lea%Satre-Buisson%NULL%1,                          Christophe%Gutton%NULL%1,                          Elise%Yvin%NULL%1,                          Clémence%Marcault%NULL%1,                          Elie%Azoulay%NULL%1,                          Michael%Darmon%NULL%1,                          Nicolas%Bonnet%NULL%1,                          Nathan%Ebstein%NULL%1,                          Stéphane%Gaudry%NULL%1,                          Yves%Cohen%NULL%1,                           Hafid%Ait-Oufella%NULL%1,                          Geoffroy%Hariri%NULL%1,                          Tomas%Urbina%NULL%1,                          Sandie%Mazerand%NULL%1,                          Nicholas%Heming%NULL%1,                          Francesca%Santi%NULL%1,                          Pierre%Moine%NULL%1,                          Djillali%Annane%NULL%1,                          Adrien%Bouglé%NULL%1,                          Edris%Omar%NULL%1,                          Aymeric%Lancelot%NULL%1,                          Emmanuelle%Begot%NULL%1,                          Gaétan%Plantefeve%NULL%1,                          Damien%Contou%NULL%1,                          Hervé%Mentec%NULL%1,                          Olivier%Pajot%NULL%1,                          Stanislas%Faguer%NULL%1,                          Olivier%Cointault%NULL%1,                          Laurence%Lavayssiere%NULL%1,                          Marie-Béatrice%Nogier%NULL%1,                          Matthieu%Jamme%NULL%1,                          Claire%Pichereau%NULL%1,                          Jan%Hayon%NULL%1,                          Hervé%Outin%NULL%1,                          François%Dépret%NULL%1,                          Maxime%Coutrot%NULL%1,                          Maité%Chaussard%NULL%1,                          Lucie%Guillemet%NULL%1,                          Pierre%Goffin%NULL%1,                          Romain%Thouny%NULL%1,                          Julien%Guntz%NULL%1,                          Laurent%Jadot%NULL%1,                          Romain%Persichini%NULL%1,                          Vanessa%Jean-Michel%NULL%1,                          Hugues%Georges%NULL%1,                          Thomas%Caulier%NULL%1,                          Gaël%Pradel%NULL%1,                          Marie-Hélène%Hausermann%NULL%1,                          ThiMy Hue%Nguyen-Valat%NULL%1,                          Michel%Boudinaud%NULL%1,                          Emmanuel%Vivier%NULL%1,                          Sylvène%Rosseli%NULL%1,                          Gaël%Bourdin%NULL%1,                          Christian%Pommier%NULL%1,                          Marc%Vinclair%NULL%1,                          Simon%Poignant%NULL%1,                          Sandrine%Mons%NULL%1,                          Wulfran%Bougouin%NULL%1,                          Franklin%Bruna%NULL%1,                          Quentin%Maestraggi%NULL%1,                          Christian%Roth%NULL%1,                          Laurent%Bitker%NULL%1,                          François%Dhelft%NULL%1,                          Justine%Bonnet-Chateau%NULL%1,                          Mathilde%Filippelli%NULL%1,                          Tristan%Morichau-Beauchant%NULL%1,                          Stéphane%Thierry%NULL%1,                          Charlotte%Le Roy%NULL%1,                          Mélanie%Saint Jouan%NULL%1,                          Bruno%Goncalves%NULL%1,                          Aurélien%Mazeraud%NULL%1,                          Matthieu%Daniel%NULL%1,                          Tarek%Sharshar%NULL%1,                          Cyril%Cadoz%NULL%1,                          Rostane%Gaci%NULL%1,                          Sébastien%Gette%NULL%1,                          Guillaune%Louis%NULL%1,                          Sophe-Caroline%Sacleux%NULL%1,                          Marie-Amélie%Ordan%NULL%1,                          Aurélie%Cravoisy%NULL%1,                          Marie%Conrad%NULL%1,                          Guilhem%Courte%NULL%1,                          Sébastien%Gibot%NULL%1,                          Younès%Benzidi%NULL%1,                          Claudia%Casella%NULL%1,                          Laurent%Serpin%NULL%1,                          Jean-Lou%Setti%NULL%1,                          Marie-Catherine%Besse%NULL%1,                          Anna%Bourreau%NULL%1,                          Jérôme%Pillot%NULL%1,                          Caroline%Rivera%NULL%1,                          Camille%Vinclair%NULL%1,                          Marie-Aline%Robaux%NULL%1,                          Chloé%Achino%NULL%1,                          Marie-Charlotte%Delignette%NULL%1,                          Tessa%Mazard%NULL%1,                          Frédéric%Aubrun%NULL%1,                          Bruno%Bouchet%NULL%1,                          Aurélien%Frérou%NULL%1,                          Laura%Muller%NULL%1,                          Charlotte%Quentin%NULL%1,                          Samuel%Degoul%NULL%1,                          Xavier%Stihle%NULL%1,                          Claude%Sumian%NULL%1,                          Nicoletta%Bergero%NULL%1,                          Bernard%Lanaspre%NULL%1,                          Hervé%Quintard%NULL%1,                          Eve Marie%Maiziere%NULL%1,                          Pierre-Yves%Egreteau%NULL%1,                          Guillaume%Leloup%NULL%1,                          Florin%Berteau%NULL%1,                          Marjolaine%Cottrel%NULL%1,                          Marie%Bouteloup%NULL%1,                          Matthieu%Jeannot%NULL%1,                          Quentin%Blanc%NULL%1,                          Julien%Saison%NULL%1,                          Isabelle%Geneau%NULL%1,                          Romaric%Grenot%NULL%1,                          Abdel%Ouchike%NULL%1,                          Pascal%Hazera%NULL%1,                          Anne-Lyse%Masse%NULL%1,                          Suela%Demiri%NULL%1,                          Corinne%Vezinet%NULL%1,                          Elodie%Baron%NULL%1,                          Déborah%Benchetrit%NULL%1,                          Antoine%Monsel%NULL%1,                          Grégoire%Trebbia%NULL%1,                          Emmanuelle%Schaack%NULL%1,                          Raphaël%Lepecq%NULL%1,                          Mathieu%Bobet%NULL%1,                          Christophe%Vinsonneau%NULL%1,                          Thibault%Dekeyser%NULL%1,                          Quentin%Delforge%NULL%1,                          Imen%Rahmani%NULL%1,                          Bérengère%Vivet%NULL%1,                          Jonathan%Paillot%NULL%1,                          Lucie%Hierle%NULL%1,                          Claire%Chaignat%NULL%1,                          Sarah%Valette%NULL%1,                          Benoït%Her%NULL%1,                          Jennifier%Brunet%NULL%1,                          Mathieu%Page%NULL%1,                          Fabienne%Boiste%NULL%1,                          Anthony%Collin%NULL%1,                          Florent%Bavozet%NULL%2,                          Aude%Garin%NULL%1,                          Mohamed%Dlala%NULL%1,                          Kais%Mhamdi%NULL%1,                          Bassem%Beilouny%NULL%1,                          Alexandra%Lavalard%NULL%1,                          Severine%Perez%NULL%1,                          Benoit%Veber%NULL%1,                          Pierre-Gildas%Guitard%NULL%1,                          Philippe%Gouin%NULL%1,                          Anna%Lamacz%NULL%1,                          Fabienne%Plouvier%NULL%1,                          Bertrand P.%Delaborde%NULL%1,                          Aïssa%Kherchache%NULL%1,                          Amina%Chaalal%NULL%1,                          Jean-Damien%Ricard%NULL%1,                          Marc%Amouretti%NULL%1,                          Santiago%Freita-Ramos%NULL%1,                          Damien%Roux%NULL%1,                          Jean-Michel%Constantin%NULL%1,                          Mona%Assefi%NULL%1,                          Marine%Lecore%NULL%1,                          Agathe%Selves%NULL%1,                          Florian%Prevost%NULL%1,                          Christian%Lamer%NULL%1,                          Ruiying%Shi%NULL%1,                          Lyes%Knani%NULL%1,                          Sébastien%Pili-Floury%NULL%1,                          Lucie%Vettoretti%NULL%1,                          Michael%Levy%NULL%1,                          Lucile%Marsac%NULL%1,                          Stéphane%Dauger%NULL%1,                          Sophie%Guilmin-Crépon%NULL%1,                          Jean-Baptiste%Putegnat%NULL%1,                          Frédérique%Bayle%NULL%1,                          Maya%Perrou%NULL%1,                          Ghyslaine%Thao%NULL%1,                          Guillaume%Géri%NULL%1,                          Cyril%Charron%NULL%1,                          Xavier%Repessé%NULL%1,                          Antoine%Vieillard-Baron%NULL%1,                          Mathieu%Guilbart%NULL%1,                          Pierre-Alexandre%Roger%NULL%1,                          Sébastien%Hinard%NULL%1,                          Pierre-Yves%Macq%NULL%1,                          Kevin%Chaulier%NULL%1,                          Sylvie%Goutte%NULL%1,                          Patrick%Chillet%NULL%1,                          Anaïs%Pitta%NULL%1,                          Barbara%Darjent%NULL%1,                          Amandine%Bruneau%NULL%1,                          Sigismond%Lasocki%NULL%1,                          Maxime%Leger%NULL%1,                          Soizic%Gergaud%NULL%1,                          Pierre%Lemarie%NULL%1,                          Nicolas%Terzi%NULL%1,                          Carole%Schwebel%NULL%1,                          Anaïs%Dartevel%NULL%1,                          Louis-Marie%Galerneau%NULL%1,                          Jean-Luc%Diehl%NULL%1,                          Caroline%Hauw-Berlemont%NULL%0,                          Nicolas%Péron%NULL%1,                          Emmanuel%Guérot%NULL%1,                          Abolfazl Mohebbi%Amoli%NULL%1,                          Michel%Benhamou%NULL%1,                          Jean-Pierre%Deyme%NULL%1,                          Olivier%Andremont%NULL%1,                          Diane%Lena%NULL%1,                          Julien%Cady%NULL%1,                          Arnaud%Causeret%NULL%1,                          Arnaud%De La Chapelle%NULL%1,                          Christophe%Cracco%NULL%1,                          Stéphane%Rouleau%NULL%1,                          David%Schnell%NULL%1,                          Cécile%Lory%NULL%1,                          Thibault%Chapelle%NULL%1,                          Vincent%Bruckert%NULL%1,                          Julie%Garcia%NULL%1,                          Abdlazize%Sahraoui%NULL%1,                          Nathalie%Abbosh%NULL%1,                          Caroline%Bornstain%NULL%1,                          Pierre%Pernet%NULL%1,                          Florent%Poirson%NULL%1,                          Ahmed%Pasem%NULL%1,                          Philippe%Karoubi%NULL%1,                          Virginie%Poupinel%NULL%1,                          Caroline%Gauthier%NULL%1,                          François%Bouniol%NULL%1,                          Philippe%Feuchere%NULL%1,                          Florent%Bavozet%NULL%0,                          Anne%Heron%NULL%1,                          Serge%Carreira%NULL%1,                          Malo%Emery%NULL%1,                          Anne%Le Floch%NULL%1,                          Luana%Giovannangeli%NULL%1,                          Nicolas%Herzog%NULL%1,                          Christophe%Giacardi%NULL%1,                          Thibaut%Baudic%NULL%1,                          Chloé%Thill%NULL%1,                          Florence%Tubach%NULL%1,                          Olivier%Lesieur%NULL%1,                          Julie%Noublanche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso C.%Hernandez-Romieu%NULL%1,                          Max W.%Adelman%NULL%2,                          Maxwell A.%Hockstein%NULL%1,                          Chad J.%Robichaux%NULL%1,                          Johnathan A.%Edwards%NULL%1,                          Jane C.%Fazio%NULL%1,                          James M.%Blum%NULL%3,                          Craig S.%Jabaley%NULL%2,                          Mark%Caridi-Scheible%NULL%2,                          Greg S.%Martin%NULL%2,                          David J.%Murphy%NULL%3,                          Sara C.%Auld%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                        Antonelli%M.%coreGivesNoEmail%0,                        Bellani%G.%coreGivesNoEmail%0,                        Bonanomi%E.%coreGivesNoEmail%0,                        Cabrini%L.%coreGivesNoEmail%0,                        Carlesso%E.%coreGivesNoEmail%0,                        Castelli%G.%coreGivesNoEmail%0,                        Cattaneo%S.%coreGivesNoEmail%0,                        Cecconi%M.%coreGivesNoEmail%0,                        Cereda%D.%coreGivesNoEmail%0,                        Colombo%S.%coreGivesNoEmail%0,                        Coluccello%A.%coreGivesNoEmail%0,                        Crescini%G.%coreGivesNoEmail%0,                        Forastieri%Molinari A.%coreGivesNoEmail%0,                        Foti%G.%coreGivesNoEmail%0,                        Fumagalli%R.%coreGivesNoEmail%0,                        Grasselli%G.%coreGivesNoEmail%0,                        Greco%M.%coreGivesNoEmail%0,                        Iotti%G. A.%coreGivesNoEmail%0,                        Langer%T.%coreGivesNoEmail%0,                        Latronico%N.%coreGivesNoEmail%0,                        Lorini%F. L.%coreGivesNoEmail%0,                        Mojoli%F.%coreGivesNoEmail%0,                        Natalini%G.%coreGivesNoEmail%0,                        Pesenti%A.%coreGivesNoEmail%0,                        Pessina%C. M.%coreGivesNoEmail%0,                        Ranieri%V. M.%coreGivesNoEmail%0,                        Rech%R.%coreGivesNoEmail%0,                        Rosano%A.%coreGivesNoEmail%0,                        Scudeller%L.%coreGivesNoEmail%0,                        Storti%E.%coreGivesNoEmail%0,                        Thompson%B. T.%coreGivesNoEmail%0,                        Tirani%M.%coreGivesNoEmail%0,                        Villani%P. G.%coreGivesNoEmail%0,                        Zanella%A.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yong Hoon%Lee%NULL%1,                          Keum-Ju%Choi%NULL%1,                          Sun Ha%Choi%NULL%1,                          Shin Yup%Lee%NULL%1,                          Kyung Chan%Kim%NULL%1,                          Eun Jin%Kim%NULL%1,                          Jaehee%Lee%NULL%2,                          Jaehee%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Atul%Matta%NULL%1,                          Siddique%Chaudhary%NULL%1,                          Kevin%Bryan Lo%NULL%2,                          Kevin%Bryan Lo%NULL%0,                          Robert%DeJoy%NULL%1,                          Fahad%Gul%NULL%1,                          Ricardo%Torres%NULL%1,                          Neal%Chaisson%NULL%2,                          Neal%Chaisson%NULL%0,                          Gabriel%Patarroyo-Aponte%NULL%2,                          Gabriel%Patarroyo-Aponte%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ricard%Mellado-Artigas%rmartigas@gmail.com%1,                          Bruno L.%Ferreyro%NULL%2,                          Bruno L.%Ferreyro%NULL%0,                          Federico%Angriman%NULL%1,                          María%Hernández-Sanz%NULL%2,                          Egoitz%Arruti%NULL%1,                          Antoni%Torres%NULL%2,                          Jesús%Villar%NULL%1,                          Laurent%Brochard%NULL%1,                          Carlos%Ferrando%NULL%2,                          Ricard%Mellado-Artigas%NULL%1,                          María%Hernández-Sanz%NULL%0,                          Carlos%Ferrando%NULL%0,                          Marina%Vendrell%NULL%1,                          Gerard%Sánchez-Etayo%NULL%1,                          Amalia%Alcón%NULL%1,                          Isabel%Belda%NULL%1,                          Mercé%Agustí%NULL%1,                          Albert%Carramiñana%NULL%1,                          Isabel%Gracia%NULL%1,                          Miriam%Panzeri%NULL%1,                          Irene%León%NULL%1,                          Jaume%Balust%NULL%1,                          Ricard%Navarro%NULL%2,                          María José%Arguís%NULL%1,                          María José%Carretero%NULL%1,                          Cristina%Ibáñez%NULL%1,                          Juan%Perdomo%NULL%1,                          Antonio%López%NULL%1,                          Manuel%López-Baamonde%NULL%1,                          Tomás%Cuñat%NULL%1,                          Marta%Ubré%NULL%1,                          Antonio%Ojeda%NULL%1,                          Andrea%Calvo%NULL%1,                          Eva%Rivas%NULL%1,                          Paola%Hurtado%NULL%1,                          Roger%Pujol%NULL%1,                          Nuria%Martín%NULL%1,                          Javier%Tercero%NULL%1,                          Pepe%Sanahuja%NULL%1,                          Marta%Magaldi%NULL%1,                          Miquel%Coca%NULL%1,                          Elena%del Rio%NULL%1,                          Julia%Martínez-Ocon%NULL%1,                          Paula%Masgoret%NULL%1,                          Monserrat%Tio%NULL%1,                          Angel%Caballero%NULL%1,                          Raquel%Risco%NULL%1,                          Raquel%Bergé%NULL%1,                          Lidia%Gómez%NULL%1,                          Nicolás%de Riva%NULL%1,                          Ana%Ruiz%NULL%1,                          Beatriz%Tena%NULL%1,                          Sebastián%Jaramillo%NULL%1,                          José María%Balibrea%NULL%1,                          Francisco Borja de Borja%de Lacy%NULL%1,                          Ana%Otero%NULL%1,                          Ainitze%Ibarzabal%NULL%1,                          Raquel%Bravo%NULL%1,                          Anna%Carreras%NULL%1,                          Daniel%Martín-Barreda%NULL%1,                          Alfonso Jesús%Alias%NULL%1,                          Mariano%Balaguer%NULL%1,                          Jorge%Aliaga%NULL%1,                          Alex%Almuedo%NULL%1,                          Joan Ramón%Alonso%NULL%1,                          Rut%Andrea%NULL%1,                          Gerard Sergi%Angelès%NULL%1,                           Marilyn%Arias%NULL%1,                          Fátima%Aziz%NULL%1,                          Joan Ramon%Badía%NULL%1,                          Enric%Barbeta%NULL%1,                          Toni%Torres%NULL%1,                          Guillem%Batiste%NULL%1,                          Pau%Benet%NULL%1,                          Xavi%Borrat%NULL%1,                          María%Borrell%NULL%1,                          Ernest%Bragulat%NULL%1,                          Inmaculada%Carmona%NULL%1,                          Manuel%Castellà%NULL%1,                          Pedro%Castro%NULL%1,                          Joan%Ceravalls%NULL%1,                          Oscar%Comino%NULL%1,                          Claudia%Cucciniello%NULL%1,                          Clàudia%De Deray%NULL%1,                          Oriol%De Diego%NULL%1,                          Paula%De la Matta%NULL%1,                          Marta%Farrero%NULL%1,                          Javier%Fernández%NULL%1,                          Sara%Fernández%NULL%1,                          Anna%Fernández%NULL%1,                          Miquel%Ferrer%NULL%1,                          Ana%Fervienza%NULL%1,                          María%Tallo Forga%NULL%1,                          Daniel%Forné%NULL%1,                          Clàudia%Galán%NULL%1,                          Andrea%Gómez%NULL%1,                          Eduard%Guasch%NULL%1,                          María%Hernández-Tejero%NULL%1,                          Adriana%Jacas%NULL%1,                          Beltrán%Jiménez%NULL%1,                          Pere%Leyes%NULL%1,                          Teresa%López%NULL%1,                          José Antonio%Martínez%NULL%1,                          Graciela%Martínez-Pallí%NULL%1,                          Jordi%Mercadal%NULL%1,                          Guido%Muñoz%NULL%1,                          José%Muñoz%NULL%1,                          Ricard%Navarro%NULL%0,                          Josep María%Nicolás%NULL%1,                          José Tomás%Ortiz%NULL%1,                          Anna%Peiró%NULL%1,                          Manuel%Pérez%NULL%1,                          Esteban%Poch%NULL%1,                          Margarida%Pujol%NULL%1,                          Eduard%Quintana%NULL%1,                          Bartomeu%Ramis%NULL%1,                          Enric%Reverter%NULL%1,                          Irene%Rovira%NULL%1,                          Pablo%Ruiz%NULL%1,                          Elena%Sandoval%NULL%1,                          Stefan%Schneider%NULL%1,                          Oriol%Sibila%NULL%1,                          Carla%Solé%NULL%1,                          Alex%Soriano%NULL%1,                          Dolors%Soy%NULL%1,                          M.%Suárez%NULL%1,                          Adrián%Téllez%NULL%1,                          Néstor David%Toapanta%NULL%1,                          Antoni%Torres%NULL%0,                          Xavier%Urra%NULL%1,                          César%Aldecoa%NULL%1,                          Alicia%Bordell%NULL%1,                          Silvia%Martín%NULL%1,                          Judith%Andrés%NULL%1,                          Alberto Martínez%Ruiz%NULL%1,                          Gonzalo Tamayo%Medel%NULL%1,                          Iñaki Bilbao Bilbao%Villasante%NULL%1,                          Fernando Iturri%Clavero%NULL%1,                          Covadonga Peralta%Álvarez%NULL%1,                          Julia T.%Herrera Díez%NULL%1,                          Andrea García%Trancho%NULL%1,                          Iñaki Sainz %Mandiola%NULL%1,                          Carmen Ruano%Suarez%NULL%1,                          Angela Ruiz%Bocos%NULL%1,                          Eneritz Urrutia%Izagirre%NULL%1,                          Pablo Ortiz%de Urbina Fernández%NULL%1,                          Naiara Apodaka%López%NULL%1,                          Leire Prieto%Molano%NULL%1,                          Eunate Ganuza%Martínez%NULL%1,                          Iratxe Vallinas%Hidalgo%NULL%1,                          Karmele%de Orte Sancho%NULL%1,                          Celia González%Paniagua%NULL%1,                          Gemma Ortiz%Labrador%NULL%1,                          Mireia Pérez%Larrañaga%NULL%1,                          Marta López%Miguelez%NULL%1,                          Estíbaliz Bárcena%Andrés%NULL%1,                          Erik Urutxurtu%Laureano%NULL%1,                          Maria Jesús Maroño%Boedo%NULL%1,                          Blanca Escontrela%Rodríguez%NULL%1,                          Aitziber Ereñozaga%Camiruaga%NULL%1,                          Deiene Lasuen%Aguirre%NULL%1,                          Ainhoa Zabal%Maeztu%NULL%1,                          Ane Guereca%Gala%NULL%1,                          Iker Castelo%Korro%NULL%1,                          Andrés Álvarez%Campo%NULL%1,                          Alejandro Carcelen%Viana%NULL%1,                          Alejandro Alberdi%Enríquez%NULL%1,                          Xabier Ormazábal%Rementeria%NULL%1,                          Alberto Sánchez%Campos%NULL%1,                          Rosa Gutiérrez%Rico%NULL%1,                          Pablo Barbier%Damborenea%NULL%1,                          Marta Guerenabarrena%Momeñe%NULL%1,                          Borja Cuesta%Ruiz%NULL%1,                          Alejandro López%Rico%NULL%1,                          Ana Rojo%Polo%NULL%1,                          Covadonga García%Grijelmo%NULL%1,                          Mikel Celorrio%Reta%NULL%1,                          Eneko Martín%Arroyo%NULL%1,                          Leire Artaza%Aparicio%NULL%1,                          Iñaki Ituarte%Aspiazu%NULL%1,                          Ane Igeregi%Basabe%NULL%1,                          Itxaso Merino%Julian%NULL%1,                          Isabel Diaz%Rico%NULL%1,                          Maria Paz%Martínez%NULL%1,                          Ramón%Adalia Bartolomé%NULL%1,                          Luigi%Zattera%NULL%1,                          Irina Adalid%Hernandez%NULL%1,                          Leire Larrañaga%Altuna%NULL%1,                          Aina Serrallonga%Castells%NULL%1,                          Adriana Vílchez%Garcia%NULL%1,                          María%Núñez%NULL%1,                          Lorena%Román%NULL%1,                          Isabel Ramos%Delgado%NULL%1,                          Adela Benítez-Cano%Martínez%NULL%1,                          Mireia Chanzá%Albert%NULL%1,                          Juan Carlos Álvarez%García%NULL%1,                          Luis Aguilera%Cuchillo%NULL%1,                          Sandra Beltrán%de Heredia%NULL%1,                          Jesús Carazo%Cordobés%NULL%1,                          Carlos Alberto García%Bernedo%NULL%1,                          Fernando Escolano%Villén%NULL%1,                          Francisco Javier Redondo%Calvo%NULL%1,                          Rubén Villazala%González%NULL%1,                          Victor Baladron%González%NULL%1,                          Patricia%Faba%NULL%1,                          Omar%Montenegro%NULL%1,                          Natalia Bejarano%Ramírez%NULL%1,                          Sergio Marcos%Contreras%NULL%1,                          Alejandro Garcia%Rodríguez%NULL%1,                          Saleta Rey%Vázquez%NULL%1,                          Cristina Garcia%Pérez%NULL%1,                          Eva Higuera%Miguelez%NULL%1,                          Irene Pérez%Blanco%NULL%1,                          David García%Rivera%NULL%1,                          Ane Martín%de la Fuente%NULL%1,                          Marta%Pardo%NULL%1,                          Vanessa%Rodriguez%NULL%1,                          Unai%Bengoetxea%NULL%1,                          Fernando%Ramasco%NULL%1,                          Sheila Olga Santidrián%Bernal%NULL%1,                          Alvar Santa Cruz%Hernando%NULL%1,                          Antonio Planas%Roca%NULL%1,                          Carlos Figueroa%Yusta%NULL%1,                          Esther García%Villabona%NULL%1,                          Carmen Vallejo%Lantero%NULL%1,                          Eva Patiño%Rodriguez%NULL%1,                          Alvaro Esquivel%Toledo%NULL%1,                          David Arribas%Méndez%NULL%1,                          Mar Orts%Rodriguez%NULL%1,                          Rosa Méndez%Hernández%NULL%1,                          Jesús Nieves%Alonso%NULL%1,                          Inés Imaz%Artazcoz%NULL%1,                          Sonia Expósito%Carazo%NULL%1,                          Carlos Román%Guerrero%NULL%1,                          Elena Rojo%Rodríguez%NULL%1,                          Ricardo Moreno%González%NULL%1,                          Julia Hernando%Santos%NULL%1,                          Jara Torrente%Pérez%NULL%1,                          Esperanza Mata%Mena%NULL%1,                          Manuel José Muñoz%Martínez%NULL%1,                          Enrique Alday%Muñoz%NULL%1,                          Patricia Martin%Serrano%NULL%1,                          Laura Cotter%Muñoz%NULL%1,                          Amadea%Mjertan%NULL%1,                          Diego Gutierrez%Martínez%NULL%1,                          Carmen Rodríguez%García%NULL%1,                          Olaya Alonso%Viejo%NULL%1,                          Juan Alvarez%Pereira%NULL%1,                          Ana Carmona%Bonet%NULL%1,                          Diana Parrado%López%NULL%1,                          Eva%de Dios Tomas%NULL%1,                          Rafael Martín%Celemin%NULL%1,                          María Luisa Meilan%Paz%NULL%1,                          Luis Quecedo%Gutiérrez%NULL%1,                          Noemí Diaz%Velasco%NULL%1,                          Gabriel Martin%Hernández%NULL%1,                          Francisco Garcia%del Corral%NULL%1,                          Gloria Hernandez%Arias%NULL%1,                          David Rodriguez%Cuesta%NULL%1,                          Ana Gómez%Rice%NULL%1,                          Encarna Mateos%Sevillano%NULL%1,                          Natalia Olmos%Molpeceres%NULL%1,                          Beatriz%Domínguez%NULL%1,                          Ana Vázquez%Lima%NULL%1,                          Ángel%Candela%NULL%1,                          Ismael A. Acevedo%Bambaren%NULL%1,                          Maria Isabel Albala%Blanco%NULL%1,                          Paloma Alonso%Montoiro%NULL%1,                          Fernando Álvarez%Utrera%NULL%1,                          Juan Avellanosa%Esteruelas%NULL%1,                          Amal Azzam%López%NULL%1,                          Alberto José%Balvis%NULL%1,                          Balvis Tommaso%Bardi%NULL%1,                          María Beltrán%Martín%NULL%1,                          Jacobo Benatar%Haserfaty%NULL%1,                          Alberto Berruezo%Camacho%NULL%1,                          Laura Betolaza%Weimer%NULL%1,                          María%del Mar Carbonell Soto%NULL%1,                          Cristina Carrasco%Seral%NULL%1,                          Cristina Cerro %Zaballos%NULL%1,                          Elizabeth Claros%Llamas%NULL%1,                          Pilar Coleta%Orduna%NULL%1,                          Ingrid P. Cortes%Forero%NULL%1,                          Pascual Agustín Crespo%Aliseda%NULL%1,                          María Angélica%de Pablo Pajares%NULL%1,                          Yolanda Díez%Remesal%NULL%1,                          Trinidad Dorado%Díaz%NULL%1,                          Noemí Echevarría%Blasco%NULL%1,                          María Elena Elías%Martín%NULL%1,                          Javier Felices%Triviño%NULL%1,                          Natalia Fernández%López%NULL%1,                          Cristina Fernández%Martín%NULL%1,                          Natalia Ferreiro%Pozuelo%NULL%1,                          Luis Gajate%Martín%NULL%1,                          Clara Gallego%Santos%NULL%1,                          Diego Gil%Mayo%NULL%1,                          María Gómez%Rojo%NULL%1,                          Claudia González%Cibrián%NULL%1,                          Elena Herrera%López%NULL%1,                          Borja Hinojal%Olmedillo%NULL%1,                          Berta Iglesias%Gallego%NULL%1,                          Sassan%Khonsari%NULL%1,                          María Nuria Mane%Ruiz%NULL%1,                          María Manzanero%Arroyo%NULL%1,                          Ana María Mariscal%Ortega%NULL%1,                          Sara Martín%Burcio%NULL%1,                          María%del Carmen Martín González%NULL%1,                          Ascensión Martín%Grande%NULL%1,                          Jose Juan Martín%López%NULL%1,                          Cecilia Martín%Rabes%NULL%1,                          Marcos Martínez%Borja%NULL%1,                          Nilda Martínez%Castro%NULL%1,                          Adolfo Martínez%Pérez%NULL%1,                          Snejana%Matcan%NULL%1,                          Cristina Medrano%Viñas%NULL%1,                          Lisset Miguel%Herrera%NULL%1,                          Adrián Mira%Betancur%NULL%1,                          María Montiel%Carbajo%NULL%1,                          Javier Moya%Moradas%NULL%1,                          Lorena Muñoz%Pérez%NULL%1,                          Mónica Nuñez%Murias%NULL%1,                          Eva Ordiales%González%NULL%1,                          Óscar Ordoñez%Recio%NULL%1,                          Miguel Ángel Palomero%Rodriguez%NULL%1,                          Diego Parise%Roux%NULL%1,                          Lucia Pereira%Torres%NULL%1,                          David Pestaña%Lagunas%NULL%1,                          Juana María Pinto%Corraliza%NULL%1,                          Marian Prieto%Rodrigo%NULL%1,                          Inmaculada Rodriguez%Diaz-Regaño%NULL%1,                          David Rodriguez%Esteban%NULL%1,                          Víctor Rojas%Pernia%NULL%1,                          Álvaro Ruigómez%Saiz%NULL%1,                          Bárbara Saavedra%Villarino%NULL%1,                          Noemí Samaranch%Palero%NULL%1,                          Gloria Santos%Pérez%NULL%1,                          Jaume Serna%Pérez%NULL%1,                          Ana Belén Serrano%Romero%NULL%1,                          Jesús Tercero%López%NULL%1,                          Carlos Tiscar%García%NULL%1,                          Marta%de la Torre Concostrina%NULL%1,                          Eva María Ureta%Mesa%NULL%1,                          Eva Velasco%Olarte%NULL%1,                          Judith Villahoz%Martínez%NULL%1,                          Raúl Villalaba%Palacios%NULL%1,                          Gema Villanueva%García%NULL%1,                          Cristina Vogel%de Medeiros%NULL%1,                          Soraya Gholamian%Ovejero%NULL%1,                          Marta Vicente%Orgaz%NULL%1,                          Patricia Lloreda%Herradon%NULL%1,                          Cristina Crespo%Gómez%NULL%1,                          Tatiana%Sarmiento-Trujillo%NULL%1,                          Noemí García%Medina%NULL%1,                          María Martínez%García%NULL%1,                          Carles Espinós%Ramírez%NULL%1,                          Nabil Mouhaffel%Rivero%NULL%1,                          Jose Antonio Bernia%Gil%NULL%1,                          Sonsoles%Martín%NULL%1,                          María Victoria%Moral%NULL%1,                          Josefina%Galán%NULL%1,                          Pilar%Paniagua%NULL%1,                          Sergio%Pérez%NULL%1,                          Albert%Bainac%NULL%1,                          Ana%Arias%NULL%1,                          Elsa%Ramil%NULL%1,                          Jorge%Escudero%NULL%1,                          Pablo%Monedero%NULL%1,                          Carmen%Cara%NULL%1,                          Andrea%Lara%NULL%1,                          Elena Mendez%Martínez%NULL%1,                          Jorge%Mendoza%NULL%1,                          Íñigo Rubio%Baines%NULL%1,                          Carmen Sala%Trull%NULL%1,                          Pablo Montero%López%NULL%1,                          Alfredo%Gea%NULL%1,                          Alejandro%Montero%NULL%1,                          Rocío Armero%Ibañez%NULL%1,                          Juan Vicente Llau%Pitarch%NULL%1,                          Fernando Rauer%Alcóver%NULL%1,                          Cristina Álvarez%Herreros%NULL%1,                          Cyntia Sánchez%Martín%NULL%1,                          Lucía López Ocáriz%Olmos%NULL%1,                          Marta Navas%Moruno%NULL%1,                          Fernando García%Montoto%NULL%1,                          M. F. Mirón%Rodriguez%NULL%1,                          Laura Fuentes%Coco%NULL%1,                          Cristina Hernández%Gamito%NULL%1,                          Antonio Barba%Orejudo%NULL%1,                          Luis Gerardo Smith%Vielma%NULL%1,                          Yasmina González Marín Francisco%de Borja Amador Penco%NULL%1,                          Marta Donoso%Domínguez%NULL%1,                          Silvia Esquivel%Ramírez%NULL%1,                          José Antonio%Carbonell%NULL%1,                          Berta Monleón%López%NULL%1,                          Sara%Martínez-Castro%NULL%1,                          Gerardo%Aguilar%NULL%1,                          María Gestal Pablo%Casas%NULL%1,                          Angel Outeiro%Rosato%NULL%1,                          Andrea Naveiro%Pan%NULL%1,                          María Alonso%Portela%NULL%1,                          Adrián García%Romar%NULL%1,                          Eva Mosquera%Rodríguez%NULL%1,                          Diego Ruanova%Seijo%NULL%1,                          Pablo Rama%Maceiras%NULL%1,                          Francisco%Castro-Ceoane%NULL%1,                          Esther Moreno%López%NULL%1,                          Sergio%Gil%NULL%1,                          Julia Guillén%Antón%NULL%1,                          Patricia García-Consuegra%Tirado%NULL%1,                          Aurora Callau%Calvo%NULL%1,                          Laura Forés%Lisbona%NULL%1,                          María Carbonell%Romero%NULL%1,                          Belén Albericio%Gil%NULL%1,                          Laura Pradal%Jarne%NULL%1,                          María Soria%Lozano%NULL%1,                          Diego Loscos%López%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Aloknath%Pandya%NULL%1,                          Navjot Ariyana%Kaur%NULL%1,                          Daniel%Sacher%NULL%1,                          Oisin%O’Corragain%NULL%1,                          Daniel%Salerno%NULL%1,                          Parag%Desai%NULL%1,                          Sameep%Sehgal%NULL%1,                          Matthew%Gordon%NULL%2,                          Rohit%Gupta%NULL%2,                          Nathaniel%Marchetti%NULL%1,                          Huaqing%Zhao%NULL%2,                          Nicole%Patlakh%NULL%2,                          Gerard J.%Criner%NULL%1,                          Temple%University%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%2,                          Dominik%Jarczak%NULL%1,                          Liina%Thasler%NULL%1,                          Martin%Bachmann%NULL%1,                          Frank%Schulte%NULL%1,                          Berthold%Bein%NULL%1,                          Christian Friedrich%Weber%NULL%1,                          Ulrich%Schäfer%NULL%1,                          Carsten%Veit%NULL%1,                          Hans-Peter%Hauber%NULL%1,                          Sebastian%Kopp%NULL%1,                          Karsten%Sydow%NULL%1,                          Andreas%de Weerth%NULL%0,                          Marc%Bota%NULL%1,                          Rüdiger%Schreiber%NULL%1,                          Oliver%Detsch%NULL%1,                          Jan-Peer%Rogmann%NULL%1,                          Daniel%Frings%NULL%0,                          Barbara%Sensen%NULL%1,                          Christoph%Burdelski%NULL%0,                          Olaf%Boenisch%NULL%1,                          Axel%Nierhaus%NULL%0,                          Geraldine%de Heer%NULL%0,                          Stefan%Kluge%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1789,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1749,7 +1821,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1781,7 +1853,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1813,7 +1885,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1845,7 +1917,7 @@
         <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1877,7 +1949,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1909,7 +1981,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1941,7 +2013,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -1973,7 +2045,7 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -2005,7 +2077,7 @@
         <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -2037,7 +2109,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -2069,7 +2141,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
